--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="662">
   <si>
     <t>Date</t>
   </si>
@@ -67,7 +67,7 @@
     <t>HDLO+6gqDKL6E1jY/yWe9Hplo2WEmku01/xcGjkY9NVTEr68XT2ZpqZF91a1D9JbnKkJg1UuljvPQDEfKRYAitM=</t>
   </si>
   <si>
-    <t>certificate_Петро_Петрович_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1NIP-hUzOdK687sr_-NrbAOJYvlB-VJva/view</t>
   </si>
   <si>
     <t>10.05.2016</t>
@@ -88,7 +88,7 @@
     <t>HL/S5ow1QPozfKwI1cDRfp+h8sLtxXuxGlTDhhX9Rk8OYiSML1LOd3RwysGcf0ZTK3oLyrYpOiW7SgN6uB2ZYGE=</t>
   </si>
   <si>
-    <t>certificate_Nikita_Magda_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1F5yp9xvcd06Fh2nyypzqmfayeNW83BLQ/view</t>
   </si>
   <si>
     <t>Нестеров Максим</t>
@@ -103,7 +103,7 @@
     <t>HLC5z4t8xC2YGKI5mLBpvDsQ3DOM3PbbILeTlOKwjBm4K0esTGfEknzQuCJ2yEB6ovYnuMtL+MmBHQck4r/Og7Q=</t>
   </si>
   <si>
-    <t>certificate_Нестеров_Максим_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1NGhSv13MDtbBCPSQwz6m8ztAZWlHgtxs/view</t>
   </si>
   <si>
     <t>Alexey Shendrick</t>
@@ -118,7 +118,7 @@
     <t>G68tQOmxtEYSkwR0sAY0ML8dBFo2Wi5mIbiy/fK07in9KXs9kunnFY/GlAbA/kda8OlqjC0Lk97BBUjUuPnTpHk=</t>
   </si>
   <si>
-    <t>certificate_Alexey_Shendrick_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1xPM2g224BtkOQ1Nx4-YsqntUthOJ1Huu/view</t>
   </si>
   <si>
     <t>Anastasia Sapozhkova</t>
@@ -133,7 +133,7 @@
     <t>HK6wLdEeplEYXJCkmuaJlVdEHn86MGUCs4DDpbEd93LNV2ZF6etTLCUq6k5abJlgfDVKnjx9yOW4QN5HVbwJDj4=</t>
   </si>
   <si>
-    <t>certificate_Anastasia_Sapozhkova_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1PuvaE-mDyRPmV3yXCj4rgzc_WSlO9Y0F/view</t>
   </si>
   <si>
     <t>Den Galkin</t>
@@ -148,7 +148,7 @@
     <t>GzNRug/B6l+rL3to9AZ/VXpmusTsWvucAR9DOc2FTvxrM93KfyaXy/tA1JNI2m3n6U6h0HTVd5LDJ42ktB0U0wI=</t>
   </si>
   <si>
-    <t>certificate_Den_Galkin_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1ZlwGSZlDffX3T6gyLAKlwRbfmy76qvO4/view</t>
   </si>
   <si>
     <t>Daniyil Yakovlev</t>
@@ -163,7 +163,7 @@
     <t>G/OqvWSw7yJjGNtQrDOgmqM+KDGFPtg2ik0kjJI3j4VcUnwk8Er+CGUs7gv6f0fzp9aYI8HWFOe1JYwKeX4iB9o=</t>
   </si>
   <si>
-    <t>certificate_Daniyil_Yakovlev_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1CX7yKhFFJESfkrB2rrNdzpYtWpB0kltD/view</t>
   </si>
   <si>
     <t>Алексей Демидов</t>
@@ -178,7 +178,7 @@
     <t>HFwp//oNPDU4M9oHCqEUpLHoBO+T79UoW0yCBU00B7CAaH3b/yUVFO8KZd020njZS2MqV8d4gU92CV7PwMy3l6Q=</t>
   </si>
   <si>
-    <t>certificate_Алексей_Демидов_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1TrseCsDonCJM5ByZH6AYc6hFQMJO8RzK/view</t>
   </si>
   <si>
     <t>Анатолий Дедов</t>
@@ -193,7 +193,7 @@
     <t>G1pZdlCrJdkeNY36bRW+19+z8QM+FB5hoRGkvwdbEQkzYjL8dY0VCVAEzrHmA0RjSxDq8sPPcBb0z7gDyiSNUMQ=</t>
   </si>
   <si>
-    <t>certificate_Анатолий_Дедов_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1ETsgJL_wSHAJYaVOMJ66ceO-PhS_0dJc/view</t>
   </si>
   <si>
     <t>Денис Руденко</t>
@@ -208,7 +208,7 @@
     <t>HOuQkxXy/PqMOZJFmEUoMQk95GdnTEdDxzlbCmyKlOZmDvKXPg/DKRRZ4kEEvI30D+swVXxp4x8eKy1TYChtps8=</t>
   </si>
   <si>
-    <t>certificate_Денис_Руденко_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/11euEe_QfLkLGeofABp4JMNUzl6Ka0m_s/view</t>
   </si>
   <si>
     <t>Illia Fariatiev</t>
@@ -223,7 +223,7 @@
     <t>G1RRBhBcOU6M8nvMrq1O5P7aq2wiUecvqkXw/SoQk+GOLYc0oML5nQiOMrDAiM90Q67nNRLBMjlL8RfqtQngLZ8=</t>
   </si>
   <si>
-    <t>certificate_Illia_Fariatiev_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1ZT5FFBG33BeM8R0Z4z5mCszVi3u1xwKC/view</t>
   </si>
   <si>
     <t>Костюк Александр</t>
@@ -238,7 +238,7 @@
     <t>G6l/nUfobqeYO+SaS/PyhLMSJWjouG2QrzL8m9JyLZPmdXpYmDUXWPL30/Vaz60KIPhLXWqj6JP2YoqtYXmpn9k=</t>
   </si>
   <si>
-    <t>certificate_Костюк_Александр_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1v--jgEX3TUrEHx2jUFNHVwWGgVvkjBOI/view</t>
   </si>
   <si>
     <t>Марина Боровая</t>
@@ -253,7 +253,7 @@
     <t>G3CfLZYX4HzXNNASC36O1805sLJKVdL2UWzcwOt1+J+mZwe+2/x49eTPU3e2hdytEDtjniiqAqXtnUEL+7EEyVM=</t>
   </si>
   <si>
-    <t>certificate_Марина_Боровая_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/123vvGb-L-2OL46dMID8eLhGmy9Fu2L4n/view</t>
   </si>
   <si>
     <t>Мордвинов Роман Игоревич</t>
@@ -268,7 +268,7 @@
     <t>G3+B366TAXptnN3HvQySms9KyzVyfDsYIXw3O8Lw3Q6DdbZU0hTkIcnc0CTYsgjyxaTjGqf+1uDrdEWWYpXgpc4=</t>
   </si>
   <si>
-    <t>certificate_Мордвинов_Роман_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1kBEQXPEfiNu95-c8tcN8ISSUI2yynUwD/view</t>
   </si>
   <si>
     <t>Сергей Романько</t>
@@ -283,7 +283,7 @@
     <t>G4Jpj2CKvbUWopbxx+r1S4P4a00i1vVFiWxaDaid3qXMd+O3iUkAcnZLIXUHDkeeObPXvwnDyWfVdP81UEiVhN8=</t>
   </si>
   <si>
-    <t>certificate_Сергей_Романько_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1OUXMxR-gnY9VPJcschk5LEBNEpnXQN67/view</t>
   </si>
   <si>
     <t>Синельников Александр</t>
@@ -298,7 +298,7 @@
     <t>G5UswIvpVEAXG7zWhMchCB6uvXSRacPk9rNvBDGtXpCjMRkXkOvyNsz3nz5I+OHrYByOypWdRVomNhRH7wBxt98=</t>
   </si>
   <si>
-    <t>certificate_Синельников_Александр_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1ThzYFALLWsSe0fZRdMlGIBXJiXOPUcNq/view</t>
   </si>
   <si>
     <t>Скрипник Александр</t>
@@ -313,7 +313,7 @@
     <t>G4JMoj4xVjoSztKT0vJkm89W+TB3IA5K/94xv0+kLibqblxl3tfwpnqbdoeMFikP+MhqLYT3ik6COvUNbPj0iVk=</t>
   </si>
   <si>
-    <t>certificate_Скрипник_Александр_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/151C02okkrodek9XkNHwwL64-Lzsb2A4K/view</t>
   </si>
   <si>
     <t>Солонский Александр</t>
@@ -328,7 +328,7 @@
     <t>HJl2ppwA2A8OAdeoTUQgSeFpehYnbukxEkKsCk8a9B4cA67t4VuZQFywBceNl4+PyteA/KbcDlSe0tpcE0uy6KE=</t>
   </si>
   <si>
-    <t>certificate_Солонский_Александр_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1o8xLi-IHx4gfV0gb_0BtDtoGh7LtzNBR/view</t>
   </si>
   <si>
     <t>31.10.2016</t>
@@ -346,7 +346,7 @@
     <t>HNTazPdprjLP4Yf9ZgRIBFtjR6r25k2krvvvcDmOBhT6JfM8SxjU+De2Q5fzGm4VHpNMegOp06EnNohbpzpEMI4=</t>
   </si>
   <si>
-    <t>certificate_Anton_Zaporozhchenko_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/171HoquIjru4R_MMpzEry4G84W93iYfu0/view</t>
   </si>
   <si>
     <t>Oleksiy Ponomorev</t>
@@ -361,7 +361,7 @@
     <t>HJvFHdX5AJ/12PGL/ZqPsFvR5l1juzABjhdh9F/yKmyGNvsaHRsfmbR3HN3J1aLMHgGgTWiTuTKqMogk34LhS8g=</t>
   </si>
   <si>
-    <t>certificate_Oleksiy_Ponomorev_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1B4ym0awuGNI8pvWsBnktfyfbH-2WMDOs/view</t>
   </si>
   <si>
     <t>Pavel Brilliant</t>
@@ -376,7 +376,7 @@
     <t>G0QqHpt8SIjtEhZqu8ZwIdhaXdZLvLGNQMQTrINPsoNmdYf0Yp9854j+mcSOrLJh/dpq6aGZergC2+OcIJmIy5I=</t>
   </si>
   <si>
-    <t>certificate_Pavel_Brilliant_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1mQHe9fr1pAB162Y6DKpuoDRu20USBuia/view</t>
   </si>
   <si>
     <t>Volodymyr Kavetskyy</t>
@@ -391,7 +391,7 @@
     <t>HNthdNWPwGmVn+cxNWfoRfScs/fEnlCP9frX7t9Nc9waZeEkM3q1HPejLpswg7Zgr9y6nAgNqt4tQ5FnVGqczlc=</t>
   </si>
   <si>
-    <t>certificate_Volodymyr_Kavetskyy_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1pf2xfHz4QrHUfwdhOWh3HtkFWvLC6MCA/view</t>
   </si>
   <si>
     <t>Vladyslav Minakov</t>
@@ -406,7 +406,7 @@
     <t>G8QdtgHByifGkRpvkwoyqyHYBnvngvqGpsE0+OYg0l4/alH5hKrukluT0vymRI89FuPQaP5NZXhJw5qBqr/o2SQ=</t>
   </si>
   <si>
-    <t>certificate_Vladyslav_Minakov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1Sn9nXT9Fg-6kcdUTNymxwTxsf20gVtrG/view</t>
   </si>
   <si>
     <t>03.03.2017</t>
@@ -424,7 +424,7 @@
     <t>HA2ozpf6FmCR9/D/F1XgLiiwPlUjJLoag15bW5+L4fQHD0Fzs7c7/2KGC/bsQG8Qb9PP7XBe0ZLiDxxYN1sfvlc=</t>
   </si>
   <si>
-    <t>certificate_Yevheniia_Shchypeleva_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/19FD-029XSzp-hi7KhQ-AUDLjAIUUZ7CK/view</t>
   </si>
   <si>
     <t>Kolhatin Andrii</t>
@@ -439,7 +439,7 @@
     <t>HOcOQLZi/0Hj7wI2HfEnZo9/I0BIcJlvSIj0kM1p52IeZu906yz7HH82BuKoZn4vsU1NaeozhmLhrvaLuFl4axo=</t>
   </si>
   <si>
-    <t>certificate_Kolhatin_Andrii_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1fyOMT82rH5OEJhQA8RkME5jW_YXeZD0l/view</t>
   </si>
   <si>
     <t>Heorhii Kholodov</t>
@@ -454,7 +454,7 @@
     <t>G9GctEnd76pKgGDyI7+aE9V09Cbs9aumDPiqIQigvacdBmKIzpoQDCwHI7E+a/k9BOzv+g7d0xz+Gge0BLfJFfQ=</t>
   </si>
   <si>
-    <t>certificate_Heorhii_Kholodov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1d2uLNmRmxAUv8Ifvn89kCQZ1AsiBdBlV/view</t>
   </si>
   <si>
     <t>30.05.2018</t>
@@ -475,7 +475,7 @@
     <t>G+TKDQRHr+0M88vwYCpAR1HxlsZ9Z7wGKXvhaOHBU8VVVsZ6D827dqlCB+/VqOuSoiNUl2Q4njEuMlyVU8acWg0=</t>
   </si>
   <si>
-    <t>certificate_Aleksandr_Gnatyuk_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1LB_L4BZamLcp7AR1XoatjxLP0vVjCpx3/view</t>
   </si>
   <si>
     <t>Aleksandr Kurbatov</t>
@@ -490,7 +490,7 @@
     <t>HEGH5/OOhT4reguIiiTH6APFTbnlV5C1KUyZ1pDo2cj6OGuhq/LbQm/JPTRM/O7tZRuIRfzN9JFsrrjCWCFPlk4=</t>
   </si>
   <si>
-    <t>certificate_Aleksandr_Kurbatov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1snnHBWIknbRNiX0NedAZf3NtIRZNEJ-0/view</t>
   </si>
   <si>
     <t>Aleksandr Ivanov</t>
@@ -505,7 +505,7 @@
     <t>G3ZO9bxTgtB/7Fa9EI72atZVXvh2Ad/AFoyzzevZ8ZobO83vZr+y2kqGwnGR6W3RrWH6kTuo4FsGrD74ILRPfEY=</t>
   </si>
   <si>
-    <t>certificate_Aleksandr_Ivanov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/17mOMlQa1YhVjF_9FOaFabKNCB3ND3FQh/view</t>
   </si>
   <si>
     <t>Artyom Ahmetzyanov</t>
@@ -520,7 +520,7 @@
     <t>G6PuaRb177RpKrDmAjukXeT/Pov30l8TdCMgBJErT1YwH6DqSeI9ff2Z+uuJmeqveGXDYUhbYEhDxKg1jEaOK3E=</t>
   </si>
   <si>
-    <t>certificate_Artyom_Ahmetzyanov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/10ikHwrdBL6YjJRXXuqQ7kx-1p4kfuKs0/view</t>
   </si>
   <si>
     <t>Oleksii Khramov</t>
@@ -535,7 +535,7 @@
     <t>HBlAzPzVISCrhkXzo8GZ6W8Z84V6yqNwfy72EfWfgfhWCfoC3kzzdLh2hOyRRt8A/hleQIggp11lEkfjiBwU3FI=</t>
   </si>
   <si>
-    <t>certificate_Oleksii_Khramov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1TY0el-qpdd3EwZtfR2vdDMMp5P4-EfD2/view</t>
   </si>
   <si>
     <t>Nodar Alyoshin</t>
@@ -550,7 +550,7 @@
     <t>HAt2BcTILIRTPMZAwC+3r/wauy6mFamx0lLEvPl8T8u8X9L6TNJ2cd8B6X1E3f2E4izbyj19WA5Tr9VyW1AY1Qg=</t>
   </si>
   <si>
-    <t>certificate_Nodar_Alyoshin_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1FgquFxcBloQjUDkpBs_b69YTHR2ZqB87/view</t>
   </si>
   <si>
     <t>Marina Osadchuk</t>
@@ -565,7 +565,7 @@
     <t>G+SXoVDF+C1xZEypC8G1DkMNZU2K/YTniKoPmEOKvao7SAs1KY2p8RFoJlol9Hi5x+ZnLMocF64cXyB82fj4/co=</t>
   </si>
   <si>
-    <t>certificate_Marina_Osadchuk_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1rj5dK9gBRTFO__hNdfiUVQjuWQsBXc-h/view</t>
   </si>
   <si>
     <t>Konstantin Nechvolod</t>
@@ -580,7 +580,7 @@
     <t>HONq+40rWWcZg2ep51dVOeDlcPxRzZyoFaRcEx/kXFVcKkNrgAJWpl5iTfkoY7ClsA9dM+gU0ZZIXMolgSNmuIE=</t>
   </si>
   <si>
-    <t>certificate_Konstantin_Nechvolod_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1ERjLfWfliahHfDQz5DuanaYqSSRfF5rK/view</t>
   </si>
   <si>
     <t>Ilya Svetaylo</t>
@@ -595,7 +595,7 @@
     <t>HKkfJL99tKlg2eavVbzwdMxgOf61qj23+C38oRfT9S7yAurKw4uk38Arvj54gJ4diOc7XAAJJWI5WZpjkH+GVD4=</t>
   </si>
   <si>
-    <t>certificate_Ilya_Svetaylo_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1FtXae174jIJtBO_SrHZAM3wjIBDULjGP/view</t>
   </si>
   <si>
     <t>Dmytro Mandych</t>
@@ -610,7 +610,7 @@
     <t>GxJO7BiH7QSDOkaVyvoSs5I1l55gYnvxDt/EcTkBYowbQfUWr79pfg8SvoSGPtFFIAT16R5D3C2UWedyHqjSaq8=</t>
   </si>
   <si>
-    <t>certificate_Dmytro_Mandych_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1aOdfCvhxk_GkRDqQxoPGw2erGRgZ73X1/view</t>
   </si>
   <si>
     <t>26.05.2020</t>
@@ -631,7 +631,7 @@
     <t>HBzaIo/6pGkl+lxuK93TpLDR3J0fQnJuLF/UvSWu/DnCBGypnDxHHN+9YQPv6mCzEqy4c4ztULeBbX6umqneJbM=</t>
   </si>
   <si>
-    <t>certificate_Petr_Murzin_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1CeJnGVYu8FcIQ79Z-m9fldwUYFsXUJ6b/view</t>
   </si>
   <si>
     <t>28.05.2020</t>
@@ -649,7 +649,7 @@
     <t>HJg/1FFp+OhLbPPswjILag3FY2WMU4+XcI04Ns6LB9wmLexAfWDQnRgiXTtjkmQihRemlxaeqR6ftVepPZNrHBo=</t>
   </si>
   <si>
-    <t>certificate_Lovkin_Ivan_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1gkQ_FexA2nEy423To0DiDKIgnMzlxwn6/view</t>
   </si>
   <si>
     <t>30.05.2020</t>
@@ -667,7 +667,7 @@
     <t>HJncl4kaqw9zTObNyjKooaqcPCdEuHz5xHFvcd3MX5F8HVTSPlpFPcHe/I4J51+VrDAssyv3ithaKinCMpRryqA=</t>
   </si>
   <si>
-    <t>certificate_Nikita_Moskovkin_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1B0s8qbfjRTRziDEY223sdar5TrZ_cPnN/view</t>
   </si>
   <si>
     <t>03.06.2020</t>
@@ -685,7 +685,7 @@
     <t>Gzw/HIBgJ7KVFS7QmDgYWxq8XjKW4lAILc3sROoFzfxqWvK4tYRyGDb0ZvJKQe3xHaFC2CUeutLZSOTbfTa0QV0=</t>
   </si>
   <si>
-    <t>certificate_Valeriy_Gello_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1QVqrxbfAu2ZzG1arVdcCRvpou5O-dlCH/view</t>
   </si>
   <si>
     <t>21.08.2020</t>
@@ -703,7 +703,7 @@
     <t>HP41UyoLCOMLuOEIo42MuFafQWcp0t4i6LBAgNz75cNPYOBdXopZM+It2/Be2dr0ienxZVjSb3zJztSjlaD54l0=</t>
   </si>
   <si>
-    <t>certificate_Elizabeth_Gurieva_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1ZNXNNDuMq5S4WT-9rfZFU7tvavxGcahK/view</t>
   </si>
   <si>
     <t>15.09.2020</t>
@@ -721,7 +721,7 @@
     <t>HCzXH2Zbj4gbKDjETOQGCWS+XxeEZZMPOew3MUhUr0HhWixJ7eLggTl7cydDoD6sMmgIYDMN5sRHQ+XJ/Fvvb3Q=</t>
   </si>
   <si>
-    <t>certificate_Alexander_Zhovnuvaty_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1vaj0GQV6wKkBwRXRZbGnLtnn_YrT1O8v/view</t>
   </si>
   <si>
     <t>Nikolay Scherbakov</t>
@@ -736,7 +736,7 @@
     <t>HJJvBuSIMkoiAO+sC8QBznqFcgY8LSD1Gw6CvtwJSVJLYoihwr5NrQvIzV7l2SoU5cbCU+FRL/3euoLPhxfQyYM=</t>
   </si>
   <si>
-    <t>certificate_Nikolay_Scherbakov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/14nnUzKWQVeXgdJTK_F2ynBxFWahSA4Qg/view</t>
   </si>
   <si>
     <t>16.09.2020</t>
@@ -754,7 +754,7 @@
     <t>G4fHhUf678fe0keVwns3h0B7eDLW0jQOMkxJVRg9DwgKNOIjAgksa+fZ5mJ9Ojst1bHp2zGQfgVdtVILW+ZLpzY=</t>
   </si>
   <si>
-    <t>certificate_Anonymous_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/17KlJJSdt4WdpVK4WvalLDjUx3BaM1zEA/view</t>
   </si>
   <si>
     <t>17.09.2020</t>
@@ -772,7 +772,7 @@
     <t>HJvnMx8PPHp3/yBmcUPMH2FdjkOgbClzrn20BArlYjAnHxJJGArQJBD8smNoDbg1RsQNwFIkn+lLuOShvvcLCPY=</t>
   </si>
   <si>
-    <t>certificate_Aleksandr_Khomutov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1r5CZmD2VcuIsSLJqBl0pyKKAT2zPOnrl/view</t>
   </si>
   <si>
     <t>12.29.2021</t>
@@ -793,7 +793,7 @@
     <t>G3gYwhzI5+ZXB2kDCeqmw7ZIyAfM2VyNCo7rqfK6oErwXzOgVWTXTB2Y0nQTEsPVbu21i0aXTcjj1/cRs4q1Eh8=</t>
   </si>
   <si>
-    <t>certificate_Tetiana_Diachuk_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1-SMoX-EMMNtwbcEiKIY3QdjrEHX_3blE/view</t>
   </si>
   <si>
     <t>Yatskiv Vasyl</t>
@@ -808,7 +808,7 @@
     <t>HK7waE27kA6KJwApBM+T4LAk4aZqaE9IPDkBCxSy2kIEIufgsqcxvQ2rz19wEhtVeFadLyIdaeqHRdUIesIFeEY=</t>
   </si>
   <si>
-    <t>certificate_Yatskiv_Vasyl_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/10L1mno0hdZSlY3mp5M9ggKfImQbMX5b-/view</t>
   </si>
   <si>
     <t>24.05.2022</t>
@@ -826,7 +826,7 @@
     <t>HA5BwNFM/ySsemkCY6OpyYzGN2ynKMEaM8GLSihU2F8fIafDwOkoIh2PLwj1IdJ/pBYdBTic+Uho+017ECKjRNw=</t>
   </si>
   <si>
-    <t>certificate_Viktoriia_Kovalenko_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/11LC8uamJOa4HPIXAALboPtclhGduK0cu/view</t>
   </si>
   <si>
     <t>Artem Lytvynov</t>
@@ -841,7 +841,7 @@
     <t>Gyyl8SW1Vhxv2Y9izEr5P1xTWFuhrsh50Oxsq0ivOCIGYnrgsSq0dVAL7d/fHlQr4HKC5tRuFWRMg3E275kdLJs=</t>
   </si>
   <si>
-    <t>certificate_Artem_Lytvynov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1TfSgZrvfCTnKVfjpqX_sicX6OEQo-JZm/view</t>
   </si>
   <si>
     <t>Taras Horun</t>
@@ -856,7 +856,7 @@
     <t>HMm+QmgYSQqzfj+FdgRl1rWBCdL1S4zMjHo4rOlH25QqahXol4u5iYWlYHpMzEhlIt7GEVY6GQdrSoKBmssw+wE=</t>
   </si>
   <si>
-    <t>certificate_Taras_Horun_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1Yk5Ua8AHrOzAW-IEFp91vvo96m9atSht/view</t>
   </si>
   <si>
     <t>Anastasiia Slota</t>
@@ -871,7 +871,7 @@
     <t>HHSTW6baeeBbUdAqBUVAabWN7FyZcmoGl0a2yh2qMvM/NuSSlL5WIC4i/X4xl4ENs/MIKGxn/Yx4AQEZ3Xlfo/I=</t>
   </si>
   <si>
-    <t>certificate_Anastasiia_Slota_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1ccl1ojV7cJqlSm0tfLlfQjB7YYbW13U2/view</t>
   </si>
   <si>
     <t>Yuriy Melnychuk</t>
@@ -886,7 +886,7 @@
     <t>HLFj51cOIDt1qrqje2PXKxrtUxp1hjlrNJxyE2uD8TbiO2UKvbAI+WmR/rmJ3zP1nURKyFD3zP7orsfABAqigkg=</t>
   </si>
   <si>
-    <t>certificate_Yuriy_Melnychuk_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1Zyj_8jTpwmZDR3Ziq5I7K0sMtKzaNwzb/view</t>
   </si>
   <si>
     <t>Vladyslav Mazur</t>
@@ -901,7 +901,7 @@
     <t>HLRD02/6NJ7khwmd96Pm2n54FdjUOODqTq0B65DPCuq8DMRfhgsgzJhWRLUNGmka6qsOAlRYHVYcaFdURPX1T8I=</t>
   </si>
   <si>
-    <t>certificate_Vladyslav_Mazur_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1GDK3AFkFCTPOhHgHk3zBVNe6tX0OrNbU/view</t>
   </si>
   <si>
     <t>Hanna Zhurba</t>
@@ -916,7 +916,7 @@
     <t>G23T8nDlJs73D0lrECwkUe+mXYAtGdG9qjpSpWrU32pvXnfTe3DSqjCTi6rJFVs1Yzi2Fv3xylxp5MMR8p8VeRw=</t>
   </si>
   <si>
-    <t>certificate_Hanna_Zhurba_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1LG5dI_c4lGdx0g-N-E2xlZNflFVcGJB5/view</t>
   </si>
   <si>
     <t>Viktoriia Holoshchapova</t>
@@ -931,7 +931,10 @@
     <t>HNXgySG2kQ3jao+mFMaN3wfZFjEh5tNOLS3typW1XLu/AWlnZ9Wp8fZzONuZuA7Ld2EjAXGRflxYjsG/zZvNK1Y=</t>
   </si>
   <si>
-    <t>certificate_Viktoriia_Holoshchapova_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1WDfkJtWwN_7Eykowqn8g9kdv4c7k9i3d/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VP-RZqDW14mfpj_KCvlLK1-g2-YAuDec/view</t>
   </si>
   <si>
     <t>Nikita Liashko</t>
@@ -946,7 +949,7 @@
     <t>HOt76U1Fm6QnHoInt0Smt+gAS3rWPhQyfPREvrRvrghaKyti2vcVHkLzN6+M0BSZWjdpmAEmApjrFE22eEaMtqg=</t>
   </si>
   <si>
-    <t>certificate_Nikita_Liashko_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1ClpQ380HsP3MS7usw0nzrDNHYj47DxNG/view</t>
   </si>
   <si>
     <t>27.05.2022</t>
@@ -964,7 +967,7 @@
     <t>HLH7WlOVLpwlLCX6S4IVdvTOunTc3QM9kpmouZBN7E+Lcd9pgsIPENfPEXdPoEc8HS/RGRqYc2669yxmo7TTYJI=</t>
   </si>
   <si>
-    <t>certificate_Oleksandr_Ishchuk_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1ykklygjmnrlmN1zdXNOBRgNAvzBf4AxN/view</t>
   </si>
   <si>
     <t>30.05.2022</t>
@@ -982,7 +985,7 @@
     <t>G5FFAmf/zMSc5uhA4w2of3MlPRCOl/nrSQ+EHORntQdSYge5OoFzcoywcRu+c8Al2Wn0vDT2gplOysnc9bkVKuU=</t>
   </si>
   <si>
-    <t>certificate_Sofiia_Zharkikh_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1dXF2b_CFYIEYDJzlj0JOjSaark_d_PEN/view</t>
   </si>
   <si>
     <t>Ruslan Ovsiienko</t>
@@ -997,7 +1000,7 @@
     <t>G3EE53pUm5VlTsbXpOwdRM63L+AGzsNrlmlAgBysqeKrQYUARmf1tqGI0uNbrYxulKqr9rUu9h6dgFSgLPwOlGo=</t>
   </si>
   <si>
-    <t>certificate_Ruslan_Ovsiienko_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1xxZab2PCK9hC-7J17Kb66qj0M6npYIRx/view</t>
   </si>
   <si>
     <t>31.05.2022</t>
@@ -1015,7 +1018,7 @@
     <t>HPxkFc6eqX1zkacNhXG+sBNXjVxyuH1KHnrh6B9b6e9zKf6E3ZsKgi7KviRGqMsROOkCltpUiNYA5H0saLu0V90=</t>
   </si>
   <si>
-    <t>certificate_Andrii_Kolhatin_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/171DkZ1tiXHoAUODWa2aGrDI5X307w6j0/view</t>
   </si>
   <si>
     <t>02.06.2022</t>
@@ -1033,7 +1036,7 @@
     <t>HKh9/uLqPvIlWlda72xmPBh4gWJPa1GmeUiFqmMUsnO2QBuonHk6hSItvca+oWB7KVakP8zuuiZy5E/0gh/gju8=</t>
   </si>
   <si>
-    <t>certificate_Volodymyr_Beimuk_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1ijEZMvPM3mLuQcb0a9DycWTOTVnwSBaS/view</t>
   </si>
   <si>
     <t>03.06.2022</t>
@@ -1051,7 +1054,7 @@
     <t>HNdZVHjhVExW+1Z4mN+Te9JfpSvd+YECTCgTdd9IJBnwfWKI4PH8xfVPvJr/RXDfqT+IXb/PUqhIJIfPeJabSSw=</t>
   </si>
   <si>
-    <t>certificate_Nazarii_Savorona_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1k2-p1WEYh08bNYBC61YD-g9cjGjXvPE7/view</t>
   </si>
   <si>
     <t>Anton Balykov</t>
@@ -1066,7 +1069,7 @@
     <t>HAcsbhV60MNVfxYYDPk95TsJ8K0vzClCraIHX3jcMxTUYWejpT1skkLDABMaWybvl4vDwSwhutHvP3VeuSN3hqQ=</t>
   </si>
   <si>
-    <t>certificate_Anton_Balykov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/15bpW11pqu9Gc4OdKxn1T9tGNCbGoxNmw/view</t>
   </si>
   <si>
     <t>06.06.2022</t>
@@ -1084,7 +1087,7 @@
     <t>G1SiRU5KQYfkC7uOSmRY/P2fj1w6YEu683um5h9a6ws8dlGMOSqTHYb8K/dSVioO+bMlb07pm5VcF6kewoJVWDQ=</t>
   </si>
   <si>
-    <t>certificate_Rodion_Nazarov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1sAClZogVz2jKXtG2YDHJ-IkoFjEDriRD/view</t>
   </si>
   <si>
     <t>Denis Riabtsev</t>
@@ -1099,7 +1102,7 @@
     <t>HFM+8AQaBKBacM/WH/81H8G44v3HvjExwoIa9nVWlJIta0EKSgLhtrtX6rhmpZuBXghHEk4mVxG+JFOMMQJ6+Cg=</t>
   </si>
   <si>
-    <t>certificate_Denis_Riabtsev_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1l5W4vY8nvFrLA3ziBPhdbhKRnQfXZAts/view</t>
   </si>
   <si>
     <t>10.08.2022</t>
@@ -1117,7 +1120,7 @@
     <t>HFa8giAwmh7H5tdphmNqPT2w8NyaSL0zoQtw8vhcOO24OJF8JiXHbFSXbqsuWnvYikzoLh9en0UUOiDdQ/qu9iM=</t>
   </si>
   <si>
-    <t>certificate_Ahadzhan_Piloian_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1vtYhJLBUaDUo1EcSWNbBKwVNJRSK0Un9/view</t>
   </si>
   <si>
     <t>16.08.2022</t>
@@ -1135,7 +1138,7 @@
     <t>HFDQ9yfu6U/EX1zGYWGMzuZllAhZ0Raovu7AG+Imc26Qa764AnS95/dSLQ7UQt9Go+rOAxw7mjemhwWS7bIocD8=</t>
   </si>
   <si>
-    <t>certificate_Andrii_Tsemko_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/15pKetGDmYgG84KN1SKFGRGxmow7QLlSx/view</t>
   </si>
   <si>
     <t>Oleg Chaika</t>
@@ -1150,7 +1153,7 @@
     <t>HGl/gXuPtt8M/8bCdJUa4gMn1i0me6N1NxOC/kl1Kbk6C7d/5u4zhbOjiYqYU38DGRQSiXH25MVys1FzzN3uYAQ=</t>
   </si>
   <si>
-    <t>certificate_Oleg_Chaika_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1M6mGUQ-FJOZ-vX9BxC8u1kEmpPGPlh6d/view</t>
   </si>
   <si>
     <t>Yehor Podporinov</t>
@@ -1165,7 +1168,7 @@
     <t>G2xO7B4Q+hdYRxBzyQaDhdsQu08oTGo4BF52Bl9If0c4DJKDCtwS9qoZx5Lj/2WEX02RiGVb6G02slDylbdqLAo=</t>
   </si>
   <si>
-    <t>certificate_Yehor_Podporinov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1wEN229hiH-jZ4o5y4aIpyhnZl_nu3XrJ/view</t>
   </si>
   <si>
     <t>Artem Litkevych</t>
@@ -1180,7 +1183,7 @@
     <t>HM6uF51YbAt3DbFxvVNTpeS9X1oDpHw0zFnNxLs999PuJNc1azg1gITStdzGKi8OvKjdT95PGN9f/sRqjNlY+2o=</t>
   </si>
   <si>
-    <t>certificate_Artem_Litkevych_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1NyxEt7-LRPN5TleCeayb9DdKjO5vn-Gt/view</t>
   </si>
   <si>
     <t>17.08.2022</t>
@@ -1198,7 +1201,7 @@
     <t>HOknl3bfOj6VWiF2cke75fBKUEhoJiAdgJIjzXMYR+mPe0Kx1XuF8nIHN+9jrnsbzNkPdUhb6jHrVKXTbhV8Q9w=</t>
   </si>
   <si>
-    <t>certificate_Vadim_Mokropulo_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/19-u8RS02tY_qjJDcHQDXvGPeMt8YNprQ/view</t>
   </si>
   <si>
     <t>Arsenii Trybukh</t>
@@ -1213,7 +1216,7 @@
     <t>HCM9Lxm2HfN4TKyTb1Hswsn5VJpsxgiJW5R+SepjJ0UeRlgsboEmN4/JokRrXfcmW+0+luqqgSqpIF/cWkAGIW0=</t>
   </si>
   <si>
-    <t>certificate_Arsenii_Trybukh_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1NmvZ2OYA8LdumUpH4j9qtkREpmootf-6/view</t>
   </si>
   <si>
     <t>18.08.2022</t>
@@ -1231,7 +1234,7 @@
     <t>G9Ch3H0JSIgK0D8+lUc+CVe5hh1/Qcz5M53LYvCPLGRtXm995jnkm8PhJ41ACFNTYNjNI1J86FZYJvp+vqILR7Y=</t>
   </si>
   <si>
-    <t>certificate_Khrystyna_Vysotska_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1f8zJGdzey9esgAdUPWtD6kQUfbVx__O-/view</t>
   </si>
   <si>
     <t>Mykhailo Shcholkin</t>
@@ -1246,7 +1249,7 @@
     <t>G21MICmkB2iY2fm+JV0nz2xQiarIBwVrE/zcp7NtMHxLGDcy+b6eWyg24mbfLxrYGHmHI7f2Ifh18c4LBUx6jd8=</t>
   </si>
   <si>
-    <t>certificate_Mykhailo_Shcholkin_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/12mJO_Dw8BIZV0CGf-aj5l2Y8kxaiFIou/view</t>
   </si>
   <si>
     <t>Sofiia Kireieva</t>
@@ -1261,7 +1264,7 @@
     <t>G69XJfmzHXDqV502Uhuy0UynJewLSZwOY17ZWoRWu+8fKZrLtItrl++E+920n1Az6u7sDFdBSFnUn8MMkLPmPrk=</t>
   </si>
   <si>
-    <t>certificate_Sofiia_Kireieva_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/18CvIeyXNErStjxQYS8XhnYZ_V0fSKP0q/view</t>
   </si>
   <si>
     <t>19.08.2022</t>
@@ -1279,7 +1282,7 @@
     <t>G2jP4FhVjFgaeIXACmuv4NrkTHbT4Pw2fsgVYqydLjTHTp2bFOhYi9tu99P7C6MSdtXuYAkVEk7jPkH9tPRKMPw=</t>
   </si>
   <si>
-    <t>certificate_Alena_Sporova_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/18mGx-WovdbPSZ22QCqMfgQ_mIMUrTLUK/view</t>
   </si>
   <si>
     <t>Nikita Masych</t>
@@ -1294,7 +1297,7 @@
     <t>HKdVLhA3gtAdaK2mauBkiowhnv2Evab2QPeel+p14+GqdfMA0rlCfRhIaFd8QEx1bwC62VO7N+ue3qNrejGq4vk=</t>
   </si>
   <si>
-    <t>certificate_Nikita_Masych_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/11bnDPBs0Z4Tj_2hpFCg_peAISN5R6gIw/view</t>
   </si>
   <si>
     <t>Mark Cherepovskyi</t>
@@ -1309,7 +1312,7 @@
     <t>G5B51sOpUq18kepe35rMw9WicCE1gp4icmIBoo3zjy+TD06p5inlInQt1WomW0tvEcye2foVrcdcBHrMqnC9pfo=</t>
   </si>
   <si>
-    <t>certificate_Mark_Cherepovskyi_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1NMsfhtCGGeNqpJ3Vf2HgCvk19dUtOhwl/view</t>
   </si>
   <si>
     <t>Viacheslav Horbanov</t>
@@ -1324,7 +1327,7 @@
     <t>HKpxDnYpWxDgjde7+Guu3BfglyLZHn8CSIxTn17IwxPuUfGHQDEVqrFM0MeyEBNAyZpkhKd/xI6fLRrcmAVWSDY=</t>
   </si>
   <si>
-    <t>certificate_Viacheslav_Horbanov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/17rAtt3AHNvQRSW_otXFUuED_C5oDmf9S/view</t>
   </si>
   <si>
     <t>22.08.2022</t>
@@ -1342,7 +1345,7 @@
     <t>HHQI2fVR8mK2cT2CKboOJcWp2QYPiQNiw9VPCxmosNu9XigtlaKhIcX6aeB7MeRagImuPo4PKFwP3lV41PaiRWM=</t>
   </si>
   <si>
-    <t>certificate_Oleksii_Stepaniuk_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1upztKMIWZAMZwzwAn_iKF2B8Rr0BC7YR/view</t>
   </si>
   <si>
     <t>Kyrylo Riabov</t>
@@ -1357,7 +1360,7 @@
     <t>HIYr22IoaZsHMt8mZYzRPItPizb8Cgz+tML67na5URpbDhO5czzxTUfp5REntqVtSPZLPmkfi+E9apG20T11FHM=</t>
   </si>
   <si>
-    <t>certificate_Kyrylo_Riabov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1iQqeJoHxEP0YA0U7RJpDnK5vZ5mW8RKx/view</t>
   </si>
   <si>
     <t>Oleksandr Kolesnyk</t>
@@ -1372,7 +1375,7 @@
     <t>G4lD8X41oRFy7CW2bmIknZKml/cSa36IX+BQ6GED5YydUXmGRs4WyhEEQrk67wJ4e1gzQZpb86PNONSIkqmbihc=</t>
   </si>
   <si>
-    <t>certificate_Oleksandr_Kolesnyk_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/13-JAJ-OjZ4zF9ZCcVufFE-oeoYARwZsy/view</t>
   </si>
   <si>
     <t>23.08.2022</t>
@@ -1390,7 +1393,7 @@
     <t>G8uS3y3E18j4FkL7WCCPvfCy3xbdDx3VvFRySq8LNas5LNV8IZyf7dLuyzgiueQoYXv/VtG+7WybSGkWdEvMw88=</t>
   </si>
   <si>
-    <t>certificate_Nikita_Chabaniuk_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1_nr-2NjQ9hDXjzNKowhjpTxCj3qgHz8c/view</t>
   </si>
   <si>
     <t>Amina Yambulatova</t>
@@ -1405,7 +1408,7 @@
     <t>G9g/25PmJHzczdwBSSy0Zypc9ZTw+/+YXHbvvw/DHm/9W+MgQkve2zHsaohfLfd1pXPsRJ+laHxZzzZgleauDAs=</t>
   </si>
   <si>
-    <t>certificate_Amina_Yambulatova_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1bScSOXDdNfMJxHR0zgGOUA7dGCyseMAw/view</t>
   </si>
   <si>
     <t>Yegor Chukanov</t>
@@ -1420,7 +1423,7 @@
     <t>HGwq4A8p8OWC5Gh+teNqjrwCzbrT0mWdm2OuDoYtB3s1HgthxjnTOjy9hI+EerJD42qx4NTjmyKAB9cpY84rOKg=</t>
   </si>
   <si>
-    <t>certificate_Yegor_Chukanov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1fMTVea461qNrzSGm-qGWFkRNfMM6iGqA/view</t>
   </si>
   <si>
     <t>24.08.2022</t>
@@ -1438,7 +1441,7 @@
     <t>G1juo7SBQZageFwRNPEys5X51AkNFvYuzGZjEuZEEItYJwfD03FjUeOtDPlRHnYj8rBLuAf/gCVBc2g1fV3w4wY=</t>
   </si>
   <si>
-    <t>certificate_Dmytro_Vynohradov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1pcMJ3o9R6KoVwjtb0mi4YiiDPEcFfWoI/view</t>
   </si>
   <si>
     <t>Mykhailo Sokolov</t>
@@ -1453,7 +1456,7 @@
     <t>HIqeKGpM6CeW69LC2KUeOJ9DRnIDBY+r995bjEVZo8pLDWXucjkEriUeL8WyPveeSxxPg7hM8PqDICAEPlVCouk=</t>
   </si>
   <si>
-    <t>certificate_Mykhailo_Sokolov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1VAL0MrEV46yshybWqnwVMSv0QFDsN8Js/view</t>
   </si>
   <si>
     <t>25.08.2022</t>
@@ -1471,7 +1474,7 @@
     <t>G8mavASwRAESd8slmxm1h9U4N6GoYmgCKDKXl8T/zpv6KTqrqhp1n8tXhH7flfqxI88ksENHVZ8D+dYALB3M5Xo=</t>
   </si>
   <si>
-    <t>certificate_Illia_Popov_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1zbXRc6VreZpRvoTuXAFHhk6A7ivLCjBe/view</t>
   </si>
   <si>
     <t>26.08.2022</t>
@@ -1489,7 +1492,7 @@
     <t>Gw56LuM5gYEPRCkhmZ6K29DG3idPfq6lawS2onGmpo38efTvJlIFfopETOm/W1WkS+UuYHQsremfscaqHR3acyY=</t>
   </si>
   <si>
-    <t>certificate_Mykola_Gora_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1iFipfjcgBdka6coxpE7L6OQ6Gra6gB8L/view</t>
   </si>
   <si>
     <t>Artem Levkin</t>
@@ -1504,7 +1507,7 @@
     <t>G8ah5f2UjwoYEixl7OZKZrVAizGnQBy+lwuL+ammNcBqEjR8riRwunMmhjuzXKnQ8orFQJXmZhMvaCtDzItFhnw=</t>
   </si>
   <si>
-    <t>certificate_Artem_Levkin_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1Oi13CqgC7cobG-poXCyQ9Ml_VaIyziRW/view</t>
   </si>
   <si>
     <t>29.08.2022</t>
@@ -1522,7 +1525,7 @@
     <t>G0ZjvUb5sgyD719aQ7ygiXigPsrGpMAmw0TdIjX2xBb4BuYLIXwlOY1LYnd5sdVo6jKKXK6g1s4UIJKuU8RPHew=</t>
   </si>
   <si>
-    <t>certificate_Natalya_Dolgova_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1MODb54QOY9wkT1MlOxHoNNqUnb67e-R-/view</t>
   </si>
   <si>
     <t>Artem Zubrych</t>
@@ -1537,7 +1540,7 @@
     <t>GzMrbbTOSSl0/ql8CiImmJSDgqgJUtSq87qEm3e4f1HUDlkuor0IcoFP2Jf9vSiQXbE3YJaOZ40DHqr8oSg+roc=</t>
   </si>
   <si>
-    <t>certificate_Artem_Zubrych_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/13Dv6C66JsAvW76y5AegaNsdLparwFuIY/view</t>
   </si>
   <si>
     <t>30.08.2022</t>
@@ -1555,7 +1558,7 @@
     <t>HIhvyjj7WGrwrUbsuWPUTAKqKtxfC9u3gJ1V8w+AsfkMDrZmymnpA/ScCurlcuX7M6q7OXFso7OfbFtzTlNkx0E=</t>
   </si>
   <si>
-    <t>certificate_Valentyna_Lytvynova_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1-WUf_Jobf4VArFm8VEO1WYjef5YKJtpz/view</t>
   </si>
   <si>
     <t>Eugene Petrikeev</t>
@@ -1570,7 +1573,7 @@
     <t>G2ZueU8SyB00Pru2Gbk4Y4zUXtkuEm3BwdBArAtr5mwqa3CSk8hS/tw/n3taWXsYOLN2wbMWQWcfsBiEFlUB3+Q=</t>
   </si>
   <si>
-    <t>certificate_Eugene_Petrikeev_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1y8vgpGbLCd4ygBhGfs-BdcGPCPM7e5ol/view</t>
   </si>
   <si>
     <t>Yurii Poberezhnyi</t>
@@ -1585,7 +1588,7 @@
     <t>G7odIa2nR2CTXihZ272zal5AhXr13DqLqqyxkYgyuEN7cLxIlWKECJnfXCeXzPqGH8fBfl9v7DunBuqlObCkULE=</t>
   </si>
   <si>
-    <t>certificate_Yurii_Poberezhnyi_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/13owzToVXMW-D4sr706sfC3WbeSfs1dm4/view</t>
   </si>
   <si>
     <t>07.09.2022</t>
@@ -1603,7 +1606,7 @@
     <t>HAFRgVQFeujXBXYVTCe8VE2auw6Uz+L7Lzq6SSmMkvoEYyvkGFCp6L0hO5+CtccnYIEPL5r5hiDHuG6deADYunw=</t>
   </si>
   <si>
-    <t>certificate_Alina_Telnova_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1_3nb1PAXgUPHALmaPXZGiITZBF1bi93a/view</t>
   </si>
   <si>
     <t>07.12.2022</t>
@@ -1624,7 +1627,7 @@
     <t>Gxb5qLCO2gOVk0XmAl5V0xEK4mWcrjqA5qw51GpsOz7mIajkq6+QkZj9qyqPbzcd2vRlji2whyQPpa58B92Jpw4=</t>
   </si>
   <si>
-    <t>certificate_Oleksandra_Ivanova_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1RwFFLutPf7MS5BUl5bg_lZnb2PKu3Voj/view</t>
   </si>
   <si>
     <t>08.12.2022</t>
@@ -1642,7 +1645,7 @@
     <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s=</t>
   </si>
   <si>
-    <t>certificate_Ilona_Shevchenko_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1wIJgfjKmEmEbDPiAD3I3M7V1M_3dY47I/view</t>
   </si>
   <si>
     <t>Ievgeniia Bondar</t>
@@ -1657,7 +1660,7 @@
     <t>HIgwLjNpC9EMttrwVCHCqYNaw9oP6JDSNC3WNNknWncLPhG4ednynhWTcdaeAX+FwguxVwPvX9m7LvvlPFKLdrQ=</t>
   </si>
   <si>
-    <t>certificate_Ievgeniia_Bondar_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1aJAputdo62hrvrHWqsqQQ72U0zr9q9wz/view</t>
   </si>
   <si>
     <t>Sofia Golets</t>
@@ -1672,7 +1675,7 @@
     <t>HBabTC2ygOQ+iqxIRo7A4uu6gllcQml5FLggMVySfR6Db60y77BToxgXwXmdwrHtoN1Gua5C8I7MgdjeDLZ8JCo=</t>
   </si>
   <si>
-    <t>certificate_Sofia_Golets_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1L9C0OIiKRM1iU9FCn57hsUlyxGwsmfkM/view</t>
   </si>
   <si>
     <t>Mykyta Tsyvinskyi</t>
@@ -1687,7 +1690,7 @@
     <t>HPq9RQ1vlbJ4N83dgUwLLBJcN4AFaUJYC8F8BVzxUkYDR6OqA/YcNOeiukloL3UmZXPkluIN4lwoBhMr6vEj8KA=</t>
   </si>
   <si>
-    <t>certificate_Mykyta_Tsyvinskyi_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1xfil2bz5LPldBY--aAdQvyDpsss0CHNz/view</t>
   </si>
   <si>
     <t>Cryptography and information security theory</t>
@@ -1702,6 +1705,9 @@
     <t>G+LRDlMfhyvZO7qLoCtZi3Y4Q1yC/VmYJUOF79rRwGAGH93HyPOn0ZUp6fjZE87K+JkhhSiBVl2Pf+AGfNu10RA=</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1A5-xfWa0l4aHueUyg8UFsv7EFEE_XPS-/view</t>
+  </si>
+  <si>
     <t>09.12.2022</t>
   </si>
   <si>
@@ -1714,6 +1720,9 @@
     <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM=</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1_zWg-rCl08UMxstB2z3rz4f-zl_3mYp9/view</t>
+  </si>
+  <si>
     <t>Kateryna Hordiienko</t>
   </si>
   <si>
@@ -1726,7 +1735,7 @@
     <t>G+YE6/0P9zPNxZ1YU3AR+TXthT9PlF8Gx3dM9k7Y2cNIIrTalRdUgSTwwSMu/mcimZUsZLZ5l2puCtwVP6ll5kI=</t>
   </si>
   <si>
-    <t>certificate_Kateryna_Hordiienko_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1XvSjTye5r2MvVX1NBBYIyTI3jFMXzIBu/view</t>
   </si>
   <si>
     <t>12.12.2022</t>
@@ -1741,6 +1750,9 @@
     <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU=</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1I72Eozicc1xL9Y5sCJwxxjfmYVxcs7HU/view</t>
+  </si>
+  <si>
     <t>Yuliia Aritkulova</t>
   </si>
   <si>
@@ -1753,7 +1765,7 @@
     <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI=</t>
   </si>
   <si>
-    <t>certificate_Yuliia_Aritkulova_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1Jxt54lK7qfn3swmTW78tfF0azSbE6B-E/view</t>
   </si>
   <si>
     <t>Oleksandr Yevtushenko</t>
@@ -1768,7 +1780,7 @@
     <t>G9WI+TMiMLY1UW9rtOW0ycI21KtE3yOBTQ511sJbmfIXWvRQanASycY6fUpVGhO7iM8gyJxecc4xx2ytHX1VgzY=</t>
   </si>
   <si>
-    <t>certificate_Oleksandr_Yevtushenko_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1zDtxSunJrT77cm6IM6IY9mTY4mqeL_np/view</t>
   </si>
   <si>
     <t>Mariia Mahdalina</t>
@@ -1783,7 +1795,7 @@
     <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U=</t>
   </si>
   <si>
-    <t>certificate_Mariia_Mahdalina_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1SuncGKB7pEQHOf2s_qqYBfLNjupcIaw_/view</t>
   </si>
   <si>
     <t>766041da4e35a4d0486d</t>
@@ -1795,6 +1807,9 @@
     <t>G6T2wslW9Mlopb7SNt9oGcOSZmjSMvsByzfIQBZfwVweUZ7U2Mi5N0BkW7xhpRFkMMCWlY1kHu4VefyQzGyK5dA=</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1ATEuTKOXmHhIdtjgFN8iUX5fFdGo2Wfr/view</t>
+  </si>
+  <si>
     <t>13.12.2022</t>
   </si>
   <si>
@@ -1810,7 +1825,7 @@
     <t>HJVKQ2Uj9PkXKh4aB7EUy+qqEtzziBAX7CaNWYTiFDyXIQ5w6CG1bIat2vs1GsmBD+r6z55FbUFJFdXz57+QgUc=</t>
   </si>
   <si>
-    <t>certificate_Anastasia_Andreeva_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1lqwakseXObG2YQiGwS5h-GQI_nDbjzor/view</t>
   </si>
   <si>
     <t>Polina Reshetnikova</t>
@@ -1825,7 +1840,7 @@
     <t>G63Lq+BtAcEqpIZphPzrLfd1K4chy2llUoMMBLMQGk5gdyNM+62UvBxqqOxckVeN2RtGC1vCiL0NvWNvEPfV4YE=</t>
   </si>
   <si>
-    <t>certificate_Polina_Reshetnikova_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1i117YwnGjmsgELq5E7XDbQhuxDXicUJB/view</t>
   </si>
   <si>
     <t>93620030db08953cbf17</t>
@@ -1837,6 +1852,9 @@
     <t>HHbiD8H1z2fwCjgA0K/0GymJl4RcCi3wnehCfa72EOF+RwXPgmdTom5TH/IQ6e5AjmLndgB/4YfHFtdBTD1hpx0=</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1tTlWJe1RfLa3p4a1IxEBhPf7Fp0yzXaA/view</t>
+  </si>
+  <si>
     <t>b3240a1974bff838f353</t>
   </si>
   <si>
@@ -1846,6 +1864,9 @@
     <t>HE5sTfhDSPPfvHdDSYkSvX2ZkktsyYMaoVxamHtpKMWoUxr7olw6SaItyMSztkPit37aQqfQ+YAsvCfZ01AcAwc=</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1_c7JvqJa0gEW9ebJyTS3goD51HqYmEMH/view</t>
+  </si>
+  <si>
     <t>14.12.2022</t>
   </si>
   <si>
@@ -1858,6 +1879,9 @@
     <t>G6+s7V2DHLaRMUYNOIA8N40KmelApLWT3iXHGYHXv0ZJIGVzGNez6R9Ai+af6Go130PTYDBGSDSN/q4KZdDYaqI=</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1qsjfa4wL1t1quP9wJnR9cBbl7xkkw7sw/view</t>
+  </si>
+  <si>
     <t>Pasha Charovatiy</t>
   </si>
   <si>
@@ -1870,7 +1894,7 @@
     <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
   </si>
   <si>
-    <t>certificate_Pasha_Charovatiy_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1c17o-UNBE3C2Osr4odB0JBZRQmBdLVEG/view</t>
   </si>
   <si>
     <t>Dmytro Serhiienko</t>
@@ -1885,7 +1909,7 @@
     <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y=</t>
   </si>
   <si>
-    <t>certificate_Dmytro_Serhiienko_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1vNRTAtkFKZzILmmXVpV3QO-3VE-P-dGo/view</t>
   </si>
   <si>
     <t>Vladislav Dmitrenko</t>
@@ -1900,7 +1924,7 @@
     <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8=</t>
   </si>
   <si>
-    <t>certificate_Vladislav_Dmitrenko_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1uDrbsupU_qxrxoG3EqWtPGqh4wV0IzfA/view</t>
   </si>
   <si>
     <t>Marina Rindina</t>
@@ -1915,7 +1939,7 @@
     <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
   </si>
   <si>
-    <t>certificate_Marina_Rindina_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1oqZlbveMHgPlcfC9iWVuYzC5PSYCP8qG/view</t>
   </si>
   <si>
     <t>15.12.2022</t>
@@ -1933,7 +1957,7 @@
     <t>HL/mv02dnaeyvxsR9TyKJfqMl9lFEn1L8OidD6AzOq6SbieHRkQRPK29os5vKBwoJ5+Bf7RtfN9xUiVEOCASXj0=</t>
   </si>
   <si>
-    <t>certificate_Nazar_Franko_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1SlHKFR513B1XXyAwNg2rNpvmhHKKFQiv/view</t>
   </si>
   <si>
     <t>Olha Drahomeretska</t>
@@ -1948,7 +1972,7 @@
     <t>HErdMQ+2CPtlOJcP0I5vxghyuQmJVGZrrQr9SzMolPyHA1fUnzBjAbN7DzwkyP+y7M+dkiNCGOkNsY3YZaCO1XA=</t>
   </si>
   <si>
-    <t>certificate_Olha_Drahomeretska_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/11GQcoK_MALyH4TC6IpaHAlkbN7qEoChQ/view</t>
   </si>
   <si>
     <t>Maksym Cherniak</t>
@@ -1963,7 +1987,7 @@
     <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
   </si>
   <si>
-    <t>certificate_Maksym_Cherniak_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1RiaqirxFepm7_yOvW1jzV-FlJT58zofz/view</t>
   </si>
   <si>
     <t>3bf214d846d708bfad51</t>
@@ -1973,6 +1997,9 @@
   </si>
   <si>
     <t>HDfq7iIvfl/KNv5Cs/GPeiZndLZYqskpWWIXt7VX3LunRfVInSqJiTeO33MHHKI8aX3Zz4VgDh7LV5fAg/zZPZk=</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gXbm-vdryeb44xvOsLiA0RzMq6c7Cq14/view</t>
   </si>
 </sst>
 </file>
@@ -4103,7 +4130,7 @@
         <v>269</v>
       </c>
       <c r="J57" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58">
@@ -4111,13 +4138,13 @@
         <v>265</v>
       </c>
       <c r="B58" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C58" t="s">
         <v>255</v>
       </c>
       <c r="D58" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
@@ -4126,30 +4153,30 @@
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H58" t="s">
         <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J58" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B59" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C59" t="s">
         <v>255</v>
       </c>
       <c r="D59" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -4158,30 +4185,30 @@
         <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J59" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C60" t="s">
         <v>255</v>
       </c>
       <c r="D60" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -4190,30 +4217,30 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J60" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C61" t="s">
         <v>255</v>
       </c>
       <c r="D61" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -4222,30 +4249,30 @@
         <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H61" t="s">
         <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B62" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C62" t="s">
         <v>255</v>
       </c>
       <c r="D62" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -4254,30 +4281,30 @@
         <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J62" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B63" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C63" t="s">
         <v>255</v>
       </c>
       <c r="D63" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -4286,30 +4313,30 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J63" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B64" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C64" t="s">
         <v>255</v>
       </c>
       <c r="D64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
@@ -4318,30 +4345,30 @@
         <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J64" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B65" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C65" t="s">
         <v>255</v>
       </c>
       <c r="D65" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
@@ -4350,30 +4377,30 @@
         <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J65" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B66" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C66" t="s">
         <v>255</v>
       </c>
       <c r="D66" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
@@ -4382,30 +4409,30 @@
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
       </c>
       <c r="I66" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J66" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B67" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C67" t="s">
         <v>255</v>
       </c>
       <c r="D67" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -4414,30 +4441,30 @@
         <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J67" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B68" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C68" t="s">
         <v>255</v>
       </c>
       <c r="D68" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -4446,30 +4473,30 @@
         <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J68" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B69" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C69" t="s">
         <v>255</v>
       </c>
       <c r="D69" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
@@ -4478,30 +4505,30 @@
         <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J69" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B70" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C70" t="s">
         <v>255</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -4510,30 +4537,30 @@
         <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J70" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B71" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C71" t="s">
         <v>255</v>
       </c>
       <c r="D71" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -4542,30 +4569,30 @@
         <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J71" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B72" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C72" t="s">
         <v>255</v>
       </c>
       <c r="D72" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -4574,30 +4601,30 @@
         <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J72" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B73" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C73" t="s">
         <v>255</v>
       </c>
       <c r="D73" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -4606,30 +4633,30 @@
         <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J73" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B74" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C74" t="s">
         <v>255</v>
       </c>
       <c r="D74" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -4638,30 +4665,30 @@
         <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J74" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B75" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C75" t="s">
         <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
@@ -4670,30 +4697,30 @@
         <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J75" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B76" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C76" t="s">
         <v>255</v>
       </c>
       <c r="D76" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
@@ -4702,30 +4729,30 @@
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H76" t="s">
         <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J76" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B77" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C77" t="s">
         <v>255</v>
       </c>
       <c r="D77" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E77" t="s">
         <v>14</v>
@@ -4734,30 +4761,30 @@
         <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H77" t="s">
         <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J77" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B78" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C78" t="s">
         <v>255</v>
       </c>
       <c r="D78" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
@@ -4766,30 +4793,30 @@
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H78" t="s">
         <v>14</v>
       </c>
       <c r="I78" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J78" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B79" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C79" t="s">
         <v>255</v>
       </c>
       <c r="D79" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -4798,30 +4825,30 @@
         <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H79" t="s">
         <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J79" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B80" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C80" t="s">
         <v>255</v>
       </c>
       <c r="D80" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -4830,30 +4857,30 @@
         <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H80" t="s">
         <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J80" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B81" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C81" t="s">
         <v>255</v>
       </c>
       <c r="D81" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -4862,30 +4889,30 @@
         <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H81" t="s">
         <v>14</v>
       </c>
       <c r="I81" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J81" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B82" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C82" t="s">
         <v>255</v>
       </c>
       <c r="D82" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -4894,30 +4921,30 @@
         <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H82" t="s">
         <v>14</v>
       </c>
       <c r="I82" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J82" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B83" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C83" t="s">
         <v>255</v>
       </c>
       <c r="D83" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -4926,30 +4953,30 @@
         <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H83" t="s">
         <v>14</v>
       </c>
       <c r="I83" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J83" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B84" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C84" t="s">
         <v>255</v>
       </c>
       <c r="D84" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -4958,30 +4985,30 @@
         <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H84" t="s">
         <v>14</v>
       </c>
       <c r="I84" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J84" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B85" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C85" t="s">
         <v>255</v>
       </c>
       <c r="D85" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -4990,30 +5017,30 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H85" t="s">
         <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J85" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B86" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C86" t="s">
         <v>255</v>
       </c>
       <c r="D86" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -5022,30 +5049,30 @@
         <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H86" t="s">
         <v>14</v>
       </c>
       <c r="I86" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J86" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B87" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C87" t="s">
         <v>255</v>
       </c>
       <c r="D87" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
@@ -5054,30 +5081,30 @@
         <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H87" t="s">
         <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J87" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B88" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C88" t="s">
         <v>255</v>
       </c>
       <c r="D88" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -5086,30 +5113,30 @@
         <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H88" t="s">
         <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J88" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B89" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C89" t="s">
         <v>255</v>
       </c>
       <c r="D89" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -5118,30 +5145,30 @@
         <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H89" t="s">
         <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J89" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B90" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C90" t="s">
         <v>255</v>
       </c>
       <c r="D90" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
@@ -5150,30 +5177,30 @@
         <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H90" t="s">
         <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J90" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B91" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C91" t="s">
         <v>255</v>
       </c>
       <c r="D91" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
@@ -5182,30 +5209,30 @@
         <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H91" t="s">
         <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J91" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B92" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C92" t="s">
         <v>255</v>
       </c>
       <c r="D92" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -5214,30 +5241,30 @@
         <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H92" t="s">
         <v>14</v>
       </c>
       <c r="I92" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J92" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B93" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C93" t="s">
         <v>255</v>
       </c>
       <c r="D93" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
@@ -5246,30 +5273,30 @@
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H93" t="s">
         <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J93" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B94" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C94" t="s">
         <v>255</v>
       </c>
       <c r="D94" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -5278,30 +5305,30 @@
         <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H94" t="s">
         <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J94" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B95" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C95" t="s">
         <v>255</v>
       </c>
       <c r="D95" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -5310,30 +5337,30 @@
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H95" t="s">
         <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J95" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B96" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C96" t="s">
         <v>255</v>
       </c>
       <c r="D96" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -5342,30 +5369,30 @@
         <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H96" t="s">
         <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J96" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B97" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C97" t="s">
         <v>255</v>
       </c>
       <c r="D97" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
@@ -5374,30 +5401,30 @@
         <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H97" t="s">
         <v>14</v>
       </c>
       <c r="I97" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J97" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B98" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C98" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D98" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
@@ -5406,30 +5433,30 @@
         <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H98" t="s">
         <v>14</v>
       </c>
       <c r="I98" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J98" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B99" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C99" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D99" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -5438,30 +5465,30 @@
         <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H99" t="s">
         <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="J99" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B100" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C100" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D100" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
@@ -5470,30 +5497,30 @@
         <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H100" t="s">
         <v>14</v>
       </c>
       <c r="I100" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J100" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B101" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C101" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D101" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
@@ -5502,30 +5529,30 @@
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H101" t="s">
         <v>14</v>
       </c>
       <c r="I101" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J101" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B102" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C102" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D102" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -5534,62 +5561,62 @@
         <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H102" t="s">
         <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J102" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B103" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C103" t="s">
+        <v>559</v>
+      </c>
+      <c r="D103" t="s">
+        <v>555</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>556</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>557</v>
+      </c>
+      <c r="J103" t="s">
         <v>558</v>
-      </c>
-      <c r="D103" t="s">
-        <v>554</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>555</v>
-      </c>
-      <c r="H103" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" t="s">
-        <v>556</v>
-      </c>
-      <c r="J103" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B104" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C104" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D104" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
@@ -5598,30 +5625,30 @@
         <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H104" t="s">
         <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J104" t="s">
-        <v>479</v>
+        <v>563</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B105" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C105" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D105" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E105" t="s">
         <v>14</v>
@@ -5630,30 +5657,30 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H105" t="s">
         <v>14</v>
       </c>
       <c r="I105" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="J105" t="s">
-        <v>479</v>
+        <v>568</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B106" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C106" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D106" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
@@ -5662,30 +5689,30 @@
         <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H106" t="s">
         <v>14</v>
       </c>
       <c r="I106" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="J106" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B107" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C107" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D107" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
@@ -5694,30 +5721,30 @@
         <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="H107" t="s">
         <v>14</v>
       </c>
       <c r="I107" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="J107" t="s">
-        <v>436</v>
+        <v>578</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B108" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C108" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D108" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
@@ -5726,30 +5753,30 @@
         <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H108" t="s">
         <v>14</v>
       </c>
       <c r="I108" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="J108" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B109" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C109" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D109" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -5758,30 +5785,30 @@
         <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H109" t="s">
         <v>14</v>
       </c>
       <c r="I109" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="J109" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B110" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C110" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D110" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
@@ -5790,30 +5817,30 @@
         <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H110" t="s">
         <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="J110" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B111" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C111" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D111" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
@@ -5822,30 +5849,30 @@
         <v>14</v>
       </c>
       <c r="G111" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H111" t="s">
         <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="J111" t="s">
-        <v>383</v>
+        <v>597</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B112" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="C112" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D112" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
@@ -5854,30 +5881,30 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="H112" t="s">
         <v>14</v>
       </c>
       <c r="I112" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="J112" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B113" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C113" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D113" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
@@ -5886,30 +5913,30 @@
         <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="J113" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B114" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C114" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D114" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
@@ -5918,30 +5945,30 @@
         <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="H114" t="s">
         <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="J114" t="s">
-        <v>513</v>
+        <v>612</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B115" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C115" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D115" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
@@ -5950,30 +5977,30 @@
         <v>14</v>
       </c>
       <c r="G115" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="H115" t="s">
         <v>14</v>
       </c>
       <c r="I115" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="J115" t="s">
-        <v>485</v>
+        <v>616</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="B116" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C116" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D116" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -5982,30 +6009,30 @@
         <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="H116" t="s">
         <v>14</v>
       </c>
       <c r="I116" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="J116" t="s">
-        <v>383</v>
+        <v>621</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="B117" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="C117" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D117" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
@@ -6014,30 +6041,30 @@
         <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="H117" t="s">
         <v>14</v>
       </c>
       <c r="I117" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J117" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="B118" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="C118" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D118" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
@@ -6046,30 +6073,30 @@
         <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="H118" t="s">
         <v>14</v>
       </c>
       <c r="I118" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="J118" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="B119" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="C119" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D119" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
@@ -6078,30 +6105,30 @@
         <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="H119" t="s">
         <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="J119" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="B120" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="C120" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D120" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
@@ -6110,30 +6137,30 @@
         <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="H120" t="s">
         <v>14</v>
       </c>
       <c r="I120" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="J120" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B121" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C121" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D121" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
@@ -6142,30 +6169,30 @@
         <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="H121" t="s">
         <v>14</v>
       </c>
       <c r="I121" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="J121" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B122" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C122" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D122" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
@@ -6174,30 +6201,30 @@
         <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="H122" t="s">
         <v>14</v>
       </c>
       <c r="I122" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="J122" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B123" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="C123" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="D123" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -6206,27 +6233,27 @@
         <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="H123" t="s">
         <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="J123" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B124" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="D124" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
@@ -6235,16 +6262,16 @@
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="H124" t="s">
         <v>14</v>
       </c>
       <c r="I124" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="J124" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="638">
+  <si>
+    <t>COURSE TITLE</t>
+  </si>
+  <si>
+    <t>SERIAL NUMBER</t>
+  </si>
+  <si>
+    <t>CERTIFICATE</t>
+  </si>
+  <si>
+    <t>DATA HASH</t>
+  </si>
+  <si>
+    <t>DIGITAL CERTIFICATE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
   <si>
     <t>TRANSACTION HASH</t>
   </si>
@@ -22,90 +46,66 @@
     <t>SIGNATURE</t>
   </si>
   <si>
-    <t>COURSE TITLE</t>
-  </si>
-  <si>
-    <t>NOTE</t>
-  </si>
-  <si>
-    <t>CERTIFICATE</t>
-  </si>
-  <si>
-    <t>DATA HASH</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>PARTICIPANT</t>
-  </si>
-  <si>
-    <t>SERIAL NUMBER</t>
-  </si>
-  <si>
-    <t>DIGITAL CERTIFICATE</t>
+    <t/>
+  </si>
+  <si>
+    <t>ginesis certificate</t>
+  </si>
+  <si>
+    <t>private link</t>
+  </si>
+  <si>
+    <t>25.06.2015</t>
   </si>
   <si>
     <t>Петро Петрович Воробієнко</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>private link</t>
-  </si>
-  <si>
-    <t>25.06.2015</t>
-  </si>
-  <si>
     <t>Біткоїн та криптовалюти</t>
   </si>
   <si>
-    <t>ginesis certificate</t>
+    <t>10.05.2016</t>
+  </si>
+  <si>
+    <t>Nikita Magda</t>
+  </si>
+  <si>
+    <t>Cryptocurrencies and Distributed Systems</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1xobiD9wUIQcesMkrmh5x2x_aWnibPkqI/view</t>
   </si>
   <si>
-    <t>Nikita Magda</t>
-  </si>
-  <si>
-    <t>Cryptocurrencies and Distributed Systems</t>
-  </si>
-  <si>
-    <t>10.05.2016</t>
+    <t>graduated with honors</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/18lYidkmWMBuBxR0FU0OIGuQ8doTz8zQs/view</t>
   </si>
   <si>
     <t>Нестеров Максим</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/18lYidkmWMBuBxR0FU0OIGuQ8doTz8zQs/view</t>
-  </si>
-  <si>
-    <t>graduated with honors</t>
-  </si>
-  <si>
     <t>Alexey Shendrick</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1KuJR4GYiRyC4Oh6Z6q-u9fpqe-EPWabk/view</t>
+  </si>
+  <si>
     <t>Anastasia Sapozhkova</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1KuJR4GYiRyC4Oh6Z6q-u9fpqe-EPWabk/view</t>
+    <t>drive.google.com/file/d/1xd3b6fXkkagcyEeiMZ1P7kKH_BM1BRuv/view</t>
   </si>
   <si>
     <t>Den Galkin</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1xd3b6fXkkagcyEeiMZ1P7kKH_BM1BRuv/view</t>
+    <t>drive.google.com/file/d/1tuaBB_KFOTHOfTmXgov42E2v6sHShUdb/view</t>
   </si>
   <si>
     <t>Daniyil Yakovlev</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1tuaBB_KFOTHOfTmXgov42E2v6sHShUdb/view</t>
-  </si>
-  <si>
     <t>Алексей Демидов</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>Денис Руденко</t>
   </si>
   <si>
+    <t>Illia Fariatiev</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1Tyr0ky3sNg-lcDGdEe0-MKG0dzpL3TQA/view</t>
   </si>
   <si>
-    <t>Illia Fariatiev</t>
-  </si>
-  <si>
     <t>Костюк Александр</t>
   </si>
   <si>
@@ -136,12 +136,12 @@
     <t>Синельников Александр</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1W0bokyIjw-j_5942KinD1ZRB1ges5fhb/view</t>
+  </si>
+  <si>
     <t>Скрипник Александр</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1W0bokyIjw-j_5942KinD1ZRB1ges5fhb/view</t>
-  </si>
-  <si>
     <t>Солонский Александр</t>
   </si>
   <si>
@@ -157,30 +157,30 @@
     <t>Oleksiy Ponomorev</t>
   </si>
   <si>
+    <t>Pavel Brilliant</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1YHz2l23Dy_FAB_zBAXxkehxN9ZvR7T99/view</t>
   </si>
   <si>
-    <t>Pavel Brilliant</t>
+    <t>drive.google.com/file/d/1dhsj1ZCPOPwvKc6arWVDAveu1h0EoY_l/view</t>
   </si>
   <si>
     <t>Volodymyr Kavetskyy</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1dhsj1ZCPOPwvKc6arWVDAveu1h0EoY_l/view</t>
-  </si>
-  <si>
     <t>Vladyslav Minakov</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1N0y-Y_QVKO2DDn06IuDVESkeKJ5LoiDN/view</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1AcBsG13D5jBJ3_w506hQOHHs_iJD2Jwt/view</t>
+  </si>
+  <si>
     <t>03.03.2017</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1AcBsG13D5jBJ3_w506hQOHHs_iJD2Jwt/view</t>
-  </si>
-  <si>
     <t>Yevheniia Shchypeleva</t>
   </si>
   <si>
@@ -190,15 +190,15 @@
     <t>Heorhii Kholodov</t>
   </si>
   <si>
+    <t>Blockchain and Distributed Systems</t>
+  </si>
+  <si>
+    <t>30.05.2018</t>
+  </si>
+  <si>
     <t>Aleksandr Gnatyuk</t>
   </si>
   <si>
-    <t>30.05.2018</t>
-  </si>
-  <si>
-    <t>Blockchain and Distributed Systems</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1JYRb1u6DI1z4mB3s1z8SSiiGDwdh_IhH/view</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Aleksandr Ivanov</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1dKebMjrvUlgGa3iO-WyfqWoE2EuPbGCV/view</t>
+  </si>
+  <si>
     <t>Artyom Ahmetzyanov</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1dKebMjrvUlgGa3iO-WyfqWoE2EuPbGCV/view</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1rqLi5pccF50iQmqQORRTpl8nYWgy_qHs/view</t>
   </si>
   <si>
@@ -235,51 +235,54 @@
     <t>Ilya Svetaylo</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1AT9DeYKwkp9NKSF3bb4Vdr1JtdlzltPp/view</t>
+  </si>
+  <si>
     <t>Dmytro Mandych</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1AT9DeYKwkp9NKSF3bb4Vdr1JtdlzltPp/view</t>
-  </si>
-  <si>
     <t>26.05.2020</t>
   </si>
   <si>
+    <t>Petr Murzin</t>
+  </si>
+  <si>
     <t>Basic Level in Decentralized Technologies</t>
   </si>
   <si>
+    <t>6e70ac729189b0e0097a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1BBaI1GopSevCSWKbBRWeownYk8eDv7MB/view</t>
+  </si>
+  <si>
+    <t>6e70ac729189b0e0097a6e7bcfec69494538bf4736cdb17a9fe9bd1582fe2e95</t>
+  </si>
+  <si>
     <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
   </si>
   <si>
-    <t>6e70ac729189b0e0097a6e7bcfec69494538bf4736cdb17a9fe9bd1582fe2e95</t>
-  </si>
-  <si>
-    <t>Petr Murzin</t>
-  </si>
-  <si>
-    <t>6e70ac729189b0e0097a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1BBaI1GopSevCSWKbBRWeownYk8eDv7MB/view</t>
-  </si>
-  <si>
     <t>G6/C1S2XpwhcvDAGp/fvUWUBET+OlYdOP5LnW6gBIOlhR8phT652b46fy8YlvQ9DbbNynZ/DfRUiotWAFIhBhlU=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1T9IlKrmEJbx1bh1O1jPwTkuazCstW7gz/view</t>
   </si>
   <si>
+    <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
+  </si>
+  <si>
+    <t>G4/MsM7bSvAPVr7C5IXyo2TnOz+ZwqdlVNpBidWCbpuzC+JkRBEjbhY/lkPH7VtAhp8EOYgyLA2ID6F4GhqUY84=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/12OpLxs1aK-BTF1PebTXrsMh4zxKH_wen/view</t>
+  </si>
+  <si>
     <t>80b4017b0b2d571867a20c183448a98b8a4dc0d52f134e363772da7dca5b5a06</t>
   </si>
   <si>
     <t>28.05.2020</t>
   </si>
   <si>
-    <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/12OpLxs1aK-BTF1PebTXrsMh4zxKH_wen/view</t>
-  </si>
-  <si>
     <t>Lovkin Ivan</t>
   </si>
   <si>
@@ -289,31 +292,37 @@
     <t>drive.google.com/file/d/1B00wgJ6gYotdnedRkemkU_JBPFt1H4xd/view</t>
   </si>
   <si>
-    <t>G4/MsM7bSvAPVr7C5IXyo2TnOz+ZwqdlVNpBidWCbpuzC+JkRBEjbhY/lkPH7VtAhp8EOYgyLA2ID6F4GhqUY84=</t>
+    <t>30.05.2020</t>
+  </si>
+  <si>
+    <t>Nikita Moskovkin</t>
+  </si>
+  <si>
+    <t>694d0f5a7afe6fbc99cb</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
+  </si>
+  <si>
+    <t>694d0f5a7afe6fbc99cb56819a09f9fa0e8b66b07180bb555d98593a0f7d5d41</t>
   </si>
   <si>
     <t>8dd5355ff30fcc74f42b09a276bf3f8c4bfadb9074adff5d3661f186029628c5</t>
   </si>
   <si>
-    <t>694d0f5a7afe6fbc99cb56819a09f9fa0e8b66b07180bb555d98593a0f7d5d41</t>
-  </si>
-  <si>
-    <t>30.05.2020</t>
-  </si>
-  <si>
-    <t>694d0f5a7afe6fbc99cb</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
-  </si>
-  <si>
     <t>HM5GZ+rTicq0RKhj0bFs+2fpeD7O+kpSJnLKYgEw3HaNYvb3HW/VNAjwQR1DXGHUEqofERXjtLW1G8JMk4q2O1g=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1bX5sis1H79_hFn7wh4-Sh00aeO_e7yFq/view</t>
   </si>
   <si>
-    <t>Nikita Moskovkin</t>
+    <t>HPXPxUNV1rO31el0TjnHFXDe0tBCoiQSC2o12BSvZFW1TNa1atBAmZb7ZrJ7vjBOzLYTbvCsfGf6NaSBZmpI1R0=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1DIotRiCyqr6U7vuXvDVWTrwbYMpd8-tp/view</t>
+  </si>
+  <si>
+    <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
   </si>
   <si>
     <t>Valeriy Gello</t>
@@ -325,40 +334,49 @@
     <t>drive.google.com/file/d/1IIYEmVzJwRrLeeAC2mvbJPBgnsiuCbgX/view</t>
   </si>
   <si>
-    <t>HPXPxUNV1rO31el0TjnHFXDe0tBCoiQSC2o12BSvZFW1TNa1atBAmZb7ZrJ7vjBOzLYTbvCsfGf6NaSBZmpI1R0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1DIotRiCyqr6U7vuXvDVWTrwbYMpd8-tp/view</t>
+    <t>2b6aadb041197def922aff8cb257af872568b572362c2f19fdb2468228e58569</t>
   </si>
   <si>
     <t>03.06.2020</t>
   </si>
   <si>
-    <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
-  </si>
-  <si>
-    <t>2b6aadb041197def922aff8cb257af872568b572362c2f19fdb2468228e58569</t>
+    <t>7dfdd6abd5c883c7c876202d91386257e48337f55209b774f35d4eea4efe5df4</t>
+  </si>
+  <si>
+    <t>G/ltW+rOPMYiEf/bzUkMzj7W5syoNvcTi1i++MOcDD8LJwSKAaoFS+c0TmDOwIZDyqaVwk6QYu1MfsGJw7+KZ8g=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HToZ3ouEVe-2rFezzJSnetG4rkJl4wb5/view</t>
+  </si>
+  <si>
+    <t>72008d9bb1a357ae7d6efc7520283e59adb638b44be971a41438ae3635beca20</t>
   </si>
   <si>
     <t>21.08.2020</t>
   </si>
   <si>
-    <t>7dfdd6abd5c883c7c876202d91386257e48337f55209b774f35d4eea4efe5df4</t>
-  </si>
-  <si>
-    <t>72008d9bb1a357ae7d6efc7520283e59adb638b44be971a41438ae3635beca20</t>
-  </si>
-  <si>
     <t>Elizabeth Gurieva</t>
   </si>
   <si>
     <t>72008d9bb1a357ae7d6e</t>
   </si>
   <si>
-    <t>G/ltW+rOPMYiEf/bzUkMzj7W5syoNvcTi1i++MOcDD8LJwSKAaoFS+c0TmDOwIZDyqaVwk6QYu1MfsGJw7+KZ8g=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1HToZ3ouEVe-2rFezzJSnetG4rkJl4wb5/view</t>
+    <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
+  </si>
+  <si>
+    <t>HJqrp6YpiFPfileEaqKJDnwfvu15NL6LlwLDM3NSIXu9Rd9ir011tVJPyRSDxL5NUwqyiY5Be55Z3VObN4rH/nQ=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1sMqTvx1fDXHx-OeU1r4uA1Z3kzVIMKAn/view</t>
+  </si>
+  <si>
+    <t>91053d5330c4b99d88272eb9c214b2f57c8522c2b473b54d5e250b422de6e24b</t>
+  </si>
+  <si>
+    <t>15.09.2020</t>
   </si>
   <si>
     <t>Alexander Zhovnuvaty</t>
@@ -367,43 +385,37 @@
     <t>91053d5330c4b99d8827</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1sMqTvx1fDXHx-OeU1r4uA1Z3kzVIMKAn/view</t>
-  </si>
-  <si>
-    <t>HJqrp6YpiFPfileEaqKJDnwfvu15NL6LlwLDM3NSIXu9Rd9ir011tVJPyRSDxL5NUwqyiY5Be55Z3VObN4rH/nQ=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
-  </si>
-  <si>
-    <t>15.09.2020</t>
-  </si>
-  <si>
-    <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
-  </si>
-  <si>
-    <t>91053d5330c4b99d88272eb9c214b2f57c8522c2b473b54d5e250b422de6e24b</t>
+    <t>drive.google.com/file/d/1Wzemb_7VWsXKUqEMEuniXiEqqCU6NR1X/view</t>
   </si>
   <si>
     <t>508f78ad5c0df80128b059d5367511650f12c1c999a2873f5a5bdfa0c3cd9294</t>
   </si>
   <si>
+    <t>Nikolay Scherbakov</t>
+  </si>
+  <si>
+    <t>508f78ad5c0df80128b0</t>
+  </si>
+  <si>
     <t>7368eab2f4fa6157cb3f67d39e8526bc1b91a852be6a70cddcbb6067c8b400f5</t>
   </si>
   <si>
+    <t>G7fNdjrRdRCgCqs32IBGetb1WmNZTLKq4VdxIE2xZRAONYfBhaC++AKXc/TWLJ1iJ6vRlR5V1AGGRJa8VcJDRks=</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1s59oNqnl8rvcFITI-56v1nt_VCOHq94D/view</t>
   </si>
   <si>
-    <t>Nikolay Scherbakov</t>
-  </si>
-  <si>
-    <t>508f78ad5c0df80128b0</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Wzemb_7VWsXKUqEMEuniXiEqqCU6NR1X/view</t>
-  </si>
-  <si>
-    <t>G7fNdjrRdRCgCqs32IBGetb1WmNZTLKq4VdxIE2xZRAONYfBhaC++AKXc/TWLJ1iJ6vRlR5V1AGGRJa8VcJDRks=</t>
+    <t>2b4075806aa1180a35b6b6718701374debfd505b954491160ac09a4ebf1d632c</t>
+  </si>
+  <si>
+    <t>HOozi22vAuznvsCYdPeFGpfEsgVv/RPDvKEBNLr3Kjh2ZNMwqnGETY/MTNluCe+mJBLtg4ig6yOhtqyY0VWavFU=</t>
+  </si>
+  <si>
+    <t>9976212738b45235cfd6f208ccae9ca14da64a06bcb5304d8bb422d00ff1540d</t>
+  </si>
+  <si>
+    <t>16.09.2020</t>
   </si>
   <si>
     <t>Anonymous</t>
@@ -412,72 +424,66 @@
     <t>9976212738b45235cfd6</t>
   </si>
   <si>
-    <t>HOozi22vAuznvsCYdPeFGpfEsgVv/RPDvKEBNLr3Kjh2ZNMwqnGETY/MTNluCe+mJBLtg4ig6yOhtqyY0VWavFU=</t>
-  </si>
-  <si>
-    <t>9976212738b45235cfd6f208ccae9ca14da64a06bcb5304d8bb422d00ff1540d</t>
-  </si>
-  <si>
-    <t>16.09.2020</t>
-  </si>
-  <si>
-    <t>2b4075806aa1180a35b6b6718701374debfd505b954491160ac09a4ebf1d632c</t>
+    <t>cd9b18ee000a3ab57d740ee8b2a2330632f070a69ff9efdd8ecdc6c8230e2e11</t>
   </si>
   <si>
     <t>17.09.2020</t>
   </si>
   <si>
+    <t>Aleksandr Khomutov</t>
+  </si>
+  <si>
+    <t>cd9b18ee000a3ab57d74</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HDfg3clKtJbjQEEtI2yxSv51_fDRYWRn/view</t>
+  </si>
+  <si>
     <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
   </si>
   <si>
-    <t>cd9b18ee000a3ab57d740ee8b2a2330632f070a69ff9efdd8ecdc6c8230e2e11</t>
-  </si>
-  <si>
-    <t>Aleksandr Khomutov</t>
-  </si>
-  <si>
-    <t>cd9b18ee000a3ab57d74</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1HDfg3clKtJbjQEEtI2yxSv51_fDRYWRn/view</t>
-  </si>
-  <si>
     <t>HOq9ZhrQ00V8PHtEc7PLbgREykAE4fSaVIbPozy6iTxNKZmzV7JHxsT5aQobJF+D1Hu+Hj++PUAVwscGr1K8ydg=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/10KBS_dIRNDhekiu_k9NiRZq_tLz9wFLJ/view</t>
   </si>
   <si>
+    <t>0f8a70da32b47c86fa69</t>
+  </si>
+  <si>
+    <t>Listener only</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
     <t>12.29.2021</t>
   </si>
   <si>
+    <t>Tetiana Diachuk</t>
+  </si>
+  <si>
     <t>Beginner at theoretical aspects blockchain technology</t>
   </si>
   <si>
-    <t>Listener only</t>
-  </si>
-  <si>
     <t>0f8a70da32b47c86fa69a39dd522c99b25802700a336d49e16a760eea763f4b1</t>
   </si>
   <si>
-    <t>–</t>
-  </si>
-  <si>
-    <t>Tetiana Diachuk</t>
-  </si>
-  <si>
-    <t>0f8a70da32b47c86fa69</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
-  </si>
-  <si>
     <t>HCKQDvhlFx194rKcO7OKfVKVHm8iJgs5HBTYDDoPUT1zbt/WBBbpt3FwSlXhjLHeFALjBPeDsJ0+FlqjYJrcedE=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/19iQXgKAz6f9TVn-PH7XNVjURb69Cog1K/view</t>
   </si>
   <si>
+    <t>GwuoELh5wGDbKgdx/iwOEwB1aYpRhZGvqoWHkCMl2GldW99XUUjugdXMecd1OG2SKwwMXofLc4+rAxXvTnt+cCU=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/16W1PgiFDe8yDvOAKUfipXQuF54CGJwOr/view</t>
+  </si>
+  <si>
     <t>157083727495af019be18396a5b6fb784fb8fdf515e7069698ea538039655ea2</t>
   </si>
   <si>
@@ -490,31 +496,31 @@
     <t>drive.google.com/file/d/1FZ2SgaDMIJRp10hntSqe1gLrAUG9DHpM/view</t>
   </si>
   <si>
-    <t>GwuoELh5wGDbKgdx/iwOEwB1aYpRhZGvqoWHkCMl2GldW99XUUjugdXMecd1OG2SKwwMXofLc4+rAxXvTnt+cCU=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/16W1PgiFDe8yDvOAKUfipXQuF54CGJwOr/view</t>
+    <t>drive.google.com/file/d/1ryCRznjmAN1vpfuTCHcFPCtIzw-dl20L/view</t>
+  </si>
+  <si>
+    <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
+  </si>
+  <si>
+    <t>HEq8g+MEi+GvEmvTK4osdDCOUv0zrtlFXz3jX58hUEpuGtiwefAAUrsqS6PizJncb1B9qyY6GiaVMtDN4AGXjuA=</t>
+  </si>
+  <si>
+    <t>c94b544cf914bfa7a011</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HmqEySvyMucrLal0DQ8-Vhc0ALSaBJgo/view</t>
+  </si>
+  <si>
+    <t>24.05.2022</t>
   </si>
   <si>
     <t>Viktoriia Kovalenko</t>
   </si>
   <si>
-    <t>c94b544cf914bfa7a011</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1HmqEySvyMucrLal0DQ8-Vhc0ALSaBJgo/view</t>
-  </si>
-  <si>
-    <t>HEq8g+MEi+GvEmvTK4osdDCOUv0zrtlFXz3jX58hUEpuGtiwefAAUrsqS6PizJncb1B9qyY6GiaVMtDN4AGXjuA=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1ryCRznjmAN1vpfuTCHcFPCtIzw-dl20L/view</t>
-  </si>
-  <si>
-    <t>24.05.2022</t>
-  </si>
-  <si>
-    <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
+    <t>drive.google.com/file/d/1RBczYKwSRmMu4zAoVVmnWvjgkl0tENzG/view</t>
+  </si>
+  <si>
+    <t>31e612cbb30ee1e0b131836790253817c04031043f623abb460c83208fafa932</t>
   </si>
   <si>
     <t>Artem Lytvynov</t>
@@ -523,7 +529,7 @@
     <t>31e612cbb30ee1e0b131</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1RBczYKwSRmMu4zAoVVmnWvjgkl0tENzG/view</t>
+    <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
   </si>
   <si>
     <t>HERmuZzuSW3wNNWRroC2QNMxKOMuAdjg4gxhbcA/9UHiA/lhyfJJRi4RDzmC1ToYWKgUdyANuExL857Jh5UphPk=</t>
@@ -532,46 +538,49 @@
     <t>drive.google.com/file/d/1KnXAljoWMcSRaMbBCkrmp_U3hzb_asxc/view</t>
   </si>
   <si>
-    <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
-  </si>
-  <si>
-    <t>31e612cbb30ee1e0b131836790253817c04031043f623abb460c83208fafa932</t>
+    <t>321d5bc0b6acda5a08db</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1GxBJoJ4QVMY5O6BDlBGtx-tJAcxj-f6s/view</t>
+  </si>
+  <si>
+    <t>Taras Horun</t>
   </si>
   <si>
     <t>321d5bc0b6acda5a08dbd6e3b151c27d1951c01e36b674970fe5bb02a33d5d2e</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1GxBJoJ4QVMY5O6BDlBGtx-tJAcxj-f6s/view</t>
-  </si>
-  <si>
     <t>HDWEh9ESydNwt1uGPeE27CIKeMKPy+O87vrhEELOeECTIKgu9VndiSLOpNThFwKWV+2oMh8SMAjRbBHZ8RxF8Qo=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1oa4_pnjVk863Kfi7CxIgvLXEUczkVxHS/view</t>
   </si>
   <si>
-    <t>Taras Horun</t>
-  </si>
-  <si>
-    <t>321d5bc0b6acda5a08db</t>
+    <t>drive.google.com/file/d/1Aal0m_o5pRV8rfXsm8wDWIqIg36jUqvx/view</t>
+  </si>
+  <si>
+    <t>Anastasiia Slota</t>
+  </si>
+  <si>
+    <t>5d71857f9a99d5d85ed7</t>
+  </si>
+  <si>
+    <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
+  </si>
+  <si>
+    <t>HE4WVZfpHDM927pj2Gbc9lOZhBRopu9jToBZfr7D62mneKWV8M75X8Q2SZc4tnXE/3LeWTqxpIkzc9Xy6DqvUqE=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1YDow8GoX8mnMZNo20qBTbJw8-YHXDU5u/view</t>
   </si>
   <si>
-    <t>Anastasiia Slota</t>
-  </si>
-  <si>
-    <t>5d71857f9a99d5d85ed7</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Aal0m_o5pRV8rfXsm8wDWIqIg36jUqvx/view</t>
-  </si>
-  <si>
-    <t>HE4WVZfpHDM927pj2Gbc9lOZhBRopu9jToBZfr7D62mneKWV8M75X8Q2SZc4tnXE/3LeWTqxpIkzc9Xy6DqvUqE=</t>
-  </si>
-  <si>
-    <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
+    <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
+  </si>
+  <si>
+    <t>G09Pu89zZ+mW2gdSx729xoRrBvWoumXJAYLuporfSBGdbAJOMCqKcBPj8R2VtP4sJbwNZAWnmvuqpJqZU6h83hQ=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bfp7feXW3jlCWM6JNgL66zeE8LHm4X-Y/view</t>
   </si>
   <si>
     <t>Yuriy Melnychuk</t>
@@ -583,94 +592,94 @@
     <t>drive.google.com/file/d/17vX52MGbM2gkG3qqa1fz-ERnrQbdcw4y/view</t>
   </si>
   <si>
-    <t>G09Pu89zZ+mW2gdSx729xoRrBvWoumXJAYLuporfSBGdbAJOMCqKcBPj8R2VtP4sJbwNZAWnmvuqpJqZU6h83hQ=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1bfp7feXW3jlCWM6JNgL66zeE8LHm4X-Y/view</t>
-  </si>
-  <si>
-    <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
+    <t>GxwV1QU9bkNovno07/2Qf5RnVqi33IIX/h2qm9QewYuqQO6/ULkKQG+dc47LvkhphEUWoWaEai8xaIVxIvH3mxQ=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bilaW63V87r9jkQgRfz_fevbeWN6NFyo/view</t>
   </si>
   <si>
     <t>e9bf9426eb214a6e36c83520cbd22f2b58d44e518597ce9887c5c65d029ed683</t>
   </si>
   <si>
+    <t>Vladyslav Mazur</t>
+  </si>
+  <si>
     <t>e9bf9426eb214a6e36c8</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1JY1qkLvZnhJoC7eW8zecnwqdN2ADtZBQ/view</t>
   </si>
   <si>
-    <t>GxwV1QU9bkNovno07/2Qf5RnVqi33IIX/h2qm9QewYuqQO6/ULkKQG+dc47LvkhphEUWoWaEai8xaIVxIvH3mxQ=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1bilaW63V87r9jkQgRfz_fevbeWN6NFyo/view</t>
-  </si>
-  <si>
-    <t>Vladyslav Mazur</t>
-  </si>
-  <si>
     <t>33571c3c57728ede717b2bf46df346305cbeca3e966b76cf15369f7411ddabef</t>
   </si>
   <si>
+    <t>G0/HbGdGK3B0R9z8wip7gA/5JeSvjkSeA7lcGfugt/KcNVV1VKo36tLg+Qi79IEd3lr9lE92CXfNXZ8c3GeiPc0=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/18pj8mEa0wJ5A_Nt1l6RNMZ9iTH4oUWSC/view</t>
+  </si>
+  <si>
+    <t>Hanna Zhurba</t>
+  </si>
+  <si>
     <t>33571c3c57728ede717b</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1l0atb8z64jklpxeGi48llMRwrNeoKf0y/view</t>
   </si>
   <si>
-    <t>G0/HbGdGK3B0R9z8wip7gA/5JeSvjkSeA7lcGfugt/KcNVV1VKo36tLg+Qi79IEd3lr9lE92CXfNXZ8c3GeiPc0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/18pj8mEa0wJ5A_Nt1l6RNMZ9iTH4oUWSC/view</t>
-  </si>
-  <si>
-    <t>Hanna Zhurba</t>
+    <t>Viktoriia Holoshchapova</t>
+  </si>
+  <si>
+    <t>96250fd24ef42b3b059c</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Rl7QRlGxtywdMCDmM-i2aXCzulou-hLS/view</t>
   </si>
   <si>
     <t>96250fd24ef42b3b059c7f85867ca063298d0784f07d7b3d4a19da04dbf6f4c7</t>
   </si>
   <si>
-    <t>Viktoriia Holoshchapova</t>
-  </si>
-  <si>
-    <t>96250fd24ef42b3b059c</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Rl7QRlGxtywdMCDmM-i2aXCzulou-hLS/view</t>
-  </si>
-  <si>
     <t>Gwgj57Jqz9+NMhDQlcZmobwbWCi8h4ESrKASdManWz5saGNNFwx832peyy6A/lp8DsUFzZzOihp1V/OspkMps9k=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1V1S4zVBvdZ7u0qWNpj70QbU_Qv1ZSwcz/view</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/16683RbvjBsJBFBrLwtLwWlQJUfTiD0Xd/view</t>
+  </si>
+  <si>
+    <t>Nikita Liashko</t>
+  </si>
+  <si>
+    <t>638039974f462d2a16fa</t>
+  </si>
+  <si>
     <t>638039974f462d2a16fa4959a86c265addbc78b4b6d26dddbcf4a9d2b69ae9d7</t>
   </si>
   <si>
-    <t>Nikita Liashko</t>
-  </si>
-  <si>
-    <t>638039974f462d2a16fa</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/16683RbvjBsJBFBrLwtLwWlQJUfTiD0Xd/view</t>
-  </si>
-  <si>
     <t>G22mibmMslmyD8rrY2ltE5Tcm9wjiNndNugd3f4Ant1qdwTC2A9jhFQ04ORFamlLGr+mI2MryPJAFIY7R3Zco1E=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1kWKcfuN3wKIueLCmFLK6eUxWZA5-cjqw/view</t>
   </si>
   <si>
+    <t>a4f695eb1f54152d096f</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1R38xCu4uADZnLmaMGWWjBOj2A6I7JcLz/view</t>
+  </si>
+  <si>
+    <t>a4f695eb1f54152d096fac83f42a2627f1da6e57869febbc0736945533b39dfd</t>
+  </si>
+  <si>
+    <t>27.05.2022</t>
+  </si>
+  <si>
     <t>Oleksandr Ishchuk</t>
   </si>
   <si>
-    <t>a4f695eb1f54152d096f</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1R38xCu4uADZnLmaMGWWjBOj2A6I7JcLz/view</t>
+    <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
   </si>
   <si>
     <t>Gy1CS1DczVCPKEqFIMhNAUjvlti1rZpp602WQhpANZcrbJR7A1bxVMqZhWo7ziNLPEs4gZ7mDvo3dxQp/9mnWSo=</t>
@@ -679,13 +688,10 @@
     <t>drive.google.com/file/d/1TDVQcx6mYo_axvH3qcg0bBW7BCkSdPJk/view</t>
   </si>
   <si>
-    <t>27.05.2022</t>
-  </si>
-  <si>
-    <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
-  </si>
-  <si>
-    <t>a4f695eb1f54152d096fac83f42a2627f1da6e57869febbc0736945533b39dfd</t>
+    <t>ef5d4d97d20b05335375d36faf95f1674a1bd9f02b236e07c0628e68e6718479</t>
+  </si>
+  <si>
+    <t>30.05.2022</t>
   </si>
   <si>
     <t>Sofiia Zharkikh</t>
@@ -697,61 +703,58 @@
     <t>drive.google.com/file/d/1uuFsi_lO84LjMgoGI-KaAdqUW3DbX-tN/view</t>
   </si>
   <si>
+    <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
+  </si>
+  <si>
     <t>GyBuSdCpBacrzfMlYsJ5PDr4kBqEmHBvlnL0u9xd/ItkbXqWgvr/Q9+ABS7Uk9qAKPyM3fdTHMixab+7EMHk/L8=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1MKUolIBpxp8Nd7QKNEIztYq__Y2ke8r0/view</t>
   </si>
   <si>
-    <t>30.05.2022</t>
-  </si>
-  <si>
-    <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
-  </si>
-  <si>
-    <t>ef5d4d97d20b05335375d36faf95f1674a1bd9f02b236e07c0628e68e6718479</t>
+    <t>Ruslan Ovsiienko</t>
+  </si>
+  <si>
+    <t>bde11c3468f03baaa52b</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1erHD2ben8dQ0hZznVAMHsWoOEoZ5W5ZI/view</t>
+  </si>
+  <si>
+    <t>GwsGfQUBZbaRTtUuqe9ZxFOBG5KREIZQe9idjrsAJkyJS4iDGMvYzQl95ycTMmbSYE9y6HCVXw5XjQl4/UJmBF0=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1GQPhLpRDH3qx8itRN2swMzNVTA3S9zkA/view</t>
   </si>
   <si>
     <t>bde11c3468f03baaa52b69b1d0037713d6e1656efbe22bbe443616867c8ce1d1</t>
   </si>
   <si>
-    <t>Ruslan Ovsiienko</t>
-  </si>
-  <si>
-    <t>bde11c3468f03baaa52b</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1erHD2ben8dQ0hZznVAMHsWoOEoZ5W5ZI/view</t>
-  </si>
-  <si>
-    <t>GwsGfQUBZbaRTtUuqe9ZxFOBG5KREIZQe9idjrsAJkyJS4iDGMvYzQl95ycTMmbSYE9y6HCVXw5XjQl4/UJmBF0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1GQPhLpRDH3qx8itRN2swMzNVTA3S9zkA/view</t>
+    <t>drive.google.com/file/d/1k6jYSLnda_XmBqezsiN_2yJ61Qdta_nb/view</t>
+  </si>
+  <si>
+    <t>6ee400b0d85b1c17b9f96d70480b7834db0687fb163960b09bd5b9d9a7479695</t>
+  </si>
+  <si>
+    <t>31.05.2022</t>
+  </si>
+  <si>
+    <t>Andrii Kolhatin</t>
+  </si>
+  <si>
+    <t>6ee400b0d85b1c17b9f9</t>
+  </si>
+  <si>
+    <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
+  </si>
+  <si>
+    <t>G1NHCoKgP7GWURDdLHVELdKpWB+yJMIMC58Zcmk7QIDkHak9MAIs8CP8p3PwQQkKrasrA22u3Ps0oDpQjtQwuXA=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1fXu1-OMgl8abLdRnkK1gGjRUzm1wJ90d/view</t>
   </si>
   <si>
-    <t>Andrii Kolhatin</t>
-  </si>
-  <si>
-    <t>6ee400b0d85b1c17b9f9</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1k6jYSLnda_XmBqezsiN_2yJ61Qdta_nb/view</t>
-  </si>
-  <si>
-    <t>G1NHCoKgP7GWURDdLHVELdKpWB+yJMIMC58Zcmk7QIDkHak9MAIs8CP8p3PwQQkKrasrA22u3Ps0oDpQjtQwuXA=</t>
-  </si>
-  <si>
-    <t>6ee400b0d85b1c17b9f96d70480b7834db0687fb163960b09bd5b9d9a7479695</t>
-  </si>
-  <si>
-    <t>31.05.2022</t>
-  </si>
-  <si>
-    <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
+    <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
   </si>
   <si>
     <t>HEXb4vpKyOWhQpbYfAwIpyCn+rITf/VAWQzmNxaXXhDvU/q9WgsKDJeDdCnprx5cCIjjmW/phOHH+uPBbpYlPZ4=</t>
@@ -760,67 +763,76 @@
     <t>drive.google.com/file/d/1w1mfSqQpuoM1ykWLZFpnfNad4769mGRZ/view</t>
   </si>
   <si>
+    <t>57510c8d91044c68466c</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
+  </si>
+  <si>
+    <t>57510c8d91044c68466c23791605ae30481dd0e13bffb14884dc26f74f89007e</t>
+  </si>
+  <si>
+    <t>02.06.2022</t>
+  </si>
+  <si>
     <t>Volodymyr Beimuk</t>
   </si>
   <si>
-    <t>57510c8d91044c68466c</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
-  </si>
-  <si>
-    <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
-  </si>
-  <si>
-    <t>57510c8d91044c68466c23791605ae30481dd0e13bffb14884dc26f74f89007e</t>
-  </si>
-  <si>
-    <t>02.06.2022</t>
+    <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
+  </si>
+  <si>
+    <t>G0q+l32LflKU/DpeW9C2sDAMrbqeX+oJ5XFEWOQgj1abcIZnWaBDyGALb8VFCDaBlWtPdWlpZH0bBGnZ4vmuqVM=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/15kzmwqJUXHkYhS-y_kQNezfBYKsWqClm/view</t>
   </si>
   <si>
     <t>03.06.2022</t>
   </si>
   <si>
-    <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
+    <t>Nazarii Savorona</t>
+  </si>
+  <si>
+    <t>d50fd6472811e70d2d32</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1alRzJTra9dglzAqTeiHBwO9rtXlBweUd/view</t>
   </si>
   <si>
     <t>d50fd6472811e70d2d323c6e2a1b6ee5492b950fa42141194d5b0ea301965d2b</t>
   </si>
   <si>
-    <t>Nazarii Savorona</t>
-  </si>
-  <si>
-    <t>d50fd6472811e70d2d32</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1alRzJTra9dglzAqTeiHBwO9rtXlBweUd/view</t>
-  </si>
-  <si>
-    <t>G0q+l32LflKU/DpeW9C2sDAMrbqeX+oJ5XFEWOQgj1abcIZnWaBDyGALb8VFCDaBlWtPdWlpZH0bBGnZ4vmuqVM=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/15kzmwqJUXHkYhS-y_kQNezfBYKsWqClm/view</t>
-  </si>
-  <si>
     <t>6471e2162a55dbf5dd4d31bfe55b942b65d00f871d57a47269a6eeadc98f5368</t>
   </si>
   <si>
+    <t>HEX0LGCrp8izmcyDor70bMZoObL/w+vWJ2n7oI4g7HApOTNEf8NsrrnH7wqchGY1dHPbQ/ZXv9Sb4flO0OOFIjg=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1CEGYMWPoshF1-ZlubWYIqLVVN5wuDI0k/view</t>
+  </si>
+  <si>
+    <t>Anton Balykov</t>
+  </si>
+  <si>
+    <t>0098c4abd0cf9ba00a9a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1wY_vSxNPk2EVTXF5QDxbWo0tuWKZTesU/view</t>
+  </si>
+  <si>
     <t>0098c4abd0cf9ba00a9a16bae79b9ec1f932f0a459b51c5afd3d6a5651a3820d</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1wY_vSxNPk2EVTXF5QDxbWo0tuWKZTesU/view</t>
-  </si>
-  <si>
-    <t>HEX0LGCrp8izmcyDor70bMZoObL/w+vWJ2n7oI4g7HApOTNEf8NsrrnH7wqchGY1dHPbQ/ZXv9Sb4flO0OOFIjg=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1CEGYMWPoshF1-ZlubWYIqLVVN5wuDI0k/view</t>
-  </si>
-  <si>
-    <t>Anton Balykov</t>
-  </si>
-  <si>
-    <t>0098c4abd0cf9ba00a9a</t>
+    <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
+  </si>
+  <si>
+    <t>HFLGvJaNw54W7ZD/ZIjYXIQM1qIXbrh8vUUpsthZld4lUw1ygBpSYq5Bv2wkJji7EFfLKZpiwfkpZ+sZp3fGBZ8=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tXyNJbUrUx79sco9ErJu8FcadjFeY4ws/view</t>
+  </si>
+  <si>
+    <t>06.06.2022</t>
   </si>
   <si>
     <t>Rodion Nazarov</t>
@@ -832,40 +844,31 @@
     <t>drive.google.com/file/d/1vGDKnNGdCSrI2l0f8epwfp-g9ZP_gdqn/view</t>
   </si>
   <si>
-    <t>HFLGvJaNw54W7ZD/ZIjYXIQM1qIXbrh8vUUpsthZld4lUw1ygBpSYq5Bv2wkJji7EFfLKZpiwfkpZ+sZp3fGBZ8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tXyNJbUrUx79sco9ErJu8FcadjFeY4ws/view</t>
-  </si>
-  <si>
-    <t>06.06.2022</t>
-  </si>
-  <si>
-    <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
-  </si>
-  <si>
     <t>b8a9205fb544253703daa661c8770c6c3010cd6f9440217c56b8f3a5277106c0</t>
   </si>
   <si>
+    <t>049024034fa09e3463c1</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1zCX9-HWZpyLUzChTuMNrgw8wjDheWHYQ/view</t>
+  </si>
+  <si>
+    <t>049024034fa09e3463c172894984ccd7c64d8f3e25ea0edce1cde73d14c4e4dd</t>
+  </si>
+  <si>
+    <t>Denis Riabtsev</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1zJtn8oPTgO6NalvQ4ZUKieHCmOl0G-ff/view</t>
   </si>
   <si>
-    <t>Denis Riabtsev</t>
-  </si>
-  <si>
-    <t>049024034fa09e3463c1</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1zCX9-HWZpyLUzChTuMNrgw8wjDheWHYQ/view</t>
+    <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
   </si>
   <si>
     <t>G1S1swtJ1BO++cjXv+2ur3abbjLyF3QJom9rXytmbiCybxHnE6zxdv8PGrIoWzul25aA+Vy+npC166DfktBmfTA=</t>
   </si>
   <si>
-    <t>049024034fa09e3463c172894984ccd7c64d8f3e25ea0edce1cde73d14c4e4dd</t>
-  </si>
-  <si>
-    <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
+    <t>10.08.2022</t>
   </si>
   <si>
     <t>Ahadzhan Piloian</t>
@@ -877,16 +880,16 @@
     <t>drive.google.com/file/d/1mierxGuI99_8bCJonu3XW6Of6nN-_G8Y/view</t>
   </si>
   <si>
+    <t>35a047ff48ee73cae02b98a664d79ed4beec0f2fc7ca444cf0e6fe6feba7072f</t>
+  </si>
+  <si>
     <t>HByFsfnqBzFxFef9Sx0pI7ZEP8CsAFwWu3WLyhxeWYE7Nihy6oGKH6zTuDB3jxz7nVUqmg/+jiSz+5tpHd5hhCM=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1xbZ0oHFVYI0UYoQzhOgIjFcYMBPS3M7N/view</t>
   </si>
   <si>
-    <t>10.08.2022</t>
-  </si>
-  <si>
-    <t>35a047ff48ee73cae02b98a664d79ed4beec0f2fc7ca444cf0e6fe6feba7072f</t>
+    <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
   </si>
   <si>
     <t>G3AD9cOvDB5Yle4mx/4BJ1WGbFOLohDQC7vc4BQ13IEBNfDge5QEuYe3jCrtupanAlQ3qTuMp0xOcnt4khjuiOU=</t>
@@ -895,6 +898,9 @@
     <t>drive.google.com/file/d/1XYnfmc4-e2bPA2-oKc6rMrJk9OIS1ygb/view</t>
   </si>
   <si>
+    <t>16.08.2022</t>
+  </si>
+  <si>
     <t>Andrii Tsemko</t>
   </si>
   <si>
@@ -904,13 +910,19 @@
     <t>drive.google.com/file/d/1VFTodraL1vlF6oPm81xYgCEzuAnnMw9D/view</t>
   </si>
   <si>
-    <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
-  </si>
-  <si>
     <t>6c856e21d4e81c9f9798dc867f42c17448b563618559dfc618f25bfb13952dd9</t>
   </si>
   <si>
-    <t>16.08.2022</t>
+    <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
+  </si>
+  <si>
+    <t>HBwdh30L8wwZ0AJ72uIonh5mnyavVroXqbfe0yCwSfwxHTmsctiCpE0PQGCgrn07xN6uG9mcLCyafi1J1iAIrVo=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1XKVH36jaqZxn5FNLOAPfa2e7veU7FvRF/view</t>
+  </si>
+  <si>
+    <t>ac4a4970282596872599a48469d3598e04f6239a9c8c40d595a7ab48cfec2f4b</t>
   </si>
   <si>
     <t>Oleg Chaika</t>
@@ -922,45 +934,36 @@
     <t>drive.google.com/file/d/1TCz4JmThT49Whz7pXZc1p-uh1m8qGlts/view</t>
   </si>
   <si>
-    <t>HBwdh30L8wwZ0AJ72uIonh5mnyavVroXqbfe0yCwSfwxHTmsctiCpE0PQGCgrn07xN6uG9mcLCyafi1J1iAIrVo=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1XKVH36jaqZxn5FNLOAPfa2e7veU7FvRF/view</t>
-  </si>
-  <si>
-    <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
-  </si>
-  <si>
-    <t>ac4a4970282596872599a48469d3598e04f6239a9c8c40d595a7ab48cfec2f4b</t>
+    <t>drive.google.com/file/d/1UWwjB5PEcpGT7pj9QLOxg0exOJMJ0cgV/view</t>
+  </si>
+  <si>
+    <t>6ece24bf393d6616d2882515c6b704470a04394eb23a26e37fcfd58709864e9c</t>
+  </si>
+  <si>
+    <t>Yehor Podporinov</t>
+  </si>
+  <si>
+    <t>6ece24bf393d6616d288</t>
   </si>
   <si>
     <t>8b0b4aebba75393ae3d3d17c2935872fcc9b742667912a33f84c93005de85fb4</t>
   </si>
   <si>
-    <t>6ece24bf393d6616d2882515c6b704470a04394eb23a26e37fcfd58709864e9c</t>
-  </si>
-  <si>
-    <t>Yehor Podporinov</t>
-  </si>
-  <si>
-    <t>6ece24bf393d6616d288</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1UWwjB5PEcpGT7pj9QLOxg0exOJMJ0cgV/view</t>
-  </si>
-  <si>
     <t>G16YW2qc38O2w05xL7whMAtbxBifYvcgSumruVDry/BeInzdXKeNdgkzs4+YALZnA1O/VZiCrqsMOX+JSxPhhDo=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1qjY792bJaQiXrAQkpY51MdDXWY5NGfHG/view</t>
   </si>
   <si>
+    <t>HDCKJb3z6l4lgp3NELh3RJkzdJD1joN7yfOxl+01921RdY6DAUkQyZNnWU9OHeVkW3fPDEweucWCsxJRM/I0X1s=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1f48HTb46vhokQ_8Azf1hncHeg-YaF01f/view</t>
+  </si>
+  <si>
     <t>2bdefe6ab583294a8e3a46a7d66467c7afc535265a5eb5044d61411c2e9cf825</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1f48HTb46vhokQ_8Azf1hncHeg-YaF01f/view</t>
-  </si>
-  <si>
     <t>Artem Litkevych</t>
   </si>
   <si>
@@ -970,94 +973,100 @@
     <t>drive.google.com/file/d/1gRgANqcuPqyc_3RjIRjtUc4Mdz0mGl9x/view</t>
   </si>
   <si>
-    <t>HDCKJb3z6l4lgp3NELh3RJkzdJD1joN7yfOxl+01921RdY6DAUkQyZNnWU9OHeVkW3fPDEweucWCsxJRM/I0X1s=</t>
+    <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
+  </si>
+  <si>
+    <t>HApedQ3dSPFayNHWaAdeG0koY6JOtPkbNGfR03j/buRXUMPAQ7kVc5JUtU7xJeCQFNre1p7sPQiaazDauOSLyeU=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1L4MJCKIJ_qZk-xoeaxbt21yKDQ65ZiV-/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1y0FtDg1SrfeMLVLgcU5nq3iVnBdoik87/view</t>
+  </si>
+  <si>
+    <t>5aedea6393611a0bb067abca97eab5d15e20fa9b13654759eeb0ad08cf465bf6</t>
   </si>
   <si>
     <t>17.08.2022</t>
   </si>
   <si>
-    <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
-  </si>
-  <si>
-    <t>5aedea6393611a0bb067abca97eab5d15e20fa9b13654759eeb0ad08cf465bf6</t>
-  </si>
-  <si>
     <t>Vadim Mokropulo</t>
   </si>
   <si>
     <t>5aedea6393611a0bb067</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1y0FtDg1SrfeMLVLgcU5nq3iVnBdoik87/view</t>
-  </si>
-  <si>
-    <t>HApedQ3dSPFayNHWaAdeG0koY6JOtPkbNGfR03j/buRXUMPAQ7kVc5JUtU7xJeCQFNre1p7sPQiaazDauOSLyeU=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1L4MJCKIJ_qZk-xoeaxbt21yKDQ65ZiV-/view</t>
+    <t>drive.google.com/file/d/1G_yt14WnfBJx-IrHPPr6dCVtmo-oZRGP/view</t>
+  </si>
+  <si>
+    <t>843e73c99e2fb6868d388c6436b8de6d6df90f2c6651c161738d510e0eedbe80</t>
+  </si>
+  <si>
+    <t>Arsenii Trybukh</t>
+  </si>
+  <si>
+    <t>843e73c99e2fb6868d38</t>
   </si>
   <si>
     <t>c5f89ffab6fb6790398f25f04cceea2582045f2cdaa852cffa609587b5f97da2</t>
   </si>
   <si>
-    <t>843e73c99e2fb6868d388c6436b8de6d6df90f2c6651c161738d510e0eedbe80</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1G_yt14WnfBJx-IrHPPr6dCVtmo-oZRGP/view</t>
-  </si>
-  <si>
     <t>HAJxbdAA0K5jADiIkd2hSuUjSo5/eIKguFwXw2OZXCkPSIx4rLJcO32Gxfb002+eyGWSoqZg/YxEkHKrfxSL7F8=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/11NbZIfZYYPaZkiN3hIF-pOf-vQn1FjGZ/view</t>
   </si>
   <si>
-    <t>Arsenii Trybukh</t>
-  </si>
-  <si>
-    <t>843e73c99e2fb6868d38</t>
+    <t>Khrystyna Vysotska</t>
+  </si>
+  <si>
+    <t>c7bb640e0ab9c66c1b1b</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1l5wCpVPlLtvzFbUPo8FUxzzRBsS6Et75/view</t>
+  </si>
+  <si>
+    <t>c7bb640e0ab9c66c1b1b30a834ca00155e38ddba8212240e0bbd39eba0ba7804</t>
+  </si>
+  <si>
+    <t>18.08.2022</t>
+  </si>
+  <si>
+    <t>GyX+LFZlbOGkX9m4UFq+VTDe+qgFw8iaqa9Pnv0tpOhWPbMXAoZS20RqaIczvQ/H1VpzVlaXsEo+xn5nwKZJ/Hk=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1nGSPxXdXnZBvlGXqCNy4-upiIccTP2DF/view</t>
   </si>
   <si>
     <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
   </si>
   <si>
-    <t>c7bb640e0ab9c66c1b1b30a834ca00155e38ddba8212240e0bbd39eba0ba7804</t>
-  </si>
-  <si>
-    <t>18.08.2022</t>
-  </si>
-  <si>
-    <t>c7bb640e0ab9c66c1b1b</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1l5wCpVPlLtvzFbUPo8FUxzzRBsS6Et75/view</t>
-  </si>
-  <si>
-    <t>GyX+LFZlbOGkX9m4UFq+VTDe+qgFw8iaqa9Pnv0tpOhWPbMXAoZS20RqaIczvQ/H1VpzVlaXsEo+xn5nwKZJ/Hk=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1nGSPxXdXnZBvlGXqCNy4-upiIccTP2DF/view</t>
-  </si>
-  <si>
-    <t>Khrystyna Vysotska</t>
+    <t>de78c058c82cb70d7785272b03e0faaf9d22a8b0e83bf3c62e1088ba65fe154a</t>
+  </si>
+  <si>
+    <t>G1CTdkm9sPqF5gC7MNhwFYnaWkXLHuuUsU0A/sGOu5DNBtG5skY8jqrThohl9psYxI7Tv/ioEcauIdVEWGuT7+o=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/116fTgiRyxDGkYGtShL1QTg_IMdV7JIvh/view</t>
+  </si>
+  <si>
+    <t>de78c058c82cb70d7785</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1I0M_Gmlz0YU0fwUVXG9DVMFDEz8BrXYC/view</t>
   </si>
   <si>
     <t>Mykhailo Shcholkin</t>
   </si>
   <si>
-    <t>de78c058c82cb70d7785</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1I0M_Gmlz0YU0fwUVXG9DVMFDEz8BrXYC/view</t>
-  </si>
-  <si>
-    <t>G1CTdkm9sPqF5gC7MNhwFYnaWkXLHuuUsU0A/sGOu5DNBtG5skY8jqrThohl9psYxI7Tv/ioEcauIdVEWGuT7+o=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/116fTgiRyxDGkYGtShL1QTg_IMdV7JIvh/view</t>
-  </si>
-  <si>
-    <t>de78c058c82cb70d7785272b03e0faaf9d22a8b0e83bf3c62e1088ba65fe154a</t>
+    <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
+  </si>
+  <si>
+    <t>GwxLKKdOMTqtcTyfNdinQRybUe+qy2ulplCNQh5mcOdQINQN0w/jb9OXjSkmDF4/X+KrmFDw9hjjLrHNZfbB5dE=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1dA-z2yZxNqg9vpZ-IrDTeI5VoAYSoUOx/view</t>
   </si>
   <si>
     <t>Sofiia Kireieva</t>
@@ -1069,123 +1078,123 @@
     <t>drive.google.com/file/d/1GoJ9qUTxoHHdtNzbmx9kX8mUnMrERzTj/view</t>
   </si>
   <si>
-    <t>GwxLKKdOMTqtcTyfNdinQRybUe+qy2ulplCNQh5mcOdQINQN0w/jb9OXjSkmDF4/X+KrmFDw9hjjLrHNZfbB5dE=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1dA-z2yZxNqg9vpZ-IrDTeI5VoAYSoUOx/view</t>
-  </si>
-  <si>
-    <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
+    <t>4f789ed064df7a17fb165d92a4775577ae2b2aa0933828e2184f467078a0f4e1</t>
+  </si>
+  <si>
+    <t>G24FfjXLWLXBSLyuTfOy5p2HRuUF9dZNqOsMBbQz5NdHMugtm3sqYSkgooUb30zd6NBvd8yivpBdpXj2C7zxRLM=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1SrPLonRxjfEBFQKfnHXjqy1icSZ8TQTg/view</t>
+  </si>
+  <si>
+    <t>19.08.2022</t>
+  </si>
+  <si>
+    <t>Alena Sporova</t>
+  </si>
+  <si>
+    <t>4f789ed064df7a17fb16</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1O6iBsiaN0_fjmsFEU75uf0x-TjEPa9M_/view</t>
   </si>
   <si>
-    <t>G24FfjXLWLXBSLyuTfOy5p2HRuUF9dZNqOsMBbQz5NdHMugtm3sqYSkgooUb30zd6NBvd8yivpBdpXj2C7zxRLM=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1SrPLonRxjfEBFQKfnHXjqy1icSZ8TQTg/view</t>
-  </si>
-  <si>
-    <t>Alena Sporova</t>
-  </si>
-  <si>
-    <t>4f789ed064df7a17fb16</t>
-  </si>
-  <si>
-    <t>4f789ed064df7a17fb165d92a4775577ae2b2aa0933828e2184f467078a0f4e1</t>
-  </si>
-  <si>
-    <t>19.08.2022</t>
+    <t>drive.google.com/file/d/1m0p5Xzk0DhnWZNz3C4GKwBoFn0dCLaJd/view</t>
   </si>
   <si>
     <t>ae669584e3592816786def0ced73ae9c1157f3cf3957c54c7f00c313411d0917</t>
   </si>
   <si>
+    <t>Nikita Masych</t>
+  </si>
+  <si>
+    <t>ae669584e3592816786d</t>
+  </si>
+  <si>
     <t>483060d6ed3048a8dc0131f806543e2d4ebf5438280c29af23b478769c5e2422</t>
   </si>
   <si>
+    <t>HAHRm6qHhYtJONB4DE1fHhHs7jzCBi+0r098KwvwJ3FjJraqh4eh7xXl2kdKZvktikGbL8iVYeMFsUMMiZgU1dE=</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1rd3-RafYYEM7AiLpUn6hDKvzItsu35eV/view</t>
   </si>
   <si>
-    <t>Nikita Masych</t>
-  </si>
-  <si>
-    <t>ae669584e3592816786d</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1m0p5Xzk0DhnWZNz3C4GKwBoFn0dCLaJd/view</t>
-  </si>
-  <si>
-    <t>HAHRm6qHhYtJONB4DE1fHhHs7jzCBi+0r098KwvwJ3FjJraqh4eh7xXl2kdKZvktikGbL8iVYeMFsUMMiZgU1dE=</t>
+    <t>2a2bdf9afd29bb5a037e</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1e4EDcTQQDwoR2L6wWEPs-5H-vt5CCr_f/view</t>
+  </si>
+  <si>
+    <t>2a2bdf9afd29bb5a037ee969d668f402c10e76c8cbbd976d813dc2c635212539</t>
+  </si>
+  <si>
+    <t>Mark Cherepovskyi</t>
   </si>
   <si>
     <t>c4879efd2b227fc0a0e38b82a1a91f47d5c53312805a02084f9769bbec1a71ec</t>
   </si>
   <si>
-    <t>2a2bdf9afd29bb5a037ee969d668f402c10e76c8cbbd976d813dc2c635212539</t>
-  </si>
-  <si>
-    <t>Mark Cherepovskyi</t>
-  </si>
-  <si>
-    <t>2a2bdf9afd29bb5a037e</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1e4EDcTQQDwoR2L6wWEPs-5H-vt5CCr_f/view</t>
-  </si>
-  <si>
     <t>G0IQQV4CbL/JBgmzra52tvPbBojg9JtvXR7fWIUO4M3PVCmcqlAPZYddUdyqGNQ46uqyzpxPt5unmlkaLZoWdik=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1Nn8f-CCkaRTHoTIvzOzlUjfFraIj0SxS/view</t>
   </si>
   <si>
+    <t>Viacheslav Horbanov</t>
+  </si>
+  <si>
     <t>5af15e5a89df1459f6c0</t>
   </si>
   <si>
     <t>drive.google.com/file/d/189KqeuBE1JHhjoOJuPjmVSaQMF0tuf_7/view</t>
   </si>
   <si>
+    <t>5af15e5a89df1459f6c0aeb5cd0e5be28e4a54e50468f9b686f2d93a47fcd8b5</t>
+  </si>
+  <si>
     <t>HDMS95fN4wKz+mcce/qhkAB3CDAxnQf5cwwRXHl8KMdYA3/EO8kyMpNGiIbN5MFTQ8vPw07FOmfXy0ioj0UnCj4=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/15ZzFOxNzuFtm8BtdxOiZbShpVngUdT_R/view</t>
   </si>
   <si>
-    <t>Viacheslav Horbanov</t>
-  </si>
-  <si>
     <t>805b929698577e9aca3fe4691eadeb51f4dc001d6c3c48625b4e2d7ff2f1f090</t>
   </si>
   <si>
-    <t>5af15e5a89df1459f6c0aeb5cd0e5be28e4a54e50468f9b686f2d93a47fcd8b5</t>
+    <t>709946c77b1372ca3cffa6c6d383a1fa4c8806d267ecb824b4ee502f41c2e4c0</t>
   </si>
   <si>
     <t>22.08.2022</t>
   </si>
   <si>
+    <t>Oleksii Stepaniuk</t>
+  </si>
+  <si>
+    <t>709946c77b1372ca3cff</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1XQCDywsDSh6584NI_X7VTda9fxx9Ju6n/view</t>
+  </si>
+  <si>
     <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
   </si>
   <si>
-    <t>709946c77b1372ca3cffa6c6d383a1fa4c8806d267ecb824b4ee502f41c2e4c0</t>
-  </si>
-  <si>
-    <t>Oleksii Stepaniuk</t>
-  </si>
-  <si>
-    <t>709946c77b1372ca3cff</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1XQCDywsDSh6584NI_X7VTda9fxx9Ju6n/view</t>
-  </si>
-  <si>
     <t>GxwMNgPmJTi7BfEjI6rsGqPvQoad54i76EyhJDFd3X9cMv6smt8Pqr9l2GzTwOy+UhKqumElsEDkC1pUydChGYM=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1-pE49RF7jkcKZaf7GMT9l_oK4tuCo-qU/view</t>
   </si>
   <si>
+    <t>HHbJ2yOwNTaBD8Pj4Gc3VU1rvVOaml/gHFckPopyy6rVLkN9Llmf+A5SmWlzxzYnshzLqJKMNrV/7nrMhmMK0LA=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Wq36pFh0ILRhfaIV-RMgTsS8Rw_UPsMQ/view</t>
+  </si>
+  <si>
+    <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
+  </si>
+  <si>
     <t>Kyrylo Riabov</t>
   </si>
   <si>
@@ -1195,18 +1204,18 @@
     <t>drive.google.com/file/d/1XyrBsaWWmIuwF0Hq8_K95lvtH9gb6l9O/view</t>
   </si>
   <si>
-    <t>HHbJ2yOwNTaBD8Pj4Gc3VU1rvVOaml/gHFckPopyy6rVLkN9Llmf+A5SmWlzxzYnshzLqJKMNrV/7nrMhmMK0LA=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Wq36pFh0ILRhfaIV-RMgTsS8Rw_UPsMQ/view</t>
-  </si>
-  <si>
-    <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
-  </si>
-  <si>
     <t>6393707ada82a579795181b6ad3cbf89bc962a3b517c4fad1ff80807b72258e2</t>
   </si>
   <si>
+    <t>HHvcf99G4vHmh7gwlEMbWJAQuuP3yxyHM8bMUdTLhf5lb5dJq/wz1VWiA3Z/oY5vRSiCpwneT5rrWqc8ErU11mU=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1aW9TvbBrwnNuYXWpVf9DsaHrdOh5lBe6/view</t>
+  </si>
+  <si>
+    <t>a4bc9b1320f2e1e710e9b1fd60261ccf698609aee22bab0b8bc8f6278c77ff28</t>
+  </si>
+  <si>
     <t>Oleksandr Kolesnyk</t>
   </si>
   <si>
@@ -1216,25 +1225,22 @@
     <t>drive.google.com/file/d/1ygsdcgJuPG9SqctWWdcmvdFYGBlg0Mfi/view</t>
   </si>
   <si>
-    <t>HHvcf99G4vHmh7gwlEMbWJAQuuP3yxyHM8bMUdTLhf5lb5dJq/wz1VWiA3Z/oY5vRSiCpwneT5rrWqc8ErU11mU=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1aW9TvbBrwnNuYXWpVf9DsaHrdOh5lBe6/view</t>
-  </si>
-  <si>
-    <t>a4bc9b1320f2e1e710e9b1fd60261ccf698609aee22bab0b8bc8f6278c77ff28</t>
-  </si>
-  <si>
     <t>b8536409d7a15f77c09c4ee971971d57834a7ce935d7de0afca925b431d7d3f0</t>
   </si>
   <si>
+    <t>4b7f8d4f293f72815ab4</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HU3qhe9VaTIqZwLa4G3mOS0nHEg8DO8M/view</t>
+  </si>
+  <si>
+    <t>23.08.2022</t>
+  </si>
+  <si>
     <t>Nikita Chabaniuk</t>
   </si>
   <si>
-    <t>4b7f8d4f293f72815ab4</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1HU3qhe9VaTIqZwLa4G3mOS0nHEg8DO8M/view</t>
+    <t>4b7f8d4f293f72815ab490bd586e210947057de3a2e9afb59fe92108421cfc43</t>
   </si>
   <si>
     <t>G2VIng2ixewyoOfF7ZTzpcGYTcmDx6zY2XXVDruaEShNbAYMCcWhVMWWXpHVa/vIIt6mI19G/JjIIBPaXI9uK6Y=</t>
@@ -1243,12 +1249,6 @@
     <t>drive.google.com/file/d/1YrBbtcKZvZerAB-P3IgI2VY_rNpYXWdd/view</t>
   </si>
   <si>
-    <t>23.08.2022</t>
-  </si>
-  <si>
-    <t>4b7f8d4f293f72815ab490bd586e210947057de3a2e9afb59fe92108421cfc43</t>
-  </si>
-  <si>
     <t>Amina Yambulatova</t>
   </si>
   <si>
@@ -1258,58 +1258,73 @@
     <t>drive.google.com/file/d/1cQNAJj42ZPrF7G2wJasBxsblGWb1cx6U/view</t>
   </si>
   <si>
+    <t>8e1b8b35cb7330ddc76eb03e4878e055a523040b63232a27df27ca76e04a8678</t>
+  </si>
+  <si>
+    <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
+  </si>
+  <si>
     <t>G1YYB4Ev2kOYbqXr2cCeGRFHYlaynNvMmb6TrOoeBnzORoDe4Pips3BiaJZxZBBWtuSRec45V5h9Mce9vCSYCH8=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1cFcRCnazlkVCJwZpAUyUVf662LBzDlc1/view</t>
   </si>
   <si>
-    <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
-  </si>
-  <si>
-    <t>8e1b8b35cb7330ddc76eb03e4878e055a523040b63232a27df27ca76e04a8678</t>
+    <t>Yegor Chukanov</t>
+  </si>
+  <si>
+    <t>95392bafab8d1e14ab55</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/17TrcHxOjczAIzHRX6jGL7d6ikxt2lACY/view</t>
+  </si>
+  <si>
+    <t>95392bafab8d1e14ab5530e8a6a2436a7faa1647c9af34869af6d793fdb526dd</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1UXQ_dMB-t0DJ1zHqwUO4AMKw00xTe7Kd/view</t>
   </si>
   <si>
     <t>40f94f67b8a8d87da643ad5c019db2e6c6f6e960a03453048995c11eea36d236</t>
   </si>
   <si>
-    <t>95392bafab8d1e14ab5530e8a6a2436a7faa1647c9af34869af6d793fdb526dd</t>
-  </si>
-  <si>
-    <t>95392bafab8d1e14ab55</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/17TrcHxOjczAIzHRX6jGL7d6ikxt2lACY/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1UXQ_dMB-t0DJ1zHqwUO4AMKw00xTe7Kd/view</t>
-  </si>
-  <si>
-    <t>Yegor Chukanov</t>
+    <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
+  </si>
+  <si>
+    <t>G2JfFYPk+Pp+65U01De1kmptKvks4kuSPI6m3hF2U+79HZCoD8lymFRpoPnVxZ2laFtkb2XA9J8nfBT2hffuYsw=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Gky0SNUujtYDy63EkDHDfdHn6lBJFb9g/view</t>
+  </si>
+  <si>
+    <t>3dc98e4fdedc7c6b91f59db100a54a9d140ee40149845e160b9bf59021cfd763</t>
+  </si>
+  <si>
+    <t>24.08.2022</t>
+  </si>
+  <si>
+    <t>Dmytro Vynohradov</t>
+  </si>
+  <si>
+    <t>3dc98e4fdedc7c6b91f5</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1JWQoCNMPVL8zCEb3aDGft9aNFn_7Bn6U/view</t>
   </si>
   <si>
-    <t>G2JfFYPk+Pp+65U01De1kmptKvks4kuSPI6m3hF2U+79HZCoD8lymFRpoPnVxZ2laFtkb2XA9J8nfBT2hffuYsw=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Gky0SNUujtYDy63EkDHDfdHn6lBJFb9g/view</t>
-  </si>
-  <si>
-    <t>Dmytro Vynohradov</t>
-  </si>
-  <si>
-    <t>3dc98e4fdedc7c6b91f5</t>
-  </si>
-  <si>
-    <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
-  </si>
-  <si>
-    <t>3dc98e4fdedc7c6b91f59db100a54a9d140ee40149845e160b9bf59021cfd763</t>
-  </si>
-  <si>
-    <t>24.08.2022</t>
+    <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
+  </si>
+  <si>
+    <t>HBCVC5I+IeKJfiwlnLSOv2b3zmmlPbKLwcOCjBb6dPfZIvDoV0Bg/EwiXf880gA9PO3pwI1BcQpjCFVKtoEOCHM=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/17EMz1PARbz9e8RTVMLFvKCGrcuqxU0X5/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1-Woakmc6sQIZj_YuO0UujbdA_k7k30AQ/view</t>
+  </si>
+  <si>
+    <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
   </si>
   <si>
     <t>Mykhailo Sokolov</t>
@@ -1318,43 +1333,34 @@
     <t>5a875f69aae3c47635bc</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1-Woakmc6sQIZj_YuO0UujbdA_k7k30AQ/view</t>
-  </si>
-  <si>
-    <t>HBCVC5I+IeKJfiwlnLSOv2b3zmmlPbKLwcOCjBb6dPfZIvDoV0Bg/EwiXf880gA9PO3pwI1BcQpjCFVKtoEOCHM=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/17EMz1PARbz9e8RTVMLFvKCGrcuqxU0X5/view</t>
-  </si>
-  <si>
-    <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
-  </si>
-  <si>
-    <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
+    <t>5cbc5e19fd5bb7d530d8e96ecd9e1f957e8731f7b5738c30b4b5e1bdda0861c4</t>
+  </si>
+  <si>
+    <t>GxbnaO2SI42FWSLEEeAdripZKWQTCFp0dSAopXV/2wcjBco8ZbmUu3GwTndN8FzDVaFjnEfIeim4NGPPs+jCQzg=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1rEPYF5Uwt1Gg--7B3QLoPSWrcIzAuG9l/view</t>
+  </si>
+  <si>
+    <t>c6e0a8f84ae9df426a28</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1jMQGHGOmWabDErZg-n19HYPP7sUPbA-C/view</t>
+  </si>
+  <si>
+    <t>c6e0a8f84ae9df426a28363024a5e4734dea38882c37c27ccbf3350092257289</t>
   </si>
   <si>
     <t>25.08.2022</t>
   </si>
   <si>
-    <t>5cbc5e19fd5bb7d530d8e96ecd9e1f957e8731f7b5738c30b4b5e1bdda0861c4</t>
-  </si>
-  <si>
-    <t>c6e0a8f84ae9df426a28363024a5e4734dea38882c37c27ccbf3350092257289</t>
-  </si>
-  <si>
     <t>Illia Popov</t>
   </si>
   <si>
-    <t>c6e0a8f84ae9df426a28</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1jMQGHGOmWabDErZg-n19HYPP7sUPbA-C/view</t>
-  </si>
-  <si>
-    <t>GxbnaO2SI42FWSLEEeAdripZKWQTCFp0dSAopXV/2wcjBco8ZbmUu3GwTndN8FzDVaFjnEfIeim4NGPPs+jCQzg=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1rEPYF5Uwt1Gg--7B3QLoPSWrcIzAuG9l/view</t>
+    <t>e17451aabeae8492dbe7</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1QJKE4_V6OQFcAtrq5rdY3Rh_W91kgnxQ/view</t>
   </si>
   <si>
     <t>e17451aabeae8492dbe7099d581c12ef9e7a8366dd7ddf2267d0e42cd4580c19</t>
@@ -1363,39 +1369,33 @@
     <t>26.08.2022</t>
   </si>
   <si>
+    <t>Mykola Gora</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1NYZJn0Wxf8vR9QW-LE4U_2mvV5gX356p/view</t>
+  </si>
+  <si>
     <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1NYZJn0Wxf8vR9QW-LE4U_2mvV5gX356p/view</t>
-  </si>
-  <si>
-    <t>Mykola Gora</t>
-  </si>
-  <si>
-    <t>e17451aabeae8492dbe7</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1QJKE4_V6OQFcAtrq5rdY3Rh_W91kgnxQ/view</t>
-  </si>
-  <si>
     <t>G1rX7mp/6KhUVoryYkYmifpVakFz5esJ02otJ2mZPwp7MHkaFa8WdLamGh4FuZCo4AP8DoxRbh1+qYpxsEGumSY=</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1noq7bJhv9KNWgJD8xKbWqJaO3zb1pra1/view</t>
+  </si>
+  <si>
+    <t>4cfdcdc672279489b68a1e900b2f8aa296d28d2d40fb08c1c5ca14562a1d23b3</t>
+  </si>
+  <si>
+    <t>Artem Levkin</t>
+  </si>
+  <si>
+    <t>4cfdcdc672279489b68a</t>
+  </si>
+  <si>
     <t>417f8fbf445be4909b812ed5db8ded8669b512bcba91782881d11f10fe551570</t>
   </si>
   <si>
-    <t>4cfdcdc672279489b68a1e900b2f8aa296d28d2d40fb08c1c5ca14562a1d23b3</t>
-  </si>
-  <si>
-    <t>Artem Levkin</t>
-  </si>
-  <si>
-    <t>4cfdcdc672279489b68a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1noq7bJhv9KNWgJD8xKbWqJaO3zb1pra1/view</t>
-  </si>
-  <si>
     <t>HAUm82i2DcGPW2dlUnkAex+z9pI7QXjFFkfN7fvKH/NWHKCa5jaIHnZIjW0MHVx+WFJzNl5fsaPYQxDd7zePq9E=</t>
   </si>
   <si>
@@ -1405,27 +1405,36 @@
     <t>drive.google.com/file/d/1z6IhpWNludHIAApZXih8yz4bCn6-Vt8M/view</t>
   </si>
   <si>
+    <t>29.08.2022</t>
+  </si>
+  <si>
+    <t>Natalya Dolgova</t>
+  </si>
+  <si>
+    <t>34ea29020672eb21280c</t>
+  </si>
+  <si>
+    <t>34ea29020672eb21280caadaf19377833ae12495cae3cc9e297d0f4aefe0d428</t>
+  </si>
+  <si>
     <t>HB24fr9zRBm8R7uXlw5zXiUP5eHW5ljJJrmCwOpRp/4YRjQ/TpqUsmm+GMG8fdOVEEIellnn+Sif/IFeHOuPX4Y=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/10aBMeumWTAVfoCF9OhzWdrjtrC26Zmc3/view</t>
   </si>
   <si>
-    <t>Natalya Dolgova</t>
-  </si>
-  <si>
-    <t>34ea29020672eb21280c</t>
-  </si>
-  <si>
-    <t>34ea29020672eb21280caadaf19377833ae12495cae3cc9e297d0f4aefe0d428</t>
-  </si>
-  <si>
-    <t>29.08.2022</t>
-  </si>
-  <si>
     <t>bfdf2d5236562eef75432a510ff9b0b4cd7d37ac17547d3e0515f4891a736609</t>
   </si>
   <si>
+    <t>G2IQ96lhlCyrf6+zTqhN5F744yuKJvP3JOPKM+8RfwLsTNBoEcHKch31onlkxZG23com3sHuRJ3EVtQBirJEcLI=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1MEjKKhuFeZ4mE0PM3kjRptb63VitKcTl/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1aaqnORxWfLkmccryV49_7kjl_X3ui3uK/view</t>
+  </si>
+  <si>
     <t>905fa9409eec8ceee94c08cd9f5410e03310ce041b58f41958ea440b3396b275</t>
   </si>
   <si>
@@ -1435,55 +1444,58 @@
     <t>905fa9409eec8ceee94c</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1aaqnORxWfLkmccryV49_7kjl_X3ui3uK/view</t>
-  </si>
-  <si>
-    <t>G2IQ96lhlCyrf6+zTqhN5F744yuKJvP3JOPKM+8RfwLsTNBoEcHKch31onlkxZG23com3sHuRJ3EVtQBirJEcLI=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1MEjKKhuFeZ4mE0PM3kjRptb63VitKcTl/view</t>
+    <t>HFOOeUrSvztcEv16aKHm4rhS4OG+5rifrKjnl2TLUMNuIvmOP+bmIwQ0R/CXhqPzLG93zNNZ7DDAzo4zX2JwqG0=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
   </si>
   <si>
     <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
   </si>
   <si>
+    <t>Valentyna Lytvynova</t>
+  </si>
+  <si>
+    <t>f4b8579fd5eced5139aa</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tVAP8fauK_wN1JHJrB5yyDCelAvkutVt/view</t>
+  </si>
+  <si>
     <t>30.08.2022</t>
   </si>
   <si>
-    <t>HFOOeUrSvztcEv16aKHm4rhS4OG+5rifrKjnl2TLUMNuIvmOP+bmIwQ0R/CXhqPzLG93zNNZ7DDAzo4zX2JwqG0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
-  </si>
-  <si>
-    <t>Valentyna Lytvynova</t>
-  </si>
-  <si>
-    <t>f4b8579fd5eced5139aa</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tVAP8fauK_wN1JHJrB5yyDCelAvkutVt/view</t>
+    <t>a3cfa3e5bbc7bf47c73a50046cffe7f40a1126942a35d516dae7601a8d6e0c04</t>
+  </si>
+  <si>
+    <t>Eugene Petrikeev</t>
+  </si>
+  <si>
+    <t>a3cfa3e5bbc7bf47c73a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1_UvD8BMIATW0UaJxtWCZTpytX5_CiSVw/view</t>
   </si>
   <si>
     <t>ff01796886d91f5df69e2b999462ffdd868ad8a8ac105910698d4bf34eac760d</t>
   </si>
   <si>
-    <t>a3cfa3e5bbc7bf47c73a50046cffe7f40a1126942a35d516dae7601a8d6e0c04</t>
-  </si>
-  <si>
     <t>HC9onoqwiC9tBTjtH4rWK0sZBN201JY5gzQcOjtrnfrxCuyXuNML5tt7vBnK3gaErXQJAHBkpCgIGcSy2+VhT2o=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1Es38UUfq4uF6K5m688upx26mH7dcLyOW/view</t>
   </si>
   <si>
-    <t>Eugene Petrikeev</t>
-  </si>
-  <si>
-    <t>a3cfa3e5bbc7bf47c73a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1_UvD8BMIATW0UaJxtWCZTpytX5_CiSVw/view</t>
+    <t>f58f1fc15134ceb6667235bc35ca8e2bc62cf070e2a991a17d739ee3d744ec0a</t>
+  </si>
+  <si>
+    <t>G0id81/AyLv4L2f1Cpy38tuZKCexDvgAwCSDLEP2wFERBEUIL9DUFSHweqt5XpHRUrIGyIocTY4rw5X+3BRYVQo=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1_MqAQ9X0jUmXaREfYybJjbDFMxW4y_dV/view</t>
+  </si>
+  <si>
+    <t>Yurii Poberezhnyi</t>
   </si>
   <si>
     <t>f58f1fc15134ceb66672</t>
@@ -1492,49 +1504,49 @@
     <t>drive.google.com/file/d/13RaHOAUhpp6-9qTwDPNevrtrVrYljiGr/view</t>
   </si>
   <si>
-    <t>G0id81/AyLv4L2f1Cpy38tuZKCexDvgAwCSDLEP2wFERBEUIL9DUFSHweqt5XpHRUrIGyIocTY4rw5X+3BRYVQo=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1_MqAQ9X0jUmXaREfYybJjbDFMxW4y_dV/view</t>
-  </si>
-  <si>
-    <t>Yurii Poberezhnyi</t>
-  </si>
-  <si>
-    <t>f58f1fc15134ceb6667235bc35ca8e2bc62cf070e2a991a17d739ee3d744ec0a</t>
+    <t>Alina Telnova</t>
+  </si>
+  <si>
+    <t>0c95f06fcccbe19e0bb6</t>
   </si>
   <si>
     <t>drive.google.com/file/d/12VzupVGrvNkCAb6z0yEId3srZwjB3_oV/view</t>
   </si>
   <si>
+    <t>0c95f06fcccbe19e0bb6821d5f73206de2ba7ab6169774ac57630980fcfdf102</t>
+  </si>
+  <si>
+    <t>07.09.2022</t>
+  </si>
+  <si>
     <t>G0cRPgCnc9gR979fw7SNVKjn1dtzkepjD/26FOnoJgjmCLAqctDx/62xZZTvPJAQ4ByVKaMOKZLGISJxpBRjSxk=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1QyeAEZg9sPSyHyju9DCa692a7BZuOUIM/view</t>
   </si>
   <si>
-    <t>Alina Telnova</t>
-  </si>
-  <si>
-    <t>0c95f06fcccbe19e0bb6</t>
-  </si>
-  <si>
     <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
   </si>
   <si>
-    <t>0c95f06fcccbe19e0bb6821d5f73206de2ba7ab6169774ac57630980fcfdf102</t>
-  </si>
-  <si>
-    <t>07.09.2022</t>
+    <t>drive.google.com/file/d/1a35HB3dZNIFVRKh5MYvwbUMgYIYIeJcJ/view</t>
+  </si>
+  <si>
+    <t>a7a0e0e2fed389ffbc84aa75be30dc0262dac7620349a94e3f087de79d800aec</t>
+  </si>
+  <si>
+    <t>07.12.2022</t>
   </si>
   <si>
     <t>Oleksandra Ivanova</t>
   </si>
   <si>
+    <t>Theory of database organization and basic SQL</t>
+  </si>
+  <si>
     <t>a7a0e0e2fed389ffbc84</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1a35HB3dZNIFVRKh5MYvwbUMgYIYIeJcJ/view</t>
+    <t>af27ce942975c91a06dbe4593ddf563b104b6cff511a916a18e473e33a3c6685</t>
   </si>
   <si>
     <t>HGAuSB4G9iS8qnGaGbTZOELzGnfVIOzeYAr51TKyBEI+R81nW4taggKbD837pJohHVGrr04rH5jPlwzyVAlOZf8=</t>
@@ -1543,67 +1555,64 @@
     <t>drive.google.com/file/d/1sz_pAnlIqmiCE-IlVrYH0bVnlb9CO7k3/view</t>
   </si>
   <si>
-    <t>07.12.2022</t>
-  </si>
-  <si>
-    <t>Theory of database organization and basic SQL</t>
-  </si>
-  <si>
-    <t>af27ce942975c91a06dbe4593ddf563b104b6cff511a916a18e473e33a3c6685</t>
-  </si>
-  <si>
-    <t>a7a0e0e2fed389ffbc84aa75be30dc0262dac7620349a94e3f087de79d800aec</t>
+    <t>drive.google.com/file/d/18JaSfWZVMTujYk02YeC8yTIPzYWTCbgR/view</t>
+  </si>
+  <si>
+    <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
+  </si>
+  <si>
+    <t>HA7nqYOAJuwCfCde1si6GfmAXgMXgMMWxhJcy8z1MXaTfquiS3KWcg5cqA3vXRaCucVdTNq+9PnKIl/M2H95t1U=</t>
+  </si>
+  <si>
+    <t>da83c72b09ab93cb1202</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1rzgA4oFnvxbSVdfO9K3mEqLq74nYUOHE/view</t>
+  </si>
+  <si>
+    <t>da83c72b09ab93cb12023d84262183c89ed136c57b60f15dd058ff60eb6755e1</t>
+  </si>
+  <si>
+    <t>08.12.2022</t>
   </si>
   <si>
     <t>Ilona Shevchenko</t>
   </si>
   <si>
-    <t>da83c72b09ab93cb1202</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1rzgA4oFnvxbSVdfO9K3mEqLq74nYUOHE/view</t>
-  </si>
-  <si>
-    <t>HA7nqYOAJuwCfCde1si6GfmAXgMXgMMWxhJcy8z1MXaTfquiS3KWcg5cqA3vXRaCucVdTNq+9PnKIl/M2H95t1U=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/18JaSfWZVMTujYk02YeC8yTIPzYWTCbgR/view</t>
-  </si>
-  <si>
-    <t>08.12.2022</t>
-  </si>
-  <si>
-    <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
-  </si>
-  <si>
-    <t>da83c72b09ab93cb12023d84262183c89ed136c57b60f15dd058ff60eb6755e1</t>
+    <t>87c84078c367bed5f82a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1z2sIyET0Oc51U5M7OvtHr2-_D4W8csJF/view</t>
   </si>
   <si>
     <t>87c84078c367bed5f82a4c37dc56304b79f1a92cbc35ee04f70a047b801206e8</t>
   </si>
   <si>
+    <t>Ievgeniia Bondar</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1DSgeEnca2m2q1lhQIgPYMZjvSM27zHVz/view</t>
+  </si>
+  <si>
     <t>53a0b93122b1b19f00b1770fcf8346ff6b499f4d7d038539404febdb403dd2d5</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1DSgeEnca2m2q1lhQIgPYMZjvSM27zHVz/view</t>
-  </si>
-  <si>
-    <t>Ievgeniia Bondar</t>
-  </si>
-  <si>
-    <t>87c84078c367bed5f82a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1z2sIyET0Oc51U5M7OvtHr2-_D4W8csJF/view</t>
-  </si>
-  <si>
     <t>HDmnFaxTvYB3fX3xirgAHkQLGRdgCFX46135fLMOQx6jSuDFyqGJYeFl5HNjWcQL7wgjPvG7L31XdEJwlI/0Hp8=</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1gwAsqyGst-NPKQ5BzcxPZgoUd3Mp-c2Y/view</t>
+  </si>
+  <si>
+    <t>ee347efa2f03bfe07b5b370dd32bb794c416e7a0794004ab5c8dc11e525a70f3</t>
+  </si>
+  <si>
+    <t>Sofia Golets</t>
+  </si>
+  <si>
     <t>ee347efa2f03bfe07b5b</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1gwAsqyGst-NPKQ5BzcxPZgoUd3Mp-c2Y/view</t>
+    <t>7175c0e9b3bfed99d34b5ff6205db6a1d738a6f59b1edc16625a3de5e5df2337</t>
   </si>
   <si>
     <t>HBfL816LHf3VpZrcAfyOzRiPPwNoQETFQTwAXgDAeTOoVXU4imlH+/1GVqIYciJuVz3KJ7HPh/bXP97WNf7KALg=</t>
@@ -1612,75 +1621,72 @@
     <t>drive.google.com/file/d/1oz4kExP5N4TYOiTVuwnMoSz9riylszfY/view</t>
   </si>
   <si>
-    <t>Sofia Golets</t>
-  </si>
-  <si>
-    <t>7175c0e9b3bfed99d34b5ff6205db6a1d738a6f59b1edc16625a3de5e5df2337</t>
-  </si>
-  <si>
-    <t>ee347efa2f03bfe07b5b370dd32bb794c416e7a0794004ab5c8dc11e525a70f3</t>
+    <t>Mykyta Tsyvinskyi</t>
+  </si>
+  <si>
+    <t>d329fb86a98533895cc9</t>
   </si>
   <si>
     <t>d329fb86a98533895cc967dcae966e81c1704bd665227e866aa2243d40f860d1</t>
   </si>
   <si>
-    <t>Mykyta Tsyvinskyi</t>
-  </si>
-  <si>
-    <t>d329fb86a98533895cc9</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1PAzBkAcEVOe-Y-YtqqaWFsAPoHVdrZju/view</t>
-  </si>
-  <si>
     <t>HG3H7R+gkuRp9N6o5Ijm+urqEpH5GKwGgnbrIw5DO/q1IBa3+SRVfqMD46yK58NnQbF6XUSh2wCBFAWCKnEk/wk=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1r9RFc-Cfn_lre3tPfKX-zorxPtLw_noU/view</t>
   </si>
   <si>
+    <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
+  </si>
+  <si>
+    <t>HEGSakY7P9ct04aq9QqIGm12+oG6qgw/UjCyw/bCJDe5TDLmx2/vqiS1Kv6gXF+n02pCZg6/4G0aHU1U2TDtwJk=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1EK-6NYSaV0Ntux46eePx8GH14iwtqWMS/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1PP2qwG40ol3fz4QIYM36c5foc9l5Sjx9/view</t>
+  </si>
+  <si>
+    <t>fe991358b253a63cc425526996ae9a3d2bd45b2e21d0d2f1c778d4855f6c200e</t>
+  </si>
+  <si>
     <t>Cryptography and information security theory</t>
   </si>
   <si>
-    <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
-  </si>
-  <si>
-    <t>fe991358b253a63cc425526996ae9a3d2bd45b2e21d0d2f1c778d4855f6c200e</t>
-  </si>
-  <si>
     <t>fe991358b253a63cc425</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1PP2qwG40ol3fz4QIYM36c5foc9l5Sjx9/view</t>
-  </si>
-  <si>
-    <t>HEGSakY7P9ct04aq9QqIGm12+oG6qgw/UjCyw/bCJDe5TDLmx2/vqiS1Kv6gXF+n02pCZg6/4G0aHU1U2TDtwJk=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1EK-6NYSaV0Ntux46eePx8GH14iwtqWMS/view</t>
-  </si>
-  <si>
     <t>73728940f6f168a46120d32081278e9c30ab81815077aa212a721480bcebc441</t>
   </si>
   <si>
+    <t>G0YUGo9Jy3jzaX+klou+j6jtTsWr5SxJPUgxK1lBTII8OhX2JYF17aSexYXaBn6if1XMcRpsGv23WSmiLmtE4dw=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/19_oiOxRYs9qbWyQLLSkqoFzVZ_gyYvb0/view</t>
+  </si>
+  <si>
     <t>c0c2775e7fda788e20a2b166329d42cdf27c0e854dd0d31ee25eda06315aa887</t>
   </si>
   <si>
     <t>09.12.2022</t>
   </si>
   <si>
-    <t>G0YUGo9Jy3jzaX+klou+j6jtTsWr5SxJPUgxK1lBTII8OhX2JYF17aSexYXaBn6if1XMcRpsGv23WSmiLmtE4dw=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/19_oiOxRYs9qbWyQLLSkqoFzVZ_gyYvb0/view</t>
-  </si>
-  <si>
     <t>c0c2775e7fda788e20a2</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1Cdp_5cunWzbJI0ziE0v88kjWAn7SoMjE/view</t>
   </si>
   <si>
+    <t>Kateryna Hordiienko</t>
+  </si>
+  <si>
+    <t>c2d70295e9cd94ea36fa</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Hgxrfu0fF0g3G7YP3mSmTTM_cOHj83Hc/view</t>
+  </si>
+  <si>
     <t>c2d70295e9cd94ea36fa993ddb5a6e20a0b88058287ff348b485f282fe98bcd7</t>
   </si>
   <si>
@@ -1690,36 +1696,27 @@
     <t>drive.google.com/file/d/1hbuBgF_sruM8jdZyHez-rLBjPpKI0lWF/view</t>
   </si>
   <si>
-    <t>Kateryna Hordiienko</t>
-  </si>
-  <si>
-    <t>c2d70295e9cd94ea36fa</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Hgxrfu0fF0g3G7YP3mSmTTM_cOHj83Hc/view</t>
-  </si>
-  <si>
     <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
   </si>
   <si>
+    <t>HEY3G+/QZT6xPgdnQTopXPCrLjoCTuak3sjsZ8xTem/meS4SyiOhVvKSFyyGNI3Z+Gpvh0DN6WmWbCI3Ls2TmOQ=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/11HGPIJRpxTZcIGuAzUMqWWTBnnnHXWnm/view</t>
+  </si>
+  <si>
+    <t>12.12.2022</t>
+  </si>
+  <si>
+    <t>88bcbd41e52222447f67</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1XndT0lbMQrhnfqzB48l7VOx4Ua5uNQON/view</t>
+  </si>
+  <si>
     <t>88bcbd41e52222447f67bf6c87d5bd88072dd64f06312b21901f5cfaf994aa53</t>
   </si>
   <si>
-    <t>12.12.2022</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1XndT0lbMQrhnfqzB48l7VOx4Ua5uNQON/view</t>
-  </si>
-  <si>
-    <t>HEY3G+/QZT6xPgdnQTopXPCrLjoCTuak3sjsZ8xTem/meS4SyiOhVvKSFyyGNI3Z+Gpvh0DN6WmWbCI3Ls2TmOQ=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/11HGPIJRpxTZcIGuAzUMqWWTBnnnHXWnm/view</t>
-  </si>
-  <si>
-    <t>88bcbd41e52222447f67</t>
-  </si>
-  <si>
     <t>Yuliia Aritkulova</t>
   </si>
   <si>
@@ -1729,91 +1726,97 @@
     <t>drive.google.com/file/d/13Z5IIadYJRVrddoVi1Cg2azzJUNFJOFk/view</t>
   </si>
   <si>
+    <t>3647e3a8edf797d0107aae1cc64cf6a7a6c1fde71d8089e698c724cf8592c46e</t>
+  </si>
+  <si>
+    <t>dcc49868ac0482916b0fe63143198d93a159f912cae80d172fca6750a9b8223c</t>
+  </si>
+  <si>
     <t>GxE4r78grmdptue/3pkebid0nWVY0U8+mag1ps/bYKKaajYxI1FpZfahOhigbl6KVG9O/MABeXistoJsdyWKQgE=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1gW289qMxZley8Wan4ayvZfzpeFJaybgC/view</t>
   </si>
   <si>
-    <t>dcc49868ac0482916b0fe63143198d93a159f912cae80d172fca6750a9b8223c</t>
-  </si>
-  <si>
-    <t>3647e3a8edf797d0107aae1cc64cf6a7a6c1fde71d8089e698c724cf8592c46e</t>
+    <t>69469e3a141e8845c7809e75806677b732754cb64a3ab7e27ee50c47defaa7cd</t>
+  </si>
+  <si>
+    <t>GwXZ8Dc50Z3Sm0TdyPJxJEqsFkfk6st+ii21oNFrqJ5LWmWQ/O6zwLwZkMOiAV1g4RCYc5Mp2wsTFwTJLHcyCA8=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1vLdZKMLYQXe4KZmiZtB2VeObgZ5zUxaZ/view</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1H16kVk9qT_1mjgYnBdVt1YFW4zjJfyJK/view</t>
   </si>
   <si>
-    <t>GwXZ8Dc50Z3Sm0TdyPJxJEqsFkfk6st+ii21oNFrqJ5LWmWQ/O6zwLwZkMOiAV1g4RCYc5Mp2wsTFwTJLHcyCA8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1vLdZKMLYQXe4KZmiZtB2VeObgZ5zUxaZ/view</t>
-  </si>
-  <si>
     <t>Oleksandr Yevtushenko</t>
   </si>
   <si>
     <t>69469e3a141e8845c780</t>
   </si>
   <si>
-    <t>69469e3a141e8845c7809e75806677b732754cb64a3ab7e27ee50c47defaa7cd</t>
+    <t>82294a3b62b68728cf69</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/13bBsLxWWlqCQeQM5GjWhH_vOpPtQKE_L/view</t>
   </si>
   <si>
     <t>Mariia Mahdalina</t>
   </si>
   <si>
-    <t>82294a3b62b68728cf69</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/13bBsLxWWlqCQeQM5GjWhH_vOpPtQKE_L/view</t>
+    <t>drive.google.com/file/d/1wgGvGkhkM28VjI5H5VfsNBEL19mwf-s8/view</t>
+  </si>
+  <si>
+    <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
   </si>
   <si>
     <t>HAy3NsJAL40rd4H4IhjoeAgYMLt9M/i/3WyBnQvVdNRzMtGb3GLfQQC3kvpjEXM6esEHhalHVsh1pjY64jyS4A8=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1wgGvGkhkM28VjI5H5VfsNBEL19mwf-s8/view</t>
-  </si>
-  <si>
-    <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
-  </si>
-  <si>
     <t>766041da4e35a4d0486d569831f14d1b0170e9b3c0d5f3a1ad71da7b4dd65a40</t>
   </si>
   <si>
+    <t>HEpYc/tbZ5T9f1eNNM5qqpLimkmSSyZ1XOjHiO/y9oQiBkSKJptMNZRIdMw6P9S7+kqxLnf3Auc6naIj3Q3fD2I=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1A6NROXTGcLmtMFUnzyZfXgaw9rYmYU-z/view</t>
+  </si>
+  <si>
+    <t>17e86d41103dadc488cf</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1wODAEWMU7od1Tgk2VcYCDHnfvaqZUHSH/view</t>
+  </si>
+  <si>
     <t>17e86d41103dadc488cf14b66c43840cff39a0819c86f9e8a311491c1d136ed3</t>
   </si>
   <si>
-    <t>17e86d41103dadc488cf</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1wODAEWMU7od1Tgk2VcYCDHnfvaqZUHSH/view</t>
-  </si>
-  <si>
-    <t>HEpYc/tbZ5T9f1eNNM5qqpLimkmSSyZ1XOjHiO/y9oQiBkSKJptMNZRIdMw6P9S7+kqxLnf3Auc6naIj3Q3fD2I=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1A6NROXTGcLmtMFUnzyZfXgaw9rYmYU-z/view</t>
+    <t>13.12.2022</t>
+  </si>
+  <si>
+    <t>Anastasia Andreeva</t>
+  </si>
+  <si>
+    <t>b8204a738e7d7870dabd</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1s3gG1bTBD7v0e2zleB32VsF1XWQ-6In4/view</t>
   </si>
   <si>
     <t>b8204a738e7d7870dabd55671aca3a860dd89a35ef26e0842f271747331a2137</t>
   </si>
   <si>
-    <t>13.12.2022</t>
-  </si>
-  <si>
-    <t>b8204a738e7d7870dabd</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1s3gG1bTBD7v0e2zleB32VsF1XWQ-6In4/view</t>
-  </si>
-  <si>
     <t>G01ZiDn6DW9nGMxyjbxJFQgSaDSh+2ZQ1hn+Kz9kc1B9dUmf8XBu/fV7HJaHqVmWKJu7r8rM5QSukHklKHRdOhc=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1iktY2bdJ6tFJHoKG7YgVHQHh-XU-J6Z2/view</t>
   </si>
   <si>
-    <t>Anastasia Andreeva</t>
+    <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
+  </si>
+  <si>
+    <t>Gxg4VxeDpq7+yvgJ66Smu5J569Dc37b6emQFyd+QRSkQdQS96ckvCfBAN5vkQtgFlvTveG9sOTR+66ZUNYVRvKM=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1VjeyDVI6HeuvIazF3ZRSJTAK1Oj9jlmL/view</t>
@@ -1828,229 +1831,103 @@
     <t>drive.google.com/file/d/1zXQbyUbZFwa6mIeXIy0WqFLwEPC2TwBS/view</t>
   </si>
   <si>
-    <t>Gxg4VxeDpq7+yvgJ66Smu5J569Dc37b6emQFyd+QRSkQdQS96ckvCfBAN5vkQtgFlvTveG9sOTR+66ZUNYVRvKM=</t>
-  </si>
-  <si>
     <t>a22e2a62f7ddf53dde55920b983dcdade73723df80a6c57c5a15baac944b57f4</t>
   </si>
   <si>
-    <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
-  </si>
-  <si>
-    <t>5cd7fc5bd09930ef70c4</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1lervrTjn3jFFJB8OoBg3tYjUe-LavtZu/view</t>
-  </si>
-  <si>
-    <t>G029ROzmBqnsBCQZmBLyFqwpglcoomCleh7cH6bHLecGMkidlGujjtz8Zy9m/eyHdFTNmsoDN01Vvtfr9KjWWpE=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Fpp3woPJahAxbsEmbGc3y3RwwNgWM9Z_/view</t>
-  </si>
-  <si>
     <t>93620030db08953cbf17468ffde46134834b7da10958b5174e935d4e324ce081</t>
   </si>
   <si>
-    <t>5cd7fc5bd09930ef70c4e7e58a6a83f278c99e7d5951d421fb1652154546e5ff</t>
+    <t>HHbiD8H1z2fwCjgA0K/0GymJl4RcCi3wnehCfa72EOF+RwXPgmdTom5TH/IQ6e5AjmLndgB/4YfHFtdBTD1hpx0=</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d//view</t>
+  </si>
+  <si>
+    <t>HE5sTfhDSPPfvHdDSYkSvX2ZkktsyYMaoVxamHtpKMWoUxr7olw6SaItyMSztkPit37aQqfQ+YAsvCfZ01AcAwc=</t>
   </si>
   <si>
     <t>b3240a1974bff838f35320554f851b14ea2bd31f46bcb893a35546b7ea8b3112</t>
   </si>
   <si>
-    <t>a527181b18ed3314770d19153878f7e5aa584f14a87e4ff7359e0f786d111035</t>
-  </si>
-  <si>
-    <t>a527181b18ed3314770d</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1BUf8V82jFUtTSeaPI7umBhi5fs_azyIS/view</t>
-  </si>
-  <si>
-    <t>HEOkbyz8bDIFPyt2qLyQKiF6PtZS8wREgFyhz4O54wtqCgzQKt5A4/mqu/ChtsP/wKGSUjVaJdHYmbDV6J6lr0g=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1WLCZ0IgrsPTDh1jszQy-AL8bIwPI8fn2/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1z41m5MP3Z3NnOh2994FlKddz5IGA2fGh/view</t>
-  </si>
-  <si>
-    <t>G1Af8g1usQE9Wk+50wmPFuq9q6NpEu8OraZB1XidUTeiWNTGikuvuMOWFqJbVQCyQbz82XJ1HdhVWNfChHCM4Ts=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1PJ7OiX4ESeHFmnBOlTOV9mypK2ffduhp/view</t>
-  </si>
-  <si>
-    <t>3b04927f55902a2ce8d1</t>
-  </si>
-  <si>
     <t>b94492feb30efb7f94082666a936891a31a43de0e18af1aa8a110ef869532d93</t>
   </si>
   <si>
-    <t>3b04927f55902a2ce8d1f9931139403d76b7347dbd9b7b6a6f1175ed0f80f941</t>
+    <t>G6+s7V2DHLaRMUYNOIA8N40KmelApLWT3iXHGYHXv0ZJIGVzGNez6R9Ai+af6Go130PTYDBGSDSN/q4KZdDYaqI=</t>
   </si>
   <si>
     <t>14.12.2022</t>
   </si>
   <si>
+    <t>Pasha Charovatiy</t>
+  </si>
+  <si>
     <t>151f4183ce68ec59b82ccbef71ac6f538e0eb86354c29ded27bca54fa4b95c99</t>
   </si>
   <si>
-    <t>6afd8584d5a31bd08cb5299a9eadf98b32dd8fd340ef5e7cc2a3d0338cdb9553</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/13VFwbzYvHdoVPIJpVFS5zVhfay1iYguY/view</t>
-  </si>
-  <si>
-    <t>GwbTQ558Ef1Qmbjpamvebq+xa4iD9kUagVoWfYeSh7hAQbImq3LiZzMT5h6LQW1xBcQFBu8/ArIV2Sh799tnojc=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1F8hyY2ZM61utkPbNVJuXi4yrWnVAEGwQ/view</t>
-  </si>
-  <si>
-    <t>Pasha Charovatiy</t>
-  </si>
-  <si>
-    <t>6afd8584d5a31bd08cb5</t>
+    <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
   </si>
   <si>
     <t>Dmytro Serhiienko</t>
   </si>
   <si>
-    <t>239235b8877849babd00</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1wuMcWCw21CjGclyddT5wGzZmZnTCxZO0/view</t>
-  </si>
-  <si>
-    <t>G3y2skz1RxbOpoRGpzorMBMiQ0l7TZ5HPLxYmOAiZ1hmBrDgyXuSMX2K1E/82HiAXrVn+XZn1qqSvsC7zvhzxok=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1qRMBdxumqIX6mxQoRlofWfUGz4P3Jbp3/view</t>
-  </si>
-  <si>
     <t>42bdd76bce3b85dabf4bdba92100db768bf64e72f2b3535930b69bef40aa3c4c</t>
   </si>
   <si>
-    <t>239235b8877849babd005c0bdc00e5141e181216ca9761d6042537838537a92a</t>
+    <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y=</t>
+  </si>
+  <si>
+    <t>890c4726435f6d5a1c10068273e8dd8a3ac0645a9564bbf149f0d74a891669c6</t>
+  </si>
+  <si>
+    <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8=</t>
   </si>
   <si>
     <t>Vladislav Dmitrenko</t>
   </si>
   <si>
-    <t>6216890da62268a69ccb</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/12mhD3MWVhmzenFixvjs9euvoT0HlszHL/view</t>
-  </si>
-  <si>
-    <t>G38acOrQBdbLXCuUxSFO9lALbfsfBpO/EAIugej0SbbiWocA/HhUfhDm2sfzk5CPDetE70H8b5ml4p89fl+5NLg=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1t7SFjfdNdVazwML8SM2gkmvFsbvIGf57/view</t>
-  </si>
-  <si>
-    <t>890c4726435f6d5a1c10068273e8dd8a3ac0645a9564bbf149f0d74a891669c6</t>
-  </si>
-  <si>
-    <t>6216890da62268a69ccbe039022f0738af441806a2f1b3093cf0f1d8454ccb30</t>
+    <t>05f89d361327d9ef1679342cb8ed0488715da550cba8f0bdc7160caa43b5929c</t>
+  </si>
+  <si>
+    <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
   </si>
   <si>
     <t>Marina Rindina</t>
   </si>
   <si>
-    <t>17e586906755f2233b1c</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1zI1rFcSy3DPnqyKUF7Nk48aJonfL6NEd/view</t>
-  </si>
-  <si>
-    <t>HFeYSABLqPUIGNVrL/gUrQyuoN8mYz86RsbrfI3iked4M/KsMFznj/LGmBdJlYbsyD0ZbMegMt+U6tH3Aop1NG0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1U0JKz1B2RADbxKll6VKzdSMFZ6ip_UuD/view</t>
-  </si>
-  <si>
-    <t>05f89d361327d9ef1679342cb8ed0488715da550cba8f0bdc7160caa43b5929c</t>
-  </si>
-  <si>
-    <t>17e586906755f2233b1cec389b9cdb1af335724ae1a3a3541aeda7908fbec6ab</t>
-  </si>
-  <si>
     <t>15.12.2022</t>
   </si>
   <si>
+    <t>Nazar Franko</t>
+  </si>
+  <si>
     <t>fec88d795aed9c59a04f91dedb06380fd764c753a54d6bdb96cea82b6ba05e29</t>
   </si>
   <si>
-    <t>5fce9047bf62cc2c4f27564f5a90b61aee2365834b9b6b7f6ba6832d6b29f036</t>
-  </si>
-  <si>
-    <t>Nazar Franko</t>
-  </si>
-  <si>
-    <t>5fce9047bf62cc2c4f27</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1k6pv-RdvNR7oD8ZeXS5aQ-sRiThxFkEv/view</t>
-  </si>
-  <si>
-    <t>HCErOToWnoQlZxTLcboCM35Seo7tDbUUdpdDxeENBmWJIO8+957D1z6rNg+CXpXVqb0w6U/zwlBtDNvMq2OO27A=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1dJHqOtnWFvKqrHoL4Tqq7rcBjp1G_WaA/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Lk3e4Yex2W1dwzwisWhwKuLrXPElV_Eq/view</t>
+    <t>HL/mv02dnaeyvxsR9TyKJfqMl9lFEn1L8OidD6AzOq6SbieHRkQRPK29os5vKBwoJ5+Bf7RtfN9xUiVEOCASXj0=</t>
+  </si>
+  <si>
+    <t>9b293cc55ae62c9db4d9ce36cbc12b07e861f9c2cc1fdea2619f10ceca7aa779</t>
+  </si>
+  <si>
+    <t>HErdMQ+2CPtlOJcP0I5vxghyuQmJVGZrrQr9SzMolPyHA1fUnzBjAbN7DzwkyP+y7M+dkiNCGOkNsY3YZaCO1XA=</t>
   </si>
   <si>
     <t>Olha Drahomeretska</t>
   </si>
   <si>
-    <t>0b67879057bfd2f3c6e1</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1OyBBPvFLU5O_ssa9NrEI_Eb5GvonCwQI/view</t>
-  </si>
-  <si>
-    <t>HDrYvaIx2k5Fier1DitF4GT3hKIeLkczjWyuvk+/cKuJZb3ICfssn/9NxN3Th5orxelFkAkgT3wORkxRIwCPBkk=</t>
-  </si>
-  <si>
-    <t>0b67879057bfd2f3c6e1e9d3fa743bdc4d78a53501c96c4e5f184e105db7b17c</t>
-  </si>
-  <si>
-    <t>9b293cc55ae62c9db4d9ce36cbc12b07e861f9c2cc1fdea2619f10ceca7aa779</t>
-  </si>
-  <si>
     <t>Maksym Cherniak</t>
   </si>
   <si>
-    <t>e85ddb3ff95fb1668446</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1FQCoo9V_ZkuOu-Yr4lCDsWiz1WHbmBfj/view</t>
-  </si>
-  <si>
-    <t>G3gfVxP3ewHz6dP2Z+0N1/qt4aK6N/0en1Qx25F3mwS7c3qT5LwPhJ+XE+kby5liifLyVH8z3nAZ3jKQc/9YgP0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1558dIA8mr9-mbKfPAiPR9CKmNYFMozdH/view</t>
-  </si>
-  <si>
     <t>ac2b88ac92caf80b12076489c877b91785360487aa3135871883e597da139682</t>
   </si>
   <si>
-    <t>e85ddb3ff95fb166844688499268e6c6d4efffb6c2eb571cbb21e2ffafe57162</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Maksym_Cherniak__QR_codecreate.svg</t>
+    <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
+  </si>
+  <si>
+    <t>3bf214d846d708bfad511d51d92350d45ba0bcf21f43b7bb46553ed2e0aad585</t>
   </si>
   <si>
     <t>HDfq7iIvfl/KNv5Cs/GPeiZndLZYqskpWWIXt7VX3LunRfVInSqJiTeO33MHHKI8aX3Zz4VgDh7LV5fAg/zZPZk=</t>
-  </si>
-  <si>
-    <t>3bf214d846d708bfad511d51d92350d45ba0bcf21f43b7bb46553ed2e0aad585</t>
   </si>
 </sst>
 </file>
@@ -2362,34 +2239,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2397,36 +2274,36 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -2435,62 +2312,62 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -2499,126 +2376,126 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -2627,30 +2504,30 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -2659,30 +2536,30 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -2691,62 +2568,62 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -2755,30 +2632,30 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -2787,30 +2664,30 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -2819,30 +2696,30 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -2851,30 +2728,30 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
@@ -2883,62 +2760,62 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
@@ -2947,25 +2824,25 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2979,25 +2856,25 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -3011,25 +2888,25 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -3037,31 +2914,31 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -3069,31 +2946,31 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -3107,30 +2984,30 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
@@ -3139,30 +3016,30 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
@@ -3171,30 +3048,30 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
@@ -3203,25 +3080,25 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -3229,31 +3106,31 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -3264,28 +3141,28 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
         <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -3296,28 +3173,28 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -3325,31 +3202,31 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
         <v>64</v>
       </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>65</v>
-      </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -3360,28 +3237,28 @@
         <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
         <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -3392,28 +3269,28 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3424,28 +3301,28 @@
         <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3456,28 +3333,28 @@
         <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
         <v>71</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -3488,28 +3365,28 @@
         <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3517,31 +3394,31 @@
         <v>59</v>
       </c>
       <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
-      </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3549,25 +3426,25 @@
         <v>75</v>
       </c>
       <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
         <v>79</v>
       </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="G38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s">
         <v>80</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H38" t="s">
-        <v>78</v>
       </c>
       <c r="I38" t="s">
         <v>82</v>
@@ -3578,130 +3455,130 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" t="s">
         <v>85</v>
       </c>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="J39" t="s">
         <v>86</v>
-      </c>
-      <c r="H39" t="s">
-        <v>84</v>
-      </c>
-      <c r="I39" t="s">
-        <v>91</v>
-      </c>
-      <c r="J39" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
         <v>94</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" t="s">
         <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H40" t="s">
-        <v>93</v>
-      </c>
-      <c r="I40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J40" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
         <v>105</v>
       </c>
-      <c r="B41" t="s">
+      <c r="G41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" t="s">
         <v>100</v>
       </c>
-      <c r="C41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="J41" t="s">
         <v>101</v>
-      </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" t="s">
-        <v>106</v>
-      </c>
-      <c r="H41" t="s">
-        <v>107</v>
-      </c>
-      <c r="I41" t="s">
-        <v>103</v>
-      </c>
-      <c r="J41" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
       </c>
       <c r="G42" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" t="s">
         <v>109</v>
       </c>
-      <c r="H42" t="s">
+      <c r="J42" t="s">
         <v>110</v>
-      </c>
-      <c r="I42" t="s">
-        <v>113</v>
-      </c>
-      <c r="J42" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -3709,31 +3586,31 @@
         <v>120</v>
       </c>
       <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" t="s">
         <v>115</v>
       </c>
-      <c r="C43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="H43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I43" t="s">
         <v>116</v>
       </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="J43" t="s">
         <v>117</v>
-      </c>
-      <c r="G43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H43" t="s">
-        <v>122</v>
-      </c>
-      <c r="I43" t="s">
-        <v>118</v>
-      </c>
-      <c r="J43" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="44">
@@ -3741,60 +3618,60 @@
         <v>120</v>
       </c>
       <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
         <v>126</v>
       </c>
-      <c r="C44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" t="s">
         <v>127</v>
       </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" t="s">
         <v>128</v>
       </c>
-      <c r="G44" t="s">
-        <v>124</v>
-      </c>
-      <c r="H44" t="s">
-        <v>123</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>129</v>
-      </c>
-      <c r="J44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
         <v>134</v>
       </c>
-      <c r="B45" t="s">
-        <v>130</v>
-      </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -3802,28 +3679,28 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" t="s">
         <v>136</v>
-      </c>
-      <c r="B46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" t="s">
-        <v>137</v>
-      </c>
-      <c r="H46" t="s">
-        <v>138</v>
       </c>
       <c r="I46" t="s">
         <v>142</v>
@@ -3834,28 +3711,28 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
         <v>149</v>
       </c>
       <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" t="s">
         <v>145</v>
       </c>
-      <c r="D47" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>146</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>151</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>147</v>
-      </c>
-      <c r="H47" t="s">
-        <v>148</v>
       </c>
       <c r="I47" t="s">
         <v>152</v>
@@ -3866,34 +3743,34 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" t="s">
+        <v>147</v>
+      </c>
+      <c r="I48" t="s">
+        <v>154</v>
+      </c>
+      <c r="J48" t="s">
         <v>155</v>
-      </c>
-      <c r="C48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" t="s">
-        <v>156</v>
-      </c>
-      <c r="E48" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" t="s">
-        <v>157</v>
-      </c>
-      <c r="G48" t="s">
-        <v>154</v>
-      </c>
-      <c r="H48" t="s">
-        <v>148</v>
-      </c>
-      <c r="I48" t="s">
-        <v>158</v>
-      </c>
-      <c r="J48" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="49">
@@ -3901,31 +3778,31 @@
         <v>165</v>
       </c>
       <c r="B49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" t="s">
+        <v>161</v>
+      </c>
+      <c r="H49" t="s">
+        <v>147</v>
+      </c>
+      <c r="I49" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" t="s">
         <v>160</v>
-      </c>
-      <c r="C49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" t="s">
-        <v>166</v>
-      </c>
-      <c r="H49" t="s">
-        <v>148</v>
-      </c>
-      <c r="I49" t="s">
-        <v>163</v>
-      </c>
-      <c r="J49" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="50">
@@ -3933,31 +3810,31 @@
         <v>165</v>
       </c>
       <c r="B50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
         <v>167</v>
       </c>
-      <c r="C50" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="G50" t="s">
+        <v>171</v>
+      </c>
+      <c r="H50" t="s">
         <v>168</v>
       </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="s">
-        <v>169</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
         <v>172</v>
       </c>
-      <c r="H50" t="s">
+      <c r="J50" t="s">
         <v>173</v>
-      </c>
-      <c r="I50" t="s">
-        <v>170</v>
-      </c>
-      <c r="J50" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="51">
@@ -3965,31 +3842,31 @@
         <v>165</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" t="s">
         <v>145</v>
-      </c>
-      <c r="D51" t="s">
-        <v>179</v>
-      </c>
-      <c r="E51" t="s">
-        <v>146</v>
       </c>
       <c r="F51" t="s">
         <v>175</v>
       </c>
       <c r="G51" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52">
@@ -4000,28 +3877,28 @@
         <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
         <v>182</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" t="s">
         <v>183</v>
       </c>
-      <c r="G52" t="s">
-        <v>185</v>
-      </c>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I52" t="s">
         <v>184</v>
       </c>
       <c r="J52" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53">
@@ -4029,31 +3906,31 @@
         <v>165</v>
       </c>
       <c r="B53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" t="s">
         <v>186</v>
       </c>
-      <c r="C53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="H53" t="s">
+        <v>147</v>
+      </c>
+      <c r="I53" t="s">
         <v>187</v>
       </c>
-      <c r="E53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="J53" t="s">
         <v>188</v>
-      </c>
-      <c r="G53" t="s">
-        <v>191</v>
-      </c>
-      <c r="H53" t="s">
-        <v>148</v>
-      </c>
-      <c r="I53" t="s">
-        <v>189</v>
-      </c>
-      <c r="J53" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="54">
@@ -4061,31 +3938,31 @@
         <v>165</v>
       </c>
       <c r="B54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" t="s">
         <v>197</v>
       </c>
-      <c r="C54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
+        <v>194</v>
+      </c>
+      <c r="H54" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" t="s">
+        <v>192</v>
+      </c>
+      <c r="J54" t="s">
         <v>193</v>
-      </c>
-      <c r="E54" t="s">
-        <v>146</v>
-      </c>
-      <c r="F54" t="s">
-        <v>194</v>
-      </c>
-      <c r="G54" t="s">
-        <v>192</v>
-      </c>
-      <c r="H54" t="s">
-        <v>148</v>
-      </c>
-      <c r="I54" t="s">
-        <v>195</v>
-      </c>
-      <c r="J54" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="55">
@@ -4093,31 +3970,31 @@
         <v>165</v>
       </c>
       <c r="B55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" t="s">
         <v>203</v>
-      </c>
-      <c r="C55" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" t="s">
-        <v>199</v>
-      </c>
-      <c r="E55" t="s">
-        <v>146</v>
-      </c>
-      <c r="F55" t="s">
-        <v>200</v>
       </c>
       <c r="G55" t="s">
         <v>198</v>
       </c>
       <c r="H55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J55" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56">
@@ -4125,25 +4002,25 @@
         <v>165</v>
       </c>
       <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" t="s">
         <v>205</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>145</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>206</v>
       </c>
-      <c r="E56" t="s">
-        <v>146</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>207</v>
       </c>
-      <c r="G56" t="s">
-        <v>204</v>
-      </c>
       <c r="H56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I56" t="s">
         <v>208</v>
@@ -4157,31 +4034,31 @@
         <v>165</v>
       </c>
       <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" t="s">
+        <v>164</v>
+      </c>
+      <c r="G57" t="s">
+        <v>161</v>
+      </c>
+      <c r="H57" t="s">
+        <v>147</v>
+      </c>
+      <c r="I57" t="s">
+        <v>162</v>
+      </c>
+      <c r="J57" t="s">
         <v>160</v>
-      </c>
-      <c r="C57" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" t="s">
-        <v>161</v>
-      </c>
-      <c r="E57" t="s">
-        <v>146</v>
-      </c>
-      <c r="F57" t="s">
-        <v>162</v>
-      </c>
-      <c r="G57" t="s">
-        <v>166</v>
-      </c>
-      <c r="H57" t="s">
-        <v>148</v>
-      </c>
-      <c r="I57" t="s">
-        <v>163</v>
-      </c>
-      <c r="J57" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="58">
@@ -4192,22 +4069,22 @@
         <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
         <v>212</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F58" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58" t="s">
         <v>213</v>
       </c>
-      <c r="G58" t="s">
-        <v>210</v>
-      </c>
       <c r="H58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I58" t="s">
         <v>214</v>
@@ -4218,409 +4095,409 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" t="s">
+        <v>216</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>217</v>
+      </c>
+      <c r="G59" t="s">
         <v>221</v>
       </c>
-      <c r="B59" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" t="s">
-        <v>217</v>
-      </c>
-      <c r="E59" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>218</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>222</v>
       </c>
-      <c r="H59" t="s">
+      <c r="J59" t="s">
         <v>223</v>
-      </c>
-      <c r="I59" t="s">
-        <v>219</v>
-      </c>
-      <c r="J59" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>225</v>
+      </c>
+      <c r="B60" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" t="s">
+        <v>227</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>228</v>
+      </c>
+      <c r="G60" t="s">
         <v>229</v>
       </c>
-      <c r="B60" t="s">
+      <c r="H60" t="s">
         <v>224</v>
       </c>
-      <c r="C60" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" t="s">
-        <v>225</v>
-      </c>
-      <c r="E60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" t="s">
-        <v>226</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
         <v>230</v>
       </c>
-      <c r="H60" t="s">
+      <c r="J60" t="s">
         <v>231</v>
-      </c>
-      <c r="I60" t="s">
-        <v>227</v>
-      </c>
-      <c r="J60" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" t="s">
         <v>233</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>145</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>234</v>
       </c>
-      <c r="E61" t="s">
-        <v>146</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
+        <v>237</v>
+      </c>
+      <c r="H61" t="s">
+        <v>147</v>
+      </c>
+      <c r="I61" t="s">
         <v>235</v>
       </c>
-      <c r="G61" t="s">
-        <v>232</v>
-      </c>
-      <c r="H61" t="s">
-        <v>148</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>236</v>
-      </c>
-      <c r="J61" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>238</v>
+      </c>
+      <c r="G62" t="s">
+        <v>243</v>
+      </c>
+      <c r="H62" t="s">
+        <v>239</v>
+      </c>
+      <c r="I62" t="s">
         <v>244</v>
       </c>
-      <c r="B62" t="s">
-        <v>239</v>
-      </c>
-      <c r="C62" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" t="s">
-        <v>240</v>
-      </c>
-      <c r="E62" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="J62" t="s">
         <v>245</v>
-      </c>
-      <c r="H62" t="s">
-        <v>243</v>
-      </c>
-      <c r="I62" t="s">
-        <v>242</v>
-      </c>
-      <c r="J62" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>252</v>
+      </c>
+      <c r="B63" t="s">
         <v>253</v>
       </c>
-      <c r="B63" t="s">
-        <v>248</v>
-      </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
         <v>249</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F63" t="s">
         <v>250</v>
       </c>
       <c r="G63" t="s">
+        <v>246</v>
+      </c>
+      <c r="H63" t="s">
         <v>251</v>
       </c>
-      <c r="H63" t="s">
-        <v>252</v>
-      </c>
       <c r="I63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J63" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>257</v>
+      </c>
+      <c r="B64" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>260</v>
+      </c>
+      <c r="G64" t="s">
         <v>254</v>
       </c>
-      <c r="B64" t="s">
-        <v>257</v>
-      </c>
-      <c r="C64" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" t="s">
-        <v>258</v>
-      </c>
-      <c r="E64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" t="s">
-        <v>259</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
+        <v>261</v>
+      </c>
+      <c r="I64" t="s">
         <v>255</v>
       </c>
-      <c r="H64" t="s">
+      <c r="J64" t="s">
         <v>256</v>
-      </c>
-      <c r="I64" t="s">
-        <v>260</v>
-      </c>
-      <c r="J64" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B65" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
         <v>267</v>
-      </c>
-      <c r="C65" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" t="s">
-        <v>268</v>
-      </c>
-      <c r="E65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>264</v>
       </c>
       <c r="G65" t="s">
         <v>262</v>
       </c>
       <c r="H65" t="s">
+        <v>268</v>
+      </c>
+      <c r="I65" t="s">
         <v>263</v>
       </c>
-      <c r="I65" t="s">
-        <v>265</v>
-      </c>
       <c r="J65" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>272</v>
+      </c>
+      <c r="B66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" t="s">
         <v>274</v>
       </c>
-      <c r="B66" t="s">
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>275</v>
+      </c>
+      <c r="G66" t="s">
         <v>269</v>
-      </c>
-      <c r="C66" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" t="s">
-        <v>270</v>
-      </c>
-      <c r="E66" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" t="s">
-        <v>271</v>
-      </c>
-      <c r="G66" t="s">
-        <v>275</v>
       </c>
       <c r="H66" t="s">
         <v>276</v>
       </c>
       <c r="I66" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B67" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" t="s">
+        <v>277</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
         <v>278</v>
       </c>
-      <c r="C67" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="G67" t="s">
+        <v>282</v>
+      </c>
+      <c r="H67" t="s">
         <v>279</v>
       </c>
-      <c r="E67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>280</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="I67" t="s">
         <v>283</v>
       </c>
-      <c r="H67" t="s">
-        <v>282</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>281</v>
-      </c>
-      <c r="J67" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>284</v>
+      </c>
+      <c r="B68" t="s">
+        <v>285</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
+        <v>286</v>
+      </c>
+      <c r="E68" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" t="s">
+        <v>287</v>
+      </c>
+      <c r="G68" t="s">
+        <v>288</v>
+      </c>
+      <c r="H68" t="s">
+        <v>147</v>
+      </c>
+      <c r="I68" t="s">
         <v>289</v>
       </c>
-      <c r="B68" t="s">
-        <v>284</v>
-      </c>
-      <c r="C68" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" t="s">
-        <v>285</v>
-      </c>
-      <c r="E68" t="s">
-        <v>146</v>
-      </c>
-      <c r="F68" t="s">
-        <v>286</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="J68" t="s">
         <v>290</v>
-      </c>
-      <c r="H68" t="s">
-        <v>148</v>
-      </c>
-      <c r="I68" t="s">
-        <v>287</v>
-      </c>
-      <c r="J68" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>294</v>
+      </c>
+      <c r="B69" t="s">
+        <v>295</v>
+      </c>
+      <c r="C69" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" t="s">
+        <v>296</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>297</v>
+      </c>
+      <c r="G69" t="s">
+        <v>291</v>
+      </c>
+      <c r="H69" t="s">
         <v>298</v>
       </c>
-      <c r="B69" t="s">
+      <c r="I69" t="s">
+        <v>292</v>
+      </c>
+      <c r="J69" t="s">
         <v>293</v>
-      </c>
-      <c r="C69" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" t="s">
-        <v>294</v>
-      </c>
-      <c r="E69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" t="s">
-        <v>295</v>
-      </c>
-      <c r="G69" t="s">
-        <v>296</v>
-      </c>
-      <c r="H69" t="s">
-        <v>297</v>
-      </c>
-      <c r="I69" t="s">
-        <v>291</v>
-      </c>
-      <c r="J69" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B70" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" t="s">
+        <v>304</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>305</v>
+      </c>
+      <c r="G70" t="s">
         <v>299</v>
       </c>
-      <c r="C70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="H70" t="s">
+        <v>302</v>
+      </c>
+      <c r="I70" t="s">
         <v>300</v>
       </c>
-      <c r="E70" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="J70" t="s">
         <v>301</v>
-      </c>
-      <c r="G70" t="s">
-        <v>304</v>
-      </c>
-      <c r="H70" t="s">
-        <v>305</v>
-      </c>
-      <c r="I70" t="s">
-        <v>302</v>
-      </c>
-      <c r="J70" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B71" t="s">
         <v>308</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
         <v>309</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F71" t="s">
+        <v>306</v>
+      </c>
+      <c r="G71" t="s">
         <v>310</v>
-      </c>
-      <c r="G71" t="s">
-        <v>306</v>
       </c>
       <c r="H71" t="s">
         <v>307</v>
@@ -4634,31 +4511,31 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B72" t="s">
+        <v>316</v>
+      </c>
+      <c r="C72" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" t="s">
+        <v>317</v>
+      </c>
+      <c r="E72" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" t="s">
+        <v>318</v>
+      </c>
+      <c r="G72" t="s">
         <v>315</v>
       </c>
-      <c r="C72" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" t="s">
-        <v>316</v>
-      </c>
-      <c r="E72" t="s">
-        <v>146</v>
-      </c>
-      <c r="F72" t="s">
-        <v>317</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
+        <v>147</v>
+      </c>
+      <c r="I72" t="s">
         <v>313</v>
-      </c>
-      <c r="H72" t="s">
-        <v>148</v>
-      </c>
-      <c r="I72" t="s">
-        <v>318</v>
       </c>
       <c r="J72" t="s">
         <v>314</v>
@@ -4666,92 +4543,92 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>324</v>
+      </c>
+      <c r="B73" t="s">
+        <v>325</v>
+      </c>
+      <c r="C73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" t="s">
+        <v>326</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>322</v>
+      </c>
+      <c r="G73" t="s">
         <v>319</v>
       </c>
-      <c r="B73" t="s">
-        <v>322</v>
-      </c>
-      <c r="C73" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="H73" t="s">
         <v>323</v>
       </c>
-      <c r="E73" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" t="s">
-        <v>324</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="I73" t="s">
         <v>320</v>
       </c>
-      <c r="H73" t="s">
+      <c r="J73" t="s">
         <v>321</v>
-      </c>
-      <c r="I73" t="s">
-        <v>325</v>
-      </c>
-      <c r="J73" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B74" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G74" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H74" t="s">
         <v>328</v>
       </c>
       <c r="I74" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J74" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>338</v>
+      </c>
+      <c r="B75" t="s">
+        <v>334</v>
+      </c>
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" t="s">
+        <v>335</v>
+      </c>
+      <c r="E75" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" t="s">
         <v>336</v>
       </c>
-      <c r="B75" t="s">
+      <c r="G75" t="s">
         <v>341</v>
       </c>
-      <c r="C75" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="H75" t="s">
         <v>337</v>
-      </c>
-      <c r="E75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" t="s">
-        <v>338</v>
-      </c>
-      <c r="G75" t="s">
-        <v>334</v>
-      </c>
-      <c r="H75" t="s">
-        <v>335</v>
       </c>
       <c r="I75" t="s">
         <v>339</v>
@@ -4762,92 +4639,92 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B76" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" t="s">
+        <v>345</v>
+      </c>
+      <c r="E76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F76" t="s">
+        <v>346</v>
+      </c>
+      <c r="G76" t="s">
         <v>342</v>
       </c>
-      <c r="C76" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="H76" t="s">
+        <v>147</v>
+      </c>
+      <c r="I76" t="s">
         <v>343</v>
       </c>
-      <c r="E76" t="s">
-        <v>146</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="J76" t="s">
         <v>344</v>
-      </c>
-      <c r="G76" t="s">
-        <v>347</v>
-      </c>
-      <c r="H76" t="s">
-        <v>148</v>
-      </c>
-      <c r="I76" t="s">
-        <v>345</v>
-      </c>
-      <c r="J76" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B77" t="s">
+        <v>351</v>
+      </c>
+      <c r="C77" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" t="s">
+        <v>352</v>
+      </c>
+      <c r="E77" t="s">
+        <v>145</v>
+      </c>
+      <c r="F77" t="s">
+        <v>353</v>
+      </c>
+      <c r="G77" t="s">
         <v>348</v>
       </c>
-      <c r="C77" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="H77" t="s">
+        <v>147</v>
+      </c>
+      <c r="I77" t="s">
         <v>349</v>
       </c>
-      <c r="E77" t="s">
-        <v>146</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="J77" t="s">
         <v>350</v>
-      </c>
-      <c r="G77" t="s">
-        <v>353</v>
-      </c>
-      <c r="H77" t="s">
-        <v>148</v>
-      </c>
-      <c r="I77" t="s">
-        <v>351</v>
-      </c>
-      <c r="J77" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>357</v>
+      </c>
+      <c r="B78" t="s">
+        <v>358</v>
+      </c>
+      <c r="C78" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" t="s">
+        <v>359</v>
+      </c>
+      <c r="E78" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78" t="s">
         <v>360</v>
       </c>
-      <c r="B78" t="s">
-        <v>357</v>
-      </c>
-      <c r="C78" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" t="s">
-        <v>358</v>
-      </c>
-      <c r="E78" t="s">
-        <v>146</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>354</v>
       </c>
-      <c r="G78" t="s">
-        <v>359</v>
-      </c>
       <c r="H78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I78" t="s">
         <v>355</v>
@@ -4858,60 +4735,60 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B79" t="s">
+        <v>363</v>
+      </c>
+      <c r="C79" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" t="s">
         <v>364</v>
       </c>
-      <c r="C79" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>361</v>
+      </c>
+      <c r="G79" t="s">
         <v>365</v>
       </c>
-      <c r="E79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
+        <v>362</v>
+      </c>
+      <c r="I79" t="s">
         <v>366</v>
       </c>
-      <c r="G79" t="s">
-        <v>362</v>
-      </c>
-      <c r="H79" t="s">
-        <v>361</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>367</v>
-      </c>
-      <c r="J79" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B80" t="s">
+        <v>371</v>
+      </c>
+      <c r="C80" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" t="s">
+        <v>368</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>369</v>
+      </c>
+      <c r="G80" t="s">
+        <v>372</v>
+      </c>
+      <c r="H80" t="s">
         <v>370</v>
-      </c>
-      <c r="C80" t="s">
-        <v>145</v>
-      </c>
-      <c r="D80" t="s">
-        <v>371</v>
-      </c>
-      <c r="E80" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" t="s">
-        <v>372</v>
-      </c>
-      <c r="G80" t="s">
-        <v>368</v>
-      </c>
-      <c r="H80" t="s">
-        <v>369</v>
       </c>
       <c r="I80" t="s">
         <v>373</v>
@@ -4922,60 +4799,60 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B81" t="s">
+        <v>375</v>
+      </c>
+      <c r="C81" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" t="s">
+        <v>376</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>377</v>
+      </c>
+      <c r="G81" t="s">
+        <v>381</v>
+      </c>
+      <c r="H81" t="s">
+        <v>378</v>
+      </c>
+      <c r="I81" t="s">
         <v>379</v>
       </c>
-      <c r="C81" t="s">
-        <v>145</v>
-      </c>
-      <c r="D81" t="s">
-        <v>375</v>
-      </c>
-      <c r="E81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" t="s">
-        <v>376</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="J81" t="s">
         <v>380</v>
-      </c>
-      <c r="H81" t="s">
-        <v>381</v>
-      </c>
-      <c r="I81" t="s">
-        <v>377</v>
-      </c>
-      <c r="J81" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>383</v>
+      </c>
+      <c r="B82" t="s">
+        <v>384</v>
+      </c>
+      <c r="C82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82" t="s">
+        <v>385</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" t="s">
+        <v>386</v>
+      </c>
+      <c r="G82" t="s">
+        <v>387</v>
+      </c>
+      <c r="H82" t="s">
         <v>382</v>
-      </c>
-      <c r="B82" t="s">
-        <v>385</v>
-      </c>
-      <c r="C82" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82" t="s">
-        <v>386</v>
-      </c>
-      <c r="E82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" t="s">
-        <v>387</v>
-      </c>
-      <c r="G82" t="s">
-        <v>383</v>
-      </c>
-      <c r="H82" t="s">
-        <v>384</v>
       </c>
       <c r="I82" t="s">
         <v>388</v>
@@ -4986,159 +4863,159 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B83" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C83" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D83" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F83" t="s">
+        <v>395</v>
+      </c>
+      <c r="G83" t="s">
         <v>392</v>
-      </c>
-      <c r="G83" t="s">
-        <v>395</v>
       </c>
       <c r="H83" t="s">
         <v>396</v>
       </c>
       <c r="I83" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J83" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B84" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
+        <v>402</v>
+      </c>
+      <c r="G84" t="s">
         <v>399</v>
-      </c>
-      <c r="G84" t="s">
-        <v>402</v>
       </c>
       <c r="H84" t="s">
         <v>403</v>
       </c>
       <c r="I84" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J84" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>406</v>
+      </c>
+      <c r="B85" t="s">
+        <v>407</v>
+      </c>
+      <c r="C85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D85" t="s">
+        <v>404</v>
+      </c>
+      <c r="E85" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" t="s">
+        <v>405</v>
+      </c>
+      <c r="G85" t="s">
+        <v>408</v>
+      </c>
+      <c r="H85" t="s">
+        <v>147</v>
+      </c>
+      <c r="I85" t="s">
         <v>409</v>
       </c>
-      <c r="B85" t="s">
-        <v>404</v>
-      </c>
-      <c r="C85" t="s">
-        <v>145</v>
-      </c>
-      <c r="D85" t="s">
-        <v>405</v>
-      </c>
-      <c r="E85" t="s">
-        <v>146</v>
-      </c>
-      <c r="F85" t="s">
-        <v>406</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="J85" t="s">
         <v>410</v>
-      </c>
-      <c r="H85" t="s">
-        <v>148</v>
-      </c>
-      <c r="I85" t="s">
-        <v>407</v>
-      </c>
-      <c r="J85" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B86" t="s">
         <v>411</v>
       </c>
       <c r="C86" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D86" t="s">
         <v>412</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
         <v>413</v>
       </c>
       <c r="G86" t="s">
+        <v>415</v>
+      </c>
+      <c r="H86" t="s">
+        <v>414</v>
+      </c>
+      <c r="I86" t="s">
         <v>416</v>
       </c>
-      <c r="H86" t="s">
+      <c r="J86" t="s">
         <v>417</v>
-      </c>
-      <c r="I86" t="s">
-        <v>414</v>
-      </c>
-      <c r="J86" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B87" t="s">
+        <v>418</v>
+      </c>
+      <c r="C87" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" t="s">
+        <v>419</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>420</v>
+      </c>
+      <c r="G87" t="s">
         <v>423</v>
       </c>
-      <c r="C87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D87" t="s">
-        <v>420</v>
-      </c>
-      <c r="E87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="H87" t="s">
         <v>421</v>
       </c>
-      <c r="G87" t="s">
-        <v>418</v>
-      </c>
-      <c r="H87" t="s">
-        <v>419</v>
-      </c>
       <c r="I87" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J87" t="s">
         <v>422</v>
@@ -5146,28 +5023,28 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>428</v>
+      </c>
+      <c r="B88" t="s">
+        <v>429</v>
+      </c>
+      <c r="C88" t="s">
+        <v>150</v>
+      </c>
+      <c r="D88" t="s">
+        <v>430</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
         <v>431</v>
       </c>
-      <c r="B88" t="s">
+      <c r="G88" t="s">
+        <v>424</v>
+      </c>
+      <c r="H88" t="s">
         <v>427</v>
-      </c>
-      <c r="C88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D88" t="s">
-        <v>428</v>
-      </c>
-      <c r="E88" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" t="s">
-        <v>424</v>
-      </c>
-      <c r="G88" t="s">
-        <v>429</v>
-      </c>
-      <c r="H88" t="s">
-        <v>430</v>
       </c>
       <c r="I88" t="s">
         <v>425</v>
@@ -5178,121 +5055,121 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B89" t="s">
+        <v>437</v>
+      </c>
+      <c r="C89" t="s">
+        <v>150</v>
+      </c>
+      <c r="D89" t="s">
+        <v>438</v>
+      </c>
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" t="s">
+        <v>435</v>
+      </c>
+      <c r="G89" t="s">
         <v>432</v>
       </c>
-      <c r="C89" t="s">
-        <v>145</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="H89" t="s">
+        <v>436</v>
+      </c>
+      <c r="I89" t="s">
         <v>433</v>
       </c>
-      <c r="E89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="J89" t="s">
         <v>434</v>
-      </c>
-      <c r="G89" t="s">
-        <v>437</v>
-      </c>
-      <c r="H89" t="s">
-        <v>438</v>
-      </c>
-      <c r="I89" t="s">
-        <v>435</v>
-      </c>
-      <c r="J89" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>445</v>
+      </c>
+      <c r="B90" t="s">
+        <v>446</v>
+      </c>
+      <c r="C90" t="s">
+        <v>150</v>
+      </c>
+      <c r="D90" t="s">
+        <v>442</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" t="s">
+        <v>443</v>
+      </c>
+      <c r="G90" t="s">
         <v>439</v>
       </c>
-      <c r="B90" t="s">
-        <v>442</v>
-      </c>
-      <c r="C90" t="s">
-        <v>145</v>
-      </c>
-      <c r="D90" t="s">
-        <v>443</v>
-      </c>
-      <c r="E90" t="s">
-        <v>22</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="H90" t="s">
         <v>444</v>
       </c>
-      <c r="G90" t="s">
+      <c r="I90" t="s">
         <v>440</v>
       </c>
-      <c r="H90" t="s">
+      <c r="J90" t="s">
         <v>441</v>
-      </c>
-      <c r="I90" t="s">
-        <v>445</v>
-      </c>
-      <c r="J90" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B91" t="s">
         <v>451</v>
       </c>
       <c r="C91" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D91" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s">
+        <v>448</v>
+      </c>
+      <c r="G91" t="s">
         <v>453</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>449</v>
-      </c>
-      <c r="H91" t="s">
-        <v>447</v>
       </c>
       <c r="I91" t="s">
         <v>454</v>
       </c>
       <c r="J91" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B92" t="s">
         <v>457</v>
       </c>
       <c r="C92" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D92" t="s">
         <v>458</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F92" t="s">
+        <v>455</v>
+      </c>
+      <c r="G92" t="s">
         <v>459</v>
-      </c>
-      <c r="G92" t="s">
-        <v>455</v>
       </c>
       <c r="H92" t="s">
         <v>456</v>
@@ -5306,450 +5183,450 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B93" t="s">
+        <v>464</v>
+      </c>
+      <c r="C93" t="s">
+        <v>150</v>
+      </c>
+      <c r="D93" t="s">
         <v>465</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
         <v>145</v>
-      </c>
-      <c r="D93" t="s">
-        <v>466</v>
-      </c>
-      <c r="E93" t="s">
-        <v>146</v>
       </c>
       <c r="F93" t="s">
         <v>462</v>
       </c>
       <c r="G93" t="s">
+        <v>466</v>
+      </c>
+      <c r="H93" t="s">
+        <v>147</v>
+      </c>
+      <c r="I93" t="s">
         <v>467</v>
       </c>
-      <c r="H93" t="s">
-        <v>148</v>
-      </c>
-      <c r="I93" t="s">
-        <v>463</v>
-      </c>
       <c r="J93" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B94" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C94" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D94" t="s">
+        <v>475</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
         <v>472</v>
-      </c>
-      <c r="E94" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" t="s">
-        <v>473</v>
       </c>
       <c r="G94" t="s">
         <v>469</v>
       </c>
       <c r="H94" t="s">
+        <v>473</v>
+      </c>
+      <c r="I94" t="s">
         <v>470</v>
       </c>
-      <c r="I94" t="s">
-        <v>474</v>
-      </c>
       <c r="J94" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>482</v>
+      </c>
+      <c r="B95" t="s">
+        <v>479</v>
+      </c>
+      <c r="C95" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" t="s">
+        <v>480</v>
+      </c>
+      <c r="E95" t="s">
+        <v>145</v>
+      </c>
+      <c r="F95" t="s">
+        <v>481</v>
+      </c>
+      <c r="G95" t="s">
+        <v>478</v>
+      </c>
+      <c r="H95" t="s">
+        <v>147</v>
+      </c>
+      <c r="I95" t="s">
+        <v>476</v>
+      </c>
+      <c r="J95" t="s">
         <v>477</v>
-      </c>
-      <c r="B95" t="s">
-        <v>480</v>
-      </c>
-      <c r="C95" t="s">
-        <v>145</v>
-      </c>
-      <c r="D95" t="s">
-        <v>481</v>
-      </c>
-      <c r="E95" t="s">
-        <v>146</v>
-      </c>
-      <c r="F95" t="s">
-        <v>482</v>
-      </c>
-      <c r="G95" t="s">
-        <v>476</v>
-      </c>
-      <c r="H95" t="s">
-        <v>148</v>
-      </c>
-      <c r="I95" t="s">
-        <v>478</v>
-      </c>
-      <c r="J95" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B96" t="s">
+        <v>484</v>
+      </c>
+      <c r="C96" t="s">
+        <v>150</v>
+      </c>
+      <c r="D96" t="s">
+        <v>485</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>486</v>
+      </c>
+      <c r="G96" t="s">
         <v>487</v>
       </c>
-      <c r="C96" t="s">
-        <v>145</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="H96" t="s">
+        <v>483</v>
+      </c>
+      <c r="I96" t="s">
         <v>488</v>
       </c>
-      <c r="E96" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="J96" t="s">
         <v>489</v>
-      </c>
-      <c r="G96" t="s">
-        <v>483</v>
-      </c>
-      <c r="H96" t="s">
-        <v>484</v>
-      </c>
-      <c r="I96" t="s">
-        <v>485</v>
-      </c>
-      <c r="J96" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B97" t="s">
+        <v>493</v>
+      </c>
+      <c r="C97" t="s">
+        <v>150</v>
+      </c>
+      <c r="D97" t="s">
         <v>494</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
         <v>145</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
+        <v>495</v>
+      </c>
+      <c r="G97" t="s">
         <v>490</v>
       </c>
-      <c r="E97" t="s">
-        <v>146</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="H97" t="s">
+        <v>147</v>
+      </c>
+      <c r="I97" t="s">
         <v>491</v>
       </c>
-      <c r="G97" t="s">
-        <v>495</v>
-      </c>
-      <c r="H97" t="s">
-        <v>148</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>492</v>
-      </c>
-      <c r="J97" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>500</v>
+      </c>
+      <c r="B98" t="s">
+        <v>496</v>
+      </c>
+      <c r="C98" t="s">
+        <v>150</v>
+      </c>
+      <c r="D98" t="s">
+        <v>497</v>
+      </c>
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" t="s">
+        <v>498</v>
+      </c>
+      <c r="G98" t="s">
         <v>503</v>
       </c>
-      <c r="B98" t="s">
+      <c r="H98" t="s">
         <v>499</v>
       </c>
-      <c r="C98" t="s">
-        <v>145</v>
-      </c>
-      <c r="D98" t="s">
-        <v>500</v>
-      </c>
-      <c r="E98" t="s">
-        <v>22</v>
-      </c>
-      <c r="F98" t="s">
-        <v>496</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="I98" t="s">
         <v>501</v>
       </c>
-      <c r="H98" t="s">
+      <c r="J98" t="s">
         <v>502</v>
-      </c>
-      <c r="I98" t="s">
-        <v>497</v>
-      </c>
-      <c r="J98" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>506</v>
+      </c>
+      <c r="B99" t="s">
+        <v>507</v>
+      </c>
+      <c r="C99" t="s">
+        <v>508</v>
+      </c>
+      <c r="D99" t="s">
         <v>509</v>
       </c>
-      <c r="B99" t="s">
+      <c r="E99" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" t="s">
         <v>504</v>
       </c>
-      <c r="C99" t="s">
+      <c r="G99" t="s">
         <v>510</v>
       </c>
-      <c r="D99" t="s">
+      <c r="H99" t="s">
         <v>505</v>
       </c>
-      <c r="E99" t="s">
-        <v>22</v>
-      </c>
-      <c r="F99" t="s">
-        <v>506</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="I99" t="s">
         <v>511</v>
       </c>
-      <c r="H99" t="s">
+      <c r="J99" t="s">
         <v>512</v>
-      </c>
-      <c r="I99" t="s">
-        <v>507</v>
-      </c>
-      <c r="J99" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>519</v>
+      </c>
+      <c r="B100" t="s">
+        <v>520</v>
+      </c>
+      <c r="C100" t="s">
+        <v>508</v>
+      </c>
+      <c r="D100" t="s">
+        <v>516</v>
+      </c>
+      <c r="E100" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" t="s">
+        <v>517</v>
+      </c>
+      <c r="G100" t="s">
+        <v>514</v>
+      </c>
+      <c r="H100" t="s">
         <v>518</v>
       </c>
-      <c r="B100" t="s">
+      <c r="I100" t="s">
+        <v>515</v>
+      </c>
+      <c r="J100" t="s">
         <v>513</v>
-      </c>
-      <c r="C100" t="s">
-        <v>510</v>
-      </c>
-      <c r="D100" t="s">
-        <v>514</v>
-      </c>
-      <c r="E100" t="s">
-        <v>22</v>
-      </c>
-      <c r="F100" t="s">
-        <v>515</v>
-      </c>
-      <c r="G100" t="s">
-        <v>519</v>
-      </c>
-      <c r="H100" t="s">
-        <v>520</v>
-      </c>
-      <c r="I100" t="s">
-        <v>516</v>
-      </c>
-      <c r="J100" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B101" t="s">
         <v>524</v>
       </c>
       <c r="C101" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D101" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
+        <v>522</v>
+      </c>
+      <c r="G101" t="s">
         <v>526</v>
       </c>
-      <c r="G101" t="s">
-        <v>522</v>
-      </c>
       <c r="H101" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="I101" t="s">
         <v>527</v>
       </c>
       <c r="J101" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B102" t="s">
+        <v>530</v>
+      </c>
+      <c r="C102" t="s">
+        <v>508</v>
+      </c>
+      <c r="D102" t="s">
+        <v>531</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>528</v>
+      </c>
+      <c r="G102" t="s">
         <v>532</v>
       </c>
-      <c r="C102" t="s">
-        <v>510</v>
-      </c>
-      <c r="D102" t="s">
-        <v>528</v>
-      </c>
-      <c r="E102" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="H102" t="s">
         <v>529</v>
       </c>
-      <c r="G102" t="s">
+      <c r="I102" t="s">
         <v>533</v>
       </c>
-      <c r="H102" t="s">
+      <c r="J102" t="s">
         <v>534</v>
-      </c>
-      <c r="I102" t="s">
-        <v>530</v>
-      </c>
-      <c r="J102" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B103" t="s">
+        <v>535</v>
+      </c>
+      <c r="C103" t="s">
+        <v>508</v>
+      </c>
+      <c r="D103" t="s">
         <v>536</v>
       </c>
-      <c r="C103" t="s">
-        <v>510</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
+        <v>145</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
         <v>537</v>
       </c>
-      <c r="E103" t="s">
-        <v>146</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="H103" t="s">
+        <v>147</v>
+      </c>
+      <c r="I103" t="s">
         <v>538</v>
       </c>
-      <c r="G103" t="s">
-        <v>535</v>
-      </c>
-      <c r="H103" t="s">
-        <v>148</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>539</v>
-      </c>
-      <c r="J103" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B104" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C104" t="s">
+        <v>545</v>
+      </c>
+      <c r="D104" t="s">
+        <v>546</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>543</v>
+      </c>
+      <c r="G104" t="s">
+        <v>540</v>
+      </c>
+      <c r="H104" t="s">
+        <v>544</v>
+      </c>
+      <c r="I104" t="s">
         <v>541</v>
       </c>
-      <c r="D104" t="s">
-        <v>544</v>
-      </c>
-      <c r="E104" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" t="s">
-        <v>545</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="J104" t="s">
         <v>542</v>
-      </c>
-      <c r="H104" t="s">
-        <v>543</v>
-      </c>
-      <c r="I104" t="s">
-        <v>546</v>
-      </c>
-      <c r="J104" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>551</v>
+      </c>
+      <c r="B105" t="s">
+        <v>437</v>
+      </c>
+      <c r="C105" t="s">
+        <v>508</v>
+      </c>
+      <c r="D105" t="s">
+        <v>552</v>
+      </c>
+      <c r="E105" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" t="s">
+        <v>553</v>
+      </c>
+      <c r="G105" t="s">
+        <v>547</v>
+      </c>
+      <c r="H105" t="s">
         <v>550</v>
       </c>
-      <c r="B105" t="s">
-        <v>432</v>
-      </c>
-      <c r="C105" t="s">
-        <v>510</v>
-      </c>
-      <c r="D105" t="s">
-        <v>553</v>
-      </c>
-      <c r="E105" t="s">
-        <v>22</v>
-      </c>
-      <c r="F105" t="s">
-        <v>554</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="I105" t="s">
         <v>548</v>
       </c>
-      <c r="H105" t="s">
+      <c r="J105" t="s">
         <v>549</v>
-      </c>
-      <c r="I105" t="s">
-        <v>551</v>
-      </c>
-      <c r="J105" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B106" t="s">
+        <v>554</v>
+      </c>
+      <c r="C106" t="s">
+        <v>508</v>
+      </c>
+      <c r="D106" t="s">
+        <v>555</v>
+      </c>
+      <c r="E106" t="s">
+        <v>145</v>
+      </c>
+      <c r="F106" t="s">
+        <v>556</v>
+      </c>
+      <c r="G106" t="s">
+        <v>557</v>
+      </c>
+      <c r="H106" t="s">
+        <v>147</v>
+      </c>
+      <c r="I106" t="s">
         <v>558</v>
       </c>
-      <c r="C106" t="s">
-        <v>510</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="J106" t="s">
         <v>559</v>
-      </c>
-      <c r="E106" t="s">
-        <v>146</v>
-      </c>
-      <c r="F106" t="s">
-        <v>560</v>
-      </c>
-      <c r="G106" t="s">
-        <v>555</v>
-      </c>
-      <c r="H106" t="s">
-        <v>148</v>
-      </c>
-      <c r="I106" t="s">
-        <v>556</v>
-      </c>
-      <c r="J106" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="107">
@@ -5757,31 +5634,31 @@
         <v>563</v>
       </c>
       <c r="B107" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C107" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D107" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G107" t="s">
+        <v>560</v>
+      </c>
+      <c r="H107" t="s">
+        <v>566</v>
+      </c>
+      <c r="I107" t="s">
         <v>561</v>
       </c>
-      <c r="H107" t="s">
+      <c r="J107" t="s">
         <v>562</v>
-      </c>
-      <c r="I107" t="s">
-        <v>565</v>
-      </c>
-      <c r="J107" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="108">
@@ -5789,31 +5666,31 @@
         <v>563</v>
       </c>
       <c r="B108" t="s">
+        <v>567</v>
+      </c>
+      <c r="C108" t="s">
+        <v>508</v>
+      </c>
+      <c r="D108" t="s">
         <v>568</v>
       </c>
-      <c r="C108" t="s">
-        <v>510</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
         <v>569</v>
       </c>
-      <c r="E108" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
+        <v>571</v>
+      </c>
+      <c r="H108" t="s">
         <v>570</v>
       </c>
-      <c r="G108" t="s">
+      <c r="I108" t="s">
+        <v>572</v>
+      </c>
+      <c r="J108" t="s">
         <v>573</v>
-      </c>
-      <c r="H108" t="s">
-        <v>574</v>
-      </c>
-      <c r="I108" t="s">
-        <v>571</v>
-      </c>
-      <c r="J108" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="109">
@@ -5824,28 +5701,28 @@
         <v>578</v>
       </c>
       <c r="C109" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D109" t="s">
         <v>579</v>
       </c>
       <c r="E109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F109" t="s">
+        <v>577</v>
+      </c>
+      <c r="G109" t="s">
+        <v>574</v>
+      </c>
+      <c r="H109" t="s">
+        <v>147</v>
+      </c>
+      <c r="I109" t="s">
         <v>575</v>
       </c>
-      <c r="G109" t="s">
-        <v>580</v>
-      </c>
-      <c r="H109" t="s">
-        <v>148</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>576</v>
-      </c>
-      <c r="J109" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="110">
@@ -5853,31 +5730,31 @@
         <v>563</v>
       </c>
       <c r="B110" t="s">
+        <v>582</v>
+      </c>
+      <c r="C110" t="s">
+        <v>508</v>
+      </c>
+      <c r="D110" t="s">
+        <v>580</v>
+      </c>
+      <c r="E110" t="s">
+        <v>145</v>
+      </c>
+      <c r="F110" t="s">
         <v>581</v>
       </c>
-      <c r="C110" t="s">
-        <v>510</v>
-      </c>
-      <c r="D110" t="s">
-        <v>582</v>
-      </c>
-      <c r="E110" t="s">
-        <v>146</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
+        <v>584</v>
+      </c>
+      <c r="H110" t="s">
+        <v>147</v>
+      </c>
+      <c r="I110" t="s">
+        <v>585</v>
+      </c>
+      <c r="J110" t="s">
         <v>583</v>
-      </c>
-      <c r="G110" t="s">
-        <v>586</v>
-      </c>
-      <c r="H110" t="s">
-        <v>148</v>
-      </c>
-      <c r="I110" t="s">
-        <v>584</v>
-      </c>
-      <c r="J110" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="111">
@@ -5888,54 +5765,54 @@
         <v>308</v>
       </c>
       <c r="C111" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D111" t="s">
         <v>589</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F111" t="s">
         <v>590</v>
       </c>
       <c r="G111" t="s">
+        <v>586</v>
+      </c>
+      <c r="H111" t="s">
+        <v>591</v>
+      </c>
+      <c r="I111" t="s">
         <v>587</v>
       </c>
-      <c r="H111" t="s">
+      <c r="J111" t="s">
         <v>588</v>
-      </c>
-      <c r="I111" t="s">
-        <v>591</v>
-      </c>
-      <c r="J111" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>592</v>
+      </c>
+      <c r="B112" t="s">
+        <v>593</v>
+      </c>
+      <c r="C112" t="s">
+        <v>508</v>
+      </c>
+      <c r="D112" t="s">
         <v>594</v>
       </c>
-      <c r="B112" t="s">
-        <v>599</v>
-      </c>
-      <c r="C112" t="s">
-        <v>510</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
+        <v>145</v>
+      </c>
+      <c r="F112" t="s">
         <v>595</v>
       </c>
-      <c r="E112" t="s">
-        <v>146</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>596</v>
       </c>
-      <c r="G112" t="s">
-        <v>593</v>
-      </c>
       <c r="H112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I112" t="s">
         <v>597</v>
@@ -5946,386 +5823,386 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B113" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C113" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D113" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G113" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="H113" t="s">
         <v>605</v>
       </c>
       <c r="I113" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="J113" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B114" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C114" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>606</v>
+      </c>
+      <c r="H114" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114" t="s">
         <v>607</v>
       </c>
-      <c r="E114" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="J114" t="s">
         <v>608</v>
-      </c>
-      <c r="G114" t="s">
-        <v>611</v>
-      </c>
-      <c r="H114" t="s">
-        <v>612</v>
-      </c>
-      <c r="I114" t="s">
-        <v>609</v>
-      </c>
-      <c r="J114" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B115" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C115" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D115" t="s">
-        <v>615</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F115" t="s">
-        <v>616</v>
+        <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H115" t="s">
-        <v>614</v>
+        <v>10</v>
       </c>
       <c r="I115" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="J115" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="B116" t="s">
         <v>308</v>
       </c>
       <c r="C116" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D116" t="s">
-        <v>622</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>619</v>
+        <v>10</v>
       </c>
       <c r="G116" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="H116" t="s">
-        <v>624</v>
+        <v>10</v>
       </c>
       <c r="I116" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="J116" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="B117" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="C117" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D117" t="s">
-        <v>632</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>628</v>
+        <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="H117" t="s">
-        <v>627</v>
+        <v>10</v>
       </c>
       <c r="I117" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="J117" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="B118" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="C118" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D118" t="s">
-        <v>634</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>635</v>
+        <v>10</v>
       </c>
       <c r="G118" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="H118" t="s">
-        <v>639</v>
+        <v>10</v>
       </c>
       <c r="I118" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="J118" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="B119" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="C119" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D119" t="s">
-        <v>641</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F119" t="s">
-        <v>642</v>
+        <v>10</v>
       </c>
       <c r="G119" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="H119" t="s">
-        <v>646</v>
+        <v>10</v>
       </c>
       <c r="I119" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="J119" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>613</v>
+      </c>
+      <c r="B120" t="s">
         <v>625</v>
       </c>
-      <c r="B120" t="s">
-        <v>647</v>
-      </c>
       <c r="C120" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D120" t="s">
-        <v>648</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>649</v>
+        <v>10</v>
       </c>
       <c r="G120" t="s">
-        <v>652</v>
+        <v>623</v>
       </c>
       <c r="H120" t="s">
-        <v>653</v>
+        <v>10</v>
       </c>
       <c r="I120" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="J120" t="s">
-        <v>651</v>
+        <v>608</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="B121" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="C121" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D121" t="s">
-        <v>658</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>659</v>
+        <v>10</v>
       </c>
       <c r="G121" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="H121" t="s">
-        <v>656</v>
+        <v>10</v>
       </c>
       <c r="I121" t="s">
-        <v>660</v>
+        <v>629</v>
       </c>
       <c r="J121" t="s">
-        <v>661</v>
+        <v>608</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="B122" t="s">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="C122" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D122" t="s">
-        <v>664</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>665</v>
+        <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>668</v>
+        <v>630</v>
       </c>
       <c r="H122" t="s">
-        <v>667</v>
+        <v>10</v>
       </c>
       <c r="I122" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="J122" t="s">
-        <v>662</v>
+        <v>608</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="B123" t="s">
-        <v>669</v>
+        <v>633</v>
       </c>
       <c r="C123" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D123" t="s">
-        <v>670</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>671</v>
+        <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>674</v>
+        <v>634</v>
       </c>
       <c r="H123" t="s">
-        <v>675</v>
+        <v>10</v>
       </c>
       <c r="I123" t="s">
-        <v>672</v>
+        <v>635</v>
       </c>
       <c r="J123" t="s">
-        <v>673</v>
+        <v>608</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="B124" t="s">
-        <v>669</v>
+        <v>633</v>
       </c>
       <c r="C124" t="s">
-        <v>669</v>
+        <v>633</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G124" t="s">
-        <v>678</v>
+        <v>636</v>
       </c>
       <c r="H124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I124" t="s">
-        <v>677</v>
+        <v>637</v>
       </c>
       <c r="J124" t="s">
-        <v>676</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,56 +14,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="612">
+  <si>
+    <t>TRANSACTION HASH</t>
+  </si>
+  <si>
+    <t>SIGNATURE</t>
+  </si>
+  <si>
+    <t>DIGITAL CERTIFICATE</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
   <si>
     <t>COURSE TITLE</t>
   </si>
   <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>CERTIFICATE</t>
+  </si>
+  <si>
+    <t>DATA HASH</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
     <t>SERIAL NUMBER</t>
   </si>
   <si>
-    <t>CERTIFICATE</t>
-  </si>
-  <si>
-    <t>DATA HASH</t>
-  </si>
-  <si>
-    <t>DIGITAL CERTIFICATE</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>PARTICIPANT</t>
-  </si>
-  <si>
-    <t>NOTE</t>
-  </si>
-  <si>
-    <t>TRANSACTION HASH</t>
-  </si>
-  <si>
-    <t>SIGNATURE</t>
+    <t>Петро Петрович Воробієнко</t>
+  </si>
+  <si>
+    <t>Біткоїн та криптовалюти</t>
+  </si>
+  <si>
+    <t>private link</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>25.06.2015</t>
+  </si>
+  <si>
     <t>ginesis certificate</t>
   </si>
   <si>
-    <t>private link</t>
-  </si>
-  <si>
-    <t>25.06.2015</t>
-  </si>
-  <si>
-    <t>Петро Петрович Воробієнко</t>
-  </si>
-  <si>
-    <t>Біткоїн та криптовалюти</t>
-  </si>
-  <si>
     <t>10.05.2016</t>
   </si>
   <si>
@@ -76,15 +76,15 @@
     <t>drive.google.com/file/d/1xobiD9wUIQcesMkrmh5x2x_aWnibPkqI/view</t>
   </si>
   <si>
+    <t>Нестеров Максим</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/18lYidkmWMBuBxR0FU0OIGuQ8doTz8zQs/view</t>
+  </si>
+  <si>
     <t>graduated with honors</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/18lYidkmWMBuBxR0FU0OIGuQ8doTz8zQs/view</t>
-  </si>
-  <si>
-    <t>Нестеров Максим</t>
-  </si>
-  <si>
     <t>Alexey Shendrick</t>
   </si>
   <si>
@@ -148,72 +148,72 @@
     <t>drive.google.com/file/d/1RneErBs-OBbV0KjvY5blYuFHfkwtyNRh/view</t>
   </si>
   <si>
+    <t>31.10.2016</t>
+  </si>
+  <si>
     <t>Anton Zaporozhchenko</t>
   </si>
   <si>
-    <t>31.10.2016</t>
-  </si>
-  <si>
     <t>Oleksiy Ponomorev</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1YHz2l23Dy_FAB_zBAXxkehxN9ZvR7T99/view</t>
+  </si>
+  <si>
     <t>Pavel Brilliant</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1YHz2l23Dy_FAB_zBAXxkehxN9ZvR7T99/view</t>
+    <t>Volodymyr Kavetskyy</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1dhsj1ZCPOPwvKc6arWVDAveu1h0EoY_l/view</t>
   </si>
   <si>
-    <t>Volodymyr Kavetskyy</t>
-  </si>
-  <si>
     <t>Vladyslav Minakov</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1N0y-Y_QVKO2DDn06IuDVESkeKJ5LoiDN/view</t>
   </si>
   <si>
+    <t>03.03.2017</t>
+  </si>
+  <si>
+    <t>Yevheniia Shchypeleva</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1AcBsG13D5jBJ3_w506hQOHHs_iJD2Jwt/view</t>
   </si>
   <si>
-    <t>03.03.2017</t>
-  </si>
-  <si>
-    <t>Yevheniia Shchypeleva</t>
-  </si>
-  <si>
     <t>Kolhatin Andrii</t>
   </si>
   <si>
     <t>Heorhii Kholodov</t>
   </si>
   <si>
+    <t>30.05.2018</t>
+  </si>
+  <si>
+    <t>Aleksandr Gnatyuk</t>
+  </si>
+  <si>
     <t>Blockchain and Distributed Systems</t>
   </si>
   <si>
-    <t>30.05.2018</t>
-  </si>
-  <si>
-    <t>Aleksandr Gnatyuk</t>
+    <t>Aleksandr Kurbatov</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1JYRb1u6DI1z4mB3s1z8SSiiGDwdh_IhH/view</t>
   </si>
   <si>
-    <t>Aleksandr Kurbatov</t>
-  </si>
-  <si>
     <t>Aleksandr Ivanov</t>
   </si>
   <si>
+    <t>Artyom Ahmetzyanov</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1dKebMjrvUlgGa3iO-WyfqWoE2EuPbGCV/view</t>
   </si>
   <si>
-    <t>Artyom Ahmetzyanov</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1rqLi5pccF50iQmqQORRTpl8nYWgy_qHs/view</t>
   </si>
   <si>
@@ -241,241 +241,244 @@
     <t>Dmytro Mandych</t>
   </si>
   <si>
+    <t>6e70ac729189b0e0097a6e7bcfec69494538bf4736cdb17a9fe9bd1582fe2e95</t>
+  </si>
+  <si>
+    <t>G6/C1S2XpwhcvDAGp/fvUWUBET+OlYdOP5LnW6gBIOlhR8phT652b46fy8YlvQ9DbbNynZ/DfRUiotWAFIhBhlU=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1T9IlKrmEJbx1bh1O1jPwTkuazCstW7gz/view</t>
+  </si>
+  <si>
+    <t>6e70ac729189b0e0097a</t>
+  </si>
+  <si>
+    <t>Petr Murzin</t>
+  </si>
+  <si>
+    <t>Basic Level in Decentralized Technologies</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1BBaI1GopSevCSWKbBRWeownYk8eDv7MB/view</t>
+  </si>
+  <si>
+    <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
+  </si>
+  <si>
     <t>26.05.2020</t>
   </si>
   <si>
-    <t>Petr Murzin</t>
-  </si>
-  <si>
-    <t>Basic Level in Decentralized Technologies</t>
-  </si>
-  <si>
-    <t>6e70ac729189b0e0097a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1BBaI1GopSevCSWKbBRWeownYk8eDv7MB/view</t>
-  </si>
-  <si>
-    <t>6e70ac729189b0e0097a6e7bcfec69494538bf4736cdb17a9fe9bd1582fe2e95</t>
-  </si>
-  <si>
-    <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
-  </si>
-  <si>
-    <t>G6/C1S2XpwhcvDAGp/fvUWUBET+OlYdOP5LnW6gBIOlhR8phT652b46fy8YlvQ9DbbNynZ/DfRUiotWAFIhBhlU=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1T9IlKrmEJbx1bh1O1jPwTkuazCstW7gz/view</t>
+    <t>80b4017b0b2d571867a2</t>
+  </si>
+  <si>
+    <t>80b4017b0b2d571867a20c183448a98b8a4dc0d52f134e363772da7dca5b5a06</t>
+  </si>
+  <si>
+    <t>G4/MsM7bSvAPVr7C5IXyo2TnOz+ZwqdlVNpBidWCbpuzC+JkRBEjbhY/lkPH7VtAhp8EOYgyLA2ID6F4GhqUY84=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/12OpLxs1aK-BTF1PebTXrsMh4zxKH_wen/view</t>
+  </si>
+  <si>
+    <t>28.05.2020</t>
+  </si>
+  <si>
+    <t>Lovkin Ivan</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1B00wgJ6gYotdnedRkemkU_JBPFt1H4xd/view</t>
   </si>
   <si>
     <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
   </si>
   <si>
-    <t>G4/MsM7bSvAPVr7C5IXyo2TnOz+ZwqdlVNpBidWCbpuzC+JkRBEjbhY/lkPH7VtAhp8EOYgyLA2ID6F4GhqUY84=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/12OpLxs1aK-BTF1PebTXrsMh4zxKH_wen/view</t>
-  </si>
-  <si>
-    <t>80b4017b0b2d571867a20c183448a98b8a4dc0d52f134e363772da7dca5b5a06</t>
-  </si>
-  <si>
-    <t>28.05.2020</t>
-  </si>
-  <si>
-    <t>Lovkin Ivan</t>
-  </si>
-  <si>
-    <t>80b4017b0b2d571867a2</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1B00wgJ6gYotdnedRkemkU_JBPFt1H4xd/view</t>
-  </si>
-  <si>
     <t>30.05.2020</t>
   </si>
   <si>
     <t>Nikita Moskovkin</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
+  </si>
+  <si>
+    <t>8dd5355ff30fcc74f42b09a276bf3f8c4bfadb9074adff5d3661f186029628c5</t>
+  </si>
+  <si>
     <t>694d0f5a7afe6fbc99cb</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
-  </si>
-  <si>
     <t>694d0f5a7afe6fbc99cb56819a09f9fa0e8b66b07180bb555d98593a0f7d5d41</t>
   </si>
   <si>
-    <t>8dd5355ff30fcc74f42b09a276bf3f8c4bfadb9074adff5d3661f186029628c5</t>
-  </si>
-  <si>
     <t>HM5GZ+rTicq0RKhj0bFs+2fpeD7O+kpSJnLKYgEw3HaNYvb3HW/VNAjwQR1DXGHUEqofERXjtLW1G8JMk4q2O1g=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1bX5sis1H79_hFn7wh4-Sh00aeO_e7yFq/view</t>
   </si>
   <si>
+    <t>2b6aadb041197def922aff8cb257af872568b572362c2f19fdb2468228e58569</t>
+  </si>
+  <si>
     <t>HPXPxUNV1rO31el0TjnHFXDe0tBCoiQSC2o12BSvZFW1TNa1atBAmZb7ZrJ7vjBOzLYTbvCsfGf6NaSBZmpI1R0=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1DIotRiCyqr6U7vuXvDVWTrwbYMpd8-tp/view</t>
   </si>
   <si>
+    <t>2b6aadb041197def922a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1IIYEmVzJwRrLeeAC2mvbJPBgnsiuCbgX/view</t>
+  </si>
+  <si>
     <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
   </si>
   <si>
+    <t>03.06.2020</t>
+  </si>
+  <si>
     <t>Valeriy Gello</t>
   </si>
   <si>
-    <t>2b6aadb041197def922a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1IIYEmVzJwRrLeeAC2mvbJPBgnsiuCbgX/view</t>
-  </si>
-  <si>
-    <t>2b6aadb041197def922aff8cb257af872568b572362c2f19fdb2468228e58569</t>
-  </si>
-  <si>
-    <t>03.06.2020</t>
+    <t>72008d9bb1a357ae7d6efc7520283e59adb638b44be971a41438ae3635beca20</t>
+  </si>
+  <si>
+    <t>G/ltW+rOPMYiEf/bzUkMzj7W5syoNvcTi1i++MOcDD8LJwSKAaoFS+c0TmDOwIZDyqaVwk6QYu1MfsGJw7+KZ8g=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HToZ3ouEVe-2rFezzJSnetG4rkJl4wb5/view</t>
+  </si>
+  <si>
+    <t>72008d9bb1a357ae7d6e</t>
+  </si>
+  <si>
+    <t>Elizabeth Gurieva</t>
   </si>
   <si>
     <t>7dfdd6abd5c883c7c876202d91386257e48337f55209b774f35d4eea4efe5df4</t>
   </si>
   <si>
-    <t>G/ltW+rOPMYiEf/bzUkMzj7W5syoNvcTi1i++MOcDD8LJwSKAaoFS+c0TmDOwIZDyqaVwk6QYu1MfsGJw7+KZ8g=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1HToZ3ouEVe-2rFezzJSnetG4rkJl4wb5/view</t>
-  </si>
-  <si>
-    <t>72008d9bb1a357ae7d6efc7520283e59adb638b44be971a41438ae3635beca20</t>
-  </si>
-  <si>
     <t>21.08.2020</t>
   </si>
   <si>
-    <t>Elizabeth Gurieva</t>
-  </si>
-  <si>
-    <t>72008d9bb1a357ae7d6e</t>
+    <t>91053d5330c4b99d88272eb9c214b2f57c8522c2b473b54d5e250b422de6e24b</t>
+  </si>
+  <si>
+    <t>HJqrp6YpiFPfileEaqKJDnwfvu15NL6LlwLDM3NSIXu9Rd9ir011tVJPyRSDxL5NUwqyiY5Be55Z3VObN4rH/nQ=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
+  </si>
+  <si>
+    <t>91053d5330c4b99d8827</t>
+  </si>
+  <si>
+    <t>Alexander Zhovnuvaty</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1sMqTvx1fDXHx-OeU1r4uA1Z3kzVIMKAn/view</t>
   </si>
   <si>
     <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
   </si>
   <si>
-    <t>HJqrp6YpiFPfileEaqKJDnwfvu15NL6LlwLDM3NSIXu9Rd9ir011tVJPyRSDxL5NUwqyiY5Be55Z3VObN4rH/nQ=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1sMqTvx1fDXHx-OeU1r4uA1Z3kzVIMKAn/view</t>
-  </si>
-  <si>
-    <t>91053d5330c4b99d88272eb9c214b2f57c8522c2b473b54d5e250b422de6e24b</t>
-  </si>
-  <si>
     <t>15.09.2020</t>
   </si>
   <si>
-    <t>Alexander Zhovnuvaty</t>
-  </si>
-  <si>
-    <t>91053d5330c4b99d8827</t>
+    <t>508f78ad5c0df80128b0</t>
+  </si>
+  <si>
+    <t>508f78ad5c0df80128b059d5367511650f12c1c999a2873f5a5bdfa0c3cd9294</t>
+  </si>
+  <si>
+    <t>G7fNdjrRdRCgCqs32IBGetb1WmNZTLKq4VdxIE2xZRAONYfBhaC++AKXc/TWLJ1iJ6vRlR5V1AGGRJa8VcJDRks=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1s59oNqnl8rvcFITI-56v1nt_VCOHq94D/view</t>
+  </si>
+  <si>
+    <t>Nikolay Scherbakov</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1Wzemb_7VWsXKUqEMEuniXiEqqCU6NR1X/view</t>
   </si>
   <si>
-    <t>508f78ad5c0df80128b059d5367511650f12c1c999a2873f5a5bdfa0c3cd9294</t>
-  </si>
-  <si>
-    <t>Nikolay Scherbakov</t>
-  </si>
-  <si>
-    <t>508f78ad5c0df80128b0</t>
-  </si>
-  <si>
     <t>7368eab2f4fa6157cb3f67d39e8526bc1b91a852be6a70cddcbb6067c8b400f5</t>
   </si>
   <si>
-    <t>G7fNdjrRdRCgCqs32IBGetb1WmNZTLKq4VdxIE2xZRAONYfBhaC++AKXc/TWLJ1iJ6vRlR5V1AGGRJa8VcJDRks=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1s59oNqnl8rvcFITI-56v1nt_VCOHq94D/view</t>
+    <t>9976212738b45235cfd6</t>
+  </si>
+  <si>
+    <t>9976212738b45235cfd6f208ccae9ca14da64a06bcb5304d8bb422d00ff1540d</t>
+  </si>
+  <si>
+    <t>HOozi22vAuznvsCYdPeFGpfEsgVv/RPDvKEBNLr3Kjh2ZNMwqnGETY/MTNluCe+mJBLtg4ig6yOhtqyY0VWavFU=</t>
   </si>
   <si>
     <t>2b4075806aa1180a35b6b6718701374debfd505b954491160ac09a4ebf1d632c</t>
   </si>
   <si>
-    <t>HOozi22vAuznvsCYdPeFGpfEsgVv/RPDvKEBNLr3Kjh2ZNMwqnGETY/MTNluCe+mJBLtg4ig6yOhtqyY0VWavFU=</t>
-  </si>
-  <si>
-    <t>9976212738b45235cfd6f208ccae9ca14da64a06bcb5304d8bb422d00ff1540d</t>
-  </si>
-  <si>
     <t>16.09.2020</t>
   </si>
   <si>
     <t>Anonymous</t>
   </si>
   <si>
-    <t>9976212738b45235cfd6</t>
+    <t>drive.google.com/file/d/10KBS_dIRNDhekiu_k9NiRZq_tLz9wFLJ/view</t>
+  </si>
+  <si>
+    <t>cd9b18ee000a3ab57d74</t>
   </si>
   <si>
     <t>cd9b18ee000a3ab57d740ee8b2a2330632f070a69ff9efdd8ecdc6c8230e2e11</t>
   </si>
   <si>
+    <t>HOq9ZhrQ00V8PHtEc7PLbgREykAE4fSaVIbPozy6iTxNKZmzV7JHxsT5aQobJF+D1Hu+Hj++PUAVwscGr1K8ydg=</t>
+  </si>
+  <si>
+    <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
+  </si>
+  <si>
     <t>17.09.2020</t>
   </si>
   <si>
     <t>Aleksandr Khomutov</t>
   </si>
   <si>
-    <t>cd9b18ee000a3ab57d74</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1HDfg3clKtJbjQEEtI2yxSv51_fDRYWRn/view</t>
   </si>
   <si>
-    <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
-  </si>
-  <si>
-    <t>HOq9ZhrQ00V8PHtEc7PLbgREykAE4fSaVIbPozy6iTxNKZmzV7JHxsT5aQobJF+D1Hu+Hj++PUAVwscGr1K8ydg=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/10KBS_dIRNDhekiu_k9NiRZq_tLz9wFLJ/view</t>
+    <t>Tetiana Diachuk</t>
+  </si>
+  <si>
+    <t>Beginner at theoretical aspects blockchain technology</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
+  </si>
+  <si>
+    <t>0f8a70da32b47c86fa69a39dd522c99b25802700a336d49e16a760eea763f4b1</t>
+  </si>
+  <si>
+    <t>12.29.2021</t>
+  </si>
+  <si>
+    <t>Listener only</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>HCKQDvhlFx194rKcO7OKfVKVHm8iJgs5HBTYDDoPUT1zbt/WBBbpt3FwSlXhjLHeFALjBPeDsJ0+FlqjYJrcedE=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/19iQXgKAz6f9TVn-PH7XNVjURb69Cog1K/view</t>
   </si>
   <si>
     <t>0f8a70da32b47c86fa69</t>
   </si>
   <si>
-    <t>Listener only</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
-  </si>
-  <si>
-    <t>–</t>
-  </si>
-  <si>
-    <t>12.29.2021</t>
-  </si>
-  <si>
-    <t>Tetiana Diachuk</t>
-  </si>
-  <si>
-    <t>Beginner at theoretical aspects blockchain technology</t>
-  </si>
-  <si>
-    <t>0f8a70da32b47c86fa69a39dd522c99b25802700a336d49e16a760eea763f4b1</t>
-  </si>
-  <si>
-    <t>HCKQDvhlFx194rKcO7OKfVKVHm8iJgs5HBTYDDoPUT1zbt/WBBbpt3FwSlXhjLHeFALjBPeDsJ0+FlqjYJrcedE=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/19iQXgKAz6f9TVn-PH7XNVjURb69Cog1K/view</t>
+    <t>157083727495af019be1</t>
   </si>
   <si>
     <t>GwuoELh5wGDbKgdx/iwOEwB1aYpRhZGvqoWHkCMl2GldW99XUUjugdXMecd1OG2SKwwMXofLc4+rAxXvTnt+cCU=</t>
@@ -484,112 +487,118 @@
     <t>drive.google.com/file/d/16W1PgiFDe8yDvOAKUfipXQuF54CGJwOr/view</t>
   </si>
   <si>
+    <t>Yatskiv Vasyl</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1FZ2SgaDMIJRp10hntSqe1gLrAUG9DHpM/view</t>
+  </si>
+  <si>
     <t>157083727495af019be18396a5b6fb784fb8fdf515e7069698ea538039655ea2</t>
   </si>
   <si>
-    <t>Yatskiv Vasyl</t>
-  </si>
-  <si>
-    <t>157083727495af019be1</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1FZ2SgaDMIJRp10hntSqe1gLrAUG9DHpM/view</t>
+    <t>24.05.2022</t>
+  </si>
+  <si>
+    <t>Viktoriia Kovalenko</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HmqEySvyMucrLal0DQ8-Vhc0ALSaBJgo/view</t>
+  </si>
+  <si>
+    <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
+  </si>
+  <si>
+    <t>c94b544cf914bfa7a011</t>
+  </si>
+  <si>
+    <t>HEq8g+MEi+GvEmvTK4osdDCOUv0zrtlFXz3jX58hUEpuGtiwefAAUrsqS6PizJncb1B9qyY6GiaVMtDN4AGXjuA=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1ryCRznjmAN1vpfuTCHcFPCtIzw-dl20L/view</t>
   </si>
   <si>
-    <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
-  </si>
-  <si>
-    <t>HEq8g+MEi+GvEmvTK4osdDCOUv0zrtlFXz3jX58hUEpuGtiwefAAUrsqS6PizJncb1B9qyY6GiaVMtDN4AGXjuA=</t>
-  </si>
-  <si>
-    <t>c94b544cf914bfa7a011</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1HmqEySvyMucrLal0DQ8-Vhc0ALSaBJgo/view</t>
-  </si>
-  <si>
-    <t>24.05.2022</t>
-  </si>
-  <si>
-    <t>Viktoriia Kovalenko</t>
+    <t>31e612cbb30ee1e0b131</t>
+  </si>
+  <si>
+    <t>31e612cbb30ee1e0b131836790253817c04031043f623abb460c83208fafa932</t>
+  </si>
+  <si>
+    <t>HERmuZzuSW3wNNWRroC2QNMxKOMuAdjg4gxhbcA/9UHiA/lhyfJJRi4RDzmC1ToYWKgUdyANuExL857Jh5UphPk=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1KnXAljoWMcSRaMbBCkrmp_U3hzb_asxc/view</t>
+  </si>
+  <si>
+    <t>Artem Lytvynov</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1RBczYKwSRmMu4zAoVVmnWvjgkl0tENzG/view</t>
   </si>
   <si>
-    <t>31e612cbb30ee1e0b131836790253817c04031043f623abb460c83208fafa932</t>
-  </si>
-  <si>
-    <t>Artem Lytvynov</t>
-  </si>
-  <si>
-    <t>31e612cbb30ee1e0b131</t>
-  </si>
-  <si>
     <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
   </si>
   <si>
-    <t>HERmuZzuSW3wNNWRroC2QNMxKOMuAdjg4gxhbcA/9UHiA/lhyfJJRi4RDzmC1ToYWKgUdyANuExL857Jh5UphPk=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1KnXAljoWMcSRaMbBCkrmp_U3hzb_asxc/view</t>
+    <t>Taras Horun</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1GxBJoJ4QVMY5O6BDlBGtx-tJAcxj-f6s/view</t>
+  </si>
+  <si>
+    <t>321d5bc0b6acda5a08dbd6e3b151c27d1951c01e36b674970fe5bb02a33d5d2e</t>
   </si>
   <si>
     <t>321d5bc0b6acda5a08db</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1GxBJoJ4QVMY5O6BDlBGtx-tJAcxj-f6s/view</t>
-  </si>
-  <si>
-    <t>Taras Horun</t>
-  </si>
-  <si>
-    <t>321d5bc0b6acda5a08dbd6e3b151c27d1951c01e36b674970fe5bb02a33d5d2e</t>
-  </si>
-  <si>
     <t>HDWEh9ESydNwt1uGPeE27CIKeMKPy+O87vrhEELOeECTIKgu9VndiSLOpNThFwKWV+2oMh8SMAjRbBHZ8RxF8Qo=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1oa4_pnjVk863Kfi7CxIgvLXEUczkVxHS/view</t>
   </si>
   <si>
+    <t>5d71857f9a99d5d85ed7</t>
+  </si>
+  <si>
+    <t>HE4WVZfpHDM927pj2Gbc9lOZhBRopu9jToBZfr7D62mneKWV8M75X8Q2SZc4tnXE/3LeWTqxpIkzc9Xy6DqvUqE=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1YDow8GoX8mnMZNo20qBTbJw8-YHXDU5u/view</t>
+  </si>
+  <si>
+    <t>Anastasiia Slota</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1Aal0m_o5pRV8rfXsm8wDWIqIg36jUqvx/view</t>
   </si>
   <si>
-    <t>Anastasiia Slota</t>
-  </si>
-  <si>
-    <t>5d71857f9a99d5d85ed7</t>
-  </si>
-  <si>
     <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
   </si>
   <si>
-    <t>HE4WVZfpHDM927pj2Gbc9lOZhBRopu9jToBZfr7D62mneKWV8M75X8Q2SZc4tnXE/3LeWTqxpIkzc9Xy6DqvUqE=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1YDow8GoX8mnMZNo20qBTbJw8-YHXDU5u/view</t>
+    <t>G09Pu89zZ+mW2gdSx729xoRrBvWoumXJAYLuporfSBGdbAJOMCqKcBPj8R2VtP4sJbwNZAWnmvuqpJqZU6h83hQ=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bfp7feXW3jlCWM6JNgL66zeE8LHm4X-Y/view</t>
+  </si>
+  <si>
+    <t>4b973cdc099c10811c1b</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/17vX52MGbM2gkG3qqa1fz-ERnrQbdcw4y/view</t>
   </si>
   <si>
     <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
   </si>
   <si>
-    <t>G09Pu89zZ+mW2gdSx729xoRrBvWoumXJAYLuporfSBGdbAJOMCqKcBPj8R2VtP4sJbwNZAWnmvuqpJqZU6h83hQ=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1bfp7feXW3jlCWM6JNgL66zeE8LHm4X-Y/view</t>
-  </si>
-  <si>
     <t>Yuriy Melnychuk</t>
   </si>
   <si>
-    <t>4b973cdc099c10811c1b</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/17vX52MGbM2gkG3qqa1fz-ERnrQbdcw4y/view</t>
+    <t>drive.google.com/file/d/1JY1qkLvZnhJoC7eW8zecnwqdN2ADtZBQ/view</t>
+  </si>
+  <si>
+    <t>e9bf9426eb214a6e36c83520cbd22f2b58d44e518597ce9887c5c65d029ed683</t>
+  </si>
+  <si>
+    <t>Vladyslav Mazur</t>
   </si>
   <si>
     <t>GxwV1QU9bkNovno07/2Qf5RnVqi33IIX/h2qm9QewYuqQO6/ULkKQG+dc47LvkhphEUWoWaEai8xaIVxIvH3mxQ=</t>
@@ -598,361 +607,364 @@
     <t>drive.google.com/file/d/1bilaW63V87r9jkQgRfz_fevbeWN6NFyo/view</t>
   </si>
   <si>
-    <t>e9bf9426eb214a6e36c83520cbd22f2b58d44e518597ce9887c5c65d029ed683</t>
-  </si>
-  <si>
-    <t>Vladyslav Mazur</t>
-  </si>
-  <si>
     <t>e9bf9426eb214a6e36c8</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1JY1qkLvZnhJoC7eW8zecnwqdN2ADtZBQ/view</t>
+    <t>G0/HbGdGK3B0R9z8wip7gA/5JeSvjkSeA7lcGfugt/KcNVV1VKo36tLg+Qi79IEd3lr9lE92CXfNXZ8c3GeiPc0=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/18pj8mEa0wJ5A_Nt1l6RNMZ9iTH4oUWSC/view</t>
+  </si>
+  <si>
+    <t>33571c3c57728ede717b</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1l0atb8z64jklpxeGi48llMRwrNeoKf0y/view</t>
   </si>
   <si>
     <t>33571c3c57728ede717b2bf46df346305cbeca3e966b76cf15369f7411ddabef</t>
   </si>
   <si>
-    <t>G0/HbGdGK3B0R9z8wip7gA/5JeSvjkSeA7lcGfugt/KcNVV1VKo36tLg+Qi79IEd3lr9lE92CXfNXZ8c3GeiPc0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/18pj8mEa0wJ5A_Nt1l6RNMZ9iTH4oUWSC/view</t>
-  </si>
-  <si>
     <t>Hanna Zhurba</t>
   </si>
   <si>
-    <t>33571c3c57728ede717b</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1l0atb8z64jklpxeGi48llMRwrNeoKf0y/view</t>
-  </si>
-  <si>
     <t>Viktoriia Holoshchapova</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1Rl7QRlGxtywdMCDmM-i2aXCzulou-hLS/view</t>
+  </si>
+  <si>
+    <t>96250fd24ef42b3b059c7f85867ca063298d0784f07d7b3d4a19da04dbf6f4c7</t>
+  </si>
+  <si>
     <t>96250fd24ef42b3b059c</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1Rl7QRlGxtywdMCDmM-i2aXCzulou-hLS/view</t>
-  </si>
-  <si>
-    <t>96250fd24ef42b3b059c7f85867ca063298d0784f07d7b3d4a19da04dbf6f4c7</t>
-  </si>
-  <si>
     <t>Gwgj57Jqz9+NMhDQlcZmobwbWCi8h4ESrKASdManWz5saGNNFwx832peyy6A/lp8DsUFzZzOihp1V/OspkMps9k=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1V1S4zVBvdZ7u0qWNpj70QbU_Qv1ZSwcz/view</t>
   </si>
   <si>
+    <t>G22mibmMslmyD8rrY2ltE5Tcm9wjiNndNugd3f4Ant1qdwTC2A9jhFQ04ORFamlLGr+mI2MryPJAFIY7R3Zco1E=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1kWKcfuN3wKIueLCmFLK6eUxWZA5-cjqw/view</t>
+  </si>
+  <si>
+    <t>638039974f462d2a16fa</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/16683RbvjBsJBFBrLwtLwWlQJUfTiD0Xd/view</t>
   </si>
   <si>
+    <t>638039974f462d2a16fa4959a86c265addbc78b4b6d26dddbcf4a9d2b69ae9d7</t>
+  </si>
+  <si>
     <t>Nikita Liashko</t>
   </si>
   <si>
-    <t>638039974f462d2a16fa</t>
-  </si>
-  <si>
-    <t>638039974f462d2a16fa4959a86c265addbc78b4b6d26dddbcf4a9d2b69ae9d7</t>
-  </si>
-  <si>
-    <t>G22mibmMslmyD8rrY2ltE5Tcm9wjiNndNugd3f4Ant1qdwTC2A9jhFQ04ORFamlLGr+mI2MryPJAFIY7R3Zco1E=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1kWKcfuN3wKIueLCmFLK6eUxWZA5-cjqw/view</t>
+    <t>drive.google.com/file/d/1TDVQcx6mYo_axvH3qcg0bBW7BCkSdPJk/view</t>
   </si>
   <si>
     <t>a4f695eb1f54152d096f</t>
   </si>
   <si>
+    <t>a4f695eb1f54152d096fac83f42a2627f1da6e57869febbc0736945533b39dfd</t>
+  </si>
+  <si>
+    <t>Gy1CS1DczVCPKEqFIMhNAUjvlti1rZpp602WQhpANZcrbJR7A1bxVMqZhWo7ziNLPEs4gZ7mDvo3dxQp/9mnWSo=</t>
+  </si>
+  <si>
+    <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
+  </si>
+  <si>
+    <t>27.05.2022</t>
+  </si>
+  <si>
+    <t>Oleksandr Ishchuk</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1R38xCu4uADZnLmaMGWWjBOj2A6I7JcLz/view</t>
   </si>
   <si>
-    <t>a4f695eb1f54152d096fac83f42a2627f1da6e57869febbc0736945533b39dfd</t>
-  </si>
-  <si>
-    <t>27.05.2022</t>
-  </si>
-  <si>
-    <t>Oleksandr Ishchuk</t>
-  </si>
-  <si>
-    <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
-  </si>
-  <si>
-    <t>Gy1CS1DczVCPKEqFIMhNAUjvlti1rZpp602WQhpANZcrbJR7A1bxVMqZhWo7ziNLPEs4gZ7mDvo3dxQp/9mnWSo=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1TDVQcx6mYo_axvH3qcg0bBW7BCkSdPJk/view</t>
+    <t>ef5d4d97d20b05335375</t>
   </si>
   <si>
     <t>ef5d4d97d20b05335375d36faf95f1674a1bd9f02b236e07c0628e68e6718479</t>
   </si>
   <si>
+    <t>GyBuSdCpBacrzfMlYsJ5PDr4kBqEmHBvlnL0u9xd/ItkbXqWgvr/Q9+ABS7Uk9qAKPyM3fdTHMixab+7EMHk/L8=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1MKUolIBpxp8Nd7QKNEIztYq__Y2ke8r0/view</t>
+  </si>
+  <si>
     <t>30.05.2022</t>
   </si>
   <si>
     <t>Sofiia Zharkikh</t>
   </si>
   <si>
-    <t>ef5d4d97d20b05335375</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1uuFsi_lO84LjMgoGI-KaAdqUW3DbX-tN/view</t>
   </si>
   <si>
     <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
   </si>
   <si>
-    <t>GyBuSdCpBacrzfMlYsJ5PDr4kBqEmHBvlnL0u9xd/ItkbXqWgvr/Q9+ABS7Uk9qAKPyM3fdTHMixab+7EMHk/L8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1MKUolIBpxp8Nd7QKNEIztYq__Y2ke8r0/view</t>
+    <t>GwsGfQUBZbaRTtUuqe9ZxFOBG5KREIZQe9idjrsAJkyJS4iDGMvYzQl95ycTMmbSYE9y6HCVXw5XjQl4/UJmBF0=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1GQPhLpRDH3qx8itRN2swMzNVTA3S9zkA/view</t>
+  </si>
+  <si>
+    <t>bde11c3468f03baaa52b</t>
   </si>
   <si>
     <t>Ruslan Ovsiienko</t>
   </si>
   <si>
-    <t>bde11c3468f03baaa52b</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1erHD2ben8dQ0hZznVAMHsWoOEoZ5W5ZI/view</t>
   </si>
   <si>
-    <t>GwsGfQUBZbaRTtUuqe9ZxFOBG5KREIZQe9idjrsAJkyJS4iDGMvYzQl95ycTMmbSYE9y6HCVXw5XjQl4/UJmBF0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1GQPhLpRDH3qx8itRN2swMzNVTA3S9zkA/view</t>
-  </si>
-  <si>
     <t>bde11c3468f03baaa52b69b1d0037713d6e1656efbe22bbe443616867c8ce1d1</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1k6jYSLnda_XmBqezsiN_2yJ61Qdta_nb/view</t>
   </si>
   <si>
+    <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
+  </si>
+  <si>
+    <t>31.05.2022</t>
+  </si>
+  <si>
+    <t>Andrii Kolhatin</t>
+  </si>
+  <si>
     <t>6ee400b0d85b1c17b9f96d70480b7834db0687fb163960b09bd5b9d9a7479695</t>
   </si>
   <si>
-    <t>31.05.2022</t>
-  </si>
-  <si>
-    <t>Andrii Kolhatin</t>
+    <t>G1NHCoKgP7GWURDdLHVELdKpWB+yJMIMC58Zcmk7QIDkHak9MAIs8CP8p3PwQQkKrasrA22u3Ps0oDpQjtQwuXA=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1fXu1-OMgl8abLdRnkK1gGjRUzm1wJ90d/view</t>
   </si>
   <si>
     <t>6ee400b0d85b1c17b9f9</t>
   </si>
   <si>
-    <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
-  </si>
-  <si>
-    <t>G1NHCoKgP7GWURDdLHVELdKpWB+yJMIMC58Zcmk7QIDkHak9MAIs8CP8p3PwQQkKrasrA22u3Ps0oDpQjtQwuXA=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1fXu1-OMgl8abLdRnkK1gGjRUzm1wJ90d/view</t>
+    <t>drive.google.com/file/d/1w1mfSqQpuoM1ykWLZFpnfNad4769mGRZ/view</t>
+  </si>
+  <si>
+    <t>57510c8d91044c68466c</t>
+  </si>
+  <si>
+    <t>57510c8d91044c68466c23791605ae30481dd0e13bffb14884dc26f74f89007e</t>
+  </si>
+  <si>
+    <t>HEXb4vpKyOWhQpbYfAwIpyCn+rITf/VAWQzmNxaXXhDvU/q9WgsKDJeDdCnprx5cCIjjmW/phOHH+uPBbpYlPZ4=</t>
   </si>
   <si>
     <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
   </si>
   <si>
-    <t>HEXb4vpKyOWhQpbYfAwIpyCn+rITf/VAWQzmNxaXXhDvU/q9WgsKDJeDdCnprx5cCIjjmW/phOHH+uPBbpYlPZ4=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1w1mfSqQpuoM1ykWLZFpnfNad4769mGRZ/view</t>
-  </si>
-  <si>
-    <t>57510c8d91044c68466c</t>
+    <t>02.06.2022</t>
+  </si>
+  <si>
+    <t>Volodymyr Beimuk</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
   </si>
   <si>
-    <t>57510c8d91044c68466c23791605ae30481dd0e13bffb14884dc26f74f89007e</t>
-  </si>
-  <si>
-    <t>02.06.2022</t>
-  </si>
-  <si>
-    <t>Volodymyr Beimuk</t>
+    <t>drive.google.com/file/d/1alRzJTra9dglzAqTeiHBwO9rtXlBweUd/view</t>
   </si>
   <si>
     <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
   </si>
   <si>
+    <t>03.06.2022</t>
+  </si>
+  <si>
+    <t>Nazarii Savorona</t>
+  </si>
+  <si>
     <t>G0q+l32LflKU/DpeW9C2sDAMrbqeX+oJ5XFEWOQgj1abcIZnWaBDyGALb8VFCDaBlWtPdWlpZH0bBGnZ4vmuqVM=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/15kzmwqJUXHkYhS-y_kQNezfBYKsWqClm/view</t>
   </si>
   <si>
-    <t>03.06.2022</t>
-  </si>
-  <si>
-    <t>Nazarii Savorona</t>
-  </si>
-  <si>
     <t>d50fd6472811e70d2d32</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1alRzJTra9dglzAqTeiHBwO9rtXlBweUd/view</t>
-  </si>
-  <si>
     <t>d50fd6472811e70d2d323c6e2a1b6ee5492b950fa42141194d5b0ea301965d2b</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1wY_vSxNPk2EVTXF5QDxbWo0tuWKZTesU/view</t>
+  </si>
+  <si>
     <t>6471e2162a55dbf5dd4d31bfe55b942b65d00f871d57a47269a6eeadc98f5368</t>
   </si>
   <si>
+    <t>Anton Balykov</t>
+  </si>
+  <si>
     <t>HEX0LGCrp8izmcyDor70bMZoObL/w+vWJ2n7oI4g7HApOTNEf8NsrrnH7wqchGY1dHPbQ/ZXv9Sb4flO0OOFIjg=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1CEGYMWPoshF1-ZlubWYIqLVVN5wuDI0k/view</t>
   </si>
   <si>
-    <t>Anton Balykov</t>
-  </si>
-  <si>
     <t>0098c4abd0cf9ba00a9a</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1wY_vSxNPk2EVTXF5QDxbWo0tuWKZTesU/view</t>
-  </si>
-  <si>
     <t>0098c4abd0cf9ba00a9a16bae79b9ec1f932f0a459b51c5afd3d6a5651a3820d</t>
   </si>
   <si>
+    <t>06.06.2022</t>
+  </si>
+  <si>
+    <t>Rodion Nazarov</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1vGDKnNGdCSrI2l0f8epwfp-g9ZP_gdqn/view</t>
+  </si>
+  <si>
     <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
   </si>
   <si>
+    <t>b8a9205fb544253703da</t>
+  </si>
+  <si>
+    <t>b8a9205fb544253703daa661c8770c6c3010cd6f9440217c56b8f3a5277106c0</t>
+  </si>
+  <si>
     <t>HFLGvJaNw54W7ZD/ZIjYXIQM1qIXbrh8vUUpsthZld4lUw1ygBpSYq5Bv2wkJji7EFfLKZpiwfkpZ+sZp3fGBZ8=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1tXyNJbUrUx79sco9ErJu8FcadjFeY4ws/view</t>
   </si>
   <si>
-    <t>06.06.2022</t>
-  </si>
-  <si>
-    <t>Rodion Nazarov</t>
-  </si>
-  <si>
-    <t>b8a9205fb544253703da</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1vGDKnNGdCSrI2l0f8epwfp-g9ZP_gdqn/view</t>
-  </si>
-  <si>
-    <t>b8a9205fb544253703daa661c8770c6c3010cd6f9440217c56b8f3a5277106c0</t>
-  </si>
-  <si>
     <t>049024034fa09e3463c1</t>
   </si>
   <si>
+    <t>049024034fa09e3463c172894984ccd7c64d8f3e25ea0edce1cde73d14c4e4dd</t>
+  </si>
+  <si>
+    <t>G1S1swtJ1BO++cjXv+2ur3abbjLyF3QJom9rXytmbiCybxHnE6zxdv8PGrIoWzul25aA+Vy+npC166DfktBmfTA=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1zJtn8oPTgO6NalvQ4ZUKieHCmOl0G-ff/view</t>
+  </si>
+  <si>
+    <t>Denis Riabtsev</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1zCX9-HWZpyLUzChTuMNrgw8wjDheWHYQ/view</t>
   </si>
   <si>
-    <t>049024034fa09e3463c172894984ccd7c64d8f3e25ea0edce1cde73d14c4e4dd</t>
-  </si>
-  <si>
-    <t>Denis Riabtsev</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1zJtn8oPTgO6NalvQ4ZUKieHCmOl0G-ff/view</t>
-  </si>
-  <si>
     <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
   </si>
   <si>
-    <t>G1S1swtJ1BO++cjXv+2ur3abbjLyF3QJom9rXytmbiCybxHnE6zxdv8PGrIoWzul25aA+Vy+npC166DfktBmfTA=</t>
-  </si>
-  <si>
     <t>10.08.2022</t>
   </si>
   <si>
     <t>Ahadzhan Piloian</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1mierxGuI99_8bCJonu3XW6Of6nN-_G8Y/view</t>
+  </si>
+  <si>
+    <t>35a047ff48ee73cae02b98a664d79ed4beec0f2fc7ca444cf0e6fe6feba7072f</t>
+  </si>
+  <si>
     <t>35a047ff48ee73cae02b</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1mierxGuI99_8bCJonu3XW6Of6nN-_G8Y/view</t>
-  </si>
-  <si>
-    <t>35a047ff48ee73cae02b98a664d79ed4beec0f2fc7ca444cf0e6fe6feba7072f</t>
-  </si>
-  <si>
     <t>HByFsfnqBzFxFef9Sx0pI7ZEP8CsAFwWu3WLyhxeWYE7Nihy6oGKH6zTuDB3jxz7nVUqmg/+jiSz+5tpHd5hhCM=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1xbZ0oHFVYI0UYoQzhOgIjFcYMBPS3M7N/view</t>
   </si>
   <si>
+    <t>16.08.2022</t>
+  </si>
+  <si>
+    <t>Andrii Tsemko</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1VFTodraL1vlF6oPm81xYgCEzuAnnMw9D/view</t>
+  </si>
+  <si>
     <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
   </si>
   <si>
+    <t>6c856e21d4e81c9f9798</t>
+  </si>
+  <si>
+    <t>6c856e21d4e81c9f9798dc867f42c17448b563618559dfc618f25bfb13952dd9</t>
+  </si>
+  <si>
     <t>G3AD9cOvDB5Yle4mx/4BJ1WGbFOLohDQC7vc4BQ13IEBNfDge5QEuYe3jCrtupanAlQ3qTuMp0xOcnt4khjuiOU=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1XYnfmc4-e2bPA2-oKc6rMrJk9OIS1ygb/view</t>
   </si>
   <si>
-    <t>16.08.2022</t>
-  </si>
-  <si>
-    <t>Andrii Tsemko</t>
-  </si>
-  <si>
-    <t>6c856e21d4e81c9f9798</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1VFTodraL1vlF6oPm81xYgCEzuAnnMw9D/view</t>
-  </si>
-  <si>
-    <t>6c856e21d4e81c9f9798dc867f42c17448b563618559dfc618f25bfb13952dd9</t>
+    <t>Oleg Chaika</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1TCz4JmThT49Whz7pXZc1p-uh1m8qGlts/view</t>
   </si>
   <si>
     <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
   </si>
   <si>
+    <t>ac4a4970282596872599</t>
+  </si>
+  <si>
+    <t>ac4a4970282596872599a48469d3598e04f6239a9c8c40d595a7ab48cfec2f4b</t>
+  </si>
+  <si>
     <t>HBwdh30L8wwZ0AJ72uIonh5mnyavVroXqbfe0yCwSfwxHTmsctiCpE0PQGCgrn07xN6uG9mcLCyafi1J1iAIrVo=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1XKVH36jaqZxn5FNLOAPfa2e7veU7FvRF/view</t>
   </si>
   <si>
-    <t>ac4a4970282596872599a48469d3598e04f6239a9c8c40d595a7ab48cfec2f4b</t>
-  </si>
-  <si>
-    <t>Oleg Chaika</t>
-  </si>
-  <si>
-    <t>ac4a4970282596872599</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1TCz4JmThT49Whz7pXZc1p-uh1m8qGlts/view</t>
+    <t>G16YW2qc38O2w05xL7whMAtbxBifYvcgSumruVDry/BeInzdXKeNdgkzs4+YALZnA1O/VZiCrqsMOX+JSxPhhDo=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1qjY792bJaQiXrAQkpY51MdDXWY5NGfHG/view</t>
+  </si>
+  <si>
+    <t>6ece24bf393d6616d288</t>
+  </si>
+  <si>
+    <t>6ece24bf393d6616d2882515c6b704470a04394eb23a26e37fcfd58709864e9c</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1UWwjB5PEcpGT7pj9QLOxg0exOJMJ0cgV/view</t>
   </si>
   <si>
-    <t>6ece24bf393d6616d2882515c6b704470a04394eb23a26e37fcfd58709864e9c</t>
+    <t>8b0b4aebba75393ae3d3d17c2935872fcc9b742667912a33f84c93005de85fb4</t>
   </si>
   <si>
     <t>Yehor Podporinov</t>
   </si>
   <si>
-    <t>6ece24bf393d6616d288</t>
-  </si>
-  <si>
-    <t>8b0b4aebba75393ae3d3d17c2935872fcc9b742667912a33f84c93005de85fb4</t>
-  </si>
-  <si>
-    <t>G16YW2qc38O2w05xL7whMAtbxBifYvcgSumruVDry/BeInzdXKeNdgkzs4+YALZnA1O/VZiCrqsMOX+JSxPhhDo=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1qjY792bJaQiXrAQkpY51MdDXWY5NGfHG/view</t>
+    <t>Artem Litkevych</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1gRgANqcuPqyc_3RjIRjtUc4Mdz0mGl9x/view</t>
+  </si>
+  <si>
+    <t>2bdefe6ab583294a8e3a46a7d66467c7afc535265a5eb5044d61411c2e9cf825</t>
+  </si>
+  <si>
+    <t>2bdefe6ab583294a8e3a</t>
   </si>
   <si>
     <t>HDCKJb3z6l4lgp3NELh3RJkzdJD1joN7yfOxl+01921RdY6DAUkQyZNnWU9OHeVkW3fPDEweucWCsxJRM/I0X1s=</t>
@@ -961,229 +973,229 @@
     <t>drive.google.com/file/d/1f48HTb46vhokQ_8Azf1hncHeg-YaF01f/view</t>
   </si>
   <si>
-    <t>2bdefe6ab583294a8e3a46a7d66467c7afc535265a5eb5044d61411c2e9cf825</t>
-  </si>
-  <si>
-    <t>Artem Litkevych</t>
-  </si>
-  <si>
-    <t>2bdefe6ab583294a8e3a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1gRgANqcuPqyc_3RjIRjtUc4Mdz0mGl9x/view</t>
+    <t>17.08.2022</t>
+  </si>
+  <si>
+    <t>Vadim Mokropulo</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1y0FtDg1SrfeMLVLgcU5nq3iVnBdoik87/view</t>
   </si>
   <si>
     <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
   </si>
   <si>
+    <t>5aedea6393611a0bb067</t>
+  </si>
+  <si>
+    <t>5aedea6393611a0bb067abca97eab5d15e20fa9b13654759eeb0ad08cf465bf6</t>
+  </si>
+  <si>
     <t>HApedQ3dSPFayNHWaAdeG0koY6JOtPkbNGfR03j/buRXUMPAQ7kVc5JUtU7xJeCQFNre1p7sPQiaazDauOSLyeU=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1L4MJCKIJ_qZk-xoeaxbt21yKDQ65ZiV-/view</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1y0FtDg1SrfeMLVLgcU5nq3iVnBdoik87/view</t>
-  </si>
-  <si>
-    <t>5aedea6393611a0bb067abca97eab5d15e20fa9b13654759eeb0ad08cf465bf6</t>
-  </si>
-  <si>
-    <t>17.08.2022</t>
-  </si>
-  <si>
-    <t>Vadim Mokropulo</t>
-  </si>
-  <si>
-    <t>5aedea6393611a0bb067</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1G_yt14WnfBJx-IrHPPr6dCVtmo-oZRGP/view</t>
   </si>
   <si>
+    <t>c5f89ffab6fb6790398f25f04cceea2582045f2cdaa852cffa609587b5f97da2</t>
+  </si>
+  <si>
+    <t>Arsenii Trybukh</t>
+  </si>
+  <si>
+    <t>HAJxbdAA0K5jADiIkd2hSuUjSo5/eIKguFwXw2OZXCkPSIx4rLJcO32Gxfb002+eyGWSoqZg/YxEkHKrfxSL7F8=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/11NbZIfZYYPaZkiN3hIF-pOf-vQn1FjGZ/view</t>
+  </si>
+  <si>
+    <t>843e73c99e2fb6868d38</t>
+  </si>
+  <si>
     <t>843e73c99e2fb6868d388c6436b8de6d6df90f2c6651c161738d510e0eedbe80</t>
   </si>
   <si>
-    <t>Arsenii Trybukh</t>
-  </si>
-  <si>
-    <t>843e73c99e2fb6868d38</t>
-  </si>
-  <si>
-    <t>c5f89ffab6fb6790398f25f04cceea2582045f2cdaa852cffa609587b5f97da2</t>
-  </si>
-  <si>
-    <t>HAJxbdAA0K5jADiIkd2hSuUjSo5/eIKguFwXw2OZXCkPSIx4rLJcO32Gxfb002+eyGWSoqZg/YxEkHKrfxSL7F8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/11NbZIfZYYPaZkiN3hIF-pOf-vQn1FjGZ/view</t>
+    <t>18.08.2022</t>
   </si>
   <si>
     <t>Khrystyna Vysotska</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1l5wCpVPlLtvzFbUPo8FUxzzRBsS6Et75/view</t>
+  </si>
+  <si>
+    <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
+  </si>
+  <si>
     <t>c7bb640e0ab9c66c1b1b</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1l5wCpVPlLtvzFbUPo8FUxzzRBsS6Et75/view</t>
-  </si>
-  <si>
     <t>c7bb640e0ab9c66c1b1b30a834ca00155e38ddba8212240e0bbd39eba0ba7804</t>
   </si>
   <si>
-    <t>18.08.2022</t>
-  </si>
-  <si>
     <t>GyX+LFZlbOGkX9m4UFq+VTDe+qgFw8iaqa9Pnv0tpOhWPbMXAoZS20RqaIczvQ/H1VpzVlaXsEo+xn5nwKZJ/Hk=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1nGSPxXdXnZBvlGXqCNy4-upiIccTP2DF/view</t>
   </si>
   <si>
-    <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
+    <t>Mykhailo Shcholkin</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1I0M_Gmlz0YU0fwUVXG9DVMFDEz8BrXYC/view</t>
   </si>
   <si>
     <t>de78c058c82cb70d7785272b03e0faaf9d22a8b0e83bf3c62e1088ba65fe154a</t>
   </si>
   <si>
+    <t>de78c058c82cb70d7785</t>
+  </si>
+  <si>
     <t>G1CTdkm9sPqF5gC7MNhwFYnaWkXLHuuUsU0A/sGOu5DNBtG5skY8jqrThohl9psYxI7Tv/ioEcauIdVEWGuT7+o=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/116fTgiRyxDGkYGtShL1QTg_IMdV7JIvh/view</t>
   </si>
   <si>
-    <t>de78c058c82cb70d7785</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1I0M_Gmlz0YU0fwUVXG9DVMFDEz8BrXYC/view</t>
-  </si>
-  <si>
-    <t>Mykhailo Shcholkin</t>
+    <t>drive.google.com/file/d/1GoJ9qUTxoHHdtNzbmx9kX8mUnMrERzTj/view</t>
   </si>
   <si>
     <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
   </si>
   <si>
+    <t>Sofiia Kireieva</t>
+  </si>
+  <si>
     <t>GwxLKKdOMTqtcTyfNdinQRybUe+qy2ulplCNQh5mcOdQINQN0w/jb9OXjSkmDF4/X+KrmFDw9hjjLrHNZfbB5dE=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1dA-z2yZxNqg9vpZ-IrDTeI5VoAYSoUOx/view</t>
   </si>
   <si>
-    <t>Sofiia Kireieva</t>
-  </si>
-  <si>
     <t>7a6968aff4e08534424f</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1GoJ9qUTxoHHdtNzbmx9kX8mUnMrERzTj/view</t>
+    <t>19.08.2022</t>
+  </si>
+  <si>
+    <t>Alena Sporova</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1O6iBsiaN0_fjmsFEU75uf0x-TjEPa9M_/view</t>
   </si>
   <si>
     <t>4f789ed064df7a17fb165d92a4775577ae2b2aa0933828e2184f467078a0f4e1</t>
   </si>
   <si>
+    <t>4f789ed064df7a17fb16</t>
+  </si>
+  <si>
     <t>G24FfjXLWLXBSLyuTfOy5p2HRuUF9dZNqOsMBbQz5NdHMugtm3sqYSkgooUb30zd6NBvd8yivpBdpXj2C7zxRLM=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1SrPLonRxjfEBFQKfnHXjqy1icSZ8TQTg/view</t>
   </si>
   <si>
-    <t>19.08.2022</t>
-  </si>
-  <si>
-    <t>Alena Sporova</t>
-  </si>
-  <si>
-    <t>4f789ed064df7a17fb16</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1O6iBsiaN0_fjmsFEU75uf0x-TjEPa9M_/view</t>
+    <t>ae669584e3592816786d</t>
+  </si>
+  <si>
+    <t>ae669584e3592816786def0ced73ae9c1157f3cf3957c54c7f00c313411d0917</t>
+  </si>
+  <si>
+    <t>HAHRm6qHhYtJONB4DE1fHhHs7jzCBi+0r098KwvwJ3FjJraqh4eh7xXl2kdKZvktikGbL8iVYeMFsUMMiZgU1dE=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1rd3-RafYYEM7AiLpUn6hDKvzItsu35eV/view</t>
+  </si>
+  <si>
+    <t>Nikita Masych</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1m0p5Xzk0DhnWZNz3C4GKwBoFn0dCLaJd/view</t>
   </si>
   <si>
-    <t>ae669584e3592816786def0ced73ae9c1157f3cf3957c54c7f00c313411d0917</t>
-  </si>
-  <si>
-    <t>Nikita Masych</t>
-  </si>
-  <si>
-    <t>ae669584e3592816786d</t>
-  </si>
-  <si>
     <t>483060d6ed3048a8dc0131f806543e2d4ebf5438280c29af23b478769c5e2422</t>
   </si>
   <si>
-    <t>HAHRm6qHhYtJONB4DE1fHhHs7jzCBi+0r098KwvwJ3FjJraqh4eh7xXl2kdKZvktikGbL8iVYeMFsUMMiZgU1dE=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1rd3-RafYYEM7AiLpUn6hDKvzItsu35eV/view</t>
-  </si>
-  <si>
     <t>2a2bdf9afd29bb5a037e</t>
   </si>
   <si>
+    <t>2a2bdf9afd29bb5a037ee969d668f402c10e76c8cbbd976d813dc2c635212539</t>
+  </si>
+  <si>
+    <t>G0IQQV4CbL/JBgmzra52tvPbBojg9JtvXR7fWIUO4M3PVCmcqlAPZYddUdyqGNQ46uqyzpxPt5unmlkaLZoWdik=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Nn8f-CCkaRTHoTIvzOzlUjfFraIj0SxS/view</t>
+  </si>
+  <si>
+    <t>Mark Cherepovskyi</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1e4EDcTQQDwoR2L6wWEPs-5H-vt5CCr_f/view</t>
   </si>
   <si>
-    <t>2a2bdf9afd29bb5a037ee969d668f402c10e76c8cbbd976d813dc2c635212539</t>
-  </si>
-  <si>
-    <t>Mark Cherepovskyi</t>
-  </si>
-  <si>
     <t>c4879efd2b227fc0a0e38b82a1a91f47d5c53312805a02084f9769bbec1a71ec</t>
   </si>
   <si>
-    <t>G0IQQV4CbL/JBgmzra52tvPbBojg9JtvXR7fWIUO4M3PVCmcqlAPZYddUdyqGNQ46uqyzpxPt5unmlkaLZoWdik=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Nn8f-CCkaRTHoTIvzOzlUjfFraIj0SxS/view</t>
+    <t>5af15e5a89df1459f6c0</t>
+  </si>
+  <si>
+    <t>5af15e5a89df1459f6c0aeb5cd0e5be28e4a54e50468f9b686f2d93a47fcd8b5</t>
+  </si>
+  <si>
+    <t>HDMS95fN4wKz+mcce/qhkAB3CDAxnQf5cwwRXHl8KMdYA3/EO8kyMpNGiIbN5MFTQ8vPw07FOmfXy0ioj0UnCj4=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/15ZzFOxNzuFtm8BtdxOiZbShpVngUdT_R/view</t>
   </si>
   <si>
     <t>Viacheslav Horbanov</t>
   </si>
   <si>
-    <t>5af15e5a89df1459f6c0</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/189KqeuBE1JHhjoOJuPjmVSaQMF0tuf_7/view</t>
   </si>
   <si>
-    <t>5af15e5a89df1459f6c0aeb5cd0e5be28e4a54e50468f9b686f2d93a47fcd8b5</t>
-  </si>
-  <si>
-    <t>HDMS95fN4wKz+mcce/qhkAB3CDAxnQf5cwwRXHl8KMdYA3/EO8kyMpNGiIbN5MFTQ8vPw07FOmfXy0ioj0UnCj4=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/15ZzFOxNzuFtm8BtdxOiZbShpVngUdT_R/view</t>
-  </si>
-  <si>
     <t>805b929698577e9aca3fe4691eadeb51f4dc001d6c3c48625b4e2d7ff2f1f090</t>
   </si>
   <si>
+    <t>709946c77b1372ca3cff</t>
+  </si>
+  <si>
     <t>709946c77b1372ca3cffa6c6d383a1fa4c8806d267ecb824b4ee502f41c2e4c0</t>
   </si>
   <si>
+    <t>GxwMNgPmJTi7BfEjI6rsGqPvQoad54i76EyhJDFd3X9cMv6smt8Pqr9l2GzTwOy+UhKqumElsEDkC1pUydChGYM=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1-pE49RF7jkcKZaf7GMT9l_oK4tuCo-qU/view</t>
+  </si>
+  <si>
     <t>22.08.2022</t>
   </si>
   <si>
     <t>Oleksii Stepaniuk</t>
   </si>
   <si>
-    <t>709946c77b1372ca3cff</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1XQCDywsDSh6584NI_X7VTda9fxx9Ju6n/view</t>
   </si>
   <si>
     <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
   </si>
   <si>
-    <t>GxwMNgPmJTi7BfEjI6rsGqPvQoad54i76EyhJDFd3X9cMv6smt8Pqr9l2GzTwOy+UhKqumElsEDkC1pUydChGYM=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1-pE49RF7jkcKZaf7GMT9l_oK4tuCo-qU/view</t>
+    <t>drive.google.com/file/d/1XyrBsaWWmIuwF0Hq8_K95lvtH9gb6l9O/view</t>
+  </si>
+  <si>
+    <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
+  </si>
+  <si>
+    <t>Kyrylo Riabov</t>
+  </si>
+  <si>
+    <t>6393707ada82a579795181b6ad3cbf89bc962a3b517c4fad1ff80807b72258e2</t>
   </si>
   <si>
     <t>HHbJ2yOwNTaBD8Pj4Gc3VU1rvVOaml/gHFckPopyy6rVLkN9Llmf+A5SmWlzxzYnshzLqJKMNrV/7nrMhmMK0LA=</t>
@@ -1192,19 +1204,22 @@
     <t>drive.google.com/file/d/1Wq36pFh0ILRhfaIV-RMgTsS8Rw_UPsMQ/view</t>
   </si>
   <si>
-    <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
-  </si>
-  <si>
-    <t>Kyrylo Riabov</t>
-  </si>
-  <si>
     <t>6393707ada82a5797951</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1XyrBsaWWmIuwF0Hq8_K95lvtH9gb6l9O/view</t>
-  </si>
-  <si>
-    <t>6393707ada82a579795181b6ad3cbf89bc962a3b517c4fad1ff80807b72258e2</t>
+    <t>Oleksandr Kolesnyk</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1ygsdcgJuPG9SqctWWdcmvdFYGBlg0Mfi/view</t>
+  </si>
+  <si>
+    <t>a4bc9b1320f2e1e710e9b1fd60261ccf698609aee22bab0b8bc8f6278c77ff28</t>
+  </si>
+  <si>
+    <t>b8536409d7a15f77c09c</t>
+  </si>
+  <si>
+    <t>b8536409d7a15f77c09c4ee971971d57834a7ce935d7de0afca925b431d7d3f0</t>
   </si>
   <si>
     <t>HHvcf99G4vHmh7gwlEMbWJAQuuP3yxyHM8bMUdTLhf5lb5dJq/wz1VWiA3Z/oY5vRSiCpwneT5rrWqc8ErU11mU=</t>
@@ -1213,583 +1228,481 @@
     <t>drive.google.com/file/d/1aW9TvbBrwnNuYXWpVf9DsaHrdOh5lBe6/view</t>
   </si>
   <si>
-    <t>a4bc9b1320f2e1e710e9b1fd60261ccf698609aee22bab0b8bc8f6278c77ff28</t>
-  </si>
-  <si>
-    <t>Oleksandr Kolesnyk</t>
-  </si>
-  <si>
-    <t>b8536409d7a15f77c09c</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1ygsdcgJuPG9SqctWWdcmvdFYGBlg0Mfi/view</t>
-  </si>
-  <si>
-    <t>b8536409d7a15f77c09c4ee971971d57834a7ce935d7de0afca925b431d7d3f0</t>
-  </si>
-  <si>
     <t>4b7f8d4f293f72815ab4</t>
   </si>
   <si>
+    <t>G2VIng2ixewyoOfF7ZTzpcGYTcmDx6zY2XXVDruaEShNbAYMCcWhVMWWXpHVa/vIIt6mI19G/JjIIBPaXI9uK6Y=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1YrBbtcKZvZerAB-P3IgI2VY_rNpYXWdd/view</t>
+  </si>
+  <si>
+    <t>23.08.2022</t>
+  </si>
+  <si>
+    <t>Nikita Chabaniuk</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1HU3qhe9VaTIqZwLa4G3mOS0nHEg8DO8M/view</t>
   </si>
   <si>
-    <t>23.08.2022</t>
-  </si>
-  <si>
-    <t>Nikita Chabaniuk</t>
-  </si>
-  <si>
     <t>4b7f8d4f293f72815ab490bd586e210947057de3a2e9afb59fe92108421cfc43</t>
   </si>
   <si>
-    <t>G2VIng2ixewyoOfF7ZTzpcGYTcmDx6zY2XXVDruaEShNbAYMCcWhVMWWXpHVa/vIIt6mI19G/JjIIBPaXI9uK6Y=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1YrBbtcKZvZerAB-P3IgI2VY_rNpYXWdd/view</t>
+    <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
   </si>
   <si>
     <t>Amina Yambulatova</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1cQNAJj42ZPrF7G2wJasBxsblGWb1cx6U/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1cFcRCnazlkVCJwZpAUyUVf662LBzDlc1/view</t>
+  </si>
+  <si>
     <t>8e1b8b35cb7330ddc76e</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1cQNAJj42ZPrF7G2wJasBxsblGWb1cx6U/view</t>
-  </si>
-  <si>
     <t>8e1b8b35cb7330ddc76eb03e4878e055a523040b63232a27df27ca76e04a8678</t>
   </si>
   <si>
-    <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
-  </si>
-  <si>
     <t>G1YYB4Ev2kOYbqXr2cCeGRFHYlaynNvMmb6TrOoeBnzORoDe4Pips3BiaJZxZBBWtuSRec45V5h9Mce9vCSYCH8=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1cFcRCnazlkVCJwZpAUyUVf662LBzDlc1/view</t>
+    <t>95392bafab8d1e14ab5530e8a6a2436a7faa1647c9af34869af6d793fdb526dd</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1UXQ_dMB-t0DJ1zHqwUO4AMKw00xTe7Kd/view</t>
+  </si>
+  <si>
+    <t>95392bafab8d1e14ab55</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/17TrcHxOjczAIzHRX6jGL7d6ikxt2lACY/view</t>
+  </si>
+  <si>
+    <t>40f94f67b8a8d87da643ad5c019db2e6c6f6e960a03453048995c11eea36d236</t>
   </si>
   <si>
     <t>Yegor Chukanov</t>
   </si>
   <si>
-    <t>95392bafab8d1e14ab55</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/17TrcHxOjczAIzHRX6jGL7d6ikxt2lACY/view</t>
-  </si>
-  <si>
-    <t>95392bafab8d1e14ab5530e8a6a2436a7faa1647c9af34869af6d793fdb526dd</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1UXQ_dMB-t0DJ1zHqwUO4AMKw00xTe7Kd/view</t>
-  </si>
-  <si>
-    <t>40f94f67b8a8d87da643ad5c019db2e6c6f6e960a03453048995c11eea36d236</t>
+    <t>3dc98e4fdedc7c6b91f5</t>
+  </si>
+  <si>
+    <t>3dc98e4fdedc7c6b91f59db100a54a9d140ee40149845e160b9bf59021cfd763</t>
+  </si>
+  <si>
+    <t>G2JfFYPk+Pp+65U01De1kmptKvks4kuSPI6m3hF2U+79HZCoD8lymFRpoPnVxZ2laFtkb2XA9J8nfBT2hffuYsw=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Gky0SNUujtYDy63EkDHDfdHn6lBJFb9g/view</t>
+  </si>
+  <si>
+    <t>24.08.2022</t>
+  </si>
+  <si>
+    <t>Dmytro Vynohradov</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1JWQoCNMPVL8zCEb3aDGft9aNFn_7Bn6U/view</t>
   </si>
   <si>
     <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
   </si>
   <si>
-    <t>G2JfFYPk+Pp+65U01De1kmptKvks4kuSPI6m3hF2U+79HZCoD8lymFRpoPnVxZ2laFtkb2XA9J8nfBT2hffuYsw=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Gky0SNUujtYDy63EkDHDfdHn6lBJFb9g/view</t>
-  </si>
-  <si>
-    <t>3dc98e4fdedc7c6b91f59db100a54a9d140ee40149845e160b9bf59021cfd763</t>
-  </si>
-  <si>
-    <t>24.08.2022</t>
-  </si>
-  <si>
-    <t>Dmytro Vynohradov</t>
-  </si>
-  <si>
-    <t>3dc98e4fdedc7c6b91f5</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1JWQoCNMPVL8zCEb3aDGft9aNFn_7Bn6U/view</t>
+    <t>5a875f69aae3c47635bc</t>
+  </si>
+  <si>
+    <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
+  </si>
+  <si>
+    <t>HBCVC5I+IeKJfiwlnLSOv2b3zmmlPbKLwcOCjBb6dPfZIvDoV0Bg/EwiXf880gA9PO3pwI1BcQpjCFVKtoEOCHM=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/17EMz1PARbz9e8RTVMLFvKCGrcuqxU0X5/view</t>
+  </si>
+  <si>
+    <t>Mykhailo Sokolov</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1-Woakmc6sQIZj_YuO0UujbdA_k7k30AQ/view</t>
   </si>
   <si>
     <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
   </si>
   <si>
-    <t>HBCVC5I+IeKJfiwlnLSOv2b3zmmlPbKLwcOCjBb6dPfZIvDoV0Bg/EwiXf880gA9PO3pwI1BcQpjCFVKtoEOCHM=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/17EMz1PARbz9e8RTVMLFvKCGrcuqxU0X5/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1-Woakmc6sQIZj_YuO0UujbdA_k7k30AQ/view</t>
-  </si>
-  <si>
-    <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
-  </si>
-  <si>
-    <t>Mykhailo Sokolov</t>
-  </si>
-  <si>
-    <t>5a875f69aae3c47635bc</t>
+    <t>25.08.2022</t>
+  </si>
+  <si>
+    <t>Illia Popov</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1jMQGHGOmWabDErZg-n19HYPP7sUPbA-C/view</t>
   </si>
   <si>
     <t>5cbc5e19fd5bb7d530d8e96ecd9e1f957e8731f7b5738c30b4b5e1bdda0861c4</t>
   </si>
   <si>
+    <t>c6e0a8f84ae9df426a28</t>
+  </si>
+  <si>
+    <t>c6e0a8f84ae9df426a28363024a5e4734dea38882c37c27ccbf3350092257289</t>
+  </si>
+  <si>
     <t>GxbnaO2SI42FWSLEEeAdripZKWQTCFp0dSAopXV/2wcjBco8ZbmUu3GwTndN8FzDVaFjnEfIeim4NGPPs+jCQzg=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1rEPYF5Uwt1Gg--7B3QLoPSWrcIzAuG9l/view</t>
   </si>
   <si>
-    <t>c6e0a8f84ae9df426a28</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1jMQGHGOmWabDErZg-n19HYPP7sUPbA-C/view</t>
-  </si>
-  <si>
-    <t>c6e0a8f84ae9df426a28363024a5e4734dea38882c37c27ccbf3350092257289</t>
-  </si>
-  <si>
-    <t>25.08.2022</t>
-  </si>
-  <si>
-    <t>Illia Popov</t>
+    <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
+  </si>
+  <si>
+    <t>26.08.2022</t>
+  </si>
+  <si>
+    <t>Mykola Gora</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1QJKE4_V6OQFcAtrq5rdY3Rh_W91kgnxQ/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1NYZJn0Wxf8vR9QW-LE4U_2mvV5gX356p/view</t>
   </si>
   <si>
     <t>e17451aabeae8492dbe7</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1QJKE4_V6OQFcAtrq5rdY3Rh_W91kgnxQ/view</t>
-  </si>
-  <si>
     <t>e17451aabeae8492dbe7099d581c12ef9e7a8366dd7ddf2267d0e42cd4580c19</t>
   </si>
   <si>
-    <t>26.08.2022</t>
-  </si>
-  <si>
-    <t>Mykola Gora</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1NYZJn0Wxf8vR9QW-LE4U_2mvV5gX356p/view</t>
-  </si>
-  <si>
-    <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
-  </si>
-  <si>
     <t>G1rX7mp/6KhUVoryYkYmifpVakFz5esJ02otJ2mZPwp7MHkaFa8WdLamGh4FuZCo4AP8DoxRbh1+qYpxsEGumSY=</t>
   </si>
   <si>
+    <t>4cfdcdc672279489b68a1e900b2f8aa296d28d2d40fb08c1c5ca14562a1d23b3</t>
+  </si>
+  <si>
+    <t>HAUm82i2DcGPW2dlUnkAex+z9pI7QXjFFkfN7fvKH/NWHKCa5jaIHnZIjW0MHVx+WFJzNl5fsaPYQxDd7zePq9E=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1UxUzAyExCitVVyJENd4Ka9gN9rBDLUrw/view</t>
+  </si>
+  <si>
+    <t>4cfdcdc672279489b68a</t>
+  </si>
+  <si>
+    <t>Artem Levkin</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1noq7bJhv9KNWgJD8xKbWqJaO3zb1pra1/view</t>
   </si>
   <si>
-    <t>4cfdcdc672279489b68a1e900b2f8aa296d28d2d40fb08c1c5ca14562a1d23b3</t>
-  </si>
-  <si>
-    <t>Artem Levkin</t>
-  </si>
-  <si>
-    <t>4cfdcdc672279489b68a</t>
-  </si>
-  <si>
     <t>417f8fbf445be4909b812ed5db8ded8669b512bcba91782881d11f10fe551570</t>
   </si>
   <si>
-    <t>HAUm82i2DcGPW2dlUnkAex+z9pI7QXjFFkfN7fvKH/NWHKCa5jaIHnZIjW0MHVx+WFJzNl5fsaPYQxDd7zePq9E=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1UxUzAyExCitVVyJENd4Ka9gN9rBDLUrw/view</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1z6IhpWNludHIAApZXih8yz4bCn6-Vt8M/view</t>
   </si>
   <si>
+    <t>34ea29020672eb21280caadaf19377833ae12495cae3cc9e297d0f4aefe0d428</t>
+  </si>
+  <si>
     <t>29.08.2022</t>
   </si>
   <si>
     <t>Natalya Dolgova</t>
   </si>
   <si>
+    <t>HB24fr9zRBm8R7uXlw5zXiUP5eHW5ljJJrmCwOpRp/4YRjQ/TpqUsmm+GMG8fdOVEEIellnn+Sif/IFeHOuPX4Y=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/10aBMeumWTAVfoCF9OhzWdrjtrC26Zmc3/view</t>
+  </si>
+  <si>
     <t>34ea29020672eb21280c</t>
   </si>
   <si>
-    <t>34ea29020672eb21280caadaf19377833ae12495cae3cc9e297d0f4aefe0d428</t>
-  </si>
-  <si>
-    <t>HB24fr9zRBm8R7uXlw5zXiUP5eHW5ljJJrmCwOpRp/4YRjQ/TpqUsmm+GMG8fdOVEEIellnn+Sif/IFeHOuPX4Y=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/10aBMeumWTAVfoCF9OhzWdrjtrC26Zmc3/view</t>
+    <t>905fa9409eec8ceee94c</t>
+  </si>
+  <si>
+    <t>905fa9409eec8ceee94c08cd9f5410e03310ce041b58f41958ea440b3396b275</t>
+  </si>
+  <si>
+    <t>G2IQ96lhlCyrf6+zTqhN5F744yuKJvP3JOPKM+8RfwLsTNBoEcHKch31onlkxZG23com3sHuRJ3EVtQBirJEcLI=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1MEjKKhuFeZ4mE0PM3kjRptb63VitKcTl/view</t>
+  </si>
+  <si>
+    <t>Artem Zubrych</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1aaqnORxWfLkmccryV49_7kjl_X3ui3uK/view</t>
   </si>
   <si>
     <t>bfdf2d5236562eef75432a510ff9b0b4cd7d37ac17547d3e0515f4891a736609</t>
   </si>
   <si>
-    <t>G2IQ96lhlCyrf6+zTqhN5F744yuKJvP3JOPKM+8RfwLsTNBoEcHKch31onlkxZG23com3sHuRJ3EVtQBirJEcLI=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1MEjKKhuFeZ4mE0PM3kjRptb63VitKcTl/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1aaqnORxWfLkmccryV49_7kjl_X3ui3uK/view</t>
-  </si>
-  <si>
-    <t>905fa9409eec8ceee94c08cd9f5410e03310ce041b58f41958ea440b3396b275</t>
-  </si>
-  <si>
-    <t>Artem Zubrych</t>
-  </si>
-  <si>
-    <t>905fa9409eec8ceee94c</t>
+    <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
+  </si>
+  <si>
+    <t>f4b8579fd5eced5139aa</t>
   </si>
   <si>
     <t>HFOOeUrSvztcEv16aKHm4rhS4OG+5rifrKjnl2TLUMNuIvmOP+bmIwQ0R/CXhqPzLG93zNNZ7DDAzo4zX2JwqG0=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
-  </si>
-  <si>
     <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
   </si>
   <si>
+    <t>30.08.2022</t>
+  </si>
+  <si>
     <t>Valentyna Lytvynova</t>
   </si>
   <si>
-    <t>f4b8579fd5eced5139aa</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1tVAP8fauK_wN1JHJrB5yyDCelAvkutVt/view</t>
   </si>
   <si>
-    <t>30.08.2022</t>
+    <t>Eugene Petrikeev</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1_UvD8BMIATW0UaJxtWCZTpytX5_CiSVw/view</t>
+  </si>
+  <si>
+    <t>ff01796886d91f5df69e2b999462ffdd868ad8a8ac105910698d4bf34eac760d</t>
   </si>
   <si>
     <t>a3cfa3e5bbc7bf47c73a50046cffe7f40a1126942a35d516dae7601a8d6e0c04</t>
   </si>
   <si>
-    <t>Eugene Petrikeev</t>
+    <t>HC9onoqwiC9tBTjtH4rWK0sZBN201JY5gzQcOjtrnfrxCuyXuNML5tt7vBnK3gaErXQJAHBkpCgIGcSy2+VhT2o=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Es38UUfq4uF6K5m688upx26mH7dcLyOW/view</t>
   </si>
   <si>
     <t>a3cfa3e5bbc7bf47c73a</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1_UvD8BMIATW0UaJxtWCZTpytX5_CiSVw/view</t>
-  </si>
-  <si>
-    <t>ff01796886d91f5df69e2b999462ffdd868ad8a8ac105910698d4bf34eac760d</t>
-  </si>
-  <si>
-    <t>HC9onoqwiC9tBTjtH4rWK0sZBN201JY5gzQcOjtrnfrxCuyXuNML5tt7vBnK3gaErXQJAHBkpCgIGcSy2+VhT2o=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Es38UUfq4uF6K5m688upx26mH7dcLyOW/view</t>
+    <t>Yurii Poberezhnyi</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/13RaHOAUhpp6-9qTwDPNevrtrVrYljiGr/view</t>
   </si>
   <si>
     <t>f58f1fc15134ceb6667235bc35ca8e2bc62cf070e2a991a17d739ee3d744ec0a</t>
   </si>
   <si>
+    <t>f58f1fc15134ceb66672</t>
+  </si>
+  <si>
     <t>G0id81/AyLv4L2f1Cpy38tuZKCexDvgAwCSDLEP2wFERBEUIL9DUFSHweqt5XpHRUrIGyIocTY4rw5X+3BRYVQo=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1_MqAQ9X0jUmXaREfYybJjbDFMxW4y_dV/view</t>
   </si>
   <si>
-    <t>Yurii Poberezhnyi</t>
-  </si>
-  <si>
-    <t>f58f1fc15134ceb66672</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/13RaHOAUhpp6-9qTwDPNevrtrVrYljiGr/view</t>
+    <t>G0cRPgCnc9gR979fw7SNVKjn1dtzkepjD/26FOnoJgjmCLAqctDx/62xZZTvPJAQ4ByVKaMOKZLGISJxpBRjSxk=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1QyeAEZg9sPSyHyju9DCa692a7BZuOUIM/view</t>
+  </si>
+  <si>
+    <t>0c95f06fcccbe19e0bb6</t>
+  </si>
+  <si>
+    <t>0c95f06fcccbe19e0bb6821d5f73206de2ba7ab6169774ac57630980fcfdf102</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/12VzupVGrvNkCAb6z0yEId3srZwjB3_oV/view</t>
+  </si>
+  <si>
+    <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
+  </si>
+  <si>
+    <t>07.09.2022</t>
   </si>
   <si>
     <t>Alina Telnova</t>
   </si>
   <si>
-    <t>0c95f06fcccbe19e0bb6</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/12VzupVGrvNkCAb6z0yEId3srZwjB3_oV/view</t>
-  </si>
-  <si>
-    <t>0c95f06fcccbe19e0bb6821d5f73206de2ba7ab6169774ac57630980fcfdf102</t>
-  </si>
-  <si>
-    <t>07.09.2022</t>
-  </si>
-  <si>
-    <t>G0cRPgCnc9gR979fw7SNVKjn1dtzkepjD/26FOnoJgjmCLAqctDx/62xZZTvPJAQ4ByVKaMOKZLGISJxpBRjSxk=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1QyeAEZg9sPSyHyju9DCa692a7BZuOUIM/view</t>
-  </si>
-  <si>
-    <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1a35HB3dZNIFVRKh5MYvwbUMgYIYIeJcJ/view</t>
   </si>
   <si>
+    <t>af27ce942975c91a06dbe4593ddf563b104b6cff511a916a18e473e33a3c6685</t>
+  </si>
+  <si>
+    <t>07.12.2022</t>
+  </si>
+  <si>
+    <t>Oleksandra Ivanova</t>
+  </si>
+  <si>
+    <t>Theory of database organization and basic SQL</t>
+  </si>
+  <si>
+    <t>HGAuSB4G9iS8qnGaGbTZOELzGnfVIOzeYAr51TKyBEI+R81nW4taggKbD837pJohHVGrr04rH5jPlwzyVAlOZf8=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1sz_pAnlIqmiCE-IlVrYH0bVnlb9CO7k3/view</t>
+  </si>
+  <si>
+    <t>a7a0e0e2fed389ffbc84</t>
+  </si>
+  <si>
     <t>a7a0e0e2fed389ffbc84aa75be30dc0262dac7620349a94e3f087de79d800aec</t>
   </si>
   <si>
-    <t>07.12.2022</t>
-  </si>
-  <si>
-    <t>Oleksandra Ivanova</t>
-  </si>
-  <si>
-    <t>Theory of database organization and basic SQL</t>
-  </si>
-  <si>
-    <t>a7a0e0e2fed389ffbc84</t>
-  </si>
-  <si>
-    <t>af27ce942975c91a06dbe4593ddf563b104b6cff511a916a18e473e33a3c6685</t>
-  </si>
-  <si>
-    <t>HGAuSB4G9iS8qnGaGbTZOELzGnfVIOzeYAr51TKyBEI+R81nW4taggKbD837pJohHVGrr04rH5jPlwzyVAlOZf8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1sz_pAnlIqmiCE-IlVrYH0bVnlb9CO7k3/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/18JaSfWZVMTujYk02YeC8yTIPzYWTCbgR/view</t>
+    <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Ilona_Shevchenko_database_QR_codecreate.svg</t>
   </si>
   <si>
     <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
   </si>
   <si>
-    <t>HA7nqYOAJuwCfCde1si6GfmAXgMXgMMWxhJcy8z1MXaTfquiS3KWcg5cqA3vXRaCucVdTNq+9PnKIl/M2H95t1U=</t>
-  </si>
-  <si>
-    <t>da83c72b09ab93cb1202</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1rzgA4oFnvxbSVdfO9K3mEqLq74nYUOHE/view</t>
-  </si>
-  <si>
-    <t>da83c72b09ab93cb12023d84262183c89ed136c57b60f15dd058ff60eb6755e1</t>
-  </si>
-  <si>
     <t>08.12.2022</t>
   </si>
   <si>
     <t>Ilona Shevchenko</t>
   </si>
   <si>
-    <t>87c84078c367bed5f82a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1z2sIyET0Oc51U5M7OvtHr2-_D4W8csJF/view</t>
-  </si>
-  <si>
-    <t>87c84078c367bed5f82a4c37dc56304b79f1a92cbc35ee04f70a047b801206e8</t>
+    <t>HIgwLjNpC9EMttrwVCHCqYNaw9oP6JDSNC3WNNknWncLPhG4ednynhWTcdaeAX+FwguxVwPvX9m7LvvlPFKLdrQ=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Ievgeniia_Bondar_database_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>53a0b93122b1b19f00b1770fcf8346ff6b499f4d7d038539404febdb403dd2d5</t>
   </si>
   <si>
     <t>Ievgeniia Bondar</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1DSgeEnca2m2q1lhQIgPYMZjvSM27zHVz/view</t>
-  </si>
-  <si>
-    <t>53a0b93122b1b19f00b1770fcf8346ff6b499f4d7d038539404febdb403dd2d5</t>
-  </si>
-  <si>
-    <t>HDmnFaxTvYB3fX3xirgAHkQLGRdgCFX46135fLMOQx6jSuDFyqGJYeFl5HNjWcQL7wgjPvG7L31XdEJwlI/0Hp8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1gwAsqyGst-NPKQ5BzcxPZgoUd3Mp-c2Y/view</t>
-  </si>
-  <si>
-    <t>ee347efa2f03bfe07b5b370dd32bb794c416e7a0794004ab5c8dc11e525a70f3</t>
-  </si>
-  <si>
     <t>Sofia Golets</t>
   </si>
   <si>
-    <t>ee347efa2f03bfe07b5b</t>
-  </si>
-  <si>
     <t>7175c0e9b3bfed99d34b5ff6205db6a1d738a6f59b1edc16625a3de5e5df2337</t>
   </si>
   <si>
-    <t>HBfL816LHf3VpZrcAfyOzRiPPwNoQETFQTwAXgDAeTOoVXU4imlH+/1GVqIYciJuVz3KJ7HPh/bXP97WNf7KALg=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1oz4kExP5N4TYOiTVuwnMoSz9riylszfY/view</t>
+    <t>HBabTC2ygOQ+iqxIRo7A4uu6gllcQml5FLggMVySfR6Db60y77BToxgXwXmdwrHtoN1Gua5C8I7MgdjeDLZ8JCo=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Sofia_Golets_database_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Mykyta Tsyvinskyi</t>
   </si>
   <si>
-    <t>d329fb86a98533895cc9</t>
-  </si>
-  <si>
     <t>d329fb86a98533895cc967dcae966e81c1704bd665227e866aa2243d40f860d1</t>
   </si>
   <si>
-    <t>HG3H7R+gkuRp9N6o5Ijm+urqEpH5GKwGgnbrIw5DO/q1IBa3+SRVfqMD46yK58NnQbF6XUSh2wCBFAWCKnEk/wk=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1r9RFc-Cfn_lre3tPfKX-zorxPtLw_noU/view</t>
+    <t>HPq9RQ1vlbJ4N83dgUwLLBJcN4AFaUJYC8F8BVzxUkYDR6OqA/YcNOeiukloL3UmZXPkluIN4lwoBhMr6vEj8KA=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Mykyta_Tsyvinskyi_database_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>G+LRDlMfhyvZO7qLoCtZi3Y4Q1yC/VmYJUOF79rRwGAGH93HyPOn0ZUp6fjZE87K+JkhhSiBVl2Pf+AGfNu10RA=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Mykhailo_Sokolov_security_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>Cryptography and information security theory</t>
   </si>
   <si>
     <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
   </si>
   <si>
-    <t>HEGSakY7P9ct04aq9QqIGm12+oG6qgw/UjCyw/bCJDe5TDLmx2/vqiS1Kv6gXF+n02pCZg6/4G0aHU1U2TDtwJk=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1EK-6NYSaV0Ntux46eePx8GH14iwtqWMS/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1PP2qwG40ol3fz4QIYM36c5foc9l5Sjx9/view</t>
-  </si>
-  <si>
-    <t>fe991358b253a63cc425526996ae9a3d2bd45b2e21d0d2f1c778d4855f6c200e</t>
-  </si>
-  <si>
-    <t>Cryptography and information security theory</t>
-  </si>
-  <si>
-    <t>fe991358b253a63cc425</t>
-  </si>
-  <si>
     <t>73728940f6f168a46120d32081278e9c30ab81815077aa212a721480bcebc441</t>
   </si>
   <si>
-    <t>G0YUGo9Jy3jzaX+klou+j6jtTsWr5SxJPUgxK1lBTII8OhX2JYF17aSexYXaBn6if1XMcRpsGv23WSmiLmtE4dw=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/19_oiOxRYs9qbWyQLLSkqoFzVZ_gyYvb0/view</t>
-  </si>
-  <si>
-    <t>c0c2775e7fda788e20a2b166329d42cdf27c0e854dd0d31ee25eda06315aa887</t>
-  </si>
-  <si>
     <t>09.12.2022</t>
   </si>
   <si>
-    <t>c0c2775e7fda788e20a2</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Cdp_5cunWzbJI0ziE0v88kjWAn7SoMjE/view</t>
+    <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Mykhailo_Sokolov_database_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Kateryna Hordiienko</t>
   </si>
   <si>
-    <t>c2d70295e9cd94ea36fa</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Hgxrfu0fF0g3G7YP3mSmTTM_cOHj83Hc/view</t>
-  </si>
-  <si>
     <t>c2d70295e9cd94ea36fa993ddb5a6e20a0b88058287ff348b485f282fe98bcd7</t>
   </si>
   <si>
-    <t>HDMgVT215pBNC7aqYzg3FEN+3Lda4d4D/jJnrnRj8KcwL4TAvLPMXkbzYlXhrEEJTo6RF0xXTP/5dT21XQUKAW8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1hbuBgF_sruM8jdZyHez-rLBjPpKI0lWF/view</t>
+    <t>G+YE6/0P9zPNxZ1YU3AR+TXthT9PlF8Gx3dM9k7Y2cNIIrTalRdUgSTwwSMu/mcimZUsZLZ5l2puCtwVP6ll5kI=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Kateryna_Hordiienko_database_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Viacheslav_Horbanov_database_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>12.12.2022</t>
   </si>
   <si>
     <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
   </si>
   <si>
-    <t>HEY3G+/QZT6xPgdnQTopXPCrLjoCTuak3sjsZ8xTem/meS4SyiOhVvKSFyyGNI3Z+Gpvh0DN6WmWbCI3Ls2TmOQ=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/11HGPIJRpxTZcIGuAzUMqWWTBnnnHXWnm/view</t>
-  </si>
-  <si>
-    <t>12.12.2022</t>
-  </si>
-  <si>
-    <t>88bcbd41e52222447f67</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1XndT0lbMQrhnfqzB48l7VOx4Ua5uNQON/view</t>
-  </si>
-  <si>
-    <t>88bcbd41e52222447f67bf6c87d5bd88072dd64f06312b21901f5cfaf994aa53</t>
-  </si>
-  <si>
     <t>Yuliia Aritkulova</t>
   </si>
   <si>
-    <t>3647e3a8edf797d0107a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/13Z5IIadYJRVrddoVi1Cg2azzJUNFJOFk/view</t>
-  </si>
-  <si>
-    <t>3647e3a8edf797d0107aae1cc64cf6a7a6c1fde71d8089e698c724cf8592c46e</t>
-  </si>
-  <si>
     <t>dcc49868ac0482916b0fe63143198d93a159f912cae80d172fca6750a9b8223c</t>
   </si>
   <si>
-    <t>GxE4r78grmdptue/3pkebid0nWVY0U8+mag1ps/bYKKaajYxI1FpZfahOhigbl6KVG9O/MABeXistoJsdyWKQgE=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1gW289qMxZley8Wan4ayvZfzpeFJaybgC/view</t>
+    <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Yuliia_Aritkulova_database_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>Oleksandr Yevtushenko</t>
   </si>
   <si>
     <t>69469e3a141e8845c7809e75806677b732754cb64a3ab7e27ee50c47defaa7cd</t>
   </si>
   <si>
-    <t>GwXZ8Dc50Z3Sm0TdyPJxJEqsFkfk6st+ii21oNFrqJ5LWmWQ/O6zwLwZkMOiAV1g4RCYc5Mp2wsTFwTJLHcyCA8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1vLdZKMLYQXe4KZmiZtB2VeObgZ5zUxaZ/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1H16kVk9qT_1mjgYnBdVt1YFW4zjJfyJK/view</t>
-  </si>
-  <si>
-    <t>Oleksandr Yevtushenko</t>
-  </si>
-  <si>
-    <t>69469e3a141e8845c780</t>
-  </si>
-  <si>
-    <t>82294a3b62b68728cf69</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/13bBsLxWWlqCQeQM5GjWhH_vOpPtQKE_L/view</t>
+    <t>G9WI+TMiMLY1UW9rtOW0ycI21KtE3yOBTQ511sJbmfIXWvRQanASycY6fUpVGhO7iM8gyJxecc4xx2ytHX1VgzY=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Oleksandr_Yevtushenko_database_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Mariia_Mahdalina_database_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
   </si>
   <si>
     <t>Mariia Mahdalina</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1wgGvGkhkM28VjI5H5VfsNBEL19mwf-s8/view</t>
-  </si>
-  <si>
-    <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
-  </si>
-  <si>
-    <t>HAy3NsJAL40rd4H4IhjoeAgYMLt9M/i/3WyBnQvVdNRzMtGb3GLfQQC3kvpjEXM6esEHhalHVsh1pjY64jyS4A8=</t>
-  </si>
-  <si>
     <t>766041da4e35a4d0486d569831f14d1b0170e9b3c0d5f3a1ad71da7b4dd65a40</t>
   </si>
   <si>
-    <t>HEpYc/tbZ5T9f1eNNM5qqpLimkmSSyZ1XOjHiO/y9oQiBkSKJptMNZRIdMw6P9S7+kqxLnf3Auc6naIj3Q3fD2I=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1A6NROXTGcLmtMFUnzyZfXgaw9rYmYU-z/view</t>
-  </si>
-  <si>
-    <t>17e86d41103dadc488cf</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1wODAEWMU7od1Tgk2VcYCDHnfvaqZUHSH/view</t>
-  </si>
-  <si>
-    <t>17e86d41103dadc488cf14b66c43840cff39a0819c86f9e8a311491c1d136ed3</t>
+    <t>G6T2wslW9Mlopb7SNt9oGcOSZmjSMvsByzfIQBZfwVweUZ7U2Mi5N0BkW7xhpRFkMMCWlY1kHu4VefyQzGyK5dA=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Yehor_Podporinov_security_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>HJVKQ2Uj9PkXKh4aB7EUy+qqEtzziBAX7CaNWYTiFDyXIQ5w6CG1bIat2vs1GsmBD+r6z55FbUFJFdXz57+QgUc=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Anastasia_Andreeva_database_QR_codecreate.svg</t>
   </si>
   <si>
     <t>13.12.2022</t>
@@ -1798,100 +1711,106 @@
     <t>Anastasia Andreeva</t>
   </si>
   <si>
-    <t>b8204a738e7d7870dabd</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1s3gG1bTBD7v0e2zleB32VsF1XWQ-6In4/view</t>
-  </si>
-  <si>
     <t>b8204a738e7d7870dabd55671aca3a860dd89a35ef26e0842f271747331a2137</t>
   </si>
   <si>
-    <t>G01ZiDn6DW9nGMxyjbxJFQgSaDSh+2ZQ1hn+Kz9kc1B9dUmf8XBu/fV7HJaHqVmWKJu7r8rM5QSukHklKHRdOhc=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1iktY2bdJ6tFJHoKG7YgVHQHh-XU-J6Z2/view</t>
+    <t>G63Lq+BtAcEqpIZphPzrLfd1K4chy2llUoMMBLMQGk5gdyNM+62UvBxqqOxckVeN2RtGC1vCiL0NvWNvEPfV4YE=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Polina_Reshetnikova_database_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>Polina Reshetnikova</t>
   </si>
   <si>
     <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
   </si>
   <si>
-    <t>Gxg4VxeDpq7+yvgJ66Smu5J569Dc37b6emQFyd+QRSkQdQS96ckvCfBAN5vkQtgFlvTveG9sOTR+66ZUNYVRvKM=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1VjeyDVI6HeuvIazF3ZRSJTAK1Oj9jlmL/view</t>
-  </si>
-  <si>
-    <t>Polina Reshetnikova</t>
-  </si>
-  <si>
-    <t>a22e2a62f7ddf53dde55</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1zXQbyUbZFwa6mIeXIy0WqFLwEPC2TwBS/view</t>
-  </si>
-  <si>
-    <t>a22e2a62f7ddf53dde55920b983dcdade73723df80a6c57c5a15baac944b57f4</t>
-  </si>
-  <si>
     <t>93620030db08953cbf17468ffde46134834b7da10958b5174e935d4e324ce081</t>
   </si>
   <si>
     <t>HHbiD8H1z2fwCjgA0K/0GymJl4RcCi3wnehCfa72EOF+RwXPgmdTom5TH/IQ6e5AjmLndgB/4YfHFtdBTD1hpx0=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d//view</t>
+    <t>./qr/certificate_Valentyna_Lytvynova_database_QR_codecreate.svg</t>
   </si>
   <si>
     <t>HE5sTfhDSPPfvHdDSYkSvX2ZkktsyYMaoVxamHtpKMWoUxr7olw6SaItyMSztkPit37aQqfQ+YAsvCfZ01AcAwc=</t>
   </si>
   <si>
+    <t>./qr/certificate_Illia_Popov_security_QR_codecreate.svg</t>
+  </si>
+  <si>
     <t>b3240a1974bff838f35320554f851b14ea2bd31f46bcb893a35546b7ea8b3112</t>
   </si>
   <si>
     <t>b94492feb30efb7f94082666a936891a31a43de0e18af1aa8a110ef869532d93</t>
   </si>
   <si>
+    <t>14.12.2022</t>
+  </si>
+  <si>
     <t>G6+s7V2DHLaRMUYNOIA8N40KmelApLWT3iXHGYHXv0ZJIGVzGNez6R9Ai+af6Go130PTYDBGSDSN/q4KZdDYaqI=</t>
   </si>
   <si>
-    <t>14.12.2022</t>
+    <t>./qr/certificate_Yehor_Podporinov_database_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>151f4183ce68ec59b82ccbef71ac6f538e0eb86354c29ded27bca54fa4b95c99</t>
   </si>
   <si>
     <t>Pasha Charovatiy</t>
   </si>
   <si>
-    <t>151f4183ce68ec59b82ccbef71ac6f538e0eb86354c29ded27bca54fa4b95c99</t>
-  </si>
-  <si>
     <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
   </si>
   <si>
+    <t>./qr/certificate_Pasha_Charovatiy_database_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Dmytro_Serhiienko_database_QR_codecreate.svg</t>
+  </si>
+  <si>
     <t>Dmytro Serhiienko</t>
   </si>
   <si>
     <t>42bdd76bce3b85dabf4bdba92100db768bf64e72f2b3535930b69bef40aa3c4c</t>
   </si>
   <si>
-    <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y=</t>
+    <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Vladislav_Dmitrenko_security_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>Vladislav Dmitrenko</t>
   </si>
   <si>
     <t>890c4726435f6d5a1c10068273e8dd8a3ac0645a9564bbf149f0d74a891669c6</t>
   </si>
   <si>
-    <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8=</t>
-  </si>
-  <si>
-    <t>Vladislav Dmitrenko</t>
+    <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Marina_Rindina_security_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>Marina Rindina</t>
   </si>
   <si>
     <t>05f89d361327d9ef1679342cb8ed0488715da550cba8f0bdc7160caa43b5929c</t>
   </si>
   <si>
-    <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
-  </si>
-  <si>
-    <t>Marina Rindina</t>
+    <t>HL/mv02dnaeyvxsR9TyKJfqMl9lFEn1L8OidD6AzOq6SbieHRkQRPK29os5vKBwoJ5+Bf7RtfN9xUiVEOCASXj0=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Nazar_Franko_database_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>fec88d795aed9c59a04f91dedb06380fd764c753a54d6bdb96cea82b6ba05e29</t>
   </si>
   <si>
     <t>15.12.2022</t>
@@ -1900,18 +1819,15 @@
     <t>Nazar Franko</t>
   </si>
   <si>
-    <t>fec88d795aed9c59a04f91dedb06380fd764c753a54d6bdb96cea82b6ba05e29</t>
-  </si>
-  <si>
-    <t>HL/mv02dnaeyvxsR9TyKJfqMl9lFEn1L8OidD6AzOq6SbieHRkQRPK29os5vKBwoJ5+Bf7RtfN9xUiVEOCASXj0=</t>
+    <t>HErdMQ+2CPtlOJcP0I5vxghyuQmJVGZrrQr9SzMolPyHA1fUnzBjAbN7DzwkyP+y7M+dkiNCGOkNsY3YZaCO1XA=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Olha_Drahomeretska_database_QR_codecreate.svg</t>
   </si>
   <si>
     <t>9b293cc55ae62c9db4d9ce36cbc12b07e861f9c2cc1fdea2619f10ceca7aa779</t>
   </si>
   <si>
-    <t>HErdMQ+2CPtlOJcP0I5vxghyuQmJVGZrrQr9SzMolPyHA1fUnzBjAbN7DzwkyP+y7M+dkiNCGOkNsY3YZaCO1XA=</t>
-  </si>
-  <si>
     <t>Olha Drahomeretska</t>
   </si>
   <si>
@@ -1924,10 +1840,16 @@
     <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
   </si>
   <si>
+    <t>./qr/certificate_Maksym_Cherniak_security_QR_codecreate.svg</t>
+  </si>
+  <si>
     <t>3bf214d846d708bfad511d51d92350d45ba0bcf21f43b7bb46553ed2e0aad585</t>
   </si>
   <si>
     <t>HDfq7iIvfl/KNv5Cs/GPeiZndLZYqskpWWIXt7VX3LunRfVInSqJiTeO33MHHKI8aX3Zz4VgDh7LV5fAg/zZPZk=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Maksym_Cherniak__QR_codecreate.svg</t>
   </si>
 </sst>
 </file>
@@ -2239,66 +2161,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -2312,25 +2234,25 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -2338,31 +2260,31 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -2376,25 +2298,25 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -2408,25 +2330,25 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -2440,25 +2362,25 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -2472,25 +2394,25 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -2504,25 +2426,25 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -2536,25 +2458,25 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -2568,25 +2490,25 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -2600,25 +2522,25 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -2632,25 +2554,25 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2664,25 +2586,25 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2696,25 +2618,25 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2728,25 +2650,25 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2760,25 +2682,25 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2792,25 +2714,25 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
         <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -2824,62 +2746,62 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
@@ -2888,94 +2810,94 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
@@ -2984,62 +2906,62 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
@@ -3048,30 +2970,30 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
@@ -3080,377 +3002,377 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
         <v>62</v>
       </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>61</v>
-      </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
         <v>65</v>
       </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
-        <v>64</v>
-      </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
         <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
         <v>71</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
         <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -3461,28 +3383,28 @@
         <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
         <v>90</v>
       </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>91</v>
       </c>
-      <c r="G39" t="s">
-        <v>84</v>
-      </c>
       <c r="H39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" t="s">
         <v>87</v>
-      </c>
-      <c r="I39" t="s">
-        <v>85</v>
-      </c>
-      <c r="J39" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="40">
@@ -3493,22 +3415,22 @@
         <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
         <v>94</v>
       </c>
-      <c r="E40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>95</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>97</v>
-      </c>
-      <c r="H40" t="s">
-        <v>96</v>
       </c>
       <c r="I40" t="s">
         <v>98</v>
@@ -3519,60 +3441,60 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
         <v>107</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
         <v>103</v>
       </c>
-      <c r="C41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
         <v>104</v>
       </c>
-      <c r="E41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>105</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" t="s">
+        <v>101</v>
+      </c>
+      <c r="J41" t="s">
         <v>102</v>
-      </c>
-      <c r="H41" t="s">
-        <v>106</v>
-      </c>
-      <c r="I41" t="s">
-        <v>100</v>
-      </c>
-      <c r="J41" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
         <v>112</v>
       </c>
-      <c r="B42" t="s">
-        <v>113</v>
-      </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
       </c>
       <c r="G42" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" t="s">
         <v>108</v>
-      </c>
-      <c r="H42" t="s">
-        <v>111</v>
       </c>
       <c r="I42" t="s">
         <v>109</v>
@@ -3583,28 +3505,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
         <v>120</v>
       </c>
-      <c r="B43" t="s">
+      <c r="G43" t="s">
         <v>121</v>
       </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" t="s">
-        <v>118</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>115</v>
-      </c>
-      <c r="H43" t="s">
-        <v>119</v>
       </c>
       <c r="I43" t="s">
         <v>116</v>
@@ -3615,63 +3537,63 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G44" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H44" t="s">
         <v>124</v>
       </c>
       <c r="I44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H45" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45" t="s">
         <v>132</v>
-      </c>
-      <c r="I45" t="s">
-        <v>131</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -3679,34 +3601,34 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
         <v>137</v>
       </c>
-      <c r="B46" t="s">
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H46" t="s">
         <v>138</v>
       </c>
-      <c r="C46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="I46" t="s">
         <v>139</v>
       </c>
-      <c r="E46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" t="s">
-        <v>141</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
         <v>136</v>
-      </c>
-      <c r="I46" t="s">
-        <v>142</v>
-      </c>
-      <c r="J46" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="47">
@@ -3714,31 +3636,31 @@
         <v>148</v>
       </c>
       <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" t="s">
         <v>149</v>
-      </c>
-      <c r="C47" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" t="s">
-        <v>145</v>
       </c>
       <c r="F47" t="s">
         <v>146</v>
       </c>
       <c r="G47" t="s">
+        <v>147</v>
+      </c>
+      <c r="H47" t="s">
+        <v>150</v>
+      </c>
+      <c r="I47" t="s">
         <v>151</v>
       </c>
-      <c r="H47" t="s">
-        <v>147</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>152</v>
-      </c>
-      <c r="J47" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="48">
@@ -3749,118 +3671,118 @@
         <v>157</v>
       </c>
       <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" t="s">
+        <v>159</v>
+      </c>
+      <c r="H48" t="s">
         <v>150</v>
       </c>
-      <c r="D48" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" t="s">
-        <v>159</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
+        <v>155</v>
+      </c>
+      <c r="J48" t="s">
         <v>156</v>
-      </c>
-      <c r="H48" t="s">
-        <v>147</v>
-      </c>
-      <c r="I48" t="s">
-        <v>154</v>
-      </c>
-      <c r="J48" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49" t="s">
+        <v>163</v>
+      </c>
+      <c r="H49" t="s">
+        <v>150</v>
+      </c>
+      <c r="I49" t="s">
         <v>165</v>
       </c>
-      <c r="B49" t="s">
+      <c r="J49" t="s">
         <v>166</v>
-      </c>
-      <c r="C49" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49" t="s">
-        <v>145</v>
-      </c>
-      <c r="F49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G49" t="s">
-        <v>161</v>
-      </c>
-      <c r="H49" t="s">
-        <v>147</v>
-      </c>
-      <c r="I49" t="s">
-        <v>162</v>
-      </c>
-      <c r="J49" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H50" t="s">
         <v>168</v>
       </c>
       <c r="I50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F51" t="s">
         <v>175</v>
       </c>
       <c r="G51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H51" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I51" t="s">
         <v>178</v>
@@ -3871,156 +3793,156 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" t="s">
+        <v>184</v>
+      </c>
+      <c r="G52" t="s">
+        <v>185</v>
+      </c>
+      <c r="H52" t="s">
+        <v>150</v>
+      </c>
+      <c r="I52" t="s">
         <v>181</v>
       </c>
-      <c r="C52" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="J52" t="s">
         <v>182</v>
-      </c>
-      <c r="E52" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" t="s">
-        <v>180</v>
-      </c>
-      <c r="G52" t="s">
-        <v>183</v>
-      </c>
-      <c r="H52" t="s">
-        <v>147</v>
-      </c>
-      <c r="I52" t="s">
-        <v>184</v>
-      </c>
-      <c r="J52" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" t="s">
+        <v>149</v>
+      </c>
+      <c r="F53" t="s">
         <v>189</v>
       </c>
-      <c r="C53" t="s">
+      <c r="G53" t="s">
+        <v>190</v>
+      </c>
+      <c r="H53" t="s">
         <v>150</v>
       </c>
-      <c r="D53" t="s">
-        <v>190</v>
-      </c>
-      <c r="E53" t="s">
-        <v>145</v>
-      </c>
-      <c r="F53" t="s">
-        <v>191</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="I53" t="s">
         <v>186</v>
       </c>
-      <c r="H53" t="s">
-        <v>147</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>187</v>
-      </c>
-      <c r="J53" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" t="s">
+        <v>192</v>
+      </c>
+      <c r="G54" t="s">
+        <v>193</v>
+      </c>
+      <c r="H54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" t="s">
         <v>195</v>
       </c>
-      <c r="C54" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="J54" t="s">
         <v>196</v>
-      </c>
-      <c r="E54" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" t="s">
-        <v>197</v>
-      </c>
-      <c r="G54" t="s">
-        <v>194</v>
-      </c>
-      <c r="H54" t="s">
-        <v>147</v>
-      </c>
-      <c r="I54" t="s">
-        <v>192</v>
-      </c>
-      <c r="J54" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" t="s">
         <v>201</v>
       </c>
-      <c r="C55" t="s">
+      <c r="G55" t="s">
+        <v>202</v>
+      </c>
+      <c r="H55" t="s">
         <v>150</v>
       </c>
-      <c r="D55" t="s">
-        <v>202</v>
-      </c>
-      <c r="E55" t="s">
-        <v>145</v>
-      </c>
-      <c r="F55" t="s">
-        <v>203</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
         <v>198</v>
       </c>
-      <c r="H55" t="s">
-        <v>147</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>199</v>
-      </c>
-      <c r="J55" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
         <v>204</v>
       </c>
       <c r="C56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" t="s">
+        <v>205</v>
+      </c>
+      <c r="G56" t="s">
+        <v>206</v>
+      </c>
+      <c r="H56" t="s">
         <v>150</v>
-      </c>
-      <c r="D56" t="s">
-        <v>205</v>
-      </c>
-      <c r="E56" t="s">
-        <v>145</v>
-      </c>
-      <c r="F56" t="s">
-        <v>206</v>
-      </c>
-      <c r="G56" t="s">
-        <v>207</v>
-      </c>
-      <c r="H56" t="s">
-        <v>147</v>
       </c>
       <c r="I56" t="s">
         <v>208</v>
@@ -4031,162 +3953,162 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" t="s">
+        <v>162</v>
+      </c>
+      <c r="G57" t="s">
+        <v>163</v>
+      </c>
+      <c r="H57" t="s">
+        <v>150</v>
+      </c>
+      <c r="I57" t="s">
         <v>165</v>
       </c>
-      <c r="B57" t="s">
+      <c r="J57" t="s">
         <v>166</v>
-      </c>
-      <c r="C57" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" t="s">
-        <v>163</v>
-      </c>
-      <c r="E57" t="s">
-        <v>145</v>
-      </c>
-      <c r="F57" t="s">
-        <v>164</v>
-      </c>
-      <c r="G57" t="s">
-        <v>161</v>
-      </c>
-      <c r="H57" t="s">
-        <v>147</v>
-      </c>
-      <c r="I57" t="s">
-        <v>162</v>
-      </c>
-      <c r="J57" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
         <v>212</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F58" t="s">
+        <v>213</v>
+      </c>
+      <c r="G58" t="s">
+        <v>214</v>
+      </c>
+      <c r="H58" t="s">
+        <v>150</v>
+      </c>
+      <c r="I58" t="s">
         <v>210</v>
       </c>
-      <c r="G58" t="s">
-        <v>213</v>
-      </c>
-      <c r="H58" t="s">
-        <v>147</v>
-      </c>
-      <c r="I58" t="s">
-        <v>214</v>
-      </c>
       <c r="J58" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B59" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>223</v>
+      </c>
+      <c r="G59" t="s">
         <v>220</v>
-      </c>
-      <c r="C59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" t="s">
-        <v>216</v>
-      </c>
-      <c r="E59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" t="s">
-        <v>217</v>
-      </c>
-      <c r="G59" t="s">
-        <v>221</v>
       </c>
       <c r="H59" t="s">
         <v>218</v>
       </c>
       <c r="I59" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J59" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>230</v>
+      </c>
+      <c r="G60" t="s">
+        <v>231</v>
+      </c>
+      <c r="H60" t="s">
         <v>225</v>
       </c>
-      <c r="B60" t="s">
+      <c r="I60" t="s">
         <v>226</v>
       </c>
-      <c r="C60" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="J60" t="s">
         <v>227</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" t="s">
-        <v>228</v>
-      </c>
-      <c r="G60" t="s">
-        <v>229</v>
-      </c>
-      <c r="H60" t="s">
-        <v>224</v>
-      </c>
-      <c r="I60" t="s">
-        <v>230</v>
-      </c>
-      <c r="J60" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B61" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F61" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G61" t="s">
         <v>237</v>
       </c>
       <c r="H61" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I61" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J61" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62">
@@ -4197,188 +4119,188 @@
         <v>241</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
         <v>238</v>
       </c>
       <c r="G62" t="s">
+        <v>239</v>
+      </c>
+      <c r="H62" t="s">
+        <v>242</v>
+      </c>
+      <c r="I62" t="s">
         <v>243</v>
       </c>
-      <c r="H62" t="s">
-        <v>239</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>244</v>
-      </c>
-      <c r="J62" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" t="s">
         <v>252</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" t="s">
+        <v>247</v>
+      </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
         <v>253</v>
       </c>
-      <c r="C63" t="s">
-        <v>150</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="G63" t="s">
+        <v>250</v>
+      </c>
+      <c r="H63" t="s">
+        <v>248</v>
+      </c>
+      <c r="I63" t="s">
         <v>249</v>
       </c>
-      <c r="E63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" t="s">
-        <v>250</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="J63" t="s">
         <v>246</v>
-      </c>
-      <c r="H63" t="s">
-        <v>251</v>
-      </c>
-      <c r="I63" t="s">
-        <v>247</v>
-      </c>
-      <c r="J63" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" t="s">
         <v>257</v>
       </c>
-      <c r="B64" t="s">
-        <v>258</v>
-      </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H64" t="s">
         <v>261</v>
       </c>
       <c r="I64" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="J64" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D65" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G65" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H65" t="s">
         <v>268</v>
       </c>
       <c r="I65" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J65" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>269</v>
+      </c>
+      <c r="B66" t="s">
+        <v>270</v>
+      </c>
+      <c r="C66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>271</v>
+      </c>
+      <c r="G66" t="s">
         <v>272</v>
       </c>
-      <c r="B66" t="s">
-        <v>273</v>
-      </c>
-      <c r="C66" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="H66" t="s">
         <v>274</v>
       </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
         <v>275</v>
       </c>
-      <c r="G66" t="s">
-        <v>269</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="J66" t="s">
         <v>276</v>
-      </c>
-      <c r="I66" t="s">
-        <v>270</v>
-      </c>
-      <c r="J66" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B67" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D67" t="s">
         <v>277</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
+        <v>282</v>
+      </c>
+      <c r="G67" t="s">
+        <v>283</v>
+      </c>
+      <c r="H67" t="s">
         <v>278</v>
       </c>
-      <c r="G67" t="s">
-        <v>282</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>279</v>
       </c>
-      <c r="I67" t="s">
-        <v>283</v>
-      </c>
       <c r="J67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68">
@@ -4389,22 +4311,22 @@
         <v>285</v>
       </c>
       <c r="C68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" t="s">
+        <v>288</v>
+      </c>
+      <c r="E68" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68" t="s">
+        <v>286</v>
+      </c>
+      <c r="G68" t="s">
+        <v>287</v>
+      </c>
+      <c r="H68" t="s">
         <v>150</v>
-      </c>
-      <c r="D68" t="s">
-        <v>286</v>
-      </c>
-      <c r="E68" t="s">
-        <v>145</v>
-      </c>
-      <c r="F68" t="s">
-        <v>287</v>
-      </c>
-      <c r="G68" t="s">
-        <v>288</v>
-      </c>
-      <c r="H68" t="s">
-        <v>147</v>
       </c>
       <c r="I68" t="s">
         <v>289</v>
@@ -4415,610 +4337,610 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>291</v>
+      </c>
+      <c r="B69" t="s">
+        <v>292</v>
+      </c>
+      <c r="C69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" t="s">
+        <v>295</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>293</v>
+      </c>
+      <c r="G69" t="s">
         <v>294</v>
       </c>
-      <c r="B69" t="s">
-        <v>295</v>
-      </c>
-      <c r="C69" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="H69" t="s">
         <v>296</v>
       </c>
-      <c r="E69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="I69" t="s">
         <v>297</v>
       </c>
-      <c r="G69" t="s">
-        <v>291</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="J69" t="s">
         <v>298</v>
-      </c>
-      <c r="I69" t="s">
-        <v>292</v>
-      </c>
-      <c r="J69" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B70" t="s">
+        <v>299</v>
+      </c>
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" t="s">
+        <v>302</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>300</v>
+      </c>
+      <c r="G70" t="s">
+        <v>301</v>
+      </c>
+      <c r="H70" t="s">
         <v>303</v>
       </c>
-      <c r="C70" t="s">
-        <v>150</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="I70" t="s">
         <v>304</v>
       </c>
-      <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="J70" t="s">
         <v>305</v>
-      </c>
-      <c r="G70" t="s">
-        <v>299</v>
-      </c>
-      <c r="H70" t="s">
-        <v>302</v>
-      </c>
-      <c r="I70" t="s">
-        <v>300</v>
-      </c>
-      <c r="J70" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B71" t="s">
+        <v>312</v>
+      </c>
+      <c r="C71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" t="s">
         <v>308</v>
       </c>
-      <c r="C71" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>310</v>
+      </c>
+      <c r="G71" t="s">
+        <v>311</v>
+      </c>
+      <c r="H71" t="s">
         <v>309</v>
       </c>
-      <c r="E71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="I71" t="s">
         <v>306</v>
       </c>
-      <c r="G71" t="s">
-        <v>310</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="J71" t="s">
         <v>307</v>
-      </c>
-      <c r="I71" t="s">
-        <v>311</v>
-      </c>
-      <c r="J71" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s">
+        <v>313</v>
+      </c>
+      <c r="C72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" t="s">
         <v>316</v>
       </c>
-      <c r="C72" t="s">
-        <v>150</v>
-      </c>
-      <c r="D72" t="s">
-        <v>317</v>
-      </c>
       <c r="E72" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F72" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G72" t="s">
         <v>315</v>
       </c>
       <c r="H72" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I72" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="J72" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>319</v>
+      </c>
+      <c r="B73" t="s">
+        <v>320</v>
+      </c>
+      <c r="C73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" t="s">
+        <v>323</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>321</v>
+      </c>
+      <c r="G73" t="s">
+        <v>322</v>
+      </c>
+      <c r="H73" t="s">
         <v>324</v>
       </c>
-      <c r="B73" t="s">
+      <c r="I73" t="s">
         <v>325</v>
       </c>
-      <c r="C73" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="J73" t="s">
         <v>326</v>
-      </c>
-      <c r="E73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" t="s">
-        <v>322</v>
-      </c>
-      <c r="G73" t="s">
-        <v>319</v>
-      </c>
-      <c r="H73" t="s">
-        <v>323</v>
-      </c>
-      <c r="I73" t="s">
-        <v>320</v>
-      </c>
-      <c r="J73" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B74" t="s">
         <v>329</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F74" t="s">
         <v>327</v>
       </c>
       <c r="G74" t="s">
+        <v>328</v>
+      </c>
+      <c r="H74" t="s">
+        <v>333</v>
+      </c>
+      <c r="I74" t="s">
+        <v>330</v>
+      </c>
+      <c r="J74" t="s">
         <v>331</v>
-      </c>
-      <c r="H74" t="s">
-        <v>328</v>
-      </c>
-      <c r="I74" t="s">
-        <v>332</v>
-      </c>
-      <c r="J74" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>334</v>
+      </c>
+      <c r="B75" t="s">
+        <v>335</v>
+      </c>
+      <c r="C75" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" t="s">
         <v>338</v>
       </c>
-      <c r="B75" t="s">
-        <v>334</v>
-      </c>
-      <c r="C75" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" t="s">
-        <v>335</v>
-      </c>
       <c r="E75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F75" t="s">
         <v>336</v>
       </c>
       <c r="G75" t="s">
+        <v>337</v>
+      </c>
+      <c r="H75" t="s">
+        <v>339</v>
+      </c>
+      <c r="I75" t="s">
+        <v>340</v>
+      </c>
+      <c r="J75" t="s">
         <v>341</v>
-      </c>
-      <c r="H75" t="s">
-        <v>337</v>
-      </c>
-      <c r="I75" t="s">
-        <v>339</v>
-      </c>
-      <c r="J75" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D76" t="s">
         <v>345</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
+        <v>343</v>
+      </c>
+      <c r="G76" t="s">
+        <v>344</v>
+      </c>
+      <c r="H76" t="s">
+        <v>150</v>
+      </c>
+      <c r="I76" t="s">
         <v>346</v>
       </c>
-      <c r="G76" t="s">
-        <v>342</v>
-      </c>
-      <c r="H76" t="s">
-        <v>147</v>
-      </c>
-      <c r="I76" t="s">
-        <v>343</v>
-      </c>
       <c r="J76" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B77" t="s">
+        <v>350</v>
+      </c>
+      <c r="C77" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" t="s">
+        <v>353</v>
+      </c>
+      <c r="E77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F77" t="s">
+        <v>348</v>
+      </c>
+      <c r="G77" t="s">
+        <v>349</v>
+      </c>
+      <c r="H77" t="s">
+        <v>150</v>
+      </c>
+      <c r="I77" t="s">
         <v>351</v>
       </c>
-      <c r="C77" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="J77" t="s">
         <v>352</v>
-      </c>
-      <c r="E77" t="s">
-        <v>145</v>
-      </c>
-      <c r="F77" t="s">
-        <v>353</v>
-      </c>
-      <c r="G77" t="s">
-        <v>348</v>
-      </c>
-      <c r="H77" t="s">
-        <v>147</v>
-      </c>
-      <c r="I77" t="s">
-        <v>349</v>
-      </c>
-      <c r="J77" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>354</v>
+      </c>
+      <c r="B78" t="s">
+        <v>355</v>
+      </c>
+      <c r="C78" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" t="s">
+        <v>358</v>
+      </c>
+      <c r="E78" t="s">
+        <v>149</v>
+      </c>
+      <c r="F78" t="s">
+        <v>356</v>
+      </c>
+      <c r="G78" t="s">
         <v>357</v>
       </c>
-      <c r="B78" t="s">
-        <v>358</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="H78" t="s">
         <v>150</v>
       </c>
-      <c r="D78" t="s">
+      <c r="I78" t="s">
         <v>359</v>
       </c>
-      <c r="E78" t="s">
-        <v>145</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="J78" t="s">
         <v>360</v>
-      </c>
-      <c r="G78" t="s">
-        <v>354</v>
-      </c>
-      <c r="H78" t="s">
-        <v>147</v>
-      </c>
-      <c r="I78" t="s">
-        <v>355</v>
-      </c>
-      <c r="J78" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B79" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D79" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G79" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H79" t="s">
         <v>362</v>
       </c>
       <c r="I79" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J79" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B80" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C80" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D80" t="s">
         <v>368</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F80" t="s">
+        <v>373</v>
+      </c>
+      <c r="G80" t="s">
+        <v>374</v>
+      </c>
+      <c r="H80" t="s">
         <v>369</v>
       </c>
-      <c r="G80" t="s">
-        <v>372</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>370</v>
       </c>
-      <c r="I80" t="s">
-        <v>373</v>
-      </c>
       <c r="J80" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B81" t="s">
+        <v>379</v>
+      </c>
+      <c r="C81" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" t="s">
         <v>375</v>
       </c>
-      <c r="C81" t="s">
-        <v>150</v>
-      </c>
-      <c r="D81" t="s">
-        <v>376</v>
-      </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G81" t="s">
         <v>381</v>
       </c>
       <c r="H81" t="s">
+        <v>376</v>
+      </c>
+      <c r="I81" t="s">
+        <v>377</v>
+      </c>
+      <c r="J81" t="s">
         <v>378</v>
-      </c>
-      <c r="I81" t="s">
-        <v>379</v>
-      </c>
-      <c r="J81" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>386</v>
+      </c>
+      <c r="B82" t="s">
+        <v>387</v>
+      </c>
+      <c r="C82" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" t="s">
+        <v>382</v>
+      </c>
+      <c r="E82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" t="s">
+        <v>388</v>
+      </c>
+      <c r="G82" t="s">
+        <v>389</v>
+      </c>
+      <c r="H82" t="s">
         <v>383</v>
       </c>
-      <c r="B82" t="s">
+      <c r="I82" t="s">
         <v>384</v>
       </c>
-      <c r="C82" t="s">
-        <v>150</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="J82" t="s">
         <v>385</v>
-      </c>
-      <c r="E82" t="s">
-        <v>20</v>
-      </c>
-      <c r="F82" t="s">
-        <v>386</v>
-      </c>
-      <c r="G82" t="s">
-        <v>387</v>
-      </c>
-      <c r="H82" t="s">
-        <v>382</v>
-      </c>
-      <c r="I82" t="s">
-        <v>388</v>
-      </c>
-      <c r="J82" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B83" t="s">
+        <v>392</v>
+      </c>
+      <c r="C83" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" t="s">
+        <v>396</v>
+      </c>
+      <c r="E83" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" t="s">
+        <v>390</v>
+      </c>
+      <c r="G83" t="s">
+        <v>391</v>
+      </c>
+      <c r="H83" t="s">
         <v>393</v>
       </c>
-      <c r="C83" t="s">
-        <v>150</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="I83" t="s">
         <v>394</v>
       </c>
-      <c r="E83" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="J83" t="s">
         <v>395</v>
-      </c>
-      <c r="G83" t="s">
-        <v>392</v>
-      </c>
-      <c r="H83" t="s">
-        <v>396</v>
-      </c>
-      <c r="I83" t="s">
-        <v>390</v>
-      </c>
-      <c r="J83" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B84" t="s">
+        <v>397</v>
+      </c>
+      <c r="C84" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84" t="s">
         <v>400</v>
       </c>
-      <c r="C84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D84" t="s">
-        <v>401</v>
-      </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G84" t="s">
         <v>399</v>
       </c>
       <c r="H84" t="s">
+        <v>401</v>
+      </c>
+      <c r="I84" t="s">
+        <v>402</v>
+      </c>
+      <c r="J84" t="s">
         <v>403</v>
-      </c>
-      <c r="I84" t="s">
-        <v>397</v>
-      </c>
-      <c r="J84" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B85" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D85" t="s">
         <v>404</v>
       </c>
       <c r="E85" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F85" t="s">
+        <v>409</v>
+      </c>
+      <c r="G85" t="s">
+        <v>410</v>
+      </c>
+      <c r="H85" t="s">
+        <v>150</v>
+      </c>
+      <c r="I85" t="s">
         <v>405</v>
       </c>
-      <c r="G85" t="s">
-        <v>408</v>
-      </c>
-      <c r="H85" t="s">
-        <v>147</v>
-      </c>
-      <c r="I85" t="s">
-        <v>409</v>
-      </c>
       <c r="J85" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B86" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D86" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
         <v>413</v>
       </c>
       <c r="G86" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H86" t="s">
+        <v>416</v>
+      </c>
+      <c r="I86" t="s">
+        <v>417</v>
+      </c>
+      <c r="J86" t="s">
         <v>414</v>
-      </c>
-      <c r="I86" t="s">
-        <v>416</v>
-      </c>
-      <c r="J86" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B87" t="s">
+        <v>423</v>
+      </c>
+      <c r="C87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" t="s">
+        <v>420</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>421</v>
+      </c>
+      <c r="G87" t="s">
+        <v>422</v>
+      </c>
+      <c r="H87" t="s">
         <v>418</v>
       </c>
-      <c r="C87" t="s">
-        <v>150</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="I87" t="s">
+        <v>417</v>
+      </c>
+      <c r="J87" t="s">
         <v>419</v>
-      </c>
-      <c r="E87" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" t="s">
-        <v>420</v>
-      </c>
-      <c r="G87" t="s">
-        <v>423</v>
-      </c>
-      <c r="H87" t="s">
-        <v>421</v>
-      </c>
-      <c r="I87" t="s">
-        <v>416</v>
-      </c>
-      <c r="J87" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="88">
@@ -5029,28 +4951,28 @@
         <v>429</v>
       </c>
       <c r="C88" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D88" t="s">
+        <v>424</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
         <v>430</v>
       </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>431</v>
       </c>
-      <c r="G88" t="s">
-        <v>424</v>
-      </c>
       <c r="H88" t="s">
+        <v>425</v>
+      </c>
+      <c r="I88" t="s">
+        <v>426</v>
+      </c>
+      <c r="J88" t="s">
         <v>427</v>
-      </c>
-      <c r="I88" t="s">
-        <v>425</v>
-      </c>
-      <c r="J88" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="89">
@@ -5058,319 +4980,319 @@
         <v>428</v>
       </c>
       <c r="B89" t="s">
+        <v>436</v>
+      </c>
+      <c r="C89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" t="s">
+        <v>432</v>
+      </c>
+      <c r="E89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" t="s">
         <v>437</v>
       </c>
-      <c r="C89" t="s">
-        <v>150</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="G89" t="s">
         <v>438</v>
       </c>
-      <c r="E89" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="H89" t="s">
+        <v>433</v>
+      </c>
+      <c r="I89" t="s">
+        <v>434</v>
+      </c>
+      <c r="J89" t="s">
         <v>435</v>
-      </c>
-      <c r="G89" t="s">
-        <v>432</v>
-      </c>
-      <c r="H89" t="s">
-        <v>436</v>
-      </c>
-      <c r="I89" t="s">
-        <v>433</v>
-      </c>
-      <c r="J89" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B90" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C90" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D90" t="s">
+        <v>443</v>
+      </c>
+      <c r="E90" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" t="s">
+        <v>441</v>
+      </c>
+      <c r="G90" t="s">
         <v>442</v>
-      </c>
-      <c r="E90" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" t="s">
-        <v>443</v>
-      </c>
-      <c r="G90" t="s">
-        <v>439</v>
       </c>
       <c r="H90" t="s">
         <v>444</v>
       </c>
       <c r="I90" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="J90" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>448</v>
+      </c>
+      <c r="B91" t="s">
+        <v>449</v>
+      </c>
+      <c r="C91" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" t="s">
+        <v>452</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
         <v>450</v>
       </c>
-      <c r="B91" t="s">
-        <v>451</v>
-      </c>
-      <c r="C91" t="s">
-        <v>150</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="G91" t="s">
         <v>447</v>
       </c>
-      <c r="E91" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" t="s">
-        <v>448</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>453</v>
-      </c>
-      <c r="H91" t="s">
-        <v>449</v>
       </c>
       <c r="I91" t="s">
         <v>454</v>
       </c>
       <c r="J91" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B92" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C92" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D92" t="s">
         <v>458</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
+        <v>460</v>
+      </c>
+      <c r="G92" t="s">
+        <v>461</v>
+      </c>
+      <c r="H92" t="s">
         <v>455</v>
       </c>
-      <c r="G92" t="s">
-        <v>459</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>456</v>
       </c>
-      <c r="I92" t="s">
-        <v>460</v>
-      </c>
       <c r="J92" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B93" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D93" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E93" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F93" t="s">
         <v>462</v>
       </c>
       <c r="G93" t="s">
+        <v>463</v>
+      </c>
+      <c r="H93" t="s">
+        <v>150</v>
+      </c>
+      <c r="I93" t="s">
         <v>466</v>
       </c>
-      <c r="H93" t="s">
-        <v>147</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>467</v>
-      </c>
-      <c r="J93" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B94" t="s">
+        <v>473</v>
+      </c>
+      <c r="C94" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" t="s">
+        <v>469</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
         <v>474</v>
       </c>
-      <c r="C94" t="s">
-        <v>150</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="G94" t="s">
         <v>475</v>
       </c>
-      <c r="E94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="H94" t="s">
+        <v>470</v>
+      </c>
+      <c r="I94" t="s">
+        <v>471</v>
+      </c>
+      <c r="J94" t="s">
         <v>472</v>
-      </c>
-      <c r="G94" t="s">
-        <v>469</v>
-      </c>
-      <c r="H94" t="s">
-        <v>473</v>
-      </c>
-      <c r="I94" t="s">
-        <v>470</v>
-      </c>
-      <c r="J94" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>480</v>
+      </c>
+      <c r="B95" t="s">
+        <v>481</v>
+      </c>
+      <c r="C95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" t="s">
+        <v>477</v>
+      </c>
+      <c r="E95" t="s">
+        <v>149</v>
+      </c>
+      <c r="F95" t="s">
         <v>482</v>
       </c>
-      <c r="B95" t="s">
+      <c r="G95" t="s">
         <v>479</v>
       </c>
-      <c r="C95" t="s">
+      <c r="H95" t="s">
         <v>150</v>
       </c>
-      <c r="D95" t="s">
-        <v>480</v>
-      </c>
-      <c r="E95" t="s">
-        <v>145</v>
-      </c>
-      <c r="F95" t="s">
-        <v>481</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="I95" t="s">
         <v>478</v>
       </c>
-      <c r="H95" t="s">
-        <v>147</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>476</v>
-      </c>
-      <c r="J95" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B96" t="s">
+        <v>483</v>
+      </c>
+      <c r="C96" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" t="s">
+        <v>489</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
         <v>484</v>
       </c>
-      <c r="C96" t="s">
-        <v>150</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="G96" t="s">
         <v>485</v>
       </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="H96" t="s">
         <v>486</v>
       </c>
-      <c r="G96" t="s">
+      <c r="I96" t="s">
         <v>487</v>
       </c>
-      <c r="H96" t="s">
-        <v>483</v>
-      </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>488</v>
-      </c>
-      <c r="J96" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B97" t="s">
+        <v>490</v>
+      </c>
+      <c r="C97" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" t="s">
         <v>493</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
+        <v>149</v>
+      </c>
+      <c r="F97" t="s">
+        <v>491</v>
+      </c>
+      <c r="G97" t="s">
+        <v>492</v>
+      </c>
+      <c r="H97" t="s">
         <v>150</v>
       </c>
-      <c r="D97" t="s">
+      <c r="I97" t="s">
         <v>494</v>
       </c>
-      <c r="E97" t="s">
-        <v>145</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="J97" t="s">
         <v>495</v>
-      </c>
-      <c r="G97" t="s">
-        <v>490</v>
-      </c>
-      <c r="H97" t="s">
-        <v>147</v>
-      </c>
-      <c r="I97" t="s">
-        <v>491</v>
-      </c>
-      <c r="J97" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>502</v>
+      </c>
+      <c r="B98" t="s">
+        <v>503</v>
+      </c>
+      <c r="C98" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" t="s">
+        <v>498</v>
+      </c>
+      <c r="E98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" t="s">
         <v>500</v>
       </c>
-      <c r="B98" t="s">
-        <v>496</v>
-      </c>
-      <c r="C98" t="s">
-        <v>150</v>
-      </c>
-      <c r="D98" t="s">
-        <v>497</v>
-      </c>
-      <c r="E98" t="s">
-        <v>20</v>
-      </c>
-      <c r="F98" t="s">
-        <v>498</v>
-      </c>
       <c r="G98" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H98" t="s">
         <v>499</v>
       </c>
       <c r="I98" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J98" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="99">
@@ -5384,790 +5306,790 @@
         <v>508</v>
       </c>
       <c r="D99" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F99" t="s">
         <v>504</v>
       </c>
       <c r="G99" t="s">
+        <v>505</v>
+      </c>
+      <c r="H99" t="s">
+        <v>512</v>
+      </c>
+      <c r="I99" t="s">
+        <v>509</v>
+      </c>
+      <c r="J99" t="s">
         <v>510</v>
-      </c>
-      <c r="H99" t="s">
-        <v>505</v>
-      </c>
-      <c r="I99" t="s">
-        <v>511</v>
-      </c>
-      <c r="J99" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B100" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C100" t="s">
         <v>508</v>
       </c>
       <c r="D100" t="s">
-        <v>516</v>
+        <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
-        <v>517</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
+        <v>515</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>513</v>
+      </c>
+      <c r="J100" t="s">
         <v>514</v>
-      </c>
-      <c r="H100" t="s">
-        <v>518</v>
-      </c>
-      <c r="I100" t="s">
-        <v>515</v>
-      </c>
-      <c r="J100" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B101" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C101" t="s">
         <v>508</v>
       </c>
       <c r="D101" t="s">
-        <v>521</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>522</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H101" t="s">
-        <v>523</v>
+        <v>13</v>
       </c>
       <c r="I101" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="J101" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B102" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C102" t="s">
         <v>508</v>
       </c>
       <c r="D102" t="s">
-        <v>531</v>
+        <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>528</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="H102" t="s">
-        <v>529</v>
+        <v>13</v>
       </c>
       <c r="I102" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="J102" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B103" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C103" t="s">
         <v>508</v>
       </c>
       <c r="D103" t="s">
-        <v>536</v>
+        <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="H103" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="I103" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="J103" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B104" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C104" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="D104" t="s">
-        <v>546</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>543</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="H104" t="s">
-        <v>544</v>
+        <v>13</v>
       </c>
       <c r="I104" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="J104" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B105" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C105" t="s">
         <v>508</v>
       </c>
       <c r="D105" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F105" t="s">
-        <v>553</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="H105" t="s">
-        <v>550</v>
+        <v>13</v>
       </c>
       <c r="I105" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="J105" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B106" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="C106" t="s">
         <v>508</v>
       </c>
       <c r="D106" t="s">
-        <v>555</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="F106" t="s">
-        <v>556</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="H106" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="I106" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="J106" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="B107" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C107" t="s">
         <v>508</v>
       </c>
       <c r="D107" t="s">
-        <v>564</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>565</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="H107" t="s">
-        <v>566</v>
+        <v>13</v>
       </c>
       <c r="I107" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="J107" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="B108" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="C108" t="s">
         <v>508</v>
       </c>
       <c r="D108" t="s">
-        <v>568</v>
+        <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F108" t="s">
-        <v>569</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="H108" t="s">
-        <v>570</v>
+        <v>13</v>
       </c>
       <c r="I108" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="J108" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="B109" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="C109" t="s">
         <v>508</v>
       </c>
       <c r="D109" t="s">
-        <v>579</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>577</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="H109" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="I109" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="J109" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="B110" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="C110" t="s">
         <v>508</v>
       </c>
       <c r="D110" t="s">
-        <v>580</v>
+        <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>581</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="I110" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="J110" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="B111" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C111" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="D111" t="s">
-        <v>589</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>590</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="H111" t="s">
-        <v>591</v>
+        <v>13</v>
       </c>
       <c r="I111" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="J111" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="B112" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="C112" t="s">
         <v>508</v>
       </c>
       <c r="D112" t="s">
-        <v>594</v>
+        <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>595</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="H112" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="I112" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="J112" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="B113" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="C113" t="s">
         <v>508</v>
       </c>
       <c r="D113" t="s">
-        <v>603</v>
+        <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F113" t="s">
-        <v>604</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="H113" t="s">
-        <v>605</v>
+        <v>13</v>
       </c>
       <c r="I113" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="J113" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="B114" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C114" t="s">
         <v>508</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F114" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="H114" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I114" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="J114" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="B115" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C115" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>610</v>
+        <v>575</v>
       </c>
       <c r="H115" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I115" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
       <c r="J115" t="s">
-        <v>608</v>
+        <v>574</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="B116" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C116" t="s">
         <v>508</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F116" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="H116" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I116" t="s">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="J116" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="B117" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="C117" t="s">
         <v>508</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="H117" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I117" t="s">
-        <v>616</v>
+        <v>582</v>
       </c>
       <c r="J117" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="B118" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
       <c r="C118" t="s">
         <v>508</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>618</v>
+        <v>587</v>
       </c>
       <c r="H118" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I118" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
       <c r="J118" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="B119" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="C119" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F119" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="H119" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I119" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="J119" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="B120" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="C120" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F120" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>623</v>
+        <v>595</v>
       </c>
       <c r="H120" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I120" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="J120" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="B121" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="C121" t="s">
         <v>508</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
       <c r="H121" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I121" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="J121" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="B122" t="s">
-        <v>632</v>
+        <v>604</v>
       </c>
       <c r="C122" t="s">
         <v>508</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="H122" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I122" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
       <c r="J122" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="B123" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
       <c r="C123" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F123" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="H123" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I123" t="s">
-        <v>635</v>
+        <v>607</v>
       </c>
       <c r="J123" t="s">
         <v>608</v>
@@ -6175,34 +6097,34 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="B124" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
       <c r="C124" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F124" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="H124" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I124" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="J124" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,148 +1,147 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="612">
-  <si>
-    <t>TRANSACTION HASH</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="613">
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COURSE TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERIAL NUMBER</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>CERTIFICATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA HASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSACTION HASH</t>
   </si>
   <si>
     <t>SIGNATURE</t>
   </si>
   <si>
-    <t>DIGITAL CERTIFICATE</t>
-  </si>
-  <si>
-    <t>PARTICIPANT</t>
-  </si>
-  <si>
-    <t>COURSE TITLE</t>
-  </si>
-  <si>
-    <t>NOTE</t>
-  </si>
-  <si>
-    <t>CERTIFICATE</t>
-  </si>
-  <si>
-    <t>DATA HASH</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>SERIAL NUMBER</t>
-  </si>
-  <si>
-    <t>Петро Петрович Воробієнко</t>
-  </si>
-  <si>
-    <t>Біткоїн та криптовалюти</t>
-  </si>
-  <si>
-    <t>private link</t>
+    <t xml:space="preserve">DIGITAL CERTIFICATE</t>
+  </si>
+  <si>
+    <t>25.06.2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петро Петрович Воробієнко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Біткоїн та криптовалюти</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>25.06.2015</t>
-  </si>
-  <si>
-    <t>ginesis certificate</t>
+    <t xml:space="preserve">ginesis certificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private link</t>
   </si>
   <si>
     <t>10.05.2016</t>
   </si>
   <si>
-    <t>Nikita Magda</t>
-  </si>
-  <si>
-    <t>Cryptocurrencies and Distributed Systems</t>
+    <t xml:space="preserve">Nikita Magda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cryptocurrencies and Distributed Systems</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1xobiD9wUIQcesMkrmh5x2x_aWnibPkqI/view</t>
   </si>
   <si>
-    <t>Нестеров Максим</t>
+    <t xml:space="preserve">Нестеров Максим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graduated with honors</t>
   </si>
   <si>
     <t>drive.google.com/file/d/18lYidkmWMBuBxR0FU0OIGuQ8doTz8zQs/view</t>
   </si>
   <si>
-    <t>graduated with honors</t>
-  </si>
-  <si>
-    <t>Alexey Shendrick</t>
+    <t xml:space="preserve">Alexey Shendrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anastasia Sapozhkova</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1KuJR4GYiRyC4Oh6Z6q-u9fpqe-EPWabk/view</t>
   </si>
   <si>
-    <t>Anastasia Sapozhkova</t>
+    <t xml:space="preserve">Den Galkin</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1xd3b6fXkkagcyEeiMZ1P7kKH_BM1BRuv/view</t>
   </si>
   <si>
-    <t>Den Galkin</t>
+    <t xml:space="preserve">Daniyil Yakovlev</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1tuaBB_KFOTHOfTmXgov42E2v6sHShUdb/view</t>
   </si>
   <si>
-    <t>Daniyil Yakovlev</t>
-  </si>
-  <si>
-    <t>Алексей Демидов</t>
-  </si>
-  <si>
-    <t>Анатолий Дедов</t>
-  </si>
-  <si>
-    <t>Денис Руденко</t>
-  </si>
-  <si>
-    <t>Illia Fariatiev</t>
+    <t xml:space="preserve">Алексей Демидов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анатолий Дедов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Денис Руденко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illia Fariatiev</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1Tyr0ky3sNg-lcDGdEe0-MKG0dzpL3TQA/view</t>
   </si>
   <si>
-    <t>Костюк Александр</t>
-  </si>
-  <si>
-    <t>Марина Боровая</t>
-  </si>
-  <si>
-    <t>Мордвинов Роман Игоревич</t>
-  </si>
-  <si>
-    <t>Сергей Романько</t>
-  </si>
-  <si>
-    <t>Синельников Александр</t>
+    <t xml:space="preserve">Костюк Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марина Боровая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мордвинов Роман Игоревич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергей Романько</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Синельников Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скрипник Александр</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1W0bokyIjw-j_5942KinD1ZRB1ges5fhb/view</t>
   </si>
   <si>
-    <t>Скрипник Александр</t>
-  </si>
-  <si>
-    <t>Солонский Александр</t>
+    <t xml:space="preserve">Солонский Александр</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1RneErBs-OBbV0KjvY5blYuFHfkwtyNRh/view</t>
@@ -151,25 +150,25 @@
     <t>31.10.2016</t>
   </si>
   <si>
-    <t>Anton Zaporozhchenko</t>
-  </si>
-  <si>
-    <t>Oleksiy Ponomorev</t>
+    <t xml:space="preserve">Anton Zaporozhchenko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oleksiy Ponomorev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavel Brilliant</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1YHz2l23Dy_FAB_zBAXxkehxN9ZvR7T99/view</t>
   </si>
   <si>
-    <t>Pavel Brilliant</t>
-  </si>
-  <si>
-    <t>Volodymyr Kavetskyy</t>
+    <t xml:space="preserve">Volodymyr Kavetskyy</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1dhsj1ZCPOPwvKc6arWVDAveu1h0EoY_l/view</t>
   </si>
   <si>
-    <t>Vladyslav Minakov</t>
+    <t xml:space="preserve">Vladyslav Minakov</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1N0y-Y_QVKO2DDn06IuDVESkeKJ5LoiDN/view</t>
@@ -178,67 +177,85 @@
     <t>03.03.2017</t>
   </si>
   <si>
-    <t>Yevheniia Shchypeleva</t>
+    <t xml:space="preserve">Yevheniia Shchypeleva</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1AcBsG13D5jBJ3_w506hQOHHs_iJD2Jwt/view</t>
   </si>
   <si>
-    <t>Kolhatin Andrii</t>
-  </si>
-  <si>
-    <t>Heorhii Kholodov</t>
+    <t xml:space="preserve">Kolhatin Andrii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heorhii Kholodov</t>
   </si>
   <si>
     <t>30.05.2018</t>
   </si>
   <si>
-    <t>Aleksandr Gnatyuk</t>
-  </si>
-  <si>
-    <t>Blockchain and Distributed Systems</t>
-  </si>
-  <si>
-    <t>Aleksandr Kurbatov</t>
+    <t xml:space="preserve">Aleksandr Gnatyuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blockchain and Distributed Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleksandr Kurbatov</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1JYRb1u6DI1z4mB3s1z8SSiiGDwdh_IhH/view</t>
   </si>
   <si>
-    <t>Aleksandr Ivanov</t>
-  </si>
-  <si>
-    <t>Artyom Ahmetzyanov</t>
+    <t xml:space="preserve">Aleksandr Ivanov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artyom Ahmetzyanov</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1dKebMjrvUlgGa3iO-WyfqWoE2EuPbGCV/view</t>
   </si>
   <si>
+    <t xml:space="preserve">Oleksii Khramov</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1rqLi5pccF50iQmqQORRTpl8nYWgy_qHs/view</t>
   </si>
   <si>
-    <t>Oleksii Khramov</t>
-  </si>
-  <si>
-    <t>Nodar Alyoshin</t>
-  </si>
-  <si>
-    <t>Marina Osadchuk</t>
-  </si>
-  <si>
-    <t>Konstantin Nechvolod</t>
+    <t xml:space="preserve">Nodar Alyoshin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marina Osadchuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konstantin Nechvolod</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1fhholZTtNezUv9PasS5dDm2v55XQEkyG/view</t>
   </si>
   <si>
-    <t>Ilya Svetaylo</t>
+    <t xml:space="preserve">Ilya Svetaylo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmytro Mandych</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1AT9DeYKwkp9NKSF3bb4Vdr1JtdlzltPp/view</t>
   </si>
   <si>
-    <t>Dmytro Mandych</t>
+    <t>26.05.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petr Murzin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Level in Decentralized Technologies</t>
+  </si>
+  <si>
+    <t>6e70ac729189b0e0097a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1BBaI1GopSevCSWKbBRWeownYk8eDv7MB/view</t>
+  </si>
+  <si>
+    <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
   </si>
   <si>
     <t>6e70ac729189b0e0097a6e7bcfec69494538bf4736cdb17a9fe9bd1582fe2e95</t>
@@ -250,27 +267,21 @@
     <t>drive.google.com/file/d/1T9IlKrmEJbx1bh1O1jPwTkuazCstW7gz/view</t>
   </si>
   <si>
-    <t>6e70ac729189b0e0097a</t>
-  </si>
-  <si>
-    <t>Petr Murzin</t>
-  </si>
-  <si>
-    <t>Basic Level in Decentralized Technologies</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1BBaI1GopSevCSWKbBRWeownYk8eDv7MB/view</t>
-  </si>
-  <si>
-    <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
-  </si>
-  <si>
-    <t>26.05.2020</t>
+    <t>28.05.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovkin Ivan</t>
   </si>
   <si>
     <t>80b4017b0b2d571867a2</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1B00wgJ6gYotdnedRkemkU_JBPFt1H4xd/view</t>
+  </si>
+  <si>
+    <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
+  </si>
+  <si>
     <t>80b4017b0b2d571867a20c183448a98b8a4dc0d52f134e363772da7dca5b5a06</t>
   </si>
   <si>
@@ -280,22 +291,13 @@
     <t>drive.google.com/file/d/12OpLxs1aK-BTF1PebTXrsMh4zxKH_wen/view</t>
   </si>
   <si>
-    <t>28.05.2020</t>
-  </si>
-  <si>
-    <t>Lovkin Ivan</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1B00wgJ6gYotdnedRkemkU_JBPFt1H4xd/view</t>
-  </si>
-  <si>
-    <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
-  </si>
-  <si>
     <t>30.05.2020</t>
   </si>
   <si>
-    <t>Nikita Moskovkin</t>
+    <t xml:space="preserve">Nikita Moskovkin</t>
+  </si>
+  <si>
+    <t>694d0f5a7afe6fbc99cb</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
@@ -304,9 +306,6 @@
     <t>8dd5355ff30fcc74f42b09a276bf3f8c4bfadb9074adff5d3661f186029628c5</t>
   </si>
   <si>
-    <t>694d0f5a7afe6fbc99cb</t>
-  </si>
-  <si>
     <t>694d0f5a7afe6fbc99cb56819a09f9fa0e8b66b07180bb555d98593a0f7d5d41</t>
   </si>
   <si>
@@ -316,6 +315,21 @@
     <t>drive.google.com/file/d/1bX5sis1H79_hFn7wh4-Sh00aeO_e7yFq/view</t>
   </si>
   <si>
+    <t>03.06.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeriy Gello</t>
+  </si>
+  <si>
+    <t>2b6aadb041197def922a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1IIYEmVzJwRrLeeAC2mvbJPBgnsiuCbgX/view</t>
+  </si>
+  <si>
+    <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
+  </si>
+  <si>
     <t>2b6aadb041197def922aff8cb257af872568b572362c2f19fdb2468228e58569</t>
   </si>
   <si>
@@ -325,19 +339,16 @@
     <t>drive.google.com/file/d/1DIotRiCyqr6U7vuXvDVWTrwbYMpd8-tp/view</t>
   </si>
   <si>
-    <t>2b6aadb041197def922a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1IIYEmVzJwRrLeeAC2mvbJPBgnsiuCbgX/view</t>
-  </si>
-  <si>
-    <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
-  </si>
-  <si>
-    <t>03.06.2020</t>
-  </si>
-  <si>
-    <t>Valeriy Gello</t>
+    <t>21.08.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth Gurieva</t>
+  </si>
+  <si>
+    <t>72008d9bb1a357ae7d6e</t>
+  </si>
+  <si>
+    <t>7dfdd6abd5c883c7c876202d91386257e48337f55209b774f35d4eea4efe5df4</t>
   </si>
   <si>
     <t>72008d9bb1a357ae7d6efc7520283e59adb638b44be971a41438ae3635beca20</t>
@@ -349,16 +360,19 @@
     <t>drive.google.com/file/d/1HToZ3ouEVe-2rFezzJSnetG4rkJl4wb5/view</t>
   </si>
   <si>
-    <t>72008d9bb1a357ae7d6e</t>
-  </si>
-  <si>
-    <t>Elizabeth Gurieva</t>
-  </si>
-  <si>
-    <t>7dfdd6abd5c883c7c876202d91386257e48337f55209b774f35d4eea4efe5df4</t>
-  </si>
-  <si>
-    <t>21.08.2020</t>
+    <t>15.09.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Zhovnuvaty</t>
+  </si>
+  <si>
+    <t>91053d5330c4b99d8827</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1sMqTvx1fDXHx-OeU1r4uA1Z3kzVIMKAn/view</t>
+  </si>
+  <si>
+    <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
   </si>
   <si>
     <t>91053d5330c4b99d88272eb9c214b2f57c8522c2b473b54d5e250b422de6e24b</t>
@@ -370,24 +384,18 @@
     <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
   </si>
   <si>
-    <t>91053d5330c4b99d8827</t>
-  </si>
-  <si>
-    <t>Alexander Zhovnuvaty</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1sMqTvx1fDXHx-OeU1r4uA1Z3kzVIMKAn/view</t>
-  </si>
-  <si>
-    <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
-  </si>
-  <si>
-    <t>15.09.2020</t>
+    <t xml:space="preserve">Nikolay Scherbakov</t>
   </si>
   <si>
     <t>508f78ad5c0df80128b0</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1Wzemb_7VWsXKUqEMEuniXiEqqCU6NR1X/view</t>
+  </si>
+  <si>
+    <t>7368eab2f4fa6157cb3f67d39e8526bc1b91a852be6a70cddcbb6067c8b400f5</t>
+  </si>
+  <si>
     <t>508f78ad5c0df80128b059d5367511650f12c1c999a2873f5a5bdfa0c3cd9294</t>
   </si>
   <si>
@@ -397,61 +405,61 @@
     <t>drive.google.com/file/d/1s59oNqnl8rvcFITI-56v1nt_VCOHq94D/view</t>
   </si>
   <si>
-    <t>Nikolay Scherbakov</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Wzemb_7VWsXKUqEMEuniXiEqqCU6NR1X/view</t>
-  </si>
-  <si>
-    <t>7368eab2f4fa6157cb3f67d39e8526bc1b91a852be6a70cddcbb6067c8b400f5</t>
+    <t>16.09.2020</t>
+  </si>
+  <si>
+    <t>Anonymous</t>
   </si>
   <si>
     <t>9976212738b45235cfd6</t>
   </si>
   <si>
+    <t>2b4075806aa1180a35b6b6718701374debfd505b954491160ac09a4ebf1d632c</t>
+  </si>
+  <si>
     <t>9976212738b45235cfd6f208ccae9ca14da64a06bcb5304d8bb422d00ff1540d</t>
   </si>
   <si>
     <t>HOozi22vAuznvsCYdPeFGpfEsgVv/RPDvKEBNLr3Kjh2ZNMwqnGETY/MTNluCe+mJBLtg4ig6yOhtqyY0VWavFU=</t>
   </si>
   <si>
-    <t>2b4075806aa1180a35b6b6718701374debfd505b954491160ac09a4ebf1d632c</t>
-  </si>
-  <si>
-    <t>16.09.2020</t>
-  </si>
-  <si>
-    <t>Anonymous</t>
+    <t>17.09.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleksandr Khomutov</t>
+  </si>
+  <si>
+    <t>cd9b18ee000a3ab57d74</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HDfg3clKtJbjQEEtI2yxSv51_fDRYWRn/view</t>
+  </si>
+  <si>
+    <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
+  </si>
+  <si>
+    <t>cd9b18ee000a3ab57d740ee8b2a2330632f070a69ff9efdd8ecdc6c8230e2e11</t>
+  </si>
+  <si>
+    <t>HOq9ZhrQ00V8PHtEc7PLbgREykAE4fSaVIbPozy6iTxNKZmzV7JHxsT5aQobJF+D1Hu+Hj++PUAVwscGr1K8ydg=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/10KBS_dIRNDhekiu_k9NiRZq_tLz9wFLJ/view</t>
   </si>
   <si>
-    <t>cd9b18ee000a3ab57d74</t>
-  </si>
-  <si>
-    <t>cd9b18ee000a3ab57d740ee8b2a2330632f070a69ff9efdd8ecdc6c8230e2e11</t>
-  </si>
-  <si>
-    <t>HOq9ZhrQ00V8PHtEc7PLbgREykAE4fSaVIbPozy6iTxNKZmzV7JHxsT5aQobJF+D1Hu+Hj++PUAVwscGr1K8ydg=</t>
-  </si>
-  <si>
-    <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
-  </si>
-  <si>
-    <t>17.09.2020</t>
-  </si>
-  <si>
-    <t>Aleksandr Khomutov</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1HDfg3clKtJbjQEEtI2yxSv51_fDRYWRn/view</t>
-  </si>
-  <si>
-    <t>Tetiana Diachuk</t>
-  </si>
-  <si>
-    <t>Beginner at theoretical aspects blockchain technology</t>
+    <t>12.29.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetiana Diachuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beginner at theoretical aspects blockchain technology</t>
+  </si>
+  <si>
+    <t>0f8a70da32b47c86fa69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listener only</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
@@ -460,12 +468,6 @@
     <t>0f8a70da32b47c86fa69a39dd522c99b25802700a336d49e16a760eea763f4b1</t>
   </si>
   <si>
-    <t>12.29.2021</t>
-  </si>
-  <si>
-    <t>Listener only</t>
-  </si>
-  <si>
     <t>–</t>
   </si>
   <si>
@@ -475,31 +477,31 @@
     <t>drive.google.com/file/d/19iQXgKAz6f9TVn-PH7XNVjURb69Cog1K/view</t>
   </si>
   <si>
-    <t>0f8a70da32b47c86fa69</t>
+    <t xml:space="preserve">Yatskiv Vasyl</t>
   </si>
   <si>
     <t>157083727495af019be1</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1FZ2SgaDMIJRp10hntSqe1gLrAUG9DHpM/view</t>
+  </si>
+  <si>
+    <t>157083727495af019be18396a5b6fb784fb8fdf515e7069698ea538039655ea2</t>
+  </si>
+  <si>
     <t>GwuoELh5wGDbKgdx/iwOEwB1aYpRhZGvqoWHkCMl2GldW99XUUjugdXMecd1OG2SKwwMXofLc4+rAxXvTnt+cCU=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/16W1PgiFDe8yDvOAKUfipXQuF54CGJwOr/view</t>
   </si>
   <si>
-    <t>Yatskiv Vasyl</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1FZ2SgaDMIJRp10hntSqe1gLrAUG9DHpM/view</t>
-  </si>
-  <si>
-    <t>157083727495af019be18396a5b6fb784fb8fdf515e7069698ea538039655ea2</t>
-  </si>
-  <si>
     <t>24.05.2022</t>
   </si>
   <si>
-    <t>Viktoriia Kovalenko</t>
+    <t xml:space="preserve">Viktoriia Kovalenko</t>
+  </si>
+  <si>
+    <t>c94b544cf914bfa7a011</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1HmqEySvyMucrLal0DQ8-Vhc0ALSaBJgo/view</t>
@@ -508,18 +510,24 @@
     <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
   </si>
   <si>
-    <t>c94b544cf914bfa7a011</t>
-  </si>
-  <si>
     <t>HEq8g+MEi+GvEmvTK4osdDCOUv0zrtlFXz3jX58hUEpuGtiwefAAUrsqS6PizJncb1B9qyY6GiaVMtDN4AGXjuA=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1ryCRznjmAN1vpfuTCHcFPCtIzw-dl20L/view</t>
   </si>
   <si>
+    <t xml:space="preserve">Artem Lytvynov</t>
+  </si>
+  <si>
     <t>31e612cbb30ee1e0b131</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1RBczYKwSRmMu4zAoVVmnWvjgkl0tENzG/view</t>
+  </si>
+  <si>
+    <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
+  </si>
+  <si>
     <t>31e612cbb30ee1e0b131836790253817c04031043f623abb460c83208fafa932</t>
   </si>
   <si>
@@ -529,16 +537,10 @@
     <t>drive.google.com/file/d/1KnXAljoWMcSRaMbBCkrmp_U3hzb_asxc/view</t>
   </si>
   <si>
-    <t>Artem Lytvynov</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1RBczYKwSRmMu4zAoVVmnWvjgkl0tENzG/view</t>
-  </si>
-  <si>
-    <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
-  </si>
-  <si>
-    <t>Taras Horun</t>
+    <t xml:space="preserve">Taras Horun</t>
+  </si>
+  <si>
+    <t>321d5bc0b6acda5a08db</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1GxBJoJ4QVMY5O6BDlBGtx-tJAcxj-f6s/view</t>
@@ -547,31 +549,40 @@
     <t>321d5bc0b6acda5a08dbd6e3b151c27d1951c01e36b674970fe5bb02a33d5d2e</t>
   </si>
   <si>
-    <t>321d5bc0b6acda5a08db</t>
-  </si>
-  <si>
     <t>HDWEh9ESydNwt1uGPeE27CIKeMKPy+O87vrhEELOeECTIKgu9VndiSLOpNThFwKWV+2oMh8SMAjRbBHZ8RxF8Qo=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1oa4_pnjVk863Kfi7CxIgvLXEUczkVxHS/view</t>
   </si>
   <si>
+    <t xml:space="preserve">Anastasiia Slota</t>
+  </si>
+  <si>
     <t>5d71857f9a99d5d85ed7</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1Aal0m_o5pRV8rfXsm8wDWIqIg36jUqvx/view</t>
+  </si>
+  <si>
+    <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
+  </si>
+  <si>
     <t>HE4WVZfpHDM927pj2Gbc9lOZhBRopu9jToBZfr7D62mneKWV8M75X8Q2SZc4tnXE/3LeWTqxpIkzc9Xy6DqvUqE=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1YDow8GoX8mnMZNo20qBTbJw8-YHXDU5u/view</t>
   </si>
   <si>
-    <t>Anastasiia Slota</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Aal0m_o5pRV8rfXsm8wDWIqIg36jUqvx/view</t>
-  </si>
-  <si>
-    <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
+    <t xml:space="preserve">Yuriy Melnychuk</t>
+  </si>
+  <si>
+    <t>4b973cdc099c10811c1b</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/17vX52MGbM2gkG3qqa1fz-ERnrQbdcw4y/view</t>
+  </si>
+  <si>
+    <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
   </si>
   <si>
     <t>G09Pu89zZ+mW2gdSx729xoRrBvWoumXJAYLuporfSBGdbAJOMCqKcBPj8R2VtP4sJbwNZAWnmvuqpJqZU6h83hQ=</t>
@@ -580,16 +591,10 @@
     <t>drive.google.com/file/d/1bfp7feXW3jlCWM6JNgL66zeE8LHm4X-Y/view</t>
   </si>
   <si>
-    <t>4b973cdc099c10811c1b</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/17vX52MGbM2gkG3qqa1fz-ERnrQbdcw4y/view</t>
-  </si>
-  <si>
-    <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
-  </si>
-  <si>
-    <t>Yuriy Melnychuk</t>
+    <t xml:space="preserve">Vladyslav Mazur</t>
+  </si>
+  <si>
+    <t>e9bf9426eb214a6e36c8</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1JY1qkLvZnhJoC7eW8zecnwqdN2ADtZBQ/view</t>
@@ -598,16 +603,22 @@
     <t>e9bf9426eb214a6e36c83520cbd22f2b58d44e518597ce9887c5c65d029ed683</t>
   </si>
   <si>
-    <t>Vladyslav Mazur</t>
-  </si>
-  <si>
     <t>GxwV1QU9bkNovno07/2Qf5RnVqi33IIX/h2qm9QewYuqQO6/ULkKQG+dc47LvkhphEUWoWaEai8xaIVxIvH3mxQ=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1bilaW63V87r9jkQgRfz_fevbeWN6NFyo/view</t>
   </si>
   <si>
-    <t>e9bf9426eb214a6e36c8</t>
+    <t xml:space="preserve">Hanna Zhurba</t>
+  </si>
+  <si>
+    <t>33571c3c57728ede717b</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1l0atb8z64jklpxeGi48llMRwrNeoKf0y/view</t>
+  </si>
+  <si>
+    <t>33571c3c57728ede717b2bf46df346305cbeca3e966b76cf15369f7411ddabef</t>
   </si>
   <si>
     <t>G0/HbGdGK3B0R9z8wip7gA/5JeSvjkSeA7lcGfugt/KcNVV1VKo36tLg+Qi79IEd3lr9lE92CXfNXZ8c3GeiPc0=</t>
@@ -616,19 +627,10 @@
     <t>drive.google.com/file/d/18pj8mEa0wJ5A_Nt1l6RNMZ9iTH4oUWSC/view</t>
   </si>
   <si>
-    <t>33571c3c57728ede717b</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1l0atb8z64jklpxeGi48llMRwrNeoKf0y/view</t>
-  </si>
-  <si>
-    <t>33571c3c57728ede717b2bf46df346305cbeca3e966b76cf15369f7411ddabef</t>
-  </si>
-  <si>
-    <t>Hanna Zhurba</t>
-  </si>
-  <si>
-    <t>Viktoriia Holoshchapova</t>
+    <t xml:space="preserve">Viktoriia Holoshchapova</t>
+  </si>
+  <si>
+    <t>96250fd24ef42b3b059c</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1Rl7QRlGxtywdMCDmM-i2aXCzulou-hLS/view</t>
@@ -637,60 +639,69 @@
     <t>96250fd24ef42b3b059c7f85867ca063298d0784f07d7b3d4a19da04dbf6f4c7</t>
   </si>
   <si>
-    <t>96250fd24ef42b3b059c</t>
-  </si>
-  <si>
     <t>Gwgj57Jqz9+NMhDQlcZmobwbWCi8h4ESrKASdManWz5saGNNFwx832peyy6A/lp8DsUFzZzOihp1V/OspkMps9k=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1V1S4zVBvdZ7u0qWNpj70QbU_Qv1ZSwcz/view</t>
   </si>
   <si>
+    <t xml:space="preserve">Nikita Liashko</t>
+  </si>
+  <si>
+    <t>638039974f462d2a16fa</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/16683RbvjBsJBFBrLwtLwWlQJUfTiD0Xd/view</t>
+  </si>
+  <si>
+    <t>638039974f462d2a16fa4959a86c265addbc78b4b6d26dddbcf4a9d2b69ae9d7</t>
+  </si>
+  <si>
     <t>G22mibmMslmyD8rrY2ltE5Tcm9wjiNndNugd3f4Ant1qdwTC2A9jhFQ04ORFamlLGr+mI2MryPJAFIY7R3Zco1E=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1kWKcfuN3wKIueLCmFLK6eUxWZA5-cjqw/view</t>
   </si>
   <si>
-    <t>638039974f462d2a16fa</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/16683RbvjBsJBFBrLwtLwWlQJUfTiD0Xd/view</t>
-  </si>
-  <si>
-    <t>638039974f462d2a16fa4959a86c265addbc78b4b6d26dddbcf4a9d2b69ae9d7</t>
-  </si>
-  <si>
-    <t>Nikita Liashko</t>
+    <t>27.05.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oleksandr Ishchuk</t>
+  </si>
+  <si>
+    <t>a4f695eb1f54152d096f</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1R38xCu4uADZnLmaMGWWjBOj2A6I7JcLz/view</t>
+  </si>
+  <si>
+    <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
+  </si>
+  <si>
+    <t>a4f695eb1f54152d096fac83f42a2627f1da6e57869febbc0736945533b39dfd</t>
+  </si>
+  <si>
+    <t>Gy1CS1DczVCPKEqFIMhNAUjvlti1rZpp602WQhpANZcrbJR7A1bxVMqZhWo7ziNLPEs4gZ7mDvo3dxQp/9mnWSo=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1TDVQcx6mYo_axvH3qcg0bBW7BCkSdPJk/view</t>
   </si>
   <si>
-    <t>a4f695eb1f54152d096f</t>
-  </si>
-  <si>
-    <t>a4f695eb1f54152d096fac83f42a2627f1da6e57869febbc0736945533b39dfd</t>
-  </si>
-  <si>
-    <t>Gy1CS1DczVCPKEqFIMhNAUjvlti1rZpp602WQhpANZcrbJR7A1bxVMqZhWo7ziNLPEs4gZ7mDvo3dxQp/9mnWSo=</t>
-  </si>
-  <si>
-    <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
-  </si>
-  <si>
-    <t>27.05.2022</t>
-  </si>
-  <si>
-    <t>Oleksandr Ishchuk</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1R38xCu4uADZnLmaMGWWjBOj2A6I7JcLz/view</t>
+    <t>30.05.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofiia Zharkikh</t>
   </si>
   <si>
     <t>ef5d4d97d20b05335375</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1uuFsi_lO84LjMgoGI-KaAdqUW3DbX-tN/view</t>
+  </si>
+  <si>
+    <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
+  </si>
+  <si>
     <t>ef5d4d97d20b05335375d36faf95f1674a1bd9f02b236e07c0628e68e6718479</t>
   </si>
   <si>
@@ -700,16 +711,16 @@
     <t>drive.google.com/file/d/1MKUolIBpxp8Nd7QKNEIztYq__Y2ke8r0/view</t>
   </si>
   <si>
-    <t>30.05.2022</t>
-  </si>
-  <si>
-    <t>Sofiia Zharkikh</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1uuFsi_lO84LjMgoGI-KaAdqUW3DbX-tN/view</t>
-  </si>
-  <si>
-    <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
+    <t xml:space="preserve">Ruslan Ovsiienko</t>
+  </si>
+  <si>
+    <t>bde11c3468f03baaa52b</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1erHD2ben8dQ0hZznVAMHsWoOEoZ5W5ZI/view</t>
+  </si>
+  <si>
+    <t>bde11c3468f03baaa52b69b1d0037713d6e1656efbe22bbe443616867c8ce1d1</t>
   </si>
   <si>
     <t>GwsGfQUBZbaRTtUuqe9ZxFOBG5KREIZQe9idjrsAJkyJS4iDGMvYzQl95ycTMmbSYE9y6HCVXw5XjQl4/UJmBF0=</t>
@@ -718,16 +729,13 @@
     <t>drive.google.com/file/d/1GQPhLpRDH3qx8itRN2swMzNVTA3S9zkA/view</t>
   </si>
   <si>
-    <t>bde11c3468f03baaa52b</t>
-  </si>
-  <si>
-    <t>Ruslan Ovsiienko</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1erHD2ben8dQ0hZznVAMHsWoOEoZ5W5ZI/view</t>
-  </si>
-  <si>
-    <t>bde11c3468f03baaa52b69b1d0037713d6e1656efbe22bbe443616867c8ce1d1</t>
+    <t>31.05.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrii Kolhatin</t>
+  </si>
+  <si>
+    <t>6ee400b0d85b1c17b9f9</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1k6jYSLnda_XmBqezsiN_2yJ61Qdta_nb/view</t>
@@ -736,12 +744,6 @@
     <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
   </si>
   <si>
-    <t>31.05.2022</t>
-  </si>
-  <si>
-    <t>Andrii Kolhatin</t>
-  </si>
-  <si>
     <t>6ee400b0d85b1c17b9f96d70480b7834db0687fb163960b09bd5b9d9a7479695</t>
   </si>
   <si>
@@ -751,31 +753,37 @@
     <t>drive.google.com/file/d/1fXu1-OMgl8abLdRnkK1gGjRUzm1wJ90d/view</t>
   </si>
   <si>
-    <t>6ee400b0d85b1c17b9f9</t>
+    <t>02.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volodymyr Beimuk</t>
+  </si>
+  <si>
+    <t>57510c8d91044c68466c</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
+  </si>
+  <si>
+    <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
+  </si>
+  <si>
+    <t>57510c8d91044c68466c23791605ae30481dd0e13bffb14884dc26f74f89007e</t>
+  </si>
+  <si>
+    <t>HEXb4vpKyOWhQpbYfAwIpyCn+rITf/VAWQzmNxaXXhDvU/q9WgsKDJeDdCnprx5cCIjjmW/phOHH+uPBbpYlPZ4=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1w1mfSqQpuoM1ykWLZFpnfNad4769mGRZ/view</t>
   </si>
   <si>
-    <t>57510c8d91044c68466c</t>
-  </si>
-  <si>
-    <t>57510c8d91044c68466c23791605ae30481dd0e13bffb14884dc26f74f89007e</t>
-  </si>
-  <si>
-    <t>HEXb4vpKyOWhQpbYfAwIpyCn+rITf/VAWQzmNxaXXhDvU/q9WgsKDJeDdCnprx5cCIjjmW/phOHH+uPBbpYlPZ4=</t>
-  </si>
-  <si>
-    <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
-  </si>
-  <si>
-    <t>02.06.2022</t>
-  </si>
-  <si>
-    <t>Volodymyr Beimuk</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
+    <t>03.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazarii Savorona</t>
+  </si>
+  <si>
+    <t>d50fd6472811e70d2d32</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1alRzJTra9dglzAqTeiHBwO9rtXlBweUd/view</t>
@@ -784,10 +792,7 @@
     <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
   </si>
   <si>
-    <t>03.06.2022</t>
-  </si>
-  <si>
-    <t>Nazarii Savorona</t>
+    <t>d50fd6472811e70d2d323c6e2a1b6ee5492b950fa42141194d5b0ea301965d2b</t>
   </si>
   <si>
     <t>G0q+l32LflKU/DpeW9C2sDAMrbqeX+oJ5XFEWOQgj1abcIZnWaBDyGALb8VFCDaBlWtPdWlpZH0bBGnZ4vmuqVM=</t>
@@ -796,10 +801,10 @@
     <t>drive.google.com/file/d/15kzmwqJUXHkYhS-y_kQNezfBYKsWqClm/view</t>
   </si>
   <si>
-    <t>d50fd6472811e70d2d32</t>
-  </si>
-  <si>
-    <t>d50fd6472811e70d2d323c6e2a1b6ee5492b950fa42141194d5b0ea301965d2b</t>
+    <t xml:space="preserve">Anton Balykov</t>
+  </si>
+  <si>
+    <t>0098c4abd0cf9ba00a9a</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1wY_vSxNPk2EVTXF5QDxbWo0tuWKZTesU/view</t>
@@ -808,7 +813,7 @@
     <t>6471e2162a55dbf5dd4d31bfe55b942b65d00f871d57a47269a6eeadc98f5368</t>
   </si>
   <si>
-    <t>Anton Balykov</t>
+    <t>0098c4abd0cf9ba00a9a16bae79b9ec1f932f0a459b51c5afd3d6a5651a3820d</t>
   </si>
   <si>
     <t>HEX0LGCrp8izmcyDor70bMZoObL/w+vWJ2n7oI4g7HApOTNEf8NsrrnH7wqchGY1dHPbQ/ZXv9Sb4flO0OOFIjg=</t>
@@ -817,16 +822,13 @@
     <t>drive.google.com/file/d/1CEGYMWPoshF1-ZlubWYIqLVVN5wuDI0k/view</t>
   </si>
   <si>
-    <t>0098c4abd0cf9ba00a9a</t>
-  </si>
-  <si>
-    <t>0098c4abd0cf9ba00a9a16bae79b9ec1f932f0a459b51c5afd3d6a5651a3820d</t>
-  </si>
-  <si>
     <t>06.06.2022</t>
   </si>
   <si>
-    <t>Rodion Nazarov</t>
+    <t xml:space="preserve">Rodion Nazarov</t>
+  </si>
+  <si>
+    <t>b8a9205fb544253703da</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1vGDKnNGdCSrI2l0f8epwfp-g9ZP_gdqn/view</t>
@@ -835,9 +837,6 @@
     <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
   </si>
   <si>
-    <t>b8a9205fb544253703da</t>
-  </si>
-  <si>
     <t>b8a9205fb544253703daa661c8770c6c3010cd6f9440217c56b8f3a5277106c0</t>
   </si>
   <si>
@@ -847,9 +846,18 @@
     <t>drive.google.com/file/d/1tXyNJbUrUx79sco9ErJu8FcadjFeY4ws/view</t>
   </si>
   <si>
+    <t xml:space="preserve">Denis Riabtsev</t>
+  </si>
+  <si>
     <t>049024034fa09e3463c1</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1zCX9-HWZpyLUzChTuMNrgw8wjDheWHYQ/view</t>
+  </si>
+  <si>
+    <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
+  </si>
+  <si>
     <t>049024034fa09e3463c172894984ccd7c64d8f3e25ea0edce1cde73d14c4e4dd</t>
   </si>
   <si>
@@ -859,19 +867,13 @@
     <t>drive.google.com/file/d/1zJtn8oPTgO6NalvQ4ZUKieHCmOl0G-ff/view</t>
   </si>
   <si>
-    <t>Denis Riabtsev</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1zCX9-HWZpyLUzChTuMNrgw8wjDheWHYQ/view</t>
-  </si>
-  <si>
-    <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
-  </si>
-  <si>
     <t>10.08.2022</t>
   </si>
   <si>
-    <t>Ahadzhan Piloian</t>
+    <t xml:space="preserve">Ahadzhan Piloian</t>
+  </si>
+  <si>
+    <t>35a047ff48ee73cae02b</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1mierxGuI99_8bCJonu3XW6Of6nN-_G8Y/view</t>
@@ -880,9 +882,6 @@
     <t>35a047ff48ee73cae02b98a664d79ed4beec0f2fc7ca444cf0e6fe6feba7072f</t>
   </si>
   <si>
-    <t>35a047ff48ee73cae02b</t>
-  </si>
-  <si>
     <t>HByFsfnqBzFxFef9Sx0pI7ZEP8CsAFwWu3WLyhxeWYE7Nihy6oGKH6zTuDB3jxz7nVUqmg/+jiSz+5tpHd5hhCM=</t>
   </si>
   <si>
@@ -892,7 +891,10 @@
     <t>16.08.2022</t>
   </si>
   <si>
-    <t>Andrii Tsemko</t>
+    <t xml:space="preserve">Andrii Tsemko</t>
+  </si>
+  <si>
+    <t>6c856e21d4e81c9f9798</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1VFTodraL1vlF6oPm81xYgCEzuAnnMw9D/view</t>
@@ -901,9 +903,6 @@
     <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
   </si>
   <si>
-    <t>6c856e21d4e81c9f9798</t>
-  </si>
-  <si>
     <t>6c856e21d4e81c9f9798dc867f42c17448b563618559dfc618f25bfb13952dd9</t>
   </si>
   <si>
@@ -913,7 +912,10 @@
     <t>drive.google.com/file/d/1XYnfmc4-e2bPA2-oKc6rMrJk9OIS1ygb/view</t>
   </si>
   <si>
-    <t>Oleg Chaika</t>
+    <t xml:space="preserve">Oleg Chaika</t>
+  </si>
+  <si>
+    <t>ac4a4970282596872599</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1TCz4JmThT49Whz7pXZc1p-uh1m8qGlts/view</t>
@@ -922,9 +924,6 @@
     <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
   </si>
   <si>
-    <t>ac4a4970282596872599</t>
-  </si>
-  <si>
     <t>ac4a4970282596872599a48469d3598e04f6239a9c8c40d595a7ab48cfec2f4b</t>
   </si>
   <si>
@@ -934,28 +933,31 @@
     <t>drive.google.com/file/d/1XKVH36jaqZxn5FNLOAPfa2e7veU7FvRF/view</t>
   </si>
   <si>
+    <t xml:space="preserve">Yehor Podporinov</t>
+  </si>
+  <si>
+    <t>6ece24bf393d6616d288</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1UWwjB5PEcpGT7pj9QLOxg0exOJMJ0cgV/view</t>
+  </si>
+  <si>
+    <t>8b0b4aebba75393ae3d3d17c2935872fcc9b742667912a33f84c93005de85fb4</t>
+  </si>
+  <si>
+    <t>6ece24bf393d6616d2882515c6b704470a04394eb23a26e37fcfd58709864e9c</t>
+  </si>
+  <si>
     <t>G16YW2qc38O2w05xL7whMAtbxBifYvcgSumruVDry/BeInzdXKeNdgkzs4+YALZnA1O/VZiCrqsMOX+JSxPhhDo=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1qjY792bJaQiXrAQkpY51MdDXWY5NGfHG/view</t>
   </si>
   <si>
-    <t>6ece24bf393d6616d288</t>
-  </si>
-  <si>
-    <t>6ece24bf393d6616d2882515c6b704470a04394eb23a26e37fcfd58709864e9c</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1UWwjB5PEcpGT7pj9QLOxg0exOJMJ0cgV/view</t>
-  </si>
-  <si>
-    <t>8b0b4aebba75393ae3d3d17c2935872fcc9b742667912a33f84c93005de85fb4</t>
-  </si>
-  <si>
-    <t>Yehor Podporinov</t>
-  </si>
-  <si>
-    <t>Artem Litkevych</t>
+    <t xml:space="preserve">Artem Litkevych</t>
+  </si>
+  <si>
+    <t>2bdefe6ab583294a8e3a</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1gRgANqcuPqyc_3RjIRjtUc4Mdz0mGl9x/view</t>
@@ -964,9 +966,6 @@
     <t>2bdefe6ab583294a8e3a46a7d66467c7afc535265a5eb5044d61411c2e9cf825</t>
   </si>
   <si>
-    <t>2bdefe6ab583294a8e3a</t>
-  </si>
-  <si>
     <t>HDCKJb3z6l4lgp3NELh3RJkzdJD1joN7yfOxl+01921RdY6DAUkQyZNnWU9OHeVkW3fPDEweucWCsxJRM/I0X1s=</t>
   </si>
   <si>
@@ -976,7 +975,10 @@
     <t>17.08.2022</t>
   </si>
   <si>
-    <t>Vadim Mokropulo</t>
+    <t xml:space="preserve">Vadim Mokropulo</t>
+  </si>
+  <si>
+    <t>5aedea6393611a0bb067</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1y0FtDg1SrfeMLVLgcU5nq3iVnBdoik87/view</t>
@@ -985,9 +987,6 @@
     <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
   </si>
   <si>
-    <t>5aedea6393611a0bb067</t>
-  </si>
-  <si>
     <t>5aedea6393611a0bb067abca97eab5d15e20fa9b13654759eeb0ad08cf465bf6</t>
   </si>
   <si>
@@ -997,13 +996,19 @@
     <t>drive.google.com/file/d/1L4MJCKIJ_qZk-xoeaxbt21yKDQ65ZiV-/view</t>
   </si>
   <si>
+    <t xml:space="preserve">Arsenii Trybukh</t>
+  </si>
+  <si>
+    <t>843e73c99e2fb6868d38</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1G_yt14WnfBJx-IrHPPr6dCVtmo-oZRGP/view</t>
   </si>
   <si>
     <t>c5f89ffab6fb6790398f25f04cceea2582045f2cdaa852cffa609587b5f97da2</t>
   </si>
   <si>
-    <t>Arsenii Trybukh</t>
+    <t>843e73c99e2fb6868d388c6436b8de6d6df90f2c6651c161738d510e0eedbe80</t>
   </si>
   <si>
     <t>HAJxbdAA0K5jADiIkd2hSuUjSo5/eIKguFwXw2OZXCkPSIx4rLJcO32Gxfb002+eyGWSoqZg/YxEkHKrfxSL7F8=</t>
@@ -1012,16 +1017,13 @@
     <t>drive.google.com/file/d/11NbZIfZYYPaZkiN3hIF-pOf-vQn1FjGZ/view</t>
   </si>
   <si>
-    <t>843e73c99e2fb6868d38</t>
-  </si>
-  <si>
-    <t>843e73c99e2fb6868d388c6436b8de6d6df90f2c6651c161738d510e0eedbe80</t>
-  </si>
-  <si>
     <t>18.08.2022</t>
   </si>
   <si>
-    <t>Khrystyna Vysotska</t>
+    <t xml:space="preserve">Khrystyna Vysotska</t>
+  </si>
+  <si>
+    <t>c7bb640e0ab9c66c1b1b</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1l5wCpVPlLtvzFbUPo8FUxzzRBsS6Et75/view</t>
@@ -1030,9 +1032,6 @@
     <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
   </si>
   <si>
-    <t>c7bb640e0ab9c66c1b1b</t>
-  </si>
-  <si>
     <t>c7bb640e0ab9c66c1b1b30a834ca00155e38ddba8212240e0bbd39eba0ba7804</t>
   </si>
   <si>
@@ -1042,7 +1041,10 @@
     <t>drive.google.com/file/d/1nGSPxXdXnZBvlGXqCNy4-upiIccTP2DF/view</t>
   </si>
   <si>
-    <t>Mykhailo Shcholkin</t>
+    <t xml:space="preserve">Mykhailo Shcholkin</t>
+  </si>
+  <si>
+    <t>de78c058c82cb70d7785</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1I0M_Gmlz0YU0fwUVXG9DVMFDEz8BrXYC/view</t>
@@ -1051,37 +1053,37 @@
     <t>de78c058c82cb70d7785272b03e0faaf9d22a8b0e83bf3c62e1088ba65fe154a</t>
   </si>
   <si>
-    <t>de78c058c82cb70d7785</t>
-  </si>
-  <si>
     <t>G1CTdkm9sPqF5gC7MNhwFYnaWkXLHuuUsU0A/sGOu5DNBtG5skY8jqrThohl9psYxI7Tv/ioEcauIdVEWGuT7+o=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/116fTgiRyxDGkYGtShL1QTg_IMdV7JIvh/view</t>
   </si>
   <si>
+    <t xml:space="preserve">Sofiia Kireieva</t>
+  </si>
+  <si>
+    <t>7a6968aff4e08534424f</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1GoJ9qUTxoHHdtNzbmx9kX8mUnMrERzTj/view</t>
   </si>
   <si>
     <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
   </si>
   <si>
-    <t>Sofiia Kireieva</t>
-  </si>
-  <si>
     <t>GwxLKKdOMTqtcTyfNdinQRybUe+qy2ulplCNQh5mcOdQINQN0w/jb9OXjSkmDF4/X+KrmFDw9hjjLrHNZfbB5dE=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1dA-z2yZxNqg9vpZ-IrDTeI5VoAYSoUOx/view</t>
   </si>
   <si>
-    <t>7a6968aff4e08534424f</t>
-  </si>
-  <si>
     <t>19.08.2022</t>
   </si>
   <si>
-    <t>Alena Sporova</t>
+    <t xml:space="preserve">Alena Sporova</t>
+  </si>
+  <si>
+    <t>4f789ed064df7a17fb16</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1O6iBsiaN0_fjmsFEU75uf0x-TjEPa9M_/view</t>
@@ -1090,18 +1092,24 @@
     <t>4f789ed064df7a17fb165d92a4775577ae2b2aa0933828e2184f467078a0f4e1</t>
   </si>
   <si>
-    <t>4f789ed064df7a17fb16</t>
-  </si>
-  <si>
     <t>G24FfjXLWLXBSLyuTfOy5p2HRuUF9dZNqOsMBbQz5NdHMugtm3sqYSkgooUb30zd6NBvd8yivpBdpXj2C7zxRLM=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1SrPLonRxjfEBFQKfnHXjqy1icSZ8TQTg/view</t>
   </si>
   <si>
+    <t xml:space="preserve">Nikita Masych</t>
+  </si>
+  <si>
     <t>ae669584e3592816786d</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1m0p5Xzk0DhnWZNz3C4GKwBoFn0dCLaJd/view</t>
+  </si>
+  <si>
+    <t>483060d6ed3048a8dc0131f806543e2d4ebf5438280c29af23b478769c5e2422</t>
+  </si>
+  <si>
     <t>ae669584e3592816786def0ced73ae9c1157f3cf3957c54c7f00c313411d0917</t>
   </si>
   <si>
@@ -1111,18 +1119,18 @@
     <t>drive.google.com/file/d/1rd3-RafYYEM7AiLpUn6hDKvzItsu35eV/view</t>
   </si>
   <si>
-    <t>Nikita Masych</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1m0p5Xzk0DhnWZNz3C4GKwBoFn0dCLaJd/view</t>
-  </si>
-  <si>
-    <t>483060d6ed3048a8dc0131f806543e2d4ebf5438280c29af23b478769c5e2422</t>
+    <t xml:space="preserve">Mark Cherepovskyi</t>
   </si>
   <si>
     <t>2a2bdf9afd29bb5a037e</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1e4EDcTQQDwoR2L6wWEPs-5H-vt5CCr_f/view</t>
+  </si>
+  <si>
+    <t>c4879efd2b227fc0a0e38b82a1a91f47d5c53312805a02084f9769bbec1a71ec</t>
+  </si>
+  <si>
     <t>2a2bdf9afd29bb5a037ee969d668f402c10e76c8cbbd976d813dc2c635212539</t>
   </si>
   <si>
@@ -1132,18 +1140,18 @@
     <t>drive.google.com/file/d/1Nn8f-CCkaRTHoTIvzOzlUjfFraIj0SxS/view</t>
   </si>
   <si>
-    <t>Mark Cherepovskyi</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1e4EDcTQQDwoR2L6wWEPs-5H-vt5CCr_f/view</t>
-  </si>
-  <si>
-    <t>c4879efd2b227fc0a0e38b82a1a91f47d5c53312805a02084f9769bbec1a71ec</t>
+    <t xml:space="preserve">Viacheslav Horbanov</t>
   </si>
   <si>
     <t>5af15e5a89df1459f6c0</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/189KqeuBE1JHhjoOJuPjmVSaQMF0tuf_7/view</t>
+  </si>
+  <si>
+    <t>805b929698577e9aca3fe4691eadeb51f4dc001d6c3c48625b4e2d7ff2f1f090</t>
+  </si>
+  <si>
     <t>5af15e5a89df1459f6c0aeb5cd0e5be28e4a54e50468f9b686f2d93a47fcd8b5</t>
   </si>
   <si>
@@ -1153,18 +1161,21 @@
     <t>drive.google.com/file/d/15ZzFOxNzuFtm8BtdxOiZbShpVngUdT_R/view</t>
   </si>
   <si>
-    <t>Viacheslav Horbanov</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/189KqeuBE1JHhjoOJuPjmVSaQMF0tuf_7/view</t>
-  </si>
-  <si>
-    <t>805b929698577e9aca3fe4691eadeb51f4dc001d6c3c48625b4e2d7ff2f1f090</t>
+    <t>22.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oleksii Stepaniuk</t>
   </si>
   <si>
     <t>709946c77b1372ca3cff</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1XQCDywsDSh6584NI_X7VTda9fxx9Ju6n/view</t>
+  </si>
+  <si>
+    <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
+  </si>
+  <si>
     <t>709946c77b1372ca3cffa6c6d383a1fa4c8806d267ecb824b4ee502f41c2e4c0</t>
   </si>
   <si>
@@ -1174,16 +1185,10 @@
     <t>drive.google.com/file/d/1-pE49RF7jkcKZaf7GMT9l_oK4tuCo-qU/view</t>
   </si>
   <si>
-    <t>22.08.2022</t>
-  </si>
-  <si>
-    <t>Oleksii Stepaniuk</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1XQCDywsDSh6584NI_X7VTda9fxx9Ju6n/view</t>
-  </si>
-  <si>
-    <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
+    <t xml:space="preserve">Kyrylo Riabov</t>
+  </si>
+  <si>
+    <t>6393707ada82a5797951</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1XyrBsaWWmIuwF0Hq8_K95lvtH9gb6l9O/view</t>
@@ -1192,9 +1197,6 @@
     <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
   </si>
   <si>
-    <t>Kyrylo Riabov</t>
-  </si>
-  <si>
     <t>6393707ada82a579795181b6ad3cbf89bc962a3b517c4fad1ff80807b72258e2</t>
   </si>
   <si>
@@ -1204,10 +1206,10 @@
     <t>drive.google.com/file/d/1Wq36pFh0ILRhfaIV-RMgTsS8Rw_UPsMQ/view</t>
   </si>
   <si>
-    <t>6393707ada82a5797951</t>
-  </si>
-  <si>
-    <t>Oleksandr Kolesnyk</t>
+    <t xml:space="preserve">Oleksandr Kolesnyk</t>
+  </si>
+  <si>
+    <t>b8536409d7a15f77c09c</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1ygsdcgJuPG9SqctWWdcmvdFYGBlg0Mfi/view</t>
@@ -1216,9 +1218,6 @@
     <t>a4bc9b1320f2e1e710e9b1fd60261ccf698609aee22bab0b8bc8f6278c77ff28</t>
   </si>
   <si>
-    <t>b8536409d7a15f77c09c</t>
-  </si>
-  <si>
     <t>b8536409d7a15f77c09c4ee971971d57834a7ce935d7de0afca925b431d7d3f0</t>
   </si>
   <si>
@@ -1228,46 +1227,58 @@
     <t>drive.google.com/file/d/1aW9TvbBrwnNuYXWpVf9DsaHrdOh5lBe6/view</t>
   </si>
   <si>
+    <t>23.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikita Chabaniuk</t>
+  </si>
+  <si>
     <t>4b7f8d4f293f72815ab4</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1HU3qhe9VaTIqZwLa4G3mOS0nHEg8DO8M/view</t>
+  </si>
+  <si>
+    <t>4b7f8d4f293f72815ab490bd586e210947057de3a2e9afb59fe92108421cfc43</t>
+  </si>
+  <si>
     <t>G2VIng2ixewyoOfF7ZTzpcGYTcmDx6zY2XXVDruaEShNbAYMCcWhVMWWXpHVa/vIIt6mI19G/JjIIBPaXI9uK6Y=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1YrBbtcKZvZerAB-P3IgI2VY_rNpYXWdd/view</t>
   </si>
   <si>
-    <t>23.08.2022</t>
-  </si>
-  <si>
-    <t>Nikita Chabaniuk</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1HU3qhe9VaTIqZwLa4G3mOS0nHEg8DO8M/view</t>
-  </si>
-  <si>
-    <t>4b7f8d4f293f72815ab490bd586e210947057de3a2e9afb59fe92108421cfc43</t>
+    <t xml:space="preserve">Amina Yambulatova</t>
+  </si>
+  <si>
+    <t>8e1b8b35cb7330ddc76e</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1cQNAJj42ZPrF7G2wJasBxsblGWb1cx6U/view</t>
   </si>
   <si>
     <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
   </si>
   <si>
-    <t>Amina Yambulatova</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1cQNAJj42ZPrF7G2wJasBxsblGWb1cx6U/view</t>
+    <t>8e1b8b35cb7330ddc76eb03e4878e055a523040b63232a27df27ca76e04a8678</t>
+  </si>
+  <si>
+    <t>G1YYB4Ev2kOYbqXr2cCeGRFHYlaynNvMmb6TrOoeBnzORoDe4Pips3BiaJZxZBBWtuSRec45V5h9Mce9vCSYCH8=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1cFcRCnazlkVCJwZpAUyUVf662LBzDlc1/view</t>
   </si>
   <si>
-    <t>8e1b8b35cb7330ddc76e</t>
-  </si>
-  <si>
-    <t>8e1b8b35cb7330ddc76eb03e4878e055a523040b63232a27df27ca76e04a8678</t>
-  </si>
-  <si>
-    <t>G1YYB4Ev2kOYbqXr2cCeGRFHYlaynNvMmb6TrOoeBnzORoDe4Pips3BiaJZxZBBWtuSRec45V5h9Mce9vCSYCH8=</t>
+    <t xml:space="preserve">Yegor Chukanov</t>
+  </si>
+  <si>
+    <t>95392bafab8d1e14ab55</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/17TrcHxOjczAIzHRX6jGL7d6ikxt2lACY/view</t>
+  </si>
+  <si>
+    <t>40f94f67b8a8d87da643ad5c019db2e6c6f6e960a03453048995c11eea36d236</t>
   </si>
   <si>
     <t>95392bafab8d1e14ab5530e8a6a2436a7faa1647c9af34869af6d793fdb526dd</t>
@@ -1276,21 +1287,21 @@
     <t>drive.google.com/file/d/1UXQ_dMB-t0DJ1zHqwUO4AMKw00xTe7Kd/view</t>
   </si>
   <si>
-    <t>95392bafab8d1e14ab55</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/17TrcHxOjczAIzHRX6jGL7d6ikxt2lACY/view</t>
-  </si>
-  <si>
-    <t>40f94f67b8a8d87da643ad5c019db2e6c6f6e960a03453048995c11eea36d236</t>
-  </si>
-  <si>
-    <t>Yegor Chukanov</t>
+    <t>24.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmytro Vynohradov</t>
   </si>
   <si>
     <t>3dc98e4fdedc7c6b91f5</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1JWQoCNMPVL8zCEb3aDGft9aNFn_7Bn6U/view</t>
+  </si>
+  <si>
+    <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
+  </si>
+  <si>
     <t>3dc98e4fdedc7c6b91f59db100a54a9d140ee40149845e160b9bf59021cfd763</t>
   </si>
   <si>
@@ -1300,21 +1311,18 @@
     <t>drive.google.com/file/d/1Gky0SNUujtYDy63EkDHDfdHn6lBJFb9g/view</t>
   </si>
   <si>
-    <t>24.08.2022</t>
-  </si>
-  <si>
-    <t>Dmytro Vynohradov</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1JWQoCNMPVL8zCEb3aDGft9aNFn_7Bn6U/view</t>
-  </si>
-  <si>
-    <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
+    <t xml:space="preserve">Mykhailo Sokolov</t>
   </si>
   <si>
     <t>5a875f69aae3c47635bc</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1-Woakmc6sQIZj_YuO0UujbdA_k7k30AQ/view</t>
+  </si>
+  <si>
+    <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
+  </si>
+  <si>
     <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
   </si>
   <si>
@@ -1324,19 +1332,13 @@
     <t>drive.google.com/file/d/17EMz1PARbz9e8RTVMLFvKCGrcuqxU0X5/view</t>
   </si>
   <si>
-    <t>Mykhailo Sokolov</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1-Woakmc6sQIZj_YuO0UujbdA_k7k30AQ/view</t>
-  </si>
-  <si>
-    <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
-  </si>
-  <si>
     <t>25.08.2022</t>
   </si>
   <si>
-    <t>Illia Popov</t>
+    <t xml:space="preserve">Illia Popov</t>
+  </si>
+  <si>
+    <t>c6e0a8f84ae9df426a28</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1jMQGHGOmWabDErZg-n19HYPP7sUPbA-C/view</t>
@@ -1345,9 +1347,6 @@
     <t>5cbc5e19fd5bb7d530d8e96ecd9e1f957e8731f7b5738c30b4b5e1bdda0861c4</t>
   </si>
   <si>
-    <t>c6e0a8f84ae9df426a28</t>
-  </si>
-  <si>
     <t>c6e0a8f84ae9df426a28363024a5e4734dea38882c37c27ccbf3350092257289</t>
   </si>
   <si>
@@ -1357,28 +1356,40 @@
     <t>drive.google.com/file/d/1rEPYF5Uwt1Gg--7B3QLoPSWrcIzAuG9l/view</t>
   </si>
   <si>
+    <t>26.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mykola Gora</t>
+  </si>
+  <si>
+    <t>e17451aabeae8492dbe7</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1QJKE4_V6OQFcAtrq5rdY3Rh_W91kgnxQ/view</t>
+  </si>
+  <si>
     <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
   </si>
   <si>
-    <t>26.08.2022</t>
-  </si>
-  <si>
-    <t>Mykola Gora</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1QJKE4_V6OQFcAtrq5rdY3Rh_W91kgnxQ/view</t>
+    <t>e17451aabeae8492dbe7099d581c12ef9e7a8366dd7ddf2267d0e42cd4580c19</t>
+  </si>
+  <si>
+    <t>G1rX7mp/6KhUVoryYkYmifpVakFz5esJ02otJ2mZPwp7MHkaFa8WdLamGh4FuZCo4AP8DoxRbh1+qYpxsEGumSY=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1NYZJn0Wxf8vR9QW-LE4U_2mvV5gX356p/view</t>
   </si>
   <si>
-    <t>e17451aabeae8492dbe7</t>
-  </si>
-  <si>
-    <t>e17451aabeae8492dbe7099d581c12ef9e7a8366dd7ddf2267d0e42cd4580c19</t>
-  </si>
-  <si>
-    <t>G1rX7mp/6KhUVoryYkYmifpVakFz5esJ02otJ2mZPwp7MHkaFa8WdLamGh4FuZCo4AP8DoxRbh1+qYpxsEGumSY=</t>
+    <t xml:space="preserve">Artem Levkin</t>
+  </si>
+  <si>
+    <t>4cfdcdc672279489b68a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1noq7bJhv9KNWgJD8xKbWqJaO3zb1pra1/view</t>
+  </si>
+  <si>
+    <t>417f8fbf445be4909b812ed5db8ded8669b512bcba91782881d11f10fe551570</t>
   </si>
   <si>
     <t>4cfdcdc672279489b68a1e900b2f8aa296d28d2d40fb08c1c5ca14562a1d23b3</t>
@@ -1390,16 +1401,13 @@
     <t>drive.google.com/file/d/1UxUzAyExCitVVyJENd4Ka9gN9rBDLUrw/view</t>
   </si>
   <si>
-    <t>4cfdcdc672279489b68a</t>
-  </si>
-  <si>
-    <t>Artem Levkin</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1noq7bJhv9KNWgJD8xKbWqJaO3zb1pra1/view</t>
-  </si>
-  <si>
-    <t>417f8fbf445be4909b812ed5db8ded8669b512bcba91782881d11f10fe551570</t>
+    <t>29.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalya Dolgova</t>
+  </si>
+  <si>
+    <t>34ea29020672eb21280c</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1z6IhpWNludHIAApZXih8yz4bCn6-Vt8M/view</t>
@@ -1408,24 +1416,24 @@
     <t>34ea29020672eb21280caadaf19377833ae12495cae3cc9e297d0f4aefe0d428</t>
   </si>
   <si>
-    <t>29.08.2022</t>
-  </si>
-  <si>
-    <t>Natalya Dolgova</t>
-  </si>
-  <si>
     <t>HB24fr9zRBm8R7uXlw5zXiUP5eHW5ljJJrmCwOpRp/4YRjQ/TpqUsmm+GMG8fdOVEEIellnn+Sif/IFeHOuPX4Y=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/10aBMeumWTAVfoCF9OhzWdrjtrC26Zmc3/view</t>
   </si>
   <si>
-    <t>34ea29020672eb21280c</t>
+    <t xml:space="preserve">Artem Zubrych</t>
   </si>
   <si>
     <t>905fa9409eec8ceee94c</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1aaqnORxWfLkmccryV49_7kjl_X3ui3uK/view</t>
+  </si>
+  <si>
+    <t>bfdf2d5236562eef75432a510ff9b0b4cd7d37ac17547d3e0515f4891a736609</t>
+  </si>
+  <si>
     <t>905fa9409eec8ceee94c08cd9f5410e03310ce041b58f41958ea440b3396b275</t>
   </si>
   <si>
@@ -1435,37 +1443,31 @@
     <t>drive.google.com/file/d/1MEjKKhuFeZ4mE0PM3kjRptb63VitKcTl/view</t>
   </si>
   <si>
-    <t>Artem Zubrych</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1aaqnORxWfLkmccryV49_7kjl_X3ui3uK/view</t>
-  </si>
-  <si>
-    <t>bfdf2d5236562eef75432a510ff9b0b4cd7d37ac17547d3e0515f4891a736609</t>
+    <t>30.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentyna Lytvynova</t>
+  </si>
+  <si>
+    <t>f4b8579fd5eced5139aa</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tVAP8fauK_wN1JHJrB5yyDCelAvkutVt/view</t>
+  </si>
+  <si>
+    <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
+  </si>
+  <si>
+    <t>HFOOeUrSvztcEv16aKHm4rhS4OG+5rifrKjnl2TLUMNuIvmOP+bmIwQ0R/CXhqPzLG93zNNZ7DDAzo4zX2JwqG0=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
   </si>
   <si>
-    <t>f4b8579fd5eced5139aa</t>
-  </si>
-  <si>
-    <t>HFOOeUrSvztcEv16aKHm4rhS4OG+5rifrKjnl2TLUMNuIvmOP+bmIwQ0R/CXhqPzLG93zNNZ7DDAzo4zX2JwqG0=</t>
-  </si>
-  <si>
-    <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
-  </si>
-  <si>
-    <t>30.08.2022</t>
-  </si>
-  <si>
-    <t>Valentyna Lytvynova</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tVAP8fauK_wN1JHJrB5yyDCelAvkutVt/view</t>
-  </si>
-  <si>
-    <t>Eugene Petrikeev</t>
+    <t xml:space="preserve">Eugene Petrikeev</t>
+  </si>
+  <si>
+    <t>a3cfa3e5bbc7bf47c73a</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1_UvD8BMIATW0UaJxtWCZTpytX5_CiSVw/view</t>
@@ -1483,10 +1485,10 @@
     <t>drive.google.com/file/d/1Es38UUfq4uF6K5m688upx26mH7dcLyOW/view</t>
   </si>
   <si>
-    <t>a3cfa3e5bbc7bf47c73a</t>
-  </si>
-  <si>
-    <t>Yurii Poberezhnyi</t>
+    <t xml:space="preserve">Yurii Poberezhnyi</t>
+  </si>
+  <si>
+    <t>f58f1fc15134ceb66672</t>
   </si>
   <si>
     <t>drive.google.com/file/d/13RaHOAUhpp6-9qTwDPNevrtrVrYljiGr/view</t>
@@ -1495,37 +1497,46 @@
     <t>f58f1fc15134ceb6667235bc35ca8e2bc62cf070e2a991a17d739ee3d744ec0a</t>
   </si>
   <si>
-    <t>f58f1fc15134ceb66672</t>
-  </si>
-  <si>
     <t>G0id81/AyLv4L2f1Cpy38tuZKCexDvgAwCSDLEP2wFERBEUIL9DUFSHweqt5XpHRUrIGyIocTY4rw5X+3BRYVQo=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1_MqAQ9X0jUmXaREfYybJjbDFMxW4y_dV/view</t>
   </si>
   <si>
+    <t>07.09.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alina Telnova</t>
+  </si>
+  <si>
+    <t>0c95f06fcccbe19e0bb6</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/12VzupVGrvNkCAb6z0yEId3srZwjB3_oV/view</t>
+  </si>
+  <si>
+    <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
+  </si>
+  <si>
+    <t>0c95f06fcccbe19e0bb6821d5f73206de2ba7ab6169774ac57630980fcfdf102</t>
+  </si>
+  <si>
     <t>G0cRPgCnc9gR979fw7SNVKjn1dtzkepjD/26FOnoJgjmCLAqctDx/62xZZTvPJAQ4ByVKaMOKZLGISJxpBRjSxk=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1QyeAEZg9sPSyHyju9DCa692a7BZuOUIM/view</t>
   </si>
   <si>
-    <t>0c95f06fcccbe19e0bb6</t>
-  </si>
-  <si>
-    <t>0c95f06fcccbe19e0bb6821d5f73206de2ba7ab6169774ac57630980fcfdf102</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/12VzupVGrvNkCAb6z0yEId3srZwjB3_oV/view</t>
-  </si>
-  <si>
-    <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
-  </si>
-  <si>
-    <t>07.09.2022</t>
-  </si>
-  <si>
-    <t>Alina Telnova</t>
+    <t>07.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oleksandra Ivanova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theory of database organization and basic SQL</t>
+  </si>
+  <si>
+    <t>a7a0e0e2fed389ffbc84</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1a35HB3dZNIFVRKh5MYvwbUMgYIYIeJcJ/view</t>
@@ -1534,13 +1545,7 @@
     <t>af27ce942975c91a06dbe4593ddf563b104b6cff511a916a18e473e33a3c6685</t>
   </si>
   <si>
-    <t>07.12.2022</t>
-  </si>
-  <si>
-    <t>Oleksandra Ivanova</t>
-  </si>
-  <si>
-    <t>Theory of database organization and basic SQL</t>
+    <t>a7a0e0e2fed389ffbc84aa75be30dc0262dac7620349a94e3f087de79d800aec</t>
   </si>
   <si>
     <t>HGAuSB4G9iS8qnGaGbTZOELzGnfVIOzeYAr51TKyBEI+R81nW4taggKbD837pJohHVGrr04rH5jPlwzyVAlOZf8=</t>
@@ -1549,10 +1554,13 @@
     <t>drive.google.com/file/d/1sz_pAnlIqmiCE-IlVrYH0bVnlb9CO7k3/view</t>
   </si>
   <si>
-    <t>a7a0e0e2fed389ffbc84</t>
-  </si>
-  <si>
-    <t>a7a0e0e2fed389ffbc84aa75be30dc0262dac7620349a94e3f087de79d800aec</t>
+    <t>08.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilona Shevchenko</t>
+  </si>
+  <si>
+    <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
   </si>
   <si>
     <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s=</t>
@@ -1561,13 +1569,10 @@
     <t>./qr/certificate_Ilona_Shevchenko_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
-  </si>
-  <si>
-    <t>08.12.2022</t>
-  </si>
-  <si>
-    <t>Ilona Shevchenko</t>
+    <t xml:space="preserve">Ievgeniia Bondar</t>
+  </si>
+  <si>
+    <t>53a0b93122b1b19f00b1770fcf8346ff6b499f4d7d038539404febdb403dd2d5</t>
   </si>
   <si>
     <t>HIgwLjNpC9EMttrwVCHCqYNaw9oP6JDSNC3WNNknWncLPhG4ednynhWTcdaeAX+FwguxVwPvX9m7LvvlPFKLdrQ=</t>
@@ -1576,13 +1581,7 @@
     <t>./qr/certificate_Ievgeniia_Bondar_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>53a0b93122b1b19f00b1770fcf8346ff6b499f4d7d038539404febdb403dd2d5</t>
-  </si>
-  <si>
-    <t>Ievgeniia Bondar</t>
-  </si>
-  <si>
-    <t>Sofia Golets</t>
+    <t xml:space="preserve">Sofia Golets</t>
   </si>
   <si>
     <t>7175c0e9b3bfed99d34b5ff6205db6a1d738a6f59b1edc16625a3de5e5df2337</t>
@@ -1594,7 +1593,7 @@
     <t>./qr/certificate_Sofia_Golets_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Mykyta Tsyvinskyi</t>
+    <t xml:space="preserve">Mykyta Tsyvinskyi</t>
   </si>
   <si>
     <t>d329fb86a98533895cc967dcae966e81c1704bd665227e866aa2243d40f860d1</t>
@@ -1606,31 +1605,31 @@
     <t>./qr/certificate_Mykyta_Tsyvinskyi_database_QR_codecreate.svg</t>
   </si>
   <si>
+    <t xml:space="preserve">Cryptography and information security theory</t>
+  </si>
+  <si>
+    <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
+  </si>
+  <si>
     <t>G+LRDlMfhyvZO7qLoCtZi3Y4Q1yC/VmYJUOF79rRwGAGH93HyPOn0ZUp6fjZE87K+JkhhSiBVl2Pf+AGfNu10RA=</t>
   </si>
   <si>
     <t>./qr/certificate_Mykhailo_Sokolov_security_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Cryptography and information security theory</t>
-  </si>
-  <si>
-    <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
+    <t>09.12.2022</t>
   </si>
   <si>
     <t>73728940f6f168a46120d32081278e9c30ab81815077aa212a721480bcebc441</t>
   </si>
   <si>
-    <t>09.12.2022</t>
-  </si>
-  <si>
     <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM=</t>
   </si>
   <si>
     <t>./qr/certificate_Mykhailo_Sokolov_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Kateryna Hordiienko</t>
+    <t xml:space="preserve">Kateryna Hordiienko</t>
   </si>
   <si>
     <t>c2d70295e9cd94ea36fa993ddb5a6e20a0b88058287ff348b485f282fe98bcd7</t>
@@ -1642,19 +1641,19 @@
     <t>./qr/certificate_Kateryna_Hordiienko_database_QR_codecreate.svg</t>
   </si>
   <si>
+    <t>12.12.2022</t>
+  </si>
+  <si>
+    <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
+  </si>
+  <si>
     <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU=</t>
   </si>
   <si>
     <t>./qr/certificate_Viacheslav_Horbanov_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>12.12.2022</t>
-  </si>
-  <si>
-    <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
-  </si>
-  <si>
-    <t>Yuliia Aritkulova</t>
+    <t xml:space="preserve">Yuliia Aritkulova</t>
   </si>
   <si>
     <t>dcc49868ac0482916b0fe63143198d93a159f912cae80d172fca6750a9b8223c</t>
@@ -1666,7 +1665,7 @@
     <t>./qr/certificate_Yuliia_Aritkulova_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Oleksandr Yevtushenko</t>
+    <t xml:space="preserve">Oleksandr Yevtushenko</t>
   </si>
   <si>
     <t>69469e3a141e8845c7809e75806677b732754cb64a3ab7e27ee50c47defaa7cd</t>
@@ -1678,18 +1677,18 @@
     <t>./qr/certificate_Oleksandr_Yevtushenko_database_QR_codecreate.svg</t>
   </si>
   <si>
+    <t xml:space="preserve">Mariia Mahdalina</t>
+  </si>
+  <si>
+    <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
+  </si>
+  <si>
     <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U=</t>
   </si>
   <si>
     <t>./qr/certificate_Mariia_Mahdalina_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
-  </si>
-  <si>
-    <t>Mariia Mahdalina</t>
-  </si>
-  <si>
     <t>766041da4e35a4d0486d569831f14d1b0170e9b3c0d5f3a1ad71da7b4dd65a40</t>
   </si>
   <si>
@@ -1699,19 +1698,25 @@
     <t>./qr/certificate_Yehor_Podporinov_security_QR_codecreate.svg</t>
   </si>
   <si>
+    <t>13.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anastasia Andreeva</t>
+  </si>
+  <si>
+    <t>b8204a738e7d7870dabd55671aca3a860dd89a35ef26e0842f271747331a2137</t>
+  </si>
+  <si>
     <t>HJVKQ2Uj9PkXKh4aB7EUy+qqEtzziBAX7CaNWYTiFDyXIQ5w6CG1bIat2vs1GsmBD+r6z55FbUFJFdXz57+QgUc=</t>
   </si>
   <si>
     <t>./qr/certificate_Anastasia_Andreeva_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>13.12.2022</t>
-  </si>
-  <si>
-    <t>Anastasia Andreeva</t>
-  </si>
-  <si>
-    <t>b8204a738e7d7870dabd55671aca3a860dd89a35ef26e0842f271747331a2137</t>
+    <t xml:space="preserve">Polina Reshetnikova</t>
+  </si>
+  <si>
+    <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
   </si>
   <si>
     <t>G63Lq+BtAcEqpIZphPzrLfd1K4chy2llUoMMBLMQGk5gdyNM+62UvBxqqOxckVeN2RtGC1vCiL0NvWNvEPfV4YE=</t>
@@ -1720,12 +1725,6 @@
     <t>./qr/certificate_Polina_Reshetnikova_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Polina Reshetnikova</t>
-  </si>
-  <si>
-    <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
-  </si>
-  <si>
     <t>93620030db08953cbf17468ffde46134834b7da10958b5174e935d4e324ce081</t>
   </si>
   <si>
@@ -1735,49 +1734,55 @@
     <t>./qr/certificate_Valentyna_Lytvynova_database_QR_codecreate.svg</t>
   </si>
   <si>
+    <t>b3240a1974bff838f35320554f851b14ea2bd31f46bcb893a35546b7ea8b3112</t>
+  </si>
+  <si>
     <t>HE5sTfhDSPPfvHdDSYkSvX2ZkktsyYMaoVxamHtpKMWoUxr7olw6SaItyMSztkPit37aQqfQ+YAsvCfZ01AcAwc=</t>
   </si>
   <si>
     <t>./qr/certificate_Illia_Popov_security_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>b3240a1974bff838f35320554f851b14ea2bd31f46bcb893a35546b7ea8b3112</t>
+    <t>14.12.2022</t>
   </si>
   <si>
     <t>b94492feb30efb7f94082666a936891a31a43de0e18af1aa8a110ef869532d93</t>
   </si>
   <si>
-    <t>14.12.2022</t>
-  </si>
-  <si>
     <t>G6+s7V2DHLaRMUYNOIA8N40KmelApLWT3iXHGYHXv0ZJIGVzGNez6R9Ai+af6Go130PTYDBGSDSN/q4KZdDYaqI=</t>
   </si>
   <si>
     <t>./qr/certificate_Yehor_Podporinov_database_QR_codecreate.svg</t>
   </si>
   <si>
+    <t xml:space="preserve">Pasha Charovatiy</t>
+  </si>
+  <si>
     <t>151f4183ce68ec59b82ccbef71ac6f538e0eb86354c29ded27bca54fa4b95c99</t>
   </si>
   <si>
-    <t>Pasha Charovatiy</t>
-  </si>
-  <si>
     <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
   </si>
   <si>
     <t>./qr/certificate_Pasha_Charovatiy_database_QR_codecreate.svg</t>
   </si>
   <si>
+    <t xml:space="preserve">Dmytro Serhiienko</t>
+  </si>
+  <si>
+    <t>42bdd76bce3b85dabf4bdba92100db768bf64e72f2b3535930b69bef40aa3c4c</t>
+  </si>
+  <si>
     <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y=</t>
   </si>
   <si>
     <t>./qr/certificate_Dmytro_Serhiienko_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Dmytro Serhiienko</t>
-  </si>
-  <si>
-    <t>42bdd76bce3b85dabf4bdba92100db768bf64e72f2b3535930b69bef40aa3c4c</t>
+    <t xml:space="preserve">Vladislav Dmitrenko</t>
+  </si>
+  <si>
+    <t>890c4726435f6d5a1c10068273e8dd8a3ac0645a9564bbf149f0d74a891669c6</t>
   </si>
   <si>
     <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8=</t>
@@ -1786,10 +1791,10 @@
     <t>./qr/certificate_Vladislav_Dmitrenko_security_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Vladislav Dmitrenko</t>
-  </si>
-  <si>
-    <t>890c4726435f6d5a1c10068273e8dd8a3ac0645a9564bbf149f0d74a891669c6</t>
+    <t xml:space="preserve">Marina Rindina</t>
+  </si>
+  <si>
+    <t>05f89d361327d9ef1679342cb8ed0488715da550cba8f0bdc7160caa43b5929c</t>
   </si>
   <si>
     <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
@@ -1798,10 +1803,13 @@
     <t>./qr/certificate_Marina_Rindina_security_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Marina Rindina</t>
-  </si>
-  <si>
-    <t>05f89d361327d9ef1679342cb8ed0488715da550cba8f0bdc7160caa43b5929c</t>
+    <t>15.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazar Franko</t>
+  </si>
+  <si>
+    <t>fec88d795aed9c59a04f91dedb06380fd764c753a54d6bdb96cea82b6ba05e29</t>
   </si>
   <si>
     <t>HL/mv02dnaeyvxsR9TyKJfqMl9lFEn1L8OidD6AzOq6SbieHRkQRPK29os5vKBwoJ5+Bf7RtfN9xUiVEOCASXj0=</t>
@@ -1810,13 +1818,10 @@
     <t>./qr/certificate_Nazar_Franko_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>fec88d795aed9c59a04f91dedb06380fd764c753a54d6bdb96cea82b6ba05e29</t>
-  </si>
-  <si>
-    <t>15.12.2022</t>
-  </si>
-  <si>
-    <t>Nazar Franko</t>
+    <t xml:space="preserve">Olha Drahomeretska</t>
+  </si>
+  <si>
+    <t>9b293cc55ae62c9db4d9ce36cbc12b07e861f9c2cc1fdea2619f10ceca7aa779</t>
   </si>
   <si>
     <t>HErdMQ+2CPtlOJcP0I5vxghyuQmJVGZrrQr9SzMolPyHA1fUnzBjAbN7DzwkyP+y7M+dkiNCGOkNsY3YZaCO1XA=</t>
@@ -1825,16 +1830,13 @@
     <t>./qr/certificate_Olha_Drahomeretska_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>9b293cc55ae62c9db4d9ce36cbc12b07e861f9c2cc1fdea2619f10ceca7aa779</t>
-  </si>
-  <si>
-    <t>Olha Drahomeretska</t>
-  </si>
-  <si>
-    <t>Maksym Cherniak</t>
+    <t xml:space="preserve">Maksym Cherniak</t>
   </si>
   <si>
     <t>ac2b88ac92caf80b12076489c877b91785360487aa3135871883e597da139682</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
@@ -1855,13 +1857,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1882,21 +1883,309 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1938,74 +2227,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2013,7 +2242,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2039,7 +2268,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2091,16 +2320,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2116,7 +2357,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2147,68 +2388,68 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView topLeftCell="A85" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -2269,10 +2510,10 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -2304,7 +2545,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -2324,7 +2565,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -2333,10 +2574,10 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -2356,7 +2597,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -2368,7 +2609,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -2388,7 +2629,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2397,10 +2638,10 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -2432,7 +2673,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -2464,7 +2705,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -2496,7 +2737,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -2525,7 +2766,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -2560,7 +2801,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -2589,10 +2830,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -2624,7 +2865,7 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -2656,7 +2897,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -2688,7 +2929,7 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -2708,7 +2949,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -2717,10 +2958,10 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -2749,7 +2990,7 @@
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
@@ -2781,10 +3022,10 @@
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -2816,7 +3057,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -2836,7 +3077,7 @@
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -2848,7 +3089,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -2909,7 +3150,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
@@ -2976,7 +3217,7 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -3008,7 +3249,7 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -3040,7 +3281,7 @@
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -3069,7 +3310,7 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
         <v>62</v>
@@ -3104,7 +3345,7 @@
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -3133,7 +3374,7 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
         <v>65</v>
@@ -3156,7 +3397,7 @@
         <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -3165,10 +3406,10 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
@@ -3200,7 +3441,7 @@
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -3232,7 +3473,7 @@
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
         <v>13</v>
@@ -3296,7 +3537,7 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -3316,7 +3557,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
         <v>60</v>
@@ -3328,7 +3569,7 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
@@ -3345,66 +3586,66 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
         <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
         <v>81</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>82</v>
       </c>
-      <c r="H38" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" t="s">
-        <v>76</v>
-      </c>
       <c r="J38" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" t="s">
         <v>88</v>
       </c>
-      <c r="B39" t="s">
+      <c r="H39" t="s">
         <v>89</v>
       </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="I39" t="s">
         <v>90</v>
       </c>
-      <c r="G39" t="s">
+      <c r="J39" t="s">
         <v>91</v>
-      </c>
-      <c r="H39" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J39" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="40">
@@ -3415,19 +3656,19 @@
         <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" t="s">
         <v>96</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" t="s">
-        <v>95</v>
       </c>
       <c r="H40" t="s">
         <v>97</v>
@@ -3441,258 +3682,258 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" t="s">
         <v>106</v>
       </c>
-      <c r="B41" t="s">
+      <c r="J41" t="s">
         <v>107</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" t="s">
-        <v>100</v>
-      </c>
-      <c r="I41" t="s">
-        <v>101</v>
-      </c>
-      <c r="J41" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" t="s">
+        <v>113</v>
+      </c>
+      <c r="J42" t="s">
         <v>114</v>
-      </c>
-      <c r="B42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>113</v>
-      </c>
-      <c r="H42" t="s">
-        <v>108</v>
-      </c>
-      <c r="I42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J43" t="s">
         <v>122</v>
-      </c>
-      <c r="B43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H43" t="s">
-        <v>115</v>
-      </c>
-      <c r="I43" t="s">
-        <v>116</v>
-      </c>
-      <c r="J43" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" t="s">
         <v>127</v>
       </c>
-      <c r="C44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="I44" t="s">
         <v>128</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J44" t="s">
         <v>129</v>
-      </c>
-      <c r="H44" t="s">
-        <v>124</v>
-      </c>
-      <c r="I44" t="s">
-        <v>125</v>
-      </c>
-      <c r="J44" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
         <v>133</v>
       </c>
       <c r="H45" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I45" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G46" t="s">
         <v>140</v>
       </c>
       <c r="H46" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I46" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J46" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" t="s">
         <v>148</v>
       </c>
-      <c r="B47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" t="s">
+        <v>151</v>
+      </c>
+      <c r="I47" t="s">
+        <v>152</v>
+      </c>
+      <c r="J47" t="s">
         <v>153</v>
-      </c>
-      <c r="E47" t="s">
-        <v>149</v>
-      </c>
-      <c r="F47" t="s">
-        <v>146</v>
-      </c>
-      <c r="G47" t="s">
-        <v>147</v>
-      </c>
-      <c r="H47" t="s">
-        <v>150</v>
-      </c>
-      <c r="I47" t="s">
-        <v>151</v>
-      </c>
-      <c r="J47" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" t="s">
         <v>148</v>
       </c>
-      <c r="B48" t="s">
+      <c r="F48" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" t="s">
         <v>157</v>
       </c>
-      <c r="C48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" t="s">
-        <v>154</v>
-      </c>
-      <c r="E48" t="s">
-        <v>149</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
+        <v>151</v>
+      </c>
+      <c r="I48" t="s">
         <v>158</v>
       </c>
-      <c r="G48" t="s">
+      <c r="J48" t="s">
         <v>159</v>
-      </c>
-      <c r="H48" t="s">
-        <v>150</v>
-      </c>
-      <c r="I48" t="s">
-        <v>155</v>
-      </c>
-      <c r="J48" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="49">
@@ -3703,22 +3944,22 @@
         <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" t="s">
         <v>164</v>
       </c>
-      <c r="E49" t="s">
-        <v>149</v>
-      </c>
-      <c r="F49" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" t="s">
-        <v>163</v>
-      </c>
       <c r="H49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I49" t="s">
         <v>165</v>
@@ -3732,31 +3973,31 @@
         <v>160</v>
       </c>
       <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>169</v>
+      </c>
+      <c r="G50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H50" t="s">
         <v>171</v>
       </c>
-      <c r="C50" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" t="s">
-        <v>167</v>
-      </c>
-      <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="I50" t="s">
         <v>172</v>
       </c>
-      <c r="G50" t="s">
+      <c r="J50" t="s">
         <v>173</v>
-      </c>
-      <c r="H50" t="s">
-        <v>168</v>
-      </c>
-      <c r="I50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J50" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="51">
@@ -3767,22 +4008,22 @@
         <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" t="s">
         <v>177</v>
       </c>
-      <c r="E51" t="s">
-        <v>149</v>
-      </c>
-      <c r="F51" t="s">
-        <v>175</v>
-      </c>
-      <c r="G51" t="s">
-        <v>176</v>
-      </c>
       <c r="H51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I51" t="s">
         <v>178</v>
@@ -3796,31 +4037,31 @@
         <v>160</v>
       </c>
       <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" t="s">
+        <v>182</v>
+      </c>
+      <c r="G52" t="s">
         <v>183</v>
       </c>
-      <c r="C52" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" t="s">
-        <v>180</v>
-      </c>
-      <c r="E52" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
+        <v>151</v>
+      </c>
+      <c r="I52" t="s">
         <v>184</v>
       </c>
-      <c r="G52" t="s">
+      <c r="J52" t="s">
         <v>185</v>
-      </c>
-      <c r="H52" t="s">
-        <v>150</v>
-      </c>
-      <c r="I52" t="s">
-        <v>181</v>
-      </c>
-      <c r="J52" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="53">
@@ -3828,31 +4069,31 @@
         <v>160</v>
       </c>
       <c r="B53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53" t="s">
+        <v>189</v>
+      </c>
+      <c r="H53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" t="s">
+        <v>190</v>
+      </c>
+      <c r="J53" t="s">
         <v>191</v>
-      </c>
-      <c r="C53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F53" t="s">
-        <v>189</v>
-      </c>
-      <c r="G53" t="s">
-        <v>190</v>
-      </c>
-      <c r="H53" t="s">
-        <v>150</v>
-      </c>
-      <c r="I53" t="s">
-        <v>186</v>
-      </c>
-      <c r="J53" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="54">
@@ -3860,31 +4101,31 @@
         <v>160</v>
       </c>
       <c r="B54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" t="s">
         <v>194</v>
       </c>
-      <c r="C54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
+        <v>195</v>
+      </c>
+      <c r="H54" t="s">
+        <v>151</v>
+      </c>
+      <c r="I54" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" t="s">
         <v>197</v>
-      </c>
-      <c r="E54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" t="s">
-        <v>192</v>
-      </c>
-      <c r="G54" t="s">
-        <v>193</v>
-      </c>
-      <c r="H54" t="s">
-        <v>150</v>
-      </c>
-      <c r="I54" t="s">
-        <v>195</v>
-      </c>
-      <c r="J54" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="55">
@@ -3892,31 +4133,31 @@
         <v>160</v>
       </c>
       <c r="B55" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" t="s">
+        <v>201</v>
+      </c>
+      <c r="H55" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" t="s">
+        <v>202</v>
+      </c>
+      <c r="J55" t="s">
         <v>203</v>
-      </c>
-      <c r="C55" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" t="s">
-        <v>200</v>
-      </c>
-      <c r="E55" t="s">
-        <v>149</v>
-      </c>
-      <c r="F55" t="s">
-        <v>201</v>
-      </c>
-      <c r="G55" t="s">
-        <v>202</v>
-      </c>
-      <c r="H55" t="s">
-        <v>150</v>
-      </c>
-      <c r="I55" t="s">
-        <v>198</v>
-      </c>
-      <c r="J55" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="56">
@@ -3927,22 +4168,22 @@
         <v>204</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D56" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" t="s">
+        <v>206</v>
+      </c>
+      <c r="G56" t="s">
         <v>207</v>
       </c>
-      <c r="E56" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56" t="s">
-        <v>205</v>
-      </c>
-      <c r="G56" t="s">
-        <v>206</v>
-      </c>
       <c r="H56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I56" t="s">
         <v>208</v>
@@ -3959,22 +4200,22 @@
         <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" t="s">
+        <v>163</v>
+      </c>
+      <c r="G57" t="s">
         <v>164</v>
       </c>
-      <c r="E57" t="s">
-        <v>149</v>
-      </c>
-      <c r="F57" t="s">
-        <v>162</v>
-      </c>
-      <c r="G57" t="s">
-        <v>163</v>
-      </c>
       <c r="H57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I57" t="s">
         <v>165</v>
@@ -3988,255 +4229,255 @@
         <v>160</v>
       </c>
       <c r="B58" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" t="s">
+        <v>211</v>
+      </c>
+      <c r="E58" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" t="s">
+        <v>212</v>
+      </c>
+      <c r="G58" t="s">
+        <v>213</v>
+      </c>
+      <c r="H58" t="s">
+        <v>151</v>
+      </c>
+      <c r="I58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J58" t="s">
         <v>215</v>
-      </c>
-      <c r="C58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" t="s">
-        <v>212</v>
-      </c>
-      <c r="E58" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" t="s">
-        <v>213</v>
-      </c>
-      <c r="G58" t="s">
-        <v>214</v>
-      </c>
-      <c r="H58" t="s">
-        <v>150</v>
-      </c>
-      <c r="I58" t="s">
-        <v>210</v>
-      </c>
-      <c r="J58" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E59" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G59" t="s">
         <v>220</v>
       </c>
       <c r="H59" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I59" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J59" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" t="s">
+        <v>226</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>227</v>
+      </c>
+      <c r="G60" t="s">
         <v>228</v>
       </c>
-      <c r="B60" t="s">
+      <c r="H60" t="s">
         <v>229</v>
       </c>
-      <c r="C60" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" t="s">
-        <v>224</v>
-      </c>
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="I60" t="s">
         <v>230</v>
       </c>
-      <c r="G60" t="s">
+      <c r="J60" t="s">
         <v>231</v>
-      </c>
-      <c r="H60" t="s">
-        <v>225</v>
-      </c>
-      <c r="I60" t="s">
-        <v>226</v>
-      </c>
-      <c r="J60" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" t="s">
+        <v>234</v>
+      </c>
+      <c r="G61" t="s">
         <v>235</v>
       </c>
-      <c r="C61" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" t="s">
-        <v>234</v>
-      </c>
-      <c r="E61" t="s">
-        <v>149</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="H61" t="s">
+        <v>151</v>
+      </c>
+      <c r="I61" t="s">
         <v>236</v>
       </c>
-      <c r="G61" t="s">
+      <c r="J61" t="s">
         <v>237</v>
-      </c>
-      <c r="H61" t="s">
-        <v>150</v>
-      </c>
-      <c r="I61" t="s">
-        <v>232</v>
-      </c>
-      <c r="J61" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" t="s">
         <v>240</v>
       </c>
-      <c r="B62" t="s">
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
         <v>241</v>
       </c>
-      <c r="C62" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="G62" t="s">
+        <v>242</v>
+      </c>
+      <c r="H62" t="s">
+        <v>243</v>
+      </c>
+      <c r="I62" t="s">
+        <v>244</v>
+      </c>
+      <c r="J62" t="s">
         <v>245</v>
-      </c>
-      <c r="E62" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" t="s">
-        <v>238</v>
-      </c>
-      <c r="G62" t="s">
-        <v>239</v>
-      </c>
-      <c r="H62" t="s">
-        <v>242</v>
-      </c>
-      <c r="I62" t="s">
-        <v>243</v>
-      </c>
-      <c r="J62" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G63" t="s">
         <v>250</v>
       </c>
       <c r="H63" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I63" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J63" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" t="s">
         <v>256</v>
       </c>
-      <c r="B64" t="s">
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
         <v>257</v>
       </c>
-      <c r="C64" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="G64" t="s">
+        <v>258</v>
+      </c>
+      <c r="H64" t="s">
+        <v>259</v>
+      </c>
+      <c r="I64" t="s">
         <v>260</v>
       </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>254</v>
-      </c>
-      <c r="G64" t="s">
-        <v>255</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="J64" t="s">
         <v>261</v>
-      </c>
-      <c r="I64" t="s">
-        <v>258</v>
-      </c>
-      <c r="J64" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B65" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
         <v>264</v>
       </c>
-      <c r="C65" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="G65" t="s">
+        <v>265</v>
+      </c>
+      <c r="H65" t="s">
+        <v>266</v>
+      </c>
+      <c r="I65" t="s">
         <v>267</v>
       </c>
-      <c r="E65" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" t="s">
-        <v>262</v>
-      </c>
-      <c r="G65" t="s">
-        <v>263</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="J65" t="s">
         <v>268</v>
-      </c>
-      <c r="I65" t="s">
-        <v>265</v>
-      </c>
-      <c r="J65" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="66">
@@ -4247,19 +4488,19 @@
         <v>270</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D66" t="s">
+        <v>271</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>272</v>
+      </c>
+      <c r="G66" t="s">
         <v>273</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" t="s">
-        <v>271</v>
-      </c>
-      <c r="G66" t="s">
-        <v>272</v>
       </c>
       <c r="H66" t="s">
         <v>274</v>
@@ -4276,31 +4517,31 @@
         <v>269</v>
       </c>
       <c r="B67" t="s">
+        <v>277</v>
+      </c>
+      <c r="C67" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" t="s">
+        <v>278</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>279</v>
+      </c>
+      <c r="G67" t="s">
+        <v>280</v>
+      </c>
+      <c r="H67" t="s">
         <v>281</v>
       </c>
-      <c r="C67" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" t="s">
-        <v>277</v>
-      </c>
-      <c r="E67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="I67" t="s">
         <v>282</v>
       </c>
-      <c r="G67" t="s">
+      <c r="J67" t="s">
         <v>283</v>
-      </c>
-      <c r="H67" t="s">
-        <v>278</v>
-      </c>
-      <c r="I67" t="s">
-        <v>279</v>
-      </c>
-      <c r="J67" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="68">
@@ -4311,22 +4552,22 @@
         <v>285</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D68" t="s">
+        <v>286</v>
+      </c>
+      <c r="E68" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" t="s">
+        <v>287</v>
+      </c>
+      <c r="G68" t="s">
         <v>288</v>
       </c>
-      <c r="E68" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" t="s">
-        <v>286</v>
-      </c>
-      <c r="G68" t="s">
-        <v>287</v>
-      </c>
       <c r="H68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I68" t="s">
         <v>289</v>
@@ -4343,19 +4584,19 @@
         <v>292</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D69" t="s">
+        <v>293</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>294</v>
+      </c>
+      <c r="G69" t="s">
         <v>295</v>
-      </c>
-      <c r="E69" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" t="s">
-        <v>293</v>
-      </c>
-      <c r="G69" t="s">
-        <v>294</v>
       </c>
       <c r="H69" t="s">
         <v>296</v>
@@ -4375,19 +4616,19 @@
         <v>299</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D70" t="s">
+        <v>300</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>301</v>
+      </c>
+      <c r="G70" t="s">
         <v>302</v>
-      </c>
-      <c r="E70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" t="s">
-        <v>300</v>
-      </c>
-      <c r="G70" t="s">
-        <v>301</v>
       </c>
       <c r="H70" t="s">
         <v>303</v>
@@ -4404,31 +4645,31 @@
         <v>291</v>
       </c>
       <c r="B71" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" t="s">
+        <v>307</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>308</v>
+      </c>
+      <c r="G71" t="s">
+        <v>309</v>
+      </c>
+      <c r="H71" t="s">
+        <v>310</v>
+      </c>
+      <c r="I71" t="s">
+        <v>311</v>
+      </c>
+      <c r="J71" t="s">
         <v>312</v>
-      </c>
-      <c r="C71" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" t="s">
-        <v>308</v>
-      </c>
-      <c r="E71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" t="s">
-        <v>310</v>
-      </c>
-      <c r="G71" t="s">
-        <v>311</v>
-      </c>
-      <c r="H71" t="s">
-        <v>309</v>
-      </c>
-      <c r="I71" t="s">
-        <v>306</v>
-      </c>
-      <c r="J71" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="72">
@@ -4439,22 +4680,22 @@
         <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D72" t="s">
+        <v>314</v>
+      </c>
+      <c r="E72" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" t="s">
+        <v>315</v>
+      </c>
+      <c r="G72" t="s">
         <v>316</v>
       </c>
-      <c r="E72" t="s">
-        <v>149</v>
-      </c>
-      <c r="F72" t="s">
-        <v>314</v>
-      </c>
-      <c r="G72" t="s">
-        <v>315</v>
-      </c>
       <c r="H72" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I72" t="s">
         <v>317</v>
@@ -4471,19 +4712,19 @@
         <v>320</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D73" t="s">
+        <v>321</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>322</v>
+      </c>
+      <c r="G73" t="s">
         <v>323</v>
-      </c>
-      <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" t="s">
-        <v>321</v>
-      </c>
-      <c r="G73" t="s">
-        <v>322</v>
       </c>
       <c r="H73" t="s">
         <v>324</v>
@@ -4500,31 +4741,31 @@
         <v>319</v>
       </c>
       <c r="B74" t="s">
+        <v>327</v>
+      </c>
+      <c r="C74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" t="s">
+        <v>328</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
         <v>329</v>
       </c>
-      <c r="C74" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="G74" t="s">
+        <v>330</v>
+      </c>
+      <c r="H74" t="s">
+        <v>331</v>
+      </c>
+      <c r="I74" t="s">
         <v>332</v>
       </c>
-      <c r="E74" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" t="s">
-        <v>327</v>
-      </c>
-      <c r="G74" t="s">
-        <v>328</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="J74" t="s">
         <v>333</v>
-      </c>
-      <c r="I74" t="s">
-        <v>330</v>
-      </c>
-      <c r="J74" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="75">
@@ -4535,19 +4776,19 @@
         <v>335</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D75" t="s">
+        <v>336</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>337</v>
+      </c>
+      <c r="G75" t="s">
         <v>338</v>
-      </c>
-      <c r="E75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" t="s">
-        <v>336</v>
-      </c>
-      <c r="G75" t="s">
-        <v>337</v>
       </c>
       <c r="H75" t="s">
         <v>339</v>
@@ -4567,22 +4808,22 @@
         <v>342</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D76" t="s">
+        <v>343</v>
+      </c>
+      <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
+        <v>344</v>
+      </c>
+      <c r="G76" t="s">
         <v>345</v>
       </c>
-      <c r="E76" t="s">
-        <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>343</v>
-      </c>
-      <c r="G76" t="s">
-        <v>344</v>
-      </c>
       <c r="H76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I76" t="s">
         <v>346</v>
@@ -4596,31 +4837,31 @@
         <v>334</v>
       </c>
       <c r="B77" t="s">
+        <v>348</v>
+      </c>
+      <c r="C77" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" t="s">
+        <v>349</v>
+      </c>
+      <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>350</v>
       </c>
-      <c r="C77" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="G77" t="s">
+        <v>351</v>
+      </c>
+      <c r="H77" t="s">
+        <v>151</v>
+      </c>
+      <c r="I77" t="s">
+        <v>352</v>
+      </c>
+      <c r="J77" t="s">
         <v>353</v>
-      </c>
-      <c r="E77" t="s">
-        <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>348</v>
-      </c>
-      <c r="G77" t="s">
-        <v>349</v>
-      </c>
-      <c r="H77" t="s">
-        <v>150</v>
-      </c>
-      <c r="I77" t="s">
-        <v>351</v>
-      </c>
-      <c r="J77" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="78">
@@ -4631,22 +4872,22 @@
         <v>355</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D78" t="s">
+        <v>356</v>
+      </c>
+      <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
+        <v>357</v>
+      </c>
+      <c r="G78" t="s">
         <v>358</v>
       </c>
-      <c r="E78" t="s">
-        <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>356</v>
-      </c>
-      <c r="G78" t="s">
-        <v>357</v>
-      </c>
       <c r="H78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I78" t="s">
         <v>359</v>
@@ -4660,31 +4901,31 @@
         <v>354</v>
       </c>
       <c r="B79" t="s">
+        <v>361</v>
+      </c>
+      <c r="C79" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" t="s">
+        <v>362</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>363</v>
+      </c>
+      <c r="G79" t="s">
+        <v>364</v>
+      </c>
+      <c r="H79" t="s">
         <v>365</v>
       </c>
-      <c r="C79" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79" t="s">
-        <v>361</v>
-      </c>
-      <c r="E79" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="I79" t="s">
         <v>366</v>
       </c>
-      <c r="G79" t="s">
+      <c r="J79" t="s">
         <v>367</v>
-      </c>
-      <c r="H79" t="s">
-        <v>362</v>
-      </c>
-      <c r="I79" t="s">
-        <v>363</v>
-      </c>
-      <c r="J79" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="80">
@@ -4692,31 +4933,31 @@
         <v>354</v>
       </c>
       <c r="B80" t="s">
+        <v>368</v>
+      </c>
+      <c r="C80" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" t="s">
+        <v>369</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>370</v>
+      </c>
+      <c r="G80" t="s">
+        <v>371</v>
+      </c>
+      <c r="H80" t="s">
         <v>372</v>
       </c>
-      <c r="C80" t="s">
-        <v>145</v>
-      </c>
-      <c r="D80" t="s">
-        <v>368</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="I80" t="s">
         <v>373</v>
       </c>
-      <c r="G80" t="s">
+      <c r="J80" t="s">
         <v>374</v>
-      </c>
-      <c r="H80" t="s">
-        <v>369</v>
-      </c>
-      <c r="I80" t="s">
-        <v>370</v>
-      </c>
-      <c r="J80" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="81">
@@ -4724,118 +4965,118 @@
         <v>354</v>
       </c>
       <c r="B81" t="s">
+        <v>375</v>
+      </c>
+      <c r="C81" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" t="s">
+        <v>376</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>377</v>
+      </c>
+      <c r="G81" t="s">
+        <v>378</v>
+      </c>
+      <c r="H81" t="s">
         <v>379</v>
       </c>
-      <c r="C81" t="s">
-        <v>145</v>
-      </c>
-      <c r="D81" t="s">
-        <v>375</v>
-      </c>
-      <c r="E81" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="I81" t="s">
         <v>380</v>
       </c>
-      <c r="G81" t="s">
+      <c r="J81" t="s">
         <v>381</v>
-      </c>
-      <c r="H81" t="s">
-        <v>376</v>
-      </c>
-      <c r="I81" t="s">
-        <v>377</v>
-      </c>
-      <c r="J81" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>382</v>
+      </c>
+      <c r="B82" t="s">
+        <v>383</v>
+      </c>
+      <c r="C82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" t="s">
+        <v>384</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" t="s">
+        <v>385</v>
+      </c>
+      <c r="G82" t="s">
         <v>386</v>
       </c>
-      <c r="B82" t="s">
+      <c r="H82" t="s">
         <v>387</v>
       </c>
-      <c r="C82" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82" t="s">
-        <v>382</v>
-      </c>
-      <c r="E82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="I82" t="s">
         <v>388</v>
       </c>
-      <c r="G82" t="s">
+      <c r="J82" t="s">
         <v>389</v>
-      </c>
-      <c r="H82" t="s">
-        <v>383</v>
-      </c>
-      <c r="I82" t="s">
-        <v>384</v>
-      </c>
-      <c r="J82" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B83" t="s">
+        <v>390</v>
+      </c>
+      <c r="C83" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" t="s">
+        <v>391</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" t="s">
         <v>392</v>
       </c>
-      <c r="C83" t="s">
-        <v>145</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="G83" t="s">
+        <v>393</v>
+      </c>
+      <c r="H83" t="s">
+        <v>394</v>
+      </c>
+      <c r="I83" t="s">
+        <v>395</v>
+      </c>
+      <c r="J83" t="s">
         <v>396</v>
-      </c>
-      <c r="E83" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" t="s">
-        <v>390</v>
-      </c>
-      <c r="G83" t="s">
-        <v>391</v>
-      </c>
-      <c r="H83" t="s">
-        <v>393</v>
-      </c>
-      <c r="I83" t="s">
-        <v>394</v>
-      </c>
-      <c r="J83" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B84" t="s">
         <v>397</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D84" t="s">
+        <v>398</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>399</v>
+      </c>
+      <c r="G84" t="s">
         <v>400</v>
-      </c>
-      <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" t="s">
-        <v>398</v>
-      </c>
-      <c r="G84" t="s">
-        <v>399</v>
       </c>
       <c r="H84" t="s">
         <v>401</v>
@@ -4849,48 +5090,48 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>404</v>
+      </c>
+      <c r="B85" t="s">
+        <v>405</v>
+      </c>
+      <c r="C85" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" t="s">
+        <v>406</v>
+      </c>
+      <c r="E85" t="s">
+        <v>148</v>
+      </c>
+      <c r="F85" t="s">
         <v>407</v>
       </c>
-      <c r="B85" t="s">
+      <c r="G85" t="s">
         <v>408</v>
       </c>
-      <c r="C85" t="s">
-        <v>145</v>
-      </c>
-      <c r="D85" t="s">
-        <v>404</v>
-      </c>
-      <c r="E85" t="s">
-        <v>149</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
+        <v>151</v>
+      </c>
+      <c r="I85" t="s">
         <v>409</v>
       </c>
-      <c r="G85" t="s">
+      <c r="J85" t="s">
         <v>410</v>
-      </c>
-      <c r="H85" t="s">
-        <v>150</v>
-      </c>
-      <c r="I85" t="s">
-        <v>405</v>
-      </c>
-      <c r="J85" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B86" t="s">
+        <v>411</v>
+      </c>
+      <c r="C86" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" t="s">
         <v>412</v>
-      </c>
-      <c r="C86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D86" t="s">
-        <v>415</v>
       </c>
       <c r="E86" t="s">
         <v>13</v>
@@ -4899,112 +5140,112 @@
         <v>413</v>
       </c>
       <c r="G86" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H86" t="s">
+        <v>415</v>
+      </c>
+      <c r="I86" t="s">
         <v>416</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>417</v>
-      </c>
-      <c r="J86" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B87" t="s">
+        <v>418</v>
+      </c>
+      <c r="C87" t="s">
+        <v>146</v>
+      </c>
+      <c r="D87" t="s">
+        <v>419</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>420</v>
+      </c>
+      <c r="G87" t="s">
+        <v>421</v>
+      </c>
+      <c r="H87" t="s">
+        <v>422</v>
+      </c>
+      <c r="I87" t="s">
+        <v>416</v>
+      </c>
+      <c r="J87" t="s">
         <v>423</v>
-      </c>
-      <c r="C87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D87" t="s">
-        <v>420</v>
-      </c>
-      <c r="E87" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" t="s">
-        <v>421</v>
-      </c>
-      <c r="G87" t="s">
-        <v>422</v>
-      </c>
-      <c r="H87" t="s">
-        <v>418</v>
-      </c>
-      <c r="I87" t="s">
-        <v>417</v>
-      </c>
-      <c r="J87" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>424</v>
+      </c>
+      <c r="B88" t="s">
+        <v>425</v>
+      </c>
+      <c r="C88" t="s">
+        <v>146</v>
+      </c>
+      <c r="D88" t="s">
+        <v>426</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>427</v>
+      </c>
+      <c r="G88" t="s">
         <v>428</v>
       </c>
-      <c r="B88" t="s">
+      <c r="H88" t="s">
         <v>429</v>
       </c>
-      <c r="C88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D88" t="s">
-        <v>424</v>
-      </c>
-      <c r="E88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="I88" t="s">
         <v>430</v>
       </c>
-      <c r="G88" t="s">
+      <c r="J88" t="s">
         <v>431</v>
-      </c>
-      <c r="H88" t="s">
-        <v>425</v>
-      </c>
-      <c r="I88" t="s">
-        <v>426</v>
-      </c>
-      <c r="J88" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B89" t="s">
+        <v>432</v>
+      </c>
+      <c r="C89" t="s">
+        <v>146</v>
+      </c>
+      <c r="D89" t="s">
+        <v>433</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>434</v>
+      </c>
+      <c r="G89" t="s">
+        <v>435</v>
+      </c>
+      <c r="H89" t="s">
         <v>436</v>
       </c>
-      <c r="C89" t="s">
-        <v>145</v>
-      </c>
-      <c r="D89" t="s">
-        <v>432</v>
-      </c>
-      <c r="E89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="I89" t="s">
         <v>437</v>
       </c>
-      <c r="G89" t="s">
+      <c r="J89" t="s">
         <v>438</v>
-      </c>
-      <c r="H89" t="s">
-        <v>433</v>
-      </c>
-      <c r="I89" t="s">
-        <v>434</v>
-      </c>
-      <c r="J89" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="90">
@@ -5015,19 +5256,19 @@
         <v>440</v>
       </c>
       <c r="C90" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D90" t="s">
+        <v>441</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" t="s">
+        <v>442</v>
+      </c>
+      <c r="G90" t="s">
         <v>443</v>
-      </c>
-      <c r="E90" t="s">
-        <v>22</v>
-      </c>
-      <c r="F90" t="s">
-        <v>441</v>
-      </c>
-      <c r="G90" t="s">
-        <v>442</v>
       </c>
       <c r="H90" t="s">
         <v>444</v>
@@ -5041,16 +5282,16 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>447</v>
+      </c>
+      <c r="B91" t="s">
         <v>448</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" t="s">
         <v>449</v>
-      </c>
-      <c r="C91" t="s">
-        <v>145</v>
-      </c>
-      <c r="D91" t="s">
-        <v>452</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -5059,202 +5300,202 @@
         <v>450</v>
       </c>
       <c r="G91" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H91" t="s">
+        <v>452</v>
+      </c>
+      <c r="I91" t="s">
         <v>453</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>454</v>
-      </c>
-      <c r="J91" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B92" t="s">
+        <v>455</v>
+      </c>
+      <c r="C92" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92" t="s">
+        <v>456</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>457</v>
+      </c>
+      <c r="G92" t="s">
+        <v>458</v>
+      </c>
+      <c r="H92" t="s">
         <v>459</v>
       </c>
-      <c r="C92" t="s">
-        <v>145</v>
-      </c>
-      <c r="D92" t="s">
-        <v>458</v>
-      </c>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="I92" t="s">
         <v>460</v>
       </c>
-      <c r="G92" t="s">
+      <c r="J92" t="s">
         <v>461</v>
-      </c>
-      <c r="H92" t="s">
-        <v>455</v>
-      </c>
-      <c r="I92" t="s">
-        <v>456</v>
-      </c>
-      <c r="J92" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>462</v>
+      </c>
+      <c r="B93" t="s">
+        <v>463</v>
+      </c>
+      <c r="C93" t="s">
+        <v>146</v>
+      </c>
+      <c r="D93" t="s">
         <v>464</v>
       </c>
-      <c r="B93" t="s">
+      <c r="E93" t="s">
+        <v>148</v>
+      </c>
+      <c r="F93" t="s">
         <v>465</v>
       </c>
-      <c r="C93" t="s">
-        <v>145</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="G93" t="s">
+        <v>466</v>
+      </c>
+      <c r="H93" t="s">
+        <v>151</v>
+      </c>
+      <c r="I93" t="s">
+        <v>467</v>
+      </c>
+      <c r="J93" t="s">
         <v>468</v>
-      </c>
-      <c r="E93" t="s">
-        <v>149</v>
-      </c>
-      <c r="F93" t="s">
-        <v>462</v>
-      </c>
-      <c r="G93" t="s">
-        <v>463</v>
-      </c>
-      <c r="H93" t="s">
-        <v>150</v>
-      </c>
-      <c r="I93" t="s">
-        <v>466</v>
-      </c>
-      <c r="J93" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B94" t="s">
+        <v>469</v>
+      </c>
+      <c r="C94" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" t="s">
+        <v>470</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>471</v>
+      </c>
+      <c r="G94" t="s">
+        <v>472</v>
+      </c>
+      <c r="H94" t="s">
         <v>473</v>
       </c>
-      <c r="C94" t="s">
-        <v>145</v>
-      </c>
-      <c r="D94" t="s">
-        <v>469</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="I94" t="s">
         <v>474</v>
       </c>
-      <c r="G94" t="s">
+      <c r="J94" t="s">
         <v>475</v>
-      </c>
-      <c r="H94" t="s">
-        <v>470</v>
-      </c>
-      <c r="I94" t="s">
-        <v>471</v>
-      </c>
-      <c r="J94" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>476</v>
+      </c>
+      <c r="B95" t="s">
+        <v>477</v>
+      </c>
+      <c r="C95" t="s">
+        <v>146</v>
+      </c>
+      <c r="D95" t="s">
+        <v>478</v>
+      </c>
+      <c r="E95" t="s">
+        <v>148</v>
+      </c>
+      <c r="F95" t="s">
+        <v>479</v>
+      </c>
+      <c r="G95" t="s">
         <v>480</v>
       </c>
-      <c r="B95" t="s">
+      <c r="H95" t="s">
+        <v>151</v>
+      </c>
+      <c r="I95" t="s">
         <v>481</v>
       </c>
-      <c r="C95" t="s">
-        <v>145</v>
-      </c>
-      <c r="D95" t="s">
-        <v>477</v>
-      </c>
-      <c r="E95" t="s">
-        <v>149</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="J95" t="s">
         <v>482</v>
-      </c>
-      <c r="G95" t="s">
-        <v>479</v>
-      </c>
-      <c r="H95" t="s">
-        <v>150</v>
-      </c>
-      <c r="I95" t="s">
-        <v>478</v>
-      </c>
-      <c r="J95" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B96" t="s">
         <v>483</v>
       </c>
       <c r="C96" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D96" t="s">
+        <v>484</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>485</v>
+      </c>
+      <c r="G96" t="s">
+        <v>486</v>
+      </c>
+      <c r="H96" t="s">
+        <v>487</v>
+      </c>
+      <c r="I96" t="s">
+        <v>488</v>
+      </c>
+      <c r="J96" t="s">
         <v>489</v>
-      </c>
-      <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" t="s">
-        <v>484</v>
-      </c>
-      <c r="G96" t="s">
-        <v>485</v>
-      </c>
-      <c r="H96" t="s">
-        <v>486</v>
-      </c>
-      <c r="I96" t="s">
-        <v>487</v>
-      </c>
-      <c r="J96" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B97" t="s">
         <v>490</v>
       </c>
       <c r="C97" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D97" t="s">
+        <v>491</v>
+      </c>
+      <c r="E97" t="s">
+        <v>148</v>
+      </c>
+      <c r="F97" t="s">
+        <v>492</v>
+      </c>
+      <c r="G97" t="s">
         <v>493</v>
       </c>
-      <c r="E97" t="s">
-        <v>149</v>
-      </c>
-      <c r="F97" t="s">
-        <v>491</v>
-      </c>
-      <c r="G97" t="s">
-        <v>492</v>
-      </c>
       <c r="H97" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I97" t="s">
         <v>494</v>
@@ -5265,77 +5506,77 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B98" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D98" t="s">
         <v>498</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F98" t="s">
+        <v>499</v>
+      </c>
+      <c r="G98" t="s">
         <v>500</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>501</v>
       </c>
-      <c r="H98" t="s">
-        <v>499</v>
-      </c>
       <c r="I98" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="J98" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>504</v>
+      </c>
+      <c r="B99" t="s">
+        <v>505</v>
+      </c>
+      <c r="C99" t="s">
         <v>506</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
         <v>507</v>
       </c>
-      <c r="C99" t="s">
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" t="s">
         <v>508</v>
       </c>
-      <c r="D99" t="s">
+      <c r="G99" t="s">
+        <v>509</v>
+      </c>
+      <c r="H99" t="s">
+        <v>510</v>
+      </c>
+      <c r="I99" t="s">
         <v>511</v>
       </c>
-      <c r="E99" t="s">
-        <v>22</v>
-      </c>
-      <c r="F99" t="s">
-        <v>504</v>
-      </c>
-      <c r="G99" t="s">
-        <v>505</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="J99" t="s">
         <v>512</v>
-      </c>
-      <c r="I99" t="s">
-        <v>509</v>
-      </c>
-      <c r="J99" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B100" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C100" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
@@ -5353,53 +5594,53 @@
         <v>13</v>
       </c>
       <c r="I100" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="J100" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B101" t="s">
+        <v>518</v>
+      </c>
+      <c r="C101" t="s">
+        <v>506</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>519</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
+        <v>520</v>
+      </c>
+      <c r="J101" t="s">
         <v>521</v>
-      </c>
-      <c r="C101" t="s">
-        <v>508</v>
-      </c>
-      <c r="D101" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s">
-        <v>520</v>
-      </c>
-      <c r="H101" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" t="s">
-        <v>518</v>
-      </c>
-      <c r="J101" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B102" t="s">
         <v>522</v>
       </c>
       <c r="C102" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D102" t="s">
         <v>13</v>
@@ -5425,13 +5666,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B103" t="s">
         <v>526</v>
       </c>
       <c r="C103" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
@@ -5457,57 +5698,57 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B104" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C104" t="s">
+        <v>530</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>531</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
         <v>532</v>
       </c>
-      <c r="D104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="J104" t="s">
         <v>533</v>
-      </c>
-      <c r="H104" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" t="s">
-        <v>530</v>
-      </c>
-      <c r="J104" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>534</v>
+      </c>
+      <c r="B105" t="s">
+        <v>432</v>
+      </c>
+      <c r="C105" t="s">
+        <v>506</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
         <v>535</v>
-      </c>
-      <c r="B105" t="s">
-        <v>436</v>
-      </c>
-      <c r="C105" t="s">
-        <v>508</v>
-      </c>
-      <c r="D105" t="s">
-        <v>13</v>
-      </c>
-      <c r="E105" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s">
-        <v>534</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -5521,13 +5762,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B106" t="s">
         <v>538</v>
       </c>
       <c r="C106" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
@@ -5553,45 +5794,45 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>542</v>
+      </c>
+      <c r="B107" t="s">
+        <v>375</v>
+      </c>
+      <c r="C107" t="s">
+        <v>506</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>543</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
         <v>544</v>
       </c>
-      <c r="B107" t="s">
-        <v>379</v>
-      </c>
-      <c r="C107" t="s">
-        <v>508</v>
-      </c>
-      <c r="D107" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="J107" t="s">
         <v>545</v>
-      </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" t="s">
-        <v>542</v>
-      </c>
-      <c r="J107" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B108" t="s">
         <v>546</v>
       </c>
       <c r="C108" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -5617,13 +5858,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B109" t="s">
         <v>550</v>
       </c>
       <c r="C109" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5649,45 +5890,45 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B110" t="s">
+        <v>554</v>
+      </c>
+      <c r="C110" t="s">
+        <v>506</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>555</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>556</v>
+      </c>
+      <c r="J110" t="s">
         <v>557</v>
-      </c>
-      <c r="C110" t="s">
-        <v>508</v>
-      </c>
-      <c r="D110" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" t="s">
-        <v>556</v>
-      </c>
-      <c r="H110" t="s">
-        <v>13</v>
-      </c>
-      <c r="I110" t="s">
-        <v>554</v>
-      </c>
-      <c r="J110" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B111" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C111" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
@@ -5713,77 +5954,77 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>561</v>
+      </c>
+      <c r="B112" t="s">
+        <v>562</v>
+      </c>
+      <c r="C112" t="s">
+        <v>506</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
         <v>563</v>
       </c>
-      <c r="B112" t="s">
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
         <v>564</v>
       </c>
-      <c r="C112" t="s">
-        <v>508</v>
-      </c>
-      <c r="D112" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="J112" t="s">
         <v>565</v>
-      </c>
-      <c r="H112" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" t="s">
-        <v>561</v>
-      </c>
-      <c r="J112" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B113" t="s">
+        <v>566</v>
+      </c>
+      <c r="C113" t="s">
+        <v>506</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>567</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" t="s">
         <v>568</v>
       </c>
-      <c r="C113" t="s">
-        <v>508</v>
-      </c>
-      <c r="D113" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="J113" t="s">
         <v>569</v>
-      </c>
-      <c r="H113" t="s">
-        <v>13</v>
-      </c>
-      <c r="I113" t="s">
-        <v>566</v>
-      </c>
-      <c r="J113" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B114" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C114" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -5809,57 +6050,57 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B115" t="s">
         <v>440</v>
       </c>
       <c r="C115" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F115" t="s">
         <v>13</v>
       </c>
       <c r="G115" t="s">
+        <v>573</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" t="s">
+        <v>574</v>
+      </c>
+      <c r="J115" t="s">
         <v>575</v>
-      </c>
-      <c r="H115" t="s">
-        <v>13</v>
-      </c>
-      <c r="I115" t="s">
-        <v>573</v>
-      </c>
-      <c r="J115" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>576</v>
+      </c>
+      <c r="B116" t="s">
+        <v>306</v>
+      </c>
+      <c r="C116" t="s">
+        <v>506</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
         <v>577</v>
-      </c>
-      <c r="B116" t="s">
-        <v>312</v>
-      </c>
-      <c r="C116" t="s">
-        <v>508</v>
-      </c>
-      <c r="D116" t="s">
-        <v>13</v>
-      </c>
-      <c r="E116" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s">
-        <v>576</v>
       </c>
       <c r="H116" t="s">
         <v>13</v>
@@ -5873,25 +6114,25 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B117" t="s">
+        <v>580</v>
+      </c>
+      <c r="C117" t="s">
+        <v>506</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
         <v>581</v>
-      </c>
-      <c r="C117" t="s">
-        <v>508</v>
-      </c>
-      <c r="D117" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s">
-        <v>580</v>
       </c>
       <c r="H117" t="s">
         <v>13</v>
@@ -5905,109 +6146,109 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B118" t="s">
+        <v>584</v>
+      </c>
+      <c r="C118" t="s">
+        <v>506</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>585</v>
+      </c>
+      <c r="H118" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s">
         <v>586</v>
       </c>
-      <c r="C118" t="s">
-        <v>508</v>
-      </c>
-      <c r="D118" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="J118" t="s">
         <v>587</v>
-      </c>
-      <c r="H118" t="s">
-        <v>13</v>
-      </c>
-      <c r="I118" t="s">
-        <v>584</v>
-      </c>
-      <c r="J118" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B119" t="s">
+        <v>588</v>
+      </c>
+      <c r="C119" t="s">
+        <v>530</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
+        <v>589</v>
+      </c>
+      <c r="H119" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" t="s">
         <v>590</v>
       </c>
-      <c r="C119" t="s">
-        <v>532</v>
-      </c>
-      <c r="D119" t="s">
-        <v>13</v>
-      </c>
-      <c r="E119" t="s">
-        <v>22</v>
-      </c>
-      <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="J119" t="s">
         <v>591</v>
-      </c>
-      <c r="H119" t="s">
-        <v>13</v>
-      </c>
-      <c r="I119" t="s">
-        <v>588</v>
-      </c>
-      <c r="J119" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B120" t="s">
+        <v>592</v>
+      </c>
+      <c r="C120" t="s">
+        <v>530</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>593</v>
+      </c>
+      <c r="H120" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" t="s">
         <v>594</v>
       </c>
-      <c r="C120" t="s">
-        <v>532</v>
-      </c>
-      <c r="D120" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="J120" t="s">
         <v>595</v>
-      </c>
-      <c r="H120" t="s">
-        <v>13</v>
-      </c>
-      <c r="I120" t="s">
-        <v>592</v>
-      </c>
-      <c r="J120" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B121" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C121" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
@@ -6025,59 +6266,59 @@
         <v>13</v>
       </c>
       <c r="I121" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="J121" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B122" t="s">
+        <v>601</v>
+      </c>
+      <c r="C122" t="s">
+        <v>506</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>602</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" t="s">
+        <v>603</v>
+      </c>
+      <c r="J122" t="s">
         <v>604</v>
-      </c>
-      <c r="C122" t="s">
-        <v>508</v>
-      </c>
-      <c r="D122" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s">
-        <v>603</v>
-      </c>
-      <c r="H122" t="s">
-        <v>13</v>
-      </c>
-      <c r="I122" t="s">
-        <v>601</v>
-      </c>
-      <c r="J122" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B123" t="s">
         <v>605</v>
       </c>
       <c r="C123" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F123" t="s">
         <v>13</v>
@@ -6086,18 +6327,18 @@
         <v>606</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
+        <v>607</v>
       </c>
       <c r="I123" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J123" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B124" t="s">
         <v>605</v>
@@ -6115,18 +6356,22 @@
         <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H124" t="s">
         <v>13</v>
       </c>
       <c r="I124" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="J124" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,147 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
+  <si>
+    <t>SERIAL NUMBER</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>SIGNATURE</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
+  <si>
+    <t>COURSE TITLE</t>
+  </si>
+  <si>
+    <t>CERTIFICATE</t>
+  </si>
+  <si>
+    <t>DATA HASH</t>
+  </si>
+  <si>
+    <t>TRANSACTION HASH</t>
+  </si>
+  <si>
+    <t>DIGITAL CERTIFICATE</t>
+  </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>PARTICIPANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COURSE TITLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERIAL NUMBER</t>
-  </si>
-  <si>
-    <t>NOTE</t>
-  </si>
-  <si>
-    <t>CERTIFICATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATA HASH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSACTION HASH</t>
-  </si>
-  <si>
-    <t>SIGNATURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIGITAL CERTIFICATE</t>
-  </si>
-  <si>
     <t>25.06.2015</t>
   </si>
   <si>
-    <t xml:space="preserve">Петро Петрович Воробієнко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Біткоїн та криптовалюти</t>
+    <t>Петро Петрович Воробієнко</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">ginesis certificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private link</t>
+    <t>Біткоїн та криптовалюти</t>
+  </si>
+  <si>
+    <t>ginesis certificate</t>
+  </si>
+  <si>
+    <t>private link</t>
   </si>
   <si>
     <t>10.05.2016</t>
   </si>
   <si>
-    <t xml:space="preserve">Nikita Magda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cryptocurrencies and Distributed Systems</t>
+    <t>Nikita Magda</t>
+  </si>
+  <si>
+    <t>Cryptocurrencies and Distributed Systems</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1xobiD9wUIQcesMkrmh5x2x_aWnibPkqI/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Нестеров Максим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">graduated with honors</t>
+    <t>Нестеров Максим</t>
+  </si>
+  <si>
+    <t>graduated with honors</t>
   </si>
   <si>
     <t>drive.google.com/file/d/18lYidkmWMBuBxR0FU0OIGuQ8doTz8zQs/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Alexey Shendrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anastasia Sapozhkova</t>
+    <t>Alexey Shendrick</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1KuJR4GYiRyC4Oh6Z6q-u9fpqe-EPWabk/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Den Galkin</t>
+    <t>Anastasia Sapozhkova</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1xd3b6fXkkagcyEeiMZ1P7kKH_BM1BRuv/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Daniyil Yakovlev</t>
+    <t>Den Galkin</t>
+  </si>
+  <si>
+    <t>Daniyil Yakovlev</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1tuaBB_KFOTHOfTmXgov42E2v6sHShUdb/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Алексей Демидов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Анатолий Дедов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Денис Руденко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illia Fariatiev</t>
+    <t>Алексей Демидов</t>
+  </si>
+  <si>
+    <t>Анатолий Дедов</t>
+  </si>
+  <si>
+    <t>Денис Руденко</t>
+  </si>
+  <si>
+    <t>Illia Fariatiev</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1Tyr0ky3sNg-lcDGdEe0-MKG0dzpL3TQA/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Костюк Александр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марина Боровая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мордвинов Роман Игоревич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сергей Романько</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Синельников Александр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Скрипник Александр</t>
+    <t>Костюк Александр</t>
+  </si>
+  <si>
+    <t>Марина Боровая</t>
+  </si>
+  <si>
+    <t>Мордвинов Роман Игоревич</t>
+  </si>
+  <si>
+    <t>Сергей Романько</t>
+  </si>
+  <si>
+    <t>Синельников Александр</t>
+  </si>
+  <si>
+    <t>Скрипник Александр</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1W0bokyIjw-j_5942KinD1ZRB1ges5fhb/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Солонский Александр</t>
+    <t>Солонский Александр</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1RneErBs-OBbV0KjvY5blYuFHfkwtyNRh/view</t>
@@ -150,91 +151,91 @@
     <t>31.10.2016</t>
   </si>
   <si>
-    <t xml:space="preserve">Anton Zaporozhchenko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oleksiy Ponomorev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pavel Brilliant</t>
+    <t>Anton Zaporozhchenko</t>
+  </si>
+  <si>
+    <t>Oleksiy Ponomorev</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1YHz2l23Dy_FAB_zBAXxkehxN9ZvR7T99/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Volodymyr Kavetskyy</t>
+    <t>Pavel Brilliant</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1dhsj1ZCPOPwvKc6arWVDAveu1h0EoY_l/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Vladyslav Minakov</t>
+    <t>Volodymyr Kavetskyy</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1N0y-Y_QVKO2DDn06IuDVESkeKJ5LoiDN/view</t>
   </si>
   <si>
+    <t>Vladyslav Minakov</t>
+  </si>
+  <si>
     <t>03.03.2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Yevheniia Shchypeleva</t>
+    <t>Yevheniia Shchypeleva</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1AcBsG13D5jBJ3_w506hQOHHs_iJD2Jwt/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Kolhatin Andrii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heorhii Kholodov</t>
+    <t>Kolhatin Andrii</t>
+  </si>
+  <si>
+    <t>Heorhii Kholodov</t>
+  </si>
+  <si>
+    <t>Blockchain and Distributed Systems</t>
   </si>
   <si>
     <t>30.05.2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Aleksandr Gnatyuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blockchain and Distributed Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aleksandr Kurbatov</t>
+    <t>Aleksandr Gnatyuk</t>
+  </si>
+  <si>
+    <t>Aleksandr Kurbatov</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1JYRb1u6DI1z4mB3s1z8SSiiGDwdh_IhH/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Aleksandr Ivanov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artyom Ahmetzyanov</t>
+    <t>Aleksandr Ivanov</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1dKebMjrvUlgGa3iO-WyfqWoE2EuPbGCV/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Oleksii Khramov</t>
+    <t>Artyom Ahmetzyanov</t>
+  </si>
+  <si>
+    <t>Oleksii Khramov</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1rqLi5pccF50iQmqQORRTpl8nYWgy_qHs/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Nodar Alyoshin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marina Osadchuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konstantin Nechvolod</t>
+    <t>Nodar Alyoshin</t>
+  </si>
+  <si>
+    <t>Marina Osadchuk</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1fhholZTtNezUv9PasS5dDm2v55XQEkyG/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilya Svetaylo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dmytro Mandych</t>
+    <t>Konstantin Nechvolod</t>
+  </si>
+  <si>
+    <t>Ilya Svetaylo</t>
+  </si>
+  <si>
+    <t>Dmytro Mandych</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1AT9DeYKwkp9NKSF3bb4Vdr1JtdlzltPp/view</t>
@@ -243,10 +244,19 @@
     <t>26.05.2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Petr Murzin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Level in Decentralized Technologies</t>
+    <t>Petr Murzin</t>
+  </si>
+  <si>
+    <t>6e70ac729189b0e0097a6e7bcfec69494538bf4736cdb17a9fe9bd1582fe2e95</t>
+  </si>
+  <si>
+    <t>G6/C1S2XpwhcvDAGp/fvUWUBET+OlYdOP5LnW6gBIOlhR8phT652b46fy8YlvQ9DbbNynZ/DfRUiotWAFIhBhlU=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1T9IlKrmEJbx1bh1O1jPwTkuazCstW7gz/view</t>
+  </si>
+  <si>
+    <t>Basic Level in Decentralized Technologies</t>
   </si>
   <si>
     <t>6e70ac729189b0e0097a</t>
@@ -258,19 +268,22 @@
     <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
   </si>
   <si>
-    <t>6e70ac729189b0e0097a6e7bcfec69494538bf4736cdb17a9fe9bd1582fe2e95</t>
-  </si>
-  <si>
-    <t>G6/C1S2XpwhcvDAGp/fvUWUBET+OlYdOP5LnW6gBIOlhR8phT652b46fy8YlvQ9DbbNynZ/DfRUiotWAFIhBhlU=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1T9IlKrmEJbx1bh1O1jPwTkuazCstW7gz/view</t>
-  </si>
-  <si>
     <t>28.05.2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Lovkin Ivan</t>
+    <t>Lovkin Ivan</t>
+  </si>
+  <si>
+    <t>80b4017b0b2d571867a20c183448a98b8a4dc0d52f134e363772da7dca5b5a06</t>
+  </si>
+  <si>
+    <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
+  </si>
+  <si>
+    <t>G4/MsM7bSvAPVr7C5IXyo2TnOz+ZwqdlVNpBidWCbpuzC+JkRBEjbhY/lkPH7VtAhp8EOYgyLA2ID6F4GhqUY84=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/12OpLxs1aK-BTF1PebTXrsMh4zxKH_wen/view</t>
   </si>
   <si>
     <t>80b4017b0b2d571867a2</t>
@@ -279,46 +292,43 @@
     <t>drive.google.com/file/d/1B00wgJ6gYotdnedRkemkU_JBPFt1H4xd/view</t>
   </si>
   <si>
-    <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
-  </si>
-  <si>
-    <t>80b4017b0b2d571867a20c183448a98b8a4dc0d52f134e363772da7dca5b5a06</t>
-  </si>
-  <si>
-    <t>G4/MsM7bSvAPVr7C5IXyo2TnOz+ZwqdlVNpBidWCbpuzC+JkRBEjbhY/lkPH7VtAhp8EOYgyLA2ID6F4GhqUY84=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/12OpLxs1aK-BTF1PebTXrsMh4zxKH_wen/view</t>
+    <t>8dd5355ff30fcc74f42b09a276bf3f8c4bfadb9074adff5d3661f186029628c5</t>
+  </si>
+  <si>
+    <t>HM5GZ+rTicq0RKhj0bFs+2fpeD7O+kpSJnLKYgEw3HaNYvb3HW/VNAjwQR1DXGHUEqofERXjtLW1G8JMk4q2O1g=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bX5sis1H79_hFn7wh4-Sh00aeO_e7yFq/view</t>
+  </si>
+  <si>
+    <t>694d0f5a7afe6fbc99cb</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
   </si>
   <si>
     <t>30.05.2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Nikita Moskovkin</t>
-  </si>
-  <si>
-    <t>694d0f5a7afe6fbc99cb</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
-  </si>
-  <si>
-    <t>8dd5355ff30fcc74f42b09a276bf3f8c4bfadb9074adff5d3661f186029628c5</t>
+    <t>Nikita Moskovkin</t>
   </si>
   <si>
     <t>694d0f5a7afe6fbc99cb56819a09f9fa0e8b66b07180bb555d98593a0f7d5d41</t>
   </si>
   <si>
-    <t>HM5GZ+rTicq0RKhj0bFs+2fpeD7O+kpSJnLKYgEw3HaNYvb3HW/VNAjwQR1DXGHUEqofERXjtLW1G8JMk4q2O1g=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1bX5sis1H79_hFn7wh4-Sh00aeO_e7yFq/view</t>
-  </si>
-  <si>
     <t>03.06.2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Valeriy Gello</t>
+    <t>Valeriy Gello</t>
+  </si>
+  <si>
+    <t>2b6aadb041197def922aff8cb257af872568b572362c2f19fdb2468228e58569</t>
+  </si>
+  <si>
+    <t>HPXPxUNV1rO31el0TjnHFXDe0tBCoiQSC2o12BSvZFW1TNa1atBAmZb7ZrJ7vjBOzLYTbvCsfGf6NaSBZmpI1R0=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1DIotRiCyqr6U7vuXvDVWTrwbYMpd8-tp/view</t>
   </si>
   <si>
     <t>2b6aadb041197def922a</t>
@@ -330,63 +340,51 @@
     <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
   </si>
   <si>
-    <t>2b6aadb041197def922aff8cb257af872568b572362c2f19fdb2468228e58569</t>
-  </si>
-  <si>
-    <t>HPXPxUNV1rO31el0TjnHFXDe0tBCoiQSC2o12BSvZFW1TNa1atBAmZb7ZrJ7vjBOzLYTbvCsfGf6NaSBZmpI1R0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1DIotRiCyqr6U7vuXvDVWTrwbYMpd8-tp/view</t>
+    <t>drive.google.com/file/d/1HToZ3ouEVe-2rFezzJSnetG4rkJl4wb5/view</t>
+  </si>
+  <si>
+    <t>72008d9bb1a357ae7d6e</t>
+  </si>
+  <si>
+    <t>7dfdd6abd5c883c7c876202d91386257e48337f55209b774f35d4eea4efe5df4</t>
+  </si>
+  <si>
+    <t>G/ltW+rOPMYiEf/bzUkMzj7W5syoNvcTi1i++MOcDD8LJwSKAaoFS+c0TmDOwIZDyqaVwk6QYu1MfsGJw7+KZ8g=</t>
   </si>
   <si>
     <t>21.08.2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Elizabeth Gurieva</t>
-  </si>
-  <si>
-    <t>72008d9bb1a357ae7d6e</t>
-  </si>
-  <si>
-    <t>7dfdd6abd5c883c7c876202d91386257e48337f55209b774f35d4eea4efe5df4</t>
+    <t>Elizabeth Gurieva</t>
   </si>
   <si>
     <t>72008d9bb1a357ae7d6efc7520283e59adb638b44be971a41438ae3635beca20</t>
   </si>
   <si>
-    <t>G/ltW+rOPMYiEf/bzUkMzj7W5syoNvcTi1i++MOcDD8LJwSKAaoFS+c0TmDOwIZDyqaVwk6QYu1MfsGJw7+KZ8g=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1HToZ3ouEVe-2rFezzJSnetG4rkJl4wb5/view</t>
+    <t>91053d5330c4b99d8827</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1sMqTvx1fDXHx-OeU1r4uA1Z3kzVIMKAn/view</t>
+  </si>
+  <si>
+    <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
+  </si>
+  <si>
+    <t>HJqrp6YpiFPfileEaqKJDnwfvu15NL6LlwLDM3NSIXu9Rd9ir011tVJPyRSDxL5NUwqyiY5Be55Z3VObN4rH/nQ=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
   </si>
   <si>
     <t>15.09.2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Alexander Zhovnuvaty</t>
-  </si>
-  <si>
-    <t>91053d5330c4b99d8827</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1sMqTvx1fDXHx-OeU1r4uA1Z3kzVIMKAn/view</t>
-  </si>
-  <si>
-    <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
+    <t>Alexander Zhovnuvaty</t>
   </si>
   <si>
     <t>91053d5330c4b99d88272eb9c214b2f57c8522c2b473b54d5e250b422de6e24b</t>
   </si>
   <si>
-    <t>HJqrp6YpiFPfileEaqKJDnwfvu15NL6LlwLDM3NSIXu9Rd9ir011tVJPyRSDxL5NUwqyiY5Be55Z3VObN4rH/nQ=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikolay Scherbakov</t>
-  </si>
-  <si>
     <t>508f78ad5c0df80128b0</t>
   </si>
   <si>
@@ -396,13 +394,25 @@
     <t>7368eab2f4fa6157cb3f67d39e8526bc1b91a852be6a70cddcbb6067c8b400f5</t>
   </si>
   <si>
+    <t>G7fNdjrRdRCgCqs32IBGetb1WmNZTLKq4VdxIE2xZRAONYfBhaC++AKXc/TWLJ1iJ6vRlR5V1AGGRJa8VcJDRks=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1s59oNqnl8rvcFITI-56v1nt_VCOHq94D/view</t>
+  </si>
+  <si>
+    <t>Nikolay Scherbakov</t>
+  </si>
+  <si>
     <t>508f78ad5c0df80128b059d5367511650f12c1c999a2873f5a5bdfa0c3cd9294</t>
   </si>
   <si>
-    <t>G7fNdjrRdRCgCqs32IBGetb1WmNZTLKq4VdxIE2xZRAONYfBhaC++AKXc/TWLJ1iJ6vRlR5V1AGGRJa8VcJDRks=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1s59oNqnl8rvcFITI-56v1nt_VCOHq94D/view</t>
+    <t>9976212738b45235cfd6</t>
+  </si>
+  <si>
+    <t>2b4075806aa1180a35b6b6718701374debfd505b954491160ac09a4ebf1d632c</t>
+  </si>
+  <si>
+    <t>HOozi22vAuznvsCYdPeFGpfEsgVv/RPDvKEBNLr3Kjh2ZNMwqnGETY/MTNluCe+mJBLtg4ig6yOhtqyY0VWavFU=</t>
   </si>
   <si>
     <t>16.09.2020</t>
@@ -411,133 +421,124 @@
     <t>Anonymous</t>
   </si>
   <si>
-    <t>9976212738b45235cfd6</t>
-  </si>
-  <si>
-    <t>2b4075806aa1180a35b6b6718701374debfd505b954491160ac09a4ebf1d632c</t>
-  </si>
-  <si>
     <t>9976212738b45235cfd6f208ccae9ca14da64a06bcb5304d8bb422d00ff1540d</t>
   </si>
   <si>
-    <t>HOozi22vAuznvsCYdPeFGpfEsgVv/RPDvKEBNLr3Kjh2ZNMwqnGETY/MTNluCe+mJBLtg4ig6yOhtqyY0VWavFU=</t>
+    <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
+  </si>
+  <si>
+    <t>HOq9ZhrQ00V8PHtEc7PLbgREykAE4fSaVIbPozy6iTxNKZmzV7JHxsT5aQobJF+D1Hu+Hj++PUAVwscGr1K8ydg=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/10KBS_dIRNDhekiu_k9NiRZq_tLz9wFLJ/view</t>
+  </si>
+  <si>
+    <t>cd9b18ee000a3ab57d74</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HDfg3clKtJbjQEEtI2yxSv51_fDRYWRn/view</t>
   </si>
   <si>
     <t>17.09.2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Aleksandr Khomutov</t>
-  </si>
-  <si>
-    <t>cd9b18ee000a3ab57d74</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1HDfg3clKtJbjQEEtI2yxSv51_fDRYWRn/view</t>
-  </si>
-  <si>
-    <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
+    <t>Aleksandr Khomutov</t>
   </si>
   <si>
     <t>cd9b18ee000a3ab57d740ee8b2a2330632f070a69ff9efdd8ecdc6c8230e2e11</t>
   </si>
   <si>
-    <t>HOq9ZhrQ00V8PHtEc7PLbgREykAE4fSaVIbPozy6iTxNKZmzV7JHxsT5aQobJF+D1Hu+Hj++PUAVwscGr1K8ydg=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/10KBS_dIRNDhekiu_k9NiRZq_tLz9wFLJ/view</t>
+    <t>drive.google.com/file/d/19iQXgKAz6f9TVn-PH7XNVjURb69Cog1K/view</t>
+  </si>
+  <si>
+    <t>Beginner at theoretical aspects blockchain technology</t>
+  </si>
+  <si>
+    <t>0f8a70da32b47c86fa69</t>
+  </si>
+  <si>
+    <t>Listener only</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
+  </si>
+  <si>
+    <t>0f8a70da32b47c86fa69a39dd522c99b25802700a336d49e16a760eea763f4b1</t>
+  </si>
+  <si>
+    <t>HCKQDvhlFx194rKcO7OKfVKVHm8iJgs5HBTYDDoPUT1zbt/WBBbpt3FwSlXhjLHeFALjBPeDsJ0+FlqjYJrcedE=</t>
   </si>
   <si>
     <t>12.29.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetiana Diachuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beginner at theoretical aspects blockchain technology</t>
-  </si>
-  <si>
-    <t>0f8a70da32b47c86fa69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listener only</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
-  </si>
-  <si>
-    <t>0f8a70da32b47c86fa69a39dd522c99b25802700a336d49e16a760eea763f4b1</t>
+    <t>Tetiana Diachuk</t>
   </si>
   <si>
     <t>–</t>
   </si>
   <si>
-    <t>HCKQDvhlFx194rKcO7OKfVKVHm8iJgs5HBTYDDoPUT1zbt/WBBbpt3FwSlXhjLHeFALjBPeDsJ0+FlqjYJrcedE=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/19iQXgKAz6f9TVn-PH7XNVjURb69Cog1K/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yatskiv Vasyl</t>
+    <t>drive.google.com/file/d/1FZ2SgaDMIJRp10hntSqe1gLrAUG9DHpM/view</t>
+  </si>
+  <si>
+    <t>157083727495af019be18396a5b6fb784fb8fdf515e7069698ea538039655ea2</t>
+  </si>
+  <si>
+    <t>GwuoELh5wGDbKgdx/iwOEwB1aYpRhZGvqoWHkCMl2GldW99XUUjugdXMecd1OG2SKwwMXofLc4+rAxXvTnt+cCU=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/16W1PgiFDe8yDvOAKUfipXQuF54CGJwOr/view</t>
   </si>
   <si>
     <t>157083727495af019be1</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1FZ2SgaDMIJRp10hntSqe1gLrAUG9DHpM/view</t>
-  </si>
-  <si>
-    <t>157083727495af019be18396a5b6fb784fb8fdf515e7069698ea538039655ea2</t>
-  </si>
-  <si>
-    <t>GwuoELh5wGDbKgdx/iwOEwB1aYpRhZGvqoWHkCMl2GldW99XUUjugdXMecd1OG2SKwwMXofLc4+rAxXvTnt+cCU=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/16W1PgiFDe8yDvOAKUfipXQuF54CGJwOr/view</t>
+    <t>Yatskiv Vasyl</t>
+  </si>
+  <si>
+    <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
+  </si>
+  <si>
+    <t>HEq8g+MEi+GvEmvTK4osdDCOUv0zrtlFXz3jX58hUEpuGtiwefAAUrsqS6PizJncb1B9qyY6GiaVMtDN4AGXjuA=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1ryCRznjmAN1vpfuTCHcFPCtIzw-dl20L/view</t>
+  </si>
+  <si>
+    <t>c94b544cf914bfa7a011</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HmqEySvyMucrLal0DQ8-Vhc0ALSaBJgo/view</t>
   </si>
   <si>
     <t>24.05.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Viktoriia Kovalenko</t>
-  </si>
-  <si>
-    <t>c94b544cf914bfa7a011</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1HmqEySvyMucrLal0DQ8-Vhc0ALSaBJgo/view</t>
-  </si>
-  <si>
-    <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
-  </si>
-  <si>
-    <t>HEq8g+MEi+GvEmvTK4osdDCOUv0zrtlFXz3jX58hUEpuGtiwefAAUrsqS6PizJncb1B9qyY6GiaVMtDN4AGXjuA=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1ryCRznjmAN1vpfuTCHcFPCtIzw-dl20L/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artem Lytvynov</t>
+    <t>Viktoriia Kovalenko</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1RBczYKwSRmMu4zAoVVmnWvjgkl0tENzG/view</t>
+  </si>
+  <si>
+    <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
+  </si>
+  <si>
+    <t>HERmuZzuSW3wNNWRroC2QNMxKOMuAdjg4gxhbcA/9UHiA/lhyfJJRi4RDzmC1ToYWKgUdyANuExL857Jh5UphPk=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1KnXAljoWMcSRaMbBCkrmp_U3hzb_asxc/view</t>
   </si>
   <si>
     <t>31e612cbb30ee1e0b131</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1RBczYKwSRmMu4zAoVVmnWvjgkl0tENzG/view</t>
-  </si>
-  <si>
-    <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
-  </si>
-  <si>
     <t>31e612cbb30ee1e0b131836790253817c04031043f623abb460c83208fafa932</t>
   </si>
   <si>
-    <t>HERmuZzuSW3wNNWRroC2QNMxKOMuAdjg4gxhbcA/9UHiA/lhyfJJRi4RDzmC1ToYWKgUdyANuExL857Jh5UphPk=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1KnXAljoWMcSRaMbBCkrmp_U3hzb_asxc/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taras Horun</t>
+    <t>Artem Lytvynov</t>
+  </si>
+  <si>
+    <t>Taras Horun</t>
   </si>
   <si>
     <t>321d5bc0b6acda5a08db</t>
@@ -555,7 +556,7 @@
     <t>drive.google.com/file/d/1oa4_pnjVk863Kfi7CxIgvLXEUczkVxHS/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Anastasiia Slota</t>
+    <t>Anastasiia Slota</t>
   </si>
   <si>
     <t>5d71857f9a99d5d85ed7</t>
@@ -573,27 +574,24 @@
     <t>drive.google.com/file/d/1YDow8GoX8mnMZNo20qBTbJw8-YHXDU5u/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Yuriy Melnychuk</t>
+    <t>Yuriy Melnychuk</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/17vX52MGbM2gkG3qqa1fz-ERnrQbdcw4y/view</t>
+  </si>
+  <si>
+    <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
+  </si>
+  <si>
+    <t>G09Pu89zZ+mW2gdSx729xoRrBvWoumXJAYLuporfSBGdbAJOMCqKcBPj8R2VtP4sJbwNZAWnmvuqpJqZU6h83hQ=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bfp7feXW3jlCWM6JNgL66zeE8LHm4X-Y/view</t>
   </si>
   <si>
     <t>4b973cdc099c10811c1b</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/17vX52MGbM2gkG3qqa1fz-ERnrQbdcw4y/view</t>
-  </si>
-  <si>
-    <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
-  </si>
-  <si>
-    <t>G09Pu89zZ+mW2gdSx729xoRrBvWoumXJAYLuporfSBGdbAJOMCqKcBPj8R2VtP4sJbwNZAWnmvuqpJqZU6h83hQ=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1bfp7feXW3jlCWM6JNgL66zeE8LHm4X-Y/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vladyslav Mazur</t>
-  </si>
-  <si>
     <t>e9bf9426eb214a6e36c8</t>
   </si>
   <si>
@@ -609,7 +607,16 @@
     <t>drive.google.com/file/d/1bilaW63V87r9jkQgRfz_fevbeWN6NFyo/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Hanna Zhurba</t>
+    <t>Vladyslav Mazur</t>
+  </si>
+  <si>
+    <t>Hanna Zhurba</t>
+  </si>
+  <si>
+    <t>G0/HbGdGK3B0R9z8wip7gA/5JeSvjkSeA7lcGfugt/KcNVV1VKo36tLg+Qi79IEd3lr9lE92CXfNXZ8c3GeiPc0=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/18pj8mEa0wJ5A_Nt1l6RNMZ9iTH4oUWSC/view</t>
   </si>
   <si>
     <t>33571c3c57728ede717b</t>
@@ -621,31 +628,25 @@
     <t>33571c3c57728ede717b2bf46df346305cbeca3e966b76cf15369f7411ddabef</t>
   </si>
   <si>
-    <t>G0/HbGdGK3B0R9z8wip7gA/5JeSvjkSeA7lcGfugt/KcNVV1VKo36tLg+Qi79IEd3lr9lE92CXfNXZ8c3GeiPc0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/18pj8mEa0wJ5A_Nt1l6RNMZ9iTH4oUWSC/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viktoriia Holoshchapova</t>
+    <t>Viktoriia Holoshchapova</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Rl7QRlGxtywdMCDmM-i2aXCzulou-hLS/view</t>
+  </si>
+  <si>
+    <t>96250fd24ef42b3b059c7f85867ca063298d0784f07d7b3d4a19da04dbf6f4c7</t>
+  </si>
+  <si>
+    <t>Gwgj57Jqz9+NMhDQlcZmobwbWCi8h4ESrKASdManWz5saGNNFwx832peyy6A/lp8DsUFzZzOihp1V/OspkMps9k=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1V1S4zVBvdZ7u0qWNpj70QbU_Qv1ZSwcz/view</t>
   </si>
   <si>
     <t>96250fd24ef42b3b059c</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1Rl7QRlGxtywdMCDmM-i2aXCzulou-hLS/view</t>
-  </si>
-  <si>
-    <t>96250fd24ef42b3b059c7f85867ca063298d0784f07d7b3d4a19da04dbf6f4c7</t>
-  </si>
-  <si>
-    <t>Gwgj57Jqz9+NMhDQlcZmobwbWCi8h4ESrKASdManWz5saGNNFwx832peyy6A/lp8DsUFzZzOihp1V/OspkMps9k=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1V1S4zVBvdZ7u0qWNpj70QbU_Qv1ZSwcz/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikita Liashko</t>
+    <t>Nikita Liashko</t>
   </si>
   <si>
     <t>638039974f462d2a16fa</t>
@@ -663,34 +664,37 @@
     <t>drive.google.com/file/d/1kWKcfuN3wKIueLCmFLK6eUxWZA5-cjqw/view</t>
   </si>
   <si>
+    <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
+  </si>
+  <si>
+    <t>Gy1CS1DczVCPKEqFIMhNAUjvlti1rZpp602WQhpANZcrbJR7A1bxVMqZhWo7ziNLPEs4gZ7mDvo3dxQp/9mnWSo=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1TDVQcx6mYo_axvH3qcg0bBW7BCkSdPJk/view</t>
+  </si>
+  <si>
+    <t>a4f695eb1f54152d096f</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1R38xCu4uADZnLmaMGWWjBOj2A6I7JcLz/view</t>
+  </si>
+  <si>
     <t>27.05.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Oleksandr Ishchuk</t>
-  </si>
-  <si>
-    <t>a4f695eb1f54152d096f</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1R38xCu4uADZnLmaMGWWjBOj2A6I7JcLz/view</t>
-  </si>
-  <si>
-    <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
+    <t>Oleksandr Ishchuk</t>
   </si>
   <si>
     <t>a4f695eb1f54152d096fac83f42a2627f1da6e57869febbc0736945533b39dfd</t>
   </si>
   <si>
-    <t>Gy1CS1DczVCPKEqFIMhNAUjvlti1rZpp602WQhpANZcrbJR7A1bxVMqZhWo7ziNLPEs4gZ7mDvo3dxQp/9mnWSo=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1TDVQcx6mYo_axvH3qcg0bBW7BCkSdPJk/view</t>
-  </si>
-  <si>
     <t>30.05.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Sofiia Zharkikh</t>
+    <t>Sofiia Zharkikh</t>
+  </si>
+  <si>
+    <t>ef5d4d97d20b05335375d36faf95f1674a1bd9f02b236e07c0628e68e6718479</t>
   </si>
   <si>
     <t>ef5d4d97d20b05335375</t>
@@ -702,16 +706,13 @@
     <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
   </si>
   <si>
-    <t>ef5d4d97d20b05335375d36faf95f1674a1bd9f02b236e07c0628e68e6718479</t>
-  </si>
-  <si>
     <t>GyBuSdCpBacrzfMlYsJ5PDr4kBqEmHBvlnL0u9xd/ItkbXqWgvr/Q9+ABS7Uk9qAKPyM3fdTHMixab+7EMHk/L8=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1MKUolIBpxp8Nd7QKNEIztYq__Y2ke8r0/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Ruslan Ovsiienko</t>
+    <t>Ruslan Ovsiienko</t>
   </si>
   <si>
     <t>bde11c3468f03baaa52b</t>
@@ -729,58 +730,61 @@
     <t>drive.google.com/file/d/1GQPhLpRDH3qx8itRN2swMzNVTA3S9zkA/view</t>
   </si>
   <si>
+    <t>6ee400b0d85b1c17b9f96d70480b7834db0687fb163960b09bd5b9d9a7479695</t>
+  </si>
+  <si>
     <t>31.05.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Andrii Kolhatin</t>
+    <t>Andrii Kolhatin</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1k6jYSLnda_XmBqezsiN_2yJ61Qdta_nb/view</t>
+  </si>
+  <si>
+    <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
+  </si>
+  <si>
+    <t>G1NHCoKgP7GWURDdLHVELdKpWB+yJMIMC58Zcmk7QIDkHak9MAIs8CP8p3PwQQkKrasrA22u3Ps0oDpQjtQwuXA=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1fXu1-OMgl8abLdRnkK1gGjRUzm1wJ90d/view</t>
   </si>
   <si>
     <t>6ee400b0d85b1c17b9f9</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1k6jYSLnda_XmBqezsiN_2yJ61Qdta_nb/view</t>
-  </si>
-  <si>
-    <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
-  </si>
-  <si>
-    <t>6ee400b0d85b1c17b9f96d70480b7834db0687fb163960b09bd5b9d9a7479695</t>
-  </si>
-  <si>
-    <t>G1NHCoKgP7GWURDdLHVELdKpWB+yJMIMC58Zcmk7QIDkHak9MAIs8CP8p3PwQQkKrasrA22u3Ps0oDpQjtQwuXA=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1fXu1-OMgl8abLdRnkK1gGjRUzm1wJ90d/view</t>
-  </si>
-  <si>
     <t>02.06.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Volodymyr Beimuk</t>
+    <t>Volodymyr Beimuk</t>
+  </si>
+  <si>
+    <t>57510c8d91044c68466c23791605ae30481dd0e13bffb14884dc26f74f89007e</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
+  </si>
+  <si>
+    <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
+  </si>
+  <si>
+    <t>HEXb4vpKyOWhQpbYfAwIpyCn+rITf/VAWQzmNxaXXhDvU/q9WgsKDJeDdCnprx5cCIjjmW/phOHH+uPBbpYlPZ4=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1w1mfSqQpuoM1ykWLZFpnfNad4769mGRZ/view</t>
   </si>
   <si>
     <t>57510c8d91044c68466c</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
-  </si>
-  <si>
-    <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
-  </si>
-  <si>
-    <t>57510c8d91044c68466c23791605ae30481dd0e13bffb14884dc26f74f89007e</t>
-  </si>
-  <si>
-    <t>HEXb4vpKyOWhQpbYfAwIpyCn+rITf/VAWQzmNxaXXhDvU/q9WgsKDJeDdCnprx5cCIjjmW/phOHH+uPBbpYlPZ4=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1w1mfSqQpuoM1ykWLZFpnfNad4769mGRZ/view</t>
-  </si>
-  <si>
     <t>03.06.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Nazarii Savorona</t>
+    <t>Nazarii Savorona</t>
+  </si>
+  <si>
+    <t>d50fd6472811e70d2d323c6e2a1b6ee5492b950fa42141194d5b0ea301965d2b</t>
   </si>
   <si>
     <t>d50fd6472811e70d2d32</t>
@@ -792,16 +796,16 @@
     <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
   </si>
   <si>
-    <t>d50fd6472811e70d2d323c6e2a1b6ee5492b950fa42141194d5b0ea301965d2b</t>
-  </si>
-  <si>
     <t>G0q+l32LflKU/DpeW9C2sDAMrbqeX+oJ5XFEWOQgj1abcIZnWaBDyGALb8VFCDaBlWtPdWlpZH0bBGnZ4vmuqVM=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/15kzmwqJUXHkYhS-y_kQNezfBYKsWqClm/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Anton Balykov</t>
+    <t>HEX0LGCrp8izmcyDor70bMZoObL/w+vWJ2n7oI4g7HApOTNEf8NsrrnH7wqchGY1dHPbQ/ZXv9Sb4flO0OOFIjg=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1CEGYMWPoshF1-ZlubWYIqLVVN5wuDI0k/view</t>
   </si>
   <si>
     <t>0098c4abd0cf9ba00a9a</t>
@@ -813,40 +817,40 @@
     <t>6471e2162a55dbf5dd4d31bfe55b942b65d00f871d57a47269a6eeadc98f5368</t>
   </si>
   <si>
+    <t>Anton Balykov</t>
+  </si>
+  <si>
     <t>0098c4abd0cf9ba00a9a16bae79b9ec1f932f0a459b51c5afd3d6a5651a3820d</t>
   </si>
   <si>
-    <t>HEX0LGCrp8izmcyDor70bMZoObL/w+vWJ2n7oI4g7HApOTNEf8NsrrnH7wqchGY1dHPbQ/ZXv9Sb4flO0OOFIjg=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1CEGYMWPoshF1-ZlubWYIqLVVN5wuDI0k/view</t>
+    <t>b8a9205fb544253703da</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1vGDKnNGdCSrI2l0f8epwfp-g9ZP_gdqn/view</t>
+  </si>
+  <si>
+    <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
+  </si>
+  <si>
+    <t>HFLGvJaNw54W7ZD/ZIjYXIQM1qIXbrh8vUUpsthZld4lUw1ygBpSYq5Bv2wkJji7EFfLKZpiwfkpZ+sZp3fGBZ8=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tXyNJbUrUx79sco9ErJu8FcadjFeY4ws/view</t>
   </si>
   <si>
     <t>06.06.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Rodion Nazarov</t>
-  </si>
-  <si>
-    <t>b8a9205fb544253703da</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1vGDKnNGdCSrI2l0f8epwfp-g9ZP_gdqn/view</t>
-  </si>
-  <si>
-    <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
+    <t>Rodion Nazarov</t>
   </si>
   <si>
     <t>b8a9205fb544253703daa661c8770c6c3010cd6f9440217c56b8f3a5277106c0</t>
   </si>
   <si>
-    <t>HFLGvJaNw54W7ZD/ZIjYXIQM1qIXbrh8vUUpsthZld4lUw1ygBpSYq5Bv2wkJji7EFfLKZpiwfkpZ+sZp3fGBZ8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tXyNJbUrUx79sco9ErJu8FcadjFeY4ws/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denis Riabtsev</t>
+    <t>Denis Riabtsev</t>
+  </si>
+  <si>
+    <t>049024034fa09e3463c172894984ccd7c64d8f3e25ea0edce1cde73d14c4e4dd</t>
   </si>
   <si>
     <t>049024034fa09e3463c1</t>
@@ -858,9 +862,6 @@
     <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
   </si>
   <si>
-    <t>049024034fa09e3463c172894984ccd7c64d8f3e25ea0edce1cde73d14c4e4dd</t>
-  </si>
-  <si>
     <t>G1S1swtJ1BO++cjXv+2ur3abbjLyF3QJom9rXytmbiCybxHnE6zxdv8PGrIoWzul25aA+Vy+npC166DfktBmfTA=</t>
   </si>
   <si>
@@ -870,7 +871,10 @@
     <t>10.08.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Ahadzhan Piloian</t>
+    <t>Ahadzhan Piloian</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1xbZ0oHFVYI0UYoQzhOgIjFcYMBPS3M7N/view</t>
   </si>
   <si>
     <t>35a047ff48ee73cae02b</t>
@@ -885,55 +889,55 @@
     <t>HByFsfnqBzFxFef9Sx0pI7ZEP8CsAFwWu3WLyhxeWYE7Nihy6oGKH6zTuDB3jxz7nVUqmg/+jiSz+5tpHd5hhCM=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1xbZ0oHFVYI0UYoQzhOgIjFcYMBPS3M7N/view</t>
+    <t>drive.google.com/file/d/1VFTodraL1vlF6oPm81xYgCEzuAnnMw9D/view</t>
+  </si>
+  <si>
+    <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
+  </si>
+  <si>
+    <t>G3AD9cOvDB5Yle4mx/4BJ1WGbFOLohDQC7vc4BQ13IEBNfDge5QEuYe3jCrtupanAlQ3qTuMp0xOcnt4khjuiOU=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1XYnfmc4-e2bPA2-oKc6rMrJk9OIS1ygb/view</t>
+  </si>
+  <si>
+    <t>6c856e21d4e81c9f9798</t>
+  </si>
+  <si>
+    <t>6c856e21d4e81c9f9798dc867f42c17448b563618559dfc618f25bfb13952dd9</t>
   </si>
   <si>
     <t>16.08.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Andrii Tsemko</t>
-  </si>
-  <si>
-    <t>6c856e21d4e81c9f9798</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1VFTodraL1vlF6oPm81xYgCEzuAnnMw9D/view</t>
-  </si>
-  <si>
-    <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
-  </si>
-  <si>
-    <t>6c856e21d4e81c9f9798dc867f42c17448b563618559dfc618f25bfb13952dd9</t>
-  </si>
-  <si>
-    <t>G3AD9cOvDB5Yle4mx/4BJ1WGbFOLohDQC7vc4BQ13IEBNfDge5QEuYe3jCrtupanAlQ3qTuMp0xOcnt4khjuiOU=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1XYnfmc4-e2bPA2-oKc6rMrJk9OIS1ygb/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oleg Chaika</t>
+    <t>Andrii Tsemko</t>
+  </si>
+  <si>
+    <t>ac4a4970282596872599a48469d3598e04f6239a9c8c40d595a7ab48cfec2f4b</t>
+  </si>
+  <si>
+    <t>Oleg Chaika</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1TCz4JmThT49Whz7pXZc1p-uh1m8qGlts/view</t>
+  </si>
+  <si>
+    <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
+  </si>
+  <si>
+    <t>HBwdh30L8wwZ0AJ72uIonh5mnyavVroXqbfe0yCwSfwxHTmsctiCpE0PQGCgrn07xN6uG9mcLCyafi1J1iAIrVo=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1XKVH36jaqZxn5FNLOAPfa2e7veU7FvRF/view</t>
   </si>
   <si>
     <t>ac4a4970282596872599</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1TCz4JmThT49Whz7pXZc1p-uh1m8qGlts/view</t>
-  </si>
-  <si>
-    <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
-  </si>
-  <si>
-    <t>ac4a4970282596872599a48469d3598e04f6239a9c8c40d595a7ab48cfec2f4b</t>
-  </si>
-  <si>
-    <t>HBwdh30L8wwZ0AJ72uIonh5mnyavVroXqbfe0yCwSfwxHTmsctiCpE0PQGCgrn07xN6uG9mcLCyafi1J1iAIrVo=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1XKVH36jaqZxn5FNLOAPfa2e7veU7FvRF/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yehor Podporinov</t>
+    <t>Yehor Podporinov</t>
+  </si>
+  <si>
+    <t>6ece24bf393d6616d2882515c6b704470a04394eb23a26e37fcfd58709864e9c</t>
   </si>
   <si>
     <t>6ece24bf393d6616d288</t>
@@ -945,16 +949,16 @@
     <t>8b0b4aebba75393ae3d3d17c2935872fcc9b742667912a33f84c93005de85fb4</t>
   </si>
   <si>
-    <t>6ece24bf393d6616d2882515c6b704470a04394eb23a26e37fcfd58709864e9c</t>
-  </si>
-  <si>
     <t>G16YW2qc38O2w05xL7whMAtbxBifYvcgSumruVDry/BeInzdXKeNdgkzs4+YALZnA1O/VZiCrqsMOX+JSxPhhDo=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1qjY792bJaQiXrAQkpY51MdDXWY5NGfHG/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Artem Litkevych</t>
+    <t>HDCKJb3z6l4lgp3NELh3RJkzdJD1joN7yfOxl+01921RdY6DAUkQyZNnWU9OHeVkW3fPDEweucWCsxJRM/I0X1s=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1f48HTb46vhokQ_8Azf1hncHeg-YaF01f/view</t>
   </si>
   <si>
     <t>2bdefe6ab583294a8e3a</t>
@@ -966,37 +970,40 @@
     <t>2bdefe6ab583294a8e3a46a7d66467c7afc535265a5eb5044d61411c2e9cf825</t>
   </si>
   <si>
-    <t>HDCKJb3z6l4lgp3NELh3RJkzdJD1joN7yfOxl+01921RdY6DAUkQyZNnWU9OHeVkW3fPDEweucWCsxJRM/I0X1s=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1f48HTb46vhokQ_8Azf1hncHeg-YaF01f/view</t>
+    <t>Artem Litkevych</t>
+  </si>
+  <si>
+    <t>5aedea6393611a0bb067</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1y0FtDg1SrfeMLVLgcU5nq3iVnBdoik87/view</t>
+  </si>
+  <si>
+    <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
+  </si>
+  <si>
+    <t>HApedQ3dSPFayNHWaAdeG0koY6JOtPkbNGfR03j/buRXUMPAQ7kVc5JUtU7xJeCQFNre1p7sPQiaazDauOSLyeU=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1L4MJCKIJ_qZk-xoeaxbt21yKDQ65ZiV-/view</t>
+  </si>
+  <si>
+    <t>Vadim Mokropulo</t>
+  </si>
+  <si>
+    <t>5aedea6393611a0bb067abca97eab5d15e20fa9b13654759eeb0ad08cf465bf6</t>
   </si>
   <si>
     <t>17.08.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Vadim Mokropulo</t>
-  </si>
-  <si>
-    <t>5aedea6393611a0bb067</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1y0FtDg1SrfeMLVLgcU5nq3iVnBdoik87/view</t>
-  </si>
-  <si>
-    <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
-  </si>
-  <si>
-    <t>5aedea6393611a0bb067abca97eab5d15e20fa9b13654759eeb0ad08cf465bf6</t>
-  </si>
-  <si>
-    <t>HApedQ3dSPFayNHWaAdeG0koY6JOtPkbNGfR03j/buRXUMPAQ7kVc5JUtU7xJeCQFNre1p7sPQiaazDauOSLyeU=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1L4MJCKIJ_qZk-xoeaxbt21yKDQ65ZiV-/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arsenii Trybukh</t>
+    <t>c5f89ffab6fb6790398f25f04cceea2582045f2cdaa852cffa609587b5f97da2</t>
+  </si>
+  <si>
+    <t>HAJxbdAA0K5jADiIkd2hSuUjSo5/eIKguFwXw2OZXCkPSIx4rLJcO32Gxfb002+eyGWSoqZg/YxEkHKrfxSL7F8=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/11NbZIfZYYPaZkiN3hIF-pOf-vQn1FjGZ/view</t>
   </si>
   <si>
     <t>843e73c99e2fb6868d38</t>
@@ -1005,43 +1012,34 @@
     <t>drive.google.com/file/d/1G_yt14WnfBJx-IrHPPr6dCVtmo-oZRGP/view</t>
   </si>
   <si>
-    <t>c5f89ffab6fb6790398f25f04cceea2582045f2cdaa852cffa609587b5f97da2</t>
+    <t>Arsenii Trybukh</t>
   </si>
   <si>
     <t>843e73c99e2fb6868d388c6436b8de6d6df90f2c6651c161738d510e0eedbe80</t>
   </si>
   <si>
-    <t>HAJxbdAA0K5jADiIkd2hSuUjSo5/eIKguFwXw2OZXCkPSIx4rLJcO32Gxfb002+eyGWSoqZg/YxEkHKrfxSL7F8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/11NbZIfZYYPaZkiN3hIF-pOf-vQn1FjGZ/view</t>
+    <t>drive.google.com/file/d/1l5wCpVPlLtvzFbUPo8FUxzzRBsS6Et75/view</t>
+  </si>
+  <si>
+    <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
+  </si>
+  <si>
+    <t>GyX+LFZlbOGkX9m4UFq+VTDe+qgFw8iaqa9Pnv0tpOhWPbMXAoZS20RqaIczvQ/H1VpzVlaXsEo+xn5nwKZJ/Hk=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1nGSPxXdXnZBvlGXqCNy4-upiIccTP2DF/view</t>
+  </si>
+  <si>
+    <t>c7bb640e0ab9c66c1b1b</t>
+  </si>
+  <si>
+    <t>c7bb640e0ab9c66c1b1b30a834ca00155e38ddba8212240e0bbd39eba0ba7804</t>
   </si>
   <si>
     <t>18.08.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Khrystyna Vysotska</t>
-  </si>
-  <si>
-    <t>c7bb640e0ab9c66c1b1b</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1l5wCpVPlLtvzFbUPo8FUxzzRBsS6Et75/view</t>
-  </si>
-  <si>
-    <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
-  </si>
-  <si>
-    <t>c7bb640e0ab9c66c1b1b30a834ca00155e38ddba8212240e0bbd39eba0ba7804</t>
-  </si>
-  <si>
-    <t>GyX+LFZlbOGkX9m4UFq+VTDe+qgFw8iaqa9Pnv0tpOhWPbMXAoZS20RqaIczvQ/H1VpzVlaXsEo+xn5nwKZJ/Hk=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1nGSPxXdXnZBvlGXqCNy4-upiIccTP2DF/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mykhailo Shcholkin</t>
+    <t>Khrystyna Vysotska</t>
   </si>
   <si>
     <t>de78c058c82cb70d7785</t>
@@ -1059,28 +1057,31 @@
     <t>drive.google.com/file/d/116fTgiRyxDGkYGtShL1QTg_IMdV7JIvh/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Sofiia Kireieva</t>
+    <t>Mykhailo Shcholkin</t>
+  </si>
+  <si>
+    <t>Sofiia Kireieva</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1GoJ9qUTxoHHdtNzbmx9kX8mUnMrERzTj/view</t>
+  </si>
+  <si>
+    <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
+  </si>
+  <si>
+    <t>GwxLKKdOMTqtcTyfNdinQRybUe+qy2ulplCNQh5mcOdQINQN0w/jb9OXjSkmDF4/X+KrmFDw9hjjLrHNZfbB5dE=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1dA-z2yZxNqg9vpZ-IrDTeI5VoAYSoUOx/view</t>
   </si>
   <si>
     <t>7a6968aff4e08534424f</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1GoJ9qUTxoHHdtNzbmx9kX8mUnMrERzTj/view</t>
-  </si>
-  <si>
-    <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
-  </si>
-  <si>
-    <t>GwxLKKdOMTqtcTyfNdinQRybUe+qy2ulplCNQh5mcOdQINQN0w/jb9OXjSkmDF4/X+KrmFDw9hjjLrHNZfbB5dE=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1dA-z2yZxNqg9vpZ-IrDTeI5VoAYSoUOx/view</t>
-  </si>
-  <si>
     <t>19.08.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Alena Sporova</t>
+    <t>Alena Sporova</t>
   </si>
   <si>
     <t>4f789ed064df7a17fb16</t>
@@ -1098,7 +1099,7 @@
     <t>drive.google.com/file/d/1SrPLonRxjfEBFQKfnHXjqy1icSZ8TQTg/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Nikita Masych</t>
+    <t>drive.google.com/file/d/1rd3-RafYYEM7AiLpUn6hDKvzItsu35eV/view</t>
   </si>
   <si>
     <t>ae669584e3592816786d</t>
@@ -1110,16 +1111,19 @@
     <t>483060d6ed3048a8dc0131f806543e2d4ebf5438280c29af23b478769c5e2422</t>
   </si>
   <si>
+    <t>HAHRm6qHhYtJONB4DE1fHhHs7jzCBi+0r098KwvwJ3FjJraqh4eh7xXl2kdKZvktikGbL8iVYeMFsUMMiZgU1dE=</t>
+  </si>
+  <si>
+    <t>Nikita Masych</t>
+  </si>
+  <si>
     <t>ae669584e3592816786def0ced73ae9c1157f3cf3957c54c7f00c313411d0917</t>
   </si>
   <si>
-    <t>HAHRm6qHhYtJONB4DE1fHhHs7jzCBi+0r098KwvwJ3FjJraqh4eh7xXl2kdKZvktikGbL8iVYeMFsUMMiZgU1dE=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1rd3-RafYYEM7AiLpUn6hDKvzItsu35eV/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark Cherepovskyi</t>
+    <t>Mark Cherepovskyi</t>
+  </si>
+  <si>
+    <t>2a2bdf9afd29bb5a037ee969d668f402c10e76c8cbbd976d813dc2c635212539</t>
   </si>
   <si>
     <t>2a2bdf9afd29bb5a037e</t>
@@ -1131,16 +1135,16 @@
     <t>c4879efd2b227fc0a0e38b82a1a91f47d5c53312805a02084f9769bbec1a71ec</t>
   </si>
   <si>
-    <t>2a2bdf9afd29bb5a037ee969d668f402c10e76c8cbbd976d813dc2c635212539</t>
-  </si>
-  <si>
     <t>G0IQQV4CbL/JBgmzra52tvPbBojg9JtvXR7fWIUO4M3PVCmcqlAPZYddUdyqGNQ46uqyzpxPt5unmlkaLZoWdik=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1Nn8f-CCkaRTHoTIvzOzlUjfFraIj0SxS/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Viacheslav Horbanov</t>
+    <t>HDMS95fN4wKz+mcce/qhkAB3CDAxnQf5cwwRXHl8KMdYA3/EO8kyMpNGiIbN5MFTQ8vPw07FOmfXy0ioj0UnCj4=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/15ZzFOxNzuFtm8BtdxOiZbShpVngUdT_R/view</t>
   </si>
   <si>
     <t>5af15e5a89df1459f6c0</t>
@@ -1152,19 +1156,19 @@
     <t>805b929698577e9aca3fe4691eadeb51f4dc001d6c3c48625b4e2d7ff2f1f090</t>
   </si>
   <si>
+    <t>Viacheslav Horbanov</t>
+  </si>
+  <si>
     <t>5af15e5a89df1459f6c0aeb5cd0e5be28e4a54e50468f9b686f2d93a47fcd8b5</t>
   </si>
   <si>
-    <t>HDMS95fN4wKz+mcce/qhkAB3CDAxnQf5cwwRXHl8KMdYA3/EO8kyMpNGiIbN5MFTQ8vPw07FOmfXy0ioj0UnCj4=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/15ZzFOxNzuFtm8BtdxOiZbShpVngUdT_R/view</t>
-  </si>
-  <si>
     <t>22.08.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Oleksii Stepaniuk</t>
+    <t>Oleksii Stepaniuk</t>
+  </si>
+  <si>
+    <t>709946c77b1372ca3cffa6c6d383a1fa4c8806d267ecb824b4ee502f41c2e4c0</t>
   </si>
   <si>
     <t>709946c77b1372ca3cff</t>
@@ -1176,16 +1180,25 @@
     <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
   </si>
   <si>
-    <t>709946c77b1372ca3cffa6c6d383a1fa4c8806d267ecb824b4ee502f41c2e4c0</t>
-  </si>
-  <si>
     <t>GxwMNgPmJTi7BfEjI6rsGqPvQoad54i76EyhJDFd3X9cMv6smt8Pqr9l2GzTwOy+UhKqumElsEDkC1pUydChGYM=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1-pE49RF7jkcKZaf7GMT9l_oK4tuCo-qU/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Kyrylo Riabov</t>
+    <t>Kyrylo Riabov</t>
+  </si>
+  <si>
+    <t>6393707ada82a579795181b6ad3cbf89bc962a3b517c4fad1ff80807b72258e2</t>
+  </si>
+  <si>
+    <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
+  </si>
+  <si>
+    <t>HHbJ2yOwNTaBD8Pj4Gc3VU1rvVOaml/gHFckPopyy6rVLkN9Llmf+A5SmWlzxzYnshzLqJKMNrV/7nrMhmMK0LA=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Wq36pFh0ILRhfaIV-RMgTsS8Rw_UPsMQ/view</t>
   </si>
   <si>
     <t>6393707ada82a5797951</t>
@@ -1194,21 +1207,6 @@
     <t>drive.google.com/file/d/1XyrBsaWWmIuwF0Hq8_K95lvtH9gb6l9O/view</t>
   </si>
   <si>
-    <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
-  </si>
-  <si>
-    <t>6393707ada82a579795181b6ad3cbf89bc962a3b517c4fad1ff80807b72258e2</t>
-  </si>
-  <si>
-    <t>HHbJ2yOwNTaBD8Pj4Gc3VU1rvVOaml/gHFckPopyy6rVLkN9Llmf+A5SmWlzxzYnshzLqJKMNrV/7nrMhmMK0LA=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Wq36pFh0ILRhfaIV-RMgTsS8Rw_UPsMQ/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oleksandr Kolesnyk</t>
-  </si>
-  <si>
     <t>b8536409d7a15f77c09c</t>
   </si>
   <si>
@@ -1218,19 +1216,22 @@
     <t>a4bc9b1320f2e1e710e9b1fd60261ccf698609aee22bab0b8bc8f6278c77ff28</t>
   </si>
   <si>
+    <t>HHvcf99G4vHmh7gwlEMbWJAQuuP3yxyHM8bMUdTLhf5lb5dJq/wz1VWiA3Z/oY5vRSiCpwneT5rrWqc8ErU11mU=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1aW9TvbBrwnNuYXWpVf9DsaHrdOh5lBe6/view</t>
+  </si>
+  <si>
+    <t>Oleksandr Kolesnyk</t>
+  </si>
+  <si>
     <t>b8536409d7a15f77c09c4ee971971d57834a7ce935d7de0afca925b431d7d3f0</t>
   </si>
   <si>
-    <t>HHvcf99G4vHmh7gwlEMbWJAQuuP3yxyHM8bMUdTLhf5lb5dJq/wz1VWiA3Z/oY5vRSiCpwneT5rrWqc8ErU11mU=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1aW9TvbBrwnNuYXWpVf9DsaHrdOh5lBe6/view</t>
-  </si>
-  <si>
     <t>23.08.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Nikita Chabaniuk</t>
+    <t>Nikita Chabaniuk</t>
   </si>
   <si>
     <t>4b7f8d4f293f72815ab4</t>
@@ -1248,7 +1249,13 @@
     <t>drive.google.com/file/d/1YrBbtcKZvZerAB-P3IgI2VY_rNpYXWdd/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Amina Yambulatova</t>
+    <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
+  </si>
+  <si>
+    <t>G1YYB4Ev2kOYbqXr2cCeGRFHYlaynNvMmb6TrOoeBnzORoDe4Pips3BiaJZxZBBWtuSRec45V5h9Mce9vCSYCH8=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1cFcRCnazlkVCJwZpAUyUVf662LBzDlc1/view</t>
   </si>
   <si>
     <t>8e1b8b35cb7330ddc76e</t>
@@ -1257,21 +1264,12 @@
     <t>drive.google.com/file/d/1cQNAJj42ZPrF7G2wJasBxsblGWb1cx6U/view</t>
   </si>
   <si>
-    <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
+    <t>Amina Yambulatova</t>
   </si>
   <si>
     <t>8e1b8b35cb7330ddc76eb03e4878e055a523040b63232a27df27ca76e04a8678</t>
   </si>
   <si>
-    <t>G1YYB4Ev2kOYbqXr2cCeGRFHYlaynNvMmb6TrOoeBnzORoDe4Pips3BiaJZxZBBWtuSRec45V5h9Mce9vCSYCH8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1cFcRCnazlkVCJwZpAUyUVf662LBzDlc1/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yegor Chukanov</t>
-  </si>
-  <si>
     <t>95392bafab8d1e14ab55</t>
   </si>
   <si>
@@ -1281,37 +1279,43 @@
     <t>40f94f67b8a8d87da643ad5c019db2e6c6f6e960a03453048995c11eea36d236</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1UXQ_dMB-t0DJ1zHqwUO4AMKw00xTe7Kd/view</t>
+  </si>
+  <si>
+    <t>Yegor Chukanov</t>
+  </si>
+  <si>
     <t>95392bafab8d1e14ab5530e8a6a2436a7faa1647c9af34869af6d793fdb526dd</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1UXQ_dMB-t0DJ1zHqwUO4AMKw00xTe7Kd/view</t>
+    <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
+  </si>
+  <si>
+    <t>G2JfFYPk+Pp+65U01De1kmptKvks4kuSPI6m3hF2U+79HZCoD8lymFRpoPnVxZ2laFtkb2XA9J8nfBT2hffuYsw=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Gky0SNUujtYDy63EkDHDfdHn6lBJFb9g/view</t>
+  </si>
+  <si>
+    <t>3dc98e4fdedc7c6b91f5</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1JWQoCNMPVL8zCEb3aDGft9aNFn_7Bn6U/view</t>
   </si>
   <si>
     <t>24.08.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Dmytro Vynohradov</t>
-  </si>
-  <si>
-    <t>3dc98e4fdedc7c6b91f5</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1JWQoCNMPVL8zCEb3aDGft9aNFn_7Bn6U/view</t>
-  </si>
-  <si>
-    <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
+    <t>Dmytro Vynohradov</t>
   </si>
   <si>
     <t>3dc98e4fdedc7c6b91f59db100a54a9d140ee40149845e160b9bf59021cfd763</t>
   </si>
   <si>
-    <t>G2JfFYPk+Pp+65U01De1kmptKvks4kuSPI6m3hF2U+79HZCoD8lymFRpoPnVxZ2laFtkb2XA9J8nfBT2hffuYsw=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Gky0SNUujtYDy63EkDHDfdHn6lBJFb9g/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mykhailo Sokolov</t>
+    <t>Mykhailo Sokolov</t>
+  </si>
+  <si>
+    <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
   </si>
   <si>
     <t>5a875f69aae3c47635bc</t>
@@ -1323,43 +1327,43 @@
     <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
   </si>
   <si>
-    <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
-  </si>
-  <si>
     <t>HBCVC5I+IeKJfiwlnLSOv2b3zmmlPbKLwcOCjBb6dPfZIvDoV0Bg/EwiXf880gA9PO3pwI1BcQpjCFVKtoEOCHM=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/17EMz1PARbz9e8RTVMLFvKCGrcuqxU0X5/view</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1jMQGHGOmWabDErZg-n19HYPP7sUPbA-C/view</t>
+  </si>
+  <si>
+    <t>5cbc5e19fd5bb7d530d8e96ecd9e1f957e8731f7b5738c30b4b5e1bdda0861c4</t>
+  </si>
+  <si>
+    <t>GxbnaO2SI42FWSLEEeAdripZKWQTCFp0dSAopXV/2wcjBco8ZbmUu3GwTndN8FzDVaFjnEfIeim4NGPPs+jCQzg=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1rEPYF5Uwt1Gg--7B3QLoPSWrcIzAuG9l/view</t>
+  </si>
+  <si>
+    <t>c6e0a8f84ae9df426a28</t>
+  </si>
+  <si>
+    <t>c6e0a8f84ae9df426a28363024a5e4734dea38882c37c27ccbf3350092257289</t>
+  </si>
+  <si>
     <t>25.08.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Illia Popov</t>
-  </si>
-  <si>
-    <t>c6e0a8f84ae9df426a28</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1jMQGHGOmWabDErZg-n19HYPP7sUPbA-C/view</t>
-  </si>
-  <si>
-    <t>5cbc5e19fd5bb7d530d8e96ecd9e1f957e8731f7b5738c30b4b5e1bdda0861c4</t>
-  </si>
-  <si>
-    <t>c6e0a8f84ae9df426a28363024a5e4734dea38882c37c27ccbf3350092257289</t>
-  </si>
-  <si>
-    <t>GxbnaO2SI42FWSLEEeAdripZKWQTCFp0dSAopXV/2wcjBco8ZbmUu3GwTndN8FzDVaFjnEfIeim4NGPPs+jCQzg=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1rEPYF5Uwt1Gg--7B3QLoPSWrcIzAuG9l/view</t>
+    <t>Illia Popov</t>
   </si>
   <si>
     <t>26.08.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Mykola Gora</t>
+    <t>Mykola Gora</t>
+  </si>
+  <si>
+    <t>e17451aabeae8492dbe7099d581c12ef9e7a8366dd7ddf2267d0e42cd4580c19</t>
   </si>
   <si>
     <t>e17451aabeae8492dbe7</t>
@@ -1371,18 +1375,12 @@
     <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
   </si>
   <si>
-    <t>e17451aabeae8492dbe7099d581c12ef9e7a8366dd7ddf2267d0e42cd4580c19</t>
-  </si>
-  <si>
     <t>G1rX7mp/6KhUVoryYkYmifpVakFz5esJ02otJ2mZPwp7MHkaFa8WdLamGh4FuZCo4AP8DoxRbh1+qYpxsEGumSY=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1NYZJn0Wxf8vR9QW-LE4U_2mvV5gX356p/view</t>
   </si>
   <si>
-    <t xml:space="preserve">Artem Levkin</t>
-  </si>
-  <si>
     <t>4cfdcdc672279489b68a</t>
   </si>
   <si>
@@ -1392,37 +1390,46 @@
     <t>417f8fbf445be4909b812ed5db8ded8669b512bcba91782881d11f10fe551570</t>
   </si>
   <si>
+    <t>HAUm82i2DcGPW2dlUnkAex+z9pI7QXjFFkfN7fvKH/NWHKCa5jaIHnZIjW0MHVx+WFJzNl5fsaPYQxDd7zePq9E=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1UxUzAyExCitVVyJENd4Ka9gN9rBDLUrw/view</t>
+  </si>
+  <si>
+    <t>Artem Levkin</t>
+  </si>
+  <si>
     <t>4cfdcdc672279489b68a1e900b2f8aa296d28d2d40fb08c1c5ca14562a1d23b3</t>
   </si>
   <si>
-    <t>HAUm82i2DcGPW2dlUnkAex+z9pI7QXjFFkfN7fvKH/NWHKCa5jaIHnZIjW0MHVx+WFJzNl5fsaPYQxDd7zePq9E=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1UxUzAyExCitVVyJENd4Ka9gN9rBDLUrw/view</t>
+    <t>34ea29020672eb21280caadaf19377833ae12495cae3cc9e297d0f4aefe0d428</t>
+  </si>
+  <si>
+    <t>HB24fr9zRBm8R7uXlw5zXiUP5eHW5ljJJrmCwOpRp/4YRjQ/TpqUsmm+GMG8fdOVEEIellnn+Sif/IFeHOuPX4Y=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/10aBMeumWTAVfoCF9OhzWdrjtrC26Zmc3/view</t>
+  </si>
+  <si>
+    <t>34ea29020672eb21280c</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1z6IhpWNludHIAApZXih8yz4bCn6-Vt8M/view</t>
   </si>
   <si>
     <t>29.08.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Natalya Dolgova</t>
-  </si>
-  <si>
-    <t>34ea29020672eb21280c</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1z6IhpWNludHIAApZXih8yz4bCn6-Vt8M/view</t>
-  </si>
-  <si>
-    <t>34ea29020672eb21280caadaf19377833ae12495cae3cc9e297d0f4aefe0d428</t>
-  </si>
-  <si>
-    <t>HB24fr9zRBm8R7uXlw5zXiUP5eHW5ljJJrmCwOpRp/4YRjQ/TpqUsmm+GMG8fdOVEEIellnn+Sif/IFeHOuPX4Y=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/10aBMeumWTAVfoCF9OhzWdrjtrC26Zmc3/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artem Zubrych</t>
+    <t>Natalya Dolgova</t>
+  </si>
+  <si>
+    <t>Artem Zubrych</t>
+  </si>
+  <si>
+    <t>905fa9409eec8ceee94c08cd9f5410e03310ce041b58f41958ea440b3396b275</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1MEjKKhuFeZ4mE0PM3kjRptb63VitKcTl/view</t>
   </si>
   <si>
     <t>905fa9409eec8ceee94c</t>
@@ -1434,37 +1441,43 @@
     <t>bfdf2d5236562eef75432a510ff9b0b4cd7d37ac17547d3e0515f4891a736609</t>
   </si>
   <si>
-    <t>905fa9409eec8ceee94c08cd9f5410e03310ce041b58f41958ea440b3396b275</t>
-  </si>
-  <si>
     <t>G2IQ96lhlCyrf6+zTqhN5F744yuKJvP3JOPKM+8RfwLsTNBoEcHKch31onlkxZG23com3sHuRJ3EVtQBirJEcLI=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1MEjKKhuFeZ4mE0PM3kjRptb63VitKcTl/view</t>
+    <t>f4b8579fd5eced5139aa</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tVAP8fauK_wN1JHJrB5yyDCelAvkutVt/view</t>
+  </si>
+  <si>
+    <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
+  </si>
+  <si>
+    <t>HFOOeUrSvztcEv16aKHm4rhS4OG+5rifrKjnl2TLUMNuIvmOP+bmIwQ0R/CXhqPzLG93zNNZ7DDAzo4zX2JwqG0=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
   </si>
   <si>
     <t>30.08.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Valentyna Lytvynova</t>
-  </si>
-  <si>
-    <t>f4b8579fd5eced5139aa</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tVAP8fauK_wN1JHJrB5yyDCelAvkutVt/view</t>
-  </si>
-  <si>
-    <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
-  </si>
-  <si>
-    <t>HFOOeUrSvztcEv16aKHm4rhS4OG+5rifrKjnl2TLUMNuIvmOP+bmIwQ0R/CXhqPzLG93zNNZ7DDAzo4zX2JwqG0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugene Petrikeev</t>
+    <t>Valentyna Lytvynova</t>
+  </si>
+  <si>
+    <t>Eugene Petrikeev</t>
+  </si>
+  <si>
+    <t>a3cfa3e5bbc7bf47c73a50046cffe7f40a1126942a35d516dae7601a8d6e0c04</t>
+  </si>
+  <si>
+    <t>ff01796886d91f5df69e2b999462ffdd868ad8a8ac105910698d4bf34eac760d</t>
+  </si>
+  <si>
+    <t>HC9onoqwiC9tBTjtH4rWK0sZBN201JY5gzQcOjtrnfrxCuyXuNML5tt7vBnK3gaErXQJAHBkpCgIGcSy2+VhT2o=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Es38UUfq4uF6K5m688upx26mH7dcLyOW/view</t>
   </si>
   <si>
     <t>a3cfa3e5bbc7bf47c73a</t>
@@ -1473,19 +1486,7 @@
     <t>drive.google.com/file/d/1_UvD8BMIATW0UaJxtWCZTpytX5_CiSVw/view</t>
   </si>
   <si>
-    <t>ff01796886d91f5df69e2b999462ffdd868ad8a8ac105910698d4bf34eac760d</t>
-  </si>
-  <si>
-    <t>a3cfa3e5bbc7bf47c73a50046cffe7f40a1126942a35d516dae7601a8d6e0c04</t>
-  </si>
-  <si>
-    <t>HC9onoqwiC9tBTjtH4rWK0sZBN201JY5gzQcOjtrnfrxCuyXuNML5tt7vBnK3gaErXQJAHBkpCgIGcSy2+VhT2o=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Es38UUfq4uF6K5m688upx26mH7dcLyOW/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yurii Poberezhnyi</t>
+    <t>drive.google.com/file/d/1_MqAQ9X0jUmXaREfYybJjbDFMxW4y_dV/view</t>
   </si>
   <si>
     <t>f58f1fc15134ceb66672</t>
@@ -1500,13 +1501,22 @@
     <t>G0id81/AyLv4L2f1Cpy38tuZKCexDvgAwCSDLEP2wFERBEUIL9DUFSHweqt5XpHRUrIGyIocTY4rw5X+3BRYVQo=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1_MqAQ9X0jUmXaREfYybJjbDFMxW4y_dV/view</t>
+    <t>Yurii Poberezhnyi</t>
   </si>
   <si>
     <t>07.09.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Alina Telnova</t>
+    <t>Alina Telnova</t>
+  </si>
+  <si>
+    <t>0c95f06fcccbe19e0bb6821d5f73206de2ba7ab6169774ac57630980fcfdf102</t>
+  </si>
+  <si>
+    <t>G0cRPgCnc9gR979fw7SNVKjn1dtzkepjD/26FOnoJgjmCLAqctDx/62xZZTvPJAQ4ByVKaMOKZLGISJxpBRjSxk=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1QyeAEZg9sPSyHyju9DCa692a7BZuOUIM/view</t>
   </si>
   <si>
     <t>0c95f06fcccbe19e0bb6</t>
@@ -1518,58 +1528,46 @@
     <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
   </si>
   <si>
-    <t>0c95f06fcccbe19e0bb6821d5f73206de2ba7ab6169774ac57630980fcfdf102</t>
-  </si>
-  <si>
-    <t>G0cRPgCnc9gR979fw7SNVKjn1dtzkepjD/26FOnoJgjmCLAqctDx/62xZZTvPJAQ4ByVKaMOKZLGISJxpBRjSxk=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1QyeAEZg9sPSyHyju9DCa692a7BZuOUIM/view</t>
+    <t>af27ce942975c91a06dbe4593ddf563b104b6cff511a916a18e473e33a3c6685</t>
+  </si>
+  <si>
+    <t>HGAuSB4G9iS8qnGaGbTZOELzGnfVIOzeYAr51TKyBEI+R81nW4taggKbD837pJohHVGrr04rH5jPlwzyVAlOZf8=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1sz_pAnlIqmiCE-IlVrYH0bVnlb9CO7k3/view</t>
+  </si>
+  <si>
+    <t>Theory of database organization and basic SQL</t>
+  </si>
+  <si>
+    <t>a7a0e0e2fed389ffbc84</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1a35HB3dZNIFVRKh5MYvwbUMgYIYIeJcJ/view</t>
   </si>
   <si>
     <t>07.12.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Oleksandra Ivanova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theory of database organization and basic SQL</t>
-  </si>
-  <si>
-    <t>a7a0e0e2fed389ffbc84</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1a35HB3dZNIFVRKh5MYvwbUMgYIYIeJcJ/view</t>
-  </si>
-  <si>
-    <t>af27ce942975c91a06dbe4593ddf563b104b6cff511a916a18e473e33a3c6685</t>
+    <t>Oleksandra Ivanova</t>
   </si>
   <si>
     <t>a7a0e0e2fed389ffbc84aa75be30dc0262dac7620349a94e3f087de79d800aec</t>
   </si>
   <si>
-    <t>HGAuSB4G9iS8qnGaGbTZOELzGnfVIOzeYAr51TKyBEI+R81nW4taggKbD837pJohHVGrr04rH5jPlwzyVAlOZf8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1sz_pAnlIqmiCE-IlVrYH0bVnlb9CO7k3/view</t>
+    <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
+  </si>
+  <si>
+    <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Ilona_Shevchenko_database_QR_codecreate.svg</t>
   </si>
   <si>
     <t>08.12.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilona Shevchenko</t>
-  </si>
-  <si>
-    <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
-  </si>
-  <si>
-    <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Ilona_Shevchenko_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ievgeniia Bondar</t>
+    <t>Ilona Shevchenko</t>
   </si>
   <si>
     <t>53a0b93122b1b19f00b1770fcf8346ff6b499f4d7d038539404febdb403dd2d5</t>
@@ -1581,7 +1579,7 @@
     <t>./qr/certificate_Ievgeniia_Bondar_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Sofia Golets</t>
+    <t>Ievgeniia Bondar</t>
   </si>
   <si>
     <t>7175c0e9b3bfed99d34b5ff6205db6a1d738a6f59b1edc16625a3de5e5df2337</t>
@@ -1593,7 +1591,10 @@
     <t>./qr/certificate_Sofia_Golets_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Mykyta Tsyvinskyi</t>
+    <t>Sofia Golets</t>
+  </si>
+  <si>
+    <t>Mykyta Tsyvinskyi</t>
   </si>
   <si>
     <t>d329fb86a98533895cc967dcae966e81c1704bd665227e866aa2243d40f860d1</t>
@@ -1605,7 +1606,10 @@
     <t>./qr/certificate_Mykyta_Tsyvinskyi_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Cryptography and information security theory</t>
+    <t>./qr/certificate_Mykhailo_Sokolov_security_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>Cryptography and information security theory</t>
   </si>
   <si>
     <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
@@ -1614,9 +1618,6 @@
     <t>G+LRDlMfhyvZO7qLoCtZi3Y4Q1yC/VmYJUOF79rRwGAGH93HyPOn0ZUp6fjZE87K+JkhhSiBVl2Pf+AGfNu10RA=</t>
   </si>
   <si>
-    <t>./qr/certificate_Mykhailo_Sokolov_security_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>09.12.2022</t>
   </si>
   <si>
@@ -1629,7 +1630,7 @@
     <t>./qr/certificate_Mykhailo_Sokolov_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Kateryna Hordiienko</t>
+    <t>./qr/certificate_Kateryna_Hordiienko_database_QR_codecreate.svg</t>
   </si>
   <si>
     <t>c2d70295e9cd94ea36fa993ddb5a6e20a0b88058287ff348b485f282fe98bcd7</t>
@@ -1638,22 +1639,22 @@
     <t>G+YE6/0P9zPNxZ1YU3AR+TXthT9PlF8Gx3dM9k7Y2cNIIrTalRdUgSTwwSMu/mcimZUsZLZ5l2puCtwVP6ll5kI=</t>
   </si>
   <si>
-    <t>./qr/certificate_Kateryna_Hordiienko_database_QR_codecreate.svg</t>
+    <t>Kateryna Hordiienko</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Viacheslav_Horbanov_database_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
+  </si>
+  <si>
+    <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU=</t>
   </si>
   <si>
     <t>12.12.2022</t>
   </si>
   <si>
-    <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
-  </si>
-  <si>
-    <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Viacheslav_Horbanov_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuliia Aritkulova</t>
+    <t>Yuliia Aritkulova</t>
   </si>
   <si>
     <t>dcc49868ac0482916b0fe63143198d93a159f912cae80d172fca6750a9b8223c</t>
@@ -1665,7 +1666,7 @@
     <t>./qr/certificate_Yuliia_Aritkulova_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Oleksandr Yevtushenko</t>
+    <t>Oleksandr Yevtushenko</t>
   </si>
   <si>
     <t>69469e3a141e8845c7809e75806677b732754cb64a3ab7e27ee50c47defaa7cd</t>
@@ -1677,7 +1678,7 @@
     <t>./qr/certificate_Oleksandr_Yevtushenko_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Mariia Mahdalina</t>
+    <t>Mariia Mahdalina</t>
   </si>
   <si>
     <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
@@ -1701,19 +1702,13 @@
     <t>13.12.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Anastasia Andreeva</t>
-  </si>
-  <si>
-    <t>b8204a738e7d7870dabd55671aca3a860dd89a35ef26e0842f271747331a2137</t>
-  </si>
-  <si>
-    <t>HJVKQ2Uj9PkXKh4aB7EUy+qqEtzziBAX7CaNWYTiFDyXIQ5w6CG1bIat2vs1GsmBD+r6z55FbUFJFdXz57+QgUc=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Anastasia_Andreeva_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polina Reshetnikova</t>
+    <t>Anastasia Andreeva</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Polina Reshetnikova</t>
   </si>
   <si>
     <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
@@ -1746,16 +1741,7 @@
     <t>14.12.2022</t>
   </si>
   <si>
-    <t>b94492feb30efb7f94082666a936891a31a43de0e18af1aa8a110ef869532d93</t>
-  </si>
-  <si>
-    <t>G6+s7V2DHLaRMUYNOIA8N40KmelApLWT3iXHGYHXv0ZJIGVzGNez6R9Ai+af6Go130PTYDBGSDSN/q4KZdDYaqI=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Yehor_Podporinov_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pasha Charovatiy</t>
+    <t>./qr/certificate_Pasha_Charovatiy_database_QR_codecreate.svg</t>
   </si>
   <si>
     <t>151f4183ce68ec59b82ccbef71ac6f538e0eb86354c29ded27bca54fa4b95c99</t>
@@ -1764,10 +1750,10 @@
     <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
   </si>
   <si>
-    <t>./qr/certificate_Pasha_Charovatiy_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dmytro Serhiienko</t>
+    <t>Pasha Charovatiy</t>
+  </si>
+  <si>
+    <t>Dmytro Serhiienko</t>
   </si>
   <si>
     <t>42bdd76bce3b85dabf4bdba92100db768bf64e72f2b3535930b69bef40aa3c4c</t>
@@ -1779,9 +1765,6 @@
     <t>./qr/certificate_Dmytro_Serhiienko_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Vladislav Dmitrenko</t>
-  </si>
-  <si>
     <t>890c4726435f6d5a1c10068273e8dd8a3ac0645a9564bbf149f0d74a891669c6</t>
   </si>
   <si>
@@ -1791,78 +1774,67 @@
     <t>./qr/certificate_Vladislav_Dmitrenko_security_QR_codecreate.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Marina Rindina</t>
+    <t>Vladislav Dmitrenko</t>
+  </si>
+  <si>
+    <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Marina_Rindina_security_QR_codecreate.svg</t>
   </si>
   <si>
     <t>05f89d361327d9ef1679342cb8ed0488715da550cba8f0bdc7160caa43b5929c</t>
   </si>
   <si>
-    <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Marina_Rindina_security_QR_codecreate.svg</t>
+    <t>Marina Rindina</t>
   </si>
   <si>
     <t>15.12.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Nazar Franko</t>
-  </si>
-  <si>
-    <t>fec88d795aed9c59a04f91dedb06380fd764c753a54d6bdb96cea82b6ba05e29</t>
-  </si>
-  <si>
-    <t>HL/mv02dnaeyvxsR9TyKJfqMl9lFEn1L8OidD6AzOq6SbieHRkQRPK29os5vKBwoJ5+Bf7RtfN9xUiVEOCASXj0=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Nazar_Franko_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olha Drahomeretska</t>
-  </si>
-  <si>
-    <t>9b293cc55ae62c9db4d9ce36cbc12b07e861f9c2cc1fdea2619f10ceca7aa779</t>
-  </si>
-  <si>
-    <t>HErdMQ+2CPtlOJcP0I5vxghyuQmJVGZrrQr9SzMolPyHA1fUnzBjAbN7DzwkyP+y7M+dkiNCGOkNsY3YZaCO1XA=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Olha_Drahomeretska_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maksym Cherniak</t>
+    <t>Nazar Franko</t>
+  </si>
+  <si>
+    <t>Olha Drahomeretska</t>
+  </si>
+  <si>
+    <t>Maksym Cherniak</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ac2b88ac92caf80b1207</t>
   </si>
   <si>
     <t>ac2b88ac92caf80b12076489c877b91785360487aa3135871883e597da139682</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
   </si>
   <si>
     <t>./qr/certificate_Maksym_Cherniak_security_QR_codecreate.svg</t>
   </si>
   <si>
+    <t>./qr/certificate_Maksym_Cherniak__QR_codecreate.svg</t>
+  </si>
+  <si>
     <t>3bf214d846d708bfad511d51d92350d45ba0bcf21f43b7bb46553ed2e0aad585</t>
   </si>
   <si>
     <t>HDfq7iIvfl/KNv5Cs/GPeiZndLZYqskpWWIXt7VX3LunRfVInSqJiTeO33MHHKI8aX3Zz4VgDh7LV5fAg/zZPZk=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Maksym_Cherniak__QR_codecreate.svg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1883,309 +1855,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2227,14 +1911,74 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2242,7 +1986,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2268,7 +2012,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2320,28 +2064,16 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2357,7 +2089,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2388,33 +2120,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -2426,10 +2158,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2440,10 +2172,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -2452,16 +2184,16 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -2475,25 +2207,25 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -2507,7 +2239,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -2516,16 +2248,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -2539,25 +2271,25 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -2565,31 +2297,31 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -2597,31 +2329,31 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -2635,7 +2367,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -2644,16 +2376,16 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -2667,25 +2399,25 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -2699,25 +2431,25 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -2731,25 +2463,25 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -2763,7 +2495,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -2772,16 +2504,16 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -2795,25 +2527,25 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -2827,7 +2559,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -2836,16 +2568,16 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -2859,25 +2591,25 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -2891,25 +2623,25 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -2923,25 +2655,25 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -2955,7 +2687,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -2964,16 +2696,16 @@
         <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -2987,7 +2719,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -2996,16 +2728,16 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -3019,7 +2751,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>21</v>
@@ -3028,16 +2760,16 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -3051,25 +2783,25 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -3077,31 +2809,31 @@
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -3109,31 +2841,31 @@
         <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -3141,31 +2873,31 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -3179,25 +2911,25 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -3211,25 +2943,25 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -3243,71 +2975,71 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
@@ -3316,94 +3048,94 @@
         <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
@@ -3412,176 +3144,176 @@
         <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
         <v>58</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
         <v>70</v>
       </c>
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>71</v>
-      </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
         <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -3592,28 +3324,28 @@
         <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
       </c>
       <c r="F38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s">
+        <v>78</v>
+      </c>
+      <c r="J38" t="s">
         <v>79</v>
-      </c>
-      <c r="G38" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38" t="s">
-        <v>81</v>
-      </c>
-      <c r="I38" t="s">
-        <v>82</v>
-      </c>
-      <c r="J38" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="39">
@@ -3624,60 +3356,60 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s">
         <v>86</v>
       </c>
-      <c r="E39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>88</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" t="s">
         <v>89</v>
-      </c>
-      <c r="I39" t="s">
-        <v>90</v>
-      </c>
-      <c r="J39" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I40" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
@@ -3688,153 +3420,153 @@
         <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" t="s">
         <v>103</v>
       </c>
-      <c r="G41" t="s">
+      <c r="J41" t="s">
         <v>104</v>
-      </c>
-      <c r="H41" t="s">
-        <v>105</v>
-      </c>
-      <c r="I41" t="s">
-        <v>106</v>
-      </c>
-      <c r="J41" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
         <v>109</v>
       </c>
-      <c r="C42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" t="s">
-        <v>110</v>
-      </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
       </c>
       <c r="G42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" t="s">
         <v>111</v>
       </c>
-      <c r="H42" t="s">
-        <v>112</v>
-      </c>
-      <c r="I42" t="s">
-        <v>113</v>
-      </c>
       <c r="J42" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
         <v>115</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
         <v>116</v>
       </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="G43" t="s">
         <v>117</v>
       </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" t="s">
         <v>118</v>
       </c>
-      <c r="G43" t="s">
+      <c r="J43" t="s">
         <v>119</v>
-      </c>
-      <c r="H43" t="s">
-        <v>120</v>
-      </c>
-      <c r="I43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J43" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
         <v>123</v>
       </c>
-      <c r="C44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
         <v>124</v>
       </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>125</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
+        <v>129</v>
+      </c>
+      <c r="I44" t="s">
         <v>126</v>
       </c>
-      <c r="H44" t="s">
+      <c r="J44" t="s">
         <v>127</v>
-      </c>
-      <c r="I44" t="s">
-        <v>128</v>
-      </c>
-      <c r="J44" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
         <v>130</v>
       </c>
-      <c r="B45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" t="s">
-        <v>132</v>
-      </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J45" t="s">
         <v>15</v>
@@ -3842,179 +3574,179 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G46" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I46" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J46" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" t="s">
+        <v>149</v>
+      </c>
+      <c r="H47" t="s">
+        <v>153</v>
+      </c>
+      <c r="I47" t="s">
+        <v>150</v>
+      </c>
+      <c r="J47" t="s">
         <v>144</v>
-      </c>
-      <c r="B47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" t="s">
-        <v>147</v>
-      </c>
-      <c r="E47" t="s">
-        <v>148</v>
-      </c>
-      <c r="F47" t="s">
-        <v>149</v>
-      </c>
-      <c r="G47" t="s">
-        <v>150</v>
-      </c>
-      <c r="H47" t="s">
-        <v>151</v>
-      </c>
-      <c r="I47" t="s">
-        <v>152</v>
-      </c>
-      <c r="J47" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
         <v>155</v>
       </c>
-      <c r="E48" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
+        <v>153</v>
+      </c>
+      <c r="I48" t="s">
         <v>156</v>
       </c>
-      <c r="G48" t="s">
+      <c r="J48" t="s">
         <v>157</v>
-      </c>
-      <c r="H48" t="s">
-        <v>151</v>
-      </c>
-      <c r="I48" t="s">
-        <v>158</v>
-      </c>
-      <c r="J48" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" t="s">
         <v>160</v>
       </c>
-      <c r="B49" t="s">
+      <c r="H49" t="s">
+        <v>153</v>
+      </c>
+      <c r="I49" t="s">
         <v>161</v>
       </c>
-      <c r="C49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="J49" t="s">
         <v>162</v>
-      </c>
-      <c r="E49" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49" t="s">
-        <v>163</v>
-      </c>
-      <c r="G49" t="s">
-        <v>164</v>
-      </c>
-      <c r="H49" t="s">
-        <v>151</v>
-      </c>
-      <c r="I49" t="s">
-        <v>165</v>
-      </c>
-      <c r="J49" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
         <v>167</v>
       </c>
-      <c r="C50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="G50" t="s">
         <v>168</v>
       </c>
-      <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
+        <v>172</v>
+      </c>
+      <c r="I50" t="s">
         <v>169</v>
       </c>
-      <c r="G50" t="s">
+      <c r="J50" t="s">
         <v>170</v>
-      </c>
-      <c r="H50" t="s">
-        <v>171</v>
-      </c>
-      <c r="I50" t="s">
-        <v>172</v>
-      </c>
-      <c r="J50" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B51" t="s">
         <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" t="s">
         <v>175</v>
       </c>
       <c r="E51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F51" t="s">
         <v>176</v>
@@ -4023,7 +3755,7 @@
         <v>177</v>
       </c>
       <c r="H51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I51" t="s">
         <v>178</v>
@@ -4034,19 +3766,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
         <v>180</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
         <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F52" t="s">
         <v>182</v>
@@ -4055,7 +3787,7 @@
         <v>183</v>
       </c>
       <c r="H52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I52" t="s">
         <v>184</v>
@@ -4066,179 +3798,179 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
         <v>186</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" t="s">
         <v>187</v>
       </c>
-      <c r="E53" t="s">
-        <v>148</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>188</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
+        <v>153</v>
+      </c>
+      <c r="I53" t="s">
         <v>189</v>
       </c>
-      <c r="H53" t="s">
-        <v>151</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>190</v>
-      </c>
-      <c r="J53" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" t="s">
         <v>192</v>
       </c>
-      <c r="C54" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" t="s">
         <v>193</v>
       </c>
-      <c r="E54" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>194</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
+        <v>153</v>
+      </c>
+      <c r="I54" t="s">
         <v>195</v>
       </c>
-      <c r="H54" t="s">
-        <v>151</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>196</v>
-      </c>
-      <c r="J54" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
         <v>198</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" t="s">
+        <v>202</v>
+      </c>
+      <c r="G55" t="s">
+        <v>203</v>
+      </c>
+      <c r="H55" t="s">
+        <v>153</v>
+      </c>
+      <c r="I55" t="s">
         <v>199</v>
       </c>
-      <c r="E55" t="s">
-        <v>148</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="J55" t="s">
         <v>200</v>
-      </c>
-      <c r="G55" t="s">
-        <v>201</v>
-      </c>
-      <c r="H55" t="s">
-        <v>151</v>
-      </c>
-      <c r="I55" t="s">
-        <v>202</v>
-      </c>
-      <c r="J55" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
         <v>204</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" t="s">
         <v>205</v>
       </c>
-      <c r="E56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>206</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
+        <v>153</v>
+      </c>
+      <c r="I56" t="s">
         <v>207</v>
       </c>
-      <c r="H56" t="s">
-        <v>151</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>208</v>
-      </c>
-      <c r="J56" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" t="s">
+        <v>164</v>
+      </c>
+      <c r="G57" t="s">
         <v>160</v>
       </c>
-      <c r="B57" t="s">
+      <c r="H57" t="s">
+        <v>153</v>
+      </c>
+      <c r="I57" t="s">
         <v>161</v>
       </c>
-      <c r="C57" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="J57" t="s">
         <v>162</v>
-      </c>
-      <c r="E57" t="s">
-        <v>148</v>
-      </c>
-      <c r="F57" t="s">
-        <v>163</v>
-      </c>
-      <c r="G57" t="s">
-        <v>164</v>
-      </c>
-      <c r="H57" t="s">
-        <v>151</v>
-      </c>
-      <c r="I57" t="s">
-        <v>165</v>
-      </c>
-      <c r="J57" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s">
         <v>210</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
         <v>211</v>
       </c>
       <c r="E58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F58" t="s">
         <v>212</v>
@@ -4247,7 +3979,7 @@
         <v>213</v>
       </c>
       <c r="H58" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I58" t="s">
         <v>214</v>
@@ -4258,34 +3990,34 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>220</v>
+      </c>
+      <c r="G59" t="s">
         <v>216</v>
       </c>
-      <c r="B59" t="s">
+      <c r="H59" t="s">
+        <v>223</v>
+      </c>
+      <c r="I59" t="s">
         <v>217</v>
       </c>
-      <c r="C59" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="J59" t="s">
         <v>218</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" t="s">
-        <v>219</v>
-      </c>
-      <c r="G59" t="s">
-        <v>220</v>
-      </c>
-      <c r="H59" t="s">
-        <v>221</v>
-      </c>
-      <c r="I59" t="s">
-        <v>222</v>
-      </c>
-      <c r="J59" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="60">
@@ -4296,22 +4028,22 @@
         <v>225</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
+        <v>227</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>228</v>
+      </c>
+      <c r="G60" t="s">
+        <v>229</v>
+      </c>
+      <c r="H60" t="s">
         <v>226</v>
-      </c>
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>227</v>
-      </c>
-      <c r="G60" t="s">
-        <v>228</v>
-      </c>
-      <c r="H60" t="s">
-        <v>229</v>
       </c>
       <c r="I60" t="s">
         <v>230</v>
@@ -4328,13 +4060,13 @@
         <v>232</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
         <v>233</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F61" t="s">
         <v>234</v>
@@ -4343,7 +4075,7 @@
         <v>235</v>
       </c>
       <c r="H61" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I61" t="s">
         <v>236</v>
@@ -4354,16 +4086,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E62" t="s">
         <v>21</v>
@@ -4375,13 +4107,13 @@
         <v>242</v>
       </c>
       <c r="H62" t="s">
+        <v>238</v>
+      </c>
+      <c r="I62" t="s">
         <v>243</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>244</v>
-      </c>
-      <c r="J62" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="63">
@@ -4392,10 +4124,10 @@
         <v>247</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E63" t="s">
         <v>21</v>
@@ -4407,13 +4139,13 @@
         <v>250</v>
       </c>
       <c r="H63" t="s">
+        <v>248</v>
+      </c>
+      <c r="I63" t="s">
         <v>251</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>252</v>
-      </c>
-      <c r="J63" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="64">
@@ -4424,22 +4156,22 @@
         <v>255</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
+        <v>257</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>258</v>
+      </c>
+      <c r="G64" t="s">
+        <v>259</v>
+      </c>
+      <c r="H64" t="s">
         <v>256</v>
-      </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>257</v>
-      </c>
-      <c r="G64" t="s">
-        <v>258</v>
-      </c>
-      <c r="H64" t="s">
-        <v>259</v>
       </c>
       <c r="I64" t="s">
         <v>260</v>
@@ -4453,89 +4185,89 @@
         <v>254</v>
       </c>
       <c r="B65" t="s">
+        <v>267</v>
+      </c>
+      <c r="C65" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" t="s">
+        <v>264</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>265</v>
+      </c>
+      <c r="G65" t="s">
+        <v>266</v>
+      </c>
+      <c r="H65" t="s">
+        <v>268</v>
+      </c>
+      <c r="I65" t="s">
         <v>262</v>
       </c>
-      <c r="C65" t="s">
-        <v>146</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="J65" t="s">
         <v>263</v>
-      </c>
-      <c r="E65" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" t="s">
-        <v>264</v>
-      </c>
-      <c r="G65" t="s">
-        <v>265</v>
-      </c>
-      <c r="H65" t="s">
-        <v>266</v>
-      </c>
-      <c r="I65" t="s">
-        <v>267</v>
-      </c>
-      <c r="J65" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>274</v>
+      </c>
+      <c r="B66" t="s">
+        <v>275</v>
+      </c>
+      <c r="C66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" t="s">
         <v>269</v>
       </c>
-      <c r="B66" t="s">
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="C66" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="G66" t="s">
         <v>271</v>
       </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="H66" t="s">
+        <v>276</v>
+      </c>
+      <c r="I66" t="s">
         <v>272</v>
       </c>
-      <c r="G66" t="s">
+      <c r="J66" t="s">
         <v>273</v>
-      </c>
-      <c r="H66" t="s">
-        <v>274</v>
-      </c>
-      <c r="I66" t="s">
-        <v>275</v>
-      </c>
-      <c r="J66" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B67" t="s">
         <v>277</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>280</v>
+      </c>
+      <c r="G67" t="s">
+        <v>281</v>
+      </c>
+      <c r="H67" t="s">
         <v>278</v>
-      </c>
-      <c r="E67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" t="s">
-        <v>279</v>
-      </c>
-      <c r="G67" t="s">
-        <v>280</v>
-      </c>
-      <c r="H67" t="s">
-        <v>281</v>
       </c>
       <c r="I67" t="s">
         <v>282</v>
@@ -4552,77 +4284,77 @@
         <v>285</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D68" t="s">
+        <v>287</v>
+      </c>
+      <c r="E68" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" t="s">
+        <v>288</v>
+      </c>
+      <c r="G68" t="s">
+        <v>289</v>
+      </c>
+      <c r="H68" t="s">
+        <v>153</v>
+      </c>
+      <c r="I68" t="s">
+        <v>290</v>
+      </c>
+      <c r="J68" t="s">
         <v>286</v>
-      </c>
-      <c r="E68" t="s">
-        <v>148</v>
-      </c>
-      <c r="F68" t="s">
-        <v>287</v>
-      </c>
-      <c r="G68" t="s">
-        <v>288</v>
-      </c>
-      <c r="H68" t="s">
-        <v>151</v>
-      </c>
-      <c r="I68" t="s">
-        <v>289</v>
-      </c>
-      <c r="J68" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" t="s">
+        <v>298</v>
+      </c>
+      <c r="C69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" t="s">
+        <v>295</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
         <v>291</v>
       </c>
-      <c r="B69" t="s">
+      <c r="G69" t="s">
         <v>292</v>
-      </c>
-      <c r="C69" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" t="s">
-        <v>293</v>
-      </c>
-      <c r="E69" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" t="s">
-        <v>294</v>
-      </c>
-      <c r="G69" t="s">
-        <v>295</v>
       </c>
       <c r="H69" t="s">
         <v>296</v>
       </c>
       <c r="I69" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J69" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B70" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
         <v>301</v>
@@ -4631,39 +4363,39 @@
         <v>302</v>
       </c>
       <c r="H70" t="s">
+        <v>299</v>
+      </c>
+      <c r="I70" t="s">
         <v>303</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>304</v>
-      </c>
-      <c r="J70" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B71" t="s">
         <v>306</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
+        <v>308</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>309</v>
+      </c>
+      <c r="G71" t="s">
+        <v>310</v>
+      </c>
+      <c r="H71" t="s">
         <v>307</v>
-      </c>
-      <c r="E71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" t="s">
-        <v>308</v>
-      </c>
-      <c r="G71" t="s">
-        <v>309</v>
-      </c>
-      <c r="H71" t="s">
-        <v>310</v>
       </c>
       <c r="I71" t="s">
         <v>311</v>
@@ -4674,194 +4406,194 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s">
+        <v>318</v>
+      </c>
+      <c r="C72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" t="s">
+        <v>315</v>
+      </c>
+      <c r="E72" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72" t="s">
+        <v>316</v>
+      </c>
+      <c r="G72" t="s">
+        <v>317</v>
+      </c>
+      <c r="H72" t="s">
+        <v>153</v>
+      </c>
+      <c r="I72" t="s">
         <v>313</v>
       </c>
-      <c r="C72" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="J72" t="s">
         <v>314</v>
-      </c>
-      <c r="E72" t="s">
-        <v>148</v>
-      </c>
-      <c r="F72" t="s">
-        <v>315</v>
-      </c>
-      <c r="G72" t="s">
-        <v>316</v>
-      </c>
-      <c r="H72" t="s">
-        <v>151</v>
-      </c>
-      <c r="I72" t="s">
-        <v>317</v>
-      </c>
-      <c r="J72" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>326</v>
+      </c>
+      <c r="B73" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" t="s">
         <v>319</v>
       </c>
-      <c r="B73" t="s">
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
         <v>320</v>
       </c>
-      <c r="C73" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="G73" t="s">
         <v>321</v>
       </c>
-      <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
+        <v>325</v>
+      </c>
+      <c r="I73" t="s">
         <v>322</v>
       </c>
-      <c r="G73" t="s">
+      <c r="J73" t="s">
         <v>323</v>
-      </c>
-      <c r="H73" t="s">
-        <v>324</v>
-      </c>
-      <c r="I73" t="s">
-        <v>325</v>
-      </c>
-      <c r="J73" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B74" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E74" t="s">
         <v>21</v>
       </c>
       <c r="F74" t="s">
+        <v>331</v>
+      </c>
+      <c r="G74" t="s">
+        <v>327</v>
+      </c>
+      <c r="H74" t="s">
+        <v>333</v>
+      </c>
+      <c r="I74" t="s">
+        <v>328</v>
+      </c>
+      <c r="J74" t="s">
         <v>329</v>
-      </c>
-      <c r="G74" t="s">
-        <v>330</v>
-      </c>
-      <c r="H74" t="s">
-        <v>331</v>
-      </c>
-      <c r="I74" t="s">
-        <v>332</v>
-      </c>
-      <c r="J74" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B75" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E75" t="s">
         <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G75" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H75" t="s">
         <v>339</v>
       </c>
       <c r="I75" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J75" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B76" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" t="s">
         <v>342</v>
       </c>
-      <c r="C76" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>147</v>
+      </c>
+      <c r="F76" t="s">
         <v>343</v>
       </c>
-      <c r="E76" t="s">
-        <v>148</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>344</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
+        <v>153</v>
+      </c>
+      <c r="I76" t="s">
         <v>345</v>
       </c>
-      <c r="H76" t="s">
-        <v>151</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>346</v>
-      </c>
-      <c r="J76" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B77" t="s">
         <v>348</v>
       </c>
       <c r="C77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" t="s">
+        <v>353</v>
+      </c>
+      <c r="E77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77" t="s">
         <v>349</v>
       </c>
-      <c r="E77" t="s">
-        <v>148</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>350</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
+        <v>153</v>
+      </c>
+      <c r="I77" t="s">
         <v>351</v>
       </c>
-      <c r="H77" t="s">
-        <v>151</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>352</v>
-      </c>
-      <c r="J77" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="78">
@@ -4872,13 +4604,13 @@
         <v>355</v>
       </c>
       <c r="C78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D78" t="s">
         <v>356</v>
       </c>
       <c r="E78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
         <v>357</v>
@@ -4887,7 +4619,7 @@
         <v>358</v>
       </c>
       <c r="H78" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I78" t="s">
         <v>359</v>
@@ -4901,16 +4633,16 @@
         <v>354</v>
       </c>
       <c r="B79" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D79" t="s">
         <v>362</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
         <v>363</v>
@@ -4919,13 +4651,13 @@
         <v>364</v>
       </c>
       <c r="H79" t="s">
+        <v>367</v>
+      </c>
+      <c r="I79" t="s">
         <v>365</v>
       </c>
-      <c r="I79" t="s">
-        <v>366</v>
-      </c>
       <c r="J79" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80">
@@ -4936,22 +4668,22 @@
         <v>368</v>
       </c>
       <c r="C80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D80" t="s">
+        <v>370</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>371</v>
+      </c>
+      <c r="G80" t="s">
+        <v>372</v>
+      </c>
+      <c r="H80" t="s">
         <v>369</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>370</v>
-      </c>
-      <c r="G80" t="s">
-        <v>371</v>
-      </c>
-      <c r="H80" t="s">
-        <v>372</v>
       </c>
       <c r="I80" t="s">
         <v>373</v>
@@ -4965,31 +4697,31 @@
         <v>354</v>
       </c>
       <c r="B81" t="s">
+        <v>380</v>
+      </c>
+      <c r="C81" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" t="s">
+        <v>377</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>378</v>
+      </c>
+      <c r="G81" t="s">
+        <v>379</v>
+      </c>
+      <c r="H81" t="s">
+        <v>381</v>
+      </c>
+      <c r="I81" t="s">
         <v>375</v>
       </c>
-      <c r="C81" t="s">
-        <v>146</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="J81" t="s">
         <v>376</v>
-      </c>
-      <c r="E81" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" t="s">
-        <v>377</v>
-      </c>
-      <c r="G81" t="s">
-        <v>378</v>
-      </c>
-      <c r="H81" t="s">
-        <v>379</v>
-      </c>
-      <c r="I81" t="s">
-        <v>380</v>
-      </c>
-      <c r="J81" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="82">
@@ -5000,22 +4732,22 @@
         <v>383</v>
       </c>
       <c r="C82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D82" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E82" t="s">
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G82" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H82" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I82" t="s">
         <v>388</v>
@@ -5032,28 +4764,28 @@
         <v>390</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D83" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E83" t="s">
         <v>21</v>
       </c>
       <c r="F83" t="s">
+        <v>396</v>
+      </c>
+      <c r="G83" t="s">
         <v>392</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
+        <v>391</v>
+      </c>
+      <c r="I83" t="s">
         <v>393</v>
       </c>
-      <c r="H83" t="s">
+      <c r="J83" t="s">
         <v>394</v>
-      </c>
-      <c r="I83" t="s">
-        <v>395</v>
-      </c>
-      <c r="J83" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="84">
@@ -5061,31 +4793,31 @@
         <v>382</v>
       </c>
       <c r="B84" t="s">
+        <v>402</v>
+      </c>
+      <c r="C84" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84" t="s">
         <v>397</v>
       </c>
-      <c r="C84" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
         <v>398</v>
       </c>
-      <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>399</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
+        <v>403</v>
+      </c>
+      <c r="I84" t="s">
         <v>400</v>
       </c>
-      <c r="H84" t="s">
+      <c r="J84" t="s">
         <v>401</v>
-      </c>
-      <c r="I84" t="s">
-        <v>402</v>
-      </c>
-      <c r="J84" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="85">
@@ -5096,13 +4828,13 @@
         <v>405</v>
       </c>
       <c r="C85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D85" t="s">
         <v>406</v>
       </c>
       <c r="E85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F85" t="s">
         <v>407</v>
@@ -5111,7 +4843,7 @@
         <v>408</v>
       </c>
       <c r="H85" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I85" t="s">
         <v>409</v>
@@ -5125,31 +4857,31 @@
         <v>404</v>
       </c>
       <c r="B86" t="s">
+        <v>416</v>
+      </c>
+      <c r="C86" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" t="s">
+        <v>414</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>415</v>
+      </c>
+      <c r="G86" t="s">
         <v>411</v>
       </c>
-      <c r="C86" t="s">
-        <v>146</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="H86" t="s">
+        <v>417</v>
+      </c>
+      <c r="I86" t="s">
         <v>412</v>
       </c>
-      <c r="E86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="J86" t="s">
         <v>413</v>
-      </c>
-      <c r="G86" t="s">
-        <v>414</v>
-      </c>
-      <c r="H86" t="s">
-        <v>415</v>
-      </c>
-      <c r="I86" t="s">
-        <v>416</v>
-      </c>
-      <c r="J86" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="87">
@@ -5157,89 +4889,89 @@
         <v>404</v>
       </c>
       <c r="B87" t="s">
+        <v>422</v>
+      </c>
+      <c r="C87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" t="s">
         <v>418</v>
       </c>
-      <c r="C87" t="s">
-        <v>146</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
         <v>419</v>
       </c>
-      <c r="E87" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>420</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
+        <v>423</v>
+      </c>
+      <c r="I87" t="s">
+        <v>412</v>
+      </c>
+      <c r="J87" t="s">
         <v>421</v>
-      </c>
-      <c r="H87" t="s">
-        <v>422</v>
-      </c>
-      <c r="I87" t="s">
-        <v>416</v>
-      </c>
-      <c r="J87" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>429</v>
+      </c>
+      <c r="B88" t="s">
+        <v>430</v>
+      </c>
+      <c r="C88" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" t="s">
+        <v>427</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>428</v>
+      </c>
+      <c r="G88" t="s">
         <v>424</v>
       </c>
-      <c r="B88" t="s">
+      <c r="H88" t="s">
+        <v>431</v>
+      </c>
+      <c r="I88" t="s">
         <v>425</v>
       </c>
-      <c r="C88" t="s">
-        <v>146</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="J88" t="s">
         <v>426</v>
-      </c>
-      <c r="E88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" t="s">
-        <v>427</v>
-      </c>
-      <c r="G88" t="s">
-        <v>428</v>
-      </c>
-      <c r="H88" t="s">
-        <v>429</v>
-      </c>
-      <c r="I88" t="s">
-        <v>430</v>
-      </c>
-      <c r="J88" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B89" t="s">
         <v>432</v>
       </c>
       <c r="C89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D89" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E89" t="s">
         <v>21</v>
       </c>
       <c r="F89" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G89" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H89" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I89" t="s">
         <v>437</v>
@@ -5250,34 +4982,34 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B90" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D90" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E90" t="s">
         <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G90" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H90" t="s">
         <v>444</v>
       </c>
       <c r="I90" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J90" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91">
@@ -5288,22 +5020,22 @@
         <v>448</v>
       </c>
       <c r="C91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D91" t="s">
+        <v>450</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>451</v>
+      </c>
+      <c r="G91" t="s">
+        <v>452</v>
+      </c>
+      <c r="H91" t="s">
         <v>449</v>
-      </c>
-      <c r="E91" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" t="s">
-        <v>450</v>
-      </c>
-      <c r="G91" t="s">
-        <v>451</v>
-      </c>
-      <c r="H91" t="s">
-        <v>452</v>
       </c>
       <c r="I91" t="s">
         <v>453</v>
@@ -5317,176 +5049,176 @@
         <v>447</v>
       </c>
       <c r="B92" t="s">
+        <v>460</v>
+      </c>
+      <c r="C92" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" t="s">
         <v>455</v>
       </c>
-      <c r="C92" t="s">
-        <v>146</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
         <v>456</v>
       </c>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>457</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
+        <v>461</v>
+      </c>
+      <c r="I92" t="s">
         <v>458</v>
       </c>
-      <c r="H92" t="s">
+      <c r="J92" t="s">
         <v>459</v>
-      </c>
-      <c r="I92" t="s">
-        <v>460</v>
-      </c>
-      <c r="J92" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>467</v>
+      </c>
+      <c r="B93" t="s">
+        <v>468</v>
+      </c>
+      <c r="C93" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" t="s">
+        <v>465</v>
+      </c>
+      <c r="E93" t="s">
+        <v>147</v>
+      </c>
+      <c r="F93" t="s">
+        <v>466</v>
+      </c>
+      <c r="G93" t="s">
         <v>462</v>
       </c>
-      <c r="B93" t="s">
+      <c r="H93" t="s">
+        <v>153</v>
+      </c>
+      <c r="I93" t="s">
         <v>463</v>
       </c>
-      <c r="C93" t="s">
-        <v>146</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="J93" t="s">
         <v>464</v>
-      </c>
-      <c r="E93" t="s">
-        <v>148</v>
-      </c>
-      <c r="F93" t="s">
-        <v>465</v>
-      </c>
-      <c r="G93" t="s">
-        <v>466</v>
-      </c>
-      <c r="H93" t="s">
-        <v>151</v>
-      </c>
-      <c r="I93" t="s">
-        <v>467</v>
-      </c>
-      <c r="J93" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B94" t="s">
         <v>469</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D94" t="s">
+        <v>472</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>473</v>
+      </c>
+      <c r="G94" t="s">
+        <v>474</v>
+      </c>
+      <c r="H94" t="s">
         <v>470</v>
       </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="I94" t="s">
+        <v>475</v>
+      </c>
+      <c r="J94" t="s">
         <v>471</v>
-      </c>
-      <c r="G94" t="s">
-        <v>472</v>
-      </c>
-      <c r="H94" t="s">
-        <v>473</v>
-      </c>
-      <c r="I94" t="s">
-        <v>474</v>
-      </c>
-      <c r="J94" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>481</v>
+      </c>
+      <c r="B95" t="s">
+        <v>482</v>
+      </c>
+      <c r="C95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" t="s">
         <v>476</v>
       </c>
-      <c r="B95" t="s">
+      <c r="E95" t="s">
+        <v>147</v>
+      </c>
+      <c r="F95" t="s">
         <v>477</v>
       </c>
-      <c r="C95" t="s">
-        <v>146</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="G95" t="s">
         <v>478</v>
       </c>
-      <c r="E95" t="s">
-        <v>148</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="H95" t="s">
+        <v>153</v>
+      </c>
+      <c r="I95" t="s">
         <v>479</v>
       </c>
-      <c r="G95" t="s">
+      <c r="J95" t="s">
         <v>480</v>
-      </c>
-      <c r="H95" t="s">
-        <v>151</v>
-      </c>
-      <c r="I95" t="s">
-        <v>481</v>
-      </c>
-      <c r="J95" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B96" t="s">
         <v>483</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D96" t="s">
+        <v>488</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
+        <v>489</v>
+      </c>
+      <c r="G96" t="s">
+        <v>485</v>
+      </c>
+      <c r="H96" t="s">
         <v>484</v>
       </c>
-      <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" t="s">
-        <v>485</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="I96" t="s">
         <v>486</v>
       </c>
-      <c r="H96" t="s">
+      <c r="J96" t="s">
         <v>487</v>
-      </c>
-      <c r="I96" t="s">
-        <v>488</v>
-      </c>
-      <c r="J96" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B97" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D97" t="s">
         <v>491</v>
       </c>
       <c r="E97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F97" t="s">
         <v>492</v>
@@ -5495,13 +5227,13 @@
         <v>493</v>
       </c>
       <c r="H97" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I97" t="s">
         <v>494</v>
       </c>
       <c r="J97" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98">
@@ -5512,182 +5244,182 @@
         <v>497</v>
       </c>
       <c r="C98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D98" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E98" t="s">
         <v>21</v>
       </c>
       <c r="F98" t="s">
+        <v>502</v>
+      </c>
+      <c r="G98" t="s">
+        <v>503</v>
+      </c>
+      <c r="H98" t="s">
+        <v>498</v>
+      </c>
+      <c r="I98" t="s">
         <v>499</v>
       </c>
-      <c r="G98" t="s">
+      <c r="J98" t="s">
         <v>500</v>
-      </c>
-      <c r="H98" t="s">
-        <v>501</v>
-      </c>
-      <c r="I98" t="s">
-        <v>502</v>
-      </c>
-      <c r="J98" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B99" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C99" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D99" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E99" t="s">
         <v>21</v>
       </c>
       <c r="F99" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G99" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H99" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="I99" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="J99" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>516</v>
+      </c>
+      <c r="B100" t="s">
+        <v>517</v>
+      </c>
+      <c r="C100" t="s">
+        <v>507</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
         <v>513</v>
       </c>
-      <c r="B100" t="s">
+      <c r="H100" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" t="s">
         <v>514</v>
       </c>
-      <c r="C100" t="s">
-        <v>506</v>
-      </c>
-      <c r="D100" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="J100" t="s">
         <v>515</v>
-      </c>
-      <c r="H100" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" t="s">
-        <v>516</v>
-      </c>
-      <c r="J100" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B101" t="s">
+        <v>521</v>
+      </c>
+      <c r="C101" t="s">
+        <v>507</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
         <v>518</v>
       </c>
-      <c r="C101" t="s">
-        <v>506</v>
-      </c>
-      <c r="D101" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" t="s">
         <v>519</v>
       </c>
-      <c r="H101" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>520</v>
-      </c>
-      <c r="J101" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B102" t="s">
+        <v>525</v>
+      </c>
+      <c r="C102" t="s">
+        <v>507</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
         <v>522</v>
       </c>
-      <c r="C102" t="s">
-        <v>506</v>
-      </c>
-      <c r="D102" t="s">
-        <v>13</v>
-      </c>
-      <c r="E102" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" t="s">
         <v>523</v>
       </c>
-      <c r="H102" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>524</v>
-      </c>
-      <c r="J102" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B103" t="s">
         <v>526</v>
       </c>
       <c r="C103" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G103" t="s">
         <v>527</v>
       </c>
       <c r="H103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I103" t="s">
         <v>528</v>
@@ -5698,34 +5430,34 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B104" t="s">
         <v>432</v>
       </c>
       <c r="C104" t="s">
+        <v>531</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>532</v>
+      </c>
+      <c r="H104" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" t="s">
+        <v>533</v>
+      </c>
+      <c r="J104" t="s">
         <v>530</v>
-      </c>
-      <c r="D104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s">
-        <v>531</v>
-      </c>
-      <c r="H104" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" t="s">
-        <v>532</v>
-      </c>
-      <c r="J104" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="105">
@@ -5736,22 +5468,22 @@
         <v>432</v>
       </c>
       <c r="C105" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G105" t="s">
         <v>535</v>
       </c>
       <c r="H105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I105" t="s">
         <v>536</v>
@@ -5765,89 +5497,89 @@
         <v>534</v>
       </c>
       <c r="B106" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C106" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G106" t="s">
         <v>539</v>
       </c>
       <c r="H106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I106" t="s">
         <v>540</v>
       </c>
       <c r="J106" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B107" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C107" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G107" t="s">
         <v>543</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I107" t="s">
         <v>544</v>
       </c>
       <c r="J107" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B108" t="s">
         <v>546</v>
       </c>
       <c r="C108" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G108" t="s">
         <v>547</v>
       </c>
       <c r="H108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I108" t="s">
         <v>548</v>
@@ -5858,28 +5590,28 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B109" t="s">
         <v>550</v>
       </c>
       <c r="C109" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G109" t="s">
         <v>551</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I109" t="s">
         <v>552</v>
@@ -5890,28 +5622,28 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B110" t="s">
         <v>554</v>
       </c>
       <c r="C110" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G110" t="s">
         <v>555</v>
       </c>
       <c r="H110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I110" t="s">
         <v>556</v>
@@ -5922,28 +5654,28 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B111" t="s">
         <v>306</v>
       </c>
       <c r="C111" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G111" t="s">
         <v>558</v>
       </c>
       <c r="H111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I111" t="s">
         <v>559</v>
@@ -5960,28 +5692,28 @@
         <v>562</v>
       </c>
       <c r="C112" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
         <v>563</v>
       </c>
-      <c r="H112" t="s">
-        <v>13</v>
-      </c>
       <c r="I112" t="s">
-        <v>564</v>
+        <v>12</v>
       </c>
       <c r="J112" t="s">
-        <v>565</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
@@ -5989,31 +5721,31 @@
         <v>561</v>
       </c>
       <c r="B113" t="s">
+        <v>564</v>
+      </c>
+      <c r="C113" t="s">
+        <v>507</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>565</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" t="s">
         <v>566</v>
       </c>
-      <c r="C113" t="s">
-        <v>506</v>
-      </c>
-      <c r="D113" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="J113" t="s">
         <v>567</v>
-      </c>
-      <c r="H113" t="s">
-        <v>13</v>
-      </c>
-      <c r="I113" t="s">
-        <v>568</v>
-      </c>
-      <c r="J113" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="114">
@@ -6021,31 +5753,31 @@
         <v>561</v>
       </c>
       <c r="B114" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C114" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G114" t="s">
+        <v>568</v>
+      </c>
+      <c r="H114" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" t="s">
+        <v>569</v>
+      </c>
+      <c r="J114" t="s">
         <v>570</v>
-      </c>
-      <c r="H114" t="s">
-        <v>13</v>
-      </c>
-      <c r="I114" t="s">
-        <v>571</v>
-      </c>
-      <c r="J114" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="115">
@@ -6053,325 +5785,321 @@
         <v>561</v>
       </c>
       <c r="B115" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C115" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E115" t="s">
         <v>21</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G115" t="s">
+        <v>571</v>
+      </c>
+      <c r="H115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" t="s">
+        <v>572</v>
+      </c>
+      <c r="J115" t="s">
         <v>573</v>
-      </c>
-      <c r="H115" t="s">
-        <v>13</v>
-      </c>
-      <c r="I115" t="s">
-        <v>574</v>
-      </c>
-      <c r="J115" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B116" t="s">
         <v>306</v>
       </c>
       <c r="C116" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>577</v>
+        <v>12</v>
       </c>
       <c r="H116" t="s">
-        <v>13</v>
+        <v>563</v>
       </c>
       <c r="I116" t="s">
-        <v>578</v>
+        <v>12</v>
       </c>
       <c r="J116" t="s">
-        <v>579</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>574</v>
+      </c>
+      <c r="B117" t="s">
+        <v>578</v>
+      </c>
+      <c r="C117" t="s">
+        <v>507</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
         <v>576</v>
       </c>
-      <c r="B117" t="s">
-        <v>580</v>
-      </c>
-      <c r="C117" t="s">
-        <v>506</v>
-      </c>
-      <c r="D117" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s">
-        <v>581</v>
-      </c>
       <c r="H117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I117" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="J117" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B118" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C118" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I118" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="J118" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B119" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C119" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
         <v>21</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="H119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I119" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="J119" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B120" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C120" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I120" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="J120" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B121" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C121" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G121" t="s">
-        <v>598</v>
+        <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="I121" t="s">
-        <v>599</v>
+        <v>12</v>
       </c>
       <c r="J121" t="s">
-        <v>600</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B122" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C122" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>602</v>
+        <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="I122" t="s">
-        <v>603</v>
+        <v>12</v>
       </c>
       <c r="J122" t="s">
-        <v>604</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>591</v>
+      </c>
+      <c r="B123" t="s">
+        <v>594</v>
+      </c>
+      <c r="C123" t="s">
+        <v>531</v>
+      </c>
+      <c r="D123" t="s">
         <v>596</v>
-      </c>
-      <c r="B123" t="s">
-        <v>605</v>
-      </c>
-      <c r="C123" t="s">
-        <v>530</v>
-      </c>
-      <c r="D123" t="s">
-        <v>13</v>
       </c>
       <c r="E123" t="s">
         <v>21</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="H123" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="I123" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="J123" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B124" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="C124" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="H124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I124" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="J124" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -19,61 +19,64 @@
     <t>SERIAL NUMBER</t>
   </si>
   <si>
+    <t>CERTIFICATE</t>
+  </si>
+  <si>
+    <t>COURSE TITLE</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
+  <si>
     <t>NOTE</t>
   </si>
   <si>
+    <t>DATA HASH</t>
+  </si>
+  <si>
+    <t>TRANSACTION HASH</t>
+  </si>
+  <si>
     <t>SIGNATURE</t>
   </si>
   <si>
-    <t>PARTICIPANT</t>
-  </si>
-  <si>
-    <t>COURSE TITLE</t>
-  </si>
-  <si>
-    <t>CERTIFICATE</t>
-  </si>
-  <si>
-    <t>DATA HASH</t>
-  </si>
-  <si>
-    <t>TRANSACTION HASH</t>
-  </si>
-  <si>
     <t>DIGITAL CERTIFICATE</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>25.06.2015</t>
   </si>
   <si>
+    <t>Біткоїн та криптовалюти</t>
+  </si>
+  <si>
+    <t>private link</t>
+  </si>
+  <si>
     <t>Петро Петрович Воробієнко</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Біткоїн та криптовалюти</t>
-  </si>
-  <si>
     <t>ginesis certificate</t>
   </si>
   <si>
-    <t>private link</t>
+    <t>drive.google.com/file/d/1xobiD9wUIQcesMkrmh5x2x_aWnibPkqI/view</t>
   </si>
   <si>
     <t>10.05.2016</t>
   </si>
   <si>
+    <t>Cryptocurrencies and Distributed Systems</t>
+  </si>
+  <si>
     <t>Nikita Magda</t>
   </si>
   <si>
-    <t>Cryptocurrencies and Distributed Systems</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1xobiD9wUIQcesMkrmh5x2x_aWnibPkqI/view</t>
+    <t>drive.google.com/file/d/18lYidkmWMBuBxR0FU0OIGuQ8doTz8zQs/view</t>
   </si>
   <si>
     <t>Нестеров Максим</t>
@@ -82,24 +85,21 @@
     <t>graduated with honors</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/18lYidkmWMBuBxR0FU0OIGuQ8doTz8zQs/view</t>
-  </si>
-  <si>
     <t>Alexey Shendrick</t>
   </si>
   <si>
+    <t>Anastasia Sapozhkova</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1KuJR4GYiRyC4Oh6Z6q-u9fpqe-EPWabk/view</t>
   </si>
   <si>
-    <t>Anastasia Sapozhkova</t>
+    <t>Den Galkin</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1xd3b6fXkkagcyEeiMZ1P7kKH_BM1BRuv/view</t>
   </si>
   <si>
-    <t>Den Galkin</t>
-  </si>
-  <si>
     <t>Daniyil Yakovlev</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>Денис Руденко</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1Tyr0ky3sNg-lcDGdEe0-MKG0dzpL3TQA/view</t>
+  </si>
+  <si>
     <t>Illia Fariatiev</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1Tyr0ky3sNg-lcDGdEe0-MKG0dzpL3TQA/view</t>
-  </si>
-  <si>
     <t>Костюк Александр</t>
   </si>
   <si>
@@ -136,24 +136,24 @@
     <t>Синельников Александр</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1W0bokyIjw-j_5942KinD1ZRB1ges5fhb/view</t>
+  </si>
+  <si>
     <t>Скрипник Александр</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1W0bokyIjw-j_5942KinD1ZRB1ges5fhb/view</t>
+    <t>drive.google.com/file/d/1RneErBs-OBbV0KjvY5blYuFHfkwtyNRh/view</t>
   </si>
   <si>
     <t>Солонский Александр</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1RneErBs-OBbV0KjvY5blYuFHfkwtyNRh/view</t>
+    <t>Anton Zaporozhchenko</t>
   </si>
   <si>
     <t>31.10.2016</t>
   </si>
   <si>
-    <t>Anton Zaporozhchenko</t>
-  </si>
-  <si>
     <t>Oleksiy Ponomorev</t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t>Vladyslav Minakov</t>
   </si>
   <si>
+    <t>Yevheniia Shchypeleva</t>
+  </si>
+  <si>
     <t>03.03.2017</t>
   </si>
   <si>
-    <t>Yevheniia Shchypeleva</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1AcBsG13D5jBJ3_w506hQOHHs_iJD2Jwt/view</t>
   </si>
   <si>
@@ -190,21 +190,21 @@
     <t>Heorhii Kholodov</t>
   </si>
   <si>
+    <t>Aleksandr Gnatyuk</t>
+  </si>
+  <si>
+    <t>30.05.2018</t>
+  </si>
+  <si>
     <t>Blockchain and Distributed Systems</t>
   </si>
   <si>
-    <t>30.05.2018</t>
-  </si>
-  <si>
-    <t>Aleksandr Gnatyuk</t>
+    <t>drive.google.com/file/d/1JYRb1u6DI1z4mB3s1z8SSiiGDwdh_IhH/view</t>
   </si>
   <si>
     <t>Aleksandr Kurbatov</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1JYRb1u6DI1z4mB3s1z8SSiiGDwdh_IhH/view</t>
-  </si>
-  <si>
     <t>Aleksandr Ivanov</t>
   </si>
   <si>
@@ -235,163 +235,169 @@
     <t>Ilya Svetaylo</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1AT9DeYKwkp9NKSF3bb4Vdr1JtdlzltPp/view</t>
+  </si>
+  <si>
     <t>Dmytro Mandych</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1AT9DeYKwkp9NKSF3bb4Vdr1JtdlzltPp/view</t>
-  </si>
-  <si>
     <t>26.05.2020</t>
   </si>
   <si>
+    <t>Basic Level in Decentralized Technologies</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1BBaI1GopSevCSWKbBRWeownYk8eDv7MB/view</t>
+  </si>
+  <si>
+    <t>6e70ac729189b0e0097a6e7bcfec69494538bf4736cdb17a9fe9bd1582fe2e95</t>
+  </si>
+  <si>
+    <t>G6/C1S2XpwhcvDAGp/fvUWUBET+OlYdOP5LnW6gBIOlhR8phT652b46fy8YlvQ9DbbNynZ/DfRUiotWAFIhBhlU=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1T9IlKrmEJbx1bh1O1jPwTkuazCstW7gz/view</t>
+  </si>
+  <si>
     <t>Petr Murzin</t>
   </si>
   <si>
-    <t>6e70ac729189b0e0097a6e7bcfec69494538bf4736cdb17a9fe9bd1582fe2e95</t>
-  </si>
-  <si>
-    <t>G6/C1S2XpwhcvDAGp/fvUWUBET+OlYdOP5LnW6gBIOlhR8phT652b46fy8YlvQ9DbbNynZ/DfRUiotWAFIhBhlU=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1T9IlKrmEJbx1bh1O1jPwTkuazCstW7gz/view</t>
-  </si>
-  <si>
-    <t>Basic Level in Decentralized Technologies</t>
-  </si>
-  <si>
     <t>6e70ac729189b0e0097a</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1BBaI1GopSevCSWKbBRWeownYk8eDv7MB/view</t>
-  </si>
-  <si>
     <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
   </si>
   <si>
+    <t>Lovkin Ivan</t>
+  </si>
+  <si>
+    <t>80b4017b0b2d571867a2</t>
+  </si>
+  <si>
+    <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
+  </si>
+  <si>
     <t>28.05.2020</t>
   </si>
   <si>
-    <t>Lovkin Ivan</t>
+    <t>drive.google.com/file/d/1B00wgJ6gYotdnedRkemkU_JBPFt1H4xd/view</t>
   </si>
   <si>
     <t>80b4017b0b2d571867a20c183448a98b8a4dc0d52f134e363772da7dca5b5a06</t>
   </si>
   <si>
-    <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
-  </si>
-  <si>
     <t>G4/MsM7bSvAPVr7C5IXyo2TnOz+ZwqdlVNpBidWCbpuzC+JkRBEjbhY/lkPH7VtAhp8EOYgyLA2ID6F4GhqUY84=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/12OpLxs1aK-BTF1PebTXrsMh4zxKH_wen/view</t>
   </si>
   <si>
-    <t>80b4017b0b2d571867a2</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1B00wgJ6gYotdnedRkemkU_JBPFt1H4xd/view</t>
+    <t>Nikita Moskovkin</t>
+  </si>
+  <si>
+    <t>694d0f5a7afe6fbc99cb</t>
   </si>
   <si>
     <t>8dd5355ff30fcc74f42b09a276bf3f8c4bfadb9074adff5d3661f186029628c5</t>
   </si>
   <si>
+    <t>30.05.2020</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
+  </si>
+  <si>
+    <t>694d0f5a7afe6fbc99cb56819a09f9fa0e8b66b07180bb555d98593a0f7d5d41</t>
+  </si>
+  <si>
     <t>HM5GZ+rTicq0RKhj0bFs+2fpeD7O+kpSJnLKYgEw3HaNYvb3HW/VNAjwQR1DXGHUEqofERXjtLW1G8JMk4q2O1g=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1bX5sis1H79_hFn7wh4-Sh00aeO_e7yFq/view</t>
   </si>
   <si>
-    <t>694d0f5a7afe6fbc99cb</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
-  </si>
-  <si>
-    <t>30.05.2020</t>
-  </si>
-  <si>
-    <t>Nikita Moskovkin</t>
-  </si>
-  <si>
-    <t>694d0f5a7afe6fbc99cb56819a09f9fa0e8b66b07180bb555d98593a0f7d5d41</t>
+    <t>Valeriy Gello</t>
+  </si>
+  <si>
+    <t>2b6aadb041197def922a</t>
+  </si>
+  <si>
+    <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
+  </si>
+  <si>
+    <t>HPXPxUNV1rO31el0TjnHFXDe0tBCoiQSC2o12BSvZFW1TNa1atBAmZb7ZrJ7vjBOzLYTbvCsfGf6NaSBZmpI1R0=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1DIotRiCyqr6U7vuXvDVWTrwbYMpd8-tp/view</t>
   </si>
   <si>
     <t>03.06.2020</t>
   </si>
   <si>
-    <t>Valeriy Gello</t>
+    <t>drive.google.com/file/d/1IIYEmVzJwRrLeeAC2mvbJPBgnsiuCbgX/view</t>
   </si>
   <si>
     <t>2b6aadb041197def922aff8cb257af872568b572362c2f19fdb2468228e58569</t>
   </si>
   <si>
-    <t>HPXPxUNV1rO31el0TjnHFXDe0tBCoiQSC2o12BSvZFW1TNa1atBAmZb7ZrJ7vjBOzLYTbvCsfGf6NaSBZmpI1R0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1DIotRiCyqr6U7vuXvDVWTrwbYMpd8-tp/view</t>
-  </si>
-  <si>
-    <t>2b6aadb041197def922a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1IIYEmVzJwRrLeeAC2mvbJPBgnsiuCbgX/view</t>
-  </si>
-  <si>
-    <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
+    <t>21.08.2020</t>
+  </si>
+  <si>
+    <t>72008d9bb1a357ae7d6efc7520283e59adb638b44be971a41438ae3635beca20</t>
+  </si>
+  <si>
+    <t>G/ltW+rOPMYiEf/bzUkMzj7W5syoNvcTi1i++MOcDD8LJwSKAaoFS+c0TmDOwIZDyqaVwk6QYu1MfsGJw7+KZ8g=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1HToZ3ouEVe-2rFezzJSnetG4rkJl4wb5/view</t>
   </si>
   <si>
+    <t>Elizabeth Gurieva</t>
+  </si>
+  <si>
     <t>72008d9bb1a357ae7d6e</t>
   </si>
   <si>
     <t>7dfdd6abd5c883c7c876202d91386257e48337f55209b774f35d4eea4efe5df4</t>
   </si>
   <si>
-    <t>G/ltW+rOPMYiEf/bzUkMzj7W5syoNvcTi1i++MOcDD8LJwSKAaoFS+c0TmDOwIZDyqaVwk6QYu1MfsGJw7+KZ8g=</t>
-  </si>
-  <si>
-    <t>21.08.2020</t>
-  </si>
-  <si>
-    <t>Elizabeth Gurieva</t>
-  </si>
-  <si>
-    <t>72008d9bb1a357ae7d6efc7520283e59adb638b44be971a41438ae3635beca20</t>
+    <t>15.09.2020</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1sMqTvx1fDXHx-OeU1r4uA1Z3kzVIMKAn/view</t>
+  </si>
+  <si>
+    <t>91053d5330c4b99d88272eb9c214b2f57c8522c2b473b54d5e250b422de6e24b</t>
+  </si>
+  <si>
+    <t>HJqrp6YpiFPfileEaqKJDnwfvu15NL6LlwLDM3NSIXu9Rd9ir011tVJPyRSDxL5NUwqyiY5Be55Z3VObN4rH/nQ=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
+  </si>
+  <si>
+    <t>Alexander Zhovnuvaty</t>
   </si>
   <si>
     <t>91053d5330c4b99d8827</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1sMqTvx1fDXHx-OeU1r4uA1Z3kzVIMKAn/view</t>
-  </si>
-  <si>
     <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
   </si>
   <si>
-    <t>HJqrp6YpiFPfileEaqKJDnwfvu15NL6LlwLDM3NSIXu9Rd9ir011tVJPyRSDxL5NUwqyiY5Be55Z3VObN4rH/nQ=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
-  </si>
-  <si>
-    <t>15.09.2020</t>
-  </si>
-  <si>
-    <t>Alexander Zhovnuvaty</t>
-  </si>
-  <si>
-    <t>91053d5330c4b99d88272eb9c214b2f57c8522c2b473b54d5e250b422de6e24b</t>
+    <t>Nikolay Scherbakov</t>
   </si>
   <si>
     <t>508f78ad5c0df80128b0</t>
   </si>
   <si>
+    <t>7368eab2f4fa6157cb3f67d39e8526bc1b91a852be6a70cddcbb6067c8b400f5</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1Wzemb_7VWsXKUqEMEuniXiEqqCU6NR1X/view</t>
   </si>
   <si>
-    <t>7368eab2f4fa6157cb3f67d39e8526bc1b91a852be6a70cddcbb6067c8b400f5</t>
+    <t>508f78ad5c0df80128b059d5367511650f12c1c999a2873f5a5bdfa0c3cd9294</t>
   </si>
   <si>
     <t>G7fNdjrRdRCgCqs32IBGetb1WmNZTLKq4VdxIE2xZRAONYfBhaC++AKXc/TWLJ1iJ6vRlR5V1AGGRJa8VcJDRks=</t>
@@ -400,10 +406,7 @@
     <t>drive.google.com/file/d/1s59oNqnl8rvcFITI-56v1nt_VCOHq94D/view</t>
   </si>
   <si>
-    <t>Nikolay Scherbakov</t>
-  </si>
-  <si>
-    <t>508f78ad5c0df80128b059d5367511650f12c1c999a2873f5a5bdfa0c3cd9294</t>
+    <t>Anonymous</t>
   </si>
   <si>
     <t>9976212738b45235cfd6</t>
@@ -412,115 +415,121 @@
     <t>2b4075806aa1180a35b6b6718701374debfd505b954491160ac09a4ebf1d632c</t>
   </si>
   <si>
+    <t>16.09.2020</t>
+  </si>
+  <si>
+    <t>9976212738b45235cfd6f208ccae9ca14da64a06bcb5304d8bb422d00ff1540d</t>
+  </si>
+  <si>
     <t>HOozi22vAuznvsCYdPeFGpfEsgVv/RPDvKEBNLr3Kjh2ZNMwqnGETY/MTNluCe+mJBLtg4ig6yOhtqyY0VWavFU=</t>
   </si>
   <si>
-    <t>16.09.2020</t>
-  </si>
-  <si>
-    <t>Anonymous</t>
-  </si>
-  <si>
-    <t>9976212738b45235cfd6f208ccae9ca14da64a06bcb5304d8bb422d00ff1540d</t>
+    <t>Aleksandr Khomutov</t>
+  </si>
+  <si>
+    <t>cd9b18ee000a3ab57d74</t>
   </si>
   <si>
     <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
   </si>
   <si>
+    <t>17.09.2020</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HDfg3clKtJbjQEEtI2yxSv51_fDRYWRn/view</t>
+  </si>
+  <si>
+    <t>cd9b18ee000a3ab57d740ee8b2a2330632f070a69ff9efdd8ecdc6c8230e2e11</t>
+  </si>
+  <si>
     <t>HOq9ZhrQ00V8PHtEc7PLbgREykAE4fSaVIbPozy6iTxNKZmzV7JHxsT5aQobJF+D1Hu+Hj++PUAVwscGr1K8ydg=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/10KBS_dIRNDhekiu_k9NiRZq_tLz9wFLJ/view</t>
   </si>
   <si>
-    <t>cd9b18ee000a3ab57d74</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1HDfg3clKtJbjQEEtI2yxSv51_fDRYWRn/view</t>
-  </si>
-  <si>
-    <t>17.09.2020</t>
-  </si>
-  <si>
-    <t>Aleksandr Khomutov</t>
-  </si>
-  <si>
-    <t>cd9b18ee000a3ab57d740ee8b2a2330632f070a69ff9efdd8ecdc6c8230e2e11</t>
+    <t>Tetiana Diachuk</t>
+  </si>
+  <si>
+    <t>0f8a70da32b47c86fa69</t>
+  </si>
+  <si>
+    <t>Listener only</t>
+  </si>
+  <si>
+    <t>0f8a70da32b47c86fa69a39dd522c99b25802700a336d49e16a760eea763f4b1</t>
+  </si>
+  <si>
+    <t>12.29.2021</t>
+  </si>
+  <si>
+    <t>Beginner at theoretical aspects blockchain technology</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>HCKQDvhlFx194rKcO7OKfVKVHm8iJgs5HBTYDDoPUT1zbt/WBBbpt3FwSlXhjLHeFALjBPeDsJ0+FlqjYJrcedE=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/19iQXgKAz6f9TVn-PH7XNVjURb69Cog1K/view</t>
   </si>
   <si>
-    <t>Beginner at theoretical aspects blockchain technology</t>
-  </si>
-  <si>
-    <t>0f8a70da32b47c86fa69</t>
-  </si>
-  <si>
-    <t>Listener only</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
-  </si>
-  <si>
-    <t>0f8a70da32b47c86fa69a39dd522c99b25802700a336d49e16a760eea763f4b1</t>
-  </si>
-  <si>
-    <t>HCKQDvhlFx194rKcO7OKfVKVHm8iJgs5HBTYDDoPUT1zbt/WBBbpt3FwSlXhjLHeFALjBPeDsJ0+FlqjYJrcedE=</t>
-  </si>
-  <si>
-    <t>12.29.2021</t>
-  </si>
-  <si>
-    <t>Tetiana Diachuk</t>
-  </si>
-  <si>
-    <t>–</t>
+    <t>Yatskiv Vasyl</t>
+  </si>
+  <si>
+    <t>157083727495af019be1</t>
+  </si>
+  <si>
+    <t>157083727495af019be18396a5b6fb784fb8fdf515e7069698ea538039655ea2</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1FZ2SgaDMIJRp10hntSqe1gLrAUG9DHpM/view</t>
   </si>
   <si>
-    <t>157083727495af019be18396a5b6fb784fb8fdf515e7069698ea538039655ea2</t>
-  </si>
-  <si>
     <t>GwuoELh5wGDbKgdx/iwOEwB1aYpRhZGvqoWHkCMl2GldW99XUUjugdXMecd1OG2SKwwMXofLc4+rAxXvTnt+cCU=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/16W1PgiFDe8yDvOAKUfipXQuF54CGJwOr/view</t>
   </si>
   <si>
-    <t>157083727495af019be1</t>
-  </si>
-  <si>
-    <t>Yatskiv Vasyl</t>
+    <t>24.05.2022</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HmqEySvyMucrLal0DQ8-Vhc0ALSaBJgo/view</t>
+  </si>
+  <si>
+    <t>HEq8g+MEi+GvEmvTK4osdDCOUv0zrtlFXz3jX58hUEpuGtiwefAAUrsqS6PizJncb1B9qyY6GiaVMtDN4AGXjuA=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1ryCRznjmAN1vpfuTCHcFPCtIzw-dl20L/view</t>
+  </si>
+  <si>
+    <t>Viktoriia Kovalenko</t>
+  </si>
+  <si>
+    <t>c94b544cf914bfa7a011</t>
   </si>
   <si>
     <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
   </si>
   <si>
-    <t>HEq8g+MEi+GvEmvTK4osdDCOUv0zrtlFXz3jX58hUEpuGtiwefAAUrsqS6PizJncb1B9qyY6GiaVMtDN4AGXjuA=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1ryCRznjmAN1vpfuTCHcFPCtIzw-dl20L/view</t>
-  </si>
-  <si>
-    <t>c94b544cf914bfa7a011</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1HmqEySvyMucrLal0DQ8-Vhc0ALSaBJgo/view</t>
-  </si>
-  <si>
-    <t>24.05.2022</t>
-  </si>
-  <si>
-    <t>Viktoriia Kovalenko</t>
+    <t>Artem Lytvynov</t>
+  </si>
+  <si>
+    <t>31e612cbb30ee1e0b131</t>
+  </si>
+  <si>
+    <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1RBczYKwSRmMu4zAoVVmnWvjgkl0tENzG/view</t>
   </si>
   <si>
-    <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
+    <t>31e612cbb30ee1e0b131836790253817c04031043f623abb460c83208fafa932</t>
   </si>
   <si>
     <t>HERmuZzuSW3wNNWRroC2QNMxKOMuAdjg4gxhbcA/9UHiA/lhyfJJRi4RDzmC1ToYWKgUdyANuExL857Jh5UphPk=</t>
@@ -529,45 +538,36 @@
     <t>drive.google.com/file/d/1KnXAljoWMcSRaMbBCkrmp_U3hzb_asxc/view</t>
   </si>
   <si>
-    <t>31e612cbb30ee1e0b131</t>
-  </si>
-  <si>
-    <t>31e612cbb30ee1e0b131836790253817c04031043f623abb460c83208fafa932</t>
-  </si>
-  <si>
-    <t>Artem Lytvynov</t>
-  </si>
-  <si>
     <t>Taras Horun</t>
   </si>
   <si>
     <t>321d5bc0b6acda5a08db</t>
   </si>
   <si>
+    <t>321d5bc0b6acda5a08dbd6e3b151c27d1951c01e36b674970fe5bb02a33d5d2e</t>
+  </si>
+  <si>
+    <t>HDWEh9ESydNwt1uGPeE27CIKeMKPy+O87vrhEELOeECTIKgu9VndiSLOpNThFwKWV+2oMh8SMAjRbBHZ8RxF8Qo=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1oa4_pnjVk863Kfi7CxIgvLXEUczkVxHS/view</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1GxBJoJ4QVMY5O6BDlBGtx-tJAcxj-f6s/view</t>
   </si>
   <si>
-    <t>321d5bc0b6acda5a08dbd6e3b151c27d1951c01e36b674970fe5bb02a33d5d2e</t>
-  </si>
-  <si>
-    <t>HDWEh9ESydNwt1uGPeE27CIKeMKPy+O87vrhEELOeECTIKgu9VndiSLOpNThFwKWV+2oMh8SMAjRbBHZ8RxF8Qo=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1oa4_pnjVk863Kfi7CxIgvLXEUczkVxHS/view</t>
-  </si>
-  <si>
     <t>Anastasiia Slota</t>
   </si>
   <si>
     <t>5d71857f9a99d5d85ed7</t>
   </si>
   <si>
+    <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1Aal0m_o5pRV8rfXsm8wDWIqIg36jUqvx/view</t>
   </si>
   <si>
-    <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
-  </si>
-  <si>
     <t>HE4WVZfpHDM927pj2Gbc9lOZhBRopu9jToBZfr7D62mneKWV8M75X8Q2SZc4tnXE/3LeWTqxpIkzc9Xy6DqvUqE=</t>
   </si>
   <si>
@@ -577,73 +577,82 @@
     <t>Yuriy Melnychuk</t>
   </si>
   <si>
+    <t>4b973cdc099c10811c1b</t>
+  </si>
+  <si>
+    <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/17vX52MGbM2gkG3qqa1fz-ERnrQbdcw4y/view</t>
   </si>
   <si>
-    <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
-  </si>
-  <si>
     <t>G09Pu89zZ+mW2gdSx729xoRrBvWoumXJAYLuporfSBGdbAJOMCqKcBPj8R2VtP4sJbwNZAWnmvuqpJqZU6h83hQ=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1bfp7feXW3jlCWM6JNgL66zeE8LHm4X-Y/view</t>
   </si>
   <si>
-    <t>4b973cdc099c10811c1b</t>
+    <t>Vladyslav Mazur</t>
   </si>
   <si>
     <t>e9bf9426eb214a6e36c8</t>
   </si>
   <si>
+    <t>e9bf9426eb214a6e36c83520cbd22f2b58d44e518597ce9887c5c65d029ed683</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bilaW63V87r9jkQgRfz_fevbeWN6NFyo/view</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1JY1qkLvZnhJoC7eW8zecnwqdN2ADtZBQ/view</t>
   </si>
   <si>
-    <t>e9bf9426eb214a6e36c83520cbd22f2b58d44e518597ce9887c5c65d029ed683</t>
-  </si>
-  <si>
     <t>GxwV1QU9bkNovno07/2Qf5RnVqi33IIX/h2qm9QewYuqQO6/ULkKQG+dc47LvkhphEUWoWaEai8xaIVxIvH3mxQ=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1bilaW63V87r9jkQgRfz_fevbeWN6NFyo/view</t>
-  </si>
-  <si>
-    <t>Vladyslav Mazur</t>
+    <t>G0/HbGdGK3B0R9z8wip7gA/5JeSvjkSeA7lcGfugt/KcNVV1VKo36tLg+Qi79IEd3lr9lE92CXfNXZ8c3GeiPc0=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/18pj8mEa0wJ5A_Nt1l6RNMZ9iTH4oUWSC/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1l0atb8z64jklpxeGi48llMRwrNeoKf0y/view</t>
+  </si>
+  <si>
+    <t>33571c3c57728ede717b2bf46df346305cbeca3e966b76cf15369f7411ddabef</t>
   </si>
   <si>
     <t>Hanna Zhurba</t>
   </si>
   <si>
-    <t>G0/HbGdGK3B0R9z8wip7gA/5JeSvjkSeA7lcGfugt/KcNVV1VKo36tLg+Qi79IEd3lr9lE92CXfNXZ8c3GeiPc0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/18pj8mEa0wJ5A_Nt1l6RNMZ9iTH4oUWSC/view</t>
-  </si>
-  <si>
     <t>33571c3c57728ede717b</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1l0atb8z64jklpxeGi48llMRwrNeoKf0y/view</t>
-  </si>
-  <si>
-    <t>33571c3c57728ede717b2bf46df346305cbeca3e966b76cf15369f7411ddabef</t>
+    <t>96250fd24ef42b3b059c7f85867ca063298d0784f07d7b3d4a19da04dbf6f4c7</t>
   </si>
   <si>
     <t>Viktoriia Holoshchapova</t>
   </si>
   <si>
+    <t>96250fd24ef42b3b059c</t>
+  </si>
+  <si>
+    <t>Gwgj57Jqz9+NMhDQlcZmobwbWCi8h4ESrKASdManWz5saGNNFwx832peyy6A/lp8DsUFzZzOihp1V/OspkMps9k=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1V1S4zVBvdZ7u0qWNpj70QbU_Qv1ZSwcz/view</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1Rl7QRlGxtywdMCDmM-i2aXCzulou-hLS/view</t>
   </si>
   <si>
-    <t>96250fd24ef42b3b059c7f85867ca063298d0784f07d7b3d4a19da04dbf6f4c7</t>
-  </si>
-  <si>
-    <t>Gwgj57Jqz9+NMhDQlcZmobwbWCi8h4ESrKASdManWz5saGNNFwx832peyy6A/lp8DsUFzZzOihp1V/OspkMps9k=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1V1S4zVBvdZ7u0qWNpj70QbU_Qv1ZSwcz/view</t>
-  </si>
-  <si>
-    <t>96250fd24ef42b3b059c</t>
+    <t>drive.google.com/file/d/1kWKcfuN3wKIueLCmFLK6eUxWZA5-cjqw/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/16683RbvjBsJBFBrLwtLwWlQJUfTiD0Xd/view</t>
+  </si>
+  <si>
+    <t>G22mibmMslmyD8rrY2ltE5Tcm9wjiNndNugd3f4Ant1qdwTC2A9jhFQ04ORFamlLGr+mI2MryPJAFIY7R3Zco1E=</t>
   </si>
   <si>
     <t>Nikita Liashko</t>
@@ -652,64 +661,64 @@
     <t>638039974f462d2a16fa</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/16683RbvjBsJBFBrLwtLwWlQJUfTiD0Xd/view</t>
-  </si>
-  <si>
     <t>638039974f462d2a16fa4959a86c265addbc78b4b6d26dddbcf4a9d2b69ae9d7</t>
   </si>
   <si>
-    <t>G22mibmMslmyD8rrY2ltE5Tcm9wjiNndNugd3f4Ant1qdwTC2A9jhFQ04ORFamlLGr+mI2MryPJAFIY7R3Zco1E=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1kWKcfuN3wKIueLCmFLK6eUxWZA5-cjqw/view</t>
+    <t>Gy1CS1DczVCPKEqFIMhNAUjvlti1rZpp602WQhpANZcrbJR7A1bxVMqZhWo7ziNLPEs4gZ7mDvo3dxQp/9mnWSo=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1TDVQcx6mYo_axvH3qcg0bBW7BCkSdPJk/view</t>
+  </si>
+  <si>
+    <t>27.05.2022</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1R38xCu4uADZnLmaMGWWjBOj2A6I7JcLz/view</t>
+  </si>
+  <si>
+    <t>a4f695eb1f54152d096fac83f42a2627f1da6e57869febbc0736945533b39dfd</t>
+  </si>
+  <si>
+    <t>Oleksandr Ishchuk</t>
+  </si>
+  <si>
+    <t>a4f695eb1f54152d096f</t>
   </si>
   <si>
     <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
   </si>
   <si>
-    <t>Gy1CS1DczVCPKEqFIMhNAUjvlti1rZpp602WQhpANZcrbJR7A1bxVMqZhWo7ziNLPEs4gZ7mDvo3dxQp/9mnWSo=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1TDVQcx6mYo_axvH3qcg0bBW7BCkSdPJk/view</t>
-  </si>
-  <si>
-    <t>a4f695eb1f54152d096f</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1R38xCu4uADZnLmaMGWWjBOj2A6I7JcLz/view</t>
-  </si>
-  <si>
-    <t>27.05.2022</t>
-  </si>
-  <si>
-    <t>Oleksandr Ishchuk</t>
-  </si>
-  <si>
-    <t>a4f695eb1f54152d096fac83f42a2627f1da6e57869febbc0736945533b39dfd</t>
+    <t>ef5d4d97d20b05335375</t>
+  </si>
+  <si>
+    <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
+  </si>
+  <si>
+    <t>Sofiia Zharkikh</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1uuFsi_lO84LjMgoGI-KaAdqUW3DbX-tN/view</t>
+  </si>
+  <si>
+    <t>ef5d4d97d20b05335375d36faf95f1674a1bd9f02b236e07c0628e68e6718479</t>
+  </si>
+  <si>
+    <t>GyBuSdCpBacrzfMlYsJ5PDr4kBqEmHBvlnL0u9xd/ItkbXqWgvr/Q9+ABS7Uk9qAKPyM3fdTHMixab+7EMHk/L8=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1MKUolIBpxp8Nd7QKNEIztYq__Y2ke8r0/view</t>
   </si>
   <si>
     <t>30.05.2022</t>
   </si>
   <si>
-    <t>Sofiia Zharkikh</t>
-  </si>
-  <si>
-    <t>ef5d4d97d20b05335375d36faf95f1674a1bd9f02b236e07c0628e68e6718479</t>
-  </si>
-  <si>
-    <t>ef5d4d97d20b05335375</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1uuFsi_lO84LjMgoGI-KaAdqUW3DbX-tN/view</t>
-  </si>
-  <si>
-    <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
-  </si>
-  <si>
-    <t>GyBuSdCpBacrzfMlYsJ5PDr4kBqEmHBvlnL0u9xd/ItkbXqWgvr/Q9+ABS7Uk9qAKPyM3fdTHMixab+7EMHk/L8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1MKUolIBpxp8Nd7QKNEIztYq__Y2ke8r0/view</t>
+    <t>GwsGfQUBZbaRTtUuqe9ZxFOBG5KREIZQe9idjrsAJkyJS4iDGMvYzQl95ycTMmbSYE9y6HCVXw5XjQl4/UJmBF0=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1GQPhLpRDH3qx8itRN2swMzNVTA3S9zkA/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1erHD2ben8dQ0hZznVAMHsWoOEoZ5W5ZI/view</t>
   </si>
   <si>
     <t>Ruslan Ovsiienko</t>
@@ -718,88 +727,94 @@
     <t>bde11c3468f03baaa52b</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1erHD2ben8dQ0hZznVAMHsWoOEoZ5W5ZI/view</t>
-  </si>
-  <si>
     <t>bde11c3468f03baaa52b69b1d0037713d6e1656efbe22bbe443616867c8ce1d1</t>
   </si>
   <si>
-    <t>GwsGfQUBZbaRTtUuqe9ZxFOBG5KREIZQe9idjrsAJkyJS4iDGMvYzQl95ycTMmbSYE9y6HCVXw5XjQl4/UJmBF0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1GQPhLpRDH3qx8itRN2swMzNVTA3S9zkA/view</t>
+    <t>31.05.2022</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1k6jYSLnda_XmBqezsiN_2yJ61Qdta_nb/view</t>
   </si>
   <si>
     <t>6ee400b0d85b1c17b9f96d70480b7834db0687fb163960b09bd5b9d9a7479695</t>
   </si>
   <si>
-    <t>31.05.2022</t>
+    <t>G1NHCoKgP7GWURDdLHVELdKpWB+yJMIMC58Zcmk7QIDkHak9MAIs8CP8p3PwQQkKrasrA22u3Ps0oDpQjtQwuXA=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1fXu1-OMgl8abLdRnkK1gGjRUzm1wJ90d/view</t>
   </si>
   <si>
     <t>Andrii Kolhatin</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1k6jYSLnda_XmBqezsiN_2yJ61Qdta_nb/view</t>
+    <t>6ee400b0d85b1c17b9f9</t>
   </si>
   <si>
     <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
   </si>
   <si>
-    <t>G1NHCoKgP7GWURDdLHVELdKpWB+yJMIMC58Zcmk7QIDkHak9MAIs8CP8p3PwQQkKrasrA22u3Ps0oDpQjtQwuXA=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1fXu1-OMgl8abLdRnkK1gGjRUzm1wJ90d/view</t>
-  </si>
-  <si>
-    <t>6ee400b0d85b1c17b9f9</t>
+    <t>Volodymyr Beimuk</t>
+  </si>
+  <si>
+    <t>57510c8d91044c68466c</t>
+  </si>
+  <si>
+    <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
   </si>
   <si>
     <t>02.06.2022</t>
   </si>
   <si>
-    <t>Volodymyr Beimuk</t>
+    <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
   </si>
   <si>
     <t>57510c8d91044c68466c23791605ae30481dd0e13bffb14884dc26f74f89007e</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
-  </si>
-  <si>
-    <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
-  </si>
-  <si>
     <t>HEXb4vpKyOWhQpbYfAwIpyCn+rITf/VAWQzmNxaXXhDvU/q9WgsKDJeDdCnprx5cCIjjmW/phOHH+uPBbpYlPZ4=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1w1mfSqQpuoM1ykWLZFpnfNad4769mGRZ/view</t>
   </si>
   <si>
-    <t>57510c8d91044c68466c</t>
+    <t>d50fd6472811e70d2d323c6e2a1b6ee5492b950fa42141194d5b0ea301965d2b</t>
+  </si>
+  <si>
+    <t>G0q+l32LflKU/DpeW9C2sDAMrbqeX+oJ5XFEWOQgj1abcIZnWaBDyGALb8VFCDaBlWtPdWlpZH0bBGnZ4vmuqVM=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/15kzmwqJUXHkYhS-y_kQNezfBYKsWqClm/view</t>
   </si>
   <si>
     <t>03.06.2022</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1alRzJTra9dglzAqTeiHBwO9rtXlBweUd/view</t>
+  </si>
+  <si>
+    <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
+  </si>
+  <si>
     <t>Nazarii Savorona</t>
   </si>
   <si>
-    <t>d50fd6472811e70d2d323c6e2a1b6ee5492b950fa42141194d5b0ea301965d2b</t>
-  </si>
-  <si>
     <t>d50fd6472811e70d2d32</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1alRzJTra9dglzAqTeiHBwO9rtXlBweUd/view</t>
-  </si>
-  <si>
-    <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
-  </si>
-  <si>
-    <t>G0q+l32LflKU/DpeW9C2sDAMrbqeX+oJ5XFEWOQgj1abcIZnWaBDyGALb8VFCDaBlWtPdWlpZH0bBGnZ4vmuqVM=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/15kzmwqJUXHkYhS-y_kQNezfBYKsWqClm/view</t>
+    <t>Anton Balykov</t>
+  </si>
+  <si>
+    <t>0098c4abd0cf9ba00a9a</t>
+  </si>
+  <si>
+    <t>6471e2162a55dbf5dd4d31bfe55b942b65d00f871d57a47269a6eeadc98f5368</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1wY_vSxNPk2EVTXF5QDxbWo0tuWKZTesU/view</t>
+  </si>
+  <si>
+    <t>0098c4abd0cf9ba00a9a16bae79b9ec1f932f0a459b51c5afd3d6a5651a3820d</t>
   </si>
   <si>
     <t>HEX0LGCrp8izmcyDor70bMZoObL/w+vWJ2n7oI4g7HApOTNEf8NsrrnH7wqchGY1dHPbQ/ZXv9Sb4flO0OOFIjg=</t>
@@ -808,60 +823,45 @@
     <t>drive.google.com/file/d/1CEGYMWPoshF1-ZlubWYIqLVVN5wuDI0k/view</t>
   </si>
   <si>
-    <t>0098c4abd0cf9ba00a9a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1wY_vSxNPk2EVTXF5QDxbWo0tuWKZTesU/view</t>
-  </si>
-  <si>
-    <t>6471e2162a55dbf5dd4d31bfe55b942b65d00f871d57a47269a6eeadc98f5368</t>
-  </si>
-  <si>
-    <t>Anton Balykov</t>
-  </si>
-  <si>
-    <t>0098c4abd0cf9ba00a9a16bae79b9ec1f932f0a459b51c5afd3d6a5651a3820d</t>
+    <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
+  </si>
+  <si>
+    <t>Rodion Nazarov</t>
   </si>
   <si>
     <t>b8a9205fb544253703da</t>
   </si>
   <si>
+    <t>b8a9205fb544253703daa661c8770c6c3010cd6f9440217c56b8f3a5277106c0</t>
+  </si>
+  <si>
+    <t>HFLGvJaNw54W7ZD/ZIjYXIQM1qIXbrh8vUUpsthZld4lUw1ygBpSYq5Bv2wkJji7EFfLKZpiwfkpZ+sZp3fGBZ8=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tXyNJbUrUx79sco9ErJu8FcadjFeY4ws/view</t>
+  </si>
+  <si>
+    <t>06.06.2022</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1vGDKnNGdCSrI2l0f8epwfp-g9ZP_gdqn/view</t>
   </si>
   <si>
-    <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
-  </si>
-  <si>
-    <t>HFLGvJaNw54W7ZD/ZIjYXIQM1qIXbrh8vUUpsthZld4lUw1ygBpSYq5Bv2wkJji7EFfLKZpiwfkpZ+sZp3fGBZ8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tXyNJbUrUx79sco9ErJu8FcadjFeY4ws/view</t>
-  </si>
-  <si>
-    <t>06.06.2022</t>
-  </si>
-  <si>
-    <t>Rodion Nazarov</t>
-  </si>
-  <si>
-    <t>b8a9205fb544253703daa661c8770c6c3010cd6f9440217c56b8f3a5277106c0</t>
-  </si>
-  <si>
     <t>Denis Riabtsev</t>
   </si>
   <si>
+    <t>049024034fa09e3463c1</t>
+  </si>
+  <si>
+    <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1zCX9-HWZpyLUzChTuMNrgw8wjDheWHYQ/view</t>
+  </si>
+  <si>
     <t>049024034fa09e3463c172894984ccd7c64d8f3e25ea0edce1cde73d14c4e4dd</t>
   </si>
   <si>
-    <t>049024034fa09e3463c1</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1zCX9-HWZpyLUzChTuMNrgw8wjDheWHYQ/view</t>
-  </si>
-  <si>
-    <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
-  </si>
-  <si>
     <t>G1S1swtJ1BO++cjXv+2ur3abbjLyF3QJom9rXytmbiCybxHnE6zxdv8PGrIoWzul25aA+Vy+npC166DfktBmfTA=</t>
   </si>
   <si>
@@ -871,28 +871,40 @@
     <t>10.08.2022</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1mierxGuI99_8bCJonu3XW6Of6nN-_G8Y/view</t>
+  </si>
+  <si>
+    <t>HByFsfnqBzFxFef9Sx0pI7ZEP8CsAFwWu3WLyhxeWYE7Nihy6oGKH6zTuDB3jxz7nVUqmg/+jiSz+5tpHd5hhCM=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1xbZ0oHFVYI0UYoQzhOgIjFcYMBPS3M7N/view</t>
+  </si>
+  <si>
     <t>Ahadzhan Piloian</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1xbZ0oHFVYI0UYoQzhOgIjFcYMBPS3M7N/view</t>
-  </si>
-  <si>
     <t>35a047ff48ee73cae02b</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1mierxGuI99_8bCJonu3XW6Of6nN-_G8Y/view</t>
-  </si>
-  <si>
     <t>35a047ff48ee73cae02b98a664d79ed4beec0f2fc7ca444cf0e6fe6feba7072f</t>
   </si>
   <si>
-    <t>HByFsfnqBzFxFef9Sx0pI7ZEP8CsAFwWu3WLyhxeWYE7Nihy6oGKH6zTuDB3jxz7nVUqmg/+jiSz+5tpHd5hhCM=</t>
+    <t>Andrii Tsemko</t>
+  </si>
+  <si>
+    <t>6c856e21d4e81c9f9798</t>
+  </si>
+  <si>
+    <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
+  </si>
+  <si>
+    <t>16.08.2022</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1VFTodraL1vlF6oPm81xYgCEzuAnnMw9D/view</t>
   </si>
   <si>
-    <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
+    <t>6c856e21d4e81c9f9798dc867f42c17448b563618559dfc618f25bfb13952dd9</t>
   </si>
   <si>
     <t>G3AD9cOvDB5Yle4mx/4BJ1WGbFOLohDQC7vc4BQ13IEBNfDge5QEuYe3jCrtupanAlQ3qTuMp0xOcnt4khjuiOU=</t>
@@ -901,100 +913,94 @@
     <t>drive.google.com/file/d/1XYnfmc4-e2bPA2-oKc6rMrJk9OIS1ygb/view</t>
   </si>
   <si>
-    <t>6c856e21d4e81c9f9798</t>
-  </si>
-  <si>
-    <t>6c856e21d4e81c9f9798dc867f42c17448b563618559dfc618f25bfb13952dd9</t>
-  </si>
-  <si>
-    <t>16.08.2022</t>
-  </si>
-  <si>
-    <t>Andrii Tsemko</t>
-  </si>
-  <si>
     <t>ac4a4970282596872599a48469d3598e04f6239a9c8c40d595a7ab48cfec2f4b</t>
   </si>
   <si>
+    <t>HBwdh30L8wwZ0AJ72uIonh5mnyavVroXqbfe0yCwSfwxHTmsctiCpE0PQGCgrn07xN6uG9mcLCyafi1J1iAIrVo=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1XKVH36jaqZxn5FNLOAPfa2e7veU7FvRF/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1TCz4JmThT49Whz7pXZc1p-uh1m8qGlts/view</t>
+  </si>
+  <si>
+    <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
+  </si>
+  <si>
     <t>Oleg Chaika</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1TCz4JmThT49Whz7pXZc1p-uh1m8qGlts/view</t>
-  </si>
-  <si>
-    <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
-  </si>
-  <si>
-    <t>HBwdh30L8wwZ0AJ72uIonh5mnyavVroXqbfe0yCwSfwxHTmsctiCpE0PQGCgrn07xN6uG9mcLCyafi1J1iAIrVo=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1XKVH36jaqZxn5FNLOAPfa2e7veU7FvRF/view</t>
-  </si>
-  <si>
     <t>ac4a4970282596872599</t>
   </si>
   <si>
     <t>Yehor Podporinov</t>
   </si>
   <si>
+    <t>6ece24bf393d6616d288</t>
+  </si>
+  <si>
+    <t>8b0b4aebba75393ae3d3d17c2935872fcc9b742667912a33f84c93005de85fb4</t>
+  </si>
+  <si>
+    <t>G16YW2qc38O2w05xL7whMAtbxBifYvcgSumruVDry/BeInzdXKeNdgkzs4+YALZnA1O/VZiCrqsMOX+JSxPhhDo=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1qjY792bJaQiXrAQkpY51MdDXWY5NGfHG/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1UWwjB5PEcpGT7pj9QLOxg0exOJMJ0cgV/view</t>
+  </si>
+  <si>
     <t>6ece24bf393d6616d2882515c6b704470a04394eb23a26e37fcfd58709864e9c</t>
   </si>
   <si>
-    <t>6ece24bf393d6616d288</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1UWwjB5PEcpGT7pj9QLOxg0exOJMJ0cgV/view</t>
-  </si>
-  <si>
-    <t>8b0b4aebba75393ae3d3d17c2935872fcc9b742667912a33f84c93005de85fb4</t>
-  </si>
-  <si>
-    <t>G16YW2qc38O2w05xL7whMAtbxBifYvcgSumruVDry/BeInzdXKeNdgkzs4+YALZnA1O/VZiCrqsMOX+JSxPhhDo=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1qjY792bJaQiXrAQkpY51MdDXWY5NGfHG/view</t>
+    <t>drive.google.com/file/d/1f48HTb46vhokQ_8Azf1hncHeg-YaF01f/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1gRgANqcuPqyc_3RjIRjtUc4Mdz0mGl9x/view</t>
   </si>
   <si>
     <t>HDCKJb3z6l4lgp3NELh3RJkzdJD1joN7yfOxl+01921RdY6DAUkQyZNnWU9OHeVkW3fPDEweucWCsxJRM/I0X1s=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1f48HTb46vhokQ_8Azf1hncHeg-YaF01f/view</t>
+    <t>Artem Litkevych</t>
   </si>
   <si>
     <t>2bdefe6ab583294a8e3a</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1gRgANqcuPqyc_3RjIRjtUc4Mdz0mGl9x/view</t>
-  </si>
-  <si>
     <t>2bdefe6ab583294a8e3a46a7d66467c7afc535265a5eb5044d61411c2e9cf825</t>
   </si>
   <si>
-    <t>Artem Litkevych</t>
+    <t>HApedQ3dSPFayNHWaAdeG0koY6JOtPkbNGfR03j/buRXUMPAQ7kVc5JUtU7xJeCQFNre1p7sPQiaazDauOSLyeU=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1L4MJCKIJ_qZk-xoeaxbt21yKDQ65ZiV-/view</t>
+  </si>
+  <si>
+    <t>17.08.2022</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1y0FtDg1SrfeMLVLgcU5nq3iVnBdoik87/view</t>
+  </si>
+  <si>
+    <t>5aedea6393611a0bb067abca97eab5d15e20fa9b13654759eeb0ad08cf465bf6</t>
+  </si>
+  <si>
+    <t>Vadim Mokropulo</t>
   </si>
   <si>
     <t>5aedea6393611a0bb067</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1y0FtDg1SrfeMLVLgcU5nq3iVnBdoik87/view</t>
-  </si>
-  <si>
     <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
   </si>
   <si>
-    <t>HApedQ3dSPFayNHWaAdeG0koY6JOtPkbNGfR03j/buRXUMPAQ7kVc5JUtU7xJeCQFNre1p7sPQiaazDauOSLyeU=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1L4MJCKIJ_qZk-xoeaxbt21yKDQ65ZiV-/view</t>
-  </si>
-  <si>
-    <t>Vadim Mokropulo</t>
-  </si>
-  <si>
-    <t>5aedea6393611a0bb067abca97eab5d15e20fa9b13654759eeb0ad08cf465bf6</t>
-  </si>
-  <si>
-    <t>17.08.2022</t>
+    <t>Arsenii Trybukh</t>
+  </si>
+  <si>
+    <t>843e73c99e2fb6868d38</t>
   </si>
   <si>
     <t>c5f89ffab6fb6790398f25f04cceea2582045f2cdaa852cffa609587b5f97da2</t>
@@ -1006,22 +1012,28 @@
     <t>drive.google.com/file/d/11NbZIfZYYPaZkiN3hIF-pOf-vQn1FjGZ/view</t>
   </si>
   <si>
-    <t>843e73c99e2fb6868d38</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1G_yt14WnfBJx-IrHPPr6dCVtmo-oZRGP/view</t>
   </si>
   <si>
-    <t>Arsenii Trybukh</t>
-  </si>
-  <si>
     <t>843e73c99e2fb6868d388c6436b8de6d6df90f2c6651c161738d510e0eedbe80</t>
   </si>
   <si>
+    <t>Khrystyna Vysotska</t>
+  </si>
+  <si>
+    <t>c7bb640e0ab9c66c1b1b</t>
+  </si>
+  <si>
+    <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
+  </si>
+  <si>
+    <t>18.08.2022</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1l5wCpVPlLtvzFbUPo8FUxzzRBsS6Et75/view</t>
   </si>
   <si>
-    <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
+    <t>c7bb640e0ab9c66c1b1b30a834ca00155e38ddba8212240e0bbd39eba0ba7804</t>
   </si>
   <si>
     <t>GyX+LFZlbOGkX9m4UFq+VTDe+qgFw8iaqa9Pnv0tpOhWPbMXAoZS20RqaIczvQ/H1VpzVlaXsEo+xn5nwKZJ/Hk=</t>
@@ -1030,16 +1042,10 @@
     <t>drive.google.com/file/d/1nGSPxXdXnZBvlGXqCNy4-upiIccTP2DF/view</t>
   </si>
   <si>
-    <t>c7bb640e0ab9c66c1b1b</t>
-  </si>
-  <si>
-    <t>c7bb640e0ab9c66c1b1b30a834ca00155e38ddba8212240e0bbd39eba0ba7804</t>
-  </si>
-  <si>
-    <t>18.08.2022</t>
-  </si>
-  <si>
-    <t>Khrystyna Vysotska</t>
+    <t>de78c058c82cb70d7785272b03e0faaf9d22a8b0e83bf3c62e1088ba65fe154a</t>
+  </si>
+  <si>
+    <t>Mykhailo Shcholkin</t>
   </si>
   <si>
     <t>de78c058c82cb70d7785</t>
@@ -1048,55 +1054,58 @@
     <t>drive.google.com/file/d/1I0M_Gmlz0YU0fwUVXG9DVMFDEz8BrXYC/view</t>
   </si>
   <si>
-    <t>de78c058c82cb70d7785272b03e0faaf9d22a8b0e83bf3c62e1088ba65fe154a</t>
-  </si>
-  <si>
     <t>G1CTdkm9sPqF5gC7MNhwFYnaWkXLHuuUsU0A/sGOu5DNBtG5skY8jqrThohl9psYxI7Tv/ioEcauIdVEWGuT7+o=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/116fTgiRyxDGkYGtShL1QTg_IMdV7JIvh/view</t>
   </si>
   <si>
-    <t>Mykhailo Shcholkin</t>
+    <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
   </si>
   <si>
     <t>Sofiia Kireieva</t>
   </si>
   <si>
+    <t>7a6968aff4e08534424f</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1GoJ9qUTxoHHdtNzbmx9kX8mUnMrERzTj/view</t>
   </si>
   <si>
-    <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
-  </si>
-  <si>
     <t>GwxLKKdOMTqtcTyfNdinQRybUe+qy2ulplCNQh5mcOdQINQN0w/jb9OXjSkmDF4/X+KrmFDw9hjjLrHNZfbB5dE=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1dA-z2yZxNqg9vpZ-IrDTeI5VoAYSoUOx/view</t>
   </si>
   <si>
-    <t>7a6968aff4e08534424f</t>
-  </si>
-  <si>
     <t>19.08.2022</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1O6iBsiaN0_fjmsFEU75uf0x-TjEPa9M_/view</t>
+  </si>
+  <si>
+    <t>G24FfjXLWLXBSLyuTfOy5p2HRuUF9dZNqOsMBbQz5NdHMugtm3sqYSkgooUb30zd6NBvd8yivpBdpXj2C7zxRLM=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1SrPLonRxjfEBFQKfnHXjqy1icSZ8TQTg/view</t>
+  </si>
+  <si>
     <t>Alena Sporova</t>
   </si>
   <si>
     <t>4f789ed064df7a17fb16</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1O6iBsiaN0_fjmsFEU75uf0x-TjEPa9M_/view</t>
-  </si>
-  <si>
     <t>4f789ed064df7a17fb165d92a4775577ae2b2aa0933828e2184f467078a0f4e1</t>
   </si>
   <si>
-    <t>G24FfjXLWLXBSLyuTfOy5p2HRuUF9dZNqOsMBbQz5NdHMugtm3sqYSkgooUb30zd6NBvd8yivpBdpXj2C7zxRLM=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1SrPLonRxjfEBFQKfnHXjqy1icSZ8TQTg/view</t>
+    <t>drive.google.com/file/d/1m0p5Xzk0DhnWZNz3C4GKwBoFn0dCLaJd/view</t>
+  </si>
+  <si>
+    <t>ae669584e3592816786def0ced73ae9c1157f3cf3957c54c7f00c313411d0917</t>
+  </si>
+  <si>
+    <t>HAHRm6qHhYtJONB4DE1fHhHs7jzCBi+0r098KwvwJ3FjJraqh4eh7xXl2kdKZvktikGbL8iVYeMFsUMMiZgU1dE=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1rd3-RafYYEM7AiLpUn6hDKvzItsu35eV/view</t>
@@ -1105,40 +1114,46 @@
     <t>ae669584e3592816786d</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1m0p5Xzk0DhnWZNz3C4GKwBoFn0dCLaJd/view</t>
-  </si>
-  <si>
     <t>483060d6ed3048a8dc0131f806543e2d4ebf5438280c29af23b478769c5e2422</t>
   </si>
   <si>
-    <t>HAHRm6qHhYtJONB4DE1fHhHs7jzCBi+0r098KwvwJ3FjJraqh4eh7xXl2kdKZvktikGbL8iVYeMFsUMMiZgU1dE=</t>
-  </si>
-  <si>
     <t>Nikita Masych</t>
   </si>
   <si>
-    <t>ae669584e3592816786def0ced73ae9c1157f3cf3957c54c7f00c313411d0917</t>
+    <t>drive.google.com/file/d/1e4EDcTQQDwoR2L6wWEPs-5H-vt5CCr_f/view</t>
+  </si>
+  <si>
+    <t>2a2bdf9afd29bb5a037ee969d668f402c10e76c8cbbd976d813dc2c635212539</t>
+  </si>
+  <si>
+    <t>G0IQQV4CbL/JBgmzra52tvPbBojg9JtvXR7fWIUO4M3PVCmcqlAPZYddUdyqGNQ46uqyzpxPt5unmlkaLZoWdik=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Nn8f-CCkaRTHoTIvzOzlUjfFraIj0SxS/view</t>
   </si>
   <si>
     <t>Mark Cherepovskyi</t>
   </si>
   <si>
-    <t>2a2bdf9afd29bb5a037ee969d668f402c10e76c8cbbd976d813dc2c635212539</t>
-  </si>
-  <si>
     <t>2a2bdf9afd29bb5a037e</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1e4EDcTQQDwoR2L6wWEPs-5H-vt5CCr_f/view</t>
-  </si>
-  <si>
     <t>c4879efd2b227fc0a0e38b82a1a91f47d5c53312805a02084f9769bbec1a71ec</t>
   </si>
   <si>
-    <t>G0IQQV4CbL/JBgmzra52tvPbBojg9JtvXR7fWIUO4M3PVCmcqlAPZYddUdyqGNQ46uqyzpxPt5unmlkaLZoWdik=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Nn8f-CCkaRTHoTIvzOzlUjfFraIj0SxS/view</t>
+    <t>5af15e5a89df1459f6c0</t>
+  </si>
+  <si>
+    <t>805b929698577e9aca3fe4691eadeb51f4dc001d6c3c48625b4e2d7ff2f1f090</t>
+  </si>
+  <si>
+    <t>Viacheslav Horbanov</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/189KqeuBE1JHhjoOJuPjmVSaQMF0tuf_7/view</t>
+  </si>
+  <si>
+    <t>5af15e5a89df1459f6c0aeb5cd0e5be28e4a54e50468f9b686f2d93a47fcd8b5</t>
   </si>
   <si>
     <t>HDMS95fN4wKz+mcce/qhkAB3CDAxnQf5cwwRXHl8KMdYA3/EO8kyMpNGiIbN5MFTQ8vPw07FOmfXy0ioj0UnCj4=</t>
@@ -1147,145 +1162,136 @@
     <t>drive.google.com/file/d/15ZzFOxNzuFtm8BtdxOiZbShpVngUdT_R/view</t>
   </si>
   <si>
-    <t>5af15e5a89df1459f6c0</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/189KqeuBE1JHhjoOJuPjmVSaQMF0tuf_7/view</t>
-  </si>
-  <si>
-    <t>805b929698577e9aca3fe4691eadeb51f4dc001d6c3c48625b4e2d7ff2f1f090</t>
-  </si>
-  <si>
-    <t>Viacheslav Horbanov</t>
-  </si>
-  <si>
-    <t>5af15e5a89df1459f6c0aeb5cd0e5be28e4a54e50468f9b686f2d93a47fcd8b5</t>
+    <t>Oleksii Stepaniuk</t>
+  </si>
+  <si>
+    <t>709946c77b1372ca3cff</t>
+  </si>
+  <si>
+    <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
+  </si>
+  <si>
+    <t>GxwMNgPmJTi7BfEjI6rsGqPvQoad54i76EyhJDFd3X9cMv6smt8Pqr9l2GzTwOy+UhKqumElsEDkC1pUydChGYM=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1-pE49RF7jkcKZaf7GMT9l_oK4tuCo-qU/view</t>
   </si>
   <si>
     <t>22.08.2022</t>
   </si>
   <si>
-    <t>Oleksii Stepaniuk</t>
+    <t>drive.google.com/file/d/1XQCDywsDSh6584NI_X7VTda9fxx9Ju6n/view</t>
   </si>
   <si>
     <t>709946c77b1372ca3cffa6c6d383a1fa4c8806d267ecb824b4ee502f41c2e4c0</t>
   </si>
   <si>
-    <t>709946c77b1372ca3cff</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1XQCDywsDSh6584NI_X7VTda9fxx9Ju6n/view</t>
-  </si>
-  <si>
-    <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
-  </si>
-  <si>
-    <t>GxwMNgPmJTi7BfEjI6rsGqPvQoad54i76EyhJDFd3X9cMv6smt8Pqr9l2GzTwOy+UhKqumElsEDkC1pUydChGYM=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1-pE49RF7jkcKZaf7GMT9l_oK4tuCo-qU/view</t>
+    <t>drive.google.com/file/d/1XyrBsaWWmIuwF0Hq8_K95lvtH9gb6l9O/view</t>
+  </si>
+  <si>
+    <t>6393707ada82a579795181b6ad3cbf89bc962a3b517c4fad1ff80807b72258e2</t>
+  </si>
+  <si>
+    <t>HHbJ2yOwNTaBD8Pj4Gc3VU1rvVOaml/gHFckPopyy6rVLkN9Llmf+A5SmWlzxzYnshzLqJKMNrV/7nrMhmMK0LA=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Wq36pFh0ILRhfaIV-RMgTsS8Rw_UPsMQ/view</t>
   </si>
   <si>
     <t>Kyrylo Riabov</t>
   </si>
   <si>
-    <t>6393707ada82a579795181b6ad3cbf89bc962a3b517c4fad1ff80807b72258e2</t>
+    <t>6393707ada82a5797951</t>
   </si>
   <si>
     <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
   </si>
   <si>
-    <t>HHbJ2yOwNTaBD8Pj4Gc3VU1rvVOaml/gHFckPopyy6rVLkN9Llmf+A5SmWlzxzYnshzLqJKMNrV/7nrMhmMK0LA=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Wq36pFh0ILRhfaIV-RMgTsS8Rw_UPsMQ/view</t>
-  </si>
-  <si>
-    <t>6393707ada82a5797951</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1XyrBsaWWmIuwF0Hq8_K95lvtH9gb6l9O/view</t>
+    <t>drive.google.com/file/d/1ygsdcgJuPG9SqctWWdcmvdFYGBlg0Mfi/view</t>
+  </si>
+  <si>
+    <t>b8536409d7a15f77c09c4ee971971d57834a7ce935d7de0afca925b431d7d3f0</t>
+  </si>
+  <si>
+    <t>HHvcf99G4vHmh7gwlEMbWJAQuuP3yxyHM8bMUdTLhf5lb5dJq/wz1VWiA3Z/oY5vRSiCpwneT5rrWqc8ErU11mU=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1aW9TvbBrwnNuYXWpVf9DsaHrdOh5lBe6/view</t>
   </si>
   <si>
     <t>b8536409d7a15f77c09c</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1ygsdcgJuPG9SqctWWdcmvdFYGBlg0Mfi/view</t>
-  </si>
-  <si>
     <t>a4bc9b1320f2e1e710e9b1fd60261ccf698609aee22bab0b8bc8f6278c77ff28</t>
   </si>
   <si>
-    <t>HHvcf99G4vHmh7gwlEMbWJAQuuP3yxyHM8bMUdTLhf5lb5dJq/wz1VWiA3Z/oY5vRSiCpwneT5rrWqc8ErU11mU=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1aW9TvbBrwnNuYXWpVf9DsaHrdOh5lBe6/view</t>
-  </si>
-  <si>
     <t>Oleksandr Kolesnyk</t>
   </si>
   <si>
-    <t>b8536409d7a15f77c09c4ee971971d57834a7ce935d7de0afca925b431d7d3f0</t>
+    <t>G2VIng2ixewyoOfF7ZTzpcGYTcmDx6zY2XXVDruaEShNbAYMCcWhVMWWXpHVa/vIIt6mI19G/JjIIBPaXI9uK6Y=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1YrBbtcKZvZerAB-P3IgI2VY_rNpYXWdd/view</t>
   </si>
   <si>
     <t>23.08.2022</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1HU3qhe9VaTIqZwLa4G3mOS0nHEg8DO8M/view</t>
+  </si>
+  <si>
     <t>Nikita Chabaniuk</t>
   </si>
   <si>
     <t>4b7f8d4f293f72815ab4</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1HU3qhe9VaTIqZwLa4G3mOS0nHEg8DO8M/view</t>
-  </si>
-  <si>
     <t>4b7f8d4f293f72815ab490bd586e210947057de3a2e9afb59fe92108421cfc43</t>
   </si>
   <si>
-    <t>G2VIng2ixewyoOfF7ZTzpcGYTcmDx6zY2XXVDruaEShNbAYMCcWhVMWWXpHVa/vIIt6mI19G/JjIIBPaXI9uK6Y=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1YrBbtcKZvZerAB-P3IgI2VY_rNpYXWdd/view</t>
+    <t>drive.google.com/file/d/1cFcRCnazlkVCJwZpAUyUVf662LBzDlc1/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1cQNAJj42ZPrF7G2wJasBxsblGWb1cx6U/view</t>
+  </si>
+  <si>
+    <t>8e1b8b35cb7330ddc76eb03e4878e055a523040b63232a27df27ca76e04a8678</t>
+  </si>
+  <si>
+    <t>G1YYB4Ev2kOYbqXr2cCeGRFHYlaynNvMmb6TrOoeBnzORoDe4Pips3BiaJZxZBBWtuSRec45V5h9Mce9vCSYCH8=</t>
+  </si>
+  <si>
+    <t>Amina Yambulatova</t>
+  </si>
+  <si>
+    <t>8e1b8b35cb7330ddc76e</t>
   </si>
   <si>
     <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
   </si>
   <si>
-    <t>G1YYB4Ev2kOYbqXr2cCeGRFHYlaynNvMmb6TrOoeBnzORoDe4Pips3BiaJZxZBBWtuSRec45V5h9Mce9vCSYCH8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1cFcRCnazlkVCJwZpAUyUVf662LBzDlc1/view</t>
-  </si>
-  <si>
-    <t>8e1b8b35cb7330ddc76e</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1cQNAJj42ZPrF7G2wJasBxsblGWb1cx6U/view</t>
-  </si>
-  <si>
-    <t>Amina Yambulatova</t>
-  </si>
-  <si>
-    <t>8e1b8b35cb7330ddc76eb03e4878e055a523040b63232a27df27ca76e04a8678</t>
+    <t>drive.google.com/file/d/1UXQ_dMB-t0DJ1zHqwUO4AMKw00xTe7Kd/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/17TrcHxOjczAIzHRX6jGL7d6ikxt2lACY/view</t>
+  </si>
+  <si>
+    <t>95392bafab8d1e14ab5530e8a6a2436a7faa1647c9af34869af6d793fdb526dd</t>
+  </si>
+  <si>
+    <t>Yegor Chukanov</t>
   </si>
   <si>
     <t>95392bafab8d1e14ab55</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/17TrcHxOjczAIzHRX6jGL7d6ikxt2lACY/view</t>
-  </si>
-  <si>
     <t>40f94f67b8a8d87da643ad5c019db2e6c6f6e960a03453048995c11eea36d236</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1UXQ_dMB-t0DJ1zHqwUO4AMKw00xTe7Kd/view</t>
-  </si>
-  <si>
-    <t>Yegor Chukanov</t>
-  </si>
-  <si>
-    <t>95392bafab8d1e14ab5530e8a6a2436a7faa1647c9af34869af6d793fdb526dd</t>
+    <t>Dmytro Vynohradov</t>
+  </si>
+  <si>
+    <t>3dc98e4fdedc7c6b91f5</t>
   </si>
   <si>
     <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
@@ -1297,46 +1303,52 @@
     <t>drive.google.com/file/d/1Gky0SNUujtYDy63EkDHDfdHn6lBJFb9g/view</t>
   </si>
   <si>
-    <t>3dc98e4fdedc7c6b91f5</t>
+    <t>24.08.2022</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1JWQoCNMPVL8zCEb3aDGft9aNFn_7Bn6U/view</t>
   </si>
   <si>
-    <t>24.08.2022</t>
-  </si>
-  <si>
-    <t>Dmytro Vynohradov</t>
-  </si>
-  <si>
     <t>3dc98e4fdedc7c6b91f59db100a54a9d140ee40149845e160b9bf59021cfd763</t>
   </si>
   <si>
+    <t>HBCVC5I+IeKJfiwlnLSOv2b3zmmlPbKLwcOCjBb6dPfZIvDoV0Bg/EwiXf880gA9PO3pwI1BcQpjCFVKtoEOCHM=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/17EMz1PARbz9e8RTVMLFvKCGrcuqxU0X5/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1-Woakmc6sQIZj_YuO0UujbdA_k7k30AQ/view</t>
+  </si>
+  <si>
+    <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
+  </si>
+  <si>
     <t>Mykhailo Sokolov</t>
   </si>
   <si>
-    <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
-  </si>
-  <si>
     <t>5a875f69aae3c47635bc</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1-Woakmc6sQIZj_YuO0UujbdA_k7k30AQ/view</t>
-  </si>
-  <si>
     <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
   </si>
   <si>
-    <t>HBCVC5I+IeKJfiwlnLSOv2b3zmmlPbKLwcOCjBb6dPfZIvDoV0Bg/EwiXf880gA9PO3pwI1BcQpjCFVKtoEOCHM=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/17EMz1PARbz9e8RTVMLFvKCGrcuqxU0X5/view</t>
+    <t>Illia Popov</t>
+  </si>
+  <si>
+    <t>c6e0a8f84ae9df426a28</t>
+  </si>
+  <si>
+    <t>5cbc5e19fd5bb7d530d8e96ecd9e1f957e8731f7b5738c30b4b5e1bdda0861c4</t>
+  </si>
+  <si>
+    <t>25.08.2022</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1jMQGHGOmWabDErZg-n19HYPP7sUPbA-C/view</t>
   </si>
   <si>
-    <t>5cbc5e19fd5bb7d530d8e96ecd9e1f957e8731f7b5738c30b4b5e1bdda0861c4</t>
+    <t>c6e0a8f84ae9df426a28363024a5e4734dea38882c37c27ccbf3350092257289</t>
   </si>
   <si>
     <t>GxbnaO2SI42FWSLEEeAdripZKWQTCFp0dSAopXV/2wcjBco8ZbmUu3GwTndN8FzDVaFjnEfIeim4NGPPs+jCQzg=</t>
@@ -1345,313 +1357,307 @@
     <t>drive.google.com/file/d/1rEPYF5Uwt1Gg--7B3QLoPSWrcIzAuG9l/view</t>
   </si>
   <si>
-    <t>c6e0a8f84ae9df426a28</t>
-  </si>
-  <si>
-    <t>c6e0a8f84ae9df426a28363024a5e4734dea38882c37c27ccbf3350092257289</t>
-  </si>
-  <si>
-    <t>25.08.2022</t>
-  </si>
-  <si>
-    <t>Illia Popov</t>
+    <t>Mykola Gora</t>
+  </si>
+  <si>
+    <t>e17451aabeae8492dbe7</t>
+  </si>
+  <si>
+    <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
   </si>
   <si>
     <t>26.08.2022</t>
   </si>
   <si>
-    <t>Mykola Gora</t>
+    <t>drive.google.com/file/d/1QJKE4_V6OQFcAtrq5rdY3Rh_W91kgnxQ/view</t>
   </si>
   <si>
     <t>e17451aabeae8492dbe7099d581c12ef9e7a8366dd7ddf2267d0e42cd4580c19</t>
   </si>
   <si>
-    <t>e17451aabeae8492dbe7</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1QJKE4_V6OQFcAtrq5rdY3Rh_W91kgnxQ/view</t>
-  </si>
-  <si>
-    <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
-  </si>
-  <si>
     <t>G1rX7mp/6KhUVoryYkYmifpVakFz5esJ02otJ2mZPwp7MHkaFa8WdLamGh4FuZCo4AP8DoxRbh1+qYpxsEGumSY=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1NYZJn0Wxf8vR9QW-LE4U_2mvV5gX356p/view</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1noq7bJhv9KNWgJD8xKbWqJaO3zb1pra1/view</t>
+  </si>
+  <si>
+    <t>4cfdcdc672279489b68a1e900b2f8aa296d28d2d40fb08c1c5ca14562a1d23b3</t>
+  </si>
+  <si>
+    <t>HAUm82i2DcGPW2dlUnkAex+z9pI7QXjFFkfN7fvKH/NWHKCa5jaIHnZIjW0MHVx+WFJzNl5fsaPYQxDd7zePq9E=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1UxUzAyExCitVVyJENd4Ka9gN9rBDLUrw/view</t>
+  </si>
+  <si>
+    <t>Artem Levkin</t>
+  </si>
+  <si>
     <t>4cfdcdc672279489b68a</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1noq7bJhv9KNWgJD8xKbWqJaO3zb1pra1/view</t>
-  </si>
-  <si>
     <t>417f8fbf445be4909b812ed5db8ded8669b512bcba91782881d11f10fe551570</t>
   </si>
   <si>
-    <t>HAUm82i2DcGPW2dlUnkAex+z9pI7QXjFFkfN7fvKH/NWHKCa5jaIHnZIjW0MHVx+WFJzNl5fsaPYQxDd7zePq9E=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1UxUzAyExCitVVyJENd4Ka9gN9rBDLUrw/view</t>
-  </si>
-  <si>
-    <t>Artem Levkin</t>
-  </si>
-  <si>
-    <t>4cfdcdc672279489b68a1e900b2f8aa296d28d2d40fb08c1c5ca14562a1d23b3</t>
+    <t>Natalya Dolgova</t>
+  </si>
+  <si>
+    <t>34ea29020672eb21280c</t>
   </si>
   <si>
     <t>34ea29020672eb21280caadaf19377833ae12495cae3cc9e297d0f4aefe0d428</t>
   </si>
   <si>
+    <t>29.08.2022</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1z6IhpWNludHIAApZXih8yz4bCn6-Vt8M/view</t>
+  </si>
+  <si>
     <t>HB24fr9zRBm8R7uXlw5zXiUP5eHW5ljJJrmCwOpRp/4YRjQ/TpqUsmm+GMG8fdOVEEIellnn+Sif/IFeHOuPX4Y=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/10aBMeumWTAVfoCF9OhzWdrjtrC26Zmc3/view</t>
   </si>
   <si>
-    <t>34ea29020672eb21280c</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1z6IhpWNludHIAApZXih8yz4bCn6-Vt8M/view</t>
-  </si>
-  <si>
-    <t>29.08.2022</t>
-  </si>
-  <si>
-    <t>Natalya Dolgova</t>
-  </si>
-  <si>
     <t>Artem Zubrych</t>
   </si>
   <si>
+    <t>905fa9409eec8ceee94c</t>
+  </si>
+  <si>
+    <t>bfdf2d5236562eef75432a510ff9b0b4cd7d37ac17547d3e0515f4891a736609</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1aaqnORxWfLkmccryV49_7kjl_X3ui3uK/view</t>
+  </si>
+  <si>
     <t>905fa9409eec8ceee94c08cd9f5410e03310ce041b58f41958ea440b3396b275</t>
   </si>
   <si>
+    <t>G2IQ96lhlCyrf6+zTqhN5F744yuKJvP3JOPKM+8RfwLsTNBoEcHKch31onlkxZG23com3sHuRJ3EVtQBirJEcLI=</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1MEjKKhuFeZ4mE0PM3kjRptb63VitKcTl/view</t>
   </si>
   <si>
-    <t>905fa9409eec8ceee94c</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1aaqnORxWfLkmccryV49_7kjl_X3ui3uK/view</t>
-  </si>
-  <si>
-    <t>bfdf2d5236562eef75432a510ff9b0b4cd7d37ac17547d3e0515f4891a736609</t>
-  </si>
-  <si>
-    <t>G2IQ96lhlCyrf6+zTqhN5F744yuKJvP3JOPKM+8RfwLsTNBoEcHKch31onlkxZG23com3sHuRJ3EVtQBirJEcLI=</t>
+    <t>drive.google.com/file/d/1tVAP8fauK_wN1JHJrB5yyDCelAvkutVt/view</t>
+  </si>
+  <si>
+    <t>HFOOeUrSvztcEv16aKHm4rhS4OG+5rifrKjnl2TLUMNuIvmOP+bmIwQ0R/CXhqPzLG93zNNZ7DDAzo4zX2JwqG0=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
+  </si>
+  <si>
+    <t>30.08.2022</t>
   </si>
   <si>
     <t>f4b8579fd5eced5139aa</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1tVAP8fauK_wN1JHJrB5yyDCelAvkutVt/view</t>
-  </si>
-  <si>
     <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
   </si>
   <si>
-    <t>HFOOeUrSvztcEv16aKHm4rhS4OG+5rifrKjnl2TLUMNuIvmOP+bmIwQ0R/CXhqPzLG93zNNZ7DDAzo4zX2JwqG0=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
-  </si>
-  <si>
-    <t>30.08.2022</t>
-  </si>
-  <si>
     <t>Valentyna Lytvynova</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1_UvD8BMIATW0UaJxtWCZTpytX5_CiSVw/view</t>
+  </si>
+  <si>
+    <t>a3cfa3e5bbc7bf47c73a50046cffe7f40a1126942a35d516dae7601a8d6e0c04</t>
+  </si>
+  <si>
+    <t>HC9onoqwiC9tBTjtH4rWK0sZBN201JY5gzQcOjtrnfrxCuyXuNML5tt7vBnK3gaErXQJAHBkpCgIGcSy2+VhT2o=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Es38UUfq4uF6K5m688upx26mH7dcLyOW/view</t>
+  </si>
+  <si>
     <t>Eugene Petrikeev</t>
   </si>
   <si>
-    <t>a3cfa3e5bbc7bf47c73a50046cffe7f40a1126942a35d516dae7601a8d6e0c04</t>
+    <t>a3cfa3e5bbc7bf47c73a</t>
   </si>
   <si>
     <t>ff01796886d91f5df69e2b999462ffdd868ad8a8ac105910698d4bf34eac760d</t>
   </si>
   <si>
-    <t>HC9onoqwiC9tBTjtH4rWK0sZBN201JY5gzQcOjtrnfrxCuyXuNML5tt7vBnK3gaErXQJAHBkpCgIGcSy2+VhT2o=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Es38UUfq4uF6K5m688upx26mH7dcLyOW/view</t>
-  </si>
-  <si>
-    <t>a3cfa3e5bbc7bf47c73a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1_UvD8BMIATW0UaJxtWCZTpytX5_CiSVw/view</t>
+    <t>drive.google.com/file/d/13RaHOAUhpp6-9qTwDPNevrtrVrYljiGr/view</t>
+  </si>
+  <si>
+    <t>G0id81/AyLv4L2f1Cpy38tuZKCexDvgAwCSDLEP2wFERBEUIL9DUFSHweqt5XpHRUrIGyIocTY4rw5X+3BRYVQo=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1_MqAQ9X0jUmXaREfYybJjbDFMxW4y_dV/view</t>
   </si>
   <si>
+    <t>Yurii Poberezhnyi</t>
+  </si>
+  <si>
     <t>f58f1fc15134ceb66672</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/13RaHOAUhpp6-9qTwDPNevrtrVrYljiGr/view</t>
-  </si>
-  <si>
     <t>f58f1fc15134ceb6667235bc35ca8e2bc62cf070e2a991a17d739ee3d744ec0a</t>
   </si>
   <si>
-    <t>G0id81/AyLv4L2f1Cpy38tuZKCexDvgAwCSDLEP2wFERBEUIL9DUFSHweqt5XpHRUrIGyIocTY4rw5X+3BRYVQo=</t>
-  </si>
-  <si>
-    <t>Yurii Poberezhnyi</t>
+    <t>drive.google.com/file/d/12VzupVGrvNkCAb6z0yEId3srZwjB3_oV/view</t>
+  </si>
+  <si>
+    <t>0c95f06fcccbe19e0bb6821d5f73206de2ba7ab6169774ac57630980fcfdf102</t>
+  </si>
+  <si>
+    <t>G0cRPgCnc9gR979fw7SNVKjn1dtzkepjD/26FOnoJgjmCLAqctDx/62xZZTvPJAQ4ByVKaMOKZLGISJxpBRjSxk=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1QyeAEZg9sPSyHyju9DCa692a7BZuOUIM/view</t>
   </si>
   <si>
     <t>07.09.2022</t>
   </si>
   <si>
+    <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
+  </si>
+  <si>
     <t>Alina Telnova</t>
   </si>
   <si>
-    <t>0c95f06fcccbe19e0bb6821d5f73206de2ba7ab6169774ac57630980fcfdf102</t>
-  </si>
-  <si>
-    <t>G0cRPgCnc9gR979fw7SNVKjn1dtzkepjD/26FOnoJgjmCLAqctDx/62xZZTvPJAQ4ByVKaMOKZLGISJxpBRjSxk=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1QyeAEZg9sPSyHyju9DCa692a7BZuOUIM/view</t>
-  </si>
-  <si>
     <t>0c95f06fcccbe19e0bb6</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/12VzupVGrvNkCAb6z0yEId3srZwjB3_oV/view</t>
-  </si>
-  <si>
-    <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
+    <t>a7a0e0e2fed389ffbc84aa75be30dc0262dac7620349a94e3f087de79d800aec</t>
+  </si>
+  <si>
+    <t>HGAuSB4G9iS8qnGaGbTZOELzGnfVIOzeYAr51TKyBEI+R81nW4taggKbD837pJohHVGrr04rH5jPlwzyVAlOZf8=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1sz_pAnlIqmiCE-IlVrYH0bVnlb9CO7k3/view</t>
+  </si>
+  <si>
+    <t>07.12.2022</t>
+  </si>
+  <si>
+    <t>Theory of database organization and basic SQL</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1a35HB3dZNIFVRKh5MYvwbUMgYIYIeJcJ/view</t>
   </si>
   <si>
     <t>af27ce942975c91a06dbe4593ddf563b104b6cff511a916a18e473e33a3c6685</t>
   </si>
   <si>
-    <t>HGAuSB4G9iS8qnGaGbTZOELzGnfVIOzeYAr51TKyBEI+R81nW4taggKbD837pJohHVGrr04rH5jPlwzyVAlOZf8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1sz_pAnlIqmiCE-IlVrYH0bVnlb9CO7k3/view</t>
-  </si>
-  <si>
-    <t>Theory of database organization and basic SQL</t>
+    <t>Oleksandra Ivanova</t>
   </si>
   <si>
     <t>a7a0e0e2fed389ffbc84</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1a35HB3dZNIFVRKh5MYvwbUMgYIYIeJcJ/view</t>
-  </si>
-  <si>
-    <t>07.12.2022</t>
-  </si>
-  <si>
-    <t>Oleksandra Ivanova</t>
-  </si>
-  <si>
-    <t>a7a0e0e2fed389ffbc84aa75be30dc0262dac7620349a94e3f087de79d800aec</t>
+    <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s=</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dPn1emgsi5zFE2rdfH7I8DPMum9OolMe/view</t>
+  </si>
+  <si>
+    <t>08.12.2022</t>
   </si>
   <si>
     <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
   </si>
   <si>
-    <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Ilona_Shevchenko_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>08.12.2022</t>
-  </si>
-  <si>
     <t>Ilona Shevchenko</t>
   </si>
   <si>
+    <t>HIgwLjNpC9EMttrwVCHCqYNaw9oP6JDSNC3WNNknWncLPhG4ednynhWTcdaeAX+FwguxVwPvX9m7LvvlPFKLdrQ=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Ievgeniia_Bondar_database_QR_codecreate.svg</t>
+  </si>
+  <si>
     <t>53a0b93122b1b19f00b1770fcf8346ff6b499f4d7d038539404febdb403dd2d5</t>
   </si>
   <si>
-    <t>HIgwLjNpC9EMttrwVCHCqYNaw9oP6JDSNC3WNNknWncLPhG4ednynhWTcdaeAX+FwguxVwPvX9m7LvvlPFKLdrQ=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Ievgeniia_Bondar_database_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Ievgeniia Bondar</t>
   </si>
   <si>
+    <t>Sofia Golets</t>
+  </si>
+  <si>
     <t>7175c0e9b3bfed99d34b5ff6205db6a1d738a6f59b1edc16625a3de5e5df2337</t>
   </si>
   <si>
     <t>HBabTC2ygOQ+iqxIRo7A4uu6gllcQml5FLggMVySfR6Db60y77BToxgXwXmdwrHtoN1Gua5C8I7MgdjeDLZ8JCo=</t>
   </si>
   <si>
-    <t>./qr/certificate_Sofia_Golets_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Sofia Golets</t>
+    <t>https://drive.google.com/file/d/1aZb6r5itq0xI1Xd0lp8z6Jnx0rTTD5qa/view</t>
+  </si>
+  <si>
+    <t>d329fb86a98533895cc967dcae966e81c1704bd665227e866aa2243d40f860d1</t>
   </si>
   <si>
     <t>Mykyta Tsyvinskyi</t>
   </si>
   <si>
-    <t>d329fb86a98533895cc967dcae966e81c1704bd665227e866aa2243d40f860d1</t>
-  </si>
-  <si>
     <t>HPq9RQ1vlbJ4N83dgUwLLBJcN4AFaUJYC8F8BVzxUkYDR6OqA/YcNOeiukloL3UmZXPkluIN4lwoBhMr6vEj8KA=</t>
   </si>
   <si>
-    <t>./qr/certificate_Mykyta_Tsyvinskyi_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Mykhailo_Sokolov_security_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1HhZECo5UXw-gq7DNe5YrlDM-CCOdkxcI/view</t>
+  </si>
+  <si>
+    <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
   </si>
   <si>
     <t>Cryptography and information security theory</t>
   </si>
   <si>
-    <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
-  </si>
-  <si>
     <t>G+LRDlMfhyvZO7qLoCtZi3Y4Q1yC/VmYJUOF79rRwGAGH93HyPOn0ZUp6fjZE87K+JkhhSiBVl2Pf+AGfNu10RA=</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1ijpF-G24aborBh2gm0fLtHEd4-M8LMTc/view</t>
+  </si>
+  <si>
+    <t>73728940f6f168a46120d32081278e9c30ab81815077aa212a721480bcebc441</t>
+  </si>
+  <si>
+    <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM=</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QpqzF4pLG3lSJ9HMR-DHFButig5LkGSd/view</t>
+  </si>
+  <si>
     <t>09.12.2022</t>
   </si>
   <si>
-    <t>73728940f6f168a46120d32081278e9c30ab81815077aa212a721480bcebc441</t>
-  </si>
-  <si>
-    <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Mykhailo_Sokolov_database_QR_codecreate.svg</t>
+    <t>G+YE6/0P9zPNxZ1YU3AR+TXthT9PlF8Gx3dM9k7Y2cNIIrTalRdUgSTwwSMu/mcimZUsZLZ5l2puCtwVP6ll5kI=</t>
   </si>
   <si>
     <t>./qr/certificate_Kateryna_Hordiienko_database_QR_codecreate.svg</t>
   </si>
   <si>
+    <t>Kateryna Hordiienko</t>
+  </si>
+  <si>
     <t>c2d70295e9cd94ea36fa993ddb5a6e20a0b88058287ff348b485f282fe98bcd7</t>
   </si>
   <si>
-    <t>G+YE6/0P9zPNxZ1YU3AR+TXthT9PlF8Gx3dM9k7Y2cNIIrTalRdUgSTwwSMu/mcimZUsZLZ5l2puCtwVP6ll5kI=</t>
-  </si>
-  <si>
-    <t>Kateryna Hordiienko</t>
+    <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
   </si>
   <si>
     <t>./qr/certificate_Viacheslav_Horbanov_database_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
+    <t>12.12.2022</t>
   </si>
   <si>
     <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU=</t>
   </si>
   <si>
-    <t>12.12.2022</t>
+    <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Yuliia_Aritkulova_database_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Yuliia Aritkulova</t>
@@ -1660,10 +1666,10 @@
     <t>dcc49868ac0482916b0fe63143198d93a159f912cae80d172fca6750a9b8223c</t>
   </si>
   <si>
-    <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Yuliia_Aritkulova_database_QR_codecreate.svg</t>
+    <t>G9WI+TMiMLY1UW9rtOW0ycI21KtE3yOBTQ511sJbmfIXWvRQanASycY6fUpVGhO7iM8gyJxecc4xx2ytHX1VgzY=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Oleksandr_Yevtushenko_database_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Oleksandr Yevtushenko</t>
@@ -1672,85 +1678,79 @@
     <t>69469e3a141e8845c7809e75806677b732754cb64a3ab7e27ee50c47defaa7cd</t>
   </si>
   <si>
-    <t>G9WI+TMiMLY1UW9rtOW0ycI21KtE3yOBTQ511sJbmfIXWvRQanASycY6fUpVGhO7iM8gyJxecc4xx2ytHX1VgzY=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Oleksandr_Yevtushenko_database_QR_codecreate.svg</t>
+    <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Mariia_Mahdalina_database_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
   </si>
   <si>
     <t>Mariia Mahdalina</t>
   </si>
   <si>
-    <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
-  </si>
-  <si>
-    <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Mariia_Mahdalina_database_QR_codecreate.svg</t>
+    <t>G6T2wslW9Mlopb7SNt9oGcOSZmjSMvsByzfIQBZfwVweUZ7U2Mi5N0BkW7xhpRFkMMCWlY1kHu4VefyQzGyK5dA=</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NHkRA4VF2jh-_uF6QhGjZwBn2uNIuAme/view</t>
   </si>
   <si>
     <t>766041da4e35a4d0486d569831f14d1b0170e9b3c0d5f3a1ad71da7b4dd65a40</t>
   </si>
   <si>
-    <t>G6T2wslW9Mlopb7SNt9oGcOSZmjSMvsByzfIQBZfwVweUZ7U2Mi5N0BkW7xhpRFkMMCWlY1kHu4VefyQzGyK5dA=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Yehor_Podporinov_security_QR_codecreate.svg</t>
+    <t>Anastasia Andreeva</t>
   </si>
   <si>
     <t>13.12.2022</t>
   </si>
   <si>
-    <t>Anastasia Andreeva</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
+    <t>./qr/certificate_Polina_Reshetnikova_database_QR_codecreate.svg</t>
+  </si>
+  <si>
+    <t>G63Lq+BtAcEqpIZphPzrLfd1K4chy2llUoMMBLMQGk5gdyNM+62UvBxqqOxckVeN2RtGC1vCiL0NvWNvEPfV4YE=</t>
+  </si>
+  <si>
     <t>Polina Reshetnikova</t>
   </si>
   <si>
     <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
   </si>
   <si>
-    <t>G63Lq+BtAcEqpIZphPzrLfd1K4chy2llUoMMBLMQGk5gdyNM+62UvBxqqOxckVeN2RtGC1vCiL0NvWNvEPfV4YE=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Polina_Reshetnikova_database_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>93620030db08953cbf17468ffde46134834b7da10958b5174e935d4e324ce081</t>
   </si>
   <si>
+    <t>./qr/certificate_Valentyna_Lytvynova_database_QR_codecreate.svg</t>
+  </si>
+  <si>
     <t>HHbiD8H1z2fwCjgA0K/0GymJl4RcCi3wnehCfa72EOF+RwXPgmdTom5TH/IQ6e5AjmLndgB/4YfHFtdBTD1hpx0=</t>
   </si>
   <si>
-    <t>./qr/certificate_Valentyna_Lytvynova_database_QR_codecreate.svg</t>
+    <t>HE5sTfhDSPPfvHdDSYkSvX2ZkktsyYMaoVxamHtpKMWoUxr7olw6SaItyMSztkPit37aQqfQ+YAsvCfZ01AcAwc=</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kC6eDnhgBQMuINY-Ck5fm0etpRcHmzTT/view</t>
   </si>
   <si>
     <t>b3240a1974bff838f35320554f851b14ea2bd31f46bcb893a35546b7ea8b3112</t>
   </si>
   <si>
-    <t>HE5sTfhDSPPfvHdDSYkSvX2ZkktsyYMaoVxamHtpKMWoUxr7olw6SaItyMSztkPit37aQqfQ+YAsvCfZ01AcAwc=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Illia_Popov_security_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>14.12.2022</t>
   </si>
   <si>
-    <t>./qr/certificate_Pasha_Charovatiy_database_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>151f4183ce68ec59b82ccbef71ac6f538e0eb86354c29ded27bca54fa4b95c99</t>
   </si>
   <si>
+    <t>Pasha Charovatiy</t>
+  </si>
+  <si>
     <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
   </si>
   <si>
-    <t>Pasha Charovatiy</t>
+    <t>https://drive.google.com/file/d/1KNSLtuBsekfpBxILlTwsCjsziE6eG29V/view</t>
   </si>
   <si>
     <t>Dmytro Serhiienko</t>
@@ -1762,67 +1762,67 @@
     <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y=</t>
   </si>
   <si>
-    <t>./qr/certificate_Dmytro_Serhiienko_database_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1XvJI9GFHMxe3ccQ4WF4oMEdDGHucRVl_/view</t>
+  </si>
+  <si>
+    <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Vladislav_Dmitrenko_security_QR_codecreate.svg</t>
   </si>
   <si>
     <t>890c4726435f6d5a1c10068273e8dd8a3ac0645a9564bbf149f0d74a891669c6</t>
   </si>
   <si>
-    <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Vladislav_Dmitrenko_security_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>Vladislav Dmitrenko</t>
   </si>
   <si>
+    <t>05f89d361327d9ef1679342cb8ed0488715da550cba8f0bdc7160caa43b5929c</t>
+  </si>
+  <si>
+    <t>Marina Rindina</t>
+  </si>
+  <si>
     <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
   </si>
   <si>
-    <t>./qr/certificate_Marina_Rindina_security_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>05f89d361327d9ef1679342cb8ed0488715da550cba8f0bdc7160caa43b5929c</t>
-  </si>
-  <si>
-    <t>Marina Rindina</t>
+    <t>https://drive.google.com/file/d/1w5gYvfTtj4sD7pHBUzBrLaM6bcwkJCRK/view</t>
+  </si>
+  <si>
+    <t>Nazar Franko</t>
   </si>
   <si>
     <t>15.12.2022</t>
   </si>
   <si>
-    <t>Nazar Franko</t>
-  </si>
-  <si>
     <t>Olha Drahomeretska</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
+  </si>
+  <si>
+    <t>./qr/certificate_Maksym_Cherniak_security_QR_codecreate.svg</t>
+  </si>
+  <si>
     <t>Maksym Cherniak</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>ac2b88ac92caf80b1207</t>
   </si>
   <si>
     <t>ac2b88ac92caf80b12076489c877b91785360487aa3135871883e597da139682</t>
   </si>
   <si>
-    <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Maksym_Cherniak_security_QR_codecreate.svg</t>
+    <t>3bf214d846d708bfad511d51d92350d45ba0bcf21f43b7bb46553ed2e0aad585</t>
+  </si>
+  <si>
+    <t>HDfq7iIvfl/KNv5Cs/GPeiZndLZYqskpWWIXt7VX3LunRfVInSqJiTeO33MHHKI8aX3Zz4VgDh7LV5fAg/zZPZk=</t>
   </si>
   <si>
     <t>./qr/certificate_Maksym_Cherniak__QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>3bf214d846d708bfad511d51d92350d45ba0bcf21f43b7bb46553ed2e0aad585</t>
-  </si>
-  <si>
-    <t>HDfq7iIvfl/KNv5Cs/GPeiZndLZYqskpWWIXt7VX3LunRfVInSqJiTeO33MHHKI8aX3Zz4VgDh7LV5fAg/zZPZk=</t>
   </si>
 </sst>
 </file>
@@ -2140,25 +2140,25 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -2166,103 +2166,103 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -2271,94 +2271,94 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -2367,30 +2367,30 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -2399,30 +2399,30 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -2431,30 +2431,30 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -2463,62 +2463,62 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -2527,30 +2527,30 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -2559,30 +2559,30 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -2591,30 +2591,30 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -2623,30 +2623,30 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
@@ -2655,126 +2655,126 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
@@ -2783,30 +2783,30 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
@@ -2815,30 +2815,30 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -2847,30 +2847,30 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -2879,62 +2879,62 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
         <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
         <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
@@ -2943,30 +2943,30 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
@@ -2975,25 +2975,25 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -3001,31 +3001,31 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -3033,31 +3033,31 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" t="s">
-        <v>62</v>
-      </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -3068,28 +3068,28 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -3100,28 +3100,28 @@
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
         <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -3132,28 +3132,28 @@
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
         <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -3164,28 +3164,28 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3196,28 +3196,28 @@
         <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3228,28 +3228,28 @@
         <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
         <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -3260,28 +3260,28 @@
         <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3289,31 +3289,31 @@
         <v>59</v>
       </c>
       <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
-      </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3321,121 +3321,121 @@
         <v>75</v>
       </c>
       <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
         <v>76</v>
       </c>
-      <c r="C38" t="s">
-        <v>80</v>
-      </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s">
         <v>83</v>
       </c>
       <c r="H38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
         <v>85</v>
       </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" t="s">
         <v>90</v>
       </c>
-      <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="J39" t="s">
         <v>91</v>
-      </c>
-      <c r="G39" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" t="s">
-        <v>88</v>
-      </c>
-      <c r="J39" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
         <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" t="s">
         <v>99</v>
-      </c>
-      <c r="I40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J40" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
         <v>100</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
         <v>101</v>
       </c>
-      <c r="C41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" t="s">
-        <v>105</v>
-      </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
         <v>106</v>
       </c>
       <c r="G41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" t="s">
         <v>107</v>
-      </c>
-      <c r="H41" t="s">
-        <v>102</v>
       </c>
       <c r="I41" t="s">
         <v>103</v>
@@ -3446,60 +3446,60 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
         <v>112</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
         <v>113</v>
       </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" t="s">
         <v>109</v>
       </c>
-      <c r="E42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
         <v>110</v>
       </c>
-      <c r="H42" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>111</v>
-      </c>
-      <c r="J42" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
         <v>120</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" t="s">
         <v>121</v>
       </c>
-      <c r="C43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" t="s">
-        <v>115</v>
-      </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
         <v>116</v>
       </c>
       <c r="G43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" t="s">
         <v>117</v>
-      </c>
-      <c r="H43" t="s">
-        <v>122</v>
       </c>
       <c r="I43" t="s">
         <v>118</v>
@@ -3510,34 +3510,34 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G44" t="s">
         <v>125</v>
       </c>
       <c r="H44" t="s">
+        <v>127</v>
+      </c>
+      <c r="I44" t="s">
+        <v>128</v>
+      </c>
+      <c r="J44" t="s">
         <v>129</v>
-      </c>
-      <c r="I44" t="s">
-        <v>126</v>
-      </c>
-      <c r="J44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -3545,249 +3545,249 @@
         <v>133</v>
       </c>
       <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" t="s">
         <v>134</v>
       </c>
-      <c r="C45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>131</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>135</v>
       </c>
-      <c r="I45" t="s">
-        <v>132</v>
-      </c>
       <c r="J45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
         <v>140</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H46" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" t="s">
+        <v>142</v>
+      </c>
+      <c r="J46" t="s">
         <v>143</v>
-      </c>
-      <c r="I46" t="s">
-        <v>137</v>
-      </c>
-      <c r="J46" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" t="s">
+        <v>147</v>
+      </c>
+      <c r="H47" t="s">
         <v>151</v>
       </c>
-      <c r="B47" t="s">
+      <c r="I47" t="s">
         <v>152</v>
       </c>
-      <c r="C47" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" t="s">
-        <v>148</v>
-      </c>
-      <c r="G47" t="s">
-        <v>149</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="J47" t="s">
         <v>153</v>
-      </c>
-      <c r="I47" t="s">
-        <v>150</v>
-      </c>
-      <c r="J47" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" t="s">
         <v>151</v>
       </c>
-      <c r="B48" t="s">
+      <c r="I48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J48" t="s">
         <v>159</v>
-      </c>
-      <c r="C48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48" t="s">
-        <v>155</v>
-      </c>
-      <c r="H48" t="s">
-        <v>153</v>
-      </c>
-      <c r="I48" t="s">
-        <v>156</v>
-      </c>
-      <c r="J48" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
         <v>165</v>
       </c>
-      <c r="B49" t="s">
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" t="s">
         <v>166</v>
       </c>
-      <c r="C49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="H49" t="s">
+        <v>151</v>
+      </c>
+      <c r="I49" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" t="s">
         <v>163</v>
-      </c>
-      <c r="E49" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G49" t="s">
-        <v>160</v>
-      </c>
-      <c r="H49" t="s">
-        <v>153</v>
-      </c>
-      <c r="I49" t="s">
-        <v>161</v>
-      </c>
-      <c r="J49" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" t="s">
+        <v>169</v>
+      </c>
+      <c r="H50" t="s">
+        <v>171</v>
+      </c>
+      <c r="I50" t="s">
+        <v>172</v>
+      </c>
+      <c r="J50" t="s">
         <v>173</v>
-      </c>
-      <c r="C50" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50" t="s">
-        <v>168</v>
-      </c>
-      <c r="H50" t="s">
-        <v>172</v>
-      </c>
-      <c r="I50" t="s">
-        <v>169</v>
-      </c>
-      <c r="J50" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
         <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
         <v>175</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F51" t="s">
+        <v>179</v>
+      </c>
+      <c r="G51" t="s">
         <v>176</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
+        <v>151</v>
+      </c>
+      <c r="I51" t="s">
         <v>177</v>
       </c>
-      <c r="H51" t="s">
-        <v>153</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>178</v>
-      </c>
-      <c r="J51" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
         <v>180</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
         <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F52" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52" t="s">
         <v>182</v>
       </c>
-      <c r="G52" t="s">
-        <v>183</v>
-      </c>
       <c r="H52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I52" t="s">
         <v>184</v>
@@ -3798,124 +3798,124 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s">
         <v>186</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G53" t="s">
         <v>188</v>
       </c>
       <c r="H53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F54" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G54" t="s">
         <v>194</v>
       </c>
       <c r="H54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I54" t="s">
+        <v>197</v>
+      </c>
+      <c r="J54" t="s">
         <v>195</v>
-      </c>
-      <c r="J54" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" t="s">
+        <v>201</v>
+      </c>
+      <c r="H55" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" t="s">
         <v>198</v>
       </c>
-      <c r="C55" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" t="s">
-        <v>201</v>
-      </c>
-      <c r="E55" t="s">
-        <v>147</v>
-      </c>
-      <c r="F55" t="s">
-        <v>202</v>
-      </c>
-      <c r="G55" t="s">
-        <v>203</v>
-      </c>
-      <c r="H55" t="s">
-        <v>153</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>199</v>
-      </c>
-      <c r="J55" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" t="s">
+        <v>209</v>
+      </c>
+      <c r="G56" t="s">
         <v>204</v>
       </c>
-      <c r="C56" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" t="s">
-        <v>209</v>
-      </c>
-      <c r="E56" t="s">
-        <v>147</v>
-      </c>
-      <c r="F56" t="s">
-        <v>205</v>
-      </c>
-      <c r="G56" t="s">
-        <v>206</v>
-      </c>
       <c r="H56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I56" t="s">
         <v>207</v>
@@ -3926,243 +3926,243 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" t="s">
         <v>165</v>
       </c>
-      <c r="B57" t="s">
+      <c r="E57" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" t="s">
         <v>166</v>
       </c>
-      <c r="C57" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="H57" t="s">
+        <v>151</v>
+      </c>
+      <c r="I57" t="s">
+        <v>162</v>
+      </c>
+      <c r="J57" t="s">
         <v>163</v>
-      </c>
-      <c r="E57" t="s">
-        <v>147</v>
-      </c>
-      <c r="F57" t="s">
-        <v>164</v>
-      </c>
-      <c r="G57" t="s">
-        <v>160</v>
-      </c>
-      <c r="H57" t="s">
-        <v>153</v>
-      </c>
-      <c r="I57" t="s">
-        <v>161</v>
-      </c>
-      <c r="J57" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" t="s">
+        <v>214</v>
+      </c>
+      <c r="E58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" t="s">
+        <v>211</v>
+      </c>
+      <c r="G58" t="s">
+        <v>215</v>
+      </c>
+      <c r="H58" t="s">
+        <v>151</v>
+      </c>
+      <c r="I58" t="s">
+        <v>212</v>
+      </c>
+      <c r="J58" t="s">
         <v>210</v>
-      </c>
-      <c r="C58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" t="s">
-        <v>211</v>
-      </c>
-      <c r="E58" t="s">
-        <v>147</v>
-      </c>
-      <c r="F58" t="s">
-        <v>212</v>
-      </c>
-      <c r="G58" t="s">
-        <v>213</v>
-      </c>
-      <c r="H58" t="s">
-        <v>153</v>
-      </c>
-      <c r="I58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J58" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" t="s">
         <v>221</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" t="s">
         <v>222</v>
       </c>
-      <c r="C59" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
         <v>219</v>
       </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
+        <v>223</v>
+      </c>
+      <c r="H59" t="s">
         <v>220</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>216</v>
       </c>
-      <c r="H59" t="s">
-        <v>223</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>217</v>
-      </c>
-      <c r="J59" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" t="s">
         <v>224</v>
       </c>
-      <c r="B60" t="s">
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>227</v>
+      </c>
+      <c r="G60" t="s">
         <v>225</v>
       </c>
-      <c r="C60" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" t="s">
-        <v>227</v>
-      </c>
-      <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>228</v>
       </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
         <v>229</v>
       </c>
-      <c r="H60" t="s">
-        <v>226</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>230</v>
-      </c>
-      <c r="J60" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B61" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F61" t="s">
         <v>234</v>
       </c>
       <c r="G61" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H61" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I61" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J61" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" t="s">
         <v>239</v>
       </c>
-      <c r="B62" t="s">
+      <c r="G62" t="s">
+        <v>245</v>
+      </c>
+      <c r="H62" t="s">
         <v>240</v>
       </c>
-      <c r="C62" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" t="s">
-        <v>245</v>
-      </c>
-      <c r="E62" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="I62" t="s">
         <v>241</v>
       </c>
-      <c r="G62" t="s">
+      <c r="J62" t="s">
         <v>242</v>
-      </c>
-      <c r="H62" t="s">
-        <v>238</v>
-      </c>
-      <c r="I62" t="s">
-        <v>243</v>
-      </c>
-      <c r="J62" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>249</v>
+      </c>
+      <c r="B63" t="s">
         <v>246</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" t="s">
         <v>247</v>
       </c>
-      <c r="C63" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
+        <v>250</v>
+      </c>
+      <c r="G63" t="s">
+        <v>248</v>
+      </c>
+      <c r="H63" t="s">
+        <v>251</v>
+      </c>
+      <c r="I63" t="s">
+        <v>252</v>
+      </c>
+      <c r="J63" t="s">
         <v>253</v>
-      </c>
-      <c r="E63" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" t="s">
-        <v>249</v>
-      </c>
-      <c r="G63" t="s">
-        <v>250</v>
-      </c>
-      <c r="H63" t="s">
-        <v>248</v>
-      </c>
-      <c r="I63" t="s">
-        <v>251</v>
-      </c>
-      <c r="J63" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B64" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F64" t="s">
         <v>258</v>
@@ -4171,103 +4171,103 @@
         <v>259</v>
       </c>
       <c r="H64" t="s">
+        <v>254</v>
+      </c>
+      <c r="I64" t="s">
+        <v>255</v>
+      </c>
+      <c r="J64" t="s">
         <v>256</v>
-      </c>
-      <c r="I64" t="s">
-        <v>260</v>
-      </c>
-      <c r="J64" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C65" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
         <v>265</v>
       </c>
       <c r="G65" t="s">
+        <v>264</v>
+      </c>
+      <c r="H65" t="s">
         <v>266</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
+        <v>267</v>
+      </c>
+      <c r="J65" t="s">
         <v>268</v>
-      </c>
-      <c r="I65" t="s">
-        <v>262</v>
-      </c>
-      <c r="J65" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" t="s">
+        <v>270</v>
+      </c>
+      <c r="C66" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" t="s">
+        <v>271</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>276</v>
+      </c>
+      <c r="G66" t="s">
+        <v>269</v>
+      </c>
+      <c r="H66" t="s">
+        <v>272</v>
+      </c>
+      <c r="I66" t="s">
+        <v>273</v>
+      </c>
+      <c r="J66" t="s">
         <v>274</v>
-      </c>
-      <c r="B66" t="s">
-        <v>275</v>
-      </c>
-      <c r="C66" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" t="s">
-        <v>269</v>
-      </c>
-      <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" t="s">
-        <v>270</v>
-      </c>
-      <c r="G66" t="s">
-        <v>271</v>
-      </c>
-      <c r="H66" t="s">
-        <v>276</v>
-      </c>
-      <c r="I66" t="s">
-        <v>272</v>
-      </c>
-      <c r="J66" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B67" t="s">
         <v>277</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
         <v>280</v>
       </c>
       <c r="G67" t="s">
+        <v>279</v>
+      </c>
+      <c r="H67" t="s">
         <v>281</v>
-      </c>
-      <c r="H67" t="s">
-        <v>278</v>
       </c>
       <c r="I67" t="s">
         <v>282</v>
@@ -4281,319 +4281,319 @@
         <v>284</v>
       </c>
       <c r="B68" t="s">
+        <v>288</v>
+      </c>
+      <c r="C68" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" t="s">
+        <v>289</v>
+      </c>
+      <c r="E68" t="s">
+        <v>146</v>
+      </c>
+      <c r="F68" t="s">
         <v>285</v>
       </c>
-      <c r="C68" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="G68" t="s">
+        <v>290</v>
+      </c>
+      <c r="H68" t="s">
+        <v>151</v>
+      </c>
+      <c r="I68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J68" t="s">
         <v>287</v>
-      </c>
-      <c r="E68" t="s">
-        <v>147</v>
-      </c>
-      <c r="F68" t="s">
-        <v>288</v>
-      </c>
-      <c r="G68" t="s">
-        <v>289</v>
-      </c>
-      <c r="H68" t="s">
-        <v>153</v>
-      </c>
-      <c r="I68" t="s">
-        <v>290</v>
-      </c>
-      <c r="J68" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D69" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
         <v>295</v>
       </c>
-      <c r="E69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" t="s">
-        <v>291</v>
-      </c>
       <c r="G69" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H69" t="s">
         <v>296</v>
       </c>
       <c r="I69" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="J69" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B70" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
         <v>305</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G70" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H70" t="s">
         <v>299</v>
       </c>
       <c r="I70" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J70" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B71" t="s">
         <v>306</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s">
+        <v>307</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>311</v>
+      </c>
+      <c r="G71" t="s">
         <v>308</v>
       </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
+        <v>312</v>
+      </c>
+      <c r="I71" t="s">
         <v>309</v>
       </c>
-      <c r="G71" t="s">
+      <c r="J71" t="s">
         <v>310</v>
-      </c>
-      <c r="H71" t="s">
-        <v>307</v>
-      </c>
-      <c r="I71" t="s">
-        <v>311</v>
-      </c>
-      <c r="J71" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B72" t="s">
+        <v>316</v>
+      </c>
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" t="s">
+        <v>317</v>
+      </c>
+      <c r="E72" t="s">
+        <v>146</v>
+      </c>
+      <c r="F72" t="s">
+        <v>314</v>
+      </c>
+      <c r="G72" t="s">
         <v>318</v>
       </c>
-      <c r="C72" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="H72" t="s">
+        <v>151</v>
+      </c>
+      <c r="I72" t="s">
         <v>315</v>
       </c>
-      <c r="E72" t="s">
-        <v>147</v>
-      </c>
-      <c r="F72" t="s">
-        <v>316</v>
-      </c>
-      <c r="G72" t="s">
-        <v>317</v>
-      </c>
-      <c r="H72" t="s">
-        <v>153</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>313</v>
-      </c>
-      <c r="J72" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B73" t="s">
         <v>324</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D73" t="s">
+        <v>325</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>322</v>
+      </c>
+      <c r="G73" t="s">
+        <v>326</v>
+      </c>
+      <c r="H73" t="s">
+        <v>323</v>
+      </c>
+      <c r="I73" t="s">
         <v>319</v>
       </c>
-      <c r="E73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="J73" t="s">
         <v>320</v>
-      </c>
-      <c r="G73" t="s">
-        <v>321</v>
-      </c>
-      <c r="H73" t="s">
-        <v>325</v>
-      </c>
-      <c r="I73" t="s">
-        <v>322</v>
-      </c>
-      <c r="J73" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B74" t="s">
+        <v>327</v>
+      </c>
+      <c r="C74" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" t="s">
+        <v>328</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
         <v>332</v>
       </c>
-      <c r="C74" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" t="s">
-        <v>330</v>
-      </c>
-      <c r="E74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" t="s">
-        <v>331</v>
-      </c>
       <c r="G74" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H74" t="s">
         <v>333</v>
       </c>
       <c r="I74" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J74" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B75" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D75" t="s">
+        <v>335</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
         <v>338</v>
       </c>
-      <c r="E75" t="s">
-        <v>21</v>
-      </c>
-      <c r="F75" t="s">
-        <v>334</v>
-      </c>
       <c r="G75" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H75" t="s">
         <v>339</v>
       </c>
       <c r="I75" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J75" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B76" t="s">
+        <v>343</v>
+      </c>
+      <c r="C76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" t="s">
+        <v>344</v>
+      </c>
+      <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
+        <v>345</v>
+      </c>
+      <c r="G76" t="s">
+        <v>342</v>
+      </c>
+      <c r="H76" t="s">
+        <v>151</v>
+      </c>
+      <c r="I76" t="s">
+        <v>346</v>
+      </c>
+      <c r="J76" t="s">
         <v>347</v>
-      </c>
-      <c r="C76" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76" t="s">
-        <v>342</v>
-      </c>
-      <c r="E76" t="s">
-        <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>343</v>
-      </c>
-      <c r="G76" t="s">
-        <v>344</v>
-      </c>
-      <c r="H76" t="s">
-        <v>153</v>
-      </c>
-      <c r="I76" t="s">
-        <v>345</v>
-      </c>
-      <c r="J76" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B77" t="s">
+        <v>349</v>
+      </c>
+      <c r="C77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" t="s">
+        <v>350</v>
+      </c>
+      <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
+        <v>351</v>
+      </c>
+      <c r="G77" t="s">
         <v>348</v>
       </c>
-      <c r="C77" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="H77" t="s">
+        <v>151</v>
+      </c>
+      <c r="I77" t="s">
+        <v>352</v>
+      </c>
+      <c r="J77" t="s">
         <v>353</v>
-      </c>
-      <c r="E77" t="s">
-        <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>349</v>
-      </c>
-      <c r="G77" t="s">
-        <v>350</v>
-      </c>
-      <c r="H77" t="s">
-        <v>153</v>
-      </c>
-      <c r="I77" t="s">
-        <v>351</v>
-      </c>
-      <c r="J77" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="78">
@@ -4601,31 +4601,31 @@
         <v>354</v>
       </c>
       <c r="B78" t="s">
+        <v>358</v>
+      </c>
+      <c r="C78" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" t="s">
+        <v>359</v>
+      </c>
+      <c r="E78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
         <v>355</v>
       </c>
-      <c r="C78" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="G78" t="s">
+        <v>360</v>
+      </c>
+      <c r="H78" t="s">
+        <v>151</v>
+      </c>
+      <c r="I78" t="s">
         <v>356</v>
       </c>
-      <c r="E78" t="s">
-        <v>147</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="J78" t="s">
         <v>357</v>
-      </c>
-      <c r="G78" t="s">
-        <v>358</v>
-      </c>
-      <c r="H78" t="s">
-        <v>153</v>
-      </c>
-      <c r="I78" t="s">
-        <v>359</v>
-      </c>
-      <c r="J78" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="79">
@@ -4633,31 +4633,31 @@
         <v>354</v>
       </c>
       <c r="B79" t="s">
+        <v>367</v>
+      </c>
+      <c r="C79" t="s">
+        <v>149</v>
+      </c>
+      <c r="D79" t="s">
+        <v>365</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>361</v>
+      </c>
+      <c r="G79" t="s">
         <v>366</v>
       </c>
-      <c r="C79" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="H79" t="s">
         <v>362</v>
       </c>
-      <c r="E79" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="I79" t="s">
         <v>363</v>
       </c>
-      <c r="G79" t="s">
+      <c r="J79" t="s">
         <v>364</v>
-      </c>
-      <c r="H79" t="s">
-        <v>367</v>
-      </c>
-      <c r="I79" t="s">
-        <v>365</v>
-      </c>
-      <c r="J79" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="80">
@@ -4665,31 +4665,31 @@
         <v>354</v>
       </c>
       <c r="B80" t="s">
+        <v>372</v>
+      </c>
+      <c r="C80" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" t="s">
+        <v>373</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
         <v>368</v>
       </c>
-      <c r="C80" t="s">
-        <v>145</v>
-      </c>
-      <c r="D80" t="s">
-        <v>370</v>
-      </c>
-      <c r="E80" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" t="s">
-        <v>371</v>
-      </c>
       <c r="G80" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H80" t="s">
         <v>369</v>
       </c>
       <c r="I80" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J80" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81">
@@ -4697,223 +4697,223 @@
         <v>354</v>
       </c>
       <c r="B81" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C81" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D81" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
         <v>378</v>
       </c>
       <c r="G81" t="s">
+        <v>376</v>
+      </c>
+      <c r="H81" t="s">
         <v>379</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
+        <v>380</v>
+      </c>
+      <c r="J81" t="s">
         <v>381</v>
-      </c>
-      <c r="I81" t="s">
-        <v>375</v>
-      </c>
-      <c r="J81" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>387</v>
+      </c>
+      <c r="B82" t="s">
         <v>382</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" t="s">
         <v>383</v>
       </c>
-      <c r="C82" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" t="s">
+        <v>388</v>
+      </c>
+      <c r="G82" t="s">
+        <v>384</v>
+      </c>
+      <c r="H82" t="s">
+        <v>389</v>
+      </c>
+      <c r="I82" t="s">
         <v>385</v>
       </c>
-      <c r="E82" t="s">
-        <v>21</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="J82" t="s">
         <v>386</v>
-      </c>
-      <c r="G82" t="s">
-        <v>387</v>
-      </c>
-      <c r="H82" t="s">
-        <v>384</v>
-      </c>
-      <c r="I82" t="s">
-        <v>388</v>
-      </c>
-      <c r="J82" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B83" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C83" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D83" t="s">
         <v>395</v>
       </c>
       <c r="E83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
+        <v>390</v>
+      </c>
+      <c r="G83" t="s">
         <v>396</v>
-      </c>
-      <c r="G83" t="s">
-        <v>392</v>
       </c>
       <c r="H83" t="s">
         <v>391</v>
       </c>
       <c r="I83" t="s">
+        <v>392</v>
+      </c>
+      <c r="J83" t="s">
         <v>393</v>
-      </c>
-      <c r="J83" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B84" t="s">
+        <v>403</v>
+      </c>
+      <c r="C84" t="s">
+        <v>149</v>
+      </c>
+      <c r="D84" t="s">
+        <v>401</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>397</v>
+      </c>
+      <c r="G84" t="s">
         <v>402</v>
       </c>
-      <c r="C84" t="s">
-        <v>145</v>
-      </c>
-      <c r="D84" t="s">
-        <v>397</v>
-      </c>
-      <c r="E84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="H84" t="s">
         <v>398</v>
       </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
         <v>399</v>
       </c>
-      <c r="H84" t="s">
-        <v>403</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>400</v>
-      </c>
-      <c r="J84" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B85" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C85" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D85" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F85" t="s">
         <v>407</v>
       </c>
       <c r="G85" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H85" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I85" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J85" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B86" t="s">
+        <v>415</v>
+      </c>
+      <c r="C86" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86" t="s">
         <v>416</v>
       </c>
-      <c r="C86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>412</v>
+      </c>
+      <c r="G86" t="s">
+        <v>417</v>
+      </c>
+      <c r="H86" t="s">
+        <v>413</v>
+      </c>
+      <c r="I86" t="s">
         <v>414</v>
       </c>
-      <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" t="s">
-        <v>415</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="J86" t="s">
         <v>411</v>
-      </c>
-      <c r="H86" t="s">
-        <v>417</v>
-      </c>
-      <c r="I86" t="s">
-        <v>412</v>
-      </c>
-      <c r="J86" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B87" t="s">
+        <v>421</v>
+      </c>
+      <c r="C87" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" t="s">
         <v>422</v>
       </c>
-      <c r="C87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D87" t="s">
-        <v>418</v>
-      </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F87" t="s">
         <v>419</v>
       </c>
       <c r="G87" t="s">
+        <v>423</v>
+      </c>
+      <c r="H87" t="s">
         <v>420</v>
       </c>
-      <c r="H87" t="s">
-        <v>423</v>
-      </c>
       <c r="I87" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J87" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88">
@@ -4921,31 +4921,31 @@
         <v>429</v>
       </c>
       <c r="B88" t="s">
+        <v>424</v>
+      </c>
+      <c r="C88" t="s">
+        <v>149</v>
+      </c>
+      <c r="D88" t="s">
+        <v>425</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
         <v>430</v>
       </c>
-      <c r="C88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D88" t="s">
-        <v>427</v>
-      </c>
-      <c r="E88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" t="s">
-        <v>428</v>
-      </c>
       <c r="G88" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H88" t="s">
         <v>431</v>
       </c>
       <c r="I88" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J88" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="89">
@@ -4953,89 +4953,89 @@
         <v>429</v>
       </c>
       <c r="B89" t="s">
+        <v>436</v>
+      </c>
+      <c r="C89" t="s">
+        <v>149</v>
+      </c>
+      <c r="D89" t="s">
+        <v>437</v>
+      </c>
+      <c r="E89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" t="s">
+        <v>434</v>
+      </c>
+      <c r="G89" t="s">
+        <v>438</v>
+      </c>
+      <c r="H89" t="s">
+        <v>435</v>
+      </c>
+      <c r="I89" t="s">
         <v>432</v>
       </c>
-      <c r="C89" t="s">
-        <v>145</v>
-      </c>
-      <c r="D89" t="s">
-        <v>434</v>
-      </c>
-      <c r="E89" t="s">
-        <v>21</v>
-      </c>
-      <c r="F89" t="s">
-        <v>435</v>
-      </c>
-      <c r="G89" t="s">
-        <v>436</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="J89" t="s">
         <v>433</v>
-      </c>
-      <c r="I89" t="s">
-        <v>437</v>
-      </c>
-      <c r="J89" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B90" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C90" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D90" t="s">
+        <v>440</v>
+      </c>
+      <c r="E90" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" t="s">
         <v>443</v>
       </c>
-      <c r="E90" t="s">
-        <v>21</v>
-      </c>
-      <c r="F90" t="s">
-        <v>439</v>
-      </c>
       <c r="G90" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H90" t="s">
         <v>444</v>
       </c>
       <c r="I90" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="J90" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>450</v>
+      </c>
+      <c r="B91" t="s">
         <v>447</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" t="s">
         <v>448</v>
       </c>
-      <c r="C91" t="s">
-        <v>145</v>
-      </c>
-      <c r="D91" t="s">
-        <v>450</v>
-      </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s">
         <v>451</v>
       </c>
       <c r="G91" t="s">
+        <v>449</v>
+      </c>
+      <c r="H91" t="s">
         <v>452</v>
-      </c>
-      <c r="H91" t="s">
-        <v>449</v>
       </c>
       <c r="I91" t="s">
         <v>453</v>
@@ -5046,252 +5046,252 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B92" t="s">
+        <v>459</v>
+      </c>
+      <c r="C92" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" t="s">
         <v>460</v>
       </c>
-      <c r="C92" t="s">
-        <v>145</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
         <v>455</v>
       </c>
-      <c r="E92" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
+        <v>461</v>
+      </c>
+      <c r="H92" t="s">
         <v>456</v>
       </c>
-      <c r="G92" t="s">
+      <c r="I92" t="s">
         <v>457</v>
       </c>
-      <c r="H92" t="s">
-        <v>461</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>458</v>
-      </c>
-      <c r="J92" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B93" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C93" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D93" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F93" t="s">
         <v>466</v>
       </c>
       <c r="G93" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I93" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="J93" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B94" t="s">
         <v>469</v>
       </c>
       <c r="C94" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D94" t="s">
+        <v>470</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
         <v>472</v>
       </c>
-      <c r="E94" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
+        <v>471</v>
+      </c>
+      <c r="H94" t="s">
         <v>473</v>
       </c>
-      <c r="G94" t="s">
+      <c r="I94" t="s">
         <v>474</v>
       </c>
-      <c r="H94" t="s">
-        <v>470</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>475</v>
-      </c>
-      <c r="J94" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B95" t="s">
         <v>482</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D95" t="s">
+        <v>480</v>
+      </c>
+      <c r="E95" t="s">
+        <v>146</v>
+      </c>
+      <c r="F95" t="s">
         <v>476</v>
       </c>
-      <c r="E95" t="s">
-        <v>147</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
+        <v>481</v>
+      </c>
+      <c r="H95" t="s">
+        <v>151</v>
+      </c>
+      <c r="I95" t="s">
         <v>477</v>
       </c>
-      <c r="G95" t="s">
+      <c r="J95" t="s">
         <v>478</v>
-      </c>
-      <c r="H95" t="s">
-        <v>153</v>
-      </c>
-      <c r="I95" t="s">
-        <v>479</v>
-      </c>
-      <c r="J95" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B96" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C96" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D96" t="s">
         <v>488</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
+        <v>483</v>
+      </c>
+      <c r="G96" t="s">
         <v>489</v>
-      </c>
-      <c r="G96" t="s">
-        <v>485</v>
       </c>
       <c r="H96" t="s">
         <v>484</v>
       </c>
       <c r="I96" t="s">
+        <v>485</v>
+      </c>
+      <c r="J96" t="s">
         <v>486</v>
-      </c>
-      <c r="J96" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B97" t="s">
+        <v>493</v>
+      </c>
+      <c r="C97" t="s">
+        <v>149</v>
+      </c>
+      <c r="D97" t="s">
+        <v>494</v>
+      </c>
+      <c r="E97" t="s">
+        <v>146</v>
+      </c>
+      <c r="F97" t="s">
+        <v>490</v>
+      </c>
+      <c r="G97" t="s">
         <v>495</v>
       </c>
-      <c r="C97" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="H97" t="s">
+        <v>151</v>
+      </c>
+      <c r="I97" t="s">
         <v>491</v>
       </c>
-      <c r="E97" t="s">
-        <v>147</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="J97" t="s">
         <v>492</v>
-      </c>
-      <c r="G97" t="s">
-        <v>493</v>
-      </c>
-      <c r="H97" t="s">
-        <v>153</v>
-      </c>
-      <c r="I97" t="s">
-        <v>494</v>
-      </c>
-      <c r="J97" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>500</v>
+      </c>
+      <c r="B98" t="s">
+        <v>502</v>
+      </c>
+      <c r="C98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D98" t="s">
+        <v>503</v>
+      </c>
+      <c r="E98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" t="s">
         <v>496</v>
       </c>
-      <c r="B98" t="s">
+      <c r="G98" t="s">
+        <v>501</v>
+      </c>
+      <c r="H98" t="s">
         <v>497</v>
       </c>
-      <c r="C98" t="s">
-        <v>145</v>
-      </c>
-      <c r="D98" t="s">
-        <v>501</v>
-      </c>
-      <c r="E98" t="s">
-        <v>21</v>
-      </c>
-      <c r="F98" t="s">
-        <v>502</v>
-      </c>
-      <c r="G98" t="s">
-        <v>503</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>498</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>499</v>
-      </c>
-      <c r="J98" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B99" t="s">
         <v>511</v>
       </c>
       <c r="C99" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D99" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F99" t="s">
         <v>509</v>
       </c>
       <c r="G99" t="s">
+        <v>510</v>
+      </c>
+      <c r="H99" t="s">
         <v>504</v>
-      </c>
-      <c r="H99" t="s">
-        <v>512</v>
       </c>
       <c r="I99" t="s">
         <v>505</v>
@@ -5302,124 +5302,124 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B100" t="s">
         <v>517</v>
       </c>
       <c r="C100" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G100" t="s">
+        <v>516</v>
+      </c>
+      <c r="H100" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" t="s">
         <v>513</v>
       </c>
-      <c r="H100" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>514</v>
-      </c>
-      <c r="J100" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B101" t="s">
         <v>521</v>
       </c>
       <c r="C101" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G101" t="s">
+        <v>520</v>
+      </c>
+      <c r="H101" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" t="s">
         <v>518</v>
       </c>
-      <c r="H101" t="s">
-        <v>12</v>
-      </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>519</v>
-      </c>
-      <c r="J101" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B102" t="s">
+        <v>522</v>
+      </c>
+      <c r="C102" t="s">
+        <v>508</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>523</v>
+      </c>
+      <c r="H102" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" t="s">
+        <v>524</v>
+      </c>
+      <c r="J102" t="s">
         <v>525</v>
-      </c>
-      <c r="C102" t="s">
-        <v>507</v>
-      </c>
-      <c r="D102" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>522</v>
-      </c>
-      <c r="H102" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" t="s">
-        <v>523</v>
-      </c>
-      <c r="J102" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B103" t="s">
+        <v>527</v>
+      </c>
+      <c r="C103" t="s">
+        <v>508</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
         <v>526</v>
       </c>
-      <c r="C103" t="s">
-        <v>507</v>
-      </c>
-      <c r="D103" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>527</v>
-      </c>
       <c r="H103" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I103" t="s">
         <v>528</v>
@@ -5430,231 +5430,231 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B104" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C104" t="s">
         <v>531</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G104" t="s">
+        <v>530</v>
+      </c>
+      <c r="H104" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" t="s">
         <v>532</v>
       </c>
-      <c r="H104" t="s">
-        <v>12</v>
-      </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>533</v>
-      </c>
-      <c r="J104" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>537</v>
+      </c>
+      <c r="B105" t="s">
+        <v>436</v>
+      </c>
+      <c r="C105" t="s">
+        <v>508</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
         <v>534</v>
       </c>
-      <c r="B105" t="s">
-        <v>432</v>
-      </c>
-      <c r="C105" t="s">
-        <v>507</v>
-      </c>
-      <c r="D105" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" t="s">
         <v>535</v>
       </c>
-      <c r="H105" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>536</v>
-      </c>
-      <c r="J105" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B106" t="s">
+        <v>540</v>
+      </c>
+      <c r="C106" t="s">
+        <v>508</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
         <v>541</v>
       </c>
-      <c r="C106" t="s">
-        <v>507</v>
-      </c>
-      <c r="D106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" t="s">
+        <v>538</v>
+      </c>
+      <c r="J106" t="s">
         <v>539</v>
-      </c>
-      <c r="H106" t="s">
-        <v>12</v>
-      </c>
-      <c r="I106" t="s">
-        <v>540</v>
-      </c>
-      <c r="J106" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>544</v>
+      </c>
+      <c r="B107" t="s">
+        <v>377</v>
+      </c>
+      <c r="C107" t="s">
+        <v>508</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>542</v>
+      </c>
+      <c r="H107" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" t="s">
         <v>545</v>
       </c>
-      <c r="B107" t="s">
-        <v>380</v>
-      </c>
-      <c r="C107" t="s">
-        <v>507</v>
-      </c>
-      <c r="D107" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="J107" t="s">
         <v>543</v>
-      </c>
-      <c r="H107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I107" t="s">
-        <v>544</v>
-      </c>
-      <c r="J107" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B108" t="s">
+        <v>548</v>
+      </c>
+      <c r="C108" t="s">
+        <v>508</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>549</v>
+      </c>
+      <c r="H108" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" t="s">
         <v>546</v>
       </c>
-      <c r="C108" t="s">
-        <v>507</v>
-      </c>
-      <c r="D108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="J108" t="s">
         <v>547</v>
-      </c>
-      <c r="H108" t="s">
-        <v>12</v>
-      </c>
-      <c r="I108" t="s">
-        <v>548</v>
-      </c>
-      <c r="J108" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B109" t="s">
+        <v>552</v>
+      </c>
+      <c r="C109" t="s">
+        <v>508</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>553</v>
+      </c>
+      <c r="H109" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" t="s">
         <v>550</v>
       </c>
-      <c r="C109" t="s">
-        <v>507</v>
-      </c>
-      <c r="D109" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="J109" t="s">
         <v>551</v>
-      </c>
-      <c r="H109" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109" t="s">
-        <v>552</v>
-      </c>
-      <c r="J109" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B110" t="s">
+        <v>557</v>
+      </c>
+      <c r="C110" t="s">
+        <v>508</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>556</v>
+      </c>
+      <c r="H110" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" t="s">
         <v>554</v>
       </c>
-      <c r="C110" t="s">
-        <v>507</v>
-      </c>
-      <c r="D110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="J110" t="s">
         <v>555</v>
-      </c>
-      <c r="H110" t="s">
-        <v>12</v>
-      </c>
-      <c r="I110" t="s">
-        <v>556</v>
-      </c>
-      <c r="J110" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B111" t="s">
         <v>306</v>
@@ -5663,153 +5663,153 @@
         <v>531</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G111" t="s">
+        <v>560</v>
+      </c>
+      <c r="H111" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" t="s">
         <v>558</v>
       </c>
-      <c r="H111" t="s">
-        <v>12</v>
-      </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>559</v>
-      </c>
-      <c r="J111" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>562</v>
+      </c>
+      <c r="B112" t="s">
         <v>561</v>
       </c>
-      <c r="B112" t="s">
-        <v>562</v>
-      </c>
       <c r="C112" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H112" t="s">
         <v>563</v>
       </c>
       <c r="I112" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J112" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B113" t="s">
+        <v>566</v>
+      </c>
+      <c r="C113" t="s">
+        <v>508</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>567</v>
+      </c>
+      <c r="H113" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" t="s">
+        <v>565</v>
+      </c>
+      <c r="J113" t="s">
         <v>564</v>
-      </c>
-      <c r="C113" t="s">
-        <v>507</v>
-      </c>
-      <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>565</v>
-      </c>
-      <c r="H113" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113" t="s">
-        <v>566</v>
-      </c>
-      <c r="J113" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B114" t="s">
         <v>482</v>
       </c>
       <c r="C114" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G114" t="s">
         <v>568</v>
       </c>
       <c r="H114" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I114" t="s">
+        <v>570</v>
+      </c>
+      <c r="J114" t="s">
         <v>569</v>
-      </c>
-      <c r="J114" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B115" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C115" t="s">
         <v>531</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G115" t="s">
+        <v>573</v>
+      </c>
+      <c r="H115" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" t="s">
         <v>571</v>
       </c>
-      <c r="H115" t="s">
-        <v>12</v>
-      </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>572</v>
-      </c>
-      <c r="J115" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="116">
@@ -5820,28 +5820,28 @@
         <v>306</v>
       </c>
       <c r="C116" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H116" t="s">
         <v>563</v>
       </c>
       <c r="I116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
@@ -5849,31 +5849,31 @@
         <v>574</v>
       </c>
       <c r="B117" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C117" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H117" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I117" t="s">
         <v>577</v>
       </c>
       <c r="J117" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="118">
@@ -5884,22 +5884,22 @@
         <v>579</v>
       </c>
       <c r="C118" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G118" t="s">
         <v>580</v>
       </c>
       <c r="H118" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I118" t="s">
         <v>581</v>
@@ -5919,25 +5919,25 @@
         <v>531</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G119" t="s">
+        <v>585</v>
+      </c>
+      <c r="H119" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" t="s">
         <v>583</v>
       </c>
-      <c r="H119" t="s">
-        <v>12</v>
-      </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>584</v>
-      </c>
-      <c r="J119" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="120">
@@ -5945,159 +5945,159 @@
         <v>574</v>
       </c>
       <c r="B120" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C120" t="s">
         <v>531</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G120" t="s">
+        <v>587</v>
+      </c>
+      <c r="H120" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" t="s">
         <v>589</v>
       </c>
-      <c r="H120" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120" t="s">
-        <v>587</v>
-      </c>
       <c r="J120" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>592</v>
+      </c>
+      <c r="B121" t="s">
         <v>591</v>
       </c>
-      <c r="B121" t="s">
-        <v>592</v>
-      </c>
       <c r="C121" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H121" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B122" t="s">
         <v>593</v>
       </c>
       <c r="C122" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H122" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B123" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C123" t="s">
         <v>531</v>
       </c>
       <c r="D123" t="s">
+        <v>598</v>
+      </c>
+      <c r="E123" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>599</v>
+      </c>
+      <c r="H123" t="s">
+        <v>594</v>
+      </c>
+      <c r="I123" t="s">
+        <v>595</v>
+      </c>
+      <c r="J123" t="s">
         <v>596</v>
-      </c>
-      <c r="E123" t="s">
-        <v>21</v>
-      </c>
-      <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>597</v>
-      </c>
-      <c r="H123" t="s">
-        <v>595</v>
-      </c>
-      <c r="I123" t="s">
-        <v>598</v>
-      </c>
-      <c r="J123" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B124" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C124" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G124" t="s">
+        <v>600</v>
+      </c>
+      <c r="H124" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" t="s">
         <v>601</v>
       </c>
-      <c r="H124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>602</v>
-      </c>
-      <c r="J124" t="s">
-        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,36 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
   <si>
     <t>SERIAL NUMBER</t>
   </si>
   <si>
+    <t>NOTE</t>
+  </si>
+  <si>
     <t>CERTIFICATE</t>
   </si>
   <si>
+    <t>DATA HASH</t>
+  </si>
+  <si>
+    <t>TRANSACTION HASH</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
+  <si>
+    <t>DIGITAL CERTIFICATE</t>
+  </si>
+  <si>
     <t>COURSE TITLE</t>
   </si>
   <si>
-    <t>PARTICIPANT</t>
-  </si>
-  <si>
-    <t>NOTE</t>
-  </si>
-  <si>
-    <t>DATA HASH</t>
-  </si>
-  <si>
-    <t>TRANSACTION HASH</t>
-  </si>
-  <si>
     <t>SIGNATURE</t>
   </si>
   <si>
-    <t>DIGITAL CERTIFICATE</t>
-  </si>
-  <si>
-    <t>DATE</t>
+    <t>Біткоїн та криптовалюти</t>
   </si>
   <si>
     <t/>
@@ -52,60 +55,57 @@
     <t>25.06.2015</t>
   </si>
   <si>
-    <t>Біткоїн та криптовалюти</t>
+    <t>Петро Петрович Воробієнко</t>
+  </si>
+  <si>
+    <t>ginesis certificate</t>
   </si>
   <si>
     <t>private link</t>
   </si>
   <si>
-    <t>Петро Петрович Воробієнко</t>
-  </si>
-  <si>
-    <t>ginesis certificate</t>
+    <t>Cryptocurrencies and Distributed Systems</t>
+  </si>
+  <si>
+    <t>10.05.2016</t>
+  </si>
+  <si>
+    <t>Nikita Magda</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1xobiD9wUIQcesMkrmh5x2x_aWnibPkqI/view</t>
   </si>
   <si>
-    <t>10.05.2016</t>
-  </si>
-  <si>
-    <t>Cryptocurrencies and Distributed Systems</t>
-  </si>
-  <si>
-    <t>Nikita Magda</t>
+    <t>Нестеров Максим</t>
+  </si>
+  <si>
+    <t>graduated with honors</t>
   </si>
   <si>
     <t>drive.google.com/file/d/18lYidkmWMBuBxR0FU0OIGuQ8doTz8zQs/view</t>
   </si>
   <si>
-    <t>Нестеров Максим</t>
-  </si>
-  <si>
-    <t>graduated with honors</t>
-  </si>
-  <si>
     <t>Alexey Shendrick</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1KuJR4GYiRyC4Oh6Z6q-u9fpqe-EPWabk/view</t>
+  </si>
+  <si>
     <t>Anastasia Sapozhkova</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1KuJR4GYiRyC4Oh6Z6q-u9fpqe-EPWabk/view</t>
-  </si>
-  <si>
     <t>Den Galkin</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1xd3b6fXkkagcyEeiMZ1P7kKH_BM1BRuv/view</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1tuaBB_KFOTHOfTmXgov42E2v6sHShUdb/view</t>
+  </si>
+  <si>
     <t>Daniyil Yakovlev</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1tuaBB_KFOTHOfTmXgov42E2v6sHShUdb/view</t>
-  </si>
-  <si>
     <t>Алексей Демидов</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>Денис Руденко</t>
   </si>
   <si>
+    <t>Illia Fariatiev</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1Tyr0ky3sNg-lcDGdEe0-MKG0dzpL3TQA/view</t>
   </si>
   <si>
-    <t>Illia Fariatiev</t>
-  </si>
-  <si>
     <t>Костюк Александр</t>
   </si>
   <si>
@@ -136,51 +136,51 @@
     <t>Синельников Александр</t>
   </si>
   <si>
+    <t>Скрипник Александр</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1W0bokyIjw-j_5942KinD1ZRB1ges5fhb/view</t>
   </si>
   <si>
-    <t>Скрипник Александр</t>
+    <t>Солонский Александр</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1RneErBs-OBbV0KjvY5blYuFHfkwtyNRh/view</t>
   </si>
   <si>
-    <t>Солонский Александр</t>
+    <t>31.10.2016</t>
   </si>
   <si>
     <t>Anton Zaporozhchenko</t>
   </si>
   <si>
-    <t>31.10.2016</t>
-  </si>
-  <si>
     <t>Oleksiy Ponomorev</t>
   </si>
   <si>
+    <t>Pavel Brilliant</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1YHz2l23Dy_FAB_zBAXxkehxN9ZvR7T99/view</t>
   </si>
   <si>
-    <t>Pavel Brilliant</t>
+    <t>Volodymyr Kavetskyy</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1dhsj1ZCPOPwvKc6arWVDAveu1h0EoY_l/view</t>
   </si>
   <si>
-    <t>Volodymyr Kavetskyy</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1N0y-Y_QVKO2DDn06IuDVESkeKJ5LoiDN/view</t>
   </si>
   <si>
     <t>Vladyslav Minakov</t>
   </si>
   <si>
+    <t>03.03.2017</t>
+  </si>
+  <si>
     <t>Yevheniia Shchypeleva</t>
   </si>
   <si>
-    <t>03.03.2017</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1AcBsG13D5jBJ3_w506hQOHHs_iJD2Jwt/view</t>
   </si>
   <si>
@@ -190,15 +190,15 @@
     <t>Heorhii Kholodov</t>
   </si>
   <si>
+    <t>Blockchain and Distributed Systems</t>
+  </si>
+  <si>
     <t>Aleksandr Gnatyuk</t>
   </si>
   <si>
     <t>30.05.2018</t>
   </si>
   <si>
-    <t>Blockchain and Distributed Systems</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1JYRb1u6DI1z4mB3s1z8SSiiGDwdh_IhH/view</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Aleksandr Ivanov</t>
   </si>
   <si>
+    <t>Artyom Ahmetzyanov</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1dKebMjrvUlgGa3iO-WyfqWoE2EuPbGCV/view</t>
   </si>
   <si>
-    <t>Artyom Ahmetzyanov</t>
-  </si>
-  <si>
     <t>Oleksii Khramov</t>
   </si>
   <si>
@@ -235,61 +235,70 @@
     <t>Ilya Svetaylo</t>
   </si>
   <si>
+    <t>Dmytro Mandych</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1AT9DeYKwkp9NKSF3bb4Vdr1JtdlzltPp/view</t>
   </si>
   <si>
-    <t>Dmytro Mandych</t>
+    <t>Basic Level in Decentralized Technologies</t>
+  </si>
+  <si>
+    <t>G6/C1S2XpwhcvDAGp/fvUWUBET+OlYdOP5LnW6gBIOlhR8phT652b46fy8YlvQ9DbbNynZ/DfRUiotWAFIhBhlU=</t>
+  </si>
+  <si>
+    <t>6e70ac729189b0e0097a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1BBaI1GopSevCSWKbBRWeownYk8eDv7MB/view</t>
+  </si>
+  <si>
+    <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
+  </si>
+  <si>
+    <t>6e70ac729189b0e0097a6e7bcfec69494538bf4736cdb17a9fe9bd1582fe2e95</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1T9IlKrmEJbx1bh1O1jPwTkuazCstW7gz/view</t>
   </si>
   <si>
     <t>26.05.2020</t>
   </si>
   <si>
-    <t>Basic Level in Decentralized Technologies</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1BBaI1GopSevCSWKbBRWeownYk8eDv7MB/view</t>
-  </si>
-  <si>
-    <t>6e70ac729189b0e0097a6e7bcfec69494538bf4736cdb17a9fe9bd1582fe2e95</t>
-  </si>
-  <si>
-    <t>G6/C1S2XpwhcvDAGp/fvUWUBET+OlYdOP5LnW6gBIOlhR8phT652b46fy8YlvQ9DbbNynZ/DfRUiotWAFIhBhlU=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1T9IlKrmEJbx1bh1O1jPwTkuazCstW7gz/view</t>
-  </si>
-  <si>
     <t>Petr Murzin</t>
   </si>
   <si>
-    <t>6e70ac729189b0e0097a</t>
-  </si>
-  <si>
-    <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
+    <t>80b4017b0b2d571867a2</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1B00wgJ6gYotdnedRkemkU_JBPFt1H4xd/view</t>
+  </si>
+  <si>
+    <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
+  </si>
+  <si>
+    <t>80b4017b0b2d571867a20c183448a98b8a4dc0d52f134e363772da7dca5b5a06</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/12OpLxs1aK-BTF1PebTXrsMh4zxKH_wen/view</t>
+  </si>
+  <si>
+    <t>28.05.2020</t>
   </si>
   <si>
     <t>Lovkin Ivan</t>
   </si>
   <si>
-    <t>80b4017b0b2d571867a2</t>
-  </si>
-  <si>
-    <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
-  </si>
-  <si>
-    <t>28.05.2020</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1B00wgJ6gYotdnedRkemkU_JBPFt1H4xd/view</t>
-  </si>
-  <si>
-    <t>80b4017b0b2d571867a20c183448a98b8a4dc0d52f134e363772da7dca5b5a06</t>
-  </si>
-  <si>
     <t>G4/MsM7bSvAPVr7C5IXyo2TnOz+ZwqdlVNpBidWCbpuzC+JkRBEjbhY/lkPH7VtAhp8EOYgyLA2ID6F4GhqUY84=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/12OpLxs1aK-BTF1PebTXrsMh4zxKH_wen/view</t>
+    <t>HM5GZ+rTicq0RKhj0bFs+2fpeD7O+kpSJnLKYgEw3HaNYvb3HW/VNAjwQR1DXGHUEqofERXjtLW1G8JMk4q2O1g=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bX5sis1H79_hFn7wh4-Sh00aeO_e7yFq/view</t>
+  </si>
+  <si>
+    <t>30.05.2020</t>
   </si>
   <si>
     <t>Nikita Moskovkin</t>
@@ -298,22 +307,28 @@
     <t>694d0f5a7afe6fbc99cb</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
+  </si>
+  <si>
     <t>8dd5355ff30fcc74f42b09a276bf3f8c4bfadb9074adff5d3661f186029628c5</t>
   </si>
   <si>
-    <t>30.05.2020</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
-  </si>
-  <si>
     <t>694d0f5a7afe6fbc99cb56819a09f9fa0e8b66b07180bb555d98593a0f7d5d41</t>
   </si>
   <si>
-    <t>HM5GZ+rTicq0RKhj0bFs+2fpeD7O+kpSJnLKYgEw3HaNYvb3HW/VNAjwQR1DXGHUEqofERXjtLW1G8JMk4q2O1g=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1bX5sis1H79_hFn7wh4-Sh00aeO_e7yFq/view</t>
+    <t>drive.google.com/file/d/1IIYEmVzJwRrLeeAC2mvbJPBgnsiuCbgX/view</t>
+  </si>
+  <si>
+    <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
+  </si>
+  <si>
+    <t>2b6aadb041197def922aff8cb257af872568b572362c2f19fdb2468228e58569</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1DIotRiCyqr6U7vuXvDVWTrwbYMpd8-tp/view</t>
+  </si>
+  <si>
+    <t>03.06.2020</t>
   </si>
   <si>
     <t>Valeriy Gello</t>
@@ -322,88 +337,76 @@
     <t>2b6aadb041197def922a</t>
   </si>
   <si>
-    <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
-  </si>
-  <si>
     <t>HPXPxUNV1rO31el0TjnHFXDe0tBCoiQSC2o12BSvZFW1TNa1atBAmZb7ZrJ7vjBOzLYTbvCsfGf6NaSBZmpI1R0=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1DIotRiCyqr6U7vuXvDVWTrwbYMpd8-tp/view</t>
-  </si>
-  <si>
-    <t>03.06.2020</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1IIYEmVzJwRrLeeAC2mvbJPBgnsiuCbgX/view</t>
-  </si>
-  <si>
-    <t>2b6aadb041197def922aff8cb257af872568b572362c2f19fdb2468228e58569</t>
+    <t>7dfdd6abd5c883c7c876202d91386257e48337f55209b774f35d4eea4efe5df4</t>
+  </si>
+  <si>
+    <t>72008d9bb1a357ae7d6efc7520283e59adb638b44be971a41438ae3635beca20</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HToZ3ouEVe-2rFezzJSnetG4rkJl4wb5/view</t>
   </si>
   <si>
     <t>21.08.2020</t>
   </si>
   <si>
-    <t>72008d9bb1a357ae7d6efc7520283e59adb638b44be971a41438ae3635beca20</t>
+    <t>Elizabeth Gurieva</t>
+  </si>
+  <si>
+    <t>72008d9bb1a357ae7d6e</t>
   </si>
   <si>
     <t>G/ltW+rOPMYiEf/bzUkMzj7W5syoNvcTi1i++MOcDD8LJwSKAaoFS+c0TmDOwIZDyqaVwk6QYu1MfsGJw7+KZ8g=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1HToZ3ouEVe-2rFezzJSnetG4rkJl4wb5/view</t>
-  </si>
-  <si>
-    <t>Elizabeth Gurieva</t>
-  </si>
-  <si>
-    <t>72008d9bb1a357ae7d6e</t>
-  </si>
-  <si>
-    <t>7dfdd6abd5c883c7c876202d91386257e48337f55209b774f35d4eea4efe5df4</t>
+    <t>HJqrp6YpiFPfileEaqKJDnwfvu15NL6LlwLDM3NSIXu9Rd9ir011tVJPyRSDxL5NUwqyiY5Be55Z3VObN4rH/nQ=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1sMqTvx1fDXHx-OeU1r4uA1Z3kzVIMKAn/view</t>
+  </si>
+  <si>
+    <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
+  </si>
+  <si>
+    <t>91053d5330c4b99d88272eb9c214b2f57c8522c2b473b54d5e250b422de6e24b</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
   </si>
   <si>
     <t>15.09.2020</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1sMqTvx1fDXHx-OeU1r4uA1Z3kzVIMKAn/view</t>
-  </si>
-  <si>
-    <t>91053d5330c4b99d88272eb9c214b2f57c8522c2b473b54d5e250b422de6e24b</t>
-  </si>
-  <si>
-    <t>HJqrp6YpiFPfileEaqKJDnwfvu15NL6LlwLDM3NSIXu9Rd9ir011tVJPyRSDxL5NUwqyiY5Be55Z3VObN4rH/nQ=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
-  </si>
-  <si>
     <t>Alexander Zhovnuvaty</t>
   </si>
   <si>
     <t>91053d5330c4b99d8827</t>
   </si>
   <si>
-    <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
+    <t>508f78ad5c0df80128b0</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Wzemb_7VWsXKUqEMEuniXiEqqCU6NR1X/view</t>
+  </si>
+  <si>
+    <t>7368eab2f4fa6157cb3f67d39e8526bc1b91a852be6a70cddcbb6067c8b400f5</t>
+  </si>
+  <si>
+    <t>508f78ad5c0df80128b059d5367511650f12c1c999a2873f5a5bdfa0c3cd9294</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1s59oNqnl8rvcFITI-56v1nt_VCOHq94D/view</t>
   </si>
   <si>
     <t>Nikolay Scherbakov</t>
   </si>
   <si>
-    <t>508f78ad5c0df80128b0</t>
-  </si>
-  <si>
-    <t>7368eab2f4fa6157cb3f67d39e8526bc1b91a852be6a70cddcbb6067c8b400f5</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Wzemb_7VWsXKUqEMEuniXiEqqCU6NR1X/view</t>
-  </si>
-  <si>
-    <t>508f78ad5c0df80128b059d5367511650f12c1c999a2873f5a5bdfa0c3cd9294</t>
-  </si>
-  <si>
     <t>G7fNdjrRdRCgCqs32IBGetb1WmNZTLKq4VdxIE2xZRAONYfBhaC++AKXc/TWLJ1iJ6vRlR5V1AGGRJa8VcJDRks=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1s59oNqnl8rvcFITI-56v1nt_VCOHq94D/view</t>
+    <t>16.09.2020</t>
   </si>
   <si>
     <t>Anonymous</t>
@@ -415,37 +418,43 @@
     <t>2b4075806aa1180a35b6b6718701374debfd505b954491160ac09a4ebf1d632c</t>
   </si>
   <si>
-    <t>16.09.2020</t>
-  </si>
-  <si>
     <t>9976212738b45235cfd6f208ccae9ca14da64a06bcb5304d8bb422d00ff1540d</t>
   </si>
   <si>
     <t>HOozi22vAuznvsCYdPeFGpfEsgVv/RPDvKEBNLr3Kjh2ZNMwqnGETY/MTNluCe+mJBLtg4ig6yOhtqyY0VWavFU=</t>
   </si>
   <si>
+    <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
+  </si>
+  <si>
+    <t>cd9b18ee000a3ab57d740ee8b2a2330632f070a69ff9efdd8ecdc6c8230e2e11</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/10KBS_dIRNDhekiu_k9NiRZq_tLz9wFLJ/view</t>
+  </si>
+  <si>
+    <t>17.09.2020</t>
+  </si>
+  <si>
     <t>Aleksandr Khomutov</t>
   </si>
   <si>
     <t>cd9b18ee000a3ab57d74</t>
   </si>
   <si>
-    <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
-  </si>
-  <si>
-    <t>17.09.2020</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1HDfg3clKtJbjQEEtI2yxSv51_fDRYWRn/view</t>
   </si>
   <si>
-    <t>cd9b18ee000a3ab57d740ee8b2a2330632f070a69ff9efdd8ecdc6c8230e2e11</t>
-  </si>
-  <si>
     <t>HOq9ZhrQ00V8PHtEc7PLbgREykAE4fSaVIbPozy6iTxNKZmzV7JHxsT5aQobJF+D1Hu+Hj++PUAVwscGr1K8ydg=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/10KBS_dIRNDhekiu_k9NiRZq_tLz9wFLJ/view</t>
+    <t>–</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/19iQXgKAz6f9TVn-PH7XNVjURb69Cog1K/view</t>
+  </si>
+  <si>
+    <t>12.29.2021</t>
   </si>
   <si>
     <t>Tetiana Diachuk</t>
@@ -457,64 +466,64 @@
     <t>Listener only</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
+  </si>
+  <si>
     <t>0f8a70da32b47c86fa69a39dd522c99b25802700a336d49e16a760eea763f4b1</t>
   </si>
   <si>
-    <t>12.29.2021</t>
-  </si>
-  <si>
     <t>Beginner at theoretical aspects blockchain technology</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
-  </si>
-  <si>
-    <t>–</t>
-  </si>
-  <si>
     <t>HCKQDvhlFx194rKcO7OKfVKVHm8iJgs5HBTYDDoPUT1zbt/WBBbpt3FwSlXhjLHeFALjBPeDsJ0+FlqjYJrcedE=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/19iQXgKAz6f9TVn-PH7XNVjURb69Cog1K/view</t>
-  </si>
-  <si>
     <t>Yatskiv Vasyl</t>
   </si>
   <si>
     <t>157083727495af019be1</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1FZ2SgaDMIJRp10hntSqe1gLrAUG9DHpM/view</t>
+  </si>
+  <si>
     <t>157083727495af019be18396a5b6fb784fb8fdf515e7069698ea538039655ea2</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1FZ2SgaDMIJRp10hntSqe1gLrAUG9DHpM/view</t>
+    <t>drive.google.com/file/d/16W1PgiFDe8yDvOAKUfipXQuF54CGJwOr/view</t>
   </si>
   <si>
     <t>GwuoELh5wGDbKgdx/iwOEwB1aYpRhZGvqoWHkCMl2GldW99XUUjugdXMecd1OG2SKwwMXofLc4+rAxXvTnt+cCU=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/16W1PgiFDe8yDvOAKUfipXQuF54CGJwOr/view</t>
+    <t>HEq8g+MEi+GvEmvTK4osdDCOUv0zrtlFXz3jX58hUEpuGtiwefAAUrsqS6PizJncb1B9qyY6GiaVMtDN4AGXjuA=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1HmqEySvyMucrLal0DQ8-Vhc0ALSaBJgo/view</t>
+  </si>
+  <si>
+    <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1ryCRznjmAN1vpfuTCHcFPCtIzw-dl20L/view</t>
   </si>
   <si>
     <t>24.05.2022</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1HmqEySvyMucrLal0DQ8-Vhc0ALSaBJgo/view</t>
-  </si>
-  <si>
-    <t>HEq8g+MEi+GvEmvTK4osdDCOUv0zrtlFXz3jX58hUEpuGtiwefAAUrsqS6PizJncb1B9qyY6GiaVMtDN4AGXjuA=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1ryCRznjmAN1vpfuTCHcFPCtIzw-dl20L/view</t>
-  </si>
-  <si>
     <t>Viktoriia Kovalenko</t>
   </si>
   <si>
     <t>c94b544cf914bfa7a011</t>
   </si>
   <si>
-    <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
+    <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
+  </si>
+  <si>
+    <t>31e612cbb30ee1e0b131836790253817c04031043f623abb460c83208fafa932</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1KnXAljoWMcSRaMbBCkrmp_U3hzb_asxc/view</t>
   </si>
   <si>
     <t>Artem Lytvynov</t>
@@ -523,19 +532,16 @@
     <t>31e612cbb30ee1e0b131</t>
   </si>
   <si>
-    <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1RBczYKwSRmMu4zAoVVmnWvjgkl0tENzG/view</t>
   </si>
   <si>
-    <t>31e612cbb30ee1e0b131836790253817c04031043f623abb460c83208fafa932</t>
-  </si>
-  <si>
     <t>HERmuZzuSW3wNNWRroC2QNMxKOMuAdjg4gxhbcA/9UHiA/lhyfJJRi4RDzmC1ToYWKgUdyANuExL857Jh5UphPk=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1KnXAljoWMcSRaMbBCkrmp_U3hzb_asxc/view</t>
+    <t>HDWEh9ESydNwt1uGPeE27CIKeMKPy+O87vrhEELOeECTIKgu9VndiSLOpNThFwKWV+2oMh8SMAjRbBHZ8RxF8Qo=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1oa4_pnjVk863Kfi7CxIgvLXEUczkVxHS/view</t>
   </si>
   <si>
     <t>Taras Horun</t>
@@ -544,16 +550,22 @@
     <t>321d5bc0b6acda5a08db</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1GxBJoJ4QVMY5O6BDlBGtx-tJAcxj-f6s/view</t>
+  </si>
+  <si>
     <t>321d5bc0b6acda5a08dbd6e3b151c27d1951c01e36b674970fe5bb02a33d5d2e</t>
   </si>
   <si>
-    <t>HDWEh9ESydNwt1uGPeE27CIKeMKPy+O87vrhEELOeECTIKgu9VndiSLOpNThFwKWV+2oMh8SMAjRbBHZ8RxF8Qo=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1oa4_pnjVk863Kfi7CxIgvLXEUczkVxHS/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1GxBJoJ4QVMY5O6BDlBGtx-tJAcxj-f6s/view</t>
+    <t>HE4WVZfpHDM927pj2Gbc9lOZhBRopu9jToBZfr7D62mneKWV8M75X8Q2SZc4tnXE/3LeWTqxpIkzc9Xy6DqvUqE=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Aal0m_o5pRV8rfXsm8wDWIqIg36jUqvx/view</t>
+  </si>
+  <si>
+    <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1YDow8GoX8mnMZNo20qBTbJw8-YHXDU5u/view</t>
   </si>
   <si>
     <t>Anastasiia Slota</t>
@@ -562,16 +574,13 @@
     <t>5d71857f9a99d5d85ed7</t>
   </si>
   <si>
-    <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Aal0m_o5pRV8rfXsm8wDWIqIg36jUqvx/view</t>
-  </si>
-  <si>
-    <t>HE4WVZfpHDM927pj2Gbc9lOZhBRopu9jToBZfr7D62mneKWV8M75X8Q2SZc4tnXE/3LeWTqxpIkzc9Xy6DqvUqE=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1YDow8GoX8mnMZNo20qBTbJw8-YHXDU5u/view</t>
+    <t>drive.google.com/file/d/17vX52MGbM2gkG3qqa1fz-ERnrQbdcw4y/view</t>
+  </si>
+  <si>
+    <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bfp7feXW3jlCWM6JNgL66zeE8LHm4X-Y/view</t>
   </si>
   <si>
     <t>Yuriy Melnychuk</t>
@@ -580,16 +589,10 @@
     <t>4b973cdc099c10811c1b</t>
   </si>
   <si>
-    <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/17vX52MGbM2gkG3qqa1fz-ERnrQbdcw4y/view</t>
-  </si>
-  <si>
     <t>G09Pu89zZ+mW2gdSx729xoRrBvWoumXJAYLuporfSBGdbAJOMCqKcBPj8R2VtP4sJbwNZAWnmvuqpJqZU6h83hQ=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1bfp7feXW3jlCWM6JNgL66zeE8LHm4X-Y/view</t>
+    <t>GxwV1QU9bkNovno07/2Qf5RnVqi33IIX/h2qm9QewYuqQO6/ULkKQG+dc47LvkhphEUWoWaEai8xaIVxIvH3mxQ=</t>
   </si>
   <si>
     <t>Vladyslav Mazur</t>
@@ -598,208 +601,217 @@
     <t>e9bf9426eb214a6e36c8</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1JY1qkLvZnhJoC7eW8zecnwqdN2ADtZBQ/view</t>
+  </si>
+  <si>
     <t>e9bf9426eb214a6e36c83520cbd22f2b58d44e518597ce9887c5c65d029ed683</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1bilaW63V87r9jkQgRfz_fevbeWN6NFyo/view</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1JY1qkLvZnhJoC7eW8zecnwqdN2ADtZBQ/view</t>
-  </si>
-  <si>
-    <t>GxwV1QU9bkNovno07/2Qf5RnVqi33IIX/h2qm9QewYuqQO6/ULkKQG+dc47LvkhphEUWoWaEai8xaIVxIvH3mxQ=</t>
-  </si>
-  <si>
     <t>G0/HbGdGK3B0R9z8wip7gA/5JeSvjkSeA7lcGfugt/KcNVV1VKo36tLg+Qi79IEd3lr9lE92CXfNXZ8c3GeiPc0=</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1l0atb8z64jklpxeGi48llMRwrNeoKf0y/view</t>
+  </si>
+  <si>
+    <t>33571c3c57728ede717b2bf46df346305cbeca3e966b76cf15369f7411ddabef</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/18pj8mEa0wJ5A_Nt1l6RNMZ9iTH4oUWSC/view</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1l0atb8z64jklpxeGi48llMRwrNeoKf0y/view</t>
-  </si>
-  <si>
-    <t>33571c3c57728ede717b2bf46df346305cbeca3e966b76cf15369f7411ddabef</t>
-  </si>
-  <si>
     <t>Hanna Zhurba</t>
   </si>
   <si>
     <t>33571c3c57728ede717b</t>
   </si>
   <si>
+    <t>Viktoriia Holoshchapova</t>
+  </si>
+  <si>
+    <t>96250fd24ef42b3b059c</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Rl7QRlGxtywdMCDmM-i2aXCzulou-hLS/view</t>
+  </si>
+  <si>
     <t>96250fd24ef42b3b059c7f85867ca063298d0784f07d7b3d4a19da04dbf6f4c7</t>
   </si>
   <si>
-    <t>Viktoriia Holoshchapova</t>
-  </si>
-  <si>
-    <t>96250fd24ef42b3b059c</t>
+    <t>drive.google.com/file/d/1V1S4zVBvdZ7u0qWNpj70QbU_Qv1ZSwcz/view</t>
   </si>
   <si>
     <t>Gwgj57Jqz9+NMhDQlcZmobwbWCi8h4ESrKASdManWz5saGNNFwx832peyy6A/lp8DsUFzZzOihp1V/OspkMps9k=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1V1S4zVBvdZ7u0qWNpj70QbU_Qv1ZSwcz/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Rl7QRlGxtywdMCDmM-i2aXCzulou-hLS/view</t>
+    <t>G22mibmMslmyD8rrY2ltE5Tcm9wjiNndNugd3f4Ant1qdwTC2A9jhFQ04ORFamlLGr+mI2MryPJAFIY7R3Zco1E=</t>
+  </si>
+  <si>
+    <t>638039974f462d2a16fa4959a86c265addbc78b4b6d26dddbcf4a9d2b69ae9d7</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1kWKcfuN3wKIueLCmFLK6eUxWZA5-cjqw/view</t>
   </si>
   <si>
+    <t>Nikita Liashko</t>
+  </si>
+  <si>
+    <t>638039974f462d2a16fa</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/16683RbvjBsJBFBrLwtLwWlQJUfTiD0Xd/view</t>
   </si>
   <si>
-    <t>G22mibmMslmyD8rrY2ltE5Tcm9wjiNndNugd3f4Ant1qdwTC2A9jhFQ04ORFamlLGr+mI2MryPJAFIY7R3Zco1E=</t>
-  </si>
-  <si>
-    <t>Nikita Liashko</t>
-  </si>
-  <si>
-    <t>638039974f462d2a16fa</t>
-  </si>
-  <si>
-    <t>638039974f462d2a16fa4959a86c265addbc78b4b6d26dddbcf4a9d2b69ae9d7</t>
+    <t>drive.google.com/file/d/1R38xCu4uADZnLmaMGWWjBOj2A6I7JcLz/view</t>
+  </si>
+  <si>
+    <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
+  </si>
+  <si>
+    <t>a4f695eb1f54152d096fac83f42a2627f1da6e57869febbc0736945533b39dfd</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1TDVQcx6mYo_axvH3qcg0bBW7BCkSdPJk/view</t>
+  </si>
+  <si>
+    <t>27.05.2022</t>
+  </si>
+  <si>
+    <t>Oleksandr Ishchuk</t>
+  </si>
+  <si>
+    <t>a4f695eb1f54152d096f</t>
   </si>
   <si>
     <t>Gy1CS1DczVCPKEqFIMhNAUjvlti1rZpp602WQhpANZcrbJR7A1bxVMqZhWo7ziNLPEs4gZ7mDvo3dxQp/9mnWSo=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1TDVQcx6mYo_axvH3qcg0bBW7BCkSdPJk/view</t>
-  </si>
-  <si>
-    <t>27.05.2022</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1R38xCu4uADZnLmaMGWWjBOj2A6I7JcLz/view</t>
-  </si>
-  <si>
-    <t>a4f695eb1f54152d096fac83f42a2627f1da6e57869febbc0736945533b39dfd</t>
-  </si>
-  <si>
-    <t>Oleksandr Ishchuk</t>
-  </si>
-  <si>
-    <t>a4f695eb1f54152d096f</t>
-  </si>
-  <si>
-    <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
+    <t>GyBuSdCpBacrzfMlYsJ5PDr4kBqEmHBvlnL0u9xd/ItkbXqWgvr/Q9+ABS7Uk9qAKPyM3fdTHMixab+7EMHk/L8=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1uuFsi_lO84LjMgoGI-KaAdqUW3DbX-tN/view</t>
+  </si>
+  <si>
+    <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
+  </si>
+  <si>
+    <t>ef5d4d97d20b05335375d36faf95f1674a1bd9f02b236e07c0628e68e6718479</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1MKUolIBpxp8Nd7QKNEIztYq__Y2ke8r0/view</t>
+  </si>
+  <si>
+    <t>30.05.2022</t>
+  </si>
+  <si>
+    <t>Sofiia Zharkikh</t>
   </si>
   <si>
     <t>ef5d4d97d20b05335375</t>
   </si>
   <si>
-    <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
-  </si>
-  <si>
-    <t>Sofiia Zharkikh</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1uuFsi_lO84LjMgoGI-KaAdqUW3DbX-tN/view</t>
-  </si>
-  <si>
-    <t>ef5d4d97d20b05335375d36faf95f1674a1bd9f02b236e07c0628e68e6718479</t>
-  </si>
-  <si>
-    <t>GyBuSdCpBacrzfMlYsJ5PDr4kBqEmHBvlnL0u9xd/ItkbXqWgvr/Q9+ABS7Uk9qAKPyM3fdTHMixab+7EMHk/L8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1MKUolIBpxp8Nd7QKNEIztYq__Y2ke8r0/view</t>
-  </si>
-  <si>
-    <t>30.05.2022</t>
+    <t>drive.google.com/file/d/1GQPhLpRDH3qx8itRN2swMzNVTA3S9zkA/view</t>
+  </si>
+  <si>
+    <t>Ruslan Ovsiienko</t>
+  </si>
+  <si>
+    <t>bde11c3468f03baaa52b</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1erHD2ben8dQ0hZznVAMHsWoOEoZ5W5ZI/view</t>
+  </si>
+  <si>
+    <t>bde11c3468f03baaa52b69b1d0037713d6e1656efbe22bbe443616867c8ce1d1</t>
   </si>
   <si>
     <t>GwsGfQUBZbaRTtUuqe9ZxFOBG5KREIZQe9idjrsAJkyJS4iDGMvYzQl95ycTMmbSYE9y6HCVXw5XjQl4/UJmBF0=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1GQPhLpRDH3qx8itRN2swMzNVTA3S9zkA/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1erHD2ben8dQ0hZznVAMHsWoOEoZ5W5ZI/view</t>
-  </si>
-  <si>
-    <t>Ruslan Ovsiienko</t>
-  </si>
-  <si>
-    <t>bde11c3468f03baaa52b</t>
-  </si>
-  <si>
-    <t>bde11c3468f03baaa52b69b1d0037713d6e1656efbe22bbe443616867c8ce1d1</t>
+    <t>Andrii Kolhatin</t>
+  </si>
+  <si>
+    <t>6ee400b0d85b1c17b9f9</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1k6jYSLnda_XmBqezsiN_2yJ61Qdta_nb/view</t>
+  </si>
+  <si>
+    <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
+  </si>
+  <si>
+    <t>6ee400b0d85b1c17b9f96d70480b7834db0687fb163960b09bd5b9d9a7479695</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1fXu1-OMgl8abLdRnkK1gGjRUzm1wJ90d/view</t>
   </si>
   <si>
     <t>31.05.2022</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1k6jYSLnda_XmBqezsiN_2yJ61Qdta_nb/view</t>
-  </si>
-  <si>
-    <t>6ee400b0d85b1c17b9f96d70480b7834db0687fb163960b09bd5b9d9a7479695</t>
-  </si>
-  <si>
     <t>G1NHCoKgP7GWURDdLHVELdKpWB+yJMIMC58Zcmk7QIDkHak9MAIs8CP8p3PwQQkKrasrA22u3Ps0oDpQjtQwuXA=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1fXu1-OMgl8abLdRnkK1gGjRUzm1wJ90d/view</t>
-  </si>
-  <si>
-    <t>Andrii Kolhatin</t>
-  </si>
-  <si>
-    <t>6ee400b0d85b1c17b9f9</t>
-  </si>
-  <si>
-    <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
+    <t>HEXb4vpKyOWhQpbYfAwIpyCn+rITf/VAWQzmNxaXXhDvU/q9WgsKDJeDdCnprx5cCIjjmW/phOHH+uPBbpYlPZ4=</t>
+  </si>
+  <si>
+    <t>57510c8d91044c68466c</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
+  </si>
+  <si>
+    <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
+  </si>
+  <si>
+    <t>57510c8d91044c68466c23791605ae30481dd0e13bffb14884dc26f74f89007e</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1w1mfSqQpuoM1ykWLZFpnfNad4769mGRZ/view</t>
+  </si>
+  <si>
+    <t>02.06.2022</t>
   </si>
   <si>
     <t>Volodymyr Beimuk</t>
   </si>
   <si>
-    <t>57510c8d91044c68466c</t>
-  </si>
-  <si>
-    <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
-  </si>
-  <si>
-    <t>02.06.2022</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
-  </si>
-  <si>
-    <t>57510c8d91044c68466c23791605ae30481dd0e13bffb14884dc26f74f89007e</t>
-  </si>
-  <si>
-    <t>HEXb4vpKyOWhQpbYfAwIpyCn+rITf/VAWQzmNxaXXhDvU/q9WgsKDJeDdCnprx5cCIjjmW/phOHH+uPBbpYlPZ4=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1w1mfSqQpuoM1ykWLZFpnfNad4769mGRZ/view</t>
+    <t>G0q+l32LflKU/DpeW9C2sDAMrbqeX+oJ5XFEWOQgj1abcIZnWaBDyGALb8VFCDaBlWtPdWlpZH0bBGnZ4vmuqVM=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/15kzmwqJUXHkYhS-y_kQNezfBYKsWqClm/view</t>
+  </si>
+  <si>
+    <t>03.06.2022</t>
+  </si>
+  <si>
+    <t>Nazarii Savorona</t>
+  </si>
+  <si>
+    <t>d50fd6472811e70d2d32</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1alRzJTra9dglzAqTeiHBwO9rtXlBweUd/view</t>
+  </si>
+  <si>
+    <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
   </si>
   <si>
     <t>d50fd6472811e70d2d323c6e2a1b6ee5492b950fa42141194d5b0ea301965d2b</t>
   </si>
   <si>
-    <t>G0q+l32LflKU/DpeW9C2sDAMrbqeX+oJ5XFEWOQgj1abcIZnWaBDyGALb8VFCDaBlWtPdWlpZH0bBGnZ4vmuqVM=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/15kzmwqJUXHkYhS-y_kQNezfBYKsWqClm/view</t>
-  </si>
-  <si>
-    <t>03.06.2022</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1alRzJTra9dglzAqTeiHBwO9rtXlBweUd/view</t>
-  </si>
-  <si>
-    <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
-  </si>
-  <si>
-    <t>Nazarii Savorona</t>
-  </si>
-  <si>
-    <t>d50fd6472811e70d2d32</t>
+    <t>drive.google.com/file/d/1wY_vSxNPk2EVTXF5QDxbWo0tuWKZTesU/view</t>
+  </si>
+  <si>
+    <t>6471e2162a55dbf5dd4d31bfe55b942b65d00f871d57a47269a6eeadc98f5368</t>
+  </si>
+  <si>
+    <t>0098c4abd0cf9ba00a9a16bae79b9ec1f932f0a459b51c5afd3d6a5651a3820d</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1CEGYMWPoshF1-ZlubWYIqLVVN5wuDI0k/view</t>
   </si>
   <si>
     <t>Anton Balykov</t>
@@ -808,85 +820,88 @@
     <t>0098c4abd0cf9ba00a9a</t>
   </si>
   <si>
-    <t>6471e2162a55dbf5dd4d31bfe55b942b65d00f871d57a47269a6eeadc98f5368</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1wY_vSxNPk2EVTXF5QDxbWo0tuWKZTesU/view</t>
-  </si>
-  <si>
-    <t>0098c4abd0cf9ba00a9a16bae79b9ec1f932f0a459b51c5afd3d6a5651a3820d</t>
-  </si>
-  <si>
     <t>HEX0LGCrp8izmcyDor70bMZoObL/w+vWJ2n7oI4g7HApOTNEf8NsrrnH7wqchGY1dHPbQ/ZXv9Sb4flO0OOFIjg=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1CEGYMWPoshF1-ZlubWYIqLVVN5wuDI0k/view</t>
+    <t>Rodion Nazarov</t>
+  </si>
+  <si>
+    <t>b8a9205fb544253703da</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1vGDKnNGdCSrI2l0f8epwfp-g9ZP_gdqn/view</t>
   </si>
   <si>
     <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
   </si>
   <si>
-    <t>Rodion Nazarov</t>
-  </si>
-  <si>
-    <t>b8a9205fb544253703da</t>
-  </si>
-  <si>
     <t>b8a9205fb544253703daa661c8770c6c3010cd6f9440217c56b8f3a5277106c0</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1tXyNJbUrUx79sco9ErJu8FcadjFeY4ws/view</t>
+  </si>
+  <si>
+    <t>06.06.2022</t>
+  </si>
+  <si>
     <t>HFLGvJaNw54W7ZD/ZIjYXIQM1qIXbrh8vUUpsthZld4lUw1ygBpSYq5Bv2wkJji7EFfLKZpiwfkpZ+sZp3fGBZ8=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1tXyNJbUrUx79sco9ErJu8FcadjFeY4ws/view</t>
-  </si>
-  <si>
-    <t>06.06.2022</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1vGDKnNGdCSrI2l0f8epwfp-g9ZP_gdqn/view</t>
-  </si>
-  <si>
     <t>Denis Riabtsev</t>
   </si>
   <si>
     <t>049024034fa09e3463c1</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1zCX9-HWZpyLUzChTuMNrgw8wjDheWHYQ/view</t>
+  </si>
+  <si>
     <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1zCX9-HWZpyLUzChTuMNrgw8wjDheWHYQ/view</t>
-  </si>
-  <si>
     <t>049024034fa09e3463c172894984ccd7c64d8f3e25ea0edce1cde73d14c4e4dd</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1zJtn8oPTgO6NalvQ4ZUKieHCmOl0G-ff/view</t>
+  </si>
+  <si>
     <t>G1S1swtJ1BO++cjXv+2ur3abbjLyF3QJom9rXytmbiCybxHnE6zxdv8PGrIoWzul25aA+Vy+npC166DfktBmfTA=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1zJtn8oPTgO6NalvQ4ZUKieHCmOl0G-ff/view</t>
+    <t>HByFsfnqBzFxFef9Sx0pI7ZEP8CsAFwWu3WLyhxeWYE7Nihy6oGKH6zTuDB3jxz7nVUqmg/+jiSz+5tpHd5hhCM=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1mierxGuI99_8bCJonu3XW6Of6nN-_G8Y/view</t>
+  </si>
+  <si>
+    <t>35a047ff48ee73cae02b98a664d79ed4beec0f2fc7ca444cf0e6fe6feba7072f</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1xbZ0oHFVYI0UYoQzhOgIjFcYMBPS3M7N/view</t>
   </si>
   <si>
     <t>10.08.2022</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1mierxGuI99_8bCJonu3XW6Of6nN-_G8Y/view</t>
-  </si>
-  <si>
-    <t>HByFsfnqBzFxFef9Sx0pI7ZEP8CsAFwWu3WLyhxeWYE7Nihy6oGKH6zTuDB3jxz7nVUqmg/+jiSz+5tpHd5hhCM=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1xbZ0oHFVYI0UYoQzhOgIjFcYMBPS3M7N/view</t>
-  </si>
-  <si>
     <t>Ahadzhan Piloian</t>
   </si>
   <si>
     <t>35a047ff48ee73cae02b</t>
   </si>
   <si>
-    <t>35a047ff48ee73cae02b98a664d79ed4beec0f2fc7ca444cf0e6fe6feba7072f</t>
+    <t>drive.google.com/file/d/1VFTodraL1vlF6oPm81xYgCEzuAnnMw9D/view</t>
+  </si>
+  <si>
+    <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
+  </si>
+  <si>
+    <t>6c856e21d4e81c9f9798dc867f42c17448b563618559dfc618f25bfb13952dd9</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1XYnfmc4-e2bPA2-oKc6rMrJk9OIS1ygb/view</t>
+  </si>
+  <si>
+    <t>16.08.2022</t>
   </si>
   <si>
     <t>Andrii Tsemko</t>
@@ -895,43 +910,34 @@
     <t>6c856e21d4e81c9f9798</t>
   </si>
   <si>
-    <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
-  </si>
-  <si>
-    <t>16.08.2022</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1VFTodraL1vlF6oPm81xYgCEzuAnnMw9D/view</t>
-  </si>
-  <si>
-    <t>6c856e21d4e81c9f9798dc867f42c17448b563618559dfc618f25bfb13952dd9</t>
-  </si>
-  <si>
     <t>G3AD9cOvDB5Yle4mx/4BJ1WGbFOLohDQC7vc4BQ13IEBNfDge5QEuYe3jCrtupanAlQ3qTuMp0xOcnt4khjuiOU=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1XYnfmc4-e2bPA2-oKc6rMrJk9OIS1ygb/view</t>
+    <t>HBwdh30L8wwZ0AJ72uIonh5mnyavVroXqbfe0yCwSfwxHTmsctiCpE0PQGCgrn07xN6uG9mcLCyafi1J1iAIrVo=</t>
+  </si>
+  <si>
+    <t>Oleg Chaika</t>
+  </si>
+  <si>
+    <t>ac4a4970282596872599</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1TCz4JmThT49Whz7pXZc1p-uh1m8qGlts/view</t>
+  </si>
+  <si>
+    <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
   </si>
   <si>
     <t>ac4a4970282596872599a48469d3598e04f6239a9c8c40d595a7ab48cfec2f4b</t>
   </si>
   <si>
-    <t>HBwdh30L8wwZ0AJ72uIonh5mnyavVroXqbfe0yCwSfwxHTmsctiCpE0PQGCgrn07xN6uG9mcLCyafi1J1iAIrVo=</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1XKVH36jaqZxn5FNLOAPfa2e7veU7FvRF/view</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1TCz4JmThT49Whz7pXZc1p-uh1m8qGlts/view</t>
-  </si>
-  <si>
-    <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
-  </si>
-  <si>
-    <t>Oleg Chaika</t>
-  </si>
-  <si>
-    <t>ac4a4970282596872599</t>
+    <t>G16YW2qc38O2w05xL7whMAtbxBifYvcgSumruVDry/BeInzdXKeNdgkzs4+YALZnA1O/VZiCrqsMOX+JSxPhhDo=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1qjY792bJaQiXrAQkpY51MdDXWY5NGfHG/view</t>
   </si>
   <si>
     <t>Yehor Podporinov</t>
@@ -940,61 +946,67 @@
     <t>6ece24bf393d6616d288</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1UWwjB5PEcpGT7pj9QLOxg0exOJMJ0cgV/view</t>
+  </si>
+  <si>
     <t>8b0b4aebba75393ae3d3d17c2935872fcc9b742667912a33f84c93005de85fb4</t>
   </si>
   <si>
-    <t>G16YW2qc38O2w05xL7whMAtbxBifYvcgSumruVDry/BeInzdXKeNdgkzs4+YALZnA1O/VZiCrqsMOX+JSxPhhDo=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1qjY792bJaQiXrAQkpY51MdDXWY5NGfHG/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1UWwjB5PEcpGT7pj9QLOxg0exOJMJ0cgV/view</t>
-  </si>
-  <si>
     <t>6ece24bf393d6616d2882515c6b704470a04394eb23a26e37fcfd58709864e9c</t>
   </si>
   <si>
+    <t>HDCKJb3z6l4lgp3NELh3RJkzdJD1joN7yfOxl+01921RdY6DAUkQyZNnWU9OHeVkW3fPDEweucWCsxJRM/I0X1s=</t>
+  </si>
+  <si>
+    <t>Artem Litkevych</t>
+  </si>
+  <si>
+    <t>2bdefe6ab583294a8e3a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1gRgANqcuPqyc_3RjIRjtUc4Mdz0mGl9x/view</t>
+  </si>
+  <si>
+    <t>2bdefe6ab583294a8e3a46a7d66467c7afc535265a5eb5044d61411c2e9cf825</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1f48HTb46vhokQ_8Azf1hncHeg-YaF01f/view</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1gRgANqcuPqyc_3RjIRjtUc4Mdz0mGl9x/view</t>
-  </si>
-  <si>
-    <t>HDCKJb3z6l4lgp3NELh3RJkzdJD1joN7yfOxl+01921RdY6DAUkQyZNnWU9OHeVkW3fPDEweucWCsxJRM/I0X1s=</t>
-  </si>
-  <si>
-    <t>Artem Litkevych</t>
-  </si>
-  <si>
-    <t>2bdefe6ab583294a8e3a</t>
-  </si>
-  <si>
-    <t>2bdefe6ab583294a8e3a46a7d66467c7afc535265a5eb5044d61411c2e9cf825</t>
-  </si>
-  <si>
     <t>HApedQ3dSPFayNHWaAdeG0koY6JOtPkbNGfR03j/buRXUMPAQ7kVc5JUtU7xJeCQFNre1p7sPQiaazDauOSLyeU=</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1y0FtDg1SrfeMLVLgcU5nq3iVnBdoik87/view</t>
+  </si>
+  <si>
+    <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
+  </si>
+  <si>
+    <t>5aedea6393611a0bb067abca97eab5d15e20fa9b13654759eeb0ad08cf465bf6</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1L4MJCKIJ_qZk-xoeaxbt21yKDQ65ZiV-/view</t>
   </si>
   <si>
     <t>17.08.2022</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1y0FtDg1SrfeMLVLgcU5nq3iVnBdoik87/view</t>
-  </si>
-  <si>
-    <t>5aedea6393611a0bb067abca97eab5d15e20fa9b13654759eeb0ad08cf465bf6</t>
-  </si>
-  <si>
     <t>Vadim Mokropulo</t>
   </si>
   <si>
     <t>5aedea6393611a0bb067</t>
   </si>
   <si>
-    <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
+    <t>HAJxbdAA0K5jADiIkd2hSuUjSo5/eIKguFwXw2OZXCkPSIx4rLJcO32Gxfb002+eyGWSoqZg/YxEkHKrfxSL7F8=</t>
+  </si>
+  <si>
+    <t>c5f89ffab6fb6790398f25f04cceea2582045f2cdaa852cffa609587b5f97da2</t>
+  </si>
+  <si>
+    <t>843e73c99e2fb6868d388c6436b8de6d6df90f2c6651c161738d510e0eedbe80</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/11NbZIfZYYPaZkiN3hIF-pOf-vQn1FjGZ/view</t>
   </si>
   <si>
     <t>Arsenii Trybukh</t>
@@ -1003,198 +1015,189 @@
     <t>843e73c99e2fb6868d38</t>
   </si>
   <si>
-    <t>c5f89ffab6fb6790398f25f04cceea2582045f2cdaa852cffa609587b5f97da2</t>
-  </si>
-  <si>
-    <t>HAJxbdAA0K5jADiIkd2hSuUjSo5/eIKguFwXw2OZXCkPSIx4rLJcO32Gxfb002+eyGWSoqZg/YxEkHKrfxSL7F8=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/11NbZIfZYYPaZkiN3hIF-pOf-vQn1FjGZ/view</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1G_yt14WnfBJx-IrHPPr6dCVtmo-oZRGP/view</t>
   </si>
   <si>
-    <t>843e73c99e2fb6868d388c6436b8de6d6df90f2c6651c161738d510e0eedbe80</t>
+    <t>c7bb640e0ab9c66c1b1b</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1l5wCpVPlLtvzFbUPo8FUxzzRBsS6Et75/view</t>
+  </si>
+  <si>
+    <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
+  </si>
+  <si>
+    <t>c7bb640e0ab9c66c1b1b30a834ca00155e38ddba8212240e0bbd39eba0ba7804</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1nGSPxXdXnZBvlGXqCNy4-upiIccTP2DF/view</t>
+  </si>
+  <si>
+    <t>18.08.2022</t>
   </si>
   <si>
     <t>Khrystyna Vysotska</t>
   </si>
   <si>
-    <t>c7bb640e0ab9c66c1b1b</t>
-  </si>
-  <si>
-    <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
-  </si>
-  <si>
-    <t>18.08.2022</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1l5wCpVPlLtvzFbUPo8FUxzzRBsS6Et75/view</t>
-  </si>
-  <si>
-    <t>c7bb640e0ab9c66c1b1b30a834ca00155e38ddba8212240e0bbd39eba0ba7804</t>
-  </si>
-  <si>
     <t>GyX+LFZlbOGkX9m4UFq+VTDe+qgFw8iaqa9Pnv0tpOhWPbMXAoZS20RqaIczvQ/H1VpzVlaXsEo+xn5nwKZJ/Hk=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1nGSPxXdXnZBvlGXqCNy4-upiIccTP2DF/view</t>
+    <t>G1CTdkm9sPqF5gC7MNhwFYnaWkXLHuuUsU0A/sGOu5DNBtG5skY8jqrThohl9psYxI7Tv/ioEcauIdVEWGuT7+o=</t>
+  </si>
+  <si>
+    <t>de78c058c82cb70d7785</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1I0M_Gmlz0YU0fwUVXG9DVMFDEz8BrXYC/view</t>
   </si>
   <si>
     <t>de78c058c82cb70d7785272b03e0faaf9d22a8b0e83bf3c62e1088ba65fe154a</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/116fTgiRyxDGkYGtShL1QTg_IMdV7JIvh/view</t>
+  </si>
+  <si>
     <t>Mykhailo Shcholkin</t>
   </si>
   <si>
-    <t>de78c058c82cb70d7785</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1I0M_Gmlz0YU0fwUVXG9DVMFDEz8BrXYC/view</t>
-  </si>
-  <si>
-    <t>G1CTdkm9sPqF5gC7MNhwFYnaWkXLHuuUsU0A/sGOu5DNBtG5skY8jqrThohl9psYxI7Tv/ioEcauIdVEWGuT7+o=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/116fTgiRyxDGkYGtShL1QTg_IMdV7JIvh/view</t>
+    <t>drive.google.com/file/d/1GoJ9qUTxoHHdtNzbmx9kX8mUnMrERzTj/view</t>
   </si>
   <si>
     <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1dA-z2yZxNqg9vpZ-IrDTeI5VoAYSoUOx/view</t>
+  </si>
+  <si>
     <t>Sofiia Kireieva</t>
   </si>
   <si>
     <t>7a6968aff4e08534424f</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1GoJ9qUTxoHHdtNzbmx9kX8mUnMrERzTj/view</t>
-  </si>
-  <si>
     <t>GwxLKKdOMTqtcTyfNdinQRybUe+qy2ulplCNQh5mcOdQINQN0w/jb9OXjSkmDF4/X+KrmFDw9hjjLrHNZfbB5dE=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1dA-z2yZxNqg9vpZ-IrDTeI5VoAYSoUOx/view</t>
+    <t>G24FfjXLWLXBSLyuTfOy5p2HRuUF9dZNqOsMBbQz5NdHMugtm3sqYSkgooUb30zd6NBvd8yivpBdpXj2C7zxRLM=</t>
+  </si>
+  <si>
+    <t>4f789ed064df7a17fb16</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1O6iBsiaN0_fjmsFEU75uf0x-TjEPa9M_/view</t>
+  </si>
+  <si>
+    <t>4f789ed064df7a17fb165d92a4775577ae2b2aa0933828e2184f467078a0f4e1</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1SrPLonRxjfEBFQKfnHXjqy1icSZ8TQTg/view</t>
   </si>
   <si>
     <t>19.08.2022</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1O6iBsiaN0_fjmsFEU75uf0x-TjEPa9M_/view</t>
-  </si>
-  <si>
-    <t>G24FfjXLWLXBSLyuTfOy5p2HRuUF9dZNqOsMBbQz5NdHMugtm3sqYSkgooUb30zd6NBvd8yivpBdpXj2C7zxRLM=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1SrPLonRxjfEBFQKfnHXjqy1icSZ8TQTg/view</t>
-  </si>
-  <si>
     <t>Alena Sporova</t>
   </si>
   <si>
-    <t>4f789ed064df7a17fb16</t>
-  </si>
-  <si>
-    <t>4f789ed064df7a17fb165d92a4775577ae2b2aa0933828e2184f467078a0f4e1</t>
+    <t>ae669584e3592816786d</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1m0p5Xzk0DhnWZNz3C4GKwBoFn0dCLaJd/view</t>
   </si>
   <si>
+    <t>483060d6ed3048a8dc0131f806543e2d4ebf5438280c29af23b478769c5e2422</t>
+  </si>
+  <si>
     <t>ae669584e3592816786def0ced73ae9c1157f3cf3957c54c7f00c313411d0917</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1rd3-RafYYEM7AiLpUn6hDKvzItsu35eV/view</t>
+  </si>
+  <si>
+    <t>Nikita Masych</t>
+  </si>
+  <si>
     <t>HAHRm6qHhYtJONB4DE1fHhHs7jzCBi+0r098KwvwJ3FjJraqh4eh7xXl2kdKZvktikGbL8iVYeMFsUMMiZgU1dE=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1rd3-RafYYEM7AiLpUn6hDKvzItsu35eV/view</t>
-  </si>
-  <si>
-    <t>ae669584e3592816786d</t>
-  </si>
-  <si>
-    <t>483060d6ed3048a8dc0131f806543e2d4ebf5438280c29af23b478769c5e2422</t>
-  </si>
-  <si>
-    <t>Nikita Masych</t>
+    <t>Mark Cherepovskyi</t>
+  </si>
+  <si>
+    <t>2a2bdf9afd29bb5a037e</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1e4EDcTQQDwoR2L6wWEPs-5H-vt5CCr_f/view</t>
   </si>
   <si>
+    <t>c4879efd2b227fc0a0e38b82a1a91f47d5c53312805a02084f9769bbec1a71ec</t>
+  </si>
+  <si>
     <t>2a2bdf9afd29bb5a037ee969d668f402c10e76c8cbbd976d813dc2c635212539</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1Nn8f-CCkaRTHoTIvzOzlUjfFraIj0SxS/view</t>
+  </si>
+  <si>
     <t>G0IQQV4CbL/JBgmzra52tvPbBojg9JtvXR7fWIUO4M3PVCmcqlAPZYddUdyqGNQ46uqyzpxPt5unmlkaLZoWdik=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1Nn8f-CCkaRTHoTIvzOzlUjfFraIj0SxS/view</t>
-  </si>
-  <si>
-    <t>Mark Cherepovskyi</t>
-  </si>
-  <si>
-    <t>2a2bdf9afd29bb5a037e</t>
-  </si>
-  <si>
-    <t>c4879efd2b227fc0a0e38b82a1a91f47d5c53312805a02084f9769bbec1a71ec</t>
+    <t>drive.google.com/file/d/189KqeuBE1JHhjoOJuPjmVSaQMF0tuf_7/view</t>
+  </si>
+  <si>
+    <t>805b929698577e9aca3fe4691eadeb51f4dc001d6c3c48625b4e2d7ff2f1f090</t>
+  </si>
+  <si>
+    <t>5af15e5a89df1459f6c0aeb5cd0e5be28e4a54e50468f9b686f2d93a47fcd8b5</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/15ZzFOxNzuFtm8BtdxOiZbShpVngUdT_R/view</t>
+  </si>
+  <si>
+    <t>Viacheslav Horbanov</t>
   </si>
   <si>
     <t>5af15e5a89df1459f6c0</t>
   </si>
   <si>
-    <t>805b929698577e9aca3fe4691eadeb51f4dc001d6c3c48625b4e2d7ff2f1f090</t>
-  </si>
-  <si>
-    <t>Viacheslav Horbanov</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/189KqeuBE1JHhjoOJuPjmVSaQMF0tuf_7/view</t>
-  </si>
-  <si>
-    <t>5af15e5a89df1459f6c0aeb5cd0e5be28e4a54e50468f9b686f2d93a47fcd8b5</t>
-  </si>
-  <si>
     <t>HDMS95fN4wKz+mcce/qhkAB3CDAxnQf5cwwRXHl8KMdYA3/EO8kyMpNGiIbN5MFTQ8vPw07FOmfXy0ioj0UnCj4=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/15ZzFOxNzuFtm8BtdxOiZbShpVngUdT_R/view</t>
+    <t>709946c77b1372ca3cff</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1XQCDywsDSh6584NI_X7VTda9fxx9Ju6n/view</t>
+  </si>
+  <si>
+    <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
+  </si>
+  <si>
+    <t>709946c77b1372ca3cffa6c6d383a1fa4c8806d267ecb824b4ee502f41c2e4c0</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1-pE49RF7jkcKZaf7GMT9l_oK4tuCo-qU/view</t>
+  </si>
+  <si>
+    <t>22.08.2022</t>
   </si>
   <si>
     <t>Oleksii Stepaniuk</t>
   </si>
   <si>
-    <t>709946c77b1372ca3cff</t>
-  </si>
-  <si>
-    <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
-  </si>
-  <si>
     <t>GxwMNgPmJTi7BfEjI6rsGqPvQoad54i76EyhJDFd3X9cMv6smt8Pqr9l2GzTwOy+UhKqumElsEDkC1pUydChGYM=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1-pE49RF7jkcKZaf7GMT9l_oK4tuCo-qU/view</t>
-  </si>
-  <si>
-    <t>22.08.2022</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1XQCDywsDSh6584NI_X7VTda9fxx9Ju6n/view</t>
-  </si>
-  <si>
-    <t>709946c77b1372ca3cffa6c6d383a1fa4c8806d267ecb824b4ee502f41c2e4c0</t>
+    <t>HHbJ2yOwNTaBD8Pj4Gc3VU1rvVOaml/gHFckPopyy6rVLkN9Llmf+A5SmWlzxzYnshzLqJKMNrV/7nrMhmMK0LA=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1XyrBsaWWmIuwF0Hq8_K95lvtH9gb6l9O/view</t>
   </si>
   <si>
+    <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
+  </si>
+  <si>
     <t>6393707ada82a579795181b6ad3cbf89bc962a3b517c4fad1ff80807b72258e2</t>
   </si>
   <si>
-    <t>HHbJ2yOwNTaBD8Pj4Gc3VU1rvVOaml/gHFckPopyy6rVLkN9Llmf+A5SmWlzxzYnshzLqJKMNrV/7nrMhmMK0LA=</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1Wq36pFh0ILRhfaIV-RMgTsS8Rw_UPsMQ/view</t>
   </si>
   <si>
@@ -1204,88 +1207,100 @@
     <t>6393707ada82a5797951</t>
   </si>
   <si>
-    <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
+    <t>HHvcf99G4vHmh7gwlEMbWJAQuuP3yxyHM8bMUdTLhf5lb5dJq/wz1VWiA3Z/oY5vRSiCpwneT5rrWqc8ErU11mU=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1ygsdcgJuPG9SqctWWdcmvdFYGBlg0Mfi/view</t>
   </si>
   <si>
+    <t>a4bc9b1320f2e1e710e9b1fd60261ccf698609aee22bab0b8bc8f6278c77ff28</t>
+  </si>
+  <si>
     <t>b8536409d7a15f77c09c4ee971971d57834a7ce935d7de0afca925b431d7d3f0</t>
   </si>
   <si>
-    <t>HHvcf99G4vHmh7gwlEMbWJAQuuP3yxyHM8bMUdTLhf5lb5dJq/wz1VWiA3Z/oY5vRSiCpwneT5rrWqc8ErU11mU=</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1aW9TvbBrwnNuYXWpVf9DsaHrdOh5lBe6/view</t>
   </si>
   <si>
+    <t>Oleksandr Kolesnyk</t>
+  </si>
+  <si>
     <t>b8536409d7a15f77c09c</t>
   </si>
   <si>
-    <t>a4bc9b1320f2e1e710e9b1fd60261ccf698609aee22bab0b8bc8f6278c77ff28</t>
-  </si>
-  <si>
-    <t>Oleksandr Kolesnyk</t>
-  </si>
-  <si>
     <t>G2VIng2ixewyoOfF7ZTzpcGYTcmDx6zY2XXVDruaEShNbAYMCcWhVMWWXpHVa/vIIt6mI19G/JjIIBPaXI9uK6Y=</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1HU3qhe9VaTIqZwLa4G3mOS0nHEg8DO8M/view</t>
+  </si>
+  <si>
+    <t>4b7f8d4f293f72815ab490bd586e210947057de3a2e9afb59fe92108421cfc43</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1YrBbtcKZvZerAB-P3IgI2VY_rNpYXWdd/view</t>
   </si>
   <si>
     <t>23.08.2022</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1HU3qhe9VaTIqZwLa4G3mOS0nHEg8DO8M/view</t>
-  </si>
-  <si>
     <t>Nikita Chabaniuk</t>
   </si>
   <si>
     <t>4b7f8d4f293f72815ab4</t>
   </si>
   <si>
-    <t>4b7f8d4f293f72815ab490bd586e210947057de3a2e9afb59fe92108421cfc43</t>
+    <t>G1YYB4Ev2kOYbqXr2cCeGRFHYlaynNvMmb6TrOoeBnzORoDe4Pips3BiaJZxZBBWtuSRec45V5h9Mce9vCSYCH8=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1cQNAJj42ZPrF7G2wJasBxsblGWb1cx6U/view</t>
+  </si>
+  <si>
+    <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
+  </si>
+  <si>
+    <t>8e1b8b35cb7330ddc76eb03e4878e055a523040b63232a27df27ca76e04a8678</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1cFcRCnazlkVCJwZpAUyUVf662LBzDlc1/view</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1cQNAJj42ZPrF7G2wJasBxsblGWb1cx6U/view</t>
-  </si>
-  <si>
-    <t>8e1b8b35cb7330ddc76eb03e4878e055a523040b63232a27df27ca76e04a8678</t>
-  </si>
-  <si>
-    <t>G1YYB4Ev2kOYbqXr2cCeGRFHYlaynNvMmb6TrOoeBnzORoDe4Pips3BiaJZxZBBWtuSRec45V5h9Mce9vCSYCH8=</t>
-  </si>
-  <si>
     <t>Amina Yambulatova</t>
   </si>
   <si>
     <t>8e1b8b35cb7330ddc76e</t>
   </si>
   <si>
-    <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
+    <t>drive.google.com/file/d/17TrcHxOjczAIzHRX6jGL7d6ikxt2lACY/view</t>
+  </si>
+  <si>
+    <t>40f94f67b8a8d87da643ad5c019db2e6c6f6e960a03453048995c11eea36d236</t>
+  </si>
+  <si>
+    <t>95392bafab8d1e14ab5530e8a6a2436a7faa1647c9af34869af6d793fdb526dd</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1UXQ_dMB-t0DJ1zHqwUO4AMKw00xTe7Kd/view</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/17TrcHxOjczAIzHRX6jGL7d6ikxt2lACY/view</t>
-  </si>
-  <si>
-    <t>95392bafab8d1e14ab5530e8a6a2436a7faa1647c9af34869af6d793fdb526dd</t>
-  </si>
-  <si>
     <t>Yegor Chukanov</t>
   </si>
   <si>
     <t>95392bafab8d1e14ab55</t>
   </si>
   <si>
-    <t>40f94f67b8a8d87da643ad5c019db2e6c6f6e960a03453048995c11eea36d236</t>
+    <t>drive.google.com/file/d/1JWQoCNMPVL8zCEb3aDGft9aNFn_7Bn6U/view</t>
+  </si>
+  <si>
+    <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
+  </si>
+  <si>
+    <t>3dc98e4fdedc7c6b91f59db100a54a9d140ee40149845e160b9bf59021cfd763</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Gky0SNUujtYDy63EkDHDfdHn6lBJFb9g/view</t>
+  </si>
+  <si>
+    <t>24.08.2022</t>
   </si>
   <si>
     <t>Dmytro Vynohradov</t>
@@ -1294,43 +1309,31 @@
     <t>3dc98e4fdedc7c6b91f5</t>
   </si>
   <si>
-    <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
-  </si>
-  <si>
     <t>G2JfFYPk+Pp+65U01De1kmptKvks4kuSPI6m3hF2U+79HZCoD8lymFRpoPnVxZ2laFtkb2XA9J8nfBT2hffuYsw=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1Gky0SNUujtYDy63EkDHDfdHn6lBJFb9g/view</t>
-  </si>
-  <si>
-    <t>24.08.2022</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1JWQoCNMPVL8zCEb3aDGft9aNFn_7Bn6U/view</t>
-  </si>
-  <si>
-    <t>3dc98e4fdedc7c6b91f59db100a54a9d140ee40149845e160b9bf59021cfd763</t>
+    <t>drive.google.com/file/d/17EMz1PARbz9e8RTVMLFvKCGrcuqxU0X5/view</t>
+  </si>
+  <si>
+    <t>Mykhailo Sokolov</t>
+  </si>
+  <si>
+    <t>5a875f69aae3c47635bc</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1-Woakmc6sQIZj_YuO0UujbdA_k7k30AQ/view</t>
+  </si>
+  <si>
+    <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
+  </si>
+  <si>
+    <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
   </si>
   <si>
     <t>HBCVC5I+IeKJfiwlnLSOv2b3zmmlPbKLwcOCjBb6dPfZIvDoV0Bg/EwiXf880gA9PO3pwI1BcQpjCFVKtoEOCHM=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/17EMz1PARbz9e8RTVMLFvKCGrcuqxU0X5/view</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1-Woakmc6sQIZj_YuO0UujbdA_k7k30AQ/view</t>
-  </si>
-  <si>
-    <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
-  </si>
-  <si>
-    <t>Mykhailo Sokolov</t>
-  </si>
-  <si>
-    <t>5a875f69aae3c47635bc</t>
-  </si>
-  <si>
-    <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
+    <t>25.08.2022</t>
   </si>
   <si>
     <t>Illia Popov</t>
@@ -1339,22 +1342,37 @@
     <t>c6e0a8f84ae9df426a28</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1jMQGHGOmWabDErZg-n19HYPP7sUPbA-C/view</t>
+  </si>
+  <si>
     <t>5cbc5e19fd5bb7d530d8e96ecd9e1f957e8731f7b5738c30b4b5e1bdda0861c4</t>
   </si>
   <si>
-    <t>25.08.2022</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1jMQGHGOmWabDErZg-n19HYPP7sUPbA-C/view</t>
-  </si>
-  <si>
     <t>c6e0a8f84ae9df426a28363024a5e4734dea38882c37c27ccbf3350092257289</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1rEPYF5Uwt1Gg--7B3QLoPSWrcIzAuG9l/view</t>
+  </si>
+  <si>
     <t>GxbnaO2SI42FWSLEEeAdripZKWQTCFp0dSAopXV/2wcjBco8ZbmUu3GwTndN8FzDVaFjnEfIeim4NGPPs+jCQzg=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1rEPYF5Uwt1Gg--7B3QLoPSWrcIzAuG9l/view</t>
+    <t>G1rX7mp/6KhUVoryYkYmifpVakFz5esJ02otJ2mZPwp7MHkaFa8WdLamGh4FuZCo4AP8DoxRbh1+qYpxsEGumSY=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1QJKE4_V6OQFcAtrq5rdY3Rh_W91kgnxQ/view</t>
+  </si>
+  <si>
+    <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
+  </si>
+  <si>
+    <t>e17451aabeae8492dbe7099d581c12ef9e7a8366dd7ddf2267d0e42cd4580c19</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1NYZJn0Wxf8vR9QW-LE4U_2mvV5gX356p/view</t>
+  </si>
+  <si>
+    <t>26.08.2022</t>
   </si>
   <si>
     <t>Mykola Gora</t>
@@ -1363,43 +1381,31 @@
     <t>e17451aabeae8492dbe7</t>
   </si>
   <si>
-    <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
-  </si>
-  <si>
-    <t>26.08.2022</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1QJKE4_V6OQFcAtrq5rdY3Rh_W91kgnxQ/view</t>
-  </si>
-  <si>
-    <t>e17451aabeae8492dbe7099d581c12ef9e7a8366dd7ddf2267d0e42cd4580c19</t>
-  </si>
-  <si>
-    <t>G1rX7mp/6KhUVoryYkYmifpVakFz5esJ02otJ2mZPwp7MHkaFa8WdLamGh4FuZCo4AP8DoxRbh1+qYpxsEGumSY=</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1NYZJn0Wxf8vR9QW-LE4U_2mvV5gX356p/view</t>
+    <t>HAUm82i2DcGPW2dlUnkAex+z9pI7QXjFFkfN7fvKH/NWHKCa5jaIHnZIjW0MHVx+WFJzNl5fsaPYQxDd7zePq9E=</t>
+  </si>
+  <si>
+    <t>Artem Levkin</t>
+  </si>
+  <si>
+    <t>4cfdcdc672279489b68a</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1noq7bJhv9KNWgJD8xKbWqJaO3zb1pra1/view</t>
   </si>
   <si>
+    <t>417f8fbf445be4909b812ed5db8ded8669b512bcba91782881d11f10fe551570</t>
+  </si>
+  <si>
     <t>4cfdcdc672279489b68a1e900b2f8aa296d28d2d40fb08c1c5ca14562a1d23b3</t>
   </si>
   <si>
-    <t>HAUm82i2DcGPW2dlUnkAex+z9pI7QXjFFkfN7fvKH/NWHKCa5jaIHnZIjW0MHVx+WFJzNl5fsaPYQxDd7zePq9E=</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1UxUzAyExCitVVyJENd4Ka9gN9rBDLUrw/view</t>
   </si>
   <si>
-    <t>Artem Levkin</t>
-  </si>
-  <si>
-    <t>4cfdcdc672279489b68a</t>
-  </si>
-  <si>
-    <t>417f8fbf445be4909b812ed5db8ded8669b512bcba91782881d11f10fe551570</t>
+    <t>drive.google.com/file/d/10aBMeumWTAVfoCF9OhzWdrjtrC26Zmc3/view</t>
+  </si>
+  <si>
+    <t>29.08.2022</t>
   </si>
   <si>
     <t>Natalya Dolgova</t>
@@ -1408,139 +1414,139 @@
     <t>34ea29020672eb21280c</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1z6IhpWNludHIAApZXih8yz4bCn6-Vt8M/view</t>
+  </si>
+  <si>
     <t>34ea29020672eb21280caadaf19377833ae12495cae3cc9e297d0f4aefe0d428</t>
   </si>
   <si>
-    <t>29.08.2022</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1z6IhpWNludHIAApZXih8yz4bCn6-Vt8M/view</t>
-  </si>
-  <si>
     <t>HB24fr9zRBm8R7uXlw5zXiUP5eHW5ljJJrmCwOpRp/4YRjQ/TpqUsmm+GMG8fdOVEEIellnn+Sif/IFeHOuPX4Y=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/10aBMeumWTAVfoCF9OhzWdrjtrC26Zmc3/view</t>
-  </si>
-  <si>
     <t>Artem Zubrych</t>
   </si>
   <si>
     <t>905fa9409eec8ceee94c</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1aaqnORxWfLkmccryV49_7kjl_X3ui3uK/view</t>
+  </si>
+  <si>
     <t>bfdf2d5236562eef75432a510ff9b0b4cd7d37ac17547d3e0515f4891a736609</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1aaqnORxWfLkmccryV49_7kjl_X3ui3uK/view</t>
-  </si>
-  <si>
     <t>905fa9409eec8ceee94c08cd9f5410e03310ce041b58f41958ea440b3396b275</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1MEjKKhuFeZ4mE0PM3kjRptb63VitKcTl/view</t>
+  </si>
+  <si>
     <t>G2IQ96lhlCyrf6+zTqhN5F744yuKJvP3JOPKM+8RfwLsTNBoEcHKch31onlkxZG23com3sHuRJ3EVtQBirJEcLI=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1MEjKKhuFeZ4mE0PM3kjRptb63VitKcTl/view</t>
+    <t>30.08.2022</t>
+  </si>
+  <si>
+    <t>Valentyna Lytvynova</t>
+  </si>
+  <si>
+    <t>f4b8579fd5eced5139aa</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1tVAP8fauK_wN1JHJrB5yyDCelAvkutVt/view</t>
   </si>
   <si>
+    <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
+  </si>
+  <si>
     <t>HFOOeUrSvztcEv16aKHm4rhS4OG+5rifrKjnl2TLUMNuIvmOP+bmIwQ0R/CXhqPzLG93zNNZ7DDAzo4zX2JwqG0=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
-  </si>
-  <si>
-    <t>30.08.2022</t>
-  </si>
-  <si>
-    <t>f4b8579fd5eced5139aa</t>
-  </si>
-  <si>
-    <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
-  </si>
-  <si>
-    <t>Valentyna Lytvynova</t>
+    <t>HC9onoqwiC9tBTjtH4rWK0sZBN201JY5gzQcOjtrnfrxCuyXuNML5tt7vBnK3gaErXQJAHBkpCgIGcSy2+VhT2o=</t>
+  </si>
+  <si>
+    <t>Eugene Petrikeev</t>
+  </si>
+  <si>
+    <t>a3cfa3e5bbc7bf47c73a</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1_UvD8BMIATW0UaJxtWCZTpytX5_CiSVw/view</t>
   </si>
   <si>
+    <t>ff01796886d91f5df69e2b999462ffdd868ad8a8ac105910698d4bf34eac760d</t>
+  </si>
+  <si>
     <t>a3cfa3e5bbc7bf47c73a50046cffe7f40a1126942a35d516dae7601a8d6e0c04</t>
   </si>
   <si>
-    <t>HC9onoqwiC9tBTjtH4rWK0sZBN201JY5gzQcOjtrnfrxCuyXuNML5tt7vBnK3gaErXQJAHBkpCgIGcSy2+VhT2o=</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1Es38UUfq4uF6K5m688upx26mH7dcLyOW/view</t>
   </si>
   <si>
-    <t>Eugene Petrikeev</t>
-  </si>
-  <si>
-    <t>a3cfa3e5bbc7bf47c73a</t>
-  </si>
-  <si>
-    <t>ff01796886d91f5df69e2b999462ffdd868ad8a8ac105910698d4bf34eac760d</t>
+    <t>drive.google.com/file/d/1_MqAQ9X0jUmXaREfYybJjbDFMxW4y_dV/view</t>
+  </si>
+  <si>
+    <t>Yurii Poberezhnyi</t>
+  </si>
+  <si>
+    <t>f58f1fc15134ceb66672</t>
   </si>
   <si>
     <t>drive.google.com/file/d/13RaHOAUhpp6-9qTwDPNevrtrVrYljiGr/view</t>
   </si>
   <si>
+    <t>f58f1fc15134ceb6667235bc35ca8e2bc62cf070e2a991a17d739ee3d744ec0a</t>
+  </si>
+  <si>
     <t>G0id81/AyLv4L2f1Cpy38tuZKCexDvgAwCSDLEP2wFERBEUIL9DUFSHweqt5XpHRUrIGyIocTY4rw5X+3BRYVQo=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1_MqAQ9X0jUmXaREfYybJjbDFMxW4y_dV/view</t>
-  </si>
-  <si>
-    <t>Yurii Poberezhnyi</t>
-  </si>
-  <si>
-    <t>f58f1fc15134ceb66672</t>
-  </si>
-  <si>
-    <t>f58f1fc15134ceb6667235bc35ca8e2bc62cf070e2a991a17d739ee3d744ec0a</t>
+    <t>G0cRPgCnc9gR979fw7SNVKjn1dtzkepjD/26FOnoJgjmCLAqctDx/62xZZTvPJAQ4ByVKaMOKZLGISJxpBRjSxk=</t>
   </si>
   <si>
     <t>drive.google.com/file/d/12VzupVGrvNkCAb6z0yEId3srZwjB3_oV/view</t>
   </si>
   <si>
+    <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
+  </si>
+  <si>
     <t>0c95f06fcccbe19e0bb6821d5f73206de2ba7ab6169774ac57630980fcfdf102</t>
   </si>
   <si>
-    <t>G0cRPgCnc9gR979fw7SNVKjn1dtzkepjD/26FOnoJgjmCLAqctDx/62xZZTvPJAQ4ByVKaMOKZLGISJxpBRjSxk=</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1QyeAEZg9sPSyHyju9DCa692a7BZuOUIM/view</t>
   </si>
   <si>
     <t>07.09.2022</t>
   </si>
   <si>
-    <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
-  </si>
-  <si>
     <t>Alina Telnova</t>
   </si>
   <si>
     <t>0c95f06fcccbe19e0bb6</t>
   </si>
   <si>
+    <t>Theory of database organization and basic SQL</t>
+  </si>
+  <si>
+    <t>HGAuSB4G9iS8qnGaGbTZOELzGnfVIOzeYAr51TKyBEI+R81nW4taggKbD837pJohHVGrr04rH5jPlwzyVAlOZf8=</t>
+  </si>
+  <si>
     <t>a7a0e0e2fed389ffbc84aa75be30dc0262dac7620349a94e3f087de79d800aec</t>
   </si>
   <si>
-    <t>HGAuSB4G9iS8qnGaGbTZOELzGnfVIOzeYAr51TKyBEI+R81nW4taggKbD837pJohHVGrr04rH5jPlwzyVAlOZf8=</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1sz_pAnlIqmiCE-IlVrYH0bVnlb9CO7k3/view</t>
   </si>
   <si>
     <t>07.12.2022</t>
   </si>
   <si>
-    <t>Theory of database organization and basic SQL</t>
+    <t>Oleksandra Ivanova</t>
+  </si>
+  <si>
+    <t>a7a0e0e2fed389ffbc84</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1a35HB3dZNIFVRKh5MYvwbUMgYIYIeJcJ/view</t>
@@ -1549,37 +1555,37 @@
     <t>af27ce942975c91a06dbe4593ddf563b104b6cff511a916a18e473e33a3c6685</t>
   </si>
   <si>
-    <t>Oleksandra Ivanova</t>
-  </si>
-  <si>
-    <t>a7a0e0e2fed389ffbc84</t>
-  </si>
-  <si>
     <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1dPn1emgsi5zFE2rdfH7I8DPMum9OolMe/view</t>
+    <t>https://drive.google.com/file/d/1aqzLGqXm5jS9iEaLgHtzZiFKsPfYmvDS/view</t>
   </si>
   <si>
     <t>08.12.2022</t>
   </si>
   <si>
+    <t>Ilona Shevchenko</t>
+  </si>
+  <si>
     <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
   </si>
   <si>
-    <t>Ilona Shevchenko</t>
+    <t>53a0b93122b1b19f00b1770fcf8346ff6b499f4d7d038539404febdb403dd2d5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16zyjnDebkigK9h790UZ-4PG_NbtpDhyD/view</t>
+  </si>
+  <si>
+    <t>Ievgeniia Bondar</t>
   </si>
   <si>
     <t>HIgwLjNpC9EMttrwVCHCqYNaw9oP6JDSNC3WNNknWncLPhG4ednynhWTcdaeAX+FwguxVwPvX9m7LvvlPFKLdrQ=</t>
   </si>
   <si>
-    <t>./qr/certificate_Ievgeniia_Bondar_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>53a0b93122b1b19f00b1770fcf8346ff6b499f4d7d038539404febdb403dd2d5</t>
-  </si>
-  <si>
-    <t>Ievgeniia Bondar</t>
+    <t>HBabTC2ygOQ+iqxIRo7A4uu6gllcQml5FLggMVySfR6Db60y77BToxgXwXmdwrHtoN1Gua5C8I7MgdjeDLZ8JCo=</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1afQMmqQ5J-HHr05qFuNtJQ7v8vF0v_A7/view</t>
   </si>
   <si>
     <t>Sofia Golets</t>
@@ -1588,22 +1594,19 @@
     <t>7175c0e9b3bfed99d34b5ff6205db6a1d738a6f59b1edc16625a3de5e5df2337</t>
   </si>
   <si>
-    <t>HBabTC2ygOQ+iqxIRo7A4uu6gllcQml5FLggMVySfR6Db60y77BToxgXwXmdwrHtoN1Gua5C8I7MgdjeDLZ8JCo=</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1aZb6r5itq0xI1Xd0lp8z6Jnx0rTTD5qa/view</t>
-  </si>
-  <si>
     <t>d329fb86a98533895cc967dcae966e81c1704bd665227e866aa2243d40f860d1</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1e7OMV0kMn6BonSf3tG0ikUgbmQb9xpxq/view</t>
+  </si>
+  <si>
     <t>Mykyta Tsyvinskyi</t>
   </si>
   <si>
     <t>HPq9RQ1vlbJ4N83dgUwLLBJcN4AFaUJYC8F8BVzxUkYDR6OqA/YcNOeiukloL3UmZXPkluIN4lwoBhMr6vEj8KA=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1HhZECo5UXw-gq7DNe5YrlDM-CCOdkxcI/view</t>
+    <t>https://drive.google.com/file/d/1WtY29eBrm4N6I32tzuepPI9x2e7c-KmH/view</t>
   </si>
   <si>
     <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
@@ -1615,142 +1618,160 @@
     <t>G+LRDlMfhyvZO7qLoCtZi3Y4Q1yC/VmYJUOF79rRwGAGH93HyPOn0ZUp6fjZE87K+JkhhSiBVl2Pf+AGfNu10RA=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ijpF-G24aborBh2gm0fLtHEd4-M8LMTc/view</t>
+    <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM=</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IYHKp7wc173RjboqWNjgfLqyEqJLzgLG/view</t>
+  </si>
+  <si>
+    <t>09.12.2022</t>
   </si>
   <si>
     <t>73728940f6f168a46120d32081278e9c30ab81815077aa212a721480bcebc441</t>
   </si>
   <si>
-    <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM=</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1QpqzF4pLG3lSJ9HMR-DHFButig5LkGSd/view</t>
-  </si>
-  <si>
-    <t>09.12.2022</t>
-  </si>
-  <si>
     <t>G+YE6/0P9zPNxZ1YU3AR+TXthT9PlF8Gx3dM9k7Y2cNIIrTalRdUgSTwwSMu/mcimZUsZLZ5l2puCtwVP6ll5kI=</t>
   </si>
   <si>
-    <t>./qr/certificate_Kateryna_Hordiienko_database_QR_codecreate.svg</t>
+    <t>c2d70295e9cd94ea36fa993ddb5a6e20a0b88058287ff348b485f282fe98bcd7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-EbHdwg9FyiFKwUSRlskHH3u0aJ4yQaF/view</t>
   </si>
   <si>
     <t>Kateryna Hordiienko</t>
   </si>
   <si>
-    <t>c2d70295e9cd94ea36fa993ddb5a6e20a0b88058287ff348b485f282fe98bcd7</t>
+    <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU=</t>
   </si>
   <si>
     <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
   </si>
   <si>
-    <t>./qr/certificate_Viacheslav_Horbanov_database_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1848aQn3Qzidb9mnAOxMPbG2t49ryL5lA/view</t>
   </si>
   <si>
     <t>12.12.2022</t>
   </si>
   <si>
-    <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU=</t>
+    <t>dcc49868ac0482916b0fe63143198d93a159f912cae80d172fca6750a9b8223c</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VsDaQgpwwGlEfDx6MhA0lFegwruHGprr/view</t>
+  </si>
+  <si>
+    <t>Yuliia Aritkulova</t>
   </si>
   <si>
     <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI=</t>
   </si>
   <si>
-    <t>./qr/certificate_Yuliia_Aritkulova_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Yuliia Aritkulova</t>
-  </si>
-  <si>
-    <t>dcc49868ac0482916b0fe63143198d93a159f912cae80d172fca6750a9b8223c</t>
+    <t>69469e3a141e8845c7809e75806677b732754cb64a3ab7e27ee50c47defaa7cd</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1loQBALFBYE0H0qfLFY1dz4b8A470f-0z/view</t>
+  </si>
+  <si>
+    <t>Oleksandr Yevtushenko</t>
   </si>
   <si>
     <t>G9WI+TMiMLY1UW9rtOW0ycI21KtE3yOBTQ511sJbmfIXWvRQanASycY6fUpVGhO7iM8gyJxecc4xx2ytHX1VgzY=</t>
   </si>
   <si>
-    <t>./qr/certificate_Oleksandr_Yevtushenko_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Oleksandr Yevtushenko</t>
-  </si>
-  <si>
-    <t>69469e3a141e8845c7809e75806677b732754cb64a3ab7e27ee50c47defaa7cd</t>
+    <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gR856CR7Njz8bSOchQ8Jk9mzo1lrXuJ7/view</t>
+  </si>
+  <si>
+    <t>Mariia Mahdalina</t>
   </si>
   <si>
     <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U=</t>
   </si>
   <si>
-    <t>./qr/certificate_Mariia_Mahdalina_database_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
-  </si>
-  <si>
-    <t>Mariia Mahdalina</t>
-  </si>
-  <si>
     <t>G6T2wslW9Mlopb7SNt9oGcOSZmjSMvsByzfIQBZfwVweUZ7U2Mi5N0BkW7xhpRFkMMCWlY1kHu4VefyQzGyK5dA=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1NHkRA4VF2jh-_uF6QhGjZwBn2uNIuAme/view</t>
+    <t>https://drive.google.com/file/d/1sRph3qKCo5hR3joHTaVFYQ-k-RlwSM4L/view</t>
   </si>
   <si>
     <t>766041da4e35a4d0486d569831f14d1b0170e9b3c0d5f3a1ad71da7b4dd65a40</t>
   </si>
   <si>
+    <t>13.12.2022</t>
+  </si>
+  <si>
     <t>Anastasia Andreeva</t>
   </si>
   <si>
-    <t>13.12.2022</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Polina_Reshetnikova_database_QR_codecreate.svg</t>
+    <t>b8204a738e7d7870dabd55671aca3a860dd89a35ef26e0842f271747331a2137</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1imoUmJpZRNB1iS0S5Nb2MXlnky2FiL_g/view</t>
+  </si>
+  <si>
+    <t>HJVKQ2Uj9PkXKh4aB7EUy+qqEtzziBAX7CaNWYTiFDyXIQ5w6CG1bIat2vs1GsmBD+r6z55FbUFJFdXz57+QgUc=</t>
   </si>
   <si>
     <t>G63Lq+BtAcEqpIZphPzrLfd1K4chy2llUoMMBLMQGk5gdyNM+62UvBxqqOxckVeN2RtGC1vCiL0NvWNvEPfV4YE=</t>
   </si>
   <si>
+    <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BNyCmDtFkILnaFT7R_Is08UJLwwgaJEk/view</t>
+  </si>
+  <si>
     <t>Polina Reshetnikova</t>
   </si>
   <si>
-    <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
-  </si>
-  <si>
     <t>93620030db08953cbf17468ffde46134834b7da10958b5174e935d4e324ce081</t>
   </si>
   <si>
-    <t>./qr/certificate_Valentyna_Lytvynova_database_QR_codecreate.svg</t>
+    <t>https://drive.google.com/file/d/1atvAXZgiVG-DWhRiHrQyipKw3dfwq5rY/view</t>
   </si>
   <si>
     <t>HHbiD8H1z2fwCjgA0K/0GymJl4RcCi3wnehCfa72EOF+RwXPgmdTom5TH/IQ6e5AjmLndgB/4YfHFtdBTD1hpx0=</t>
   </si>
   <si>
+    <t>b3240a1974bff838f35320554f851b14ea2bd31f46bcb893a35546b7ea8b3112</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VhTQOLz8CWJc4ISlKbRK3NC9_klpkZ24/view</t>
+  </si>
+  <si>
     <t>HE5sTfhDSPPfvHdDSYkSvX2ZkktsyYMaoVxamHtpKMWoUxr7olw6SaItyMSztkPit37aQqfQ+YAsvCfZ01AcAwc=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1kC6eDnhgBQMuINY-Ck5fm0etpRcHmzTT/view</t>
-  </si>
-  <si>
-    <t>b3240a1974bff838f35320554f851b14ea2bd31f46bcb893a35546b7ea8b3112</t>
+    <t>G6+s7V2DHLaRMUYNOIA8N40KmelApLWT3iXHGYHXv0ZJIGVzGNez6R9Ai+af6Go130PTYDBGSDSN/q4KZdDYaqI=</t>
+  </si>
+  <si>
+    <t>b94492feb30efb7f94082666a936891a31a43de0e18af1aa8a110ef869532d93</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1n5PDHv2ntLnajP20Ry7Sz0oHFjUB724m/view</t>
   </si>
   <si>
     <t>14.12.2022</t>
   </si>
   <si>
+    <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1n21fKthtwv139YS_RDYXn0Yp0H9dH5bV/view</t>
+  </si>
+  <si>
+    <t>Pasha Charovatiy</t>
+  </si>
+  <si>
     <t>151f4183ce68ec59b82ccbef71ac6f538e0eb86354c29ded27bca54fa4b95c99</t>
   </si>
   <si>
-    <t>Pasha Charovatiy</t>
-  </si>
-  <si>
-    <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1KNSLtuBsekfpBxILlTwsCjsziE6eG29V/view</t>
+    <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y=</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yBT34GWsQCU7wi7BuubWJd3ELqgA01ek/view</t>
   </si>
   <si>
     <t>Dmytro Serhiienko</t>
@@ -1759,70 +1780,88 @@
     <t>42bdd76bce3b85dabf4bdba92100db768bf64e72f2b3535930b69bef40aa3c4c</t>
   </si>
   <si>
-    <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y=</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1XvJI9GFHMxe3ccQ4WF4oMEdDGHucRVl_/view</t>
-  </si>
-  <si>
     <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8=</t>
   </si>
   <si>
-    <t>./qr/certificate_Vladislav_Dmitrenko_security_QR_codecreate.svg</t>
-  </si>
-  <si>
     <t>890c4726435f6d5a1c10068273e8dd8a3ac0645a9564bbf149f0d74a891669c6</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1gUf_Lr8FmfVBxMzS1hFqbCSo2zcfClKF/view</t>
+  </si>
+  <si>
     <t>Vladislav Dmitrenko</t>
   </si>
   <si>
+    <t>Marina Rindina</t>
+  </si>
+  <si>
     <t>05f89d361327d9ef1679342cb8ed0488715da550cba8f0bdc7160caa43b5929c</t>
   </si>
   <si>
-    <t>Marina Rindina</t>
+    <t>https://drive.google.com/file/d/1_ozCZpouUUIXvwbZ6olpj2GG4JGjOCXb/view</t>
   </si>
   <si>
     <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1w5gYvfTtj4sD7pHBUzBrLaM6bcwkJCRK/view</t>
+    <t>fec88d795aed9c59a04f91dedb06380fd764c753a54d6bdb96cea82b6ba05e29</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1g22K_nue_etzpsi4tYC8bAHpOWzN07n0/view</t>
+  </si>
+  <si>
+    <t>15.12.2022</t>
   </si>
   <si>
     <t>Nazar Franko</t>
   </si>
   <si>
-    <t>15.12.2022</t>
+    <t>fec88d795aed9c59a04f</t>
+  </si>
+  <si>
+    <t>HL/mv02dnaeyvxsR9TyKJfqMl9lFEn1L8OidD6AzOq6SbieHRkQRPK29os5vKBwoJ5+Bf7RtfN9xUiVEOCASXj0=</t>
+  </si>
+  <si>
+    <t>HErdMQ+2CPtlOJcP0I5vxghyuQmJVGZrrQr9SzMolPyHA1fUnzBjAbN7DzwkyP+y7M+dkiNCGOkNsY3YZaCO1XA=</t>
+  </si>
+  <si>
+    <t>9b293cc55ae62c9db4d9ce36cbc12b07e861f9c2cc1fdea2619f10ceca7aa779</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FJd9-kepCCqEp6bt5PhntSQI-xtY8bcx/view</t>
   </si>
   <si>
     <t>Olha Drahomeretska</t>
   </si>
   <si>
+    <t>9b293cc55ae62c9db4d9</t>
+  </si>
+  <si>
+    <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
+  </si>
+  <si>
+    <t>Maksym Cherniak</t>
+  </si>
+  <si>
+    <t>ac2b88ac92caf80b1207</t>
+  </si>
+  <si>
+    <t>ac2b88ac92caf80b12076489c877b91785360487aa3135871883e597da139682</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Maksym_Cherniak_security_QR_codecreate.svg</t>
-  </si>
-  <si>
-    <t>Maksym Cherniak</t>
-  </si>
-  <si>
-    <t>ac2b88ac92caf80b1207</t>
-  </si>
-  <si>
-    <t>ac2b88ac92caf80b12076489c877b91785360487aa3135871883e597da139682</t>
+    <t>https://drive.google.com/file/d/1ZcpmxZ0_IFbambMGQgxq54rclJgxjAmM/view</t>
   </si>
   <si>
     <t>3bf214d846d708bfad511d51d92350d45ba0bcf21f43b7bb46553ed2e0aad585</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1S6UenLA2xeiOEYJh0CUiAAvSVFNLRRo1/view</t>
+  </si>
+  <si>
     <t>HDfq7iIvfl/KNv5Cs/GPeiZndLZYqskpWWIXt7VX3LunRfVInSqJiTeO33MHHKI8aX3Zz4VgDh7LV5fAg/zZPZk=</t>
-  </si>
-  <si>
-    <t>./qr/certificate_Maksym_Cherniak__QR_codecreate.svg</t>
   </si>
 </sst>
 </file>
@@ -2134,66 +2173,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -2201,31 +2240,31 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -2233,31 +2272,31 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -2268,28 +2307,28 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -2297,31 +2336,31 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -2332,28 +2371,28 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -2361,31 +2400,31 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -2396,28 +2435,28 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -2428,28 +2467,28 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -2460,28 +2499,28 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -2489,31 +2528,31 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -2524,28 +2563,28 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -2556,28 +2595,28 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -2588,28 +2627,28 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -2620,28 +2659,28 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -2652,28 +2691,28 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -2681,31 +2720,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -2713,796 +2752,796 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>47</v>
-      </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
         <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
         <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
         <v>65</v>
       </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>64</v>
-      </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
         <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
         <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
         <v>74</v>
       </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" t="s">
-        <v>73</v>
-      </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
         <v>75</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s">
         <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" t="s">
-        <v>78</v>
-      </c>
-      <c r="I38" t="s">
-        <v>79</v>
-      </c>
-      <c r="J38" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
         <v>84</v>
       </c>
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
         <v>85</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>88</v>
       </c>
       <c r="G39" t="s">
         <v>86</v>
       </c>
       <c r="H39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
         <v>95</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" t="s">
         <v>92</v>
       </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="J40" t="s">
         <v>93</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" t="s">
-        <v>98</v>
-      </c>
-      <c r="J40" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
         <v>105</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
         <v>100</v>
       </c>
-      <c r="C41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="G41" t="s">
         <v>101</v>
       </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>102</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>107</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>103</v>
-      </c>
-      <c r="J41" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
         <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
         <v>113</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H42" t="s">
         <v>109</v>
       </c>
       <c r="I42" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42" t="s">
         <v>110</v>
-      </c>
-      <c r="J42" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
         <v>116</v>
       </c>
       <c r="G43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J43" t="s">
         <v>119</v>
@@ -3510,57 +3549,57 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
         <v>123</v>
       </c>
-      <c r="C44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
         <v>124</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s">
-        <v>126</v>
       </c>
       <c r="G44" t="s">
         <v>125</v>
       </c>
       <c r="H44" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" t="s">
+        <v>129</v>
+      </c>
+      <c r="J44" t="s">
         <v>127</v>
-      </c>
-      <c r="I44" t="s">
-        <v>128</v>
-      </c>
-      <c r="J44" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
         <v>133</v>
-      </c>
-      <c r="B45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
-        <v>132</v>
       </c>
       <c r="H45" t="s">
         <v>134</v>
@@ -3569,7 +3608,7 @@
         <v>135</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -3577,124 +3616,124 @@
         <v>139</v>
       </c>
       <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" t="s">
         <v>136</v>
       </c>
-      <c r="C46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="H46" t="s">
         <v>137</v>
       </c>
-      <c r="E46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" t="s">
         <v>138</v>
-      </c>
-      <c r="H46" t="s">
-        <v>141</v>
-      </c>
-      <c r="I46" t="s">
-        <v>142</v>
-      </c>
-      <c r="J46" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" t="s">
         <v>148</v>
       </c>
-      <c r="B47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>149</v>
-      </c>
-      <c r="D47" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" t="s">
-        <v>146</v>
       </c>
       <c r="F47" t="s">
         <v>150</v>
       </c>
       <c r="G47" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H47" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J47" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
         <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D48" t="s">
         <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F48" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" t="s">
         <v>157</v>
       </c>
-      <c r="G48" t="s">
-        <v>156</v>
-      </c>
       <c r="H48" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I48" t="s">
+        <v>159</v>
+      </c>
+      <c r="J48" t="s">
         <v>158</v>
-      </c>
-      <c r="J48" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" t="s">
         <v>149</v>
-      </c>
-      <c r="D49" t="s">
-        <v>165</v>
-      </c>
-      <c r="E49" t="s">
-        <v>146</v>
       </c>
       <c r="F49" t="s">
         <v>161</v>
       </c>
       <c r="G49" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H49" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J49" t="s">
         <v>163</v>
@@ -3702,223 +3741,223 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" t="s">
         <v>167</v>
       </c>
-      <c r="C50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="H50" t="s">
         <v>168</v>
       </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" t="s">
-        <v>170</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
+        <v>173</v>
+      </c>
+      <c r="J50" t="s">
         <v>169</v>
-      </c>
-      <c r="H50" t="s">
-        <v>171</v>
-      </c>
-      <c r="I50" t="s">
-        <v>172</v>
-      </c>
-      <c r="J50" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" t="s">
+        <v>178</v>
+      </c>
+      <c r="G51" t="s">
+        <v>179</v>
+      </c>
+      <c r="H51" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" t="s">
         <v>174</v>
       </c>
-      <c r="C51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="J51" t="s">
         <v>175</v>
-      </c>
-      <c r="E51" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51" t="s">
-        <v>179</v>
-      </c>
-      <c r="G51" t="s">
-        <v>176</v>
-      </c>
-      <c r="H51" t="s">
-        <v>151</v>
-      </c>
-      <c r="I51" t="s">
-        <v>177</v>
-      </c>
-      <c r="J51" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" t="s">
         <v>149</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>181</v>
-      </c>
-      <c r="E52" t="s">
-        <v>146</v>
-      </c>
-      <c r="F52" t="s">
-        <v>183</v>
       </c>
       <c r="G52" t="s">
         <v>182</v>
       </c>
       <c r="H52" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I52" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" t="s">
+        <v>149</v>
+      </c>
+      <c r="F53" t="s">
         <v>186</v>
       </c>
-      <c r="C53" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="G53" t="s">
         <v>187</v>
       </c>
-      <c r="E53" t="s">
-        <v>146</v>
-      </c>
-      <c r="F53" t="s">
-        <v>189</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" t="s">
+        <v>191</v>
+      </c>
+      <c r="J53" t="s">
         <v>188</v>
-      </c>
-      <c r="H53" t="s">
-        <v>151</v>
-      </c>
-      <c r="I53" t="s">
-        <v>190</v>
-      </c>
-      <c r="J53" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54" t="s">
+        <v>196</v>
+      </c>
+      <c r="H54" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" t="s">
         <v>192</v>
       </c>
-      <c r="C54" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" t="s">
-        <v>193</v>
-      </c>
-      <c r="E54" t="s">
-        <v>146</v>
-      </c>
-      <c r="F54" t="s">
-        <v>196</v>
-      </c>
-      <c r="G54" t="s">
-        <v>194</v>
-      </c>
-      <c r="H54" t="s">
-        <v>151</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>197</v>
-      </c>
-      <c r="J54" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
         <v>202</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D55" t="s">
         <v>203</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F55" t="s">
+        <v>199</v>
+      </c>
+      <c r="G55" t="s">
         <v>200</v>
       </c>
-      <c r="G55" t="s">
-        <v>201</v>
-      </c>
       <c r="H55" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I55" t="s">
         <v>198</v>
       </c>
       <c r="J55" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
         <v>205</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>149</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>206</v>
       </c>
-      <c r="E56" t="s">
-        <v>146</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
+        <v>207</v>
+      </c>
+      <c r="H56" t="s">
+        <v>144</v>
+      </c>
+      <c r="I56" t="s">
         <v>209</v>
-      </c>
-      <c r="G56" t="s">
-        <v>204</v>
-      </c>
-      <c r="H56" t="s">
-        <v>151</v>
-      </c>
-      <c r="I56" t="s">
-        <v>207</v>
       </c>
       <c r="J56" t="s">
         <v>208</v>
@@ -3926,31 +3965,31 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" t="s">
         <v>149</v>
-      </c>
-      <c r="D57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E57" t="s">
-        <v>146</v>
       </c>
       <c r="F57" t="s">
         <v>161</v>
       </c>
       <c r="G57" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H57" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J57" t="s">
         <v>163</v>
@@ -3958,258 +3997,258 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
         <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D58" t="s">
         <v>214</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F58" t="s">
+        <v>215</v>
+      </c>
+      <c r="G58" t="s">
         <v>211</v>
       </c>
-      <c r="G58" t="s">
-        <v>215</v>
-      </c>
       <c r="H58" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I58" t="s">
+        <v>210</v>
+      </c>
+      <c r="J58" t="s">
         <v>212</v>
-      </c>
-      <c r="J58" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B59" t="s">
         <v>221</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
         <v>222</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
+        <v>216</v>
+      </c>
+      <c r="G59" t="s">
+        <v>217</v>
+      </c>
+      <c r="H59" t="s">
+        <v>218</v>
+      </c>
+      <c r="I59" t="s">
+        <v>223</v>
+      </c>
+      <c r="J59" t="s">
         <v>219</v>
-      </c>
-      <c r="G59" t="s">
-        <v>223</v>
-      </c>
-      <c r="H59" t="s">
-        <v>220</v>
-      </c>
-      <c r="I59" t="s">
-        <v>216</v>
-      </c>
-      <c r="J59" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" t="s">
         <v>231</v>
       </c>
-      <c r="B60" t="s">
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>225</v>
+      </c>
+      <c r="G60" t="s">
         <v>226</v>
       </c>
-      <c r="C60" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="H60" t="s">
+        <v>227</v>
+      </c>
+      <c r="I60" t="s">
         <v>224</v>
       </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" t="s">
-        <v>227</v>
-      </c>
-      <c r="G60" t="s">
-        <v>225</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="J60" t="s">
         <v>228</v>
-      </c>
-      <c r="I60" t="s">
-        <v>229</v>
-      </c>
-      <c r="J60" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B61" t="s">
+        <v>233</v>
+      </c>
+      <c r="C61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" t="s">
+        <v>234</v>
+      </c>
+      <c r="E61" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" t="s">
         <v>235</v>
       </c>
-      <c r="C61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="G61" t="s">
         <v>236</v>
       </c>
-      <c r="E61" t="s">
-        <v>146</v>
-      </c>
-      <c r="F61" t="s">
-        <v>234</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
+        <v>144</v>
+      </c>
+      <c r="I61" t="s">
         <v>237</v>
       </c>
-      <c r="H61" t="s">
-        <v>151</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>232</v>
-      </c>
-      <c r="J61" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" t="s">
         <v>238</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>240</v>
+      </c>
+      <c r="G62" t="s">
+        <v>241</v>
+      </c>
+      <c r="H62" t="s">
+        <v>242</v>
+      </c>
+      <c r="I62" t="s">
+        <v>245</v>
+      </c>
+      <c r="J62" t="s">
         <v>243</v>
-      </c>
-      <c r="C62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D62" t="s">
-        <v>244</v>
-      </c>
-      <c r="E62" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" t="s">
-        <v>239</v>
-      </c>
-      <c r="G62" t="s">
-        <v>245</v>
-      </c>
-      <c r="H62" t="s">
-        <v>240</v>
-      </c>
-      <c r="I62" t="s">
-        <v>241</v>
-      </c>
-      <c r="J62" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D63" t="s">
         <v>247</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F63" t="s">
+        <v>248</v>
+      </c>
+      <c r="G63" t="s">
+        <v>249</v>
+      </c>
+      <c r="H63" t="s">
         <v>250</v>
       </c>
-      <c r="G63" t="s">
-        <v>248</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
+        <v>246</v>
+      </c>
+      <c r="J63" t="s">
         <v>251</v>
-      </c>
-      <c r="I63" t="s">
-        <v>252</v>
-      </c>
-      <c r="J63" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" t="s">
         <v>257</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" t="s">
+        <v>258</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>259</v>
+      </c>
+      <c r="G64" t="s">
         <v>260</v>
       </c>
-      <c r="C64" t="s">
-        <v>149</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="H64" t="s">
         <v>261</v>
       </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" t="s">
-        <v>258</v>
-      </c>
-      <c r="G64" t="s">
-        <v>259</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>254</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>255</v>
-      </c>
-      <c r="J64" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s">
+        <v>266</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s">
+        <v>267</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
         <v>262</v>
       </c>
-      <c r="C65" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="G65" t="s">
         <v>263</v>
       </c>
-      <c r="E65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
+        <v>264</v>
+      </c>
+      <c r="I65" t="s">
+        <v>268</v>
+      </c>
+      <c r="J65" t="s">
         <v>265</v>
-      </c>
-      <c r="G65" t="s">
-        <v>264</v>
-      </c>
-      <c r="H65" t="s">
-        <v>266</v>
-      </c>
-      <c r="I65" t="s">
-        <v>267</v>
-      </c>
-      <c r="J65" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="66">
@@ -4217,28 +4256,28 @@
         <v>275</v>
       </c>
       <c r="B66" t="s">
+        <v>269</v>
+      </c>
+      <c r="C66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" t="s">
         <v>270</v>
       </c>
-      <c r="C66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
         <v>271</v>
       </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
+        <v>272</v>
+      </c>
+      <c r="H66" t="s">
+        <v>273</v>
+      </c>
+      <c r="I66" t="s">
         <v>276</v>
-      </c>
-      <c r="G66" t="s">
-        <v>269</v>
-      </c>
-      <c r="H66" t="s">
-        <v>272</v>
-      </c>
-      <c r="I66" t="s">
-        <v>273</v>
       </c>
       <c r="J66" t="s">
         <v>274</v>
@@ -4252,57 +4291,57 @@
         <v>277</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
         <v>278</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
+        <v>279</v>
+      </c>
+      <c r="G67" t="s">
         <v>280</v>
-      </c>
-      <c r="G67" t="s">
-        <v>279</v>
       </c>
       <c r="H67" t="s">
         <v>281</v>
       </c>
       <c r="I67" t="s">
+        <v>283</v>
+      </c>
+      <c r="J67" t="s">
         <v>282</v>
-      </c>
-      <c r="J67" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B68" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" t="s">
+        <v>290</v>
+      </c>
+      <c r="E68" t="s">
         <v>149</v>
-      </c>
-      <c r="D68" t="s">
-        <v>289</v>
-      </c>
-      <c r="E68" t="s">
-        <v>146</v>
       </c>
       <c r="F68" t="s">
         <v>285</v>
       </c>
       <c r="G68" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H68" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I68" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J68" t="s">
         <v>287</v>
@@ -4310,51 +4349,51 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>295</v>
+      </c>
+      <c r="B69" t="s">
+        <v>296</v>
+      </c>
+      <c r="C69" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" t="s">
+        <v>297</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>291</v>
+      </c>
+      <c r="G69" t="s">
+        <v>292</v>
+      </c>
+      <c r="H69" t="s">
+        <v>293</v>
+      </c>
+      <c r="I69" t="s">
+        <v>298</v>
+      </c>
+      <c r="J69" t="s">
         <v>294</v>
-      </c>
-      <c r="B69" t="s">
-        <v>291</v>
-      </c>
-      <c r="C69" t="s">
-        <v>149</v>
-      </c>
-      <c r="D69" t="s">
-        <v>292</v>
-      </c>
-      <c r="E69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" t="s">
-        <v>295</v>
-      </c>
-      <c r="G69" t="s">
-        <v>293</v>
-      </c>
-      <c r="H69" t="s">
-        <v>296</v>
-      </c>
-      <c r="I69" t="s">
-        <v>297</v>
-      </c>
-      <c r="J69" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
         <v>302</v>
@@ -4363,365 +4402,365 @@
         <v>303</v>
       </c>
       <c r="H70" t="s">
+        <v>304</v>
+      </c>
+      <c r="I70" t="s">
         <v>299</v>
       </c>
-      <c r="I70" t="s">
-        <v>300</v>
-      </c>
       <c r="J70" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B71" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D71" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
+        <v>310</v>
+      </c>
+      <c r="G71" t="s">
         <v>311</v>
-      </c>
-      <c r="G71" t="s">
-        <v>308</v>
       </c>
       <c r="H71" t="s">
         <v>312</v>
       </c>
       <c r="I71" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J71" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B72" t="s">
+        <v>314</v>
+      </c>
+      <c r="C72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" t="s">
+        <v>315</v>
+      </c>
+      <c r="E72" t="s">
+        <v>149</v>
+      </c>
+      <c r="F72" t="s">
         <v>316</v>
       </c>
-      <c r="C72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="G72" t="s">
         <v>317</v>
       </c>
-      <c r="E72" t="s">
-        <v>146</v>
-      </c>
-      <c r="F72" t="s">
-        <v>314</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
+        <v>144</v>
+      </c>
+      <c r="I72" t="s">
+        <v>313</v>
+      </c>
+      <c r="J72" t="s">
         <v>318</v>
-      </c>
-      <c r="H72" t="s">
-        <v>151</v>
-      </c>
-      <c r="I72" t="s">
-        <v>315</v>
-      </c>
-      <c r="J72" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>324</v>
+      </c>
+      <c r="B73" t="s">
+        <v>325</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" t="s">
+        <v>326</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>320</v>
+      </c>
+      <c r="G73" t="s">
         <v>321</v>
       </c>
-      <c r="B73" t="s">
-        <v>324</v>
-      </c>
-      <c r="C73" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73" t="s">
-        <v>325</v>
-      </c>
-      <c r="E73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>322</v>
-      </c>
-      <c r="G73" t="s">
-        <v>326</v>
-      </c>
-      <c r="H73" t="s">
-        <v>323</v>
       </c>
       <c r="I73" t="s">
         <v>319</v>
       </c>
       <c r="J73" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B74" t="s">
+        <v>331</v>
+      </c>
+      <c r="C74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" t="s">
+        <v>332</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>333</v>
+      </c>
+      <c r="G74" t="s">
+        <v>328</v>
+      </c>
+      <c r="H74" t="s">
+        <v>329</v>
+      </c>
+      <c r="I74" t="s">
         <v>327</v>
       </c>
-      <c r="C74" t="s">
-        <v>149</v>
-      </c>
-      <c r="D74" t="s">
-        <v>328</v>
-      </c>
-      <c r="E74" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" t="s">
-        <v>332</v>
-      </c>
-      <c r="G74" t="s">
-        <v>329</v>
-      </c>
-      <c r="H74" t="s">
-        <v>333</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>330</v>
-      </c>
-      <c r="J74" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B75" t="s">
+        <v>340</v>
+      </c>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" t="s">
         <v>334</v>
       </c>
-      <c r="C75" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
         <v>335</v>
-      </c>
-      <c r="E75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" t="s">
-        <v>338</v>
       </c>
       <c r="G75" t="s">
         <v>336</v>
       </c>
       <c r="H75" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I75" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J75" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B76" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" t="s">
         <v>343</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
         <v>149</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
         <v>344</v>
       </c>
-      <c r="E76" t="s">
-        <v>146</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>345</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
+        <v>144</v>
+      </c>
+      <c r="I76" t="s">
         <v>342</v>
       </c>
-      <c r="H76" t="s">
-        <v>151</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>346</v>
-      </c>
-      <c r="J76" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B77" t="s">
+        <v>351</v>
+      </c>
+      <c r="C77" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" t="s">
+        <v>352</v>
+      </c>
+      <c r="E77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F77" t="s">
+        <v>348</v>
+      </c>
+      <c r="G77" t="s">
         <v>349</v>
       </c>
-      <c r="C77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="H77" t="s">
+        <v>144</v>
+      </c>
+      <c r="I77" t="s">
+        <v>353</v>
+      </c>
+      <c r="J77" t="s">
         <v>350</v>
-      </c>
-      <c r="E77" t="s">
-        <v>146</v>
-      </c>
-      <c r="F77" t="s">
-        <v>351</v>
-      </c>
-      <c r="G77" t="s">
-        <v>348</v>
-      </c>
-      <c r="H77" t="s">
-        <v>151</v>
-      </c>
-      <c r="I77" t="s">
-        <v>352</v>
-      </c>
-      <c r="J77" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>359</v>
+      </c>
+      <c r="B78" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78" t="s">
+        <v>355</v>
+      </c>
+      <c r="E78" t="s">
+        <v>149</v>
+      </c>
+      <c r="F78" t="s">
+        <v>356</v>
+      </c>
+      <c r="G78" t="s">
+        <v>357</v>
+      </c>
+      <c r="H78" t="s">
+        <v>144</v>
+      </c>
+      <c r="I78" t="s">
         <v>354</v>
       </c>
-      <c r="B78" t="s">
+      <c r="J78" t="s">
         <v>358</v>
-      </c>
-      <c r="C78" t="s">
-        <v>149</v>
-      </c>
-      <c r="D78" t="s">
-        <v>359</v>
-      </c>
-      <c r="E78" t="s">
-        <v>146</v>
-      </c>
-      <c r="F78" t="s">
-        <v>355</v>
-      </c>
-      <c r="G78" t="s">
-        <v>360</v>
-      </c>
-      <c r="H78" t="s">
-        <v>151</v>
-      </c>
-      <c r="I78" t="s">
-        <v>356</v>
-      </c>
-      <c r="J78" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B79" t="s">
+        <v>366</v>
+      </c>
+      <c r="C79" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" t="s">
+        <v>361</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>362</v>
+      </c>
+      <c r="G79" t="s">
+        <v>363</v>
+      </c>
+      <c r="H79" t="s">
+        <v>364</v>
+      </c>
+      <c r="I79" t="s">
         <v>367</v>
       </c>
-      <c r="C79" t="s">
-        <v>149</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="J79" t="s">
         <v>365</v>
-      </c>
-      <c r="E79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" t="s">
-        <v>361</v>
-      </c>
-      <c r="G79" t="s">
-        <v>366</v>
-      </c>
-      <c r="H79" t="s">
-        <v>362</v>
-      </c>
-      <c r="I79" t="s">
-        <v>363</v>
-      </c>
-      <c r="J79" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B80" t="s">
+        <v>368</v>
+      </c>
+      <c r="C80" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" t="s">
+        <v>369</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>370</v>
+      </c>
+      <c r="G80" t="s">
+        <v>371</v>
+      </c>
+      <c r="H80" t="s">
         <v>372</v>
       </c>
-      <c r="C80" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="I80" t="s">
+        <v>374</v>
+      </c>
+      <c r="J80" t="s">
         <v>373</v>
-      </c>
-      <c r="E80" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" t="s">
-        <v>368</v>
-      </c>
-      <c r="G80" t="s">
-        <v>374</v>
-      </c>
-      <c r="H80" t="s">
-        <v>369</v>
-      </c>
-      <c r="I80" t="s">
-        <v>370</v>
-      </c>
-      <c r="J80" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B81" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D81" t="s">
+        <v>380</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
         <v>375</v>
-      </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" t="s">
-        <v>378</v>
       </c>
       <c r="G81" t="s">
         <v>376</v>
       </c>
       <c r="H81" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I81" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J81" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82">
@@ -4729,28 +4768,28 @@
         <v>387</v>
       </c>
       <c r="B82" t="s">
+        <v>388</v>
+      </c>
+      <c r="C82" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" t="s">
         <v>382</v>
       </c>
-      <c r="C82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" t="s">
         <v>383</v>
-      </c>
-      <c r="E82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" t="s">
-        <v>388</v>
       </c>
       <c r="G82" t="s">
         <v>384</v>
       </c>
       <c r="H82" t="s">
+        <v>385</v>
+      </c>
+      <c r="I82" t="s">
         <v>389</v>
-      </c>
-      <c r="I82" t="s">
-        <v>385</v>
       </c>
       <c r="J82" t="s">
         <v>386</v>
@@ -4761,31 +4800,31 @@
         <v>387</v>
       </c>
       <c r="B83" t="s">
+        <v>395</v>
+      </c>
+      <c r="C83" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" t="s">
+        <v>396</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" t="s">
+        <v>391</v>
+      </c>
+      <c r="G83" t="s">
+        <v>392</v>
+      </c>
+      <c r="H83" t="s">
+        <v>393</v>
+      </c>
+      <c r="I83" t="s">
+        <v>390</v>
+      </c>
+      <c r="J83" t="s">
         <v>394</v>
-      </c>
-      <c r="C83" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83" t="s">
-        <v>395</v>
-      </c>
-      <c r="E83" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" t="s">
-        <v>390</v>
-      </c>
-      <c r="G83" t="s">
-        <v>396</v>
-      </c>
-      <c r="H83" t="s">
-        <v>391</v>
-      </c>
-      <c r="I83" t="s">
-        <v>392</v>
-      </c>
-      <c r="J83" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="84">
@@ -4793,511 +4832,511 @@
         <v>387</v>
       </c>
       <c r="B84" t="s">
+        <v>402</v>
+      </c>
+      <c r="C84" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" t="s">
         <v>403</v>
       </c>
-      <c r="C84" t="s">
-        <v>149</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>398</v>
+      </c>
+      <c r="G84" t="s">
+        <v>399</v>
+      </c>
+      <c r="H84" t="s">
+        <v>400</v>
+      </c>
+      <c r="I84" t="s">
+        <v>397</v>
+      </c>
+      <c r="J84" t="s">
         <v>401</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>397</v>
-      </c>
-      <c r="G84" t="s">
-        <v>402</v>
-      </c>
-      <c r="H84" t="s">
-        <v>398</v>
-      </c>
-      <c r="I84" t="s">
-        <v>399</v>
-      </c>
-      <c r="J84" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>408</v>
+      </c>
+      <c r="B85" t="s">
+        <v>409</v>
+      </c>
+      <c r="C85" t="s">
+        <v>152</v>
+      </c>
+      <c r="D85" t="s">
+        <v>410</v>
+      </c>
+      <c r="E85" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" t="s">
+        <v>405</v>
+      </c>
+      <c r="G85" t="s">
         <v>406</v>
       </c>
-      <c r="B85" t="s">
-        <v>408</v>
-      </c>
-      <c r="C85" t="s">
-        <v>149</v>
-      </c>
-      <c r="D85" t="s">
-        <v>409</v>
-      </c>
-      <c r="E85" t="s">
-        <v>146</v>
-      </c>
-      <c r="F85" t="s">
-        <v>407</v>
-      </c>
-      <c r="G85" t="s">
-        <v>410</v>
-      </c>
       <c r="H85" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I85" t="s">
         <v>404</v>
       </c>
       <c r="J85" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B86" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C86" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D86" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
         <v>412</v>
       </c>
       <c r="G86" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H86" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I86" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J86" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B87" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C87" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D87" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
+        <v>418</v>
+      </c>
+      <c r="G87" t="s">
         <v>419</v>
-      </c>
-      <c r="G87" t="s">
-        <v>423</v>
       </c>
       <c r="H87" t="s">
         <v>420</v>
       </c>
       <c r="I87" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J87" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>428</v>
+      </c>
+      <c r="B88" t="s">
         <v>429</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" t="s">
+        <v>430</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
         <v>424</v>
       </c>
-      <c r="C88" t="s">
-        <v>149</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="G88" t="s">
         <v>425</v>
       </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>430</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>426</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>431</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>427</v>
-      </c>
-      <c r="J88" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B89" t="s">
+        <v>433</v>
+      </c>
+      <c r="C89" t="s">
+        <v>152</v>
+      </c>
+      <c r="D89" t="s">
+        <v>434</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>435</v>
+      </c>
+      <c r="G89" t="s">
         <v>436</v>
       </c>
-      <c r="C89" t="s">
-        <v>149</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="H89" t="s">
         <v>437</v>
       </c>
-      <c r="E89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" t="s">
-        <v>434</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="I89" t="s">
         <v>438</v>
       </c>
-      <c r="H89" t="s">
-        <v>435</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>432</v>
-      </c>
-      <c r="J89" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>439</v>
+      </c>
+      <c r="B90" t="s">
+        <v>440</v>
+      </c>
+      <c r="C90" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" t="s">
+        <v>441</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" t="s">
         <v>442</v>
       </c>
-      <c r="B90" t="s">
-        <v>439</v>
-      </c>
-      <c r="C90" t="s">
-        <v>149</v>
-      </c>
-      <c r="D90" t="s">
-        <v>440</v>
-      </c>
-      <c r="E90" t="s">
-        <v>22</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>443</v>
-      </c>
-      <c r="G90" t="s">
-        <v>441</v>
       </c>
       <c r="H90" t="s">
         <v>444</v>
       </c>
       <c r="I90" t="s">
+        <v>446</v>
+      </c>
+      <c r="J90" t="s">
         <v>445</v>
-      </c>
-      <c r="J90" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B91" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C91" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D91" t="s">
+        <v>454</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
         <v>448</v>
-      </c>
-      <c r="E91" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" t="s">
-        <v>451</v>
       </c>
       <c r="G91" t="s">
         <v>449</v>
       </c>
       <c r="H91" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I91" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="J91" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B92" t="s">
+        <v>456</v>
+      </c>
+      <c r="C92" t="s">
+        <v>152</v>
+      </c>
+      <c r="D92" t="s">
+        <v>457</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>458</v>
+      </c>
+      <c r="G92" t="s">
         <v>459</v>
       </c>
-      <c r="C92" t="s">
-        <v>149</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="H92" t="s">
         <v>460</v>
       </c>
-      <c r="E92" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="I92" t="s">
         <v>455</v>
       </c>
-      <c r="G92" t="s">
+      <c r="J92" t="s">
         <v>461</v>
-      </c>
-      <c r="H92" t="s">
-        <v>456</v>
-      </c>
-      <c r="I92" t="s">
-        <v>457</v>
-      </c>
-      <c r="J92" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>463</v>
+      </c>
+      <c r="B93" t="s">
+        <v>464</v>
+      </c>
+      <c r="C93" t="s">
+        <v>152</v>
+      </c>
+      <c r="D93" t="s">
         <v>465</v>
       </c>
-      <c r="B93" t="s">
-        <v>462</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
         <v>149</v>
-      </c>
-      <c r="D93" t="s">
-        <v>463</v>
-      </c>
-      <c r="E93" t="s">
-        <v>146</v>
       </c>
       <c r="F93" t="s">
         <v>466</v>
       </c>
       <c r="G93" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H93" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I93" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J93" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B94" t="s">
         <v>469</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D94" t="s">
         <v>470</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
+        <v>471</v>
+      </c>
+      <c r="G94" t="s">
         <v>472</v>
-      </c>
-      <c r="G94" t="s">
-        <v>471</v>
       </c>
       <c r="H94" t="s">
         <v>473</v>
       </c>
       <c r="I94" t="s">
+        <v>475</v>
+      </c>
+      <c r="J94" t="s">
         <v>474</v>
-      </c>
-      <c r="J94" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>476</v>
+      </c>
+      <c r="B95" t="s">
+        <v>477</v>
+      </c>
+      <c r="C95" t="s">
+        <v>152</v>
+      </c>
+      <c r="D95" t="s">
+        <v>478</v>
+      </c>
+      <c r="E95" t="s">
+        <v>149</v>
+      </c>
+      <c r="F95" t="s">
         <v>479</v>
       </c>
-      <c r="B95" t="s">
+      <c r="G95" t="s">
+        <v>480</v>
+      </c>
+      <c r="H95" t="s">
+        <v>144</v>
+      </c>
+      <c r="I95" t="s">
         <v>482</v>
       </c>
-      <c r="C95" t="s">
-        <v>149</v>
-      </c>
-      <c r="D95" t="s">
-        <v>480</v>
-      </c>
-      <c r="E95" t="s">
-        <v>146</v>
-      </c>
-      <c r="F95" t="s">
-        <v>476</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="J95" t="s">
         <v>481</v>
-      </c>
-      <c r="H95" t="s">
-        <v>151</v>
-      </c>
-      <c r="I95" t="s">
-        <v>477</v>
-      </c>
-      <c r="J95" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B96" t="s">
+        <v>484</v>
+      </c>
+      <c r="C96" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" t="s">
+        <v>485</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>486</v>
+      </c>
+      <c r="G96" t="s">
         <v>487</v>
       </c>
-      <c r="C96" t="s">
-        <v>149</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="H96" t="s">
         <v>488</v>
       </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="I96" t="s">
         <v>483</v>
       </c>
-      <c r="G96" t="s">
+      <c r="J96" t="s">
         <v>489</v>
-      </c>
-      <c r="H96" t="s">
-        <v>484</v>
-      </c>
-      <c r="I96" t="s">
-        <v>485</v>
-      </c>
-      <c r="J96" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B97" t="s">
+        <v>491</v>
+      </c>
+      <c r="C97" t="s">
+        <v>152</v>
+      </c>
+      <c r="D97" t="s">
+        <v>492</v>
+      </c>
+      <c r="E97" t="s">
+        <v>149</v>
+      </c>
+      <c r="F97" t="s">
         <v>493</v>
       </c>
-      <c r="C97" t="s">
-        <v>149</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="G97" t="s">
         <v>494</v>
       </c>
-      <c r="E97" t="s">
-        <v>146</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="H97" t="s">
+        <v>144</v>
+      </c>
+      <c r="I97" t="s">
+        <v>495</v>
+      </c>
+      <c r="J97" t="s">
         <v>490</v>
-      </c>
-      <c r="G97" t="s">
-        <v>495</v>
-      </c>
-      <c r="H97" t="s">
-        <v>151</v>
-      </c>
-      <c r="I97" t="s">
-        <v>491</v>
-      </c>
-      <c r="J97" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B98" t="s">
         <v>502</v>
       </c>
       <c r="C98" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D98" t="s">
         <v>503</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F98" t="s">
+        <v>497</v>
+      </c>
+      <c r="G98" t="s">
+        <v>498</v>
+      </c>
+      <c r="H98" t="s">
+        <v>499</v>
+      </c>
+      <c r="I98" t="s">
         <v>496</v>
       </c>
-      <c r="G98" t="s">
-        <v>501</v>
-      </c>
-      <c r="H98" t="s">
-        <v>497</v>
-      </c>
-      <c r="I98" t="s">
-        <v>498</v>
-      </c>
       <c r="J98" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B99" t="s">
+        <v>509</v>
+      </c>
+      <c r="C99" t="s">
+        <v>504</v>
+      </c>
+      <c r="D99" t="s">
+        <v>510</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" t="s">
         <v>511</v>
       </c>
-      <c r="C99" t="s">
-        <v>508</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="G99" t="s">
         <v>512</v>
       </c>
-      <c r="E99" t="s">
-        <v>22</v>
-      </c>
-      <c r="F99" t="s">
-        <v>509</v>
-      </c>
-      <c r="G99" t="s">
-        <v>510</v>
-      </c>
       <c r="H99" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I99" t="s">
         <v>505</v>
       </c>
       <c r="J99" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="100">
@@ -5305,25 +5344,25 @@
         <v>515</v>
       </c>
       <c r="B100" t="s">
+        <v>516</v>
+      </c>
+      <c r="C100" t="s">
+        <v>504</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
         <v>517</v>
       </c>
-      <c r="C100" t="s">
-        <v>508</v>
-      </c>
-      <c r="D100" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" t="s">
-        <v>516</v>
-      </c>
       <c r="H100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I100" t="s">
         <v>513</v>
@@ -5337,28 +5376,28 @@
         <v>515</v>
       </c>
       <c r="B101" t="s">
+        <v>520</v>
+      </c>
+      <c r="C101" t="s">
+        <v>504</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" t="s">
+        <v>518</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101" t="s">
         <v>521</v>
-      </c>
-      <c r="C101" t="s">
-        <v>508</v>
-      </c>
-      <c r="D101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" t="s">
-        <v>520</v>
-      </c>
-      <c r="H101" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" t="s">
-        <v>518</v>
       </c>
       <c r="J101" t="s">
         <v>519</v>
@@ -5369,31 +5408,31 @@
         <v>515</v>
       </c>
       <c r="B102" t="s">
+        <v>524</v>
+      </c>
+      <c r="C102" t="s">
+        <v>504</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>525</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" t="s">
         <v>522</v>
       </c>
-      <c r="C102" t="s">
-        <v>508</v>
-      </c>
-      <c r="D102" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="J102" t="s">
         <v>523</v>
-      </c>
-      <c r="H102" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" t="s">
-        <v>524</v>
-      </c>
-      <c r="J102" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="103">
@@ -5401,31 +5440,31 @@
         <v>515</v>
       </c>
       <c r="B103" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C103" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G103" t="s">
         <v>526</v>
       </c>
       <c r="H103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I103" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J103" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="104">
@@ -5433,156 +5472,156 @@
         <v>515</v>
       </c>
       <c r="B104" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C104" t="s">
+        <v>532</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
         <v>531</v>
       </c>
-      <c r="D104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" t="s">
+        <v>533</v>
+      </c>
+      <c r="J104" t="s">
         <v>530</v>
-      </c>
-      <c r="H104" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104" t="s">
-        <v>532</v>
-      </c>
-      <c r="J104" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>536</v>
+      </c>
+      <c r="B105" t="s">
+        <v>433</v>
+      </c>
+      <c r="C105" t="s">
+        <v>504</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
         <v>537</v>
       </c>
-      <c r="B105" t="s">
-        <v>436</v>
-      </c>
-      <c r="C105" t="s">
-        <v>508</v>
-      </c>
-      <c r="D105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105" t="s">
         <v>534</v>
       </c>
-      <c r="H105" t="s">
-        <v>10</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>535</v>
-      </c>
-      <c r="J105" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B106" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C106" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I106" t="s">
         <v>538</v>
       </c>
       <c r="J106" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>545</v>
+      </c>
+      <c r="B107" t="s">
+        <v>379</v>
+      </c>
+      <c r="C107" t="s">
+        <v>504</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>543</v>
+      </c>
+      <c r="H107" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" t="s">
+        <v>542</v>
+      </c>
+      <c r="J107" t="s">
         <v>544</v>
-      </c>
-      <c r="B107" t="s">
-        <v>377</v>
-      </c>
-      <c r="C107" t="s">
-        <v>508</v>
-      </c>
-      <c r="D107" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" t="s">
-        <v>542</v>
-      </c>
-      <c r="H107" t="s">
-        <v>10</v>
-      </c>
-      <c r="I107" t="s">
-        <v>545</v>
-      </c>
-      <c r="J107" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B108" t="s">
         <v>548</v>
       </c>
       <c r="C108" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
+        <v>546</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" t="s">
         <v>549</v>
-      </c>
-      <c r="H108" t="s">
-        <v>10</v>
-      </c>
-      <c r="I108" t="s">
-        <v>546</v>
       </c>
       <c r="J108" t="s">
         <v>547</v>
@@ -5590,31 +5629,31 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B109" t="s">
         <v>552</v>
       </c>
       <c r="C109" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G109" t="s">
+        <v>550</v>
+      </c>
+      <c r="H109" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" t="s">
         <v>553</v>
-      </c>
-      <c r="H109" t="s">
-        <v>10</v>
-      </c>
-      <c r="I109" t="s">
-        <v>550</v>
       </c>
       <c r="J109" t="s">
         <v>551</v>
@@ -5622,31 +5661,31 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B110" t="s">
+        <v>556</v>
+      </c>
+      <c r="C110" t="s">
+        <v>504</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>554</v>
+      </c>
+      <c r="H110" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" t="s">
         <v>557</v>
-      </c>
-      <c r="C110" t="s">
-        <v>508</v>
-      </c>
-      <c r="D110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" t="s">
-        <v>556</v>
-      </c>
-      <c r="H110" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" t="s">
-        <v>554</v>
       </c>
       <c r="J110" t="s">
         <v>555</v>
@@ -5654,28 +5693,28 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B111" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C111" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G111" t="s">
         <v>560</v>
       </c>
       <c r="H111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I111" t="s">
         <v>558</v>
@@ -5686,418 +5725,418 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>561</v>
+      </c>
+      <c r="B112" t="s">
         <v>562</v>
       </c>
-      <c r="B112" t="s">
-        <v>561</v>
-      </c>
       <c r="C112" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>10</v>
+        <v>563</v>
       </c>
       <c r="H112" t="s">
-        <v>563</v>
+        <v>11</v>
       </c>
       <c r="I112" t="s">
-        <v>10</v>
+        <v>565</v>
       </c>
       <c r="J112" t="s">
-        <v>10</v>
+        <v>564</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B113" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C113" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G113" t="s">
         <v>567</v>
       </c>
       <c r="H113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I113" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J113" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B114" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C114" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I114" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="J114" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B115" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C115" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G115" t="s">
         <v>573</v>
       </c>
       <c r="H115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I115" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="J115" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B116" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C116" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>10</v>
+        <v>577</v>
       </c>
       <c r="H116" t="s">
-        <v>563</v>
+        <v>11</v>
       </c>
       <c r="I116" t="s">
-        <v>10</v>
+        <v>576</v>
       </c>
       <c r="J116" t="s">
-        <v>10</v>
+        <v>578</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B117" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C117" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="H117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I117" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="J117" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B118" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C118" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="H118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I118" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="J118" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B119" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C119" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I119" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="J119" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B120" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C120" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G120" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="H120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I120" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="J120" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B121" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="C121" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>10</v>
+        <v>596</v>
       </c>
       <c r="H121" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I121" t="s">
-        <v>10</v>
+        <v>601</v>
       </c>
       <c r="J121" t="s">
-        <v>10</v>
+        <v>597</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B122" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C122" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>606</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>10</v>
+        <v>603</v>
       </c>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I122" t="s">
-        <v>10</v>
+        <v>602</v>
       </c>
       <c r="J122" t="s">
-        <v>10</v>
+        <v>604</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B123" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="C123" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D123" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="H123" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="I123" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="J123" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B124" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="C124" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="H124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I124" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="J124" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,34 +16,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
   <si>
+    <t>COURSE TITLE</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>CERTIFICATE</t>
+  </si>
+  <si>
+    <t>SIGNATURE</t>
+  </si>
+  <si>
+    <t>DIGITAL CERTIFICATE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
+  <si>
+    <t>TRANSACTION HASH</t>
+  </si>
+  <si>
     <t>SERIAL NUMBER</t>
   </si>
   <si>
-    <t>NOTE</t>
-  </si>
-  <si>
-    <t>CERTIFICATE</t>
-  </si>
-  <si>
     <t>DATA HASH</t>
   </si>
   <si>
-    <t>TRANSACTION HASH</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>PARTICIPANT</t>
-  </si>
-  <si>
-    <t>DIGITAL CERTIFICATE</t>
-  </si>
-  <si>
-    <t>COURSE TITLE</t>
-  </si>
-  <si>
-    <t>SIGNATURE</t>
+    <t>Петро Петрович Воробієнко</t>
   </si>
   <si>
     <t>Біткоїн та криптовалюти</t>
@@ -52,60 +55,57 @@
     <t/>
   </si>
   <si>
+    <t>private link</t>
+  </si>
+  <si>
     <t>25.06.2015</t>
   </si>
   <si>
-    <t>Петро Петрович Воробієнко</t>
-  </si>
-  <si>
     <t>ginesis certificate</t>
   </si>
   <si>
-    <t>private link</t>
+    <t>10.05.2016</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1xobiD9wUIQcesMkrmh5x2x_aWnibPkqI/view</t>
+  </si>
+  <si>
+    <t>Nikita Magda</t>
   </si>
   <si>
     <t>Cryptocurrencies and Distributed Systems</t>
   </si>
   <si>
-    <t>10.05.2016</t>
-  </si>
-  <si>
-    <t>Nikita Magda</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1xobiD9wUIQcesMkrmh5x2x_aWnibPkqI/view</t>
+    <t>graduated with honors</t>
   </si>
   <si>
     <t>Нестеров Максим</t>
   </si>
   <si>
-    <t>graduated with honors</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/18lYidkmWMBuBxR0FU0OIGuQ8doTz8zQs/view</t>
   </si>
   <si>
     <t>Alexey Shendrick</t>
   </si>
   <si>
+    <t>Anastasia Sapozhkova</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1KuJR4GYiRyC4Oh6Z6q-u9fpqe-EPWabk/view</t>
   </si>
   <si>
-    <t>Anastasia Sapozhkova</t>
-  </si>
-  <si>
     <t>Den Galkin</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1xd3b6fXkkagcyEeiMZ1P7kKH_BM1BRuv/view</t>
   </si>
   <si>
+    <t>Daniyil Yakovlev</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1tuaBB_KFOTHOfTmXgov42E2v6sHShUdb/view</t>
   </si>
   <si>
-    <t>Daniyil Yakovlev</t>
-  </si>
-  <si>
     <t>Алексей Демидов</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>drive.google.com/file/d/1RneErBs-OBbV0KjvY5blYuFHfkwtyNRh/view</t>
   </si>
   <si>
+    <t>Anton Zaporozhchenko</t>
+  </si>
+  <si>
     <t>31.10.2016</t>
   </si>
   <si>
-    <t>Anton Zaporozhchenko</t>
-  </si>
-  <si>
     <t>Oleksiy Ponomorev</t>
   </si>
   <si>
@@ -169,42 +169,42 @@
     <t>drive.google.com/file/d/1dhsj1ZCPOPwvKc6arWVDAveu1h0EoY_l/view</t>
   </si>
   <si>
+    <t>Vladyslav Minakov</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1N0y-Y_QVKO2DDn06IuDVESkeKJ5LoiDN/view</t>
   </si>
   <si>
-    <t>Vladyslav Minakov</t>
+    <t>Yevheniia Shchypeleva</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1AcBsG13D5jBJ3_w506hQOHHs_iJD2Jwt/view</t>
   </si>
   <si>
     <t>03.03.2017</t>
   </si>
   <si>
-    <t>Yevheniia Shchypeleva</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1AcBsG13D5jBJ3_w506hQOHHs_iJD2Jwt/view</t>
-  </si>
-  <si>
     <t>Kolhatin Andrii</t>
   </si>
   <si>
     <t>Heorhii Kholodov</t>
   </si>
   <si>
+    <t>Aleksandr Gnatyuk</t>
+  </si>
+  <si>
     <t>Blockchain and Distributed Systems</t>
   </si>
   <si>
-    <t>Aleksandr Gnatyuk</t>
-  </si>
-  <si>
     <t>30.05.2018</t>
   </si>
   <si>
+    <t>Aleksandr Kurbatov</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1JYRb1u6DI1z4mB3s1z8SSiiGDwdh_IhH/view</t>
   </si>
   <si>
-    <t>Aleksandr Kurbatov</t>
-  </si>
-  <si>
     <t>Aleksandr Ivanov</t>
   </si>
   <si>
@@ -214,58 +214,73 @@
     <t>drive.google.com/file/d/1dKebMjrvUlgGa3iO-WyfqWoE2EuPbGCV/view</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1rqLi5pccF50iQmqQORRTpl8nYWgy_qHs/view</t>
+  </si>
+  <si>
     <t>Oleksii Khramov</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1rqLi5pccF50iQmqQORRTpl8nYWgy_qHs/view</t>
-  </si>
-  <si>
     <t>Nodar Alyoshin</t>
   </si>
   <si>
     <t>Marina Osadchuk</t>
   </si>
   <si>
+    <t>Konstantin Nechvolod</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1fhholZTtNezUv9PasS5dDm2v55XQEkyG/view</t>
   </si>
   <si>
-    <t>Konstantin Nechvolod</t>
-  </si>
-  <si>
     <t>Ilya Svetaylo</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1AT9DeYKwkp9NKSF3bb4Vdr1JtdlzltPp/view</t>
+  </si>
+  <si>
     <t>Dmytro Mandych</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1AT9DeYKwkp9NKSF3bb4Vdr1JtdlzltPp/view</t>
+    <t>26.05.2020</t>
+  </si>
+  <si>
+    <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
+  </si>
+  <si>
+    <t>G6/C1S2XpwhcvDAGp/fvUWUBET+OlYdOP5LnW6gBIOlhR8phT652b46fy8YlvQ9DbbNynZ/DfRUiotWAFIhBhlU=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1T9IlKrmEJbx1bh1O1jPwTkuazCstW7gz/view</t>
+  </si>
+  <si>
+    <t>Petr Murzin</t>
   </si>
   <si>
     <t>Basic Level in Decentralized Technologies</t>
   </si>
   <si>
-    <t>G6/C1S2XpwhcvDAGp/fvUWUBET+OlYdOP5LnW6gBIOlhR8phT652b46fy8YlvQ9DbbNynZ/DfRUiotWAFIhBhlU=</t>
-  </si>
-  <si>
     <t>6e70ac729189b0e0097a</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1BBaI1GopSevCSWKbBRWeownYk8eDv7MB/view</t>
   </si>
   <si>
-    <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
-  </si>
-  <si>
     <t>6e70ac729189b0e0097a6e7bcfec69494538bf4736cdb17a9fe9bd1582fe2e95</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1T9IlKrmEJbx1bh1O1jPwTkuazCstW7gz/view</t>
-  </si>
-  <si>
-    <t>26.05.2020</t>
-  </si>
-  <si>
-    <t>Petr Murzin</t>
+    <t>28.05.2020</t>
+  </si>
+  <si>
+    <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
+  </si>
+  <si>
+    <t>G4/MsM7bSvAPVr7C5IXyo2TnOz+ZwqdlVNpBidWCbpuzC+JkRBEjbhY/lkPH7VtAhp8EOYgyLA2ID6F4GhqUY84=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/12OpLxs1aK-BTF1PebTXrsMh4zxKH_wen/view</t>
+  </si>
+  <si>
+    <t>Lovkin Ivan</t>
   </si>
   <si>
     <t>80b4017b0b2d571867a2</t>
@@ -274,70 +289,61 @@
     <t>drive.google.com/file/d/1B00wgJ6gYotdnedRkemkU_JBPFt1H4xd/view</t>
   </si>
   <si>
-    <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
-  </si>
-  <si>
     <t>80b4017b0b2d571867a20c183448a98b8a4dc0d52f134e363772da7dca5b5a06</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/12OpLxs1aK-BTF1PebTXrsMh4zxKH_wen/view</t>
-  </si>
-  <si>
-    <t>28.05.2020</t>
-  </si>
-  <si>
-    <t>Lovkin Ivan</t>
-  </si>
-  <si>
-    <t>G4/MsM7bSvAPVr7C5IXyo2TnOz+ZwqdlVNpBidWCbpuzC+JkRBEjbhY/lkPH7VtAhp8EOYgyLA2ID6F4GhqUY84=</t>
+    <t>694d0f5a7afe6fbc99cb56819a09f9fa0e8b66b07180bb555d98593a0f7d5d41</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bX5sis1H79_hFn7wh4-Sh00aeO_e7yFq/view</t>
+  </si>
+  <si>
+    <t>Nikita Moskovkin</t>
+  </si>
+  <si>
+    <t>694d0f5a7afe6fbc99cb</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
+  </si>
+  <si>
+    <t>30.05.2020</t>
+  </si>
+  <si>
+    <t>8dd5355ff30fcc74f42b09a276bf3f8c4bfadb9074adff5d3661f186029628c5</t>
   </si>
   <si>
     <t>HM5GZ+rTicq0RKhj0bFs+2fpeD7O+kpSJnLKYgEw3HaNYvb3HW/VNAjwQR1DXGHUEqofERXjtLW1G8JMk4q2O1g=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1bX5sis1H79_hFn7wh4-Sh00aeO_e7yFq/view</t>
-  </si>
-  <si>
-    <t>30.05.2020</t>
-  </si>
-  <si>
-    <t>Nikita Moskovkin</t>
-  </si>
-  <si>
-    <t>694d0f5a7afe6fbc99cb</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tWk6Jc3pyD-PZOS84Vv5SE8sVK7uUX2o/view</t>
-  </si>
-  <si>
-    <t>8dd5355ff30fcc74f42b09a276bf3f8c4bfadb9074adff5d3661f186029628c5</t>
-  </si>
-  <si>
-    <t>694d0f5a7afe6fbc99cb56819a09f9fa0e8b66b07180bb555d98593a0f7d5d41</t>
+    <t>03.06.2020</t>
+  </si>
+  <si>
+    <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
+  </si>
+  <si>
+    <t>HPXPxUNV1rO31el0TjnHFXDe0tBCoiQSC2o12BSvZFW1TNa1atBAmZb7ZrJ7vjBOzLYTbvCsfGf6NaSBZmpI1R0=</t>
+  </si>
+  <si>
+    <t>Valeriy Gello</t>
+  </si>
+  <si>
+    <t>2b6aadb041197def922a</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1IIYEmVzJwRrLeeAC2mvbJPBgnsiuCbgX/view</t>
   </si>
   <si>
-    <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
-  </si>
-  <si>
     <t>2b6aadb041197def922aff8cb257af872568b572362c2f19fdb2468228e58569</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1DIotRiCyqr6U7vuXvDVWTrwbYMpd8-tp/view</t>
   </si>
   <si>
-    <t>03.06.2020</t>
-  </si>
-  <si>
-    <t>Valeriy Gello</t>
-  </si>
-  <si>
-    <t>2b6aadb041197def922a</t>
-  </si>
-  <si>
-    <t>HPXPxUNV1rO31el0TjnHFXDe0tBCoiQSC2o12BSvZFW1TNa1atBAmZb7ZrJ7vjBOzLYTbvCsfGf6NaSBZmpI1R0=</t>
+    <t>G/ltW+rOPMYiEf/bzUkMzj7W5syoNvcTi1i++MOcDD8LJwSKAaoFS+c0TmDOwIZDyqaVwk6QYu1MfsGJw7+KZ8g=</t>
+  </si>
+  <si>
+    <t>21.08.2020</t>
   </si>
   <si>
     <t>7dfdd6abd5c883c7c876202d91386257e48337f55209b774f35d4eea4efe5df4</t>
@@ -349,40 +355,37 @@
     <t>drive.google.com/file/d/1HToZ3ouEVe-2rFezzJSnetG4rkJl4wb5/view</t>
   </si>
   <si>
-    <t>21.08.2020</t>
-  </si>
-  <si>
     <t>Elizabeth Gurieva</t>
   </si>
   <si>
     <t>72008d9bb1a357ae7d6e</t>
   </si>
   <si>
-    <t>G/ltW+rOPMYiEf/bzUkMzj7W5syoNvcTi1i++MOcDD8LJwSKAaoFS+c0TmDOwIZDyqaVwk6QYu1MfsGJw7+KZ8g=</t>
+    <t>15.09.2020</t>
+  </si>
+  <si>
+    <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
   </si>
   <si>
     <t>HJqrp6YpiFPfileEaqKJDnwfvu15NL6LlwLDM3NSIXu9Rd9ir011tVJPyRSDxL5NUwqyiY5Be55Z3VObN4rH/nQ=</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
+  </si>
+  <si>
+    <t>Alexander Zhovnuvaty</t>
+  </si>
+  <si>
+    <t>91053d5330c4b99d8827</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1sMqTvx1fDXHx-OeU1r4uA1Z3kzVIMKAn/view</t>
   </si>
   <si>
-    <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
-  </si>
-  <si>
     <t>91053d5330c4b99d88272eb9c214b2f57c8522c2b473b54d5e250b422de6e24b</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1q12O5AsLDt2gj1loE443eYuIsPxuNRY6/view</t>
-  </si>
-  <si>
-    <t>15.09.2020</t>
-  </si>
-  <si>
-    <t>Alexander Zhovnuvaty</t>
-  </si>
-  <si>
-    <t>91053d5330c4b99d8827</t>
+    <t>Nikolay Scherbakov</t>
   </si>
   <si>
     <t>508f78ad5c0df80128b0</t>
@@ -391,61 +394,64 @@
     <t>drive.google.com/file/d/1Wzemb_7VWsXKUqEMEuniXiEqqCU6NR1X/view</t>
   </si>
   <si>
+    <t>508f78ad5c0df80128b059d5367511650f12c1c999a2873f5a5bdfa0c3cd9294</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1s59oNqnl8rvcFITI-56v1nt_VCOHq94D/view</t>
+  </si>
+  <si>
     <t>7368eab2f4fa6157cb3f67d39e8526bc1b91a852be6a70cddcbb6067c8b400f5</t>
   </si>
   <si>
-    <t>508f78ad5c0df80128b059d5367511650f12c1c999a2873f5a5bdfa0c3cd9294</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1s59oNqnl8rvcFITI-56v1nt_VCOHq94D/view</t>
-  </si>
-  <si>
-    <t>Nikolay Scherbakov</t>
-  </si>
-  <si>
     <t>G7fNdjrRdRCgCqs32IBGetb1WmNZTLKq4VdxIE2xZRAONYfBhaC++AKXc/TWLJ1iJ6vRlR5V1AGGRJa8VcJDRks=</t>
   </si>
   <si>
+    <t>9976212738b45235cfd6f208ccae9ca14da64a06bcb5304d8bb422d00ff1540d</t>
+  </si>
+  <si>
+    <t>Anonymous</t>
+  </si>
+  <si>
+    <t>9976212738b45235cfd6</t>
+  </si>
+  <si>
     <t>16.09.2020</t>
   </si>
   <si>
-    <t>Anonymous</t>
-  </si>
-  <si>
-    <t>9976212738b45235cfd6</t>
-  </si>
-  <si>
     <t>2b4075806aa1180a35b6b6718701374debfd505b954491160ac09a4ebf1d632c</t>
   </si>
   <si>
-    <t>9976212738b45235cfd6f208ccae9ca14da64a06bcb5304d8bb422d00ff1540d</t>
-  </si>
-  <si>
     <t>HOozi22vAuznvsCYdPeFGpfEsgVv/RPDvKEBNLr3Kjh2ZNMwqnGETY/MTNluCe+mJBLtg4ig6yOhtqyY0VWavFU=</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1HDfg3clKtJbjQEEtI2yxSv51_fDRYWRn/view</t>
+  </si>
+  <si>
+    <t>cd9b18ee000a3ab57d740ee8b2a2330632f070a69ff9efdd8ecdc6c8230e2e11</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/10KBS_dIRNDhekiu_k9NiRZq_tLz9wFLJ/view</t>
+  </si>
+  <si>
+    <t>Aleksandr Khomutov</t>
+  </si>
+  <si>
+    <t>cd9b18ee000a3ab57d74</t>
+  </si>
+  <si>
+    <t>HOq9ZhrQ00V8PHtEc7PLbgREykAE4fSaVIbPozy6iTxNKZmzV7JHxsT5aQobJF+D1Hu+Hj++PUAVwscGr1K8ydg=</t>
+  </si>
+  <si>
+    <t>17.09.2020</t>
+  </si>
+  <si>
     <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
   </si>
   <si>
-    <t>cd9b18ee000a3ab57d740ee8b2a2330632f070a69ff9efdd8ecdc6c8230e2e11</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/10KBS_dIRNDhekiu_k9NiRZq_tLz9wFLJ/view</t>
-  </si>
-  <si>
-    <t>17.09.2020</t>
-  </si>
-  <si>
-    <t>Aleksandr Khomutov</t>
-  </si>
-  <si>
-    <t>cd9b18ee000a3ab57d74</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1HDfg3clKtJbjQEEtI2yxSv51_fDRYWRn/view</t>
-  </si>
-  <si>
-    <t>HOq9ZhrQ00V8PHtEc7PLbgREykAE4fSaVIbPozy6iTxNKZmzV7JHxsT5aQobJF+D1Hu+Hj++PUAVwscGr1K8ydg=</t>
+    <t>0f8a70da32b47c86fa69</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
   </si>
   <si>
     <t>–</t>
@@ -454,30 +460,24 @@
     <t>drive.google.com/file/d/19iQXgKAz6f9TVn-PH7XNVjURb69Cog1K/view</t>
   </si>
   <si>
+    <t>Tetiana Diachuk</t>
+  </si>
+  <si>
+    <t>Beginner at theoretical aspects blockchain technology</t>
+  </si>
+  <si>
+    <t>0f8a70da32b47c86fa69a39dd522c99b25802700a336d49e16a760eea763f4b1</t>
+  </si>
+  <si>
+    <t>HCKQDvhlFx194rKcO7OKfVKVHm8iJgs5HBTYDDoPUT1zbt/WBBbpt3FwSlXhjLHeFALjBPeDsJ0+FlqjYJrcedE=</t>
+  </si>
+  <si>
     <t>12.29.2021</t>
   </si>
   <si>
-    <t>Tetiana Diachuk</t>
-  </si>
-  <si>
-    <t>0f8a70da32b47c86fa69</t>
-  </si>
-  <si>
     <t>Listener only</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1tmpL-6F3_kX4hrExEjNCTGR8TeoabzvN/view</t>
-  </si>
-  <si>
-    <t>0f8a70da32b47c86fa69a39dd522c99b25802700a336d49e16a760eea763f4b1</t>
-  </si>
-  <si>
-    <t>Beginner at theoretical aspects blockchain technology</t>
-  </si>
-  <si>
-    <t>HCKQDvhlFx194rKcO7OKfVKVHm8iJgs5HBTYDDoPUT1zbt/WBBbpt3FwSlXhjLHeFALjBPeDsJ0+FlqjYJrcedE=</t>
-  </si>
-  <si>
     <t>Yatskiv Vasyl</t>
   </si>
   <si>
@@ -487,39 +487,42 @@
     <t>drive.google.com/file/d/1FZ2SgaDMIJRp10hntSqe1gLrAUG9DHpM/view</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/16W1PgiFDe8yDvOAKUfipXQuF54CGJwOr/view</t>
+  </si>
+  <si>
     <t>157083727495af019be18396a5b6fb784fb8fdf515e7069698ea538039655ea2</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/16W1PgiFDe8yDvOAKUfipXQuF54CGJwOr/view</t>
-  </si>
-  <si>
     <t>GwuoELh5wGDbKgdx/iwOEwB1aYpRhZGvqoWHkCMl2GldW99XUUjugdXMecd1OG2SKwwMXofLc4+rAxXvTnt+cCU=</t>
   </si>
   <si>
+    <t>24.05.2022</t>
+  </si>
+  <si>
+    <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
+  </si>
+  <si>
     <t>HEq8g+MEi+GvEmvTK4osdDCOUv0zrtlFXz3jX58hUEpuGtiwefAAUrsqS6PizJncb1B9qyY6GiaVMtDN4AGXjuA=</t>
   </si>
   <si>
+    <t>Viktoriia Kovalenko</t>
+  </si>
+  <si>
+    <t>c94b544cf914bfa7a011</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1HmqEySvyMucrLal0DQ8-Vhc0ALSaBJgo/view</t>
   </si>
   <si>
-    <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1ryCRznjmAN1vpfuTCHcFPCtIzw-dl20L/view</t>
   </si>
   <si>
-    <t>24.05.2022</t>
-  </si>
-  <si>
-    <t>Viktoriia Kovalenko</t>
-  </si>
-  <si>
-    <t>c94b544cf914bfa7a011</t>
-  </si>
-  <si>
     <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
   </si>
   <si>
+    <t>HERmuZzuSW3wNNWRroC2QNMxKOMuAdjg4gxhbcA/9UHiA/lhyfJJRi4RDzmC1ToYWKgUdyANuExL857Jh5UphPk=</t>
+  </si>
+  <si>
     <t>31e612cbb30ee1e0b131836790253817c04031043f623abb460c83208fafa932</t>
   </si>
   <si>
@@ -535,7 +538,7 @@
     <t>drive.google.com/file/d/1RBczYKwSRmMu4zAoVVmnWvjgkl0tENzG/view</t>
   </si>
   <si>
-    <t>HERmuZzuSW3wNNWRroC2QNMxKOMuAdjg4gxhbcA/9UHiA/lhyfJJRi4RDzmC1ToYWKgUdyANuExL857Jh5UphPk=</t>
+    <t>321d5bc0b6acda5a08dbd6e3b151c27d1951c01e36b674970fe5bb02a33d5d2e</t>
   </si>
   <si>
     <t>HDWEh9ESydNwt1uGPeE27CIKeMKPy+O87vrhEELOeECTIKgu9VndiSLOpNThFwKWV+2oMh8SMAjRbBHZ8RxF8Qo=</t>
@@ -553,25 +556,31 @@
     <t>drive.google.com/file/d/1GxBJoJ4QVMY5O6BDlBGtx-tJAcxj-f6s/view</t>
   </si>
   <si>
-    <t>321d5bc0b6acda5a08dbd6e3b151c27d1951c01e36b674970fe5bb02a33d5d2e</t>
+    <t>Anastasiia Slota</t>
+  </si>
+  <si>
+    <t>5d71857f9a99d5d85ed7</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Aal0m_o5pRV8rfXsm8wDWIqIg36jUqvx/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1YDow8GoX8mnMZNo20qBTbJw8-YHXDU5u/view</t>
+  </si>
+  <si>
+    <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
   </si>
   <si>
     <t>HE4WVZfpHDM927pj2Gbc9lOZhBRopu9jToBZfr7D62mneKWV8M75X8Q2SZc4tnXE/3LeWTqxpIkzc9Xy6DqvUqE=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1Aal0m_o5pRV8rfXsm8wDWIqIg36jUqvx/view</t>
-  </si>
-  <si>
-    <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1YDow8GoX8mnMZNo20qBTbJw8-YHXDU5u/view</t>
-  </si>
-  <si>
-    <t>Anastasiia Slota</t>
-  </si>
-  <si>
-    <t>5d71857f9a99d5d85ed7</t>
+    <t>drive.google.com/file/d/1bfp7feXW3jlCWM6JNgL66zeE8LHm4X-Y/view</t>
+  </si>
+  <si>
+    <t>Yuriy Melnychuk</t>
+  </si>
+  <si>
+    <t>4b973cdc099c10811c1b</t>
   </si>
   <si>
     <t>drive.google.com/file/d/17vX52MGbM2gkG3qqa1fz-ERnrQbdcw4y/view</t>
@@ -580,18 +589,12 @@
     <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1bfp7feXW3jlCWM6JNgL66zeE8LHm4X-Y/view</t>
-  </si>
-  <si>
-    <t>Yuriy Melnychuk</t>
-  </si>
-  <si>
-    <t>4b973cdc099c10811c1b</t>
-  </si>
-  <si>
     <t>G09Pu89zZ+mW2gdSx729xoRrBvWoumXJAYLuporfSBGdbAJOMCqKcBPj8R2VtP4sJbwNZAWnmvuqpJqZU6h83hQ=</t>
   </si>
   <si>
+    <t>e9bf9426eb214a6e36c83520cbd22f2b58d44e518597ce9887c5c65d029ed683</t>
+  </si>
+  <si>
     <t>GxwV1QU9bkNovno07/2Qf5RnVqi33IIX/h2qm9QewYuqQO6/ULkKQG+dc47LvkhphEUWoWaEai8xaIVxIvH3mxQ=</t>
   </si>
   <si>
@@ -604,30 +607,27 @@
     <t>drive.google.com/file/d/1JY1qkLvZnhJoC7eW8zecnwqdN2ADtZBQ/view</t>
   </si>
   <si>
-    <t>e9bf9426eb214a6e36c83520cbd22f2b58d44e518597ce9887c5c65d029ed683</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1bilaW63V87r9jkQgRfz_fevbeWN6NFyo/view</t>
   </si>
   <si>
+    <t>Hanna Zhurba</t>
+  </si>
+  <si>
+    <t>33571c3c57728ede717b</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1l0atb8z64jklpxeGi48llMRwrNeoKf0y/view</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/18pj8mEa0wJ5A_Nt1l6RNMZ9iTH4oUWSC/view</t>
+  </si>
+  <si>
+    <t>33571c3c57728ede717b2bf46df346305cbeca3e966b76cf15369f7411ddabef</t>
+  </si>
+  <si>
     <t>G0/HbGdGK3B0R9z8wip7gA/5JeSvjkSeA7lcGfugt/KcNVV1VKo36tLg+Qi79IEd3lr9lE92CXfNXZ8c3GeiPc0=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1l0atb8z64jklpxeGi48llMRwrNeoKf0y/view</t>
-  </si>
-  <si>
-    <t>33571c3c57728ede717b2bf46df346305cbeca3e966b76cf15369f7411ddabef</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/18pj8mEa0wJ5A_Nt1l6RNMZ9iTH4oUWSC/view</t>
-  </si>
-  <si>
-    <t>Hanna Zhurba</t>
-  </si>
-  <si>
-    <t>33571c3c57728ede717b</t>
-  </si>
-  <si>
     <t>Viktoriia Holoshchapova</t>
   </si>
   <si>
@@ -637,12 +637,12 @@
     <t>drive.google.com/file/d/1Rl7QRlGxtywdMCDmM-i2aXCzulou-hLS/view</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1V1S4zVBvdZ7u0qWNpj70QbU_Qv1ZSwcz/view</t>
+  </si>
+  <si>
     <t>96250fd24ef42b3b059c7f85867ca063298d0784f07d7b3d4a19da04dbf6f4c7</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1V1S4zVBvdZ7u0qWNpj70QbU_Qv1ZSwcz/view</t>
-  </si>
-  <si>
     <t>Gwgj57Jqz9+NMhDQlcZmobwbWCi8h4ESrKASdManWz5saGNNFwx832peyy6A/lp8DsUFzZzOihp1V/OspkMps9k=</t>
   </si>
   <si>
@@ -652,6 +652,9 @@
     <t>638039974f462d2a16fa4959a86c265addbc78b4b6d26dddbcf4a9d2b69ae9d7</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/16683RbvjBsJBFBrLwtLwWlQJUfTiD0Xd/view</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1kWKcfuN3wKIueLCmFLK6eUxWZA5-cjqw/view</t>
   </si>
   <si>
@@ -661,75 +664,84 @@
     <t>638039974f462d2a16fa</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/16683RbvjBsJBFBrLwtLwWlQJUfTiD0Xd/view</t>
+    <t>27.05.2022</t>
+  </si>
+  <si>
+    <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
+  </si>
+  <si>
+    <t>Gy1CS1DczVCPKEqFIMhNAUjvlti1rZpp602WQhpANZcrbJR7A1bxVMqZhWo7ziNLPEs4gZ7mDvo3dxQp/9mnWSo=</t>
+  </si>
+  <si>
+    <t>Oleksandr Ishchuk</t>
+  </si>
+  <si>
+    <t>a4f695eb1f54152d096f</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1R38xCu4uADZnLmaMGWWjBOj2A6I7JcLz/view</t>
   </si>
   <si>
-    <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
-  </si>
-  <si>
     <t>a4f695eb1f54152d096fac83f42a2627f1da6e57869febbc0736945533b39dfd</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1TDVQcx6mYo_axvH3qcg0bBW7BCkSdPJk/view</t>
   </si>
   <si>
-    <t>27.05.2022</t>
-  </si>
-  <si>
-    <t>Oleksandr Ishchuk</t>
-  </si>
-  <si>
-    <t>a4f695eb1f54152d096f</t>
-  </si>
-  <si>
-    <t>Gy1CS1DczVCPKEqFIMhNAUjvlti1rZpp602WQhpANZcrbJR7A1bxVMqZhWo7ziNLPEs4gZ7mDvo3dxQp/9mnWSo=</t>
+    <t>30.05.2022</t>
+  </si>
+  <si>
+    <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
   </si>
   <si>
     <t>GyBuSdCpBacrzfMlYsJ5PDr4kBqEmHBvlnL0u9xd/ItkbXqWgvr/Q9+ABS7Uk9qAKPyM3fdTHMixab+7EMHk/L8=</t>
   </si>
   <si>
+    <t>Sofiia Zharkikh</t>
+  </si>
+  <si>
+    <t>ef5d4d97d20b05335375</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1uuFsi_lO84LjMgoGI-KaAdqUW3DbX-tN/view</t>
   </si>
   <si>
-    <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
-  </si>
-  <si>
     <t>ef5d4d97d20b05335375d36faf95f1674a1bd9f02b236e07c0628e68e6718479</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1MKUolIBpxp8Nd7QKNEIztYq__Y2ke8r0/view</t>
   </si>
   <si>
-    <t>30.05.2022</t>
-  </si>
-  <si>
-    <t>Sofiia Zharkikh</t>
-  </si>
-  <si>
-    <t>ef5d4d97d20b05335375</t>
+    <t>Ruslan Ovsiienko</t>
+  </si>
+  <si>
+    <t>bde11c3468f03baaa52b</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1erHD2ben8dQ0hZznVAMHsWoOEoZ5W5ZI/view</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1GQPhLpRDH3qx8itRN2swMzNVTA3S9zkA/view</t>
   </si>
   <si>
-    <t>Ruslan Ovsiienko</t>
-  </si>
-  <si>
-    <t>bde11c3468f03baaa52b</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1erHD2ben8dQ0hZznVAMHsWoOEoZ5W5ZI/view</t>
-  </si>
-  <si>
     <t>bde11c3468f03baaa52b69b1d0037713d6e1656efbe22bbe443616867c8ce1d1</t>
   </si>
   <si>
     <t>GwsGfQUBZbaRTtUuqe9ZxFOBG5KREIZQe9idjrsAJkyJS4iDGMvYzQl95ycTMmbSYE9y6HCVXw5XjQl4/UJmBF0=</t>
   </si>
   <si>
+    <t>31.05.2022</t>
+  </si>
+  <si>
+    <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
+  </si>
+  <si>
+    <t>G1NHCoKgP7GWURDdLHVELdKpWB+yJMIMC58Zcmk7QIDkHak9MAIs8CP8p3PwQQkKrasrA22u3Ps0oDpQjtQwuXA=</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1fXu1-OMgl8abLdRnkK1gGjRUzm1wJ90d/view</t>
+  </si>
+  <si>
     <t>Andrii Kolhatin</t>
   </si>
   <si>
@@ -739,75 +751,69 @@
     <t>drive.google.com/file/d/1k6jYSLnda_XmBqezsiN_2yJ61Qdta_nb/view</t>
   </si>
   <si>
-    <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
-  </si>
-  <si>
     <t>6ee400b0d85b1c17b9f96d70480b7834db0687fb163960b09bd5b9d9a7479695</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1fXu1-OMgl8abLdRnkK1gGjRUzm1wJ90d/view</t>
-  </si>
-  <si>
-    <t>31.05.2022</t>
-  </si>
-  <si>
-    <t>G1NHCoKgP7GWURDdLHVELdKpWB+yJMIMC58Zcmk7QIDkHak9MAIs8CP8p3PwQQkKrasrA22u3Ps0oDpQjtQwuXA=</t>
-  </si>
-  <si>
     <t>HEXb4vpKyOWhQpbYfAwIpyCn+rITf/VAWQzmNxaXXhDvU/q9WgsKDJeDdCnprx5cCIjjmW/phOHH+uPBbpYlPZ4=</t>
   </si>
   <si>
+    <t>02.06.2022</t>
+  </si>
+  <si>
+    <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
+  </si>
+  <si>
+    <t>57510c8d91044c68466c23791605ae30481dd0e13bffb14884dc26f74f89007e</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1w1mfSqQpuoM1ykWLZFpnfNad4769mGRZ/view</t>
+  </si>
+  <si>
+    <t>Volodymyr Beimuk</t>
+  </si>
+  <si>
     <t>57510c8d91044c68466c</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1bDY1Sb33crISkNKqaqWuVZMBg6tNXSMT/view</t>
-  </si>
-  <si>
-    <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
-  </si>
-  <si>
-    <t>57510c8d91044c68466c23791605ae30481dd0e13bffb14884dc26f74f89007e</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1w1mfSqQpuoM1ykWLZFpnfNad4769mGRZ/view</t>
-  </si>
-  <si>
-    <t>02.06.2022</t>
-  </si>
-  <si>
-    <t>Volodymyr Beimuk</t>
+    <t>03.06.2022</t>
+  </si>
+  <si>
+    <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
   </si>
   <si>
     <t>G0q+l32LflKU/DpeW9C2sDAMrbqeX+oJ5XFEWOQgj1abcIZnWaBDyGALb8VFCDaBlWtPdWlpZH0bBGnZ4vmuqVM=</t>
   </si>
   <si>
+    <t>Nazarii Savorona</t>
+  </si>
+  <si>
+    <t>d50fd6472811e70d2d32</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1alRzJTra9dglzAqTeiHBwO9rtXlBweUd/view</t>
+  </si>
+  <si>
+    <t>d50fd6472811e70d2d323c6e2a1b6ee5492b950fa42141194d5b0ea301965d2b</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/15kzmwqJUXHkYhS-y_kQNezfBYKsWqClm/view</t>
   </si>
   <si>
-    <t>03.06.2022</t>
-  </si>
-  <si>
-    <t>Nazarii Savorona</t>
-  </si>
-  <si>
-    <t>d50fd6472811e70d2d32</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1alRzJTra9dglzAqTeiHBwO9rtXlBweUd/view</t>
-  </si>
-  <si>
-    <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
-  </si>
-  <si>
-    <t>d50fd6472811e70d2d323c6e2a1b6ee5492b950fa42141194d5b0ea301965d2b</t>
+    <t>6471e2162a55dbf5dd4d31bfe55b942b65d00f871d57a47269a6eeadc98f5368</t>
+  </si>
+  <si>
+    <t>HEX0LGCrp8izmcyDor70bMZoObL/w+vWJ2n7oI4g7HApOTNEf8NsrrnH7wqchGY1dHPbQ/ZXv9Sb4flO0OOFIjg=</t>
+  </si>
+  <si>
+    <t>0098c4abd0cf9ba00a9a</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1wY_vSxNPk2EVTXF5QDxbWo0tuWKZTesU/view</t>
   </si>
   <si>
-    <t>6471e2162a55dbf5dd4d31bfe55b942b65d00f871d57a47269a6eeadc98f5368</t>
-  </si>
-  <si>
     <t>0098c4abd0cf9ba00a9a16bae79b9ec1f932f0a459b51c5afd3d6a5651a3820d</t>
   </si>
   <si>
@@ -817,10 +823,13 @@
     <t>Anton Balykov</t>
   </si>
   <si>
-    <t>0098c4abd0cf9ba00a9a</t>
-  </si>
-  <si>
-    <t>HEX0LGCrp8izmcyDor70bMZoObL/w+vWJ2n7oI4g7HApOTNEf8NsrrnH7wqchGY1dHPbQ/ZXv9Sb4flO0OOFIjg=</t>
+    <t>06.06.2022</t>
+  </si>
+  <si>
+    <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
+  </si>
+  <si>
+    <t>HFLGvJaNw54W7ZD/ZIjYXIQM1qIXbrh8vUUpsthZld4lUw1ygBpSYq5Bv2wkJji7EFfLKZpiwfkpZ+sZp3fGBZ8=</t>
   </si>
   <si>
     <t>Rodion Nazarov</t>
@@ -832,19 +841,16 @@
     <t>drive.google.com/file/d/1vGDKnNGdCSrI2l0f8epwfp-g9ZP_gdqn/view</t>
   </si>
   <si>
-    <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
-  </si>
-  <si>
     <t>b8a9205fb544253703daa661c8770c6c3010cd6f9440217c56b8f3a5277106c0</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1tXyNJbUrUx79sco9ErJu8FcadjFeY4ws/view</t>
   </si>
   <si>
-    <t>06.06.2022</t>
-  </si>
-  <si>
-    <t>HFLGvJaNw54W7ZD/ZIjYXIQM1qIXbrh8vUUpsthZld4lUw1ygBpSYq5Bv2wkJji7EFfLKZpiwfkpZ+sZp3fGBZ8=</t>
+    <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
+  </si>
+  <si>
+    <t>G1S1swtJ1BO++cjXv+2ur3abbjLyF3QJom9rXytmbiCybxHnE6zxdv8PGrIoWzul25aA+Vy+npC166DfktBmfTA=</t>
   </si>
   <si>
     <t>Denis Riabtsev</t>
@@ -856,108 +862,108 @@
     <t>drive.google.com/file/d/1zCX9-HWZpyLUzChTuMNrgw8wjDheWHYQ/view</t>
   </si>
   <si>
-    <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
-  </si>
-  <si>
     <t>049024034fa09e3463c172894984ccd7c64d8f3e25ea0edce1cde73d14c4e4dd</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1zJtn8oPTgO6NalvQ4ZUKieHCmOl0G-ff/view</t>
   </si>
   <si>
-    <t>G1S1swtJ1BO++cjXv+2ur3abbjLyF3QJom9rXytmbiCybxHnE6zxdv8PGrIoWzul25aA+Vy+npC166DfktBmfTA=</t>
+    <t>drive.google.com/file/d/1xbZ0oHFVYI0UYoQzhOgIjFcYMBPS3M7N/view</t>
+  </si>
+  <si>
+    <t>Ahadzhan Piloian</t>
+  </si>
+  <si>
+    <t>35a047ff48ee73cae02b</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1mierxGuI99_8bCJonu3XW6Of6nN-_G8Y/view</t>
+  </si>
+  <si>
+    <t>10.08.2022</t>
+  </si>
+  <si>
+    <t>35a047ff48ee73cae02b98a664d79ed4beec0f2fc7ca444cf0e6fe6feba7072f</t>
   </si>
   <si>
     <t>HByFsfnqBzFxFef9Sx0pI7ZEP8CsAFwWu3WLyhxeWYE7Nihy6oGKH6zTuDB3jxz7nVUqmg/+jiSz+5tpHd5hhCM=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1mierxGuI99_8bCJonu3XW6Of6nN-_G8Y/view</t>
-  </si>
-  <si>
-    <t>35a047ff48ee73cae02b98a664d79ed4beec0f2fc7ca444cf0e6fe6feba7072f</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1xbZ0oHFVYI0UYoQzhOgIjFcYMBPS3M7N/view</t>
-  </si>
-  <si>
-    <t>10.08.2022</t>
-  </si>
-  <si>
-    <t>Ahadzhan Piloian</t>
-  </si>
-  <si>
-    <t>35a047ff48ee73cae02b</t>
+    <t>drive.google.com/file/d/1XYnfmc4-e2bPA2-oKc6rMrJk9OIS1ygb/view</t>
+  </si>
+  <si>
+    <t>Andrii Tsemko</t>
+  </si>
+  <si>
+    <t>6c856e21d4e81c9f9798</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1VFTodraL1vlF6oPm81xYgCEzuAnnMw9D/view</t>
   </si>
   <si>
+    <t>6c856e21d4e81c9f9798dc867f42c17448b563618559dfc618f25bfb13952dd9</t>
+  </si>
+  <si>
+    <t>16.08.2022</t>
+  </si>
+  <si>
     <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
   </si>
   <si>
-    <t>6c856e21d4e81c9f9798dc867f42c17448b563618559dfc618f25bfb13952dd9</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1XYnfmc4-e2bPA2-oKc6rMrJk9OIS1ygb/view</t>
-  </si>
-  <si>
-    <t>16.08.2022</t>
-  </si>
-  <si>
-    <t>Andrii Tsemko</t>
-  </si>
-  <si>
-    <t>6c856e21d4e81c9f9798</t>
-  </si>
-  <si>
     <t>G3AD9cOvDB5Yle4mx/4BJ1WGbFOLohDQC7vc4BQ13IEBNfDge5QEuYe3jCrtupanAlQ3qTuMp0xOcnt4khjuiOU=</t>
   </si>
   <si>
+    <t>Oleg Chaika</t>
+  </si>
+  <si>
+    <t>ac4a4970282596872599</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1TCz4JmThT49Whz7pXZc1p-uh1m8qGlts/view</t>
+  </si>
+  <si>
+    <t>ac4a4970282596872599a48469d3598e04f6239a9c8c40d595a7ab48cfec2f4b</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1XKVH36jaqZxn5FNLOAPfa2e7veU7FvRF/view</t>
+  </si>
+  <si>
+    <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
+  </si>
+  <si>
     <t>HBwdh30L8wwZ0AJ72uIonh5mnyavVroXqbfe0yCwSfwxHTmsctiCpE0PQGCgrn07xN6uG9mcLCyafi1J1iAIrVo=</t>
   </si>
   <si>
-    <t>Oleg Chaika</t>
-  </si>
-  <si>
-    <t>ac4a4970282596872599</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1TCz4JmThT49Whz7pXZc1p-uh1m8qGlts/view</t>
-  </si>
-  <si>
-    <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
-  </si>
-  <si>
-    <t>ac4a4970282596872599a48469d3598e04f6239a9c8c40d595a7ab48cfec2f4b</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1XKVH36jaqZxn5FNLOAPfa2e7veU7FvRF/view</t>
+    <t>6ece24bf393d6616d288</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1UWwjB5PEcpGT7pj9QLOxg0exOJMJ0cgV/view</t>
+  </si>
+  <si>
+    <t>6ece24bf393d6616d2882515c6b704470a04394eb23a26e37fcfd58709864e9c</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1qjY792bJaQiXrAQkpY51MdDXWY5NGfHG/view</t>
+  </si>
+  <si>
+    <t>Yehor Podporinov</t>
+  </si>
+  <si>
+    <t>8b0b4aebba75393ae3d3d17c2935872fcc9b742667912a33f84c93005de85fb4</t>
   </si>
   <si>
     <t>G16YW2qc38O2w05xL7whMAtbxBifYvcgSumruVDry/BeInzdXKeNdgkzs4+YALZnA1O/VZiCrqsMOX+JSxPhhDo=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1qjY792bJaQiXrAQkpY51MdDXWY5NGfHG/view</t>
-  </si>
-  <si>
-    <t>Yehor Podporinov</t>
-  </si>
-  <si>
-    <t>6ece24bf393d6616d288</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1UWwjB5PEcpGT7pj9QLOxg0exOJMJ0cgV/view</t>
-  </si>
-  <si>
-    <t>8b0b4aebba75393ae3d3d17c2935872fcc9b742667912a33f84c93005de85fb4</t>
-  </si>
-  <si>
-    <t>6ece24bf393d6616d2882515c6b704470a04394eb23a26e37fcfd58709864e9c</t>
+    <t>2bdefe6ab583294a8e3a46a7d66467c7afc535265a5eb5044d61411c2e9cf825</t>
   </si>
   <si>
     <t>HDCKJb3z6l4lgp3NELh3RJkzdJD1joN7yfOxl+01921RdY6DAUkQyZNnWU9OHeVkW3fPDEweucWCsxJRM/I0X1s=</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1f48HTb46vhokQ_8Azf1hncHeg-YaF01f/view</t>
+  </si>
+  <si>
     <t>Artem Litkevych</t>
   </si>
   <si>
@@ -967,55 +973,67 @@
     <t>drive.google.com/file/d/1gRgANqcuPqyc_3RjIRjtUc4Mdz0mGl9x/view</t>
   </si>
   <si>
-    <t>2bdefe6ab583294a8e3a46a7d66467c7afc535265a5eb5044d61411c2e9cf825</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1f48HTb46vhokQ_8Azf1hncHeg-YaF01f/view</t>
+    <t>17.08.2022</t>
+  </si>
+  <si>
+    <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
   </si>
   <si>
     <t>HApedQ3dSPFayNHWaAdeG0koY6JOtPkbNGfR03j/buRXUMPAQ7kVc5JUtU7xJeCQFNre1p7sPQiaazDauOSLyeU=</t>
   </si>
   <si>
+    <t>Vadim Mokropulo</t>
+  </si>
+  <si>
+    <t>5aedea6393611a0bb067</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1y0FtDg1SrfeMLVLgcU5nq3iVnBdoik87/view</t>
   </si>
   <si>
-    <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
-  </si>
-  <si>
     <t>5aedea6393611a0bb067abca97eab5d15e20fa9b13654759eeb0ad08cf465bf6</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1L4MJCKIJ_qZk-xoeaxbt21yKDQ65ZiV-/view</t>
   </si>
   <si>
-    <t>17.08.2022</t>
-  </si>
-  <si>
-    <t>Vadim Mokropulo</t>
-  </si>
-  <si>
-    <t>5aedea6393611a0bb067</t>
+    <t>Arsenii Trybukh</t>
+  </si>
+  <si>
+    <t>843e73c99e2fb6868d38</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1G_yt14WnfBJx-IrHPPr6dCVtmo-oZRGP/view</t>
+  </si>
+  <si>
+    <t>843e73c99e2fb6868d388c6436b8de6d6df90f2c6651c161738d510e0eedbe80</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/11NbZIfZYYPaZkiN3hIF-pOf-vQn1FjGZ/view</t>
+  </si>
+  <si>
+    <t>c5f89ffab6fb6790398f25f04cceea2582045f2cdaa852cffa609587b5f97da2</t>
   </si>
   <si>
     <t>HAJxbdAA0K5jADiIkd2hSuUjSo5/eIKguFwXw2OZXCkPSIx4rLJcO32Gxfb002+eyGWSoqZg/YxEkHKrfxSL7F8=</t>
   </si>
   <si>
-    <t>c5f89ffab6fb6790398f25f04cceea2582045f2cdaa852cffa609587b5f97da2</t>
-  </si>
-  <si>
-    <t>843e73c99e2fb6868d388c6436b8de6d6df90f2c6651c161738d510e0eedbe80</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/11NbZIfZYYPaZkiN3hIF-pOf-vQn1FjGZ/view</t>
-  </si>
-  <si>
-    <t>Arsenii Trybukh</t>
-  </si>
-  <si>
-    <t>843e73c99e2fb6868d38</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1G_yt14WnfBJx-IrHPPr6dCVtmo-oZRGP/view</t>
+    <t>18.08.2022</t>
+  </si>
+  <si>
+    <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
+  </si>
+  <si>
+    <t>GyX+LFZlbOGkX9m4UFq+VTDe+qgFw8iaqa9Pnv0tpOhWPbMXAoZS20RqaIczvQ/H1VpzVlaXsEo+xn5nwKZJ/Hk=</t>
+  </si>
+  <si>
+    <t>c7bb640e0ab9c66c1b1b30a834ca00155e38ddba8212240e0bbd39eba0ba7804</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1nGSPxXdXnZBvlGXqCNy4-upiIccTP2DF/view</t>
+  </si>
+  <si>
+    <t>Khrystyna Vysotska</t>
   </si>
   <si>
     <t>c7bb640e0ab9c66c1b1b</t>
@@ -1024,102 +1042,90 @@
     <t>drive.google.com/file/d/1l5wCpVPlLtvzFbUPo8FUxzzRBsS6Et75/view</t>
   </si>
   <si>
-    <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
-  </si>
-  <si>
-    <t>c7bb640e0ab9c66c1b1b30a834ca00155e38ddba8212240e0bbd39eba0ba7804</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1nGSPxXdXnZBvlGXqCNy4-upiIccTP2DF/view</t>
-  </si>
-  <si>
-    <t>18.08.2022</t>
-  </si>
-  <si>
-    <t>Khrystyna Vysotska</t>
-  </si>
-  <si>
-    <t>GyX+LFZlbOGkX9m4UFq+VTDe+qgFw8iaqa9Pnv0tpOhWPbMXAoZS20RqaIczvQ/H1VpzVlaXsEo+xn5nwKZJ/Hk=</t>
+    <t>de78c058c82cb70d7785272b03e0faaf9d22a8b0e83bf3c62e1088ba65fe154a</t>
   </si>
   <si>
     <t>G1CTdkm9sPqF5gC7MNhwFYnaWkXLHuuUsU0A/sGOu5DNBtG5skY8jqrThohl9psYxI7Tv/ioEcauIdVEWGuT7+o=</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/116fTgiRyxDGkYGtShL1QTg_IMdV7JIvh/view</t>
+  </si>
+  <si>
+    <t>Mykhailo Shcholkin</t>
+  </si>
+  <si>
     <t>de78c058c82cb70d7785</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1I0M_Gmlz0YU0fwUVXG9DVMFDEz8BrXYC/view</t>
   </si>
   <si>
-    <t>de78c058c82cb70d7785272b03e0faaf9d22a8b0e83bf3c62e1088ba65fe154a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/116fTgiRyxDGkYGtShL1QTg_IMdV7JIvh/view</t>
-  </si>
-  <si>
-    <t>Mykhailo Shcholkin</t>
+    <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
+  </si>
+  <si>
+    <t>GwxLKKdOMTqtcTyfNdinQRybUe+qy2ulplCNQh5mcOdQINQN0w/jb9OXjSkmDF4/X+KrmFDw9hjjLrHNZfbB5dE=</t>
+  </si>
+  <si>
+    <t>Sofiia Kireieva</t>
+  </si>
+  <si>
+    <t>7a6968aff4e08534424f</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1GoJ9qUTxoHHdtNzbmx9kX8mUnMrERzTj/view</t>
   </si>
   <si>
-    <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1dA-z2yZxNqg9vpZ-IrDTeI5VoAYSoUOx/view</t>
   </si>
   <si>
-    <t>Sofiia Kireieva</t>
-  </si>
-  <si>
-    <t>7a6968aff4e08534424f</t>
-  </si>
-  <si>
-    <t>GwxLKKdOMTqtcTyfNdinQRybUe+qy2ulplCNQh5mcOdQINQN0w/jb9OXjSkmDF4/X+KrmFDw9hjjLrHNZfbB5dE=</t>
+    <t>drive.google.com/file/d/1SrPLonRxjfEBFQKfnHXjqy1icSZ8TQTg/view</t>
+  </si>
+  <si>
+    <t>Alena Sporova</t>
+  </si>
+  <si>
+    <t>4f789ed064df7a17fb16</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1O6iBsiaN0_fjmsFEU75uf0x-TjEPa9M_/view</t>
+  </si>
+  <si>
+    <t>19.08.2022</t>
+  </si>
+  <si>
+    <t>4f789ed064df7a17fb165d92a4775577ae2b2aa0933828e2184f467078a0f4e1</t>
   </si>
   <si>
     <t>G24FfjXLWLXBSLyuTfOy5p2HRuUF9dZNqOsMBbQz5NdHMugtm3sqYSkgooUb30zd6NBvd8yivpBdpXj2C7zxRLM=</t>
   </si>
   <si>
-    <t>4f789ed064df7a17fb16</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1O6iBsiaN0_fjmsFEU75uf0x-TjEPa9M_/view</t>
-  </si>
-  <si>
-    <t>4f789ed064df7a17fb165d92a4775577ae2b2aa0933828e2184f467078a0f4e1</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1SrPLonRxjfEBFQKfnHXjqy1icSZ8TQTg/view</t>
-  </si>
-  <si>
-    <t>19.08.2022</t>
-  </si>
-  <si>
-    <t>Alena Sporova</t>
-  </si>
-  <si>
     <t>ae669584e3592816786d</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1m0p5Xzk0DhnWZNz3C4GKwBoFn0dCLaJd/view</t>
   </si>
   <si>
+    <t>ae669584e3592816786def0ced73ae9c1157f3cf3957c54c7f00c313411d0917</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1rd3-RafYYEM7AiLpUn6hDKvzItsu35eV/view</t>
+  </si>
+  <si>
+    <t>Nikita Masych</t>
+  </si>
+  <si>
     <t>483060d6ed3048a8dc0131f806543e2d4ebf5438280c29af23b478769c5e2422</t>
   </si>
   <si>
-    <t>ae669584e3592816786def0ced73ae9c1157f3cf3957c54c7f00c313411d0917</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1rd3-RafYYEM7AiLpUn6hDKvzItsu35eV/view</t>
-  </si>
-  <si>
-    <t>Nikita Masych</t>
-  </si>
-  <si>
     <t>HAHRm6qHhYtJONB4DE1fHhHs7jzCBi+0r098KwvwJ3FjJraqh4eh7xXl2kdKZvktikGbL8iVYeMFsUMMiZgU1dE=</t>
   </si>
   <si>
+    <t>c4879efd2b227fc0a0e38b82a1a91f47d5c53312805a02084f9769bbec1a71ec</t>
+  </si>
+  <si>
+    <t>G0IQQV4CbL/JBgmzra52tvPbBojg9JtvXR7fWIUO4M3PVCmcqlAPZYddUdyqGNQ46uqyzpxPt5unmlkaLZoWdik=</t>
+  </si>
+  <si>
     <t>Mark Cherepovskyi</t>
   </si>
   <si>
@@ -1129,72 +1135,69 @@
     <t>drive.google.com/file/d/1e4EDcTQQDwoR2L6wWEPs-5H-vt5CCr_f/view</t>
   </si>
   <si>
-    <t>c4879efd2b227fc0a0e38b82a1a91f47d5c53312805a02084f9769bbec1a71ec</t>
-  </si>
-  <si>
     <t>2a2bdf9afd29bb5a037ee969d668f402c10e76c8cbbd976d813dc2c635212539</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1Nn8f-CCkaRTHoTIvzOzlUjfFraIj0SxS/view</t>
   </si>
   <si>
-    <t>G0IQQV4CbL/JBgmzra52tvPbBojg9JtvXR7fWIUO4M3PVCmcqlAPZYddUdyqGNQ46uqyzpxPt5unmlkaLZoWdik=</t>
+    <t>drive.google.com/file/d/15ZzFOxNzuFtm8BtdxOiZbShpVngUdT_R/view</t>
+  </si>
+  <si>
+    <t>Viacheslav Horbanov</t>
+  </si>
+  <si>
+    <t>5af15e5a89df1459f6c0</t>
   </si>
   <si>
     <t>drive.google.com/file/d/189KqeuBE1JHhjoOJuPjmVSaQMF0tuf_7/view</t>
   </si>
   <si>
+    <t>5af15e5a89df1459f6c0aeb5cd0e5be28e4a54e50468f9b686f2d93a47fcd8b5</t>
+  </si>
+  <si>
     <t>805b929698577e9aca3fe4691eadeb51f4dc001d6c3c48625b4e2d7ff2f1f090</t>
   </si>
   <si>
-    <t>5af15e5a89df1459f6c0aeb5cd0e5be28e4a54e50468f9b686f2d93a47fcd8b5</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/15ZzFOxNzuFtm8BtdxOiZbShpVngUdT_R/view</t>
-  </si>
-  <si>
-    <t>Viacheslav Horbanov</t>
-  </si>
-  <si>
-    <t>5af15e5a89df1459f6c0</t>
-  </si>
-  <si>
     <t>HDMS95fN4wKz+mcce/qhkAB3CDAxnQf5cwwRXHl8KMdYA3/EO8kyMpNGiIbN5MFTQ8vPw07FOmfXy0ioj0UnCj4=</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/1-pE49RF7jkcKZaf7GMT9l_oK4tuCo-qU/view</t>
+  </si>
+  <si>
+    <t>Oleksii Stepaniuk</t>
+  </si>
+  <si>
     <t>709946c77b1372ca3cff</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1XQCDywsDSh6584NI_X7VTda9fxx9Ju6n/view</t>
   </si>
   <si>
+    <t>709946c77b1372ca3cffa6c6d383a1fa4c8806d267ecb824b4ee502f41c2e4c0</t>
+  </si>
+  <si>
+    <t>22.08.2022</t>
+  </si>
+  <si>
     <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
   </si>
   <si>
-    <t>709946c77b1372ca3cffa6c6d383a1fa4c8806d267ecb824b4ee502f41c2e4c0</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1-pE49RF7jkcKZaf7GMT9l_oK4tuCo-qU/view</t>
-  </si>
-  <si>
-    <t>22.08.2022</t>
-  </si>
-  <si>
-    <t>Oleksii Stepaniuk</t>
-  </si>
-  <si>
     <t>GxwMNgPmJTi7BfEjI6rsGqPvQoad54i76EyhJDFd3X9cMv6smt8Pqr9l2GzTwOy+UhKqumElsEDkC1pUydChGYM=</t>
   </si>
   <si>
+    <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
+  </si>
+  <si>
     <t>HHbJ2yOwNTaBD8Pj4Gc3VU1rvVOaml/gHFckPopyy6rVLkN9Llmf+A5SmWlzxzYnshzLqJKMNrV/7nrMhmMK0LA=</t>
   </si>
   <si>
+    <t>6393707ada82a5797951</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1XyrBsaWWmIuwF0Hq8_K95lvtH9gb6l9O/view</t>
   </si>
   <si>
-    <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
-  </si>
-  <si>
     <t>6393707ada82a579795181b6ad3cbf89bc962a3b517c4fad1ff80807b72258e2</t>
   </si>
   <si>
@@ -1204,18 +1207,18 @@
     <t>Kyrylo Riabov</t>
   </si>
   <si>
-    <t>6393707ada82a5797951</t>
+    <t>a4bc9b1320f2e1e710e9b1fd60261ccf698609aee22bab0b8bc8f6278c77ff28</t>
   </si>
   <si>
     <t>HHvcf99G4vHmh7gwlEMbWJAQuuP3yxyHM8bMUdTLhf5lb5dJq/wz1VWiA3Z/oY5vRSiCpwneT5rrWqc8ErU11mU=</t>
   </si>
   <si>
+    <t>b8536409d7a15f77c09c</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1ygsdcgJuPG9SqctWWdcmvdFYGBlg0Mfi/view</t>
   </si>
   <si>
-    <t>a4bc9b1320f2e1e710e9b1fd60261ccf698609aee22bab0b8bc8f6278c77ff28</t>
-  </si>
-  <si>
     <t>b8536409d7a15f77c09c4ee971971d57834a7ce935d7de0afca925b431d7d3f0</t>
   </si>
   <si>
@@ -1225,117 +1228,120 @@
     <t>Oleksandr Kolesnyk</t>
   </si>
   <si>
-    <t>b8536409d7a15f77c09c</t>
+    <t>23.08.2022</t>
+  </si>
+  <si>
+    <t>4b7f8d4f293f72815ab490bd586e210947057de3a2e9afb59fe92108421cfc43</t>
   </si>
   <si>
     <t>G2VIng2ixewyoOfF7ZTzpcGYTcmDx6zY2XXVDruaEShNbAYMCcWhVMWWXpHVa/vIIt6mI19G/JjIIBPaXI9uK6Y=</t>
   </si>
   <si>
+    <t>Nikita Chabaniuk</t>
+  </si>
+  <si>
+    <t>4b7f8d4f293f72815ab4</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/1HU3qhe9VaTIqZwLa4G3mOS0nHEg8DO8M/view</t>
   </si>
   <si>
-    <t>4b7f8d4f293f72815ab490bd586e210947057de3a2e9afb59fe92108421cfc43</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/1YrBbtcKZvZerAB-P3IgI2VY_rNpYXWdd/view</t>
   </si>
   <si>
-    <t>23.08.2022</t>
-  </si>
-  <si>
-    <t>Nikita Chabaniuk</t>
-  </si>
-  <si>
-    <t>4b7f8d4f293f72815ab4</t>
+    <t>8e1b8b35cb7330ddc76eb03e4878e055a523040b63232a27df27ca76e04a8678</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1cFcRCnazlkVCJwZpAUyUVf662LBzDlc1/view</t>
+  </si>
+  <si>
+    <t>Amina Yambulatova</t>
+  </si>
+  <si>
+    <t>8e1b8b35cb7330ddc76e</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1cQNAJj42ZPrF7G2wJasBxsblGWb1cx6U/view</t>
+  </si>
+  <si>
+    <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
   </si>
   <si>
     <t>G1YYB4Ev2kOYbqXr2cCeGRFHYlaynNvMmb6TrOoeBnzORoDe4Pips3BiaJZxZBBWtuSRec45V5h9Mce9vCSYCH8=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1cQNAJj42ZPrF7G2wJasBxsblGWb1cx6U/view</t>
-  </si>
-  <si>
-    <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
-  </si>
-  <si>
-    <t>8e1b8b35cb7330ddc76eb03e4878e055a523040b63232a27df27ca76e04a8678</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1cFcRCnazlkVCJwZpAUyUVf662LBzDlc1/view</t>
-  </si>
-  <si>
-    <t>Amina Yambulatova</t>
-  </si>
-  <si>
-    <t>8e1b8b35cb7330ddc76e</t>
+    <t>Yegor Chukanov</t>
+  </si>
+  <si>
+    <t>95392bafab8d1e14ab55</t>
   </si>
   <si>
     <t>drive.google.com/file/d/17TrcHxOjczAIzHRX6jGL7d6ikxt2lACY/view</t>
   </si>
   <si>
+    <t>95392bafab8d1e14ab5530e8a6a2436a7faa1647c9af34869af6d793fdb526dd</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1UXQ_dMB-t0DJ1zHqwUO4AMKw00xTe7Kd/view</t>
+  </si>
+  <si>
     <t>40f94f67b8a8d87da643ad5c019db2e6c6f6e960a03453048995c11eea36d236</t>
   </si>
   <si>
-    <t>95392bafab8d1e14ab5530e8a6a2436a7faa1647c9af34869af6d793fdb526dd</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1UXQ_dMB-t0DJ1zHqwUO4AMKw00xTe7Kd/view</t>
-  </si>
-  <si>
-    <t>Yegor Chukanov</t>
-  </si>
-  <si>
-    <t>95392bafab8d1e14ab55</t>
+    <t>Dmytro Vynohradov</t>
+  </si>
+  <si>
+    <t>3dc98e4fdedc7c6b91f5</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1JWQoCNMPVL8zCEb3aDGft9aNFn_7Bn6U/view</t>
   </si>
   <si>
+    <t>3dc98e4fdedc7c6b91f59db100a54a9d140ee40149845e160b9bf59021cfd763</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Gky0SNUujtYDy63EkDHDfdHn6lBJFb9g/view</t>
+  </si>
+  <si>
+    <t>24.08.2022</t>
+  </si>
+  <si>
     <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
   </si>
   <si>
-    <t>3dc98e4fdedc7c6b91f59db100a54a9d140ee40149845e160b9bf59021cfd763</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Gky0SNUujtYDy63EkDHDfdHn6lBJFb9g/view</t>
-  </si>
-  <si>
-    <t>24.08.2022</t>
-  </si>
-  <si>
-    <t>Dmytro Vynohradov</t>
-  </si>
-  <si>
-    <t>3dc98e4fdedc7c6b91f5</t>
-  </si>
-  <si>
     <t>G2JfFYPk+Pp+65U01De1kmptKvks4kuSPI6m3hF2U+79HZCoD8lymFRpoPnVxZ2laFtkb2XA9J8nfBT2hffuYsw=</t>
   </si>
   <si>
+    <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
+  </si>
+  <si>
+    <t>HBCVC5I+IeKJfiwlnLSOv2b3zmmlPbKLwcOCjBb6dPfZIvDoV0Bg/EwiXf880gA9PO3pwI1BcQpjCFVKtoEOCHM=</t>
+  </si>
+  <si>
+    <t>Mykhailo Sokolov</t>
+  </si>
+  <si>
+    <t>5a875f69aae3c47635bc</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1-Woakmc6sQIZj_YuO0UujbdA_k7k30AQ/view</t>
+  </si>
+  <si>
+    <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/17EMz1PARbz9e8RTVMLFvKCGrcuqxU0X5/view</t>
   </si>
   <si>
-    <t>Mykhailo Sokolov</t>
-  </si>
-  <si>
-    <t>5a875f69aae3c47635bc</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1-Woakmc6sQIZj_YuO0UujbdA_k7k30AQ/view</t>
-  </si>
-  <si>
-    <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
-  </si>
-  <si>
-    <t>5a875f69aae3c47635bc01e40a488d86456623692d1908827cd900a67da32d9f</t>
-  </si>
-  <si>
-    <t>HBCVC5I+IeKJfiwlnLSOv2b3zmmlPbKLwcOCjBb6dPfZIvDoV0Bg/EwiXf880gA9PO3pwI1BcQpjCFVKtoEOCHM=</t>
-  </si>
-  <si>
     <t>25.08.2022</t>
   </si>
   <si>
+    <t>5cbc5e19fd5bb7d530d8e96ecd9e1f957e8731f7b5738c30b4b5e1bdda0861c4</t>
+  </si>
+  <si>
+    <t>GxbnaO2SI42FWSLEEeAdripZKWQTCFp0dSAopXV/2wcjBco8ZbmUu3GwTndN8FzDVaFjnEfIeim4NGPPs+jCQzg=</t>
+  </si>
+  <si>
     <t>Illia Popov</t>
   </si>
   <si>
@@ -1345,84 +1351,84 @@
     <t>drive.google.com/file/d/1jMQGHGOmWabDErZg-n19HYPP7sUPbA-C/view</t>
   </si>
   <si>
-    <t>5cbc5e19fd5bb7d530d8e96ecd9e1f957e8731f7b5738c30b4b5e1bdda0861c4</t>
-  </si>
-  <si>
     <t>c6e0a8f84ae9df426a28363024a5e4734dea38882c37c27ccbf3350092257289</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1rEPYF5Uwt1Gg--7B3QLoPSWrcIzAuG9l/view</t>
   </si>
   <si>
-    <t>GxbnaO2SI42FWSLEEeAdripZKWQTCFp0dSAopXV/2wcjBco8ZbmUu3GwTndN8FzDVaFjnEfIeim4NGPPs+jCQzg=</t>
+    <t>e17451aabeae8492dbe7099d581c12ef9e7a8366dd7ddf2267d0e42cd4580c19</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1NYZJn0Wxf8vR9QW-LE4U_2mvV5gX356p/view</t>
+  </si>
+  <si>
+    <t>Mykola Gora</t>
+  </si>
+  <si>
+    <t>e17451aabeae8492dbe7</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1QJKE4_V6OQFcAtrq5rdY3Rh_W91kgnxQ/view</t>
+  </si>
+  <si>
+    <t>26.08.2022</t>
+  </si>
+  <si>
+    <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
   </si>
   <si>
     <t>G1rX7mp/6KhUVoryYkYmifpVakFz5esJ02otJ2mZPwp7MHkaFa8WdLamGh4FuZCo4AP8DoxRbh1+qYpxsEGumSY=</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/1QJKE4_V6OQFcAtrq5rdY3Rh_W91kgnxQ/view</t>
-  </si>
-  <si>
-    <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
-  </si>
-  <si>
-    <t>e17451aabeae8492dbe7099d581c12ef9e7a8366dd7ddf2267d0e42cd4580c19</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1NYZJn0Wxf8vR9QW-LE4U_2mvV5gX356p/view</t>
-  </si>
-  <si>
-    <t>26.08.2022</t>
-  </si>
-  <si>
-    <t>Mykola Gora</t>
-  </si>
-  <si>
-    <t>e17451aabeae8492dbe7</t>
+    <t>417f8fbf445be4909b812ed5db8ded8669b512bcba91782881d11f10fe551570</t>
   </si>
   <si>
     <t>HAUm82i2DcGPW2dlUnkAex+z9pI7QXjFFkfN7fvKH/NWHKCa5jaIHnZIjW0MHVx+WFJzNl5fsaPYQxDd7zePq9E=</t>
   </si>
   <si>
+    <t>4cfdcdc672279489b68a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1noq7bJhv9KNWgJD8xKbWqJaO3zb1pra1/view</t>
+  </si>
+  <si>
+    <t>4cfdcdc672279489b68a1e900b2f8aa296d28d2d40fb08c1c5ca14562a1d23b3</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1UxUzAyExCitVVyJENd4Ka9gN9rBDLUrw/view</t>
+  </si>
+  <si>
     <t>Artem Levkin</t>
   </si>
   <si>
-    <t>4cfdcdc672279489b68a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1noq7bJhv9KNWgJD8xKbWqJaO3zb1pra1/view</t>
-  </si>
-  <si>
-    <t>417f8fbf445be4909b812ed5db8ded8669b512bcba91782881d11f10fe551570</t>
-  </si>
-  <si>
-    <t>4cfdcdc672279489b68a1e900b2f8aa296d28d2d40fb08c1c5ca14562a1d23b3</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1UxUzAyExCitVVyJENd4Ka9gN9rBDLUrw/view</t>
-  </si>
-  <si>
     <t>drive.google.com/file/d/10aBMeumWTAVfoCF9OhzWdrjtrC26Zmc3/view</t>
   </si>
   <si>
+    <t>Natalya Dolgova</t>
+  </si>
+  <si>
+    <t>34ea29020672eb21280c</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1z6IhpWNludHIAApZXih8yz4bCn6-Vt8M/view</t>
+  </si>
+  <si>
     <t>29.08.2022</t>
   </si>
   <si>
-    <t>Natalya Dolgova</t>
-  </si>
-  <si>
-    <t>34ea29020672eb21280c</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1z6IhpWNludHIAApZXih8yz4bCn6-Vt8M/view</t>
-  </si>
-  <si>
     <t>34ea29020672eb21280caadaf19377833ae12495cae3cc9e297d0f4aefe0d428</t>
   </si>
   <si>
     <t>HB24fr9zRBm8R7uXlw5zXiUP5eHW5ljJJrmCwOpRp/4YRjQ/TpqUsmm+GMG8fdOVEEIellnn+Sif/IFeHOuPX4Y=</t>
   </si>
   <si>
+    <t>905fa9409eec8ceee94c08cd9f5410e03310ce041b58f41958ea440b3396b275</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1MEjKKhuFeZ4mE0PM3kjRptb63VitKcTl/view</t>
+  </si>
+  <si>
     <t>Artem Zubrych</t>
   </si>
   <si>
@@ -1435,103 +1441,112 @@
     <t>bfdf2d5236562eef75432a510ff9b0b4cd7d37ac17547d3e0515f4891a736609</t>
   </si>
   <si>
-    <t>905fa9409eec8ceee94c08cd9f5410e03310ce041b58f41958ea440b3396b275</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1MEjKKhuFeZ4mE0PM3kjRptb63VitKcTl/view</t>
-  </si>
-  <si>
     <t>G2IQ96lhlCyrf6+zTqhN5F744yuKJvP3JOPKM+8RfwLsTNBoEcHKch31onlkxZG23com3sHuRJ3EVtQBirJEcLI=</t>
   </si>
   <si>
+    <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
+  </si>
+  <si>
+    <t>Valentyna Lytvynova</t>
+  </si>
+  <si>
+    <t>f4b8579fd5eced5139aa</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1tVAP8fauK_wN1JHJrB5yyDCelAvkutVt/view</t>
+  </si>
+  <si>
     <t>30.08.2022</t>
   </si>
   <si>
-    <t>Valentyna Lytvynova</t>
-  </si>
-  <si>
-    <t>f4b8579fd5eced5139aa</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1tVAP8fauK_wN1JHJrB5yyDCelAvkutVt/view</t>
-  </si>
-  <si>
     <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
   </si>
   <si>
-    <t>drive.google.com/file/d/15cn2jnHPhw08aOY1tCl02Zl0T9JcvXpO/view</t>
-  </si>
-  <si>
     <t>HFOOeUrSvztcEv16aKHm4rhS4OG+5rifrKjnl2TLUMNuIvmOP+bmIwQ0R/CXhqPzLG93zNNZ7DDAzo4zX2JwqG0=</t>
   </si>
   <si>
+    <t>Eugene Petrikeev</t>
+  </si>
+  <si>
+    <t>a3cfa3e5bbc7bf47c73a</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1_UvD8BMIATW0UaJxtWCZTpytX5_CiSVw/view</t>
+  </si>
+  <si>
+    <t>a3cfa3e5bbc7bf47c73a50046cffe7f40a1126942a35d516dae7601a8d6e0c04</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1Es38UUfq4uF6K5m688upx26mH7dcLyOW/view</t>
+  </si>
+  <si>
+    <t>ff01796886d91f5df69e2b999462ffdd868ad8a8ac105910698d4bf34eac760d</t>
+  </si>
+  <si>
     <t>HC9onoqwiC9tBTjtH4rWK0sZBN201JY5gzQcOjtrnfrxCuyXuNML5tt7vBnK3gaErXQJAHBkpCgIGcSy2+VhT2o=</t>
   </si>
   <si>
-    <t>Eugene Petrikeev</t>
-  </si>
-  <si>
-    <t>a3cfa3e5bbc7bf47c73a</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1_UvD8BMIATW0UaJxtWCZTpytX5_CiSVw/view</t>
-  </si>
-  <si>
-    <t>ff01796886d91f5df69e2b999462ffdd868ad8a8ac105910698d4bf34eac760d</t>
-  </si>
-  <si>
-    <t>a3cfa3e5bbc7bf47c73a50046cffe7f40a1126942a35d516dae7601a8d6e0c04</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1Es38UUfq4uF6K5m688upx26mH7dcLyOW/view</t>
+    <t>f58f1fc15134ceb6667235bc35ca8e2bc62cf070e2a991a17d739ee3d744ec0a</t>
+  </si>
+  <si>
+    <t>G0id81/AyLv4L2f1Cpy38tuZKCexDvgAwCSDLEP2wFERBEUIL9DUFSHweqt5XpHRUrIGyIocTY4rw5X+3BRYVQo=</t>
+  </si>
+  <si>
+    <t>Yurii Poberezhnyi</t>
+  </si>
+  <si>
+    <t>f58f1fc15134ceb66672</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/13RaHOAUhpp6-9qTwDPNevrtrVrYljiGr/view</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1_MqAQ9X0jUmXaREfYybJjbDFMxW4y_dV/view</t>
   </si>
   <si>
-    <t>Yurii Poberezhnyi</t>
-  </si>
-  <si>
-    <t>f58f1fc15134ceb66672</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/13RaHOAUhpp6-9qTwDPNevrtrVrYljiGr/view</t>
-  </si>
-  <si>
-    <t>f58f1fc15134ceb6667235bc35ca8e2bc62cf070e2a991a17d739ee3d744ec0a</t>
-  </si>
-  <si>
-    <t>G0id81/AyLv4L2f1Cpy38tuZKCexDvgAwCSDLEP2wFERBEUIL9DUFSHweqt5XpHRUrIGyIocTY4rw5X+3BRYVQo=</t>
+    <t>07.09.2022</t>
+  </si>
+  <si>
+    <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
   </si>
   <si>
     <t>G0cRPgCnc9gR979fw7SNVKjn1dtzkepjD/26FOnoJgjmCLAqctDx/62xZZTvPJAQ4ByVKaMOKZLGISJxpBRjSxk=</t>
   </si>
   <si>
+    <t>Alina Telnova</t>
+  </si>
+  <si>
+    <t>0c95f06fcccbe19e0bb6</t>
+  </si>
+  <si>
     <t>drive.google.com/file/d/12VzupVGrvNkCAb6z0yEId3srZwjB3_oV/view</t>
   </si>
   <si>
-    <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
-  </si>
-  <si>
     <t>0c95f06fcccbe19e0bb6821d5f73206de2ba7ab6169774ac57630980fcfdf102</t>
   </si>
   <si>
     <t>drive.google.com/file/d/1QyeAEZg9sPSyHyju9DCa692a7BZuOUIM/view</t>
   </si>
   <si>
-    <t>07.09.2022</t>
-  </si>
-  <si>
-    <t>Alina Telnova</t>
-  </si>
-  <si>
-    <t>0c95f06fcccbe19e0bb6</t>
+    <t>07.12.2022</t>
+  </si>
+  <si>
+    <t>af27ce942975c91a06dbe4593ddf563b104b6cff511a916a18e473e33a3c6685</t>
+  </si>
+  <si>
+    <t>HGAuSB4G9iS8qnGaGbTZOELzGnfVIOzeYAr51TKyBEI+R81nW4taggKbD837pJohHVGrr04rH5jPlwzyVAlOZf8=</t>
+  </si>
+  <si>
+    <t>Oleksandra Ivanova</t>
   </si>
   <si>
     <t>Theory of database organization and basic SQL</t>
   </si>
   <si>
-    <t>HGAuSB4G9iS8qnGaGbTZOELzGnfVIOzeYAr51TKyBEI+R81nW4taggKbD837pJohHVGrr04rH5jPlwzyVAlOZf8=</t>
+    <t>a7a0e0e2fed389ffbc84</t>
+  </si>
+  <si>
+    <t>drive.google.com/file/d/1a35HB3dZNIFVRKh5MYvwbUMgYIYIeJcJ/view</t>
   </si>
   <si>
     <t>a7a0e0e2fed389ffbc84aa75be30dc0262dac7620349a94e3f087de79d800aec</t>
@@ -1540,303 +1555,291 @@
     <t>drive.google.com/file/d/1sz_pAnlIqmiCE-IlVrYH0bVnlb9CO7k3/view</t>
   </si>
   <si>
-    <t>07.12.2022</t>
-  </si>
-  <si>
-    <t>Oleksandra Ivanova</t>
-  </si>
-  <si>
-    <t>a7a0e0e2fed389ffbc84</t>
-  </si>
-  <si>
-    <t>drive.google.com/file/d/1a35HB3dZNIFVRKh5MYvwbUMgYIYIeJcJ/view</t>
-  </si>
-  <si>
-    <t>af27ce942975c91a06dbe4593ddf563b104b6cff511a916a18e473e33a3c6685</t>
+    <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
   </si>
   <si>
     <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1aqzLGqXm5jS9iEaLgHtzZiFKsPfYmvDS/view</t>
-  </si>
-  <si>
     <t>08.12.2022</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1bZdehro88yGW8XjQKOAS7SwMuPw0IBue/view</t>
+  </si>
+  <si>
     <t>Ilona Shevchenko</t>
   </si>
   <si>
-    <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
+    <t>https://drive.google.com/file/d/1-Qwkz0Bzfdpq-Ifo3bOeGIzvSh--Uh08/view</t>
+  </si>
+  <si>
+    <t>Ievgeniia Bondar</t>
   </si>
   <si>
     <t>53a0b93122b1b19f00b1770fcf8346ff6b499f4d7d038539404febdb403dd2d5</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/16zyjnDebkigK9h790UZ-4PG_NbtpDhyD/view</t>
-  </si>
-  <si>
-    <t>Ievgeniia Bondar</t>
-  </si>
-  <si>
     <t>HIgwLjNpC9EMttrwVCHCqYNaw9oP6JDSNC3WNNknWncLPhG4ednynhWTcdaeAX+FwguxVwPvX9m7LvvlPFKLdrQ=</t>
   </si>
   <si>
+    <t>7175c0e9b3bfed99d34b5ff6205db6a1d738a6f59b1edc16625a3de5e5df2337</t>
+  </si>
+  <si>
     <t>HBabTC2ygOQ+iqxIRo7A4uu6gllcQml5FLggMVySfR6Db60y77BToxgXwXmdwrHtoN1Gua5C8I7MgdjeDLZ8JCo=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1afQMmqQ5J-HHr05qFuNtJQ7v8vF0v_A7/view</t>
-  </si>
-  <si>
     <t>Sofia Golets</t>
   </si>
   <si>
-    <t>7175c0e9b3bfed99d34b5ff6205db6a1d738a6f59b1edc16625a3de5e5df2337</t>
+    <t>https://drive.google.com/file/d/11wcKgmGjyOXBn55BHE800_9LUkixwJ5R/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XiZ7gJwbaX2zaidm1P1vwwWtdHfiuLNE/view</t>
+  </si>
+  <si>
+    <t>Mykyta Tsyvinskyi</t>
   </si>
   <si>
     <t>d329fb86a98533895cc967dcae966e81c1704bd665227e866aa2243d40f860d1</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1e7OMV0kMn6BonSf3tG0ikUgbmQb9xpxq/view</t>
-  </si>
-  <si>
-    <t>Mykyta Tsyvinskyi</t>
-  </si>
-  <si>
     <t>HPq9RQ1vlbJ4N83dgUwLLBJcN4AFaUJYC8F8BVzxUkYDR6OqA/YcNOeiukloL3UmZXPkluIN4lwoBhMr6vEj8KA=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1WtY29eBrm4N6I32tzuepPI9x2e7c-KmH/view</t>
+    <t>https://drive.google.com/file/d/1T3Lm91pFIUK80XC-RUt3fRHoTM3hXM9n/view</t>
+  </si>
+  <si>
+    <t>Cryptography and information security theory</t>
   </si>
   <si>
     <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
   </si>
   <si>
-    <t>Cryptography and information security theory</t>
-  </si>
-  <si>
     <t>G+LRDlMfhyvZO7qLoCtZi3Y4Q1yC/VmYJUOF79rRwGAGH93HyPOn0ZUp6fjZE87K+JkhhSiBVl2Pf+AGfNu10RA=</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1bMaOe5ARo51AJfEft-cJU4oV1pe4ma4y/view</t>
+  </si>
+  <si>
+    <t>09.12.2022</t>
+  </si>
+  <si>
+    <t>73728940f6f168a46120d32081278e9c30ab81815077aa212a721480bcebc441</t>
+  </si>
+  <si>
     <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1IYHKp7wc173RjboqWNjgfLqyEqJLzgLG/view</t>
-  </si>
-  <si>
-    <t>09.12.2022</t>
-  </si>
-  <si>
-    <t>73728940f6f168a46120d32081278e9c30ab81815077aa212a721480bcebc441</t>
+    <t>Kateryna Hordiienko</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mB5iDnHoQgQlXGSnfMhhPQl9YLNmZbex/view</t>
+  </si>
+  <si>
+    <t>c2d70295e9cd94ea36fa993ddb5a6e20a0b88058287ff348b485f282fe98bcd7</t>
   </si>
   <si>
     <t>G+YE6/0P9zPNxZ1YU3AR+TXthT9PlF8Gx3dM9k7Y2cNIIrTalRdUgSTwwSMu/mcimZUsZLZ5l2puCtwVP6ll5kI=</t>
   </si>
   <si>
-    <t>c2d70295e9cd94ea36fa993ddb5a6e20a0b88058287ff348b485f282fe98bcd7</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-EbHdwg9FyiFKwUSRlskHH3u0aJ4yQaF/view</t>
-  </si>
-  <si>
-    <t>Kateryna Hordiienko</t>
+    <t>12.12.2022</t>
+  </si>
+  <si>
+    <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
   </si>
   <si>
     <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU=</t>
   </si>
   <si>
-    <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1848aQn3Qzidb9mnAOxMPbG2t49ryL5lA/view</t>
-  </si>
-  <si>
-    <t>12.12.2022</t>
+    <t>https://drive.google.com/file/d/1wcmK3Q0KOJsiVXlDD2ioq8KzjHHAk31w/view</t>
   </si>
   <si>
     <t>dcc49868ac0482916b0fe63143198d93a159f912cae80d172fca6750a9b8223c</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1VsDaQgpwwGlEfDx6MhA0lFegwruHGprr/view</t>
+    <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI=</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-f_ByKOoMyHAHOuHcIqKr57cim4ODyzE/view</t>
   </si>
   <si>
     <t>Yuliia Aritkulova</t>
   </si>
   <si>
-    <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI=</t>
+    <t>Oleksandr Yevtushenko</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_eSjKFpuJ7DBKsKJnMvXTtXb3fR2mNoE/view</t>
   </si>
   <si>
     <t>69469e3a141e8845c7809e75806677b732754cb64a3ab7e27ee50c47defaa7cd</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1loQBALFBYE0H0qfLFY1dz4b8A470f-0z/view</t>
-  </si>
-  <si>
-    <t>Oleksandr Yevtushenko</t>
-  </si>
-  <si>
     <t>G9WI+TMiMLY1UW9rtOW0ycI21KtE3yOBTQ511sJbmfIXWvRQanASycY6fUpVGhO7iM8gyJxecc4xx2ytHX1VgzY=</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1dpMYJqJpsKD_MZ28wuIWQ3k1SWmC6Zi6/view</t>
+  </si>
+  <si>
+    <t>Mariia Mahdalina</t>
+  </si>
+  <si>
     <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1gR856CR7Njz8bSOchQ8Jk9mzo1lrXuJ7/view</t>
-  </si>
-  <si>
-    <t>Mariia Mahdalina</t>
-  </si>
-  <si>
     <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U=</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1UD3BMSK3T5rStaOQELkw1h6MbHhYFEPm/view</t>
+  </si>
+  <si>
+    <t>766041da4e35a4d0486d569831f14d1b0170e9b3c0d5f3a1ad71da7b4dd65a40</t>
+  </si>
+  <si>
     <t>G6T2wslW9Mlopb7SNt9oGcOSZmjSMvsByzfIQBZfwVweUZ7U2Mi5N0BkW7xhpRFkMMCWlY1kHu4VefyQzGyK5dA=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1sRph3qKCo5hR3joHTaVFYQ-k-RlwSM4L/view</t>
-  </si>
-  <si>
-    <t>766041da4e35a4d0486d569831f14d1b0170e9b3c0d5f3a1ad71da7b4dd65a40</t>
+    <t>HJVKQ2Uj9PkXKh4aB7EUy+qqEtzziBAX7CaNWYTiFDyXIQ5w6CG1bIat2vs1GsmBD+r6z55FbUFJFdXz57+QgUc=</t>
   </si>
   <si>
     <t>13.12.2022</t>
   </si>
   <si>
+    <t>b8204a738e7d7870dabd55671aca3a860dd89a35ef26e0842f271747331a2137</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gqZ_n7k7JsjK6F-r4FIJpeiTcJTBcFZ3/view</t>
+  </si>
+  <si>
     <t>Anastasia Andreeva</t>
   </si>
   <si>
-    <t>b8204a738e7d7870dabd55671aca3a860dd89a35ef26e0842f271747331a2137</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1imoUmJpZRNB1iS0S5Nb2MXlnky2FiL_g/view</t>
-  </si>
-  <si>
-    <t>HJVKQ2Uj9PkXKh4aB7EUy+qqEtzziBAX7CaNWYTiFDyXIQ5w6CG1bIat2vs1GsmBD+r6z55FbUFJFdXz57+QgUc=</t>
+    <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
   </si>
   <si>
     <t>G63Lq+BtAcEqpIZphPzrLfd1K4chy2llUoMMBLMQGk5gdyNM+62UvBxqqOxckVeN2RtGC1vCiL0NvWNvEPfV4YE=</t>
   </si>
   <si>
-    <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1BNyCmDtFkILnaFT7R_Is08UJLwwgaJEk/view</t>
-  </si>
-  <si>
     <t>Polina Reshetnikova</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/107MZPwoqNMFODHClAOqyqKDxQm9rusMm/view</t>
+  </si>
+  <si>
     <t>93620030db08953cbf17468ffde46134834b7da10958b5174e935d4e324ce081</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1atvAXZgiVG-DWhRiHrQyipKw3dfwq5rY/view</t>
-  </si>
-  <si>
     <t>HHbiD8H1z2fwCjgA0K/0GymJl4RcCi3wnehCfa72EOF+RwXPgmdTom5TH/IQ6e5AjmLndgB/4YfHFtdBTD1hpx0=</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1UUnyIJxiln3xiSU-MQe-dfzi2Ghy9D1l/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gmTHOxOuUw4ZZoZxgG-kTw9D0jAkNV3W/view</t>
+  </si>
+  <si>
     <t>b3240a1974bff838f35320554f851b14ea2bd31f46bcb893a35546b7ea8b3112</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1VhTQOLz8CWJc4ISlKbRK3NC9_klpkZ24/view</t>
-  </si>
-  <si>
     <t>HE5sTfhDSPPfvHdDSYkSvX2ZkktsyYMaoVxamHtpKMWoUxr7olw6SaItyMSztkPit37aQqfQ+YAsvCfZ01AcAwc=</t>
   </si>
   <si>
     <t>G6+s7V2DHLaRMUYNOIA8N40KmelApLWT3iXHGYHXv0ZJIGVzGNez6R9Ai+af6Go130PTYDBGSDSN/q4KZdDYaqI=</t>
   </si>
   <si>
+    <t>14.12.2022</t>
+  </si>
+  <si>
     <t>b94492feb30efb7f94082666a936891a31a43de0e18af1aa8a110ef869532d93</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1n5PDHv2ntLnajP20Ry7Sz0oHFjUB724m/view</t>
-  </si>
-  <si>
-    <t>14.12.2022</t>
+    <t>https://drive.google.com/file/d/19tqVPVbJh-YiVizUzf9fEqpwcTKrZ9FS/view</t>
   </si>
   <si>
     <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1n21fKthtwv139YS_RDYXn0Yp0H9dH5bV/view</t>
+    <t>151f4183ce68ec59b82ccbef71ac6f538e0eb86354c29ded27bca54fa4b95c99</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cRcr7eGbC_CCkkR3UxkYgeNlXeuDOTmH/view</t>
   </si>
   <si>
     <t>Pasha Charovatiy</t>
   </si>
   <si>
-    <t>151f4183ce68ec59b82ccbef71ac6f538e0eb86354c29ded27bca54fa4b95c99</t>
-  </si>
-  <si>
     <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1yBT34GWsQCU7wi7BuubWJd3ELqgA01ek/view</t>
+    <t>42bdd76bce3b85dabf4bdba92100db768bf64e72f2b3535930b69bef40aa3c4c</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1h3SI8_vNMrr-5bT3QPw2ySYeSpfjuw35/view</t>
   </si>
   <si>
     <t>Dmytro Serhiienko</t>
   </si>
   <si>
-    <t>42bdd76bce3b85dabf4bdba92100db768bf64e72f2b3535930b69bef40aa3c4c</t>
+    <t>Vladislav Dmitrenko</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BuA88OUU7Ll--3tYjOqHemz4XyEpH6Ql/view</t>
+  </si>
+  <si>
+    <t>890c4726435f6d5a1c10068273e8dd8a3ac0645a9564bbf149f0d74a891669c6</t>
   </si>
   <si>
     <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8=</t>
   </si>
   <si>
-    <t>890c4726435f6d5a1c10068273e8dd8a3ac0645a9564bbf149f0d74a891669c6</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1gUf_Lr8FmfVBxMzS1hFqbCSo2zcfClKF/view</t>
-  </si>
-  <si>
-    <t>Vladislav Dmitrenko</t>
+    <t>05f89d361327d9ef1679342cb8ed0488715da550cba8f0bdc7160caa43b5929c</t>
+  </si>
+  <si>
+    <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bJmuauyYf8pDOs8uCjdnr8NB_TgJr6Jj/view</t>
   </si>
   <si>
     <t>Marina Rindina</t>
   </si>
   <si>
-    <t>05f89d361327d9ef1679342cb8ed0488715da550cba8f0bdc7160caa43b5929c</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_ozCZpouUUIXvwbZ6olpj2GG4JGjOCXb/view</t>
-  </si>
-  <si>
-    <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
+    <t>Nazar Franko</t>
+  </si>
+  <si>
+    <t>fec88d795aed9c59a04f</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eyaqw0immcO-u21hldfSHL3N32uydgz5/view</t>
+  </si>
+  <si>
+    <t>15.12.2022</t>
   </si>
   <si>
     <t>fec88d795aed9c59a04f91dedb06380fd764c753a54d6bdb96cea82b6ba05e29</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1g22K_nue_etzpsi4tYC8bAHpOWzN07n0/view</t>
-  </si>
-  <si>
-    <t>15.12.2022</t>
-  </si>
-  <si>
-    <t>Nazar Franko</t>
-  </si>
-  <si>
-    <t>fec88d795aed9c59a04f</t>
-  </si>
-  <si>
     <t>HL/mv02dnaeyvxsR9TyKJfqMl9lFEn1L8OidD6AzOq6SbieHRkQRPK29os5vKBwoJ5+Bf7RtfN9xUiVEOCASXj0=</t>
   </si>
   <si>
+    <t>9b293cc55ae62c9db4d9ce36cbc12b07e861f9c2cc1fdea2619f10ceca7aa779</t>
+  </si>
+  <si>
     <t>HErdMQ+2CPtlOJcP0I5vxghyuQmJVGZrrQr9SzMolPyHA1fUnzBjAbN7DzwkyP+y7M+dkiNCGOkNsY3YZaCO1XA=</t>
   </si>
   <si>
-    <t>9b293cc55ae62c9db4d9ce36cbc12b07e861f9c2cc1fdea2619f10ceca7aa779</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1FJd9-kepCCqEp6bt5PhntSQI-xtY8bcx/view</t>
-  </si>
-  <si>
     <t>Olha Drahomeretska</t>
   </si>
   <si>
     <t>9b293cc55ae62c9db4d9</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1SCPDY16gwpV-7Bwejj57l98Q23mpK1nN/view</t>
+  </si>
+  <si>
+    <t>ac2b88ac92caf80b12076489c877b91785360487aa3135871883e597da139682</t>
+  </si>
+  <si>
     <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
   </si>
   <si>
@@ -1846,22 +1849,19 @@
     <t>ac2b88ac92caf80b1207</t>
   </si>
   <si>
-    <t>ac2b88ac92caf80b12076489c877b91785360487aa3135871883e597da139682</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ZcpmxZ0_IFbambMGQgxq54rclJgxjAmM/view</t>
+    <t>https://drive.google.com/file/d/12gkdnIPAqSsgW3wJ8Z6i67p7IDNzgp-o/view</t>
   </si>
   <si>
     <t>3bf214d846d708bfad511d51d92350d45ba0bcf21f43b7bb46553ed2e0aad585</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1S6UenLA2xeiOEYJh0CUiAAvSVFNLRRo1/view</t>
-  </si>
-  <si>
     <t>HDfq7iIvfl/KNv5Cs/GPeiZndLZYqskpWWIXt7VX3LunRfVInSqJiTeO33MHHKI8aX3Zz4VgDh7LV5fAg/zZPZk=</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-pr_8QnscsCQZ_39BGw4aN-GSatNETXK/view</t>
   </si>
 </sst>
 </file>
@@ -2179,10 +2179,10 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2191,848 +2191,848 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
         <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
         <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s">
-        <v>51</v>
-      </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>55</v>
-      </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -3040,31 +3040,31 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -3072,31 +3072,31 @@
         <v>60</v>
       </c>
       <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
         <v>62</v>
       </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" t="s">
-        <v>61</v>
-      </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -3107,28 +3107,28 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -3139,28 +3139,28 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
         <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -3168,31 +3168,31 @@
         <v>60</v>
       </c>
       <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -3203,28 +3203,28 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -3235,28 +3235,28 @@
         <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -3264,31 +3264,31 @@
         <v>60</v>
       </c>
       <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
         <v>71</v>
       </c>
-      <c r="C35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
-      </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -3299,28 +3299,28 @@
         <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -3328,124 +3328,124 @@
         <v>60</v>
       </c>
       <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
-      </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
         <v>82</v>
       </c>
-      <c r="B38" t="s">
+      <c r="G38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s">
         <v>83</v>
       </c>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="I38" t="s">
         <v>77</v>
       </c>
-      <c r="E38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="J38" t="s">
         <v>78</v>
-      </c>
-      <c r="G38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" t="s">
-        <v>76</v>
-      </c>
-      <c r="J38" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
         <v>89</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
         <v>90</v>
       </c>
-      <c r="C39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>85</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" t="s">
         <v>86</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" t="s">
         <v>87</v>
-      </c>
-      <c r="I39" t="s">
-        <v>91</v>
-      </c>
-      <c r="J39" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
         <v>94</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
         <v>95</v>
       </c>
-      <c r="C40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
         <v>96</v>
-      </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" t="s">
-        <v>97</v>
       </c>
       <c r="G40" t="s">
         <v>98</v>
       </c>
       <c r="H40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" t="s">
         <v>99</v>
-      </c>
-      <c r="I40" t="s">
-        <v>92</v>
       </c>
       <c r="J40" t="s">
         <v>93</v>
@@ -3453,121 +3453,121 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
         <v>104</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
         <v>105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" t="s">
-        <v>100</v>
       </c>
       <c r="G41" t="s">
         <v>101</v>
       </c>
       <c r="H41" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" t="s">
         <v>102</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>107</v>
-      </c>
-      <c r="J41" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" t="s">
         <v>111</v>
       </c>
-      <c r="B42" t="s">
+      <c r="I42" t="s">
+        <v>108</v>
+      </c>
+      <c r="J42" t="s">
         <v>112</v>
-      </c>
-      <c r="C42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H42" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" t="s">
-        <v>114</v>
-      </c>
-      <c r="J42" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
         <v>120</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
         <v>121</v>
       </c>
-      <c r="C43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="G43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" t="s">
         <v>122</v>
       </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
         <v>117</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43" t="s">
         <v>118</v>
-      </c>
-      <c r="I43" t="s">
-        <v>115</v>
-      </c>
-      <c r="J43" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" t="s">
         <v>128</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" t="s">
-        <v>124</v>
-      </c>
-      <c r="G44" t="s">
-        <v>125</v>
       </c>
       <c r="H44" t="s">
         <v>126</v>
@@ -3581,63 +3581,63 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
         <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
         <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H45" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I45" t="s">
         <v>135</v>
       </c>
       <c r="J45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" t="s">
         <v>139</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
         <v>140</v>
       </c>
-      <c r="C46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" t="s">
-        <v>141</v>
-      </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H46" t="s">
         <v>137</v>
       </c>
       <c r="I46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J46" t="s">
         <v>138</v>
@@ -3645,191 +3645,191 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" t="s">
         <v>146</v>
       </c>
-      <c r="B47" t="s">
+      <c r="I47" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" t="s">
         <v>147</v>
-      </c>
-      <c r="C47" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" t="s">
-        <v>149</v>
-      </c>
-      <c r="F47" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47" t="s">
-        <v>151</v>
-      </c>
-      <c r="H47" t="s">
-        <v>144</v>
-      </c>
-      <c r="I47" t="s">
-        <v>153</v>
-      </c>
-      <c r="J47" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
         <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
         <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F48" t="s">
         <v>156</v>
       </c>
       <c r="G48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H48" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I48" t="s">
         <v>159</v>
       </c>
       <c r="J48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
         <v>164</v>
       </c>
-      <c r="B49" t="s">
+      <c r="E49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" t="s">
         <v>165</v>
       </c>
-      <c r="C49" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
+        <v>161</v>
+      </c>
+      <c r="H49" t="s">
+        <v>146</v>
+      </c>
+      <c r="I49" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" t="s">
         <v>166</v>
-      </c>
-      <c r="E49" t="s">
-        <v>149</v>
-      </c>
-      <c r="F49" t="s">
-        <v>161</v>
-      </c>
-      <c r="G49" t="s">
-        <v>162</v>
-      </c>
-      <c r="H49" t="s">
-        <v>144</v>
-      </c>
-      <c r="I49" t="s">
-        <v>160</v>
-      </c>
-      <c r="J49" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G50" t="s">
         <v>167</v>
       </c>
       <c r="H50" t="s">
+        <v>169</v>
+      </c>
+      <c r="I50" t="s">
         <v>168</v>
       </c>
-      <c r="I50" t="s">
-        <v>173</v>
-      </c>
       <c r="J50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" t="s">
+        <v>179</v>
+      </c>
+      <c r="G51" t="s">
+        <v>174</v>
+      </c>
+      <c r="H51" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" t="s">
+        <v>175</v>
+      </c>
+      <c r="J51" t="s">
         <v>176</v>
-      </c>
-      <c r="C51" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" t="s">
-        <v>177</v>
-      </c>
-      <c r="E51" t="s">
-        <v>149</v>
-      </c>
-      <c r="F51" t="s">
-        <v>178</v>
-      </c>
-      <c r="G51" t="s">
-        <v>179</v>
-      </c>
-      <c r="H51" t="s">
-        <v>144</v>
-      </c>
-      <c r="I51" t="s">
-        <v>174</v>
-      </c>
-      <c r="J51" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" t="s">
+        <v>182</v>
+      </c>
+      <c r="G52" t="s">
         <v>184</v>
       </c>
-      <c r="C52" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="H52" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" t="s">
         <v>185</v>
-      </c>
-      <c r="E52" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52" t="s">
-        <v>181</v>
-      </c>
-      <c r="G52" t="s">
-        <v>182</v>
-      </c>
-      <c r="H52" t="s">
-        <v>144</v>
-      </c>
-      <c r="I52" t="s">
-        <v>180</v>
       </c>
       <c r="J52" t="s">
         <v>183</v>
@@ -3837,63 +3837,63 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" t="s">
         <v>189</v>
       </c>
-      <c r="C53" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="G53" t="s">
         <v>190</v>
       </c>
-      <c r="E53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F53" t="s">
-        <v>186</v>
-      </c>
-      <c r="G53" t="s">
-        <v>187</v>
-      </c>
       <c r="H53" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I53" t="s">
         <v>191</v>
       </c>
       <c r="J53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" t="s">
+        <v>192</v>
+      </c>
+      <c r="H54" t="s">
+        <v>146</v>
+      </c>
+      <c r="I54" t="s">
         <v>193</v>
-      </c>
-      <c r="C54" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" t="s">
-        <v>194</v>
-      </c>
-      <c r="E54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" t="s">
-        <v>195</v>
-      </c>
-      <c r="G54" t="s">
-        <v>196</v>
-      </c>
-      <c r="H54" t="s">
-        <v>144</v>
-      </c>
-      <c r="I54" t="s">
-        <v>192</v>
       </c>
       <c r="J54" t="s">
         <v>197</v>
@@ -3901,31 +3901,31 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" t="s">
         <v>202</v>
       </c>
-      <c r="C55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="H55" t="s">
+        <v>146</v>
+      </c>
+      <c r="I55" t="s">
         <v>203</v>
-      </c>
-      <c r="E55" t="s">
-        <v>149</v>
-      </c>
-      <c r="F55" t="s">
-        <v>199</v>
-      </c>
-      <c r="G55" t="s">
-        <v>200</v>
-      </c>
-      <c r="H55" t="s">
-        <v>144</v>
-      </c>
-      <c r="I55" t="s">
-        <v>198</v>
       </c>
       <c r="J55" t="s">
         <v>201</v>
@@ -3933,249 +3933,249 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
         <v>204</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
         <v>205</v>
       </c>
       <c r="E56" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F56" t="s">
         <v>206</v>
       </c>
       <c r="G56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H56" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I56" t="s">
         <v>209</v>
       </c>
       <c r="J56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" t="s">
         <v>164</v>
       </c>
-      <c r="B57" t="s">
+      <c r="E57" t="s">
+        <v>153</v>
+      </c>
+      <c r="F57" t="s">
         <v>165</v>
       </c>
-      <c r="C57" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="G57" t="s">
+        <v>161</v>
+      </c>
+      <c r="H57" t="s">
+        <v>146</v>
+      </c>
+      <c r="I57" t="s">
+        <v>162</v>
+      </c>
+      <c r="J57" t="s">
         <v>166</v>
-      </c>
-      <c r="E57" t="s">
-        <v>149</v>
-      </c>
-      <c r="F57" t="s">
-        <v>161</v>
-      </c>
-      <c r="G57" t="s">
-        <v>162</v>
-      </c>
-      <c r="H57" t="s">
-        <v>144</v>
-      </c>
-      <c r="I57" t="s">
-        <v>160</v>
-      </c>
-      <c r="J57" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E58" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G58" t="s">
         <v>211</v>
       </c>
       <c r="H58" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I58" t="s">
         <v>210</v>
       </c>
       <c r="J58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" t="s">
         <v>220</v>
       </c>
-      <c r="B59" t="s">
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
         <v>221</v>
-      </c>
-      <c r="C59" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" t="s">
-        <v>222</v>
-      </c>
-      <c r="E59" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" t="s">
-        <v>216</v>
       </c>
       <c r="G59" t="s">
         <v>217</v>
       </c>
       <c r="H59" t="s">
+        <v>222</v>
+      </c>
+      <c r="I59" t="s">
         <v>218</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>223</v>
-      </c>
-      <c r="J59" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
         <v>229</v>
       </c>
-      <c r="B60" t="s">
+      <c r="G60" t="s">
+        <v>225</v>
+      </c>
+      <c r="H60" t="s">
         <v>230</v>
       </c>
-      <c r="C60" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="I60" t="s">
+        <v>226</v>
+      </c>
+      <c r="J60" t="s">
         <v>231</v>
-      </c>
-      <c r="E60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" t="s">
-        <v>225</v>
-      </c>
-      <c r="G60" t="s">
-        <v>226</v>
-      </c>
-      <c r="H60" t="s">
-        <v>227</v>
-      </c>
-      <c r="I60" t="s">
-        <v>224</v>
-      </c>
-      <c r="J60" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" t="s">
         <v>233</v>
       </c>
-      <c r="C61" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>153</v>
+      </c>
+      <c r="F61" t="s">
         <v>234</v>
-      </c>
-      <c r="E61" t="s">
-        <v>149</v>
-      </c>
-      <c r="F61" t="s">
-        <v>235</v>
       </c>
       <c r="G61" t="s">
         <v>236</v>
       </c>
       <c r="H61" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I61" t="s">
         <v>237</v>
       </c>
       <c r="J61" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
         <v>244</v>
       </c>
-      <c r="B62" t="s">
-        <v>238</v>
-      </c>
-      <c r="C62" t="s">
-        <v>152</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="G62" t="s">
         <v>239</v>
       </c>
-      <c r="E62" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
+        <v>245</v>
+      </c>
+      <c r="I62" t="s">
         <v>240</v>
       </c>
-      <c r="G62" t="s">
+      <c r="J62" t="s">
         <v>241</v>
-      </c>
-      <c r="H62" t="s">
-        <v>242</v>
-      </c>
-      <c r="I62" t="s">
-        <v>245</v>
-      </c>
-      <c r="J62" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>247</v>
+      </c>
+      <c r="B63" t="s">
         <v>252</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" t="s">
         <v>253</v>
       </c>
-      <c r="C63" t="s">
-        <v>152</v>
-      </c>
-      <c r="D63" t="s">
-        <v>247</v>
-      </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F63" t="s">
+        <v>249</v>
+      </c>
+      <c r="G63" t="s">
         <v>248</v>
-      </c>
-      <c r="G63" t="s">
-        <v>249</v>
       </c>
       <c r="H63" t="s">
         <v>250</v>
@@ -4189,130 +4189,130 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B64" t="s">
         <v>257</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s">
         <v>258</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
         <v>259</v>
       </c>
       <c r="G64" t="s">
+        <v>255</v>
+      </c>
+      <c r="H64" t="s">
         <v>260</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
+        <v>256</v>
+      </c>
+      <c r="J64" t="s">
         <v>261</v>
-      </c>
-      <c r="I64" t="s">
-        <v>254</v>
-      </c>
-      <c r="J64" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B65" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" t="s">
+        <v>264</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>265</v>
+      </c>
+      <c r="G65" t="s">
+        <v>262</v>
+      </c>
+      <c r="H65" t="s">
         <v>266</v>
       </c>
-      <c r="C65" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="I65" t="s">
+        <v>263</v>
+      </c>
+      <c r="J65" t="s">
         <v>267</v>
-      </c>
-      <c r="E65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>262</v>
-      </c>
-      <c r="G65" t="s">
-        <v>263</v>
-      </c>
-      <c r="H65" t="s">
-        <v>264</v>
-      </c>
-      <c r="I65" t="s">
-        <v>268</v>
-      </c>
-      <c r="J65" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>269</v>
+      </c>
+      <c r="B66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>274</v>
+      </c>
+      <c r="G66" t="s">
+        <v>270</v>
+      </c>
+      <c r="H66" t="s">
         <v>275</v>
       </c>
-      <c r="B66" t="s">
-        <v>269</v>
-      </c>
-      <c r="C66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" t="s">
-        <v>270</v>
-      </c>
-      <c r="E66" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
         <v>271</v>
       </c>
-      <c r="G66" t="s">
-        <v>272</v>
-      </c>
-      <c r="H66" t="s">
-        <v>273</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>276</v>
-      </c>
-      <c r="J66" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B67" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" t="s">
+        <v>280</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>281</v>
+      </c>
+      <c r="G67" t="s">
         <v>277</v>
       </c>
-      <c r="C67" t="s">
-        <v>152</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="H67" t="s">
+        <v>282</v>
+      </c>
+      <c r="I67" t="s">
         <v>278</v>
       </c>
-      <c r="E67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>279</v>
-      </c>
-      <c r="G67" t="s">
-        <v>280</v>
-      </c>
-      <c r="H67" t="s">
-        <v>281</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>283</v>
-      </c>
-      <c r="J67" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="68">
@@ -4320,252 +4320,252 @@
         <v>288</v>
       </c>
       <c r="B68" t="s">
+        <v>285</v>
+      </c>
+      <c r="C68" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" t="s">
+        <v>286</v>
+      </c>
+      <c r="E68" t="s">
+        <v>153</v>
+      </c>
+      <c r="F68" t="s">
+        <v>287</v>
+      </c>
+      <c r="G68" t="s">
         <v>289</v>
       </c>
-      <c r="C68" t="s">
-        <v>152</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="H68" t="s">
+        <v>146</v>
+      </c>
+      <c r="I68" t="s">
         <v>290</v>
       </c>
-      <c r="E68" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" t="s">
-        <v>285</v>
-      </c>
-      <c r="G68" t="s">
-        <v>286</v>
-      </c>
-      <c r="H68" t="s">
-        <v>144</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>284</v>
-      </c>
-      <c r="J68" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>296</v>
+      </c>
+      <c r="B69" t="s">
+        <v>292</v>
+      </c>
+      <c r="C69" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" t="s">
+        <v>293</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>294</v>
+      </c>
+      <c r="G69" t="s">
+        <v>297</v>
+      </c>
+      <c r="H69" t="s">
         <v>295</v>
-      </c>
-      <c r="B69" t="s">
-        <v>296</v>
-      </c>
-      <c r="C69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" t="s">
-        <v>297</v>
-      </c>
-      <c r="E69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" t="s">
-        <v>291</v>
-      </c>
-      <c r="G69" t="s">
-        <v>292</v>
-      </c>
-      <c r="H69" t="s">
-        <v>293</v>
       </c>
       <c r="I69" t="s">
         <v>298</v>
       </c>
       <c r="J69" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s">
+        <v>299</v>
+      </c>
+      <c r="C70" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" t="s">
         <v>300</v>
       </c>
-      <c r="C70" t="s">
-        <v>152</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
         <v>301</v>
       </c>
-      <c r="E70" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
+        <v>304</v>
+      </c>
+      <c r="H70" t="s">
         <v>302</v>
       </c>
-      <c r="G70" t="s">
+      <c r="I70" t="s">
+        <v>305</v>
+      </c>
+      <c r="J70" t="s">
         <v>303</v>
-      </c>
-      <c r="H70" t="s">
-        <v>304</v>
-      </c>
-      <c r="I70" t="s">
-        <v>299</v>
-      </c>
-      <c r="J70" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B71" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G71" t="s">
         <v>311</v>
       </c>
       <c r="H71" t="s">
+        <v>308</v>
+      </c>
+      <c r="I71" t="s">
         <v>312</v>
       </c>
-      <c r="I71" t="s">
-        <v>306</v>
-      </c>
       <c r="J71" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B72" t="s">
+        <v>316</v>
+      </c>
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" t="s">
+        <v>317</v>
+      </c>
+      <c r="E72" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" t="s">
+        <v>318</v>
+      </c>
+      <c r="G72" t="s">
+        <v>313</v>
+      </c>
+      <c r="H72" t="s">
+        <v>146</v>
+      </c>
+      <c r="I72" t="s">
         <v>314</v>
       </c>
-      <c r="C72" t="s">
-        <v>152</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="J72" t="s">
         <v>315</v>
-      </c>
-      <c r="E72" t="s">
-        <v>149</v>
-      </c>
-      <c r="F72" t="s">
-        <v>316</v>
-      </c>
-      <c r="G72" t="s">
-        <v>317</v>
-      </c>
-      <c r="H72" t="s">
-        <v>144</v>
-      </c>
-      <c r="I72" t="s">
-        <v>313</v>
-      </c>
-      <c r="J72" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>319</v>
+      </c>
+      <c r="B73" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" t="s">
+        <v>323</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
         <v>324</v>
       </c>
-      <c r="B73" t="s">
+      <c r="G73" t="s">
+        <v>320</v>
+      </c>
+      <c r="H73" t="s">
         <v>325</v>
       </c>
-      <c r="C73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="I73" t="s">
+        <v>321</v>
+      </c>
+      <c r="J73" t="s">
         <v>326</v>
-      </c>
-      <c r="E73" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" t="s">
-        <v>320</v>
-      </c>
-      <c r="G73" t="s">
-        <v>321</v>
-      </c>
-      <c r="H73" t="s">
-        <v>322</v>
-      </c>
-      <c r="I73" t="s">
-        <v>319</v>
-      </c>
-      <c r="J73" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B74" t="s">
+        <v>327</v>
+      </c>
+      <c r="C74" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" t="s">
+        <v>328</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" t="s">
+        <v>329</v>
+      </c>
+      <c r="G74" t="s">
+        <v>332</v>
+      </c>
+      <c r="H74" t="s">
+        <v>330</v>
+      </c>
+      <c r="I74" t="s">
+        <v>333</v>
+      </c>
+      <c r="J74" t="s">
         <v>331</v>
-      </c>
-      <c r="C74" t="s">
-        <v>152</v>
-      </c>
-      <c r="D74" t="s">
-        <v>332</v>
-      </c>
-      <c r="E74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" t="s">
-        <v>333</v>
-      </c>
-      <c r="G74" t="s">
-        <v>328</v>
-      </c>
-      <c r="H74" t="s">
-        <v>329</v>
-      </c>
-      <c r="I74" t="s">
-        <v>327</v>
-      </c>
-      <c r="J74" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>334</v>
+      </c>
+      <c r="B75" t="s">
         <v>339</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" t="s">
         <v>340</v>
       </c>
-      <c r="C75" t="s">
-        <v>152</v>
-      </c>
-      <c r="D75" t="s">
-        <v>334</v>
-      </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F75" t="s">
+        <v>341</v>
+      </c>
+      <c r="G75" t="s">
         <v>335</v>
-      </c>
-      <c r="G75" t="s">
-        <v>336</v>
       </c>
       <c r="H75" t="s">
         <v>337</v>
       </c>
       <c r="I75" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J75" t="s">
         <v>338</v>
@@ -4573,194 +4573,194 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s">
+        <v>345</v>
+      </c>
+      <c r="C76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" t="s">
+        <v>346</v>
+      </c>
+      <c r="E76" t="s">
+        <v>153</v>
+      </c>
+      <c r="F76" t="s">
         <v>347</v>
       </c>
-      <c r="C76" t="s">
-        <v>152</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="G76" t="s">
+        <v>342</v>
+      </c>
+      <c r="H76" t="s">
+        <v>146</v>
+      </c>
+      <c r="I76" t="s">
         <v>343</v>
       </c>
-      <c r="E76" t="s">
-        <v>149</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="J76" t="s">
         <v>344</v>
-      </c>
-      <c r="G76" t="s">
-        <v>345</v>
-      </c>
-      <c r="H76" t="s">
-        <v>144</v>
-      </c>
-      <c r="I76" t="s">
-        <v>342</v>
-      </c>
-      <c r="J76" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B77" t="s">
+        <v>350</v>
+      </c>
+      <c r="C77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" t="s">
         <v>351</v>
       </c>
-      <c r="C77" t="s">
-        <v>152</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>153</v>
+      </c>
+      <c r="F77" t="s">
         <v>352</v>
       </c>
-      <c r="E77" t="s">
-        <v>149</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>348</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
+        <v>146</v>
+      </c>
+      <c r="I77" t="s">
         <v>349</v>
       </c>
-      <c r="H77" t="s">
-        <v>144</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>353</v>
-      </c>
-      <c r="J77" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>358</v>
+      </c>
+      <c r="B78" t="s">
+        <v>355</v>
+      </c>
+      <c r="C78" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" t="s">
+        <v>356</v>
+      </c>
+      <c r="E78" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" t="s">
+        <v>357</v>
+      </c>
+      <c r="G78" t="s">
         <v>359</v>
       </c>
-      <c r="B78" t="s">
+      <c r="H78" t="s">
+        <v>146</v>
+      </c>
+      <c r="I78" t="s">
         <v>360</v>
       </c>
-      <c r="C78" t="s">
-        <v>152</v>
-      </c>
-      <c r="D78" t="s">
-        <v>355</v>
-      </c>
-      <c r="E78" t="s">
-        <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>356</v>
-      </c>
-      <c r="G78" t="s">
-        <v>357</v>
-      </c>
-      <c r="H78" t="s">
-        <v>144</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>354</v>
-      </c>
-      <c r="J78" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B79" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D79" t="s">
         <v>361</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
         <v>362</v>
       </c>
       <c r="G79" t="s">
+        <v>366</v>
+      </c>
+      <c r="H79" t="s">
         <v>363</v>
-      </c>
-      <c r="H79" t="s">
-        <v>364</v>
       </c>
       <c r="I79" t="s">
         <v>367</v>
       </c>
       <c r="J79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B80" t="s">
+        <v>370</v>
+      </c>
+      <c r="C80" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" t="s">
+        <v>371</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>372</v>
+      </c>
+      <c r="G80" t="s">
         <v>368</v>
       </c>
-      <c r="C80" t="s">
-        <v>152</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="H80" t="s">
+        <v>373</v>
+      </c>
+      <c r="I80" t="s">
         <v>369</v>
       </c>
-      <c r="E80" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" t="s">
-        <v>370</v>
-      </c>
-      <c r="G80" t="s">
-        <v>371</v>
-      </c>
-      <c r="H80" t="s">
-        <v>372</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>374</v>
-      </c>
-      <c r="J80" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B81" t="s">
+        <v>376</v>
+      </c>
+      <c r="C81" t="s">
+        <v>149</v>
+      </c>
+      <c r="D81" t="s">
+        <v>377</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>378</v>
+      </c>
+      <c r="G81" t="s">
+        <v>380</v>
+      </c>
+      <c r="H81" t="s">
         <v>379</v>
-      </c>
-      <c r="C81" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" t="s">
-        <v>380</v>
-      </c>
-      <c r="E81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" t="s">
-        <v>375</v>
-      </c>
-      <c r="G81" t="s">
-        <v>376</v>
-      </c>
-      <c r="H81" t="s">
-        <v>377</v>
       </c>
       <c r="I81" t="s">
         <v>381</v>
       </c>
       <c r="J81" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82">
@@ -4768,31 +4768,31 @@
         <v>387</v>
       </c>
       <c r="B82" t="s">
+        <v>383</v>
+      </c>
+      <c r="C82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" t="s">
+        <v>384</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" t="s">
+        <v>385</v>
+      </c>
+      <c r="G82" t="s">
         <v>388</v>
       </c>
-      <c r="C82" t="s">
-        <v>152</v>
-      </c>
-      <c r="D82" t="s">
-        <v>382</v>
-      </c>
-      <c r="E82" t="s">
-        <v>21</v>
-      </c>
-      <c r="F82" t="s">
-        <v>383</v>
-      </c>
-      <c r="G82" t="s">
-        <v>384</v>
-      </c>
       <c r="H82" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I82" t="s">
         <v>389</v>
       </c>
       <c r="J82" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83">
@@ -4800,31 +4800,31 @@
         <v>387</v>
       </c>
       <c r="B83" t="s">
+        <v>396</v>
+      </c>
+      <c r="C83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" t="s">
+        <v>392</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
+        <v>393</v>
+      </c>
+      <c r="G83" t="s">
+        <v>390</v>
+      </c>
+      <c r="H83" t="s">
+        <v>394</v>
+      </c>
+      <c r="I83" t="s">
+        <v>391</v>
+      </c>
+      <c r="J83" t="s">
         <v>395</v>
-      </c>
-      <c r="C83" t="s">
-        <v>152</v>
-      </c>
-      <c r="D83" t="s">
-        <v>396</v>
-      </c>
-      <c r="E83" t="s">
-        <v>21</v>
-      </c>
-      <c r="F83" t="s">
-        <v>391</v>
-      </c>
-      <c r="G83" t="s">
-        <v>392</v>
-      </c>
-      <c r="H83" t="s">
-        <v>393</v>
-      </c>
-      <c r="I83" t="s">
-        <v>390</v>
-      </c>
-      <c r="J83" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="84">
@@ -4832,191 +4832,191 @@
         <v>387</v>
       </c>
       <c r="B84" t="s">
+        <v>403</v>
+      </c>
+      <c r="C84" t="s">
+        <v>149</v>
+      </c>
+      <c r="D84" t="s">
+        <v>399</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>400</v>
+      </c>
+      <c r="G84" t="s">
+        <v>397</v>
+      </c>
+      <c r="H84" t="s">
+        <v>401</v>
+      </c>
+      <c r="I84" t="s">
+        <v>398</v>
+      </c>
+      <c r="J84" t="s">
         <v>402</v>
-      </c>
-      <c r="C84" t="s">
-        <v>152</v>
-      </c>
-      <c r="D84" t="s">
-        <v>403</v>
-      </c>
-      <c r="E84" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" t="s">
-        <v>398</v>
-      </c>
-      <c r="G84" t="s">
-        <v>399</v>
-      </c>
-      <c r="H84" t="s">
-        <v>400</v>
-      </c>
-      <c r="I84" t="s">
-        <v>397</v>
-      </c>
-      <c r="J84" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>404</v>
+      </c>
+      <c r="B85" t="s">
+        <v>407</v>
+      </c>
+      <c r="C85" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" t="s">
         <v>408</v>
       </c>
-      <c r="B85" t="s">
+      <c r="E85" t="s">
+        <v>153</v>
+      </c>
+      <c r="F85" t="s">
         <v>409</v>
       </c>
-      <c r="C85" t="s">
-        <v>152</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="G85" t="s">
+        <v>405</v>
+      </c>
+      <c r="H85" t="s">
+        <v>146</v>
+      </c>
+      <c r="I85" t="s">
+        <v>406</v>
+      </c>
+      <c r="J85" t="s">
         <v>410</v>
-      </c>
-      <c r="E85" t="s">
-        <v>149</v>
-      </c>
-      <c r="F85" t="s">
-        <v>405</v>
-      </c>
-      <c r="G85" t="s">
-        <v>406</v>
-      </c>
-      <c r="H85" t="s">
-        <v>144</v>
-      </c>
-      <c r="I85" t="s">
-        <v>404</v>
-      </c>
-      <c r="J85" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B86" t="s">
+        <v>413</v>
+      </c>
+      <c r="C86" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86" t="s">
+        <v>414</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>415</v>
+      </c>
+      <c r="G86" t="s">
         <v>416</v>
       </c>
-      <c r="C86" t="s">
-        <v>152</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="H86" t="s">
+        <v>411</v>
+      </c>
+      <c r="I86" t="s">
         <v>417</v>
       </c>
-      <c r="E86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="J86" t="s">
         <v>412</v>
-      </c>
-      <c r="G86" t="s">
-        <v>413</v>
-      </c>
-      <c r="H86" t="s">
-        <v>414</v>
-      </c>
-      <c r="I86" t="s">
-        <v>411</v>
-      </c>
-      <c r="J86" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B87" t="s">
+        <v>418</v>
+      </c>
+      <c r="C87" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" t="s">
+        <v>419</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
+        <v>420</v>
+      </c>
+      <c r="G87" t="s">
+        <v>423</v>
+      </c>
+      <c r="H87" t="s">
+        <v>421</v>
+      </c>
+      <c r="I87" t="s">
+        <v>417</v>
+      </c>
+      <c r="J87" t="s">
         <v>422</v>
-      </c>
-      <c r="C87" t="s">
-        <v>152</v>
-      </c>
-      <c r="D87" t="s">
-        <v>423</v>
-      </c>
-      <c r="E87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" t="s">
-        <v>418</v>
-      </c>
-      <c r="G87" t="s">
-        <v>419</v>
-      </c>
-      <c r="H87" t="s">
-        <v>420</v>
-      </c>
-      <c r="I87" t="s">
-        <v>411</v>
-      </c>
-      <c r="J87" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B88" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C88" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D88" t="s">
+        <v>425</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>426</v>
+      </c>
+      <c r="G88" t="s">
         <v>430</v>
       </c>
-      <c r="E88" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" t="s">
-        <v>424</v>
-      </c>
-      <c r="G88" t="s">
-        <v>425</v>
-      </c>
       <c r="H88" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I88" t="s">
         <v>431</v>
       </c>
       <c r="J88" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B89" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C89" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D89" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G89" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H89" t="s">
         <v>437</v>
       </c>
       <c r="I89" t="s">
+        <v>433</v>
+      </c>
+      <c r="J89" t="s">
         <v>438</v>
-      </c>
-      <c r="J89" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="90">
@@ -5024,31 +5024,31 @@
         <v>439</v>
       </c>
       <c r="B90" t="s">
+        <v>442</v>
+      </c>
+      <c r="C90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D90" t="s">
+        <v>443</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" t="s">
+        <v>444</v>
+      </c>
+      <c r="G90" t="s">
         <v>440</v>
       </c>
-      <c r="C90" t="s">
-        <v>152</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="H90" t="s">
+        <v>445</v>
+      </c>
+      <c r="I90" t="s">
         <v>441</v>
       </c>
-      <c r="E90" t="s">
-        <v>21</v>
-      </c>
-      <c r="F90" t="s">
-        <v>442</v>
-      </c>
-      <c r="G90" t="s">
-        <v>443</v>
-      </c>
-      <c r="H90" t="s">
-        <v>444</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>446</v>
-      </c>
-      <c r="J90" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="91">
@@ -5056,31 +5056,31 @@
         <v>452</v>
       </c>
       <c r="B91" t="s">
+        <v>449</v>
+      </c>
+      <c r="C91" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" t="s">
+        <v>450</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>451</v>
+      </c>
+      <c r="G91" t="s">
         <v>453</v>
       </c>
-      <c r="C91" t="s">
-        <v>152</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="H91" t="s">
+        <v>447</v>
+      </c>
+      <c r="I91" t="s">
         <v>454</v>
       </c>
-      <c r="E91" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="J91" t="s">
         <v>448</v>
-      </c>
-      <c r="G91" t="s">
-        <v>449</v>
-      </c>
-      <c r="H91" t="s">
-        <v>450</v>
-      </c>
-      <c r="I91" t="s">
-        <v>447</v>
-      </c>
-      <c r="J91" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="92">
@@ -5088,57 +5088,57 @@
         <v>452</v>
       </c>
       <c r="B92" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C92" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D92" t="s">
         <v>457</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
         <v>458</v>
       </c>
       <c r="G92" t="s">
+        <v>455</v>
+      </c>
+      <c r="H92" t="s">
         <v>459</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
+        <v>456</v>
+      </c>
+      <c r="J92" t="s">
         <v>460</v>
-      </c>
-      <c r="I92" t="s">
-        <v>455</v>
-      </c>
-      <c r="J92" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>466</v>
+      </c>
+      <c r="B93" t="s">
         <v>463</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>149</v>
+      </c>
+      <c r="D93" t="s">
         <v>464</v>
       </c>
-      <c r="C93" t="s">
-        <v>152</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
+        <v>153</v>
+      </c>
+      <c r="F93" t="s">
         <v>465</v>
-      </c>
-      <c r="E93" t="s">
-        <v>149</v>
-      </c>
-      <c r="F93" t="s">
-        <v>466</v>
       </c>
       <c r="G93" t="s">
         <v>467</v>
       </c>
       <c r="H93" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I93" t="s">
         <v>468</v>
@@ -5149,194 +5149,194 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B94" t="s">
+        <v>471</v>
+      </c>
+      <c r="C94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94" t="s">
+        <v>472</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>473</v>
+      </c>
+      <c r="G94" t="s">
+        <v>474</v>
+      </c>
+      <c r="H94" t="s">
         <v>469</v>
-      </c>
-      <c r="C94" t="s">
-        <v>152</v>
-      </c>
-      <c r="D94" t="s">
-        <v>470</v>
-      </c>
-      <c r="E94" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" t="s">
-        <v>471</v>
-      </c>
-      <c r="G94" t="s">
-        <v>472</v>
-      </c>
-      <c r="H94" t="s">
-        <v>473</v>
       </c>
       <c r="I94" t="s">
         <v>475</v>
       </c>
       <c r="J94" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B95" t="s">
         <v>477</v>
       </c>
       <c r="C95" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D95" t="s">
         <v>478</v>
       </c>
       <c r="E95" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F95" t="s">
         <v>479</v>
       </c>
       <c r="G95" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H95" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I95" t="s">
         <v>482</v>
       </c>
       <c r="J95" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B96" t="s">
+        <v>483</v>
+      </c>
+      <c r="C96" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" t="s">
         <v>484</v>
       </c>
-      <c r="C96" t="s">
-        <v>152</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
         <v>485</v>
       </c>
-      <c r="E96" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
+        <v>488</v>
+      </c>
+      <c r="H96" t="s">
         <v>486</v>
       </c>
-      <c r="G96" t="s">
+      <c r="I96" t="s">
+        <v>489</v>
+      </c>
+      <c r="J96" t="s">
         <v>487</v>
-      </c>
-      <c r="H96" t="s">
-        <v>488</v>
-      </c>
-      <c r="I96" t="s">
-        <v>483</v>
-      </c>
-      <c r="J96" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B97" t="s">
+        <v>492</v>
+      </c>
+      <c r="C97" t="s">
+        <v>149</v>
+      </c>
+      <c r="D97" t="s">
+        <v>493</v>
+      </c>
+      <c r="E97" t="s">
+        <v>153</v>
+      </c>
+      <c r="F97" t="s">
+        <v>494</v>
+      </c>
+      <c r="G97" t="s">
+        <v>490</v>
+      </c>
+      <c r="H97" t="s">
+        <v>146</v>
+      </c>
+      <c r="I97" t="s">
         <v>491</v>
       </c>
-      <c r="C97" t="s">
-        <v>152</v>
-      </c>
-      <c r="D97" t="s">
-        <v>492</v>
-      </c>
-      <c r="E97" t="s">
-        <v>149</v>
-      </c>
-      <c r="F97" t="s">
-        <v>493</v>
-      </c>
-      <c r="G97" t="s">
-        <v>494</v>
-      </c>
-      <c r="H97" t="s">
-        <v>144</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>495</v>
-      </c>
-      <c r="J97" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>496</v>
+      </c>
+      <c r="B98" t="s">
+        <v>499</v>
+      </c>
+      <c r="C98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D98" t="s">
+        <v>500</v>
+      </c>
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" t="s">
         <v>501</v>
       </c>
-      <c r="B98" t="s">
+      <c r="G98" t="s">
+        <v>497</v>
+      </c>
+      <c r="H98" t="s">
         <v>502</v>
       </c>
-      <c r="C98" t="s">
-        <v>152</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="I98" t="s">
+        <v>498</v>
+      </c>
+      <c r="J98" t="s">
         <v>503</v>
-      </c>
-      <c r="E98" t="s">
-        <v>21</v>
-      </c>
-      <c r="F98" t="s">
-        <v>497</v>
-      </c>
-      <c r="G98" t="s">
-        <v>498</v>
-      </c>
-      <c r="H98" t="s">
-        <v>499</v>
-      </c>
-      <c r="I98" t="s">
-        <v>496</v>
-      </c>
-      <c r="J98" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>504</v>
+      </c>
+      <c r="B99" t="s">
+        <v>507</v>
+      </c>
+      <c r="C99" t="s">
         <v>508</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
         <v>509</v>
       </c>
-      <c r="C99" t="s">
-        <v>504</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" t="s">
         <v>510</v>
       </c>
-      <c r="E99" t="s">
-        <v>21</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
+        <v>505</v>
+      </c>
+      <c r="H99" t="s">
         <v>511</v>
       </c>
-      <c r="G99" t="s">
+      <c r="I99" t="s">
+        <v>506</v>
+      </c>
+      <c r="J99" t="s">
         <v>512</v>
-      </c>
-      <c r="H99" t="s">
-        <v>506</v>
-      </c>
-      <c r="I99" t="s">
-        <v>505</v>
-      </c>
-      <c r="J99" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="100">
@@ -5344,31 +5344,31 @@
         <v>515</v>
       </c>
       <c r="B100" t="s">
+        <v>517</v>
+      </c>
+      <c r="C100" t="s">
+        <v>508</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>513</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" t="s">
+        <v>514</v>
+      </c>
+      <c r="J100" t="s">
         <v>516</v>
-      </c>
-      <c r="C100" t="s">
-        <v>504</v>
-      </c>
-      <c r="D100" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s">
-        <v>517</v>
-      </c>
-      <c r="H100" t="s">
-        <v>11</v>
-      </c>
-      <c r="I100" t="s">
-        <v>513</v>
-      </c>
-      <c r="J100" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="101">
@@ -5376,31 +5376,31 @@
         <v>515</v>
       </c>
       <c r="B101" t="s">
+        <v>519</v>
+      </c>
+      <c r="C101" t="s">
+        <v>508</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
         <v>520</v>
       </c>
-      <c r="C101" t="s">
-        <v>504</v>
-      </c>
-      <c r="D101" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s">
-        <v>518</v>
-      </c>
       <c r="H101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I101" t="s">
         <v>521</v>
       </c>
       <c r="J101" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="102">
@@ -5411,28 +5411,28 @@
         <v>524</v>
       </c>
       <c r="C102" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G102" t="s">
+        <v>522</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" t="s">
+        <v>523</v>
+      </c>
+      <c r="J102" t="s">
         <v>525</v>
-      </c>
-      <c r="H102" t="s">
-        <v>11</v>
-      </c>
-      <c r="I102" t="s">
-        <v>522</v>
-      </c>
-      <c r="J102" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="103">
@@ -5440,31 +5440,31 @@
         <v>515</v>
       </c>
       <c r="B103" t="s">
+        <v>527</v>
+      </c>
+      <c r="C103" t="s">
+        <v>508</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
         <v>528</v>
       </c>
-      <c r="C103" t="s">
-        <v>504</v>
-      </c>
-      <c r="D103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s">
-        <v>526</v>
-      </c>
       <c r="H103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I103" t="s">
         <v>529</v>
       </c>
       <c r="J103" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="104">
@@ -5472,25 +5472,25 @@
         <v>515</v>
       </c>
       <c r="B104" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C104" t="s">
+        <v>531</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
         <v>532</v>
       </c>
-      <c r="D104" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s">
-        <v>531</v>
-      </c>
       <c r="H104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I104" t="s">
         <v>533</v>
@@ -5501,156 +5501,156 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>535</v>
+      </c>
+      <c r="B105" t="s">
+        <v>434</v>
+      </c>
+      <c r="C105" t="s">
+        <v>508</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
         <v>536</v>
       </c>
-      <c r="B105" t="s">
-        <v>433</v>
-      </c>
-      <c r="C105" t="s">
-        <v>504</v>
-      </c>
-      <c r="D105" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" t="s">
         <v>537</v>
       </c>
-      <c r="H105" t="s">
-        <v>11</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>534</v>
-      </c>
-      <c r="J105" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B106" t="s">
+        <v>538</v>
+      </c>
+      <c r="C106" t="s">
+        <v>508</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>540</v>
+      </c>
+      <c r="H106" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" t="s">
         <v>541</v>
       </c>
-      <c r="C106" t="s">
-        <v>504</v>
-      </c>
-      <c r="D106" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="J106" t="s">
         <v>539</v>
-      </c>
-      <c r="H106" t="s">
-        <v>11</v>
-      </c>
-      <c r="I106" t="s">
-        <v>538</v>
-      </c>
-      <c r="J106" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B107" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C107" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G107" t="s">
         <v>543</v>
       </c>
       <c r="H107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I107" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J107" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B108" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C108" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G108" t="s">
         <v>546</v>
       </c>
       <c r="H108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I108" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="J108" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B109" t="s">
+        <v>550</v>
+      </c>
+      <c r="C109" t="s">
+        <v>508</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
         <v>552</v>
       </c>
-      <c r="C109" t="s">
-        <v>504</v>
-      </c>
-      <c r="D109" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s">
-        <v>550</v>
-      </c>
       <c r="H109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I109" t="s">
         <v>553</v>
@@ -5661,95 +5661,95 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B110" t="s">
+        <v>555</v>
+      </c>
+      <c r="C110" t="s">
+        <v>508</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
         <v>556</v>
       </c>
-      <c r="C110" t="s">
-        <v>504</v>
-      </c>
-      <c r="D110" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s">
-        <v>554</v>
-      </c>
       <c r="H110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I110" t="s">
         <v>557</v>
       </c>
       <c r="J110" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B111" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C111" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G111" t="s">
+        <v>559</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" t="s">
         <v>560</v>
       </c>
-      <c r="H111" t="s">
-        <v>11</v>
-      </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>558</v>
-      </c>
-      <c r="J111" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B112" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C112" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G112" t="s">
         <v>563</v>
       </c>
       <c r="H112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I112" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J112" t="s">
         <v>564</v>
@@ -5757,255 +5757,255 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B113" t="s">
+        <v>568</v>
+      </c>
+      <c r="C113" t="s">
+        <v>508</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>566</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" t="s">
+        <v>567</v>
+      </c>
+      <c r="J113" t="s">
         <v>569</v>
-      </c>
-      <c r="C113" t="s">
-        <v>504</v>
-      </c>
-      <c r="D113" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s">
-        <v>567</v>
-      </c>
-      <c r="H113" t="s">
-        <v>11</v>
-      </c>
-      <c r="I113" t="s">
-        <v>566</v>
-      </c>
-      <c r="J113" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B114" t="s">
         <v>477</v>
       </c>
       <c r="C114" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G114" t="s">
         <v>570</v>
       </c>
       <c r="H114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I114" t="s">
+        <v>571</v>
+      </c>
+      <c r="J114" t="s">
         <v>572</v>
-      </c>
-      <c r="J114" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B115" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C115" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I115" t="s">
         <v>575</v>
       </c>
       <c r="J115" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B116" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C116" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I116" t="s">
         <v>576</v>
       </c>
       <c r="J116" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B117" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C117" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I117" t="s">
         <v>580</v>
       </c>
       <c r="J117" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B118" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C118" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I118" t="s">
         <v>584</v>
       </c>
       <c r="J118" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B119" t="s">
+        <v>588</v>
+      </c>
+      <c r="C119" t="s">
+        <v>531</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>590</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" t="s">
         <v>591</v>
       </c>
-      <c r="C119" t="s">
-        <v>532</v>
-      </c>
-      <c r="D119" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" t="s">
-        <v>21</v>
-      </c>
-      <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="J119" t="s">
         <v>589</v>
-      </c>
-      <c r="H119" t="s">
-        <v>11</v>
-      </c>
-      <c r="I119" t="s">
-        <v>588</v>
-      </c>
-      <c r="J119" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B120" t="s">
+        <v>595</v>
+      </c>
+      <c r="C120" t="s">
+        <v>531</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
         <v>592</v>
       </c>
-      <c r="C120" t="s">
-        <v>532</v>
-      </c>
-      <c r="D120" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" t="s">
         <v>593</v>
-      </c>
-      <c r="H120" t="s">
-        <v>11</v>
-      </c>
-      <c r="I120" t="s">
-        <v>595</v>
       </c>
       <c r="J120" t="s">
         <v>594</v>
@@ -6013,95 +6013,95 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B121" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C121" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D121" t="s">
+        <v>597</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
         <v>600</v>
       </c>
-      <c r="E121" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s">
-        <v>596</v>
-      </c>
       <c r="H121" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I121" t="s">
         <v>601</v>
       </c>
       <c r="J121" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B122" t="s">
+        <v>604</v>
+      </c>
+      <c r="C122" t="s">
+        <v>508</v>
+      </c>
+      <c r="D122" t="s">
         <v>605</v>
       </c>
-      <c r="C122" t="s">
-        <v>504</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>602</v>
+      </c>
+      <c r="H122" t="s">
+        <v>146</v>
+      </c>
+      <c r="I122" t="s">
+        <v>603</v>
+      </c>
+      <c r="J122" t="s">
         <v>606</v>
-      </c>
-      <c r="E122" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s">
-        <v>603</v>
-      </c>
-      <c r="H122" t="s">
-        <v>144</v>
-      </c>
-      <c r="I122" t="s">
-        <v>602</v>
-      </c>
-      <c r="J122" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B123" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C123" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D123" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H123" t="s">
         <v>611</v>
       </c>
       <c r="I123" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J123" t="s">
         <v>612</v>
@@ -6109,34 +6109,34 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B124" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C124" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G124" t="s">
         <v>613</v>
       </c>
       <c r="H124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I124" t="s">
+        <v>614</v>
+      </c>
+      <c r="J124" t="s">
         <v>615</v>
-      </c>
-      <c r="J124" t="s">
-        <v>614</v>
       </c>
     </row>
   </sheetData>
